--- a/data/POPR.MI.xlsx
+++ b/data/POPR.MI.xlsx
@@ -44,28 +44,28 @@
     <t xml:space="preserve">POPR.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.202642530202866</t>
+    <t xml:space="preserve">0.202642515301704</t>
   </si>
   <si>
     <t xml:space="preserve">0.198315650224686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.196873337030411</t>
+    <t xml:space="preserve">0.196873351931572</t>
   </si>
   <si>
     <t xml:space="preserve">0.188219577074051</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194709911942482</t>
+    <t xml:space="preserve">0.194709897041321</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170912027359009</t>
+    <t xml:space="preserve">0.17091204226017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164421677589417</t>
+    <t xml:space="preserve">0.164421707391739</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17184953391552</t>
+    <t xml:space="preserve">0.171849519014359</t>
   </si>
   <si>
     <t xml:space="preserve">0.166585147380829</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">0.175238907337189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175960063934326</t>
+    <t xml:space="preserve">0.175960049033165</t>
   </si>
   <si>
     <t xml:space="preserve">0.173003345727921</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">0.16802741587162</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160455375909805</t>
+    <t xml:space="preserve">0.160455361008644</t>
   </si>
   <si>
     <t xml:space="preserve">0.160094827413559</t>
@@ -95,19 +95,19 @@
     <t xml:space="preserve">0.162979394197464</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159373670816422</t>
+    <t xml:space="preserve">0.15937365591526</t>
   </si>
   <si>
     <t xml:space="preserve">0.173363924026489</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195431038737297</t>
+    <t xml:space="preserve">0.195431053638458</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191392600536346</t>
+    <t xml:space="preserve">0.191392615437508</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187498420476913</t>
+    <t xml:space="preserve">0.187498405575752</t>
   </si>
   <si>
     <t xml:space="preserve">0.180286943912506</t>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">0.177402347326279</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171633154153824</t>
+    <t xml:space="preserve">0.171633183956146</t>
   </si>
   <si>
     <t xml:space="preserve">0.17862831056118</t>
@@ -128,37 +128,37 @@
     <t xml:space="preserve">0.182378277182579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.20343579351902</t>
+    <t xml:space="preserve">0.203435778617859</t>
   </si>
   <si>
-    <t xml:space="preserve">0.203363701701164</t>
+    <t xml:space="preserve">0.203363656997681</t>
   </si>
   <si>
     <t xml:space="preserve">0.196152210235596</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190383017063141</t>
+    <t xml:space="preserve">0.19038300216198</t>
   </si>
   <si>
     <t xml:space="preserve">0.216344341635704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.221031785011292</t>
+    <t xml:space="preserve">0.221031799912453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219950065016747</t>
+    <t xml:space="preserve">0.219950094819069</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211296305060387</t>
+    <t xml:space="preserve">0.211296319961548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.20841172337532</t>
+    <t xml:space="preserve">0.208411708474159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230767279863358</t>
+    <t xml:space="preserve">0.230767294764519</t>
   </si>
   <si>
-    <t xml:space="preserve">0.239421084523201</t>
+    <t xml:space="preserve">0.23942106962204</t>
   </si>
   <si>
     <t xml:space="preserve">0.230695188045502</t>
@@ -170,7 +170,7 @@
     <t xml:space="preserve">0.222834646701813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.205527126789093</t>
+    <t xml:space="preserve">0.205527096986771</t>
   </si>
   <si>
     <t xml:space="preserve">0.209132850170135</t>
@@ -179,16 +179,16 @@
     <t xml:space="preserve">0.194854140281677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193267598748207</t>
+    <t xml:space="preserve">0.193267613649368</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186777278780937</t>
+    <t xml:space="preserve">0.186777293682098</t>
   </si>
   <si>
     <t xml:space="preserve">0.17394083738327</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191104158759117</t>
+    <t xml:space="preserve">0.191104143857956</t>
   </si>
   <si>
     <t xml:space="preserve">0.180214822292328</t>
@@ -197,10 +197,10 @@
     <t xml:space="preserve">0.174517765641212</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176681220531464</t>
+    <t xml:space="preserve">0.176681205630302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180863857269287</t>
+    <t xml:space="preserve">0.180863872170448</t>
   </si>
   <si>
     <t xml:space="preserve">0.213459759950638</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">0.210575148463249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208483830094337</t>
+    <t xml:space="preserve">0.208483815193176</t>
   </si>
   <si>
     <t xml:space="preserve">0.191825315356255</t>
@@ -224,40 +224,40 @@
     <t xml:space="preserve">0.168748587369919</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173796609044075</t>
+    <t xml:space="preserve">0.173796623945236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170190885663033</t>
+    <t xml:space="preserve">0.170190870761871</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165864005684853</t>
+    <t xml:space="preserve">0.16586397588253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181729257106781</t>
+    <t xml:space="preserve">0.18172924220562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.189517632126808</t>
+    <t xml:space="preserve">0.189517647027969</t>
   </si>
   <si>
     <t xml:space="preserve">0.195791617035866</t>
   </si>
   <si>
-    <t xml:space="preserve">0.197594493627548</t>
+    <t xml:space="preserve">0.197594478726387</t>
   </si>
   <si>
-    <t xml:space="preserve">0.209493413567543</t>
+    <t xml:space="preserve">0.209493398666382</t>
   </si>
   <si>
     <t xml:space="preserve">0.230046138167381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222113505005836</t>
+    <t xml:space="preserve">0.222113519906998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.204373270273209</t>
+    <t xml:space="preserve">0.20437328517437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218868374824524</t>
+    <t xml:space="preserve">0.218868359923363</t>
   </si>
   <si>
     <t xml:space="preserve">0.230623036623001</t>
@@ -269,19 +269,19 @@
     <t xml:space="preserve">0.220022186636925</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229324996471405</t>
+    <t xml:space="preserve">0.229324966669083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244469091296196</t>
+    <t xml:space="preserve">0.244469076395035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248723864555359</t>
+    <t xml:space="preserve">0.24872387945652</t>
   </si>
   <si>
     <t xml:space="preserve">0.266824692487717</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273315012454987</t>
+    <t xml:space="preserve">0.273315042257309</t>
   </si>
   <si>
     <t xml:space="preserve">0.288459122180939</t>
@@ -296,46 +296,46 @@
     <t xml:space="preserve">0.333170294761658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342545211315155</t>
+    <t xml:space="preserve">0.342545181512833</t>
   </si>
   <si>
     <t xml:space="preserve">0.295670598745346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.298483073711395</t>
+    <t xml:space="preserve">0.298483043909073</t>
   </si>
   <si>
-    <t xml:space="preserve">0.28708890080452</t>
+    <t xml:space="preserve">0.287088930606842</t>
   </si>
   <si>
     <t xml:space="preserve">0.287016808986664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.278579384088516</t>
+    <t xml:space="preserve">0.278579413890839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.279084175825119</t>
+    <t xml:space="preserve">0.279084205627441</t>
   </si>
   <si>
     <t xml:space="preserve">0.279228419065475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.263218969106674</t>
+    <t xml:space="preserve">0.263218939304352</t>
   </si>
   <si>
     <t xml:space="preserve">0.268266975879669</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241584539413452</t>
+    <t xml:space="preserve">0.241584524512291</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237401843070984</t>
+    <t xml:space="preserve">0.237401857972145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243026822805405</t>
+    <t xml:space="preserve">0.243026807904243</t>
   </si>
   <si>
-    <t xml:space="preserve">0.239493176341057</t>
+    <t xml:space="preserve">0.239493161439896</t>
   </si>
   <si>
     <t xml:space="preserve">0.272593855857849</t>
@@ -344,22 +344,22 @@
     <t xml:space="preserve">0.281247645616531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.264805436134338</t>
+    <t xml:space="preserve">0.264805465936661</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261055469512939</t>
+    <t xml:space="preserve">0.261055499315262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.270430415868759</t>
+    <t xml:space="preserve">0.270430386066437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.259613215923309</t>
+    <t xml:space="preserve">0.259613186120987</t>
   </si>
   <si>
     <t xml:space="preserve">0.256007462739944</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248795986175537</t>
+    <t xml:space="preserve">0.248795971274376</t>
   </si>
   <si>
     <t xml:space="preserve">0.255142062902451</t>
@@ -368,64 +368,64 @@
     <t xml:space="preserve">0.244541242718697</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230839431285858</t>
+    <t xml:space="preserve">0.230839416384697</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234373018145561</t>
+    <t xml:space="preserve">0.234373033046722</t>
   </si>
   <si>
     <t xml:space="preserve">0.237257614731789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.236536473035812</t>
+    <t xml:space="preserve">0.236536487936974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237978771328926</t>
+    <t xml:space="preserve">0.237978756427765</t>
   </si>
   <si>
-    <t xml:space="preserve">0.239565283060074</t>
+    <t xml:space="preserve">0.239565297961235</t>
   </si>
   <si>
     <t xml:space="preserve">0.243171021342278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.258892029523849</t>
+    <t xml:space="preserve">0.258892059326172</t>
   </si>
   <si>
     <t xml:space="preserve">0.252257466316223</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253339201211929</t>
+    <t xml:space="preserve">0.253339231014252</t>
   </si>
   <si>
     <t xml:space="preserve">0.26329106092453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.268915981054306</t>
+    <t xml:space="preserve">0.268916010856628</t>
   </si>
   <si>
     <t xml:space="preserve">0.257593989372253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.252401739358902</t>
+    <t xml:space="preserve">0.25240170955658</t>
   </si>
   <si>
     <t xml:space="preserve">0.252113282680511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248868063092232</t>
+    <t xml:space="preserve">0.248868092894554</t>
   </si>
   <si>
-    <t xml:space="preserve">0.265382409095764</t>
+    <t xml:space="preserve">0.265382379293442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249012321233749</t>
+    <t xml:space="preserve">0.249012291431427</t>
   </si>
   <si>
     <t xml:space="preserve">0.256223827600479</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340958684682846</t>
+    <t xml:space="preserve">0.340958654880524</t>
   </si>
   <si>
     <t xml:space="preserve">0.403842747211456</t>
@@ -437,7 +437,7 @@
     <t xml:space="preserve">0.625956237316132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.547351181507111</t>
+    <t xml:space="preserve">0.547351241111755</t>
   </si>
   <si>
     <t xml:space="preserve">0.501197695732117</t>
@@ -452,13 +452,13 @@
     <t xml:space="preserve">0.418265700340271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47523632645607</t>
+    <t xml:space="preserve">0.475236356258392</t>
   </si>
   <si>
     <t xml:space="preserve">0.42151090502739</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429082959890366</t>
+    <t xml:space="preserve">0.429082989692688</t>
   </si>
   <si>
     <t xml:space="preserve">0.397352427244186</t>
@@ -470,7 +470,7 @@
     <t xml:space="preserve">0.36129504442215</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374636292457581</t>
+    <t xml:space="preserve">0.374636262655258</t>
   </si>
   <si>
     <t xml:space="preserve">0.383650630712509</t>
@@ -479,31 +479,31 @@
     <t xml:space="preserve">0.369227707386017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.400237023830414</t>
+    <t xml:space="preserve">0.400236994028091</t>
   </si>
   <si>
     <t xml:space="preserve">0.391583234071732</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374996840953827</t>
+    <t xml:space="preserve">0.374996811151505</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365261346101761</t>
+    <t xml:space="preserve">0.365261375904083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368506491184235</t>
+    <t xml:space="preserve">0.368506461381912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382208317518234</t>
+    <t xml:space="preserve">0.382208287715912</t>
   </si>
   <si>
     <t xml:space="preserve">0.378602564334869</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364179641008377</t>
+    <t xml:space="preserve">0.364179611206055</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372112214565277</t>
+    <t xml:space="preserve">0.372112244367599</t>
   </si>
   <si>
     <t xml:space="preserve">0.360573887825012</t>
@@ -512,19 +512,19 @@
     <t xml:space="preserve">0.357689261436462</t>
   </si>
   <si>
-    <t xml:space="preserve">0.384011209011078</t>
+    <t xml:space="preserve">0.3840112388134</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36490073800087</t>
+    <t xml:space="preserve">0.364900767803192</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363458514213562</t>
+    <t xml:space="preserve">0.36345848441124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.376799672842026</t>
+    <t xml:space="preserve">0.376799702644348</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370669960975647</t>
+    <t xml:space="preserve">0.370669931173325</t>
   </si>
   <si>
     <t xml:space="preserve">0.376439154148102</t>
@@ -533,7 +533,7 @@
     <t xml:space="preserve">0.346150934696198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356247007846832</t>
+    <t xml:space="preserve">0.35624697804451</t>
   </si>
   <si>
     <t xml:space="preserve">0.356896013021469</t>
@@ -542,13 +542,13 @@
     <t xml:space="preserve">0.36778536438942</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373554557561874</t>
+    <t xml:space="preserve">0.373554587364197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.411054253578186</t>
+    <t xml:space="preserve">0.411054193973541</t>
   </si>
   <si>
-    <t xml:space="preserve">0.389419823884964</t>
+    <t xml:space="preserve">0.389419794082642</t>
   </si>
   <si>
     <t xml:space="preserve">0.390140980482101</t>
@@ -560,7 +560,7 @@
     <t xml:space="preserve">0.387616962194443</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360934495925903</t>
+    <t xml:space="preserve">0.360934466123581</t>
   </si>
   <si>
     <t xml:space="preserve">0.376078546047211</t>
@@ -572,163 +572,163 @@
     <t xml:space="preserve">0.424034893512726</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423313736915588</t>
+    <t xml:space="preserve">0.423313766717911</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424756020307541</t>
+    <t xml:space="preserve">0.424756050109863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417183995246887</t>
+    <t xml:space="preserve">0.417183965444565</t>
   </si>
   <si>
-    <t xml:space="preserve">0.425477176904678</t>
+    <t xml:space="preserve">0.425477147102356</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395910173654556</t>
+    <t xml:space="preserve">0.395910143852234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40131875872612</t>
+    <t xml:space="preserve">0.401318728923798</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406727403402328</t>
+    <t xml:space="preserve">0.406727313995361</t>
   </si>
   <si>
     <t xml:space="preserve">0.421150296926498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446029841899872</t>
+    <t xml:space="preserve">0.446029901504517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.449275106191635</t>
+    <t xml:space="preserve">0.449275076389313</t>
   </si>
   <si>
-    <t xml:space="preserve">0.433409810066223</t>
+    <t xml:space="preserve">0.433409869670868</t>
   </si>
   <si>
     <t xml:space="preserve">0.432688683271408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444227010011673</t>
+    <t xml:space="preserve">0.444227039813995</t>
   </si>
   <si>
     <t xml:space="preserve">0.433049261569977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.468024909496307</t>
+    <t xml:space="preserve">0.468024849891663</t>
   </si>
   <si>
-    <t xml:space="preserve">0.475957542657852</t>
+    <t xml:space="preserve">0.47595751285553</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44999623298645</t>
+    <t xml:space="preserve">0.449996173381805</t>
   </si>
   <si>
-    <t xml:space="preserve">0.432328075170517</t>
+    <t xml:space="preserve">0.432328104972839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44350591301918</t>
+    <t xml:space="preserve">0.443505853414536</t>
   </si>
   <si>
-    <t xml:space="preserve">0.540860831737518</t>
+    <t xml:space="preserve">0.540860772132874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.504082322120667</t>
+    <t xml:space="preserve">0.504082262516022</t>
   </si>
   <si>
-    <t xml:space="preserve">0.519226431846619</t>
+    <t xml:space="preserve">0.519226372241974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497591972351074</t>
+    <t xml:space="preserve">0.497591942548752</t>
   </si>
   <si>
-    <t xml:space="preserve">0.502640008926392</t>
+    <t xml:space="preserve">0.502640068531036</t>
   </si>
   <si>
     <t xml:space="preserve">0.512014925479889</t>
   </si>
   <si>
-    <t xml:space="preserve">0.504803478717804</t>
+    <t xml:space="preserve">0.504803419113159</t>
   </si>
   <si>
     <t xml:space="preserve">0.484611302614212</t>
   </si>
   <si>
-    <t xml:space="preserve">0.487495899200439</t>
+    <t xml:space="preserve">0.487495929002762</t>
   </si>
   <si>
-    <t xml:space="preserve">0.483169078826904</t>
+    <t xml:space="preserve">0.483169049024582</t>
   </si>
   <si>
-    <t xml:space="preserve">0.470188289880753</t>
+    <t xml:space="preserve">0.470188409090042</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465861469507217</t>
+    <t xml:space="preserve">0.465861558914185</t>
   </si>
   <si>
-    <t xml:space="preserve">0.468746036291122</t>
+    <t xml:space="preserve">0.468746066093445</t>
   </si>
   <si>
     <t xml:space="preserve">0.474515229463577</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461534559726715</t>
+    <t xml:space="preserve">0.461534589529037</t>
   </si>
   <si>
-    <t xml:space="preserve">0.496149659156799</t>
+    <t xml:space="preserve">0.496149688959122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478842169046402</t>
+    <t xml:space="preserve">0.47884213924408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.530764818191528</t>
+    <t xml:space="preserve">0.530764758586884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.490380465984344</t>
+    <t xml:space="preserve">0.490380525588989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45864999294281</t>
+    <t xml:space="preserve">0.458649933338165</t>
   </si>
   <si>
     <t xml:space="preserve">0.480284363031387</t>
   </si>
   <si>
-    <t xml:space="preserve">0.486053645610809</t>
+    <t xml:space="preserve">0.486053615808487</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47163063287735</t>
+    <t xml:space="preserve">0.471630603075027</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457207679748535</t>
+    <t xml:space="preserve">0.457207709550858</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464419215917587</t>
+    <t xml:space="preserve">0.464419186115265</t>
   </si>
   <si>
-    <t xml:space="preserve">0.438457846641541</t>
+    <t xml:space="preserve">0.438457816839218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.439900130033493</t>
+    <t xml:space="preserve">0.439900189638138</t>
   </si>
   <si>
     <t xml:space="preserve">0.445669293403625</t>
   </si>
   <si>
-    <t xml:space="preserve">0.462976932525635</t>
+    <t xml:space="preserve">0.46297687292099</t>
   </si>
   <si>
     <t xml:space="preserve">0.494707375764847</t>
   </si>
   <si>
-    <t xml:space="preserve">0.481726706027985</t>
+    <t xml:space="preserve">0.481726735830307</t>
   </si>
   <si>
-    <t xml:space="preserve">0.467303812503815</t>
+    <t xml:space="preserve">0.467303693294525</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452880859375</t>
+    <t xml:space="preserve">0.452880829572678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.473072946071625</t>
+    <t xml:space="preserve">0.473072975873947</t>
   </si>
   <si>
     <t xml:space="preserve">0.460092276334763</t>
@@ -743,25 +743,25 @@
     <t xml:space="preserve">0.419708013534546</t>
   </si>
   <si>
-    <t xml:space="preserve">0.416823446750641</t>
+    <t xml:space="preserve">0.416823416948318</t>
   </si>
   <si>
-    <t xml:space="preserve">0.390862077474594</t>
+    <t xml:space="preserve">0.390862107276917</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377881407737732</t>
+    <t xml:space="preserve">0.377881467342377</t>
   </si>
   <si>
     <t xml:space="preserve">0.412496536970139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409611940383911</t>
+    <t xml:space="preserve">0.409611970186234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395188987255096</t>
+    <t xml:space="preserve">0.395188957452774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386535197496414</t>
+    <t xml:space="preserve">0.386535227298737</t>
   </si>
   <si>
     <t xml:space="preserve">0.387977480888367</t>
@@ -773,43 +773,43 @@
     <t xml:space="preserve">0.426919519901276</t>
   </si>
   <si>
-    <t xml:space="preserve">0.442784756422043</t>
+    <t xml:space="preserve">0.44278472661972</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405285060405731</t>
+    <t xml:space="preserve">0.405285030603409</t>
   </si>
   <si>
     <t xml:space="preserve">0.413938820362091</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434130966663361</t>
+    <t xml:space="preserve">0.434130936861038</t>
   </si>
   <si>
     <t xml:space="preserve">0.431246370077133</t>
   </si>
   <si>
-    <t xml:space="preserve">0.428361743688583</t>
+    <t xml:space="preserve">0.428361773490906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.441342443227768</t>
+    <t xml:space="preserve">0.441342413425446</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448553949594498</t>
+    <t xml:space="preserve">0.448553919792175</t>
   </si>
   <si>
     <t xml:space="preserve">0.45143848657608</t>
   </si>
   <si>
-    <t xml:space="preserve">0.486774802207947</t>
+    <t xml:space="preserve">0.48677471280098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493986219167709</t>
+    <t xml:space="preserve">0.493986248970032</t>
   </si>
   <si>
     <t xml:space="preserve">0.515620648860931</t>
   </si>
   <si>
-    <t xml:space="preserve">0.522832095623016</t>
+    <t xml:space="preserve">0.522832155227661</t>
   </si>
   <si>
     <t xml:space="preserve">0.53230482339859</t>
@@ -818,10 +818,10 @@
     <t xml:space="preserve">0.508470296859741</t>
   </si>
   <si>
-    <t xml:space="preserve">0.492580622434616</t>
+    <t xml:space="preserve">0.492580562829971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.476690977811813</t>
+    <t xml:space="preserve">0.476690918207169</t>
   </si>
   <si>
     <t xml:space="preserve">0.488608181476593</t>
@@ -833,16 +833,16 @@
     <t xml:space="preserve">0.504497826099396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.496553003787994</t>
+    <t xml:space="preserve">0.496553033590317</t>
   </si>
   <si>
     <t xml:space="preserve">0.480663359165192</t>
   </si>
   <si>
-    <t xml:space="preserve">0.460801154375076</t>
+    <t xml:space="preserve">0.460801184177399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.472718477249146</t>
+    <t xml:space="preserve">0.472718507051468</t>
   </si>
   <si>
     <t xml:space="preserve">0.444911509752274</t>
@@ -851,10 +851,10 @@
     <t xml:space="preserve">0.448883920907974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464773625135422</t>
+    <t xml:space="preserve">0.464773654937744</t>
   </si>
   <si>
-    <t xml:space="preserve">0.484635800123215</t>
+    <t xml:space="preserve">0.484635770320892</t>
   </si>
   <si>
     <t xml:space="preserve">0.512442708015442</t>
@@ -863,31 +863,31 @@
     <t xml:space="preserve">0.603808462619781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.516415119171143</t>
+    <t xml:space="preserve">0.516415178775787</t>
   </si>
   <si>
     <t xml:space="preserve">0.524360001087189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.520387530326843</t>
+    <t xml:space="preserve">0.520387589931488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.456828743219376</t>
+    <t xml:space="preserve">0.456828773021698</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45285639166832</t>
+    <t xml:space="preserve">0.452856332063675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436966687440872</t>
+    <t xml:space="preserve">0.43696665763855</t>
   </si>
   <si>
     <t xml:space="preserve">0.429021835327148</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413132101297379</t>
+    <t xml:space="preserve">0.413132131099701</t>
   </si>
   <si>
-    <t xml:space="preserve">0.425049394369125</t>
+    <t xml:space="preserve">0.425049424171448</t>
   </si>
   <si>
     <t xml:space="preserve">0.440939098596573</t>
@@ -896,10 +896,10 @@
     <t xml:space="preserve">0.421076953411102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.390886545181274</t>
+    <t xml:space="preserve">0.390886574983597</t>
   </si>
   <si>
-    <t xml:space="preserve">0.389297604560852</t>
+    <t xml:space="preserve">0.38929757475853</t>
   </si>
   <si>
     <t xml:space="preserve">0.405187249183655</t>
@@ -908,7 +908,7 @@
     <t xml:space="preserve">0.397242426872253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.381352722644806</t>
+    <t xml:space="preserve">0.381352692842484</t>
   </si>
   <si>
     <t xml:space="preserve">0.357518166303635</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">0.297137320041656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.319382935762405</t>
+    <t xml:space="preserve">0.319382905960083</t>
   </si>
   <si>
     <t xml:space="preserve">0.301904231309891</t>
@@ -932,7 +932,7 @@
     <t xml:space="preserve">0.313027024269104</t>
   </si>
   <si>
-    <t xml:space="preserve">0.300315231084824</t>
+    <t xml:space="preserve">0.300315260887146</t>
   </si>
   <si>
     <t xml:space="preserve">0.286014556884766</t>
@@ -947,10 +947,10 @@
     <t xml:space="preserve">0.328916728496552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311438053846359</t>
+    <t xml:space="preserve">0.311438083648682</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32097190618515</t>
+    <t xml:space="preserve">0.320971876382828</t>
   </si>
   <si>
     <t xml:space="preserve">0.322560846805573</t>
@@ -965,7 +965,7 @@
     <t xml:space="preserve">0.354340255260468</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387708604335785</t>
+    <t xml:space="preserve">0.387708634138107</t>
   </si>
   <si>
     <t xml:space="preserve">0.373407870531082</t>
@@ -974,22 +974,22 @@
     <t xml:space="preserve">0.367051988840103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394064456224442</t>
+    <t xml:space="preserve">0.394064486026764</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417104512453079</t>
+    <t xml:space="preserve">0.417104482650757</t>
   </si>
   <si>
-    <t xml:space="preserve">0.432994216680527</t>
+    <t xml:space="preserve">0.432994276285172</t>
   </si>
   <si>
-    <t xml:space="preserve">0.376585811376572</t>
+    <t xml:space="preserve">0.376585841178894</t>
   </si>
   <si>
     <t xml:space="preserve">0.379763752222061</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386119663715363</t>
+    <t xml:space="preserve">0.38611963391304</t>
   </si>
   <si>
     <t xml:space="preserve">0.401214838027954</t>
@@ -1001,13 +1001,13 @@
     <t xml:space="preserve">0.370229929685593</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37181892991066</t>
+    <t xml:space="preserve">0.371818900108337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368640959262848</t>
+    <t xml:space="preserve">0.36864098906517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365463018417358</t>
+    <t xml:space="preserve">0.365463078022003</t>
   </si>
   <si>
     <t xml:space="preserve">0.351162284612656</t>
@@ -1016,13 +1016,13 @@
     <t xml:space="preserve">0.363874047994614</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349573314189911</t>
+    <t xml:space="preserve">0.349573343992233</t>
   </si>
   <si>
     <t xml:space="preserve">0.341628462076187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32573875784874</t>
+    <t xml:space="preserve">0.325738787651062</t>
   </si>
   <si>
     <t xml:space="preserve">0.330505698919296</t>
@@ -1031,16 +1031,16 @@
     <t xml:space="preserve">0.303493201732635</t>
   </si>
   <si>
-    <t xml:space="preserve">0.306671172380447</t>
+    <t xml:space="preserve">0.306671142578125</t>
   </si>
   <si>
     <t xml:space="preserve">0.298726290464401</t>
   </si>
   <si>
-    <t xml:space="preserve">0.30508217215538</t>
+    <t xml:space="preserve">0.305082201957703</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309849113225937</t>
+    <t xml:space="preserve">0.309849053621292</t>
   </si>
   <si>
     <t xml:space="preserve">0.317793935537338</t>
@@ -1055,13 +1055,13 @@
     <t xml:space="preserve">0.332094669342041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493128508329391</t>
+    <t xml:space="preserve">0.493128478527069</t>
   </si>
   <si>
-    <t xml:space="preserve">0.458522945642471</t>
+    <t xml:space="preserve">0.458523005247116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.445545941591263</t>
+    <t xml:space="preserve">0.44554591178894</t>
   </si>
   <si>
     <t xml:space="preserve">0.43256887793541</t>
@@ -1076,19 +1076,19 @@
     <t xml:space="preserve">0.416996389627457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436894536018372</t>
+    <t xml:space="preserve">0.436894565820694</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429108291864395</t>
+    <t xml:space="preserve">0.429108321666718</t>
   </si>
   <si>
-    <t xml:space="preserve">0.418726682662964</t>
+    <t xml:space="preserve">0.418726652860641</t>
   </si>
   <si>
-    <t xml:space="preserve">0.401423871517181</t>
+    <t xml:space="preserve">0.401423931121826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.39450278878212</t>
+    <t xml:space="preserve">0.394502818584442</t>
   </si>
   <si>
     <t xml:space="preserve">0.392772525548935</t>
@@ -1100,34 +1100,34 @@
     <t xml:space="preserve">0.404884457588196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397963374853134</t>
+    <t xml:space="preserve">0.397963404655457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.403154194355011</t>
+    <t xml:space="preserve">0.403154164552689</t>
   </si>
   <si>
     <t xml:space="preserve">0.385851442813873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.384121149778366</t>
+    <t xml:space="preserve">0.384121179580688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.399693667888641</t>
+    <t xml:space="preserve">0.399693638086319</t>
   </si>
   <si>
     <t xml:space="preserve">0.501779854297638</t>
   </si>
   <si>
-    <t xml:space="preserve">0.471500039100647</t>
+    <t xml:space="preserve">0.471500098705292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.519082725048065</t>
+    <t xml:space="preserve">0.51908266544342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.510431230068207</t>
+    <t xml:space="preserve">0.510431289672852</t>
   </si>
   <si>
-    <t xml:space="preserve">0.506105542182922</t>
+    <t xml:space="preserve">0.506105601787567</t>
   </si>
   <si>
     <t xml:space="preserve">0.475825756788254</t>
@@ -1136,25 +1136,25 @@
     <t xml:space="preserve">0.462848722934723</t>
   </si>
   <si>
-    <t xml:space="preserve">0.449871569871902</t>
+    <t xml:space="preserve">0.449871629476547</t>
   </si>
   <si>
     <t xml:space="preserve">0.441220223903656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454197287559509</t>
+    <t xml:space="preserve">0.454197257757187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.467174381017685</t>
+    <t xml:space="preserve">0.467174410820007</t>
   </si>
   <si>
     <t xml:space="preserve">0.42737802863121</t>
   </si>
   <si>
-    <t xml:space="preserve">0.420456916093826</t>
+    <t xml:space="preserve">0.420456945896149</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406614750623703</t>
+    <t xml:space="preserve">0.406614720821381</t>
   </si>
   <si>
     <t xml:space="preserve">0.396233081817627</t>
@@ -1166,10 +1166,10 @@
     <t xml:space="preserve">0.425647795200348</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413535803556442</t>
+    <t xml:space="preserve">0.413535833358765</t>
   </si>
   <si>
-    <t xml:space="preserve">0.422187209129333</t>
+    <t xml:space="preserve">0.422187238931656</t>
   </si>
   <si>
     <t xml:space="preserve">0.41180557012558</t>
@@ -1178,31 +1178,31 @@
     <t xml:space="preserve">0.363357841968536</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344324856996536</t>
+    <t xml:space="preserve">0.344324827194214</t>
   </si>
   <si>
     <t xml:space="preserve">0.346055090427399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365088105201721</t>
+    <t xml:space="preserve">0.365088135004044</t>
   </si>
   <si>
     <t xml:space="preserve">0.366818398237228</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372009247541428</t>
+    <t xml:space="preserve">0.372009217739105</t>
   </si>
   <si>
     <t xml:space="preserve">0.375469744205475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378930330276489</t>
+    <t xml:space="preserve">0.378930300474167</t>
   </si>
   <si>
     <t xml:space="preserve">0.380660623311996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387581706047058</t>
+    <t xml:space="preserve">0.38758173584938</t>
   </si>
   <si>
     <t xml:space="preserve">0.377200067043304</t>
@@ -1223,7 +1223,7 @@
     <t xml:space="preserve">0.37027895450592</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36438712477684</t>
+    <t xml:space="preserve">0.364387094974518</t>
   </si>
   <si>
     <t xml:space="preserve">0.369825720787048</t>
@@ -1232,10 +1232,10 @@
     <t xml:space="preserve">0.360761374235153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366199970245361</t>
+    <t xml:space="preserve">0.366200000047684</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380702912807465</t>
+    <t xml:space="preserve">0.380702942609787</t>
   </si>
   <si>
     <t xml:space="preserve">0.38251581788063</t>
@@ -1256,13 +1256,13 @@
     <t xml:space="preserve">0.335381180047989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346258372068405</t>
+    <t xml:space="preserve">0.346258401870728</t>
   </si>
   <si>
     <t xml:space="preserve">0.362574249505997</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344445526599884</t>
+    <t xml:space="preserve">0.344445496797562</t>
   </si>
   <si>
     <t xml:space="preserve">0.342632651329041</t>
@@ -1271,7 +1271,7 @@
     <t xml:space="preserve">0.333568304777145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32450395822525</t>
+    <t xml:space="preserve">0.324503928422928</t>
   </si>
   <si>
     <t xml:space="preserve">0.329942554235458</t>
@@ -1280,19 +1280,19 @@
     <t xml:space="preserve">0.320878207683563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317252457141876</t>
+    <t xml:space="preserve">0.317252427339554</t>
   </si>
   <si>
-    <t xml:space="preserve">0.319065302610397</t>
+    <t xml:space="preserve">0.31906533241272</t>
   </si>
   <si>
-    <t xml:space="preserve">0.310000985860825</t>
+    <t xml:space="preserve">0.310000956058502</t>
   </si>
   <si>
     <t xml:space="preserve">0.322691082954407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311813831329346</t>
+    <t xml:space="preserve">0.311813861131668</t>
   </si>
   <si>
     <t xml:space="preserve">0.326316833496094</t>
@@ -1301,22 +1301,22 @@
     <t xml:space="preserve">0.328129678964615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.339006900787354</t>
+    <t xml:space="preserve">0.339006930589676</t>
   </si>
   <si>
     <t xml:space="preserve">0.340819776058197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353509843349457</t>
+    <t xml:space="preserve">0.353509873151779</t>
   </si>
   <si>
     <t xml:space="preserve">0.331755429506302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397018790245056</t>
+    <t xml:space="preserve">0.397018760442734</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387954413890839</t>
+    <t xml:space="preserve">0.387954443693161</t>
   </si>
   <si>
     <t xml:space="preserve">0.389767318964005</t>
@@ -1325,13 +1325,13 @@
     <t xml:space="preserve">0.391580194234848</t>
   </si>
   <si>
-    <t xml:space="preserve">0.384328693151474</t>
+    <t xml:space="preserve">0.384328663349152</t>
   </si>
   <si>
     <t xml:space="preserve">0.386141568422318</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40427029132843</t>
+    <t xml:space="preserve">0.404270261526108</t>
   </si>
   <si>
     <t xml:space="preserve">0.338870882987976</t>
@@ -57487,7 +57487,7 @@
     </row>
     <row r="2144">
       <c r="A2144" s="1" t="n">
-        <v>45447.3624189815</v>
+        <v>45447.2916666667</v>
       </c>
       <c r="B2144" t="n">
         <v>12000</v>
@@ -57508,6 +57508,32 @@
         <v>471</v>
       </c>
       <c r="H2144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" s="1" t="n">
+        <v>45448.4457291667</v>
+      </c>
+      <c r="B2145" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C2145" t="n">
+        <v>0.340000003576279</v>
+      </c>
+      <c r="D2145" t="n">
+        <v>0.340000003576279</v>
+      </c>
+      <c r="E2145" t="n">
+        <v>0.340000003576279</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>0.340000003576279</v>
+      </c>
+      <c r="G2145" t="s">
+        <v>471</v>
+      </c>
+      <c r="H2145" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/POPR.MI.xlsx
+++ b/data/POPR.MI.xlsx
@@ -47,22 +47,22 @@
     <t xml:space="preserve">0.202642515301704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.198315650224686</t>
+    <t xml:space="preserve">0.198315635323524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.19687332212925</t>
+    <t xml:space="preserve">0.196873337030411</t>
   </si>
   <si>
     <t xml:space="preserve">0.188219577074051</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194709911942482</t>
+    <t xml:space="preserve">0.194709926843643</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17091204226017</t>
+    <t xml:space="preserve">0.170912027359009</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164421677589417</t>
+    <t xml:space="preserve">0.164421692490578</t>
   </si>
   <si>
     <t xml:space="preserve">0.171849519014359</t>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">0.160455375909805</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160094827413559</t>
+    <t xml:space="preserve">0.160094812512398</t>
   </si>
   <si>
     <t xml:space="preserve">0.160527497529984</t>
@@ -95,22 +95,22 @@
     <t xml:space="preserve">0.162979394197464</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159373641014099</t>
+    <t xml:space="preserve">0.15937365591526</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173363924026489</t>
+    <t xml:space="preserve">0.173363909125328</t>
   </si>
   <si>
     <t xml:space="preserve">0.195431053638458</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191392600536346</t>
+    <t xml:space="preserve">0.191392615437508</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187498435378075</t>
+    <t xml:space="preserve">0.187498405575752</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180286958813667</t>
+    <t xml:space="preserve">0.180286943912506</t>
   </si>
   <si>
     <t xml:space="preserve">0.17740236222744</t>
@@ -122,7 +122,7 @@
     <t xml:space="preserve">0.178628295660019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184613823890686</t>
+    <t xml:space="preserve">0.184613838791847</t>
   </si>
   <si>
     <t xml:space="preserve">0.182378277182579</t>
@@ -134,106 +134,106 @@
     <t xml:space="preserve">0.203363701701164</t>
   </si>
   <si>
-    <t xml:space="preserve">0.196152210235596</t>
+    <t xml:space="preserve">0.196152195334435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190383017063141</t>
+    <t xml:space="preserve">0.19038300216198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.216344326734543</t>
+    <t xml:space="preserve">0.216344341635704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.22103177011013</t>
+    <t xml:space="preserve">0.221031799912453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219950065016747</t>
+    <t xml:space="preserve">0.219950079917908</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211296290159225</t>
+    <t xml:space="preserve">0.211296305060387</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208411708474159</t>
+    <t xml:space="preserve">0.208411693572998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23076730966568</t>
+    <t xml:space="preserve">0.230767264962196</t>
   </si>
   <si>
     <t xml:space="preserve">0.239421054720879</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230695158243179</t>
+    <t xml:space="preserve">0.230695188045502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.22571924328804</t>
+    <t xml:space="preserve">0.225719258189201</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222834631800652</t>
+    <t xml:space="preserve">0.222834676504135</t>
   </si>
   <si>
     <t xml:space="preserve">0.205527126789093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.209132850170135</t>
+    <t xml:space="preserve">0.209132865071297</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194854140281677</t>
+    <t xml:space="preserve">0.194854125380516</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193267598748207</t>
+    <t xml:space="preserve">0.193267613649368</t>
   </si>
   <si>
     <t xml:space="preserve">0.186777278780937</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17394083738327</t>
+    <t xml:space="preserve">0.173940852284431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191104173660278</t>
+    <t xml:space="preserve">0.191104143857956</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180214822292328</t>
+    <t xml:space="preserve">0.180214837193489</t>
   </si>
   <si>
     <t xml:space="preserve">0.174517750740051</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176681220531464</t>
+    <t xml:space="preserve">0.176681205630302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180863872170448</t>
+    <t xml:space="preserve">0.180863887071609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.213459745049477</t>
+    <t xml:space="preserve">0.213459759950638</t>
   </si>
   <si>
     <t xml:space="preserve">0.215623199939728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21057516336441</t>
+    <t xml:space="preserve">0.210575148463249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208483815193176</t>
+    <t xml:space="preserve">0.208483800292015</t>
   </si>
   <si>
     <t xml:space="preserve">0.191825315356255</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183892667293549</t>
+    <t xml:space="preserve">0.183892697095871</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168748572468758</t>
+    <t xml:space="preserve">0.168748557567596</t>
   </si>
   <si>
     <t xml:space="preserve">0.173796609044075</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170190885663033</t>
+    <t xml:space="preserve">0.170190870761871</t>
   </si>
   <si>
     <t xml:space="preserve">0.165864005684853</t>
   </si>
   <si>
-    <t xml:space="preserve">0.18172924220562</t>
+    <t xml:space="preserve">0.181729227304459</t>
   </si>
   <si>
     <t xml:space="preserve">0.189517632126808</t>
@@ -242,7 +242,7 @@
     <t xml:space="preserve">0.195791617035866</t>
   </si>
   <si>
-    <t xml:space="preserve">0.197594493627548</t>
+    <t xml:space="preserve">0.197594478726387</t>
   </si>
   <si>
     <t xml:space="preserve">0.209493428468704</t>
@@ -251,31 +251,31 @@
     <t xml:space="preserve">0.230046153068542</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222113519906998</t>
+    <t xml:space="preserve">0.222113490104675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.204373270273209</t>
+    <t xml:space="preserve">0.20437328517437</t>
   </si>
   <si>
     <t xml:space="preserve">0.21886833012104</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230623066425323</t>
+    <t xml:space="preserve">0.230623051524162</t>
   </si>
   <si>
-    <t xml:space="preserve">0.22355580329895</t>
+    <t xml:space="preserve">0.223555818200111</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220022201538086</t>
+    <t xml:space="preserve">0.220022171735764</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229324996471405</t>
+    <t xml:space="preserve">0.229324981570244</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244469091296196</t>
+    <t xml:space="preserve">0.244469076395035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248723894357681</t>
+    <t xml:space="preserve">0.248723909258842</t>
   </si>
   <si>
     <t xml:space="preserve">0.266824692487717</t>
@@ -284,22 +284,22 @@
     <t xml:space="preserve">0.273314982652664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.288459092378616</t>
+    <t xml:space="preserve">0.288459122180939</t>
   </si>
   <si>
-    <t xml:space="preserve">0.306487828493118</t>
+    <t xml:space="preserve">0.306487798690796</t>
   </si>
   <si>
-    <t xml:space="preserve">0.315862715244293</t>
+    <t xml:space="preserve">0.315862685441971</t>
   </si>
   <si>
     <t xml:space="preserve">0.333170264959335</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342545181512833</t>
+    <t xml:space="preserve">0.342545211315155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.295670598745346</t>
+    <t xml:space="preserve">0.295670568943024</t>
   </si>
   <si>
     <t xml:space="preserve">0.298483073711395</t>
@@ -308,10 +308,10 @@
     <t xml:space="preserve">0.287088930606842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.287016808986664</t>
+    <t xml:space="preserve">0.287016838788986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.278579384088516</t>
+    <t xml:space="preserve">0.278579413890839</t>
   </si>
   <si>
     <t xml:space="preserve">0.279084175825119</t>
@@ -320,7 +320,7 @@
     <t xml:space="preserve">0.279228419065475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.263218909502029</t>
+    <t xml:space="preserve">0.263218939304352</t>
   </si>
   <si>
     <t xml:space="preserve">0.268266975879669</t>
@@ -329,25 +329,25 @@
     <t xml:space="preserve">0.24158450961113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237401872873306</t>
+    <t xml:space="preserve">0.237401843070984</t>
   </si>
   <si>
     <t xml:space="preserve">0.243026822805405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.239493146538734</t>
+    <t xml:space="preserve">0.239493176341057</t>
   </si>
   <si>
     <t xml:space="preserve">0.272593855857849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.281247645616531</t>
+    <t xml:space="preserve">0.281247615814209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.264805465936661</t>
+    <t xml:space="preserve">0.264805436134338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261055469512939</t>
+    <t xml:space="preserve">0.261055499315262</t>
   </si>
   <si>
     <t xml:space="preserve">0.270430415868759</t>
@@ -356,67 +356,67 @@
     <t xml:space="preserve">0.259613215923309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.256007462739944</t>
+    <t xml:space="preserve">0.256007432937622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248795971274376</t>
+    <t xml:space="preserve">0.248796001076698</t>
   </si>
   <si>
-    <t xml:space="preserve">0.255142062902451</t>
+    <t xml:space="preserve">0.255142092704773</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244541183114052</t>
+    <t xml:space="preserve">0.244541198015213</t>
   </si>
   <si>
     <t xml:space="preserve">0.230839416384697</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234373033046722</t>
+    <t xml:space="preserve">0.234372988343239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237257644534111</t>
+    <t xml:space="preserve">0.23725762963295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.236536473035812</t>
+    <t xml:space="preserve">0.236536458134651</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237978771328926</t>
+    <t xml:space="preserve">0.237978756427765</t>
   </si>
   <si>
-    <t xml:space="preserve">0.239565297961235</t>
+    <t xml:space="preserve">0.239565312862396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243171021342278</t>
+    <t xml:space="preserve">0.2431710511446</t>
   </si>
   <si>
-    <t xml:space="preserve">0.258892029523849</t>
+    <t xml:space="preserve">0.258892059326172</t>
   </si>
   <si>
-    <t xml:space="preserve">0.252257466316223</t>
+    <t xml:space="preserve">0.252257496118546</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253339201211929</t>
+    <t xml:space="preserve">0.253339231014252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.263291031122208</t>
+    <t xml:space="preserve">0.26329106092453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.268916010856628</t>
+    <t xml:space="preserve">0.268916040658951</t>
   </si>
   <si>
     <t xml:space="preserve">0.257593989372253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.252401739358902</t>
+    <t xml:space="preserve">0.25240170955658</t>
   </si>
   <si>
     <t xml:space="preserve">0.252113252878189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248868063092232</t>
+    <t xml:space="preserve">0.248868107795715</t>
   </si>
   <si>
-    <t xml:space="preserve">0.265382379293442</t>
+    <t xml:space="preserve">0.265382409095764</t>
   </si>
   <si>
     <t xml:space="preserve">0.249012321233749</t>
@@ -434,7 +434,7 @@
     <t xml:space="preserve">0.533649384975433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.625956237316132</t>
+    <t xml:space="preserve">0.625956296920776</t>
   </si>
   <si>
     <t xml:space="preserve">0.547351181507111</t>
@@ -443,25 +443,25 @@
     <t xml:space="preserve">0.501197695732117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.484250754117966</t>
+    <t xml:space="preserve">0.484250694513321</t>
   </si>
   <si>
     <t xml:space="preserve">0.454323083162308</t>
   </si>
   <si>
-    <t xml:space="preserve">0.418265700340271</t>
+    <t xml:space="preserve">0.418265730142593</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47523632645607</t>
+    <t xml:space="preserve">0.475236386060715</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421510875225067</t>
+    <t xml:space="preserve">0.421510845422745</t>
   </si>
   <si>
     <t xml:space="preserve">0.429082959890366</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397352457046509</t>
+    <t xml:space="preserve">0.397352397441864</t>
   </si>
   <si>
     <t xml:space="preserve">0.373915106058121</t>
@@ -470,13 +470,13 @@
     <t xml:space="preserve">0.361295014619827</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374636292457581</t>
+    <t xml:space="preserve">0.374636262655258</t>
   </si>
   <si>
     <t xml:space="preserve">0.383650630712509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369227647781372</t>
+    <t xml:space="preserve">0.369227677583694</t>
   </si>
   <si>
     <t xml:space="preserve">0.400237023830414</t>
@@ -485,61 +485,61 @@
     <t xml:space="preserve">0.391583234071732</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374996870756149</t>
+    <t xml:space="preserve">0.374996811151505</t>
   </si>
   <si>
     <t xml:space="preserve">0.365261346101761</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368506491184235</t>
+    <t xml:space="preserve">0.368506520986557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382208347320557</t>
+    <t xml:space="preserve">0.382208287715912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378602534532547</t>
+    <t xml:space="preserve">0.378602564334869</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364179611206055</t>
+    <t xml:space="preserve">0.364179641008377</t>
   </si>
   <si>
     <t xml:space="preserve">0.372112244367599</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360573917627335</t>
+    <t xml:space="preserve">0.360573887825012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357689261436462</t>
+    <t xml:space="preserve">0.357689291238785</t>
   </si>
   <si>
     <t xml:space="preserve">0.3840112388134</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36490073800087</t>
+    <t xml:space="preserve">0.364900767803192</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36345848441124</t>
+    <t xml:space="preserve">0.363458454608917</t>
   </si>
   <si>
-    <t xml:space="preserve">0.376799702644348</t>
+    <t xml:space="preserve">0.376799672842026</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370669990777969</t>
+    <t xml:space="preserve">0.370669931173325</t>
   </si>
   <si>
     <t xml:space="preserve">0.376439154148102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346150934696198</t>
+    <t xml:space="preserve">0.34615096449852</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356247007846832</t>
+    <t xml:space="preserve">0.35624697804451</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356896042823792</t>
+    <t xml:space="preserve">0.356896013021469</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367785334587097</t>
+    <t xml:space="preserve">0.367785394191742</t>
   </si>
   <si>
     <t xml:space="preserve">0.373554557561874</t>
@@ -548,43 +548,43 @@
     <t xml:space="preserve">0.411054253578186</t>
   </si>
   <si>
-    <t xml:space="preserve">0.389419823884964</t>
+    <t xml:space="preserve">0.389419853687286</t>
   </si>
   <si>
-    <t xml:space="preserve">0.390140950679779</t>
+    <t xml:space="preserve">0.390140920877457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366343080997467</t>
+    <t xml:space="preserve">0.366343110799789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387616991996765</t>
+    <t xml:space="preserve">0.387616962194443</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360934495925903</t>
+    <t xml:space="preserve">0.360934466123581</t>
   </si>
   <si>
-    <t xml:space="preserve">0.376078575849533</t>
+    <t xml:space="preserve">0.376078546047211</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4471116065979</t>
+    <t xml:space="preserve">0.447111636400223</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424034893512726</t>
+    <t xml:space="preserve">0.424034863710403</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423313796520233</t>
+    <t xml:space="preserve">0.423313766717911</t>
   </si>
   <si>
     <t xml:space="preserve">0.424756020307541</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417183965444565</t>
+    <t xml:space="preserve">0.417183935642242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.425477176904678</t>
+    <t xml:space="preserve">0.425477147102356</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395910114049911</t>
+    <t xml:space="preserve">0.395910143852234</t>
   </si>
   <si>
     <t xml:space="preserve">0.401318728923798</t>
@@ -593,7 +593,7 @@
     <t xml:space="preserve">0.406727403402328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421150326728821</t>
+    <t xml:space="preserve">0.421150296926498</t>
   </si>
   <si>
     <t xml:space="preserve">0.446029931306839</t>
@@ -602,148 +602,148 @@
     <t xml:space="preserve">0.449275076389313</t>
   </si>
   <si>
-    <t xml:space="preserve">0.433409810066223</t>
+    <t xml:space="preserve">0.433409780263901</t>
   </si>
   <si>
-    <t xml:space="preserve">0.432688653469086</t>
+    <t xml:space="preserve">0.432688683271408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444227039813995</t>
+    <t xml:space="preserve">0.444226980209351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.433049261569977</t>
+    <t xml:space="preserve">0.433049201965332</t>
   </si>
   <si>
-    <t xml:space="preserve">0.468024909496307</t>
+    <t xml:space="preserve">0.468024879693985</t>
   </si>
   <si>
-    <t xml:space="preserve">0.475957542657852</t>
+    <t xml:space="preserve">0.47595751285553</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44999623298645</t>
+    <t xml:space="preserve">0.449996262788773</t>
   </si>
   <si>
     <t xml:space="preserve">0.432328104972839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.443505883216858</t>
+    <t xml:space="preserve">0.44350591301918</t>
   </si>
   <si>
     <t xml:space="preserve">0.540860831737518</t>
   </si>
   <si>
-    <t xml:space="preserve">0.504082322120667</t>
+    <t xml:space="preserve">0.504082262516022</t>
   </si>
   <si>
     <t xml:space="preserve">0.519226431846619</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497591942548752</t>
+    <t xml:space="preserve">0.497592002153397</t>
   </si>
   <si>
     <t xml:space="preserve">0.502640008926392</t>
   </si>
   <si>
-    <t xml:space="preserve">0.512014925479889</t>
+    <t xml:space="preserve">0.512014865875244</t>
   </si>
   <si>
-    <t xml:space="preserve">0.504803478717804</t>
+    <t xml:space="preserve">0.504803419113159</t>
   </si>
   <si>
     <t xml:space="preserve">0.484611302614212</t>
   </si>
   <si>
-    <t xml:space="preserve">0.487495899200439</t>
+    <t xml:space="preserve">0.487495869398117</t>
   </si>
   <si>
     <t xml:space="preserve">0.48316901922226</t>
   </si>
   <si>
-    <t xml:space="preserve">0.470188349485397</t>
+    <t xml:space="preserve">0.47018837928772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465861469507217</t>
+    <t xml:space="preserve">0.46586149930954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.468746066093445</t>
+    <t xml:space="preserve">0.468745976686478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474515289068222</t>
+    <t xml:space="preserve">0.4745152592659</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46153461933136</t>
+    <t xml:space="preserve">0.461534529924393</t>
   </si>
   <si>
-    <t xml:space="preserve">0.496149659156799</t>
+    <t xml:space="preserve">0.496149718761444</t>
   </si>
   <si>
     <t xml:space="preserve">0.478842109441757</t>
   </si>
   <si>
-    <t xml:space="preserve">0.530764758586884</t>
+    <t xml:space="preserve">0.530764818191528</t>
   </si>
   <si>
-    <t xml:space="preserve">0.490380465984344</t>
+    <t xml:space="preserve">0.490380525588989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45864999294281</t>
+    <t xml:space="preserve">0.458649963140488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.480284422636032</t>
+    <t xml:space="preserve">0.48028439283371</t>
   </si>
   <si>
     <t xml:space="preserve">0.486053645610809</t>
   </si>
   <si>
-    <t xml:space="preserve">0.471630692481995</t>
+    <t xml:space="preserve">0.47163063287735</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457207679748535</t>
+    <t xml:space="preserve">0.457207649946213</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464419215917587</t>
+    <t xml:space="preserve">0.464419156312943</t>
   </si>
   <si>
-    <t xml:space="preserve">0.438457846641541</t>
+    <t xml:space="preserve">0.438457876443863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.439900130033493</t>
+    <t xml:space="preserve">0.439900159835815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.445669263601303</t>
+    <t xml:space="preserve">0.44566935300827</t>
   </si>
   <si>
     <t xml:space="preserve">0.462976932525635</t>
   </si>
   <si>
-    <t xml:space="preserve">0.494707375764847</t>
+    <t xml:space="preserve">0.494707345962524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.481726765632629</t>
+    <t xml:space="preserve">0.481726735830307</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46730375289917</t>
+    <t xml:space="preserve">0.467303782701492</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452880769968033</t>
+    <t xml:space="preserve">0.452880829572678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.473072946071625</t>
+    <t xml:space="preserve">0.473072916269302</t>
   </si>
   <si>
     <t xml:space="preserve">0.460092306137085</t>
   </si>
   <si>
-    <t xml:space="preserve">0.477399826049805</t>
+    <t xml:space="preserve">0.477399796247482</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415381073951721</t>
+    <t xml:space="preserve">0.415381103754044</t>
   </si>
   <si>
     <t xml:space="preserve">0.419708043336868</t>
   </si>
   <si>
-    <t xml:space="preserve">0.416823416948318</t>
+    <t xml:space="preserve">0.416823387145996</t>
   </si>
   <si>
     <t xml:space="preserve">0.390862107276917</t>
@@ -752,37 +752,37 @@
     <t xml:space="preserve">0.377881437540054</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412496507167816</t>
+    <t xml:space="preserve">0.412496536970139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409611970186234</t>
+    <t xml:space="preserve">0.409611940383911</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395188987255096</t>
+    <t xml:space="preserve">0.395188957452774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386535197496414</t>
+    <t xml:space="preserve">0.386535227298737</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387977451086044</t>
+    <t xml:space="preserve">0.387977510690689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.396631300449371</t>
+    <t xml:space="preserve">0.396631270647049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.426919490098953</t>
+    <t xml:space="preserve">0.426919519901276</t>
   </si>
   <si>
-    <t xml:space="preserve">0.442784696817398</t>
+    <t xml:space="preserve">0.442784786224365</t>
   </si>
   <si>
     <t xml:space="preserve">0.405285030603409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413938850164413</t>
+    <t xml:space="preserve">0.413938820362091</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434130966663361</t>
+    <t xml:space="preserve">0.434130936861038</t>
   </si>
   <si>
     <t xml:space="preserve">0.431246399879456</t>
@@ -791,70 +791,67 @@
     <t xml:space="preserve">0.428361773490906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.441342413425446</t>
+    <t xml:space="preserve">0.441342443227768</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448553889989853</t>
+    <t xml:space="preserve">0.448553919792175</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45143848657608</t>
+    <t xml:space="preserve">0.451438516378403</t>
   </si>
   <si>
-    <t xml:space="preserve">0.486774802207947</t>
+    <t xml:space="preserve">0.486774772405624</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493986219167709</t>
+    <t xml:space="preserve">0.493986278772354</t>
   </si>
   <si>
-    <t xml:space="preserve">0.515620648860931</t>
+    <t xml:space="preserve">0.515620589256287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.522832095623016</t>
+    <t xml:space="preserve">0.522832155227661</t>
   </si>
   <si>
-    <t xml:space="preserve">0.53230482339859</t>
+    <t xml:space="preserve">0.532304883003235</t>
   </si>
   <si>
-    <t xml:space="preserve">0.508470356464386</t>
+    <t xml:space="preserve">0.508470237255096</t>
   </si>
   <si>
-    <t xml:space="preserve">0.492580562829971</t>
+    <t xml:space="preserve">0.492580622434616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.476690918207169</t>
+    <t xml:space="preserve">0.476690948009491</t>
   </si>
   <si>
-    <t xml:space="preserve">0.488608181476593</t>
+    <t xml:space="preserve">0.488608211278915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.500525414943695</t>
+    <t xml:space="preserve">0.50052547454834</t>
   </si>
   <si>
-    <t xml:space="preserve">0.504497826099396</t>
+    <t xml:space="preserve">0.504497885704041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.496552973985672</t>
+    <t xml:space="preserve">0.496553033590317</t>
   </si>
   <si>
-    <t xml:space="preserve">0.480663359165192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.468746036291122</t>
+    <t xml:space="preserve">0.480663329362869</t>
   </si>
   <si>
     <t xml:space="preserve">0.460801184177399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.472718507051468</t>
+    <t xml:space="preserve">0.472718477249146</t>
   </si>
   <si>
     <t xml:space="preserve">0.444911509752274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448883950710297</t>
+    <t xml:space="preserve">0.448883920907974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464773625135422</t>
+    <t xml:space="preserve">0.464773595333099</t>
   </si>
   <si>
     <t xml:space="preserve">0.48463574051857</t>
@@ -863,52 +860,52 @@
     <t xml:space="preserve">0.512442708015442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.603808522224426</t>
+    <t xml:space="preserve">0.603808403015137</t>
   </si>
   <si>
-    <t xml:space="preserve">0.516415178775787</t>
+    <t xml:space="preserve">0.516415119171143</t>
   </si>
   <si>
     <t xml:space="preserve">0.524360001087189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.520387589931488</t>
+    <t xml:space="preserve">0.520387530326843</t>
   </si>
   <si>
-    <t xml:space="preserve">0.456828743219376</t>
+    <t xml:space="preserve">0.45682880282402</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452856361865997</t>
+    <t xml:space="preserve">0.45285639166832</t>
   </si>
   <si>
     <t xml:space="preserve">0.43696665763855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429021835327148</t>
+    <t xml:space="preserve">0.429021865129471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413132131099701</t>
+    <t xml:space="preserve">0.413132101297379</t>
   </si>
   <si>
-    <t xml:space="preserve">0.425049424171448</t>
+    <t xml:space="preserve">0.425049394369125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44093906879425</t>
+    <t xml:space="preserve">0.440939098596573</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421076983213425</t>
+    <t xml:space="preserve">0.42107692360878</t>
   </si>
   <si>
     <t xml:space="preserve">0.390886545181274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.389297604560852</t>
+    <t xml:space="preserve">0.38929757475853</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405187219381332</t>
+    <t xml:space="preserve">0.405187278985977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397242426872253</t>
+    <t xml:space="preserve">0.397242397069931</t>
   </si>
   <si>
     <t xml:space="preserve">0.381352692842484</t>
@@ -920,22 +917,25 @@
     <t xml:space="preserve">0.360696107149124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333683639764786</t>
+    <t xml:space="preserve">0.333683609962463</t>
   </si>
   <si>
-    <t xml:space="preserve">0.297137349843979</t>
+    <t xml:space="preserve">0.297137320041656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.319382935762405</t>
+    <t xml:space="preserve">0.319382876157761</t>
   </si>
   <si>
-    <t xml:space="preserve">0.301904261112213</t>
+    <t xml:space="preserve">0.301904201507568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.313027024269104</t>
+    <t xml:space="preserve">0.313026994466782</t>
   </si>
   <si>
-    <t xml:space="preserve">0.300315260887146</t>
+    <t xml:space="preserve">0.300315290689468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.281247645616531</t>
   </si>
   <si>
     <t xml:space="preserve">0.286014556884766</t>
@@ -944,25 +944,25 @@
     <t xml:space="preserve">0.279658645391464</t>
   </si>
   <si>
-    <t xml:space="preserve">0.327327728271484</t>
+    <t xml:space="preserve">0.327327758073807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.328916698694229</t>
+    <t xml:space="preserve">0.328916728496552</t>
   </si>
   <si>
     <t xml:space="preserve">0.311438053846359</t>
   </si>
   <si>
-    <t xml:space="preserve">0.320971876382828</t>
+    <t xml:space="preserve">0.32097190618515</t>
   </si>
   <si>
     <t xml:space="preserve">0.322560846805573</t>
   </si>
   <si>
-    <t xml:space="preserve">0.33845055103302</t>
+    <t xml:space="preserve">0.338450521230698</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347984343767166</t>
+    <t xml:space="preserve">0.347984313964844</t>
   </si>
   <si>
     <t xml:space="preserve">0.354340255260468</t>
@@ -971,64 +971,64 @@
     <t xml:space="preserve">0.387708604335785</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373407870531082</t>
+    <t xml:space="preserve">0.373407900333405</t>
   </si>
   <si>
     <t xml:space="preserve">0.367051988840103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394064456224442</t>
+    <t xml:space="preserve">0.394064486026764</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417104512453079</t>
+    <t xml:space="preserve">0.417104542255402</t>
   </si>
   <si>
     <t xml:space="preserve">0.432994246482849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.376585841178894</t>
+    <t xml:space="preserve">0.376585811376572</t>
   </si>
   <si>
     <t xml:space="preserve">0.379763752222061</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38611963391304</t>
+    <t xml:space="preserve">0.386119604110718</t>
   </si>
   <si>
-    <t xml:space="preserve">0.401214808225632</t>
+    <t xml:space="preserve">0.401214838027954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395653456449509</t>
+    <t xml:space="preserve">0.395653426647186</t>
   </si>
   <si>
     <t xml:space="preserve">0.370229929685593</t>
   </si>
   <si>
-    <t xml:space="preserve">0.371818900108337</t>
+    <t xml:space="preserve">0.371818870306015</t>
   </si>
   <si>
     <t xml:space="preserve">0.36864098906517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365463048219681</t>
+    <t xml:space="preserve">0.365463018417358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.351162284612656</t>
+    <t xml:space="preserve">0.351162314414978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363874047994614</t>
+    <t xml:space="preserve">0.363874077796936</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349573314189911</t>
+    <t xml:space="preserve">0.349573343992233</t>
   </si>
   <si>
     <t xml:space="preserve">0.34162849187851</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32573875784874</t>
+    <t xml:space="preserve">0.325738787651062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.330505728721619</t>
+    <t xml:space="preserve">0.330505698919296</t>
   </si>
   <si>
     <t xml:space="preserve">0.303493201732635</t>
@@ -1037,34 +1037,34 @@
     <t xml:space="preserve">0.306671142578125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.298726320266724</t>
+    <t xml:space="preserve">0.298726290464401</t>
   </si>
   <si>
-    <t xml:space="preserve">0.30508217215538</t>
+    <t xml:space="preserve">0.305082201957703</t>
   </si>
   <si>
     <t xml:space="preserve">0.309849083423615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317793905735016</t>
+    <t xml:space="preserve">0.317793965339661</t>
   </si>
   <si>
     <t xml:space="preserve">0.335272610187531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340039521455765</t>
+    <t xml:space="preserve">0.340039551258087</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332094699144363</t>
+    <t xml:space="preserve">0.332094669342041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493128478527069</t>
+    <t xml:space="preserve">0.493128538131714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.458523005247116</t>
+    <t xml:space="preserve">0.458522975444794</t>
   </si>
   <si>
-    <t xml:space="preserve">0.445545941591263</t>
+    <t xml:space="preserve">0.445545881986618</t>
   </si>
   <si>
     <t xml:space="preserve">0.43256887793541</t>
@@ -1073,34 +1073,34 @@
     <t xml:space="preserve">0.415266096591949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423917502164841</t>
+    <t xml:space="preserve">0.423917472362518</t>
   </si>
   <si>
-    <t xml:space="preserve">0.416996389627457</t>
+    <t xml:space="preserve">0.416996359825134</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436894536018372</t>
+    <t xml:space="preserve">0.436894565820694</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429108291864395</t>
+    <t xml:space="preserve">0.429108321666718</t>
   </si>
   <si>
-    <t xml:space="preserve">0.418726682662964</t>
+    <t xml:space="preserve">0.418726652860641</t>
   </si>
   <si>
     <t xml:space="preserve">0.401423901319504</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394502818584442</t>
+    <t xml:space="preserve">0.39450278878212</t>
   </si>
   <si>
     <t xml:space="preserve">0.392772525548935</t>
   </si>
   <si>
-    <t xml:space="preserve">0.389311969280243</t>
+    <t xml:space="preserve">0.389311999082565</t>
   </si>
   <si>
-    <t xml:space="preserve">0.404884427785873</t>
+    <t xml:space="preserve">0.404884457588196</t>
   </si>
   <si>
     <t xml:space="preserve">0.397963374853134</t>
@@ -1112,22 +1112,22 @@
     <t xml:space="preserve">0.385851442813873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.384121149778366</t>
+    <t xml:space="preserve">0.384121179580688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.399693667888641</t>
+    <t xml:space="preserve">0.399693638086319</t>
   </si>
   <si>
-    <t xml:space="preserve">0.501779854297638</t>
+    <t xml:space="preserve">0.501779913902283</t>
   </si>
   <si>
-    <t xml:space="preserve">0.471500098705292</t>
+    <t xml:space="preserve">0.471500068902969</t>
   </si>
   <si>
-    <t xml:space="preserve">0.51908266544342</t>
+    <t xml:space="preserve">0.519082605838776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.510431289672852</t>
+    <t xml:space="preserve">0.510431230068207</t>
   </si>
   <si>
     <t xml:space="preserve">0.506105542182922</t>
@@ -1142,22 +1142,22 @@
     <t xml:space="preserve">0.449871599674225</t>
   </si>
   <si>
-    <t xml:space="preserve">0.441220223903656</t>
+    <t xml:space="preserve">0.441220253705978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454197257757187</t>
+    <t xml:space="preserve">0.454197287559509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.467174381017685</t>
+    <t xml:space="preserve">0.467174410820007</t>
   </si>
   <si>
-    <t xml:space="preserve">0.427378058433533</t>
+    <t xml:space="preserve">0.42737802863121</t>
   </si>
   <si>
     <t xml:space="preserve">0.420456945896149</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406614750623703</t>
+    <t xml:space="preserve">0.406614720821381</t>
   </si>
   <si>
     <t xml:space="preserve">0.396233081817627</t>
@@ -1172,10 +1172,10 @@
     <t xml:space="preserve">0.413535833358765</t>
   </si>
   <si>
-    <t xml:space="preserve">0.422187209129333</t>
+    <t xml:space="preserve">0.422187238931656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.411805540323257</t>
+    <t xml:space="preserve">0.41180557012558</t>
   </si>
   <si>
     <t xml:space="preserve">0.363357841968536</t>
@@ -1184,31 +1184,31 @@
     <t xml:space="preserve">0.344324827194214</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346055060625076</t>
+    <t xml:space="preserve">0.346055090427399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365088105201721</t>
+    <t xml:space="preserve">0.365088135004044</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366818398237228</t>
+    <t xml:space="preserve">0.366818368434906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372009217739105</t>
+    <t xml:space="preserve">0.372009247541428</t>
   </si>
   <si>
-    <t xml:space="preserve">0.375469744205475</t>
+    <t xml:space="preserve">0.375469774007797</t>
   </si>
   <si>
     <t xml:space="preserve">0.378930300474167</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380660623311996</t>
+    <t xml:space="preserve">0.380660593509674</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38758173584938</t>
+    <t xml:space="preserve">0.387581706047058</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377200037240982</t>
+    <t xml:space="preserve">0.377200067043304</t>
   </si>
   <si>
     <t xml:space="preserve">0.354706466197968</t>
@@ -1220,13 +1220,13 @@
     <t xml:space="preserve">0.347785383462906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359897315502167</t>
+    <t xml:space="preserve">0.359897285699844</t>
   </si>
   <si>
     <t xml:space="preserve">0.37027895450592</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36438712477684</t>
+    <t xml:space="preserve">0.364387094974518</t>
   </si>
   <si>
     <t xml:space="preserve">0.369825720787048</t>
@@ -1235,10 +1235,10 @@
     <t xml:space="preserve">0.360761374235153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366199970245361</t>
+    <t xml:space="preserve">0.366200000047684</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380702912807465</t>
+    <t xml:space="preserve">0.380702942609787</t>
   </si>
   <si>
     <t xml:space="preserve">0.38251581788063</t>
@@ -1259,13 +1259,13 @@
     <t xml:space="preserve">0.335381180047989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346258372068405</t>
+    <t xml:space="preserve">0.346258401870728</t>
   </si>
   <si>
     <t xml:space="preserve">0.362574249505997</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344445526599884</t>
+    <t xml:space="preserve">0.344445496797562</t>
   </si>
   <si>
     <t xml:space="preserve">0.342632651329041</t>
@@ -1274,7 +1274,7 @@
     <t xml:space="preserve">0.333568304777145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32450395822525</t>
+    <t xml:space="preserve">0.324503928422928</t>
   </si>
   <si>
     <t xml:space="preserve">0.329942554235458</t>
@@ -1283,19 +1283,19 @@
     <t xml:space="preserve">0.320878207683563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317252457141876</t>
+    <t xml:space="preserve">0.317252427339554</t>
   </si>
   <si>
-    <t xml:space="preserve">0.319065302610397</t>
+    <t xml:space="preserve">0.31906533241272</t>
   </si>
   <si>
-    <t xml:space="preserve">0.310000985860825</t>
+    <t xml:space="preserve">0.310000956058502</t>
   </si>
   <si>
     <t xml:space="preserve">0.322691082954407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311813831329346</t>
+    <t xml:space="preserve">0.311813861131668</t>
   </si>
   <si>
     <t xml:space="preserve">0.326316833496094</t>
@@ -1304,22 +1304,22 @@
     <t xml:space="preserve">0.328129678964615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.339006900787354</t>
+    <t xml:space="preserve">0.339006930589676</t>
   </si>
   <si>
     <t xml:space="preserve">0.340819776058197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353509843349457</t>
+    <t xml:space="preserve">0.353509873151779</t>
   </si>
   <si>
     <t xml:space="preserve">0.331755429506302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397018790245056</t>
+    <t xml:space="preserve">0.397018760442734</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387954413890839</t>
+    <t xml:space="preserve">0.387954443693161</t>
   </si>
   <si>
     <t xml:space="preserve">0.389767318964005</t>
@@ -1328,13 +1328,13 @@
     <t xml:space="preserve">0.391580194234848</t>
   </si>
   <si>
-    <t xml:space="preserve">0.384328693151474</t>
+    <t xml:space="preserve">0.384328663349152</t>
   </si>
   <si>
     <t xml:space="preserve">0.386141568422318</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40427029132843</t>
+    <t xml:space="preserve">0.404270261526108</t>
   </si>
   <si>
     <t xml:space="preserve">0.338870882987976</t>
@@ -25840,7 +25840,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G926" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -25866,7 +25866,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G927" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -25892,7 +25892,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G928" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -25918,7 +25918,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G929" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -25944,7 +25944,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G930" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -25970,7 +25970,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G931" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -25996,7 +25996,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G932" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -26022,7 +26022,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G933" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -26048,7 +26048,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G934" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -26074,7 +26074,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G935" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -26100,7 +26100,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G936" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -26126,7 +26126,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G937" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -26152,7 +26152,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G938" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -26178,7 +26178,7 @@
         <v>0.564999997615814</v>
       </c>
       <c r="G939" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -26204,7 +26204,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G940" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -26230,7 +26230,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G941" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -26282,7 +26282,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G943" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -26308,7 +26308,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G944" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -26334,7 +26334,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G945" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -26360,7 +26360,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G946" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -26386,7 +26386,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G947" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -26412,7 +26412,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G948" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -26438,7 +26438,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G949" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -26464,7 +26464,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G950" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -26490,7 +26490,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G951" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -26516,7 +26516,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G952" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -26542,7 +26542,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G953" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -26568,7 +26568,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G954" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -26594,7 +26594,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G955" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -26620,7 +26620,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G956" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -26646,7 +26646,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G957" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -26672,7 +26672,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G958" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -26698,7 +26698,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G959" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -26724,7 +26724,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G960" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -26750,7 +26750,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G961" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -26828,7 +26828,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G964" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -26906,7 +26906,7 @@
         <v>0.644999980926514</v>
       </c>
       <c r="G967" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -26932,7 +26932,7 @@
         <v>0.759999990463257</v>
       </c>
       <c r="G968" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -26984,7 +26984,7 @@
         <v>0.649999976158142</v>
       </c>
       <c r="G970" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -27010,7 +27010,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G971" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -27036,7 +27036,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G972" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -27062,7 +27062,7 @@
         <v>0.654999971389771</v>
       </c>
       <c r="G973" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -27218,7 +27218,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G979" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -27244,7 +27244,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G980" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -27270,7 +27270,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G981" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -27348,7 +27348,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G984" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -27374,7 +27374,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G985" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -27790,7 +27790,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1001" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -27816,7 +27816,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1002" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -27842,7 +27842,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1003" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -27868,7 +27868,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1004" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -27894,7 +27894,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1005" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -27920,7 +27920,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1006" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -27946,7 +27946,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1007" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -27972,7 +27972,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1008" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -27998,7 +27998,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1009" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -28050,7 +28050,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1011" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -28076,7 +28076,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1012" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -28102,7 +28102,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1013" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -28128,7 +28128,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1014" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -28154,7 +28154,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1015" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -28180,7 +28180,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1016" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -28206,7 +28206,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1017" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -28232,7 +28232,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1018" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -28258,7 +28258,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1019" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -28284,7 +28284,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1020" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -28310,7 +28310,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1021" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -28388,7 +28388,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1024" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -28414,7 +28414,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1025" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -28440,7 +28440,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1026" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -28466,7 +28466,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1027" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -28492,7 +28492,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1028" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -28518,7 +28518,7 @@
         <v>0.564999997615814</v>
       </c>
       <c r="G1029" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -28544,7 +28544,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1030" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -28570,7 +28570,7 @@
         <v>0.550000011920929</v>
       </c>
       <c r="G1031" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -28596,7 +28596,7 @@
         <v>0.550000011920929</v>
       </c>
       <c r="G1032" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -28622,7 +28622,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1033" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -28648,7 +28648,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1034" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -28674,7 +28674,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1035" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -28700,7 +28700,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1036" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -28726,7 +28726,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1037" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -28752,7 +28752,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1038" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -28778,7 +28778,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G1039" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -28804,7 +28804,7 @@
         <v>0.555000007152557</v>
       </c>
       <c r="G1040" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -28830,7 +28830,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1041" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -28856,7 +28856,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1042" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -28882,7 +28882,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1043" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -28908,7 +28908,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1044" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -29012,7 +29012,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1048" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -29064,7 +29064,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1050" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -29142,7 +29142,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1053" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -29168,7 +29168,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1054" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -29194,7 +29194,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1055" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -29220,7 +29220,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1056" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -29246,7 +29246,7 @@
         <v>0.492000013589859</v>
       </c>
       <c r="G1057" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -29272,7 +29272,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1058" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -29298,7 +29298,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1059" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -29324,7 +29324,7 @@
         <v>0.5</v>
       </c>
       <c r="G1060" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -29350,7 +29350,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1061" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -29376,7 +29376,7 @@
         <v>0.5</v>
       </c>
       <c r="G1062" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -29402,7 +29402,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1063" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -29428,7 +29428,7 @@
         <v>0.453999996185303</v>
       </c>
       <c r="G1064" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -29454,7 +29454,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1065" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -29480,7 +29480,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G1066" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -29506,7 +29506,7 @@
         <v>0.40200001001358</v>
       </c>
       <c r="G1067" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -29532,7 +29532,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1068" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -29558,7 +29558,7 @@
         <v>0.393999993801117</v>
       </c>
       <c r="G1069" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -29584,7 +29584,7 @@
         <v>0.377999991178513</v>
       </c>
       <c r="G1070" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -29610,7 +29610,7 @@
         <v>0.354000002145767</v>
       </c>
       <c r="G1071" t="s">
-        <v>109</v>
+        <v>307</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -29792,7 +29792,7 @@
         <v>0.40200001001358</v>
       </c>
       <c r="G1078" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -29922,7 +29922,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1083" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -29948,7 +29948,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1084" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -29974,7 +29974,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1085" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -30026,7 +30026,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1087" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -30052,7 +30052,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1088" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -30130,7 +30130,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1091" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -30520,7 +30520,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1106" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -30546,7 +30546,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1107" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -30650,7 +30650,7 @@
         <v>0.5</v>
       </c>
       <c r="G1111" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -30702,7 +30702,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1113" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -30728,7 +30728,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1114" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -30754,7 +30754,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1115" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -30858,7 +30858,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1119" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -30884,7 +30884,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1120" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -30910,7 +30910,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1121" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -30962,7 +30962,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1123" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -30988,7 +30988,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1124" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -31014,7 +31014,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1125" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -31040,7 +31040,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1126" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -31066,7 +31066,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G1127" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -31092,7 +31092,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1128" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -31118,7 +31118,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1129" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -31144,7 +31144,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1130" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -31170,7 +31170,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1131" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -31196,7 +31196,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1132" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -31222,7 +31222,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1133" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -31248,7 +31248,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1134" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -31274,7 +31274,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1135" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -31300,7 +31300,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1136" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -31326,7 +31326,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1137" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -31352,7 +31352,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1138" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -31378,7 +31378,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1139" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -31404,7 +31404,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1140" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -31430,7 +31430,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1141" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -31456,7 +31456,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1142" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -31482,7 +31482,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1143" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -31508,7 +31508,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1144" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -31534,7 +31534,7 @@
         <v>0.5</v>
       </c>
       <c r="G1145" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -31560,7 +31560,7 @@
         <v>0.5</v>
       </c>
       <c r="G1146" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -31586,7 +31586,7 @@
         <v>0.5</v>
       </c>
       <c r="G1147" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -31612,7 +31612,7 @@
         <v>0.5</v>
       </c>
       <c r="G1148" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -31638,7 +31638,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1149" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -31690,7 +31690,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1151" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -31716,7 +31716,7 @@
         <v>0.5</v>
       </c>
       <c r="G1152" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -31742,7 +31742,7 @@
         <v>0.5</v>
       </c>
       <c r="G1153" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -31794,7 +31794,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1155" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -31976,7 +31976,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1162" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32002,7 +32002,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1163" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -32028,7 +32028,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1164" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -32054,7 +32054,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1165" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -32392,7 +32392,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1178" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -32886,7 +32886,7 @@
         <v>0.453999996185303</v>
       </c>
       <c r="G1197" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -33926,7 +33926,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1237" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -34134,7 +34134,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G1245" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -34160,7 +34160,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G1246" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -34654,7 +34654,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1265" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -35304,7 +35304,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1290" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -35330,7 +35330,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1291" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -35382,7 +35382,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1293" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -35408,7 +35408,7 @@
         <v>0.5</v>
       </c>
       <c r="G1294" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -35434,7 +35434,7 @@
         <v>0.550000011920929</v>
       </c>
       <c r="G1295" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -35460,7 +35460,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1296" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -35512,7 +35512,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1298" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -35538,7 +35538,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1299" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -35564,7 +35564,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1300" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -35616,7 +35616,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1302" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -35642,7 +35642,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1303" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -35668,7 +35668,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1304" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -35694,7 +35694,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1305" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -35720,7 +35720,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1306" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -35746,7 +35746,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1307" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -35772,7 +35772,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1308" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -35798,7 +35798,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1309" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -35824,7 +35824,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1310" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -57516,7 +57516,7 @@
     </row>
     <row r="2145">
       <c r="A2145" s="1" t="n">
-        <v>45448.4457291667</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B2145" t="n">
         <v>8000</v>

--- a/data/POPR.MI.xlsx
+++ b/data/POPR.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="474">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,16 +44,16 @@
     <t xml:space="preserve">POPR.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.202642530202866</t>
+    <t xml:space="preserve">0.202642500400543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.198315635323524</t>
+    <t xml:space="preserve">0.198315650224686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.196873351931572</t>
+    <t xml:space="preserve">0.196873337030411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188219577074051</t>
+    <t xml:space="preserve">0.18821956217289</t>
   </si>
   <si>
     <t xml:space="preserve">0.194709897041321</t>
@@ -68,13 +68,13 @@
     <t xml:space="preserve">0.171849519014359</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166585132479668</t>
+    <t xml:space="preserve">0.166585147380829</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17523892223835</t>
+    <t xml:space="preserve">0.175238907337189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175960063934326</t>
+    <t xml:space="preserve">0.175960049033165</t>
   </si>
   <si>
     <t xml:space="preserve">0.173003345727921</t>
@@ -86,22 +86,22 @@
     <t xml:space="preserve">0.160455375909805</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160094827413559</t>
+    <t xml:space="preserve">0.160094797611237</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160527497529984</t>
+    <t xml:space="preserve">0.160527482628822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162979379296303</t>
+    <t xml:space="preserve">0.162979394197464</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159373670816422</t>
+    <t xml:space="preserve">0.15937365591526</t>
   </si>
   <si>
     <t xml:space="preserve">0.173363924026489</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195431053638458</t>
+    <t xml:space="preserve">0.195431068539619</t>
   </si>
   <si>
     <t xml:space="preserve">0.191392615437508</t>
@@ -110,19 +110,19 @@
     <t xml:space="preserve">0.187498405575752</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180286943912506</t>
+    <t xml:space="preserve">0.180286958813667</t>
   </si>
   <si>
     <t xml:space="preserve">0.17740236222744</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171633183956146</t>
+    <t xml:space="preserve">0.171633169054985</t>
   </si>
   <si>
     <t xml:space="preserve">0.178628295660019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184613853693008</t>
+    <t xml:space="preserve">0.184613838791847</t>
   </si>
   <si>
     <t xml:space="preserve">0.182378277182579</t>
@@ -131,43 +131,43 @@
     <t xml:space="preserve">0.20343579351902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.203363671898842</t>
+    <t xml:space="preserve">0.203363686800003</t>
   </si>
   <si>
     <t xml:space="preserve">0.196152210235596</t>
   </si>
   <si>
-    <t xml:space="preserve">0.19038300216198</t>
+    <t xml:space="preserve">0.190382987260818</t>
   </si>
   <si>
     <t xml:space="preserve">0.216344341635704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.22103177011013</t>
+    <t xml:space="preserve">0.221031785011292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21995010972023</t>
+    <t xml:space="preserve">0.219950079917908</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211296319961548</t>
+    <t xml:space="preserve">0.211296290159225</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208411708474159</t>
+    <t xml:space="preserve">0.208411693572998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230767264962196</t>
+    <t xml:space="preserve">0.230767294764519</t>
   </si>
   <si>
-    <t xml:space="preserve">0.239421039819717</t>
+    <t xml:space="preserve">0.23942106962204</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230695158243179</t>
+    <t xml:space="preserve">0.230695188045502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.22571924328804</t>
+    <t xml:space="preserve">0.225719258189201</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222834646701813</t>
+    <t xml:space="preserve">0.222834661602974</t>
   </si>
   <si>
     <t xml:space="preserve">0.205527096986771</t>
@@ -179,22 +179,22 @@
     <t xml:space="preserve">0.194854140281677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193267613649368</t>
+    <t xml:space="preserve">0.193267598748207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186777278780937</t>
+    <t xml:space="preserve">0.186777263879776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173940852284431</t>
+    <t xml:space="preserve">0.17394083738327</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191104143857956</t>
+    <t xml:space="preserve">0.191104158759117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180214822292328</t>
+    <t xml:space="preserve">0.180214837193489</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174517750740051</t>
+    <t xml:space="preserve">0.174517765641212</t>
   </si>
   <si>
     <t xml:space="preserve">0.176681220531464</t>
@@ -203,10 +203,10 @@
     <t xml:space="preserve">0.180863872170448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.213459730148315</t>
+    <t xml:space="preserve">0.213459759950638</t>
   </si>
   <si>
-    <t xml:space="preserve">0.215623185038567</t>
+    <t xml:space="preserve">0.215623170137405</t>
   </si>
   <si>
     <t xml:space="preserve">0.21057516336441</t>
@@ -218,19 +218,19 @@
     <t xml:space="preserve">0.191825315356255</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183892697095871</t>
+    <t xml:space="preserve">0.183892667293549</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168748587369919</t>
+    <t xml:space="preserve">0.168748572468758</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173796609044075</t>
+    <t xml:space="preserve">0.173796623945236</t>
   </si>
   <si>
     <t xml:space="preserve">0.170190870761871</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16586397588253</t>
+    <t xml:space="preserve">0.165863990783691</t>
   </si>
   <si>
     <t xml:space="preserve">0.18172924220562</t>
@@ -242,19 +242,19 @@
     <t xml:space="preserve">0.195791631937027</t>
   </si>
   <si>
-    <t xml:space="preserve">0.197594478726387</t>
+    <t xml:space="preserve">0.197594493627548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.209493398666382</t>
+    <t xml:space="preserve">0.209493428468704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230046108365059</t>
+    <t xml:space="preserve">0.230046167969704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222113519906998</t>
+    <t xml:space="preserve">0.222113505005836</t>
   </si>
   <si>
-    <t xml:space="preserve">0.20437328517437</t>
+    <t xml:space="preserve">0.204373270273209</t>
   </si>
   <si>
     <t xml:space="preserve">0.218868345022202</t>
@@ -263,13 +263,13 @@
     <t xml:space="preserve">0.230623036623001</t>
   </si>
   <si>
-    <t xml:space="preserve">0.22355580329895</t>
+    <t xml:space="preserve">0.223555818200111</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220022186636925</t>
+    <t xml:space="preserve">0.220022171735764</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229324966669083</t>
+    <t xml:space="preserve">0.229324996471405</t>
   </si>
   <si>
     <t xml:space="preserve">0.244469076395035</t>
@@ -281,10 +281,10 @@
     <t xml:space="preserve">0.266824692487717</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273315042257309</t>
+    <t xml:space="preserve">0.273315012454987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.288459122180939</t>
+    <t xml:space="preserve">0.288459092378616</t>
   </si>
   <si>
     <t xml:space="preserve">0.306487828493118</t>
@@ -293,37 +293,37 @@
     <t xml:space="preserve">0.315862715244293</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333170264959335</t>
+    <t xml:space="preserve">0.333170294761658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342545211315155</t>
+    <t xml:space="preserve">0.342545181512833</t>
   </si>
   <si>
-    <t xml:space="preserve">0.295670598745346</t>
+    <t xml:space="preserve">0.295670568943024</t>
   </si>
   <si>
-    <t xml:space="preserve">0.298483043909073</t>
+    <t xml:space="preserve">0.298483073711395</t>
   </si>
   <si>
     <t xml:space="preserve">0.287088930606842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.287016808986664</t>
+    <t xml:space="preserve">0.287016838788986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.278579413890839</t>
+    <t xml:space="preserve">0.278579384088516</t>
   </si>
   <si>
     <t xml:space="preserve">0.279084205627441</t>
   </si>
   <si>
-    <t xml:space="preserve">0.279228419065475</t>
+    <t xml:space="preserve">0.279228448867798</t>
   </si>
   <si>
     <t xml:space="preserve">0.263218939304352</t>
   </si>
   <si>
-    <t xml:space="preserve">0.268266975879669</t>
+    <t xml:space="preserve">0.268267005681992</t>
   </si>
   <si>
     <t xml:space="preserve">0.241584524512291</t>
@@ -335,13 +335,13 @@
     <t xml:space="preserve">0.243026807904243</t>
   </si>
   <si>
-    <t xml:space="preserve">0.239493161439896</t>
+    <t xml:space="preserve">0.239493191242218</t>
   </si>
   <si>
     <t xml:space="preserve">0.272593855857849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.281247645616531</t>
+    <t xml:space="preserve">0.281247615814209</t>
   </si>
   <si>
     <t xml:space="preserve">0.264805465936661</t>
@@ -350,7 +350,7 @@
     <t xml:space="preserve">0.261055499315262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.270430386066437</t>
+    <t xml:space="preserve">0.270430415868759</t>
   </si>
   <si>
     <t xml:space="preserve">0.259613186120987</t>
@@ -359,13 +359,13 @@
     <t xml:space="preserve">0.256007462739944</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248796001076698</t>
+    <t xml:space="preserve">0.248795971274376</t>
   </si>
   <si>
-    <t xml:space="preserve">0.255142092704773</t>
+    <t xml:space="preserve">0.255142062902451</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244541212916374</t>
+    <t xml:space="preserve">0.244541183114052</t>
   </si>
   <si>
     <t xml:space="preserve">0.230839416384697</t>
@@ -377,22 +377,22 @@
     <t xml:space="preserve">0.237257614731789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.236536487936974</t>
+    <t xml:space="preserve">0.236536458134651</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237978756427765</t>
+    <t xml:space="preserve">0.237978786230087</t>
   </si>
   <si>
-    <t xml:space="preserve">0.239565268158913</t>
+    <t xml:space="preserve">0.239565297961235</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243171021342278</t>
+    <t xml:space="preserve">0.243171036243439</t>
   </si>
   <si>
     <t xml:space="preserve">0.258892059326172</t>
   </si>
   <si>
-    <t xml:space="preserve">0.252257496118546</t>
+    <t xml:space="preserve">0.252257466316223</t>
   </si>
   <si>
     <t xml:space="preserve">0.253339231014252</t>
@@ -404,7 +404,7 @@
     <t xml:space="preserve">0.268916010856628</t>
   </si>
   <si>
-    <t xml:space="preserve">0.257593989372253</t>
+    <t xml:space="preserve">0.257594019174576</t>
   </si>
   <si>
     <t xml:space="preserve">0.25240170955658</t>
@@ -413,19 +413,19 @@
     <t xml:space="preserve">0.252113252878189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248868122696877</t>
+    <t xml:space="preserve">0.248868092894554</t>
   </si>
   <si>
-    <t xml:space="preserve">0.265382409095764</t>
+    <t xml:space="preserve">0.265382349491119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249012291431427</t>
+    <t xml:space="preserve">0.249012321233749</t>
   </si>
   <si>
     <t xml:space="preserve">0.256223797798157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340958654880524</t>
+    <t xml:space="preserve">0.340958625078201</t>
   </si>
   <si>
     <t xml:space="preserve">0.403842747211456</t>
@@ -437,10 +437,10 @@
     <t xml:space="preserve">0.625956237316132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.547351181507111</t>
+    <t xml:space="preserve">0.547351241111755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.501197695732117</t>
+    <t xml:space="preserve">0.501197755336761</t>
   </si>
   <si>
     <t xml:space="preserve">0.484250754117966</t>
@@ -455,19 +455,19 @@
     <t xml:space="preserve">0.475236356258392</t>
   </si>
   <si>
-    <t xml:space="preserve">0.42151090502739</t>
+    <t xml:space="preserve">0.421510875225067</t>
   </si>
   <si>
     <t xml:space="preserve">0.429082959890366</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397352427244186</t>
+    <t xml:space="preserve">0.397352457046509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373915076255798</t>
+    <t xml:space="preserve">0.373915106058121</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36129504442215</t>
+    <t xml:space="preserve">0.361295014619827</t>
   </si>
   <si>
     <t xml:space="preserve">0.374636262655258</t>
@@ -476,7 +476,7 @@
     <t xml:space="preserve">0.383650630712509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369227707386017</t>
+    <t xml:space="preserve">0.369227677583694</t>
   </si>
   <si>
     <t xml:space="preserve">0.400236994028091</t>
@@ -488,34 +488,34 @@
     <t xml:space="preserve">0.374996811151505</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365261375904083</t>
+    <t xml:space="preserve">0.365261346101761</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368506491184235</t>
+    <t xml:space="preserve">0.368506520986557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382208287715912</t>
+    <t xml:space="preserve">0.382208317518234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378602564334869</t>
+    <t xml:space="preserve">0.378602534532547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364179581403732</t>
+    <t xml:space="preserve">0.364179611206055</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372112244367599</t>
+    <t xml:space="preserve">0.372112274169922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360573887825012</t>
+    <t xml:space="preserve">0.360573917627335</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357689291238785</t>
+    <t xml:space="preserve">0.357689261436462</t>
   </si>
   <si>
     <t xml:space="preserve">0.3840112388134</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36490073800087</t>
+    <t xml:space="preserve">0.364900767803192</t>
   </si>
   <si>
     <t xml:space="preserve">0.36345848441124</t>
@@ -527,22 +527,22 @@
     <t xml:space="preserve">0.370669931173325</t>
   </si>
   <si>
-    <t xml:space="preserve">0.376439154148102</t>
+    <t xml:space="preserve">0.376439124345779</t>
   </si>
   <si>
     <t xml:space="preserve">0.346150904893875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35624697804451</t>
+    <t xml:space="preserve">0.356247007846832</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356896013021469</t>
+    <t xml:space="preserve">0.356896042823792</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367785394191742</t>
+    <t xml:space="preserve">0.367785334587097</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373554557561874</t>
+    <t xml:space="preserve">0.373554527759552</t>
   </si>
   <si>
     <t xml:space="preserve">0.411054193973541</t>
@@ -551,37 +551,37 @@
     <t xml:space="preserve">0.389419794082642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.390140980482101</t>
+    <t xml:space="preserve">0.390140920877457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366343080997467</t>
+    <t xml:space="preserve">0.366343110799789</t>
   </si>
   <si>
     <t xml:space="preserve">0.387616962194443</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360934466123581</t>
+    <t xml:space="preserve">0.360934525728226</t>
   </si>
   <si>
     <t xml:space="preserve">0.376078546047211</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4471116065979</t>
+    <t xml:space="preserve">0.447111636400223</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424034893512726</t>
+    <t xml:space="preserve">0.424034863710403</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423313796520233</t>
+    <t xml:space="preserve">0.423313826322556</t>
   </si>
   <si>
     <t xml:space="preserve">0.424756050109863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417183995246887</t>
+    <t xml:space="preserve">0.417183965444565</t>
   </si>
   <si>
-    <t xml:space="preserve">0.425477147102356</t>
+    <t xml:space="preserve">0.425477206707001</t>
   </si>
   <si>
     <t xml:space="preserve">0.395910143852234</t>
@@ -590,46 +590,46 @@
     <t xml:space="preserve">0.401318728923798</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406727343797684</t>
+    <t xml:space="preserve">0.406727373600006</t>
   </si>
   <si>
     <t xml:space="preserve">0.421150326728821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446029871702194</t>
+    <t xml:space="preserve">0.446029931306839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.449275106191635</t>
+    <t xml:space="preserve">0.449275076389313</t>
   </si>
   <si>
-    <t xml:space="preserve">0.433409839868546</t>
+    <t xml:space="preserve">0.433409810066223</t>
   </si>
   <si>
     <t xml:space="preserve">0.432688683271408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444227039813995</t>
+    <t xml:space="preserve">0.444227010011673</t>
   </si>
   <si>
     <t xml:space="preserve">0.433049261569977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.468024849891663</t>
+    <t xml:space="preserve">0.468024909496307</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47595751285553</t>
+    <t xml:space="preserve">0.475957572460175</t>
   </si>
   <si>
-    <t xml:space="preserve">0.449996173381805</t>
+    <t xml:space="preserve">0.449996262788773</t>
   </si>
   <si>
     <t xml:space="preserve">0.432328104972839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.443505823612213</t>
+    <t xml:space="preserve">0.443505853414536</t>
   </si>
   <si>
-    <t xml:space="preserve">0.540860772132874</t>
+    <t xml:space="preserve">0.540860831737518</t>
   </si>
   <si>
     <t xml:space="preserve">0.504082262516022</t>
@@ -638,10 +638,10 @@
     <t xml:space="preserve">0.519226372241974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497592002153397</t>
+    <t xml:space="preserve">0.497591942548752</t>
   </si>
   <si>
-    <t xml:space="preserve">0.502640008926392</t>
+    <t xml:space="preserve">0.502640068531036</t>
   </si>
   <si>
     <t xml:space="preserve">0.512014925479889</t>
@@ -650,7 +650,7 @@
     <t xml:space="preserve">0.504803419113159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.484611302614212</t>
+    <t xml:space="preserve">0.484611243009567</t>
   </si>
   <si>
     <t xml:space="preserve">0.487495899200439</t>
@@ -659,10 +659,10 @@
     <t xml:space="preserve">0.483169049024582</t>
   </si>
   <si>
-    <t xml:space="preserve">0.470188409090042</t>
+    <t xml:space="preserve">0.470188349485397</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465861558914185</t>
+    <t xml:space="preserve">0.465861439704895</t>
   </si>
   <si>
     <t xml:space="preserve">0.468746066093445</t>
@@ -671,34 +671,34 @@
     <t xml:space="preserve">0.474515229463577</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461534529924393</t>
+    <t xml:space="preserve">0.461534589529037</t>
   </si>
   <si>
     <t xml:space="preserve">0.496149688959122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478842079639435</t>
+    <t xml:space="preserve">0.47884213924408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.530764818191528</t>
+    <t xml:space="preserve">0.530764698982239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.490380465984344</t>
+    <t xml:space="preserve">0.490380525588989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.458649933338165</t>
+    <t xml:space="preserve">0.45864999294281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.48028439283371</t>
+    <t xml:space="preserve">0.480284452438354</t>
   </si>
   <si>
     <t xml:space="preserve">0.486053615808487</t>
   </si>
   <si>
-    <t xml:space="preserve">0.471630603075027</t>
+    <t xml:space="preserve">0.471630662679672</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457207709550858</t>
+    <t xml:space="preserve">0.45720773935318</t>
   </si>
   <si>
     <t xml:space="preserve">0.464419186115265</t>
@@ -707,10 +707,10 @@
     <t xml:space="preserve">0.438457846641541</t>
   </si>
   <si>
-    <t xml:space="preserve">0.43990021944046</t>
+    <t xml:space="preserve">0.439900159835815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.445669293403625</t>
+    <t xml:space="preserve">0.445669323205948</t>
   </si>
   <si>
     <t xml:space="preserve">0.46297687292099</t>
@@ -728,79 +728,79 @@
     <t xml:space="preserve">0.452880829572678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.473072975873947</t>
+    <t xml:space="preserve">0.473072916269302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.460092216730118</t>
+    <t xml:space="preserve">0.460092335939407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.477399826049805</t>
+    <t xml:space="preserve">0.47739976644516</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415381073951721</t>
+    <t xml:space="preserve">0.415381133556366</t>
   </si>
   <si>
     <t xml:space="preserve">0.419708013534546</t>
   </si>
   <si>
-    <t xml:space="preserve">0.416823416948318</t>
+    <t xml:space="preserve">0.416823387145996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.390862107276917</t>
+    <t xml:space="preserve">0.390862137079239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377881437540054</t>
+    <t xml:space="preserve">0.377881467342377</t>
   </si>
   <si>
     <t xml:space="preserve">0.412496536970139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409611970186234</t>
+    <t xml:space="preserve">0.409611940383911</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395188957452774</t>
+    <t xml:space="preserve">0.395188987255096</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386535227298737</t>
+    <t xml:space="preserve">0.386535197496414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387977480888367</t>
+    <t xml:space="preserve">0.387977451086044</t>
   </si>
   <si>
-    <t xml:space="preserve">0.396631270647049</t>
+    <t xml:space="preserve">0.396631300449371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.426919460296631</t>
+    <t xml:space="preserve">0.426919519901276</t>
   </si>
   <si>
     <t xml:space="preserve">0.44278472661972</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405285060405731</t>
+    <t xml:space="preserve">0.405285000801086</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413938820362091</t>
+    <t xml:space="preserve">0.413938850164413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434130966663361</t>
+    <t xml:space="preserve">0.434130936861038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431246370077133</t>
+    <t xml:space="preserve">0.431246340274811</t>
   </si>
   <si>
     <t xml:space="preserve">0.428361773490906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.441342413425446</t>
+    <t xml:space="preserve">0.441342383623123</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448553919792175</t>
+    <t xml:space="preserve">0.448553860187531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45143848657608</t>
+    <t xml:space="preserve">0.451438516378403</t>
   </si>
   <si>
-    <t xml:space="preserve">0.48677471280098</t>
+    <t xml:space="preserve">0.486774772405624</t>
   </si>
   <si>
     <t xml:space="preserve">0.493986248970032</t>
@@ -933,6 +933,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.300315290689468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.281247645616531</t>
   </si>
   <si>
     <t xml:space="preserve">0.286014556884766</t>
@@ -1429,6 +1432,9 @@
   <si>
     <t xml:space="preserve">0.340000003576279</t>
   </si>
+  <si>
+    <t xml:space="preserve">0.34799998998642</t>
+  </si>
 </sst>
 </file>
 
@@ -29607,7 +29613,7 @@
         <v>0.354000002145767</v>
       </c>
       <c r="G1071" t="s">
-        <v>109</v>
+        <v>307</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -29633,7 +29639,7 @@
         <v>0.360000014305115</v>
       </c>
       <c r="G1072" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -29659,7 +29665,7 @@
         <v>0.351999998092651</v>
       </c>
       <c r="G1073" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -29685,7 +29691,7 @@
         <v>0.412000000476837</v>
       </c>
       <c r="G1074" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -29711,7 +29717,7 @@
         <v>0.414000004529953</v>
       </c>
       <c r="G1075" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -29737,7 +29743,7 @@
         <v>0.414000004529953</v>
       </c>
       <c r="G1076" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -29763,7 +29769,7 @@
         <v>0.391999989748001</v>
       </c>
       <c r="G1077" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -29815,7 +29821,7 @@
         <v>0.404000014066696</v>
       </c>
       <c r="G1079" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -29841,7 +29847,7 @@
         <v>0.40599998831749</v>
       </c>
       <c r="G1080" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -29867,7 +29873,7 @@
         <v>0.425999999046326</v>
       </c>
       <c r="G1081" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -29893,7 +29899,7 @@
         <v>0.425999999046326</v>
       </c>
       <c r="G1082" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -29997,7 +30003,7 @@
         <v>0.437999993562698</v>
       </c>
       <c r="G1086" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -30075,7 +30081,7 @@
         <v>0.446000009775162</v>
       </c>
       <c r="G1089" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -30101,7 +30107,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1090" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -30153,7 +30159,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1092" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -30179,7 +30185,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1093" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -30205,7 +30211,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1094" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -30231,7 +30237,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1095" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -30257,7 +30263,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1096" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -30283,7 +30289,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1097" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -30309,7 +30315,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1098" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -30335,7 +30341,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1099" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -30361,7 +30367,7 @@
         <v>0.469999998807907</v>
       </c>
       <c r="G1100" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -30387,7 +30393,7 @@
         <v>0.469999998807907</v>
       </c>
       <c r="G1101" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -30413,7 +30419,7 @@
         <v>0.469999998807907</v>
       </c>
       <c r="G1102" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -30439,7 +30445,7 @@
         <v>0.469999998807907</v>
       </c>
       <c r="G1103" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -30465,7 +30471,7 @@
         <v>0.469999998807907</v>
       </c>
       <c r="G1104" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -30491,7 +30497,7 @@
         <v>0.469999998807907</v>
       </c>
       <c r="G1105" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -30569,7 +30575,7 @@
         <v>0.462000012397766</v>
       </c>
       <c r="G1108" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -30595,7 +30601,7 @@
         <v>0.469999998807907</v>
       </c>
       <c r="G1109" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -30621,7 +30627,7 @@
         <v>0.469999998807907</v>
       </c>
       <c r="G1110" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -30673,7 +30679,7 @@
         <v>0.495999991893768</v>
       </c>
       <c r="G1112" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -30777,7 +30783,7 @@
         <v>0.524999976158142</v>
       </c>
       <c r="G1116" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -30803,7 +30809,7 @@
         <v>0.545000016689301</v>
       </c>
       <c r="G1117" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -30829,7 +30835,7 @@
         <v>0.545000016689301</v>
       </c>
       <c r="G1118" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -30933,7 +30939,7 @@
         <v>0.545000016689301</v>
       </c>
       <c r="G1122" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -31661,7 +31667,7 @@
         <v>0.474000006914139</v>
       </c>
       <c r="G1150" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -31765,7 +31771,7 @@
         <v>0.477999985218048</v>
       </c>
       <c r="G1154" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -31817,7 +31823,7 @@
         <v>0.486000001430511</v>
       </c>
       <c r="G1156" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -31843,7 +31849,7 @@
         <v>0.504999995231628</v>
       </c>
       <c r="G1157" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -31869,7 +31875,7 @@
         <v>0.504999995231628</v>
       </c>
       <c r="G1158" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -31895,7 +31901,7 @@
         <v>0.504999995231628</v>
       </c>
       <c r="G1159" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -31921,7 +31927,7 @@
         <v>0.504999995231628</v>
       </c>
       <c r="G1160" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -31947,7 +31953,7 @@
         <v>0.497999995946884</v>
       </c>
       <c r="G1161" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -32077,7 +32083,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1166" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -32103,7 +32109,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1167" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -32129,7 +32135,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1168" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -32155,7 +32161,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1169" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -32181,7 +32187,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1170" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -32207,7 +32213,7 @@
         <v>0.469999998807907</v>
       </c>
       <c r="G1171" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -32233,7 +32239,7 @@
         <v>0.465999990701675</v>
       </c>
       <c r="G1172" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -32259,7 +32265,7 @@
         <v>0.467999994754791</v>
       </c>
       <c r="G1173" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -32285,7 +32291,7 @@
         <v>0.467999994754791</v>
       </c>
       <c r="G1174" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -32311,7 +32317,7 @@
         <v>0.467999994754791</v>
       </c>
       <c r="G1175" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -32337,7 +32343,7 @@
         <v>0.467999994754791</v>
       </c>
       <c r="G1176" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -32363,7 +32369,7 @@
         <v>0.467999994754791</v>
       </c>
       <c r="G1177" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -32415,7 +32421,7 @@
         <v>0.467999994754791</v>
       </c>
       <c r="G1179" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -32441,7 +32447,7 @@
         <v>0.46399998664856</v>
       </c>
       <c r="G1180" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -32467,7 +32473,7 @@
         <v>0.46399998664856</v>
       </c>
       <c r="G1181" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -32493,7 +32499,7 @@
         <v>0.46399998664856</v>
       </c>
       <c r="G1182" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -32519,7 +32525,7 @@
         <v>0.46399998664856</v>
       </c>
       <c r="G1183" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -32545,7 +32551,7 @@
         <v>0.46399998664856</v>
       </c>
       <c r="G1184" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -32571,7 +32577,7 @@
         <v>0.46399998664856</v>
       </c>
       <c r="G1185" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -32597,7 +32603,7 @@
         <v>0.46399998664856</v>
       </c>
       <c r="G1186" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -32623,7 +32629,7 @@
         <v>0.46399998664856</v>
       </c>
       <c r="G1187" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -32649,7 +32655,7 @@
         <v>0.46399998664856</v>
       </c>
       <c r="G1188" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -32675,7 +32681,7 @@
         <v>0.46399998664856</v>
       </c>
       <c r="G1189" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -32701,7 +32707,7 @@
         <v>0.46399998664856</v>
       </c>
       <c r="G1190" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -32727,7 +32733,7 @@
         <v>0.46000000834465</v>
       </c>
       <c r="G1191" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -32753,7 +32759,7 @@
         <v>0.46000000834465</v>
       </c>
       <c r="G1192" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -32779,7 +32785,7 @@
         <v>0.46000000834465</v>
       </c>
       <c r="G1193" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -32805,7 +32811,7 @@
         <v>0.46000000834465</v>
       </c>
       <c r="G1194" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -32831,7 +32837,7 @@
         <v>0.46000000834465</v>
       </c>
       <c r="G1195" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -32857,7 +32863,7 @@
         <v>0.46000000834465</v>
       </c>
       <c r="G1196" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -32909,7 +32915,7 @@
         <v>0.44200000166893</v>
       </c>
       <c r="G1198" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -32935,7 +32941,7 @@
         <v>0.44200000166893</v>
       </c>
       <c r="G1199" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -32961,7 +32967,7 @@
         <v>0.44200000166893</v>
       </c>
       <c r="G1200" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -32987,7 +32993,7 @@
         <v>0.44200000166893</v>
       </c>
       <c r="G1201" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -33013,7 +33019,7 @@
         <v>0.44200000166893</v>
       </c>
       <c r="G1202" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -33039,7 +33045,7 @@
         <v>0.44200000166893</v>
       </c>
       <c r="G1203" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -33065,7 +33071,7 @@
         <v>0.44200000166893</v>
       </c>
       <c r="G1204" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -33091,7 +33097,7 @@
         <v>0.44200000166893</v>
       </c>
       <c r="G1205" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -33117,7 +33123,7 @@
         <v>0.44200000166893</v>
       </c>
       <c r="G1206" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -33143,7 +33149,7 @@
         <v>0.44200000166893</v>
       </c>
       <c r="G1207" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -33169,7 +33175,7 @@
         <v>0.44200000166893</v>
       </c>
       <c r="G1208" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -33195,7 +33201,7 @@
         <v>0.44200000166893</v>
       </c>
       <c r="G1209" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -33221,7 +33227,7 @@
         <v>0.44200000166893</v>
       </c>
       <c r="G1210" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -33247,7 +33253,7 @@
         <v>0.44200000166893</v>
       </c>
       <c r="G1211" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -33273,7 +33279,7 @@
         <v>0.44200000166893</v>
       </c>
       <c r="G1212" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -33299,7 +33305,7 @@
         <v>0.44200000166893</v>
       </c>
       <c r="G1213" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -33325,7 +33331,7 @@
         <v>0.44200000166893</v>
       </c>
       <c r="G1214" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -33351,7 +33357,7 @@
         <v>0.44200000166893</v>
       </c>
       <c r="G1215" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -33377,7 +33383,7 @@
         <v>0.44200000166893</v>
       </c>
       <c r="G1216" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -33403,7 +33409,7 @@
         <v>0.44200000166893</v>
       </c>
       <c r="G1217" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -33429,7 +33435,7 @@
         <v>0.44200000166893</v>
       </c>
       <c r="G1218" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -33455,7 +33461,7 @@
         <v>0.458000004291534</v>
       </c>
       <c r="G1219" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -33481,7 +33487,7 @@
         <v>0.458000004291534</v>
       </c>
       <c r="G1220" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -33507,7 +33513,7 @@
         <v>0.458000004291534</v>
       </c>
       <c r="G1221" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -33533,7 +33539,7 @@
         <v>0.458000004291534</v>
       </c>
       <c r="G1222" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -33559,7 +33565,7 @@
         <v>0.458000004291534</v>
       </c>
       <c r="G1223" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -33585,7 +33591,7 @@
         <v>0.439999997615814</v>
       </c>
       <c r="G1224" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -33611,7 +33617,7 @@
         <v>0.439999997615814</v>
       </c>
       <c r="G1225" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -33637,7 +33643,7 @@
         <v>0.439999997615814</v>
       </c>
       <c r="G1226" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -33663,7 +33669,7 @@
         <v>0.430000007152557</v>
       </c>
       <c r="G1227" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -33689,7 +33695,7 @@
         <v>0.404000014066696</v>
       </c>
       <c r="G1228" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -33715,7 +33721,7 @@
         <v>0.404000014066696</v>
       </c>
       <c r="G1229" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -33741,7 +33747,7 @@
         <v>0.404000014066696</v>
       </c>
       <c r="G1230" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -33767,7 +33773,7 @@
         <v>0.404000014066696</v>
       </c>
       <c r="G1231" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -33793,7 +33799,7 @@
         <v>0.404000014066696</v>
       </c>
       <c r="G1232" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -33819,7 +33825,7 @@
         <v>0.404000014066696</v>
       </c>
       <c r="G1233" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -33845,7 +33851,7 @@
         <v>0.409999996423721</v>
       </c>
       <c r="G1234" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -33871,7 +33877,7 @@
         <v>0.416000008583069</v>
       </c>
       <c r="G1235" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -33897,7 +33903,7 @@
         <v>0.40599998831749</v>
       </c>
       <c r="G1236" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -33949,7 +33955,7 @@
         <v>0.409999996423721</v>
       </c>
       <c r="G1238" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -33975,7 +33981,7 @@
         <v>0.409999996423721</v>
       </c>
       <c r="G1239" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -34001,7 +34007,7 @@
         <v>0.409999996423721</v>
       </c>
       <c r="G1240" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -34027,7 +34033,7 @@
         <v>0.381999999284744</v>
       </c>
       <c r="G1241" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -34053,7 +34059,7 @@
         <v>0.386000007390976</v>
       </c>
       <c r="G1242" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -34079,7 +34085,7 @@
         <v>0.386000007390976</v>
       </c>
       <c r="G1243" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -34105,7 +34111,7 @@
         <v>0.375999987125397</v>
       </c>
       <c r="G1244" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -34183,7 +34189,7 @@
         <v>0.386000007390976</v>
       </c>
       <c r="G1247" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -34209,7 +34215,7 @@
         <v>0.386000007390976</v>
       </c>
       <c r="G1248" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -34235,7 +34241,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1249" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -34261,7 +34267,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1250" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -34287,7 +34293,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1251" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -34313,7 +34319,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1252" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -34339,7 +34345,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1253" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -34365,7 +34371,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1254" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -34391,7 +34397,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1255" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -34417,7 +34423,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1256" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -34443,7 +34449,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1257" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -34469,7 +34475,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1258" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -34495,7 +34501,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1259" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -34521,7 +34527,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1260" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -34547,7 +34553,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1261" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -34573,7 +34579,7 @@
         <v>0.381999999284744</v>
       </c>
       <c r="G1262" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -34599,7 +34605,7 @@
         <v>0.360000014305115</v>
       </c>
       <c r="G1263" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -34625,7 +34631,7 @@
         <v>0.381999999284744</v>
       </c>
       <c r="G1264" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -34677,7 +34683,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1266" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -34703,7 +34709,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1267" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -34729,7 +34735,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1268" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -34755,7 +34761,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1269" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -34781,7 +34787,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1270" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -34807,7 +34813,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1271" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -34833,7 +34839,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1272" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -34859,7 +34865,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1273" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -34885,7 +34891,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1274" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -34911,7 +34917,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1275" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -34937,7 +34943,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1276" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -34963,7 +34969,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1277" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -34989,7 +34995,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1278" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -35015,7 +35021,7 @@
         <v>0.386000007390976</v>
       </c>
       <c r="G1279" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -35041,7 +35047,7 @@
         <v>0.386000007390976</v>
       </c>
       <c r="G1280" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -35067,7 +35073,7 @@
         <v>0.389999985694885</v>
       </c>
       <c r="G1281" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -35093,7 +35099,7 @@
         <v>0.404000014066696</v>
       </c>
       <c r="G1282" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -35119,7 +35125,7 @@
         <v>0.391999989748001</v>
       </c>
       <c r="G1283" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -35145,7 +35151,7 @@
         <v>0.409999996423721</v>
       </c>
       <c r="G1284" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -35171,7 +35177,7 @@
         <v>0.400000005960464</v>
       </c>
       <c r="G1285" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -35197,7 +35203,7 @@
         <v>0.421999990940094</v>
       </c>
       <c r="G1286" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -35223,7 +35229,7 @@
         <v>0.428000003099442</v>
       </c>
       <c r="G1287" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -35249,7 +35255,7 @@
         <v>0.400000005960464</v>
       </c>
       <c r="G1288" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -35275,7 +35281,7 @@
         <v>0.412000000476837</v>
       </c>
       <c r="G1289" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -35353,7 +35359,7 @@
         <v>0.418000012636185</v>
       </c>
       <c r="G1292" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -35977,7 +35983,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1316" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -36003,7 +36009,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1317" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -36029,7 +36035,7 @@
         <v>0.514999985694885</v>
       </c>
       <c r="G1318" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -36055,7 +36061,7 @@
         <v>0.5</v>
       </c>
       <c r="G1319" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -36081,7 +36087,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1320" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -36107,7 +36113,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1321" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -36133,7 +36139,7 @@
         <v>0.48199999332428</v>
       </c>
       <c r="G1322" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -36159,7 +36165,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1323" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -36185,7 +36191,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1324" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -36211,7 +36217,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1325" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -36237,7 +36243,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1326" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -36263,7 +36269,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1327" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -36289,7 +36295,7 @@
         <v>0.5</v>
       </c>
       <c r="G1328" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -36315,7 +36321,7 @@
         <v>0.504999995231628</v>
       </c>
       <c r="G1329" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -36341,7 +36347,7 @@
         <v>0.514999985694885</v>
       </c>
       <c r="G1330" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -36367,7 +36373,7 @@
         <v>0.514999985694885</v>
       </c>
       <c r="G1331" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -36393,7 +36399,7 @@
         <v>0.514999985694885</v>
       </c>
       <c r="G1332" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -36419,7 +36425,7 @@
         <v>0.495999991893768</v>
       </c>
       <c r="G1333" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -36445,7 +36451,7 @@
         <v>0.495999991893768</v>
       </c>
       <c r="G1334" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -36471,7 +36477,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1335" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -36497,7 +36503,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1336" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -36523,7 +36529,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1337" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -36549,7 +36555,7 @@
         <v>0.483999997377396</v>
       </c>
       <c r="G1338" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -36575,7 +36581,7 @@
         <v>0.483999997377396</v>
       </c>
       <c r="G1339" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -36601,7 +36607,7 @@
         <v>0.483999997377396</v>
       </c>
       <c r="G1340" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -36627,7 +36633,7 @@
         <v>0.483999997377396</v>
       </c>
       <c r="G1341" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -36653,7 +36659,7 @@
         <v>0.483999997377396</v>
       </c>
       <c r="G1342" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -36679,7 +36685,7 @@
         <v>0.483999997377396</v>
       </c>
       <c r="G1343" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -36705,7 +36711,7 @@
         <v>0.483999997377396</v>
       </c>
       <c r="G1344" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -36731,7 +36737,7 @@
         <v>0.483999997377396</v>
       </c>
       <c r="G1345" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -36757,7 +36763,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1346" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -36783,7 +36789,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1347" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -36809,7 +36815,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1348" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -36835,7 +36841,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1349" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -36861,7 +36867,7 @@
         <v>0.483999997377396</v>
       </c>
       <c r="G1350" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -36887,7 +36893,7 @@
         <v>0.483999997377396</v>
       </c>
       <c r="G1351" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -36913,7 +36919,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1352" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -36939,7 +36945,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1353" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -36965,7 +36971,7 @@
         <v>0.46399998664856</v>
       </c>
       <c r="G1354" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -36991,7 +36997,7 @@
         <v>0.456000000238419</v>
       </c>
       <c r="G1355" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -37017,7 +37023,7 @@
         <v>0.456000000238419</v>
       </c>
       <c r="G1356" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -37043,7 +37049,7 @@
         <v>0.456000000238419</v>
       </c>
       <c r="G1357" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -37069,7 +37075,7 @@
         <v>0.456000000238419</v>
       </c>
       <c r="G1358" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -37095,7 +37101,7 @@
         <v>0.453999996185303</v>
       </c>
       <c r="G1359" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -37121,7 +37127,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1360" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -37147,7 +37153,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1361" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -37173,7 +37179,7 @@
         <v>0.467999994754791</v>
       </c>
       <c r="G1362" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -37199,7 +37205,7 @@
         <v>0.46000000834465</v>
       </c>
       <c r="G1363" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -37225,7 +37231,7 @@
         <v>0.46000000834465</v>
       </c>
       <c r="G1364" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -37251,7 +37257,7 @@
         <v>0.46000000834465</v>
       </c>
       <c r="G1365" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -37277,7 +37283,7 @@
         <v>0.465999990701675</v>
       </c>
       <c r="G1366" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -37303,7 +37309,7 @@
         <v>0.467999994754791</v>
       </c>
       <c r="G1367" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -37329,7 +37335,7 @@
         <v>0.446000009775162</v>
       </c>
       <c r="G1368" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -37355,7 +37361,7 @@
         <v>0.446000009775162</v>
       </c>
       <c r="G1369" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -37381,7 +37387,7 @@
         <v>0.446000009775162</v>
       </c>
       <c r="G1370" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -37407,7 +37413,7 @@
         <v>0.446000009775162</v>
       </c>
       <c r="G1371" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -37433,7 +37439,7 @@
         <v>0.446000009775162</v>
       </c>
       <c r="G1372" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -37459,7 +37465,7 @@
         <v>0.446000009775162</v>
       </c>
       <c r="G1373" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -37485,7 +37491,7 @@
         <v>0.446000009775162</v>
       </c>
       <c r="G1374" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -37511,7 +37517,7 @@
         <v>0.446000009775162</v>
       </c>
       <c r="G1375" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -37537,7 +37543,7 @@
         <v>0.446000009775162</v>
       </c>
       <c r="G1376" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -37563,7 +37569,7 @@
         <v>0.446000009775162</v>
       </c>
       <c r="G1377" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -37589,7 +37595,7 @@
         <v>0.446000009775162</v>
       </c>
       <c r="G1378" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -37615,7 +37621,7 @@
         <v>0.446000009775162</v>
       </c>
       <c r="G1379" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -37641,7 +37647,7 @@
         <v>0.444000005722046</v>
       </c>
       <c r="G1380" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -37667,7 +37673,7 @@
         <v>0.444000005722046</v>
       </c>
       <c r="G1381" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -37693,7 +37699,7 @@
         <v>0.444000005722046</v>
       </c>
       <c r="G1382" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -37719,7 +37725,7 @@
         <v>0.444000005722046</v>
       </c>
       <c r="G1383" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -37745,7 +37751,7 @@
         <v>0.462000012397766</v>
       </c>
       <c r="G1384" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -37771,7 +37777,7 @@
         <v>0.462000012397766</v>
       </c>
       <c r="G1385" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -37797,7 +37803,7 @@
         <v>0.462000012397766</v>
       </c>
       <c r="G1386" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -37823,7 +37829,7 @@
         <v>0.444000005722046</v>
       </c>
       <c r="G1387" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -37849,7 +37855,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1388" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -37875,7 +37881,7 @@
         <v>0.545000016689301</v>
       </c>
       <c r="G1389" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -37901,7 +37907,7 @@
         <v>0.600000023841858</v>
       </c>
       <c r="G1390" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -37927,7 +37933,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1391" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -37953,7 +37959,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1392" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -37979,7 +37985,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1393" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -38005,7 +38011,7 @@
         <v>0.550000011920929</v>
       </c>
       <c r="G1394" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -38031,7 +38037,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1395" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -38057,7 +38063,7 @@
         <v>0.5</v>
       </c>
       <c r="G1396" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -38083,7 +38089,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1397" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -38109,7 +38115,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1398" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -38135,7 +38141,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1399" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -38161,7 +38167,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1400" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -38187,7 +38193,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1401" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -38213,7 +38219,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1402" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -38239,7 +38245,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1403" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -38265,7 +38271,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1404" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -38291,7 +38297,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1405" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -38317,7 +38323,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1406" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -38343,7 +38349,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1407" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -38369,7 +38375,7 @@
         <v>0.524999976158142</v>
       </c>
       <c r="G1408" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -38395,7 +38401,7 @@
         <v>0.524999976158142</v>
       </c>
       <c r="G1409" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -38421,7 +38427,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1410" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -38447,7 +38453,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1411" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -38473,7 +38479,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1412" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -38499,7 +38505,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1413" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -38525,7 +38531,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1414" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -38551,7 +38557,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1415" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -38577,7 +38583,7 @@
         <v>0.550000011920929</v>
       </c>
       <c r="G1416" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -38603,7 +38609,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1417" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -38629,7 +38635,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1418" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -38655,7 +38661,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1419" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -38681,7 +38687,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1420" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -38707,7 +38713,7 @@
         <v>0.524999976158142</v>
       </c>
       <c r="G1421" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -38733,7 +38739,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1422" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -38759,7 +38765,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1423" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -38785,7 +38791,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1424" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -38811,7 +38817,7 @@
         <v>0.545000016689301</v>
       </c>
       <c r="G1425" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -38837,7 +38843,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1426" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -38863,7 +38869,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1427" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -38889,7 +38895,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1428" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -38915,7 +38921,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1429" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -38941,7 +38947,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1430" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -38967,7 +38973,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1431" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -38993,7 +38999,7 @@
         <v>0.524999976158142</v>
       </c>
       <c r="G1432" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -39019,7 +39025,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1433" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -39045,7 +39051,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1434" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -39071,7 +39077,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1435" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -39097,7 +39103,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1436" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -39123,7 +39129,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1437" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -39149,7 +39155,7 @@
         <v>0.514999985694885</v>
       </c>
       <c r="G1438" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -39175,7 +39181,7 @@
         <v>0.514999985694885</v>
       </c>
       <c r="G1439" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -39201,7 +39207,7 @@
         <v>0.524999976158142</v>
       </c>
       <c r="G1440" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -39227,7 +39233,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1441" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -39253,7 +39259,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1442" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -39279,7 +39285,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1443" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -39305,7 +39311,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1444" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -39331,7 +39337,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1445" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -39357,7 +39363,7 @@
         <v>0.514999985694885</v>
       </c>
       <c r="G1446" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -39383,7 +39389,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1447" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -39409,7 +39415,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1448" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -39435,7 +39441,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1449" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -39461,7 +39467,7 @@
         <v>0.504999995231628</v>
       </c>
       <c r="G1450" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -39487,7 +39493,7 @@
         <v>0.504999995231628</v>
       </c>
       <c r="G1451" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -39513,7 +39519,7 @@
         <v>0.493999987840652</v>
       </c>
       <c r="G1452" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -39539,7 +39545,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1453" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -39565,7 +39571,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1454" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -39591,7 +39597,7 @@
         <v>0.504999995231628</v>
       </c>
       <c r="G1455" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -39617,7 +39623,7 @@
         <v>0.504999995231628</v>
       </c>
       <c r="G1456" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -39643,7 +39649,7 @@
         <v>0.504999995231628</v>
       </c>
       <c r="G1457" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -39669,7 +39675,7 @@
         <v>0.504999995231628</v>
       </c>
       <c r="G1458" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -39695,7 +39701,7 @@
         <v>0.493999987840652</v>
       </c>
       <c r="G1459" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -39721,7 +39727,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1460" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -39747,7 +39753,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1461" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -39773,7 +39779,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1462" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -39799,7 +39805,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1463" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -39825,7 +39831,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1464" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -39851,7 +39857,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1465" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -39877,7 +39883,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1466" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -39903,7 +39909,7 @@
         <v>0.483999997377396</v>
       </c>
       <c r="G1467" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -39929,7 +39935,7 @@
         <v>0.483999997377396</v>
       </c>
       <c r="G1468" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -39955,7 +39961,7 @@
         <v>0.5</v>
       </c>
       <c r="G1469" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -39981,7 +39987,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1470" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -40007,7 +40013,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1471" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -40033,7 +40039,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1472" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -40059,7 +40065,7 @@
         <v>0.48199999332428</v>
       </c>
       <c r="G1473" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -40085,7 +40091,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1474" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -40111,7 +40117,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1475" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -40137,7 +40143,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1476" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -40163,7 +40169,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1477" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -40189,7 +40195,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1478" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -40215,7 +40221,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1479" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -40241,7 +40247,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1480" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -40267,7 +40273,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1481" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -40293,7 +40299,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1482" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -40319,7 +40325,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1483" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -40345,7 +40351,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1484" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -40371,7 +40377,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1485" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -40397,7 +40403,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1486" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -40423,7 +40429,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1487" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -40449,7 +40455,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1488" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -40475,7 +40481,7 @@
         <v>0.486000001430511</v>
       </c>
       <c r="G1489" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -40501,7 +40507,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1490" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -40527,7 +40533,7 @@
         <v>0.469999998807907</v>
       </c>
       <c r="G1491" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -40553,7 +40559,7 @@
         <v>0.469999998807907</v>
       </c>
       <c r="G1492" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -40579,7 +40585,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1493" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -40605,7 +40611,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1494" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -40631,7 +40637,7 @@
         <v>0.469999998807907</v>
       </c>
       <c r="G1495" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -40657,7 +40663,7 @@
         <v>0.469999998807907</v>
       </c>
       <c r="G1496" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -40683,7 +40689,7 @@
         <v>0.469999998807907</v>
       </c>
       <c r="G1497" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -40709,7 +40715,7 @@
         <v>0.469999998807907</v>
       </c>
       <c r="G1498" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -40735,7 +40741,7 @@
         <v>0.458000004291534</v>
       </c>
       <c r="G1499" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -40761,7 +40767,7 @@
         <v>0.458000004291534</v>
       </c>
       <c r="G1500" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -40787,7 +40793,7 @@
         <v>0.467999994754791</v>
       </c>
       <c r="G1501" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -40813,7 +40819,7 @@
         <v>0.467999994754791</v>
       </c>
       <c r="G1502" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -40839,7 +40845,7 @@
         <v>0.451999992132187</v>
       </c>
       <c r="G1503" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -40865,7 +40871,7 @@
         <v>0.451999992132187</v>
       </c>
       <c r="G1504" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -40891,7 +40897,7 @@
         <v>0.451999992132187</v>
       </c>
       <c r="G1505" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -40917,7 +40923,7 @@
         <v>0.46000000834465</v>
       </c>
       <c r="G1506" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -40943,7 +40949,7 @@
         <v>0.46000000834465</v>
       </c>
       <c r="G1507" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -40969,7 +40975,7 @@
         <v>0.46000000834465</v>
       </c>
       <c r="G1508" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -40995,7 +41001,7 @@
         <v>0.492000013589859</v>
       </c>
       <c r="G1509" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -41021,7 +41027,7 @@
         <v>0.48199999332428</v>
       </c>
       <c r="G1510" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -41047,7 +41053,7 @@
         <v>0.48199999332428</v>
       </c>
       <c r="G1511" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -41073,7 +41079,7 @@
         <v>0.48199999332428</v>
       </c>
       <c r="G1512" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -41099,7 +41105,7 @@
         <v>0.469999998807907</v>
       </c>
       <c r="G1513" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -41125,7 +41131,7 @@
         <v>0.469999998807907</v>
       </c>
       <c r="G1514" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -41151,7 +41157,7 @@
         <v>0.477999985218048</v>
       </c>
       <c r="G1515" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -41177,7 +41183,7 @@
         <v>0.495999991893768</v>
       </c>
       <c r="G1516" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -41203,7 +41209,7 @@
         <v>0.524999976158142</v>
       </c>
       <c r="G1517" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -41229,7 +41235,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1518" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -41255,7 +41261,7 @@
         <v>0.5</v>
       </c>
       <c r="G1519" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -41281,7 +41287,7 @@
         <v>0.5</v>
       </c>
       <c r="G1520" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -41307,7 +41313,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1521" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -41333,7 +41339,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1522" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -41359,7 +41365,7 @@
         <v>0.5</v>
       </c>
       <c r="G1523" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -41385,7 +41391,7 @@
         <v>0.5</v>
       </c>
       <c r="G1524" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -41411,7 +41417,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1525" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -41437,7 +41443,7 @@
         <v>0.483999997377396</v>
       </c>
       <c r="G1526" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -41463,7 +41469,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1527" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -41489,7 +41495,7 @@
         <v>0.493999987840652</v>
       </c>
       <c r="G1528" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -41515,7 +41521,7 @@
         <v>0.493999987840652</v>
       </c>
       <c r="G1529" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -41541,7 +41547,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1530" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -41567,7 +41573,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1531" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -41593,7 +41599,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1532" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -41619,7 +41625,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1533" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -41645,7 +41651,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1534" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -41671,7 +41677,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1535" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -41697,7 +41703,7 @@
         <v>0.476000010967255</v>
       </c>
       <c r="G1536" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -41723,7 +41729,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1537" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -41749,7 +41755,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1538" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -41775,7 +41781,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1539" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -41801,7 +41807,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1540" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -41827,7 +41833,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1541" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -41853,7 +41859,7 @@
         <v>0.477999985218048</v>
       </c>
       <c r="G1542" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -41879,7 +41885,7 @@
         <v>0.476000010967255</v>
       </c>
       <c r="G1543" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -41905,7 +41911,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1544" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -41931,7 +41937,7 @@
         <v>0.469999998807907</v>
       </c>
       <c r="G1545" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -41957,7 +41963,7 @@
         <v>0.469999998807907</v>
       </c>
       <c r="G1546" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -41983,7 +41989,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1547" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -42009,7 +42015,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1548" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -42035,7 +42041,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1549" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -42061,7 +42067,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1550" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -42087,7 +42093,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1551" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -42113,7 +42119,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1552" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -42139,7 +42145,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1553" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -42165,7 +42171,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1554" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -42191,7 +42197,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1555" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -42217,7 +42223,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1556" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -42243,7 +42249,7 @@
         <v>0.462000012397766</v>
       </c>
       <c r="G1557" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -42269,7 +42275,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1558" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -42295,7 +42301,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1559" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -42321,7 +42327,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1560" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -42347,7 +42353,7 @@
         <v>0.488000005483627</v>
       </c>
       <c r="G1561" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -42373,7 +42379,7 @@
         <v>0.469999998807907</v>
       </c>
       <c r="G1562" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -42399,7 +42405,7 @@
         <v>0.456000000238419</v>
       </c>
       <c r="G1563" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -42425,7 +42431,7 @@
         <v>0.469999998807907</v>
       </c>
       <c r="G1564" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -42451,7 +42457,7 @@
         <v>0.453999996185303</v>
       </c>
       <c r="G1565" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -42477,7 +42483,7 @@
         <v>0.46000000834465</v>
       </c>
       <c r="G1566" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -42503,7 +42509,7 @@
         <v>0.467999994754791</v>
       </c>
       <c r="G1567" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -42529,7 +42535,7 @@
         <v>0.467999994754791</v>
       </c>
       <c r="G1568" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -42555,7 +42561,7 @@
         <v>0.467999994754791</v>
       </c>
       <c r="G1569" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -42581,7 +42587,7 @@
         <v>0.467999994754791</v>
       </c>
       <c r="G1570" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -42607,7 +42613,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1571" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -42633,7 +42639,7 @@
         <v>0.398000001907349</v>
       </c>
       <c r="G1572" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -42659,7 +42665,7 @@
         <v>0.400000005960464</v>
       </c>
       <c r="G1573" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -42685,7 +42691,7 @@
         <v>0.421999990940094</v>
       </c>
       <c r="G1574" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -42711,7 +42717,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1575" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -42737,7 +42743,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1576" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -42763,7 +42769,7 @@
         <v>0.42399999499321</v>
       </c>
       <c r="G1577" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -42789,7 +42795,7 @@
         <v>0.42399999499321</v>
       </c>
       <c r="G1578" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -42815,7 +42821,7 @@
         <v>0.430000007152557</v>
       </c>
       <c r="G1579" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -42841,7 +42847,7 @@
         <v>0.430000007152557</v>
       </c>
       <c r="G1580" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -42867,7 +42873,7 @@
         <v>0.433999985456467</v>
       </c>
       <c r="G1581" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -42893,7 +42899,7 @@
         <v>0.437999993562698</v>
       </c>
       <c r="G1582" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -42919,7 +42925,7 @@
         <v>0.439999997615814</v>
       </c>
       <c r="G1583" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -42945,7 +42951,7 @@
         <v>0.439999997615814</v>
       </c>
       <c r="G1584" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -42971,7 +42977,7 @@
         <v>0.448000013828278</v>
       </c>
       <c r="G1585" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -42997,7 +43003,7 @@
         <v>0.437999993562698</v>
       </c>
       <c r="G1586" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -43023,7 +43029,7 @@
         <v>0.430000007152557</v>
       </c>
       <c r="G1587" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -43049,7 +43055,7 @@
         <v>0.430000007152557</v>
       </c>
       <c r="G1588" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -43075,7 +43081,7 @@
         <v>0.430000007152557</v>
       </c>
       <c r="G1589" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -43101,7 +43107,7 @@
         <v>0.430000007152557</v>
       </c>
       <c r="G1590" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -43127,7 +43133,7 @@
         <v>0.435999989509583</v>
       </c>
       <c r="G1591" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -43153,7 +43159,7 @@
         <v>0.435999989509583</v>
       </c>
       <c r="G1592" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -43179,7 +43185,7 @@
         <v>0.435999989509583</v>
       </c>
       <c r="G1593" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -43205,7 +43211,7 @@
         <v>0.409999996423721</v>
       </c>
       <c r="G1594" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -43231,7 +43237,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1595" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -43257,7 +43263,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1596" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -43283,7 +43289,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1597" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -43309,7 +43315,7 @@
         <v>0.407999992370605</v>
       </c>
       <c r="G1598" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -43335,7 +43341,7 @@
         <v>0.407999992370605</v>
       </c>
       <c r="G1599" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -43361,7 +43367,7 @@
         <v>0.407999992370605</v>
       </c>
       <c r="G1600" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -43387,7 +43393,7 @@
         <v>0.407999992370605</v>
       </c>
       <c r="G1601" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -43413,7 +43419,7 @@
         <v>0.407999992370605</v>
       </c>
       <c r="G1602" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -43439,7 +43445,7 @@
         <v>0.409999996423721</v>
       </c>
       <c r="G1603" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -43465,7 +43471,7 @@
         <v>0.409999996423721</v>
       </c>
       <c r="G1604" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -43491,7 +43497,7 @@
         <v>0.409999996423721</v>
       </c>
       <c r="G1605" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -43517,7 +43523,7 @@
         <v>0.40200001001358</v>
       </c>
       <c r="G1606" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -43543,7 +43549,7 @@
         <v>0.40200001001358</v>
       </c>
       <c r="G1607" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -43569,7 +43575,7 @@
         <v>0.40200001001358</v>
       </c>
       <c r="G1608" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -43595,7 +43601,7 @@
         <v>0.40200001001358</v>
       </c>
       <c r="G1609" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -43621,7 +43627,7 @@
         <v>0.40200001001358</v>
       </c>
       <c r="G1610" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -43647,7 +43653,7 @@
         <v>0.416000008583069</v>
       </c>
       <c r="G1611" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -43673,7 +43679,7 @@
         <v>0.416000008583069</v>
       </c>
       <c r="G1612" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -43699,7 +43705,7 @@
         <v>0.416000008583069</v>
       </c>
       <c r="G1613" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -43725,7 +43731,7 @@
         <v>0.416000008583069</v>
       </c>
       <c r="G1614" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -43751,7 +43757,7 @@
         <v>0.416000008583069</v>
       </c>
       <c r="G1615" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -43777,7 +43783,7 @@
         <v>0.407999992370605</v>
       </c>
       <c r="G1616" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -43803,7 +43809,7 @@
         <v>0.407999992370605</v>
       </c>
       <c r="G1617" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -43829,7 +43835,7 @@
         <v>0.407999992370605</v>
       </c>
       <c r="G1618" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -43855,7 +43861,7 @@
         <v>0.428000003099442</v>
       </c>
       <c r="G1619" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -43881,7 +43887,7 @@
         <v>0.40200001001358</v>
       </c>
       <c r="G1620" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -43907,7 +43913,7 @@
         <v>0.40200001001358</v>
       </c>
       <c r="G1621" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -43933,7 +43939,7 @@
         <v>0.40200001001358</v>
       </c>
       <c r="G1622" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -43959,7 +43965,7 @@
         <v>0.407999992370605</v>
       </c>
       <c r="G1623" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -43985,7 +43991,7 @@
         <v>0.407999992370605</v>
       </c>
       <c r="G1624" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -44011,7 +44017,7 @@
         <v>0.407999992370605</v>
       </c>
       <c r="G1625" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -44037,7 +44043,7 @@
         <v>0.398000001907349</v>
       </c>
       <c r="G1626" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -44063,7 +44069,7 @@
         <v>0.404000014066696</v>
       </c>
       <c r="G1627" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -44089,7 +44095,7 @@
         <v>0.404000014066696</v>
       </c>
       <c r="G1628" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -44115,7 +44121,7 @@
         <v>0.404000014066696</v>
       </c>
       <c r="G1629" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -44141,7 +44147,7 @@
         <v>0.404000014066696</v>
       </c>
       <c r="G1630" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -44167,7 +44173,7 @@
         <v>0.404000014066696</v>
       </c>
       <c r="G1631" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -44193,7 +44199,7 @@
         <v>0.404000014066696</v>
       </c>
       <c r="G1632" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -44219,7 +44225,7 @@
         <v>0.404000014066696</v>
       </c>
       <c r="G1633" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -44245,7 +44251,7 @@
         <v>0.404000014066696</v>
       </c>
       <c r="G1634" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -44271,7 +44277,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1635" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44297,7 +44303,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1636" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44323,7 +44329,7 @@
         <v>0.421999990940094</v>
       </c>
       <c r="G1637" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44349,7 +44355,7 @@
         <v>0.40599998831749</v>
       </c>
       <c r="G1638" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44375,7 +44381,7 @@
         <v>0.409999996423721</v>
       </c>
       <c r="G1639" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44401,7 +44407,7 @@
         <v>0.409999996423721</v>
       </c>
       <c r="G1640" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44427,7 +44433,7 @@
         <v>0.409999996423721</v>
       </c>
       <c r="G1641" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44453,7 +44459,7 @@
         <v>0.409999996423721</v>
       </c>
       <c r="G1642" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44479,7 +44485,7 @@
         <v>0.409999996423721</v>
       </c>
       <c r="G1643" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -44505,7 +44511,7 @@
         <v>0.409999996423721</v>
       </c>
       <c r="G1644" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -44531,7 +44537,7 @@
         <v>0.395999997854233</v>
       </c>
       <c r="G1645" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -44557,7 +44563,7 @@
         <v>0.395999997854233</v>
       </c>
       <c r="G1646" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -44583,7 +44589,7 @@
         <v>0.395999997854233</v>
       </c>
       <c r="G1647" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -44609,7 +44615,7 @@
         <v>0.395999997854233</v>
       </c>
       <c r="G1648" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -44635,7 +44641,7 @@
         <v>0.395999997854233</v>
       </c>
       <c r="G1649" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -44661,7 +44667,7 @@
         <v>0.395999997854233</v>
       </c>
       <c r="G1650" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -44687,7 +44693,7 @@
         <v>0.395999997854233</v>
       </c>
       <c r="G1651" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -44713,7 +44719,7 @@
         <v>0.395999997854233</v>
       </c>
       <c r="G1652" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -44739,7 +44745,7 @@
         <v>0.395999997854233</v>
       </c>
       <c r="G1653" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -44765,7 +44771,7 @@
         <v>0.395999997854233</v>
       </c>
       <c r="G1654" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -44791,7 +44797,7 @@
         <v>0.395999997854233</v>
       </c>
       <c r="G1655" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -44817,7 +44823,7 @@
         <v>0.395999997854233</v>
       </c>
       <c r="G1656" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -44843,7 +44849,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1657" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -44869,7 +44875,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1658" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -44895,7 +44901,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1659" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -44921,7 +44927,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1660" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -44947,7 +44953,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1661" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -44973,7 +44979,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1662" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -44999,7 +45005,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1663" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -45025,7 +45031,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1664" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -45051,7 +45057,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1665" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -45077,7 +45083,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1666" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -45103,7 +45109,7 @@
         <v>0.370000004768372</v>
       </c>
       <c r="G1667" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -45129,7 +45135,7 @@
         <v>0.370000004768372</v>
       </c>
       <c r="G1668" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -45155,7 +45161,7 @@
         <v>0.370000004768372</v>
       </c>
       <c r="G1669" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45181,7 +45187,7 @@
         <v>0.370000004768372</v>
       </c>
       <c r="G1670" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -45207,7 +45213,7 @@
         <v>0.370000004768372</v>
       </c>
       <c r="G1671" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -45233,7 +45239,7 @@
         <v>0.381999999284744</v>
       </c>
       <c r="G1672" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -45259,7 +45265,7 @@
         <v>0.400000005960464</v>
       </c>
       <c r="G1673" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -45285,7 +45291,7 @@
         <v>0.400000005960464</v>
       </c>
       <c r="G1674" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45311,7 +45317,7 @@
         <v>0.400000005960464</v>
       </c>
       <c r="G1675" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -45337,7 +45343,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1676" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -45363,7 +45369,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1677" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -45389,7 +45395,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1678" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -45415,7 +45421,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1679" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -45441,7 +45447,7 @@
         <v>0.38400000333786</v>
       </c>
       <c r="G1680" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -45467,7 +45473,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1681" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -45493,7 +45499,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1682" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -45519,7 +45525,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1683" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -45545,7 +45551,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1684" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -45571,7 +45577,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1685" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -45597,7 +45603,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1686" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -45623,7 +45629,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1687" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -45649,7 +45655,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1688" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -45675,7 +45681,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1689" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -45701,7 +45707,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1690" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -45727,7 +45733,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1691" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -45753,7 +45759,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1692" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -45779,7 +45785,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1693" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -45805,7 +45811,7 @@
         <v>0.377999991178513</v>
       </c>
       <c r="G1694" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -45831,7 +45837,7 @@
         <v>0.377999991178513</v>
       </c>
       <c r="G1695" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -45857,7 +45863,7 @@
         <v>0.377999991178513</v>
       </c>
       <c r="G1696" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -45883,7 +45889,7 @@
         <v>0.377999991178513</v>
       </c>
       <c r="G1697" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -45909,7 +45915,7 @@
         <v>0.377999991178513</v>
       </c>
       <c r="G1698" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -45935,7 +45941,7 @@
         <v>0.377999991178513</v>
       </c>
       <c r="G1699" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -45961,7 +45967,7 @@
         <v>0.377999991178513</v>
       </c>
       <c r="G1700" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -45987,7 +45993,7 @@
         <v>0.377999991178513</v>
       </c>
       <c r="G1701" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -46013,7 +46019,7 @@
         <v>0.377999991178513</v>
       </c>
       <c r="G1702" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -46039,7 +46045,7 @@
         <v>0.377999991178513</v>
       </c>
       <c r="G1703" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -46065,7 +46071,7 @@
         <v>0.377999991178513</v>
       </c>
       <c r="G1704" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -46091,7 +46097,7 @@
         <v>0.381999999284744</v>
       </c>
       <c r="G1705" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -46117,7 +46123,7 @@
         <v>0.381999999284744</v>
       </c>
       <c r="G1706" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -46143,7 +46149,7 @@
         <v>0.381999999284744</v>
       </c>
       <c r="G1707" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -46169,7 +46175,7 @@
         <v>0.381999999284744</v>
       </c>
       <c r="G1708" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46195,7 +46201,7 @@
         <v>0.381999999284744</v>
       </c>
       <c r="G1709" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -46221,7 +46227,7 @@
         <v>0.381999999284744</v>
       </c>
       <c r="G1710" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -46247,7 +46253,7 @@
         <v>0.381999999284744</v>
       </c>
       <c r="G1711" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -46273,7 +46279,7 @@
         <v>0.381999999284744</v>
       </c>
       <c r="G1712" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46299,7 +46305,7 @@
         <v>0.381999999284744</v>
       </c>
       <c r="G1713" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -46325,7 +46331,7 @@
         <v>0.381999999284744</v>
       </c>
       <c r="G1714" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46351,7 +46357,7 @@
         <v>0.381999999284744</v>
       </c>
       <c r="G1715" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -46377,7 +46383,7 @@
         <v>0.381999999284744</v>
       </c>
       <c r="G1716" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -46403,7 +46409,7 @@
         <v>0.381999999284744</v>
       </c>
       <c r="G1717" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -46429,7 +46435,7 @@
         <v>0.381999999284744</v>
       </c>
       <c r="G1718" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -46455,7 +46461,7 @@
         <v>0.381999999284744</v>
       </c>
       <c r="G1719" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -46481,7 +46487,7 @@
         <v>0.381999999284744</v>
       </c>
       <c r="G1720" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -46507,7 +46513,7 @@
         <v>0.381999999284744</v>
       </c>
       <c r="G1721" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -46533,7 +46539,7 @@
         <v>0.368000000715256</v>
       </c>
       <c r="G1722" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -46559,7 +46565,7 @@
         <v>0.368000000715256</v>
       </c>
       <c r="G1723" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -46585,7 +46591,7 @@
         <v>0.368000000715256</v>
       </c>
       <c r="G1724" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -46611,7 +46617,7 @@
         <v>0.368000000715256</v>
       </c>
       <c r="G1725" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -46637,7 +46643,7 @@
         <v>0.358000010251999</v>
       </c>
       <c r="G1726" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -46663,7 +46669,7 @@
         <v>0.358000010251999</v>
       </c>
       <c r="G1727" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -46689,7 +46695,7 @@
         <v>0.358000010251999</v>
       </c>
       <c r="G1728" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -46715,7 +46721,7 @@
         <v>0.358000010251999</v>
       </c>
       <c r="G1729" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -46741,7 +46747,7 @@
         <v>0.358000010251999</v>
       </c>
       <c r="G1730" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -46767,7 +46773,7 @@
         <v>0.358000010251999</v>
       </c>
       <c r="G1731" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -46793,7 +46799,7 @@
         <v>0.358000010251999</v>
       </c>
       <c r="G1732" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -46819,7 +46825,7 @@
         <v>0.358000010251999</v>
       </c>
       <c r="G1733" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -46845,7 +46851,7 @@
         <v>0.358000010251999</v>
       </c>
       <c r="G1734" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -46871,7 +46877,7 @@
         <v>0.363999992609024</v>
       </c>
       <c r="G1735" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -46897,7 +46903,7 @@
         <v>0.363999992609024</v>
       </c>
       <c r="G1736" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -46923,7 +46929,7 @@
         <v>0.363999992609024</v>
       </c>
       <c r="G1737" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -46949,7 +46955,7 @@
         <v>0.363999992609024</v>
       </c>
       <c r="G1738" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -46975,7 +46981,7 @@
         <v>0.363999992609024</v>
       </c>
       <c r="G1739" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -47001,7 +47007,7 @@
         <v>0.363999992609024</v>
       </c>
       <c r="G1740" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -47027,7 +47033,7 @@
         <v>0.363999992609024</v>
       </c>
       <c r="G1741" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -47053,7 +47059,7 @@
         <v>0.358000010251999</v>
       </c>
       <c r="G1742" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -47079,7 +47085,7 @@
         <v>0.358000010251999</v>
       </c>
       <c r="G1743" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -47105,7 +47111,7 @@
         <v>0.358000010251999</v>
       </c>
       <c r="G1744" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -47131,7 +47137,7 @@
         <v>0.358000010251999</v>
       </c>
       <c r="G1745" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -47157,7 +47163,7 @@
         <v>0.358000010251999</v>
       </c>
       <c r="G1746" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47183,7 +47189,7 @@
         <v>0.358000010251999</v>
       </c>
       <c r="G1747" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -47209,7 +47215,7 @@
         <v>0.354000002145767</v>
       </c>
       <c r="G1748" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47235,7 +47241,7 @@
         <v>0.354000002145767</v>
       </c>
       <c r="G1749" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47261,7 +47267,7 @@
         <v>0.354000002145767</v>
       </c>
       <c r="G1750" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47287,7 +47293,7 @@
         <v>0.354000002145767</v>
       </c>
       <c r="G1751" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47313,7 +47319,7 @@
         <v>0.349999994039536</v>
       </c>
       <c r="G1752" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47339,7 +47345,7 @@
         <v>0.349999994039536</v>
       </c>
       <c r="G1753" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -47365,7 +47371,7 @@
         <v>0.349999994039536</v>
       </c>
       <c r="G1754" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -47391,7 +47397,7 @@
         <v>0.349999994039536</v>
       </c>
       <c r="G1755" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -47417,7 +47423,7 @@
         <v>0.349999994039536</v>
       </c>
       <c r="G1756" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -47443,7 +47449,7 @@
         <v>0.351999998092651</v>
       </c>
       <c r="G1757" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -47469,7 +47475,7 @@
         <v>0.351999998092651</v>
       </c>
       <c r="G1758" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -47495,7 +47501,7 @@
         <v>0.351999998092651</v>
       </c>
       <c r="G1759" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -47521,7 +47527,7 @@
         <v>0.351999998092651</v>
       </c>
       <c r="G1760" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -47547,7 +47553,7 @@
         <v>0.351999998092651</v>
       </c>
       <c r="G1761" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -47573,7 +47579,7 @@
         <v>0.351999998092651</v>
       </c>
       <c r="G1762" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -47599,7 +47605,7 @@
         <v>0.351999998092651</v>
       </c>
       <c r="G1763" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -47625,7 +47631,7 @@
         <v>0.349999994039536</v>
       </c>
       <c r="G1764" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -47651,7 +47657,7 @@
         <v>0.349999994039536</v>
       </c>
       <c r="G1765" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -47677,7 +47683,7 @@
         <v>0.349999994039536</v>
       </c>
       <c r="G1766" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -47703,7 +47709,7 @@
         <v>0.349999994039536</v>
       </c>
       <c r="G1767" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -47729,7 +47735,7 @@
         <v>0.349999994039536</v>
       </c>
       <c r="G1768" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -47755,7 +47761,7 @@
         <v>0.349999994039536</v>
       </c>
       <c r="G1769" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -47781,7 +47787,7 @@
         <v>0.349999994039536</v>
       </c>
       <c r="G1770" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -47807,7 +47813,7 @@
         <v>0.349999994039536</v>
       </c>
       <c r="G1771" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -47833,7 +47839,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G1772" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -47859,7 +47865,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G1773" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -47885,7 +47891,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G1774" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -47911,7 +47917,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G1775" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -47937,7 +47943,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G1776" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -47963,7 +47969,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G1777" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -47989,7 +47995,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G1778" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -48015,7 +48021,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G1779" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -48041,7 +48047,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G1780" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -48067,7 +48073,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G1781" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -48093,7 +48099,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G1782" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -48119,7 +48125,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G1783" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -48145,7 +48151,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G1784" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -48171,7 +48177,7 @@
         <v>0.349999994039536</v>
       </c>
       <c r="G1785" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48197,7 +48203,7 @@
         <v>0.354000002145767</v>
       </c>
       <c r="G1786" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48223,7 +48229,7 @@
         <v>0.354000002145767</v>
       </c>
       <c r="G1787" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48249,7 +48255,7 @@
         <v>0.354000002145767</v>
       </c>
       <c r="G1788" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48275,7 +48281,7 @@
         <v>0.354000002145767</v>
       </c>
       <c r="G1789" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48301,7 +48307,7 @@
         <v>0.354000002145767</v>
       </c>
       <c r="G1790" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -48327,7 +48333,7 @@
         <v>0.356000006198883</v>
       </c>
       <c r="G1791" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -48353,7 +48359,7 @@
         <v>0.356000006198883</v>
       </c>
       <c r="G1792" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -48379,7 +48385,7 @@
         <v>0.356000006198883</v>
       </c>
       <c r="G1793" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -48405,7 +48411,7 @@
         <v>0.356000006198883</v>
       </c>
       <c r="G1794" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -48431,7 +48437,7 @@
         <v>0.356000006198883</v>
       </c>
       <c r="G1795" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -48457,7 +48463,7 @@
         <v>0.356000006198883</v>
       </c>
       <c r="G1796" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -48483,7 +48489,7 @@
         <v>0.356000006198883</v>
       </c>
       <c r="G1797" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -48509,7 +48515,7 @@
         <v>0.356000006198883</v>
       </c>
       <c r="G1798" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -48535,7 +48541,7 @@
         <v>0.34400001168251</v>
       </c>
       <c r="G1799" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -48561,7 +48567,7 @@
         <v>0.34400001168251</v>
       </c>
       <c r="G1800" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -48587,7 +48593,7 @@
         <v>0.360000014305115</v>
       </c>
       <c r="G1801" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -48613,7 +48619,7 @@
         <v>0.360000014305115</v>
       </c>
       <c r="G1802" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -48639,7 +48645,7 @@
         <v>0.360000014305115</v>
       </c>
       <c r="G1803" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -48665,7 +48671,7 @@
         <v>0.34400001168251</v>
       </c>
       <c r="G1804" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -48691,7 +48697,7 @@
         <v>0.34400001168251</v>
       </c>
       <c r="G1805" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -48717,7 +48723,7 @@
         <v>0.34400001168251</v>
       </c>
       <c r="G1806" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -48743,7 +48749,7 @@
         <v>0.361999988555908</v>
       </c>
       <c r="G1807" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -48769,7 +48775,7 @@
         <v>0.361999988555908</v>
       </c>
       <c r="G1808" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -48795,7 +48801,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G1809" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -48821,7 +48827,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G1810" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -48847,7 +48853,7 @@
         <v>0.375999987125397</v>
       </c>
       <c r="G1811" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -48873,7 +48879,7 @@
         <v>0.363999992609024</v>
       </c>
       <c r="G1812" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -48899,7 +48905,7 @@
         <v>0.363999992609024</v>
       </c>
       <c r="G1813" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -48925,7 +48931,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G1814" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -48951,7 +48957,7 @@
         <v>0.375999987125397</v>
       </c>
       <c r="G1815" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -48977,7 +48983,7 @@
         <v>0.375999987125397</v>
       </c>
       <c r="G1816" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -49003,7 +49009,7 @@
         <v>0.375999987125397</v>
       </c>
       <c r="G1817" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -49029,7 +49035,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1818" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -49055,7 +49061,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1819" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -49081,7 +49087,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1820" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -49107,7 +49113,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1821" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -49133,7 +49139,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1822" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -49159,7 +49165,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1823" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49185,7 +49191,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1824" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49211,7 +49217,7 @@
         <v>0.389999985694885</v>
       </c>
       <c r="G1825" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49237,7 +49243,7 @@
         <v>0.377999991178513</v>
       </c>
       <c r="G1826" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49263,7 +49269,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1827" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49289,7 +49295,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1828" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49315,7 +49321,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1829" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49341,7 +49347,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1830" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -49367,7 +49373,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1831" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -49393,7 +49399,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1832" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -49419,7 +49425,7 @@
         <v>0.377999991178513</v>
       </c>
       <c r="G1833" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -49445,7 +49451,7 @@
         <v>0.377999991178513</v>
       </c>
       <c r="G1834" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -49471,7 +49477,7 @@
         <v>0.377999991178513</v>
       </c>
       <c r="G1835" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -49497,7 +49503,7 @@
         <v>0.377999991178513</v>
       </c>
       <c r="G1836" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -49523,7 +49529,7 @@
         <v>0.377999991178513</v>
       </c>
       <c r="G1837" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -49549,7 +49555,7 @@
         <v>0.377999991178513</v>
       </c>
       <c r="G1838" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -49575,7 +49581,7 @@
         <v>0.377999991178513</v>
       </c>
       <c r="G1839" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -49601,7 +49607,7 @@
         <v>0.377999991178513</v>
       </c>
       <c r="G1840" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -49627,7 +49633,7 @@
         <v>0.370000004768372</v>
       </c>
       <c r="G1841" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -49653,7 +49659,7 @@
         <v>0.363999992609024</v>
       </c>
       <c r="G1842" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -49679,7 +49685,7 @@
         <v>0.363999992609024</v>
       </c>
       <c r="G1843" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -49705,7 +49711,7 @@
         <v>0.363999992609024</v>
       </c>
       <c r="G1844" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -49731,7 +49737,7 @@
         <v>0.36599999666214</v>
       </c>
       <c r="G1845" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -49757,7 +49763,7 @@
         <v>0.404000014066696</v>
       </c>
       <c r="G1846" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -49783,7 +49789,7 @@
         <v>0.409999996423721</v>
       </c>
       <c r="G1847" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -49809,7 +49815,7 @@
         <v>0.437999993562698</v>
       </c>
       <c r="G1848" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -49835,7 +49841,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1849" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -49861,7 +49867,7 @@
         <v>0.428000003099442</v>
       </c>
       <c r="G1850" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -49887,7 +49893,7 @@
         <v>0.430000007152557</v>
       </c>
       <c r="G1851" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -49913,7 +49919,7 @@
         <v>0.432000011205673</v>
       </c>
       <c r="G1852" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -49939,7 +49945,7 @@
         <v>0.42399999499321</v>
       </c>
       <c r="G1853" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -49965,7 +49971,7 @@
         <v>0.42399999499321</v>
       </c>
       <c r="G1854" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -49991,7 +49997,7 @@
         <v>0.425999999046326</v>
       </c>
       <c r="G1855" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -50017,7 +50023,7 @@
         <v>0.425999999046326</v>
       </c>
       <c r="G1856" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -50043,7 +50049,7 @@
         <v>0.425999999046326</v>
       </c>
       <c r="G1857" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -50069,7 +50075,7 @@
         <v>0.425999999046326</v>
       </c>
       <c r="G1858" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -50095,7 +50101,7 @@
         <v>0.425999999046326</v>
       </c>
       <c r="G1859" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -50121,7 +50127,7 @@
         <v>0.425999999046326</v>
       </c>
       <c r="G1860" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -50147,7 +50153,7 @@
         <v>0.425999999046326</v>
       </c>
       <c r="G1861" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -50173,7 +50179,7 @@
         <v>0.425999999046326</v>
       </c>
       <c r="G1862" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -50199,7 +50205,7 @@
         <v>0.425999999046326</v>
       </c>
       <c r="G1863" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -50225,7 +50231,7 @@
         <v>0.425999999046326</v>
       </c>
       <c r="G1864" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -50251,7 +50257,7 @@
         <v>0.425999999046326</v>
       </c>
       <c r="G1865" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -50277,7 +50283,7 @@
         <v>0.421999990940094</v>
       </c>
       <c r="G1866" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -50303,7 +50309,7 @@
         <v>0.42399999499321</v>
       </c>
       <c r="G1867" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50329,7 +50335,7 @@
         <v>0.42399999499321</v>
       </c>
       <c r="G1868" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -50355,7 +50361,7 @@
         <v>0.437999993562698</v>
       </c>
       <c r="G1869" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -50381,7 +50387,7 @@
         <v>0.437999993562698</v>
       </c>
       <c r="G1870" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -50407,7 +50413,7 @@
         <v>0.437999993562698</v>
       </c>
       <c r="G1871" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -50433,7 +50439,7 @@
         <v>0.446000009775162</v>
       </c>
       <c r="G1872" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -50459,7 +50465,7 @@
         <v>0.428000003099442</v>
       </c>
       <c r="G1873" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -50485,7 +50491,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1874" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -50511,7 +50517,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1875" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -50537,7 +50543,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1876" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -50563,7 +50569,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1877" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -50589,7 +50595,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1878" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -50615,7 +50621,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1879" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -50641,7 +50647,7 @@
         <v>0.40599998831749</v>
       </c>
       <c r="G1880" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -50667,7 +50673,7 @@
         <v>0.398000001907349</v>
       </c>
       <c r="G1881" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -50693,7 +50699,7 @@
         <v>0.395999997854233</v>
       </c>
       <c r="G1882" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -50719,7 +50725,7 @@
         <v>0.404000014066696</v>
       </c>
       <c r="G1883" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -50745,7 +50751,7 @@
         <v>0.395999997854233</v>
       </c>
       <c r="G1884" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -50771,7 +50777,7 @@
         <v>0.345999985933304</v>
       </c>
       <c r="G1885" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -50797,7 +50803,7 @@
         <v>0.345999985933304</v>
       </c>
       <c r="G1886" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -50823,7 +50829,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G1887" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -50849,7 +50855,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G1888" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -50875,7 +50881,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G1889" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -50901,7 +50907,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G1890" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -50927,7 +50933,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G1891" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -50953,7 +50959,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G1892" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -50979,7 +50985,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G1893" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -51005,7 +51011,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G1894" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -51031,7 +51037,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G1895" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -51057,7 +51063,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G1896" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -51083,7 +51089,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G1897" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -51109,7 +51115,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G1898" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -51135,7 +51141,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G1899" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -51161,7 +51167,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G1900" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51187,7 +51193,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G1901" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51213,7 +51219,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G1902" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51239,7 +51245,7 @@
         <v>0.333999991416931</v>
       </c>
       <c r="G1903" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51265,7 +51271,7 @@
         <v>0.333999991416931</v>
       </c>
       <c r="G1904" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51291,7 +51297,7 @@
         <v>0.333999991416931</v>
       </c>
       <c r="G1905" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51317,7 +51323,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G1906" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51343,7 +51349,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G1907" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -51369,7 +51375,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G1908" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -51395,7 +51401,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G1909" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -51421,7 +51427,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G1910" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -51447,7 +51453,7 @@
         <v>0.333999991416931</v>
       </c>
       <c r="G1911" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -51473,7 +51479,7 @@
         <v>0.333999991416931</v>
       </c>
       <c r="G1912" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -51499,7 +51505,7 @@
         <v>0.333999991416931</v>
       </c>
       <c r="G1913" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -51525,7 +51531,7 @@
         <v>0.335999995470047</v>
       </c>
       <c r="G1914" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -51551,7 +51557,7 @@
         <v>0.335999995470047</v>
       </c>
       <c r="G1915" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -51577,7 +51583,7 @@
         <v>0.335999995470047</v>
       </c>
       <c r="G1916" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -51603,7 +51609,7 @@
         <v>0.335999995470047</v>
       </c>
       <c r="G1917" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -51629,7 +51635,7 @@
         <v>0.335999995470047</v>
       </c>
       <c r="G1918" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -51655,7 +51661,7 @@
         <v>0.335999995470047</v>
       </c>
       <c r="G1919" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -51681,7 +51687,7 @@
         <v>0.335999995470047</v>
       </c>
       <c r="G1920" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -51707,7 +51713,7 @@
         <v>0.345999985933304</v>
       </c>
       <c r="G1921" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -51733,7 +51739,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G1922" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -51759,7 +51765,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G1923" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -51785,7 +51791,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G1924" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -51811,7 +51817,7 @@
         <v>0.351999998092651</v>
       </c>
       <c r="G1925" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -51837,7 +51843,7 @@
         <v>0.351999998092651</v>
       </c>
       <c r="G1926" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -51863,7 +51869,7 @@
         <v>0.351999998092651</v>
       </c>
       <c r="G1927" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -51889,7 +51895,7 @@
         <v>0.349999994039536</v>
       </c>
       <c r="G1928" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -51915,7 +51921,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G1929" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -51941,7 +51947,7 @@
         <v>0.351999998092651</v>
       </c>
       <c r="G1930" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -51967,7 +51973,7 @@
         <v>0.351999998092651</v>
       </c>
       <c r="G1931" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -51993,7 +51999,7 @@
         <v>0.351999998092651</v>
       </c>
       <c r="G1932" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -52019,7 +52025,7 @@
         <v>0.351999998092651</v>
       </c>
       <c r="G1933" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -52045,7 +52051,7 @@
         <v>0.351999998092651</v>
       </c>
       <c r="G1934" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -52071,7 +52077,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G1935" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -52097,7 +52103,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G1936" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -52123,7 +52129,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G1937" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -52149,7 +52155,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G1938" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52175,7 +52181,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G1939" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52201,7 +52207,7 @@
         <v>0.349999994039536</v>
       </c>
       <c r="G1940" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52227,7 +52233,7 @@
         <v>0.349999994039536</v>
       </c>
       <c r="G1941" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52253,7 +52259,7 @@
         <v>0.349999994039536</v>
       </c>
       <c r="G1942" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52279,7 +52285,7 @@
         <v>0.349999994039536</v>
       </c>
       <c r="G1943" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52305,7 +52311,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G1944" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52331,7 +52337,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G1945" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -52357,7 +52363,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G1946" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -52383,7 +52389,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G1947" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -52409,7 +52415,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G1948" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -52435,7 +52441,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G1949" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -52461,7 +52467,7 @@
         <v>0.331999987363815</v>
       </c>
       <c r="G1950" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -52487,7 +52493,7 @@
         <v>0.331999987363815</v>
       </c>
       <c r="G1951" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -52513,7 +52519,7 @@
         <v>0.331999987363815</v>
       </c>
       <c r="G1952" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -52539,7 +52545,7 @@
         <v>0.32600000500679</v>
       </c>
       <c r="G1953" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -52565,7 +52571,7 @@
         <v>0.333999991416931</v>
       </c>
       <c r="G1954" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -52591,7 +52597,7 @@
         <v>0.335999995470047</v>
       </c>
       <c r="G1955" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -52617,7 +52623,7 @@
         <v>0.335999995470047</v>
       </c>
       <c r="G1956" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -52643,7 +52649,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G1957" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -52669,7 +52675,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G1958" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -52695,7 +52701,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G1959" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -52721,7 +52727,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G1960" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -52747,7 +52753,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G1961" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -52773,7 +52779,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G1962" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -52799,7 +52805,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G1963" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -52825,7 +52831,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G1964" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -52851,7 +52857,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G1965" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -52877,7 +52883,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G1966" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -52903,7 +52909,7 @@
         <v>0.328000009059906</v>
       </c>
       <c r="G1967" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -52929,7 +52935,7 @@
         <v>0.328000009059906</v>
       </c>
       <c r="G1968" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -52955,7 +52961,7 @@
         <v>0.328000009059906</v>
       </c>
       <c r="G1969" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -52981,7 +52987,7 @@
         <v>0.328000009059906</v>
       </c>
       <c r="G1970" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -53007,7 +53013,7 @@
         <v>0.333999991416931</v>
       </c>
       <c r="G1971" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -53033,7 +53039,7 @@
         <v>0.333999991416931</v>
       </c>
       <c r="G1972" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -53059,7 +53065,7 @@
         <v>0.333999991416931</v>
       </c>
       <c r="G1973" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -53085,7 +53091,7 @@
         <v>0.333999991416931</v>
       </c>
       <c r="G1974" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -53111,7 +53117,7 @@
         <v>0.333999991416931</v>
       </c>
       <c r="G1975" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -53137,7 +53143,7 @@
         <v>0.333999991416931</v>
       </c>
       <c r="G1976" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -53163,7 +53169,7 @@
         <v>0.333999991416931</v>
       </c>
       <c r="G1977" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53189,7 +53195,7 @@
         <v>0.333999991416931</v>
       </c>
       <c r="G1978" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53215,7 +53221,7 @@
         <v>0.333999991416931</v>
       </c>
       <c r="G1979" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53241,7 +53247,7 @@
         <v>0.333999991416931</v>
       </c>
       <c r="G1980" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53267,7 +53273,7 @@
         <v>0.333999991416931</v>
       </c>
       <c r="G1981" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53293,7 +53299,7 @@
         <v>0.328000009059906</v>
       </c>
       <c r="G1982" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53319,7 +53325,7 @@
         <v>0.328000009059906</v>
       </c>
       <c r="G1983" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53345,7 +53351,7 @@
         <v>0.328000009059906</v>
       </c>
       <c r="G1984" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -53371,7 +53377,7 @@
         <v>0.328000009059906</v>
       </c>
       <c r="G1985" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -53397,7 +53403,7 @@
         <v>0.328000009059906</v>
       </c>
       <c r="G1986" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -53423,7 +53429,7 @@
         <v>0.328000009059906</v>
       </c>
       <c r="G1987" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -53449,7 +53455,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1988" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -53475,7 +53481,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1989" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -53501,7 +53507,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1990" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -53527,7 +53533,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1991" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -53553,7 +53559,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1992" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -53579,7 +53585,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1993" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -53605,7 +53611,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1994" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -53631,7 +53637,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1995" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -53657,7 +53663,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G1996" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -53683,7 +53689,7 @@
         <v>0.333999991416931</v>
       </c>
       <c r="G1997" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -53709,7 +53715,7 @@
         <v>0.333999991416931</v>
       </c>
       <c r="G1998" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -53735,7 +53741,7 @@
         <v>0.333999991416931</v>
       </c>
       <c r="G1999" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -53761,7 +53767,7 @@
         <v>0.333999991416931</v>
       </c>
       <c r="G2000" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -53787,7 +53793,7 @@
         <v>0.324000000953674</v>
       </c>
       <c r="G2001" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -53813,7 +53819,7 @@
         <v>0.316000014543533</v>
       </c>
       <c r="G2002" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -53839,7 +53845,7 @@
         <v>0.330000013113022</v>
       </c>
       <c r="G2003" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -53865,7 +53871,7 @@
         <v>0.321999996900558</v>
       </c>
       <c r="G2004" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -53891,7 +53897,7 @@
         <v>0.321999996900558</v>
       </c>
       <c r="G2005" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -53917,7 +53923,7 @@
         <v>0.32600000500679</v>
       </c>
       <c r="G2006" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -53943,7 +53949,7 @@
         <v>0.328000009059906</v>
       </c>
       <c r="G2007" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -53969,7 +53975,7 @@
         <v>0.328000009059906</v>
       </c>
       <c r="G2008" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -53995,7 +54001,7 @@
         <v>0.317999988794327</v>
       </c>
       <c r="G2009" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -54021,7 +54027,7 @@
         <v>0.317999988794327</v>
       </c>
       <c r="G2010" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -54047,7 +54053,7 @@
         <v>0.317999988794327</v>
       </c>
       <c r="G2011" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -54073,7 +54079,7 @@
         <v>0.317999988794327</v>
       </c>
       <c r="G2012" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -54099,7 +54105,7 @@
         <v>0.324000000953674</v>
       </c>
       <c r="G2013" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -54125,7 +54131,7 @@
         <v>0.32600000500679</v>
       </c>
       <c r="G2014" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -54151,7 +54157,7 @@
         <v>0.314000010490417</v>
       </c>
       <c r="G2015" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54177,7 +54183,7 @@
         <v>0.317999988794327</v>
       </c>
       <c r="G2016" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54203,7 +54209,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G2017" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54229,7 +54235,7 @@
         <v>0.319999992847443</v>
       </c>
       <c r="G2018" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54255,7 +54261,7 @@
         <v>0.321999996900558</v>
       </c>
       <c r="G2019" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54281,7 +54287,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G2020" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54307,7 +54313,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G2021" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54333,7 +54339,7 @@
         <v>0.331999987363815</v>
       </c>
       <c r="G2022" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -54359,7 +54365,7 @@
         <v>0.331999987363815</v>
       </c>
       <c r="G2023" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -54385,7 +54391,7 @@
         <v>0.331999987363815</v>
       </c>
       <c r="G2024" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -54411,7 +54417,7 @@
         <v>0.331999987363815</v>
       </c>
       <c r="G2025" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -54437,7 +54443,7 @@
         <v>0.331999987363815</v>
       </c>
       <c r="G2026" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -54463,7 +54469,7 @@
         <v>0.331999987363815</v>
       </c>
       <c r="G2027" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -54489,7 +54495,7 @@
         <v>0.331999987363815</v>
       </c>
       <c r="G2028" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -54515,7 +54521,7 @@
         <v>0.345999985933304</v>
       </c>
       <c r="G2029" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -54541,7 +54547,7 @@
         <v>0.345999985933304</v>
       </c>
       <c r="G2030" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -54567,7 +54573,7 @@
         <v>0.356000006198883</v>
       </c>
       <c r="G2031" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -54593,7 +54599,7 @@
         <v>0.356000006198883</v>
       </c>
       <c r="G2032" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -54619,7 +54625,7 @@
         <v>0.356000006198883</v>
       </c>
       <c r="G2033" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -54645,7 +54651,7 @@
         <v>0.356000006198883</v>
       </c>
       <c r="G2034" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -54671,7 +54677,7 @@
         <v>0.34400001168251</v>
       </c>
       <c r="G2035" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -54697,7 +54703,7 @@
         <v>0.34400001168251</v>
       </c>
       <c r="G2036" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -54723,7 +54729,7 @@
         <v>0.333999991416931</v>
       </c>
       <c r="G2037" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -54749,7 +54755,7 @@
         <v>0.333999991416931</v>
       </c>
       <c r="G2038" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -54775,7 +54781,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G2039" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -54801,7 +54807,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G2040" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -54827,7 +54833,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G2041" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -54853,7 +54859,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G2042" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -54879,7 +54885,7 @@
         <v>0.354000002145767</v>
       </c>
       <c r="G2043" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -54905,7 +54911,7 @@
         <v>0.358000010251999</v>
       </c>
       <c r="G2044" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -54931,7 +54937,7 @@
         <v>0.358000010251999</v>
       </c>
       <c r="G2045" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -54957,7 +54963,7 @@
         <v>0.358000010251999</v>
       </c>
       <c r="G2046" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -54983,7 +54989,7 @@
         <v>0.356000006198883</v>
       </c>
       <c r="G2047" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -55009,7 +55015,7 @@
         <v>0.356000006198883</v>
       </c>
       <c r="G2048" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -55035,7 +55041,7 @@
         <v>0.356000006198883</v>
       </c>
       <c r="G2049" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -55061,7 +55067,7 @@
         <v>0.354000002145767</v>
       </c>
       <c r="G2050" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -55087,7 +55093,7 @@
         <v>0.349999994039536</v>
       </c>
       <c r="G2051" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -55113,7 +55119,7 @@
         <v>0.354000002145767</v>
       </c>
       <c r="G2052" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -55139,7 +55145,7 @@
         <v>0.356000006198883</v>
       </c>
       <c r="G2053" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -55165,7 +55171,7 @@
         <v>0.356000006198883</v>
       </c>
       <c r="G2054" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55191,7 +55197,7 @@
         <v>0.356000006198883</v>
       </c>
       <c r="G2055" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55217,7 +55223,7 @@
         <v>0.360000014305115</v>
       </c>
       <c r="G2056" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55243,7 +55249,7 @@
         <v>0.358000010251999</v>
       </c>
       <c r="G2057" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55269,7 +55275,7 @@
         <v>0.358000010251999</v>
       </c>
       <c r="G2058" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55295,7 +55301,7 @@
         <v>0.358000010251999</v>
       </c>
       <c r="G2059" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -55321,7 +55327,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G2060" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -55347,7 +55353,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G2061" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -55373,7 +55379,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G2062" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -55399,7 +55405,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G2063" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -55425,7 +55431,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G2064" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -55451,7 +55457,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G2065" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -55477,7 +55483,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G2066" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -55503,7 +55509,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G2067" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -55529,7 +55535,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G2068" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -55555,7 +55561,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G2069" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -55581,7 +55587,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G2070" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -55607,7 +55613,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G2071" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -55633,7 +55639,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G2072" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -55659,7 +55665,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G2073" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -55685,7 +55691,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G2074" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -55711,7 +55717,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G2075" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -55737,7 +55743,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G2076" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -55763,7 +55769,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G2077" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -55789,7 +55795,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G2078" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -55815,7 +55821,7 @@
         <v>0.335999995470047</v>
       </c>
       <c r="G2079" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -55841,7 +55847,7 @@
         <v>0.335999995470047</v>
       </c>
       <c r="G2080" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -55867,7 +55873,7 @@
         <v>0.335999995470047</v>
       </c>
       <c r="G2081" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -55893,7 +55899,7 @@
         <v>0.335999995470047</v>
       </c>
       <c r="G2082" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -55919,7 +55925,7 @@
         <v>0.335999995470047</v>
       </c>
       <c r="G2083" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -55945,7 +55951,7 @@
         <v>0.335999995470047</v>
       </c>
       <c r="G2084" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -55971,7 +55977,7 @@
         <v>0.335999995470047</v>
       </c>
       <c r="G2085" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -55997,7 +56003,7 @@
         <v>0.335999995470047</v>
       </c>
       <c r="G2086" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -56023,7 +56029,7 @@
         <v>0.335999995470047</v>
       </c>
       <c r="G2087" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -56049,7 +56055,7 @@
         <v>0.333999991416931</v>
       </c>
       <c r="G2088" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -56075,7 +56081,7 @@
         <v>0.333999991416931</v>
       </c>
       <c r="G2089" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -56101,7 +56107,7 @@
         <v>0.333999991416931</v>
       </c>
       <c r="G2090" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -56127,7 +56133,7 @@
         <v>0.333999991416931</v>
       </c>
       <c r="G2091" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -56153,7 +56159,7 @@
         <v>0.333999991416931</v>
       </c>
       <c r="G2092" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56179,7 +56185,7 @@
         <v>0.32600000500679</v>
       </c>
       <c r="G2093" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56205,7 +56211,7 @@
         <v>0.335999995470047</v>
       </c>
       <c r="G2094" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56231,7 +56237,7 @@
         <v>0.335999995470047</v>
       </c>
       <c r="G2095" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56257,7 +56263,7 @@
         <v>0.335999995470047</v>
       </c>
       <c r="G2096" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56283,7 +56289,7 @@
         <v>0.335999995470047</v>
       </c>
       <c r="G2097" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -56309,7 +56315,7 @@
         <v>0.335999995470047</v>
       </c>
       <c r="G2098" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -56335,7 +56341,7 @@
         <v>0.335999995470047</v>
       </c>
       <c r="G2099" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -56361,7 +56367,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G2100" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -56387,7 +56393,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G2101" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -56413,7 +56419,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G2102" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -56439,7 +56445,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G2103" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -56465,7 +56471,7 @@
         <v>0.337999999523163</v>
       </c>
       <c r="G2104" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -56491,7 +56497,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G2105" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -56517,7 +56523,7 @@
         <v>0.342000007629395</v>
       </c>
       <c r="G2106" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -56543,7 +56549,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G2107" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -56569,7 +56575,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G2108" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -56595,7 +56601,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G2109" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -56621,7 +56627,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G2110" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -56647,7 +56653,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G2111" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -56673,7 +56679,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G2112" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -56699,7 +56705,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G2113" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -56725,7 +56731,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G2114" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -56751,7 +56757,7 @@
         <v>0.331999987363815</v>
       </c>
       <c r="G2115" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -56777,7 +56783,7 @@
         <v>0.331999987363815</v>
       </c>
       <c r="G2116" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -56803,7 +56809,7 @@
         <v>0.354000002145767</v>
       </c>
       <c r="G2117" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -56829,7 +56835,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G2118" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -56855,7 +56861,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G2119" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -56881,7 +56887,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G2120" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -56907,7 +56913,7 @@
         <v>0.361999988555908</v>
       </c>
       <c r="G2121" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -56933,7 +56939,7 @@
         <v>0.358000010251999</v>
       </c>
       <c r="G2122" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -56959,7 +56965,7 @@
         <v>0.368000000715256</v>
       </c>
       <c r="G2123" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -56985,7 +56991,7 @@
         <v>0.360000014305115</v>
       </c>
       <c r="G2124" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -57011,7 +57017,7 @@
         <v>0.36599999666214</v>
       </c>
       <c r="G2125" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -57037,7 +57043,7 @@
         <v>0.36599999666214</v>
       </c>
       <c r="G2126" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -57063,7 +57069,7 @@
         <v>0.354000002145767</v>
       </c>
       <c r="G2127" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -57089,7 +57095,7 @@
         <v>0.360000014305115</v>
       </c>
       <c r="G2128" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -57115,7 +57121,7 @@
         <v>0.360000014305115</v>
       </c>
       <c r="G2129" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -57141,7 +57147,7 @@
         <v>0.360000014305115</v>
       </c>
       <c r="G2130" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -57167,7 +57173,7 @@
         <v>0.360000014305115</v>
       </c>
       <c r="G2131" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57193,7 +57199,7 @@
         <v>0.360000014305115</v>
       </c>
       <c r="G2132" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57219,7 +57225,7 @@
         <v>0.360000014305115</v>
       </c>
       <c r="G2133" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57245,7 +57251,7 @@
         <v>0.360000014305115</v>
       </c>
       <c r="G2134" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57271,7 +57277,7 @@
         <v>0.360000014305115</v>
       </c>
       <c r="G2135" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57297,7 +57303,7 @@
         <v>0.360000014305115</v>
       </c>
       <c r="G2136" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57323,7 +57329,7 @@
         <v>0.363999992609024</v>
       </c>
       <c r="G2137" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57349,7 +57355,7 @@
         <v>0.356000006198883</v>
       </c>
       <c r="G2138" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -57375,7 +57381,7 @@
         <v>0.356000006198883</v>
       </c>
       <c r="G2139" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -57401,7 +57407,7 @@
         <v>0.356000006198883</v>
       </c>
       <c r="G2140" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -57427,7 +57433,7 @@
         <v>0.34400001168251</v>
       </c>
       <c r="G2141" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -57453,7 +57459,7 @@
         <v>0.34400001168251</v>
       </c>
       <c r="G2142" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -57479,7 +57485,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G2143" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -57505,7 +57511,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G2144" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -57531,7 +57537,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G2145" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -57557,7 +57563,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="G2146" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -57565,7 +57571,7 @@
     </row>
     <row r="2147">
       <c r="A2147" s="1" t="n">
-        <v>45450.379525463</v>
+        <v>45450.2916666667</v>
       </c>
       <c r="B2147" t="n">
         <v>4000</v>
@@ -57583,9 +57589,35 @@
         <v>0.34400001168251</v>
       </c>
       <c r="G2147" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H2147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" s="1" t="n">
+        <v>45453.2917013889</v>
+      </c>
+      <c r="B2148" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C2148" t="n">
+        <v>0.34799998998642</v>
+      </c>
+      <c r="D2148" t="n">
+        <v>0.34799998998642</v>
+      </c>
+      <c r="E2148" t="n">
+        <v>0.34799998998642</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>0.34799998998642</v>
+      </c>
+      <c r="G2148" t="s">
+        <v>473</v>
+      </c>
+      <c r="H2148" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/POPR.MI.xlsx
+++ b/data/POPR.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.201921388506889</t>
+    <t xml:space="preserve">0.201921373605728</t>
   </si>
   <si>
     <t xml:space="preserve">POPR.MI</t>
@@ -50,19 +50,19 @@
     <t xml:space="preserve">0.198315650224686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.196873366832733</t>
+    <t xml:space="preserve">0.19687332212925</t>
   </si>
   <si>
     <t xml:space="preserve">0.188219577074051</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194709897041321</t>
+    <t xml:space="preserve">0.194709911942482</t>
   </si>
   <si>
     <t xml:space="preserve">0.170912027359009</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164421692490578</t>
+    <t xml:space="preserve">0.164421677589417</t>
   </si>
   <si>
     <t xml:space="preserve">0.171849519014359</t>
@@ -74,19 +74,19 @@
     <t xml:space="preserve">0.175238907337189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175960049033165</t>
+    <t xml:space="preserve">0.175960063934326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173003345727921</t>
+    <t xml:space="preserve">0.173003360629082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168027445673943</t>
+    <t xml:space="preserve">0.168027430772781</t>
   </si>
   <si>
     <t xml:space="preserve">0.160455375909805</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160094812512398</t>
+    <t xml:space="preserve">0.160094827413559</t>
   </si>
   <si>
     <t xml:space="preserve">0.160527497529984</t>
@@ -104,10 +104,10 @@
     <t xml:space="preserve">0.195431038737297</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191392615437508</t>
+    <t xml:space="preserve">0.191392600536346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187498405575752</t>
+    <t xml:space="preserve">0.187498420476913</t>
   </si>
   <si>
     <t xml:space="preserve">0.180286958813667</t>
@@ -116,70 +116,70 @@
     <t xml:space="preserve">0.17740236222744</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171633183956146</t>
+    <t xml:space="preserve">0.171633169054985</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178628295660019</t>
+    <t xml:space="preserve">0.17862831056118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184613838791847</t>
+    <t xml:space="preserve">0.184613823890686</t>
   </si>
   <si>
     <t xml:space="preserve">0.182378277182579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.20343579351902</t>
+    <t xml:space="preserve">0.203435778617859</t>
   </si>
   <si>
-    <t xml:space="preserve">0.203363656997681</t>
+    <t xml:space="preserve">0.203363701701164</t>
   </si>
   <si>
     <t xml:space="preserve">0.196152210235596</t>
   </si>
   <si>
-    <t xml:space="preserve">0.19038300216198</t>
+    <t xml:space="preserve">0.190383017063141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.216344371438026</t>
+    <t xml:space="preserve">0.216344326734543</t>
   </si>
   <si>
     <t xml:space="preserve">0.22103177011013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219950079917908</t>
+    <t xml:space="preserve">0.219950065016747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211296305060387</t>
+    <t xml:space="preserve">0.211296319961548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208411708474159</t>
+    <t xml:space="preserve">0.208411738276482</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230767264962196</t>
+    <t xml:space="preserve">0.230767279863358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.239421039819717</t>
+    <t xml:space="preserve">0.239421054720879</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230695158243179</t>
+    <t xml:space="preserve">0.230695188045502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225719258189201</t>
+    <t xml:space="preserve">0.22571924328804</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222834646701813</t>
+    <t xml:space="preserve">0.222834631800652</t>
   </si>
   <si>
-    <t xml:space="preserve">0.205527111887932</t>
+    <t xml:space="preserve">0.205527126789093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.209132835268974</t>
+    <t xml:space="preserve">0.209132850170135</t>
   </si>
   <si>
     <t xml:space="preserve">0.194854140281677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193267598748207</t>
+    <t xml:space="preserve">0.193267613649368</t>
   </si>
   <si>
     <t xml:space="preserve">0.186777278780937</t>
@@ -188,13 +188,13 @@
     <t xml:space="preserve">0.17394083738327</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191104143857956</t>
+    <t xml:space="preserve">0.191104158759117</t>
   </si>
   <si>
     <t xml:space="preserve">0.180214822292328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174517765641212</t>
+    <t xml:space="preserve">0.174517750740051</t>
   </si>
   <si>
     <t xml:space="preserve">0.176681220531464</t>
@@ -203,22 +203,22 @@
     <t xml:space="preserve">0.180863872170448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.213459759950638</t>
+    <t xml:space="preserve">0.213459745049477</t>
   </si>
   <si>
-    <t xml:space="preserve">0.215623185038567</t>
+    <t xml:space="preserve">0.215623170137405</t>
   </si>
   <si>
     <t xml:space="preserve">0.21057516336441</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208483830094337</t>
+    <t xml:space="preserve">0.208483815193176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191825315356255</t>
+    <t xml:space="preserve">0.191825300455093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.18389268219471</t>
+    <t xml:space="preserve">0.183892667293549</t>
   </si>
   <si>
     <t xml:space="preserve">0.168748587369919</t>
@@ -227,7 +227,7 @@
     <t xml:space="preserve">0.173796609044075</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170190870761871</t>
+    <t xml:space="preserve">0.170190885663033</t>
   </si>
   <si>
     <t xml:space="preserve">0.165863990783691</t>
@@ -236,52 +236,52 @@
     <t xml:space="preserve">0.18172924220562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.189517647027969</t>
+    <t xml:space="preserve">0.189517632126808</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195791646838188</t>
+    <t xml:space="preserve">0.195791617035866</t>
   </si>
   <si>
-    <t xml:space="preserve">0.197594463825226</t>
+    <t xml:space="preserve">0.197594493627548</t>
   </si>
   <si>
     <t xml:space="preserve">0.209493428468704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230046167969704</t>
+    <t xml:space="preserve">0.230046153068542</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222113505005836</t>
+    <t xml:space="preserve">0.222113490104675</t>
   </si>
   <si>
     <t xml:space="preserve">0.204373270273209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218868345022202</t>
+    <t xml:space="preserve">0.218868359923363</t>
   </si>
   <si>
     <t xml:space="preserve">0.230623066425323</t>
   </si>
   <si>
-    <t xml:space="preserve">0.223555833101273</t>
+    <t xml:space="preserve">0.22355580329895</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220022216439247</t>
+    <t xml:space="preserve">0.220022201538086</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229324981570244</t>
+    <t xml:space="preserve">0.229324996471405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244469076395035</t>
+    <t xml:space="preserve">0.244469091296196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.24872387945652</t>
+    <t xml:space="preserve">0.248723894357681</t>
   </si>
   <si>
     <t xml:space="preserve">0.266824692487717</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273315042257309</t>
+    <t xml:space="preserve">0.273315012454987</t>
   </si>
   <si>
     <t xml:space="preserve">0.288459122180939</t>
@@ -299,7 +299,7 @@
     <t xml:space="preserve">0.342545181512833</t>
   </si>
   <si>
-    <t xml:space="preserve">0.295670568943024</t>
+    <t xml:space="preserve">0.295670598745346</t>
   </si>
   <si>
     <t xml:space="preserve">0.298483073711395</t>
@@ -308,46 +308,46 @@
     <t xml:space="preserve">0.28708890080452</t>
   </si>
   <si>
-    <t xml:space="preserve">0.287016838788986</t>
+    <t xml:space="preserve">0.287016808986664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.278579413890839</t>
+    <t xml:space="preserve">0.278579384088516</t>
   </si>
   <si>
-    <t xml:space="preserve">0.279084205627441</t>
+    <t xml:space="preserve">0.279084175825119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.279228389263153</t>
+    <t xml:space="preserve">0.279228419065475</t>
   </si>
   <si>
     <t xml:space="preserve">0.263218939304352</t>
   </si>
   <si>
-    <t xml:space="preserve">0.268266975879669</t>
+    <t xml:space="preserve">0.268267005681992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241584524512291</t>
+    <t xml:space="preserve">0.24158450961113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237401857972145</t>
+    <t xml:space="preserve">0.237401843070984</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243026807904243</t>
+    <t xml:space="preserve">0.243026822805405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.239493161439896</t>
+    <t xml:space="preserve">0.239493176341057</t>
   </si>
   <si>
     <t xml:space="preserve">0.272593855857849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.281247615814209</t>
+    <t xml:space="preserve">0.281247645616531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.264805465936661</t>
+    <t xml:space="preserve">0.264805436134338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261055499315262</t>
+    <t xml:space="preserve">0.261055469512939</t>
   </si>
   <si>
     <t xml:space="preserve">0.270430415868759</t>
@@ -356,31 +356,31 @@
     <t xml:space="preserve">0.259613215923309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.256007462739944</t>
+    <t xml:space="preserve">0.256007432937622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248796001076698</t>
+    <t xml:space="preserve">0.248795971274376</t>
   </si>
   <si>
-    <t xml:space="preserve">0.255142092704773</t>
+    <t xml:space="preserve">0.255142062902451</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244541212916374</t>
+    <t xml:space="preserve">0.244541183114052</t>
   </si>
   <si>
     <t xml:space="preserve">0.230839416384697</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234373018145561</t>
+    <t xml:space="preserve">0.234373033046722</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237257614731789</t>
+    <t xml:space="preserve">0.237257644534111</t>
   </si>
   <si>
-    <t xml:space="preserve">0.236536458134651</t>
+    <t xml:space="preserve">0.236536502838135</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237978786230087</t>
+    <t xml:space="preserve">0.237978771328926</t>
   </si>
   <si>
     <t xml:space="preserve">0.239565297961235</t>
@@ -389,46 +389,46 @@
     <t xml:space="preserve">0.243171021342278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.258892059326172</t>
+    <t xml:space="preserve">0.258892029523849</t>
   </si>
   <si>
     <t xml:space="preserve">0.252257496118546</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253339231014252</t>
+    <t xml:space="preserve">0.253339201211929</t>
   </si>
   <si>
     <t xml:space="preserve">0.26329106092453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.268916010856628</t>
+    <t xml:space="preserve">0.268915981054306</t>
   </si>
   <si>
     <t xml:space="preserve">0.257593989372253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25240170955658</t>
+    <t xml:space="preserve">0.252401739358902</t>
   </si>
   <si>
     <t xml:space="preserve">0.252113252878189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248868092894554</t>
+    <t xml:space="preserve">0.248868063092232</t>
   </si>
   <si>
-    <t xml:space="preserve">0.265382409095764</t>
+    <t xml:space="preserve">0.265382379293442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249012291431427</t>
+    <t xml:space="preserve">0.249012321233749</t>
   </si>
   <si>
     <t xml:space="preserve">0.256223797798157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340958654880524</t>
+    <t xml:space="preserve">0.340958684682846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.403842777013779</t>
+    <t xml:space="preserve">0.403842747211456</t>
   </si>
   <si>
     <t xml:space="preserve">0.533649384975433</t>
@@ -446,22 +446,22 @@
     <t xml:space="preserve">0.484250754117966</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45432311296463</t>
+    <t xml:space="preserve">0.454323083162308</t>
   </si>
   <si>
-    <t xml:space="preserve">0.418265670537949</t>
+    <t xml:space="preserve">0.418265700340271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.475236356258392</t>
+    <t xml:space="preserve">0.47523632645607</t>
   </si>
   <si>
-    <t xml:space="preserve">0.42151090502739</t>
+    <t xml:space="preserve">0.421510875225067</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429082959890366</t>
+    <t xml:space="preserve">0.429082930088043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397352427244186</t>
+    <t xml:space="preserve">0.397352397441864</t>
   </si>
   <si>
     <t xml:space="preserve">0.373915106058121</t>
@@ -470,52 +470,52 @@
     <t xml:space="preserve">0.36129504442215</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374636262655258</t>
+    <t xml:space="preserve">0.374636292457581</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383650630712509</t>
+    <t xml:space="preserve">0.383650600910187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369227677583694</t>
+    <t xml:space="preserve">0.369227647781372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.400236994028091</t>
+    <t xml:space="preserve">0.400237023830414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391583293676376</t>
+    <t xml:space="preserve">0.391583234071732</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374996811151505</t>
+    <t xml:space="preserve">0.374996840953827</t>
   </si>
   <si>
     <t xml:space="preserve">0.365261346101761</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368506491184235</t>
+    <t xml:space="preserve">0.368506461381912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382208287715912</t>
+    <t xml:space="preserve">0.382208317518234</t>
   </si>
   <si>
     <t xml:space="preserve">0.378602564334869</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364179581403732</t>
+    <t xml:space="preserve">0.364179611206055</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372112214565277</t>
+    <t xml:space="preserve">0.372112244367599</t>
   </si>
   <si>
     <t xml:space="preserve">0.360573917627335</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357689291238785</t>
+    <t xml:space="preserve">0.357689261436462</t>
   </si>
   <si>
-    <t xml:space="preserve">0.384011179208755</t>
+    <t xml:space="preserve">0.384011209011078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364900767803192</t>
+    <t xml:space="preserve">0.36490073800087</t>
   </si>
   <si>
     <t xml:space="preserve">0.36345848441124</t>
@@ -524,31 +524,31 @@
     <t xml:space="preserve">0.376799702644348</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370669931173325</t>
+    <t xml:space="preserve">0.370669990777969</t>
   </si>
   <si>
     <t xml:space="preserve">0.376439154148102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346150904893875</t>
+    <t xml:space="preserve">0.34615096449852</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35624697804451</t>
+    <t xml:space="preserve">0.356247007846832</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356896013021469</t>
+    <t xml:space="preserve">0.356896042823792</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36778536438942</t>
+    <t xml:space="preserve">0.367785334587097</t>
   </si>
   <si>
     <t xml:space="preserve">0.373554557561874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.411054223775864</t>
+    <t xml:space="preserve">0.411054253578186</t>
   </si>
   <si>
-    <t xml:space="preserve">0.389419794082642</t>
+    <t xml:space="preserve">0.389419823884964</t>
   </si>
   <si>
     <t xml:space="preserve">0.390140980482101</t>
@@ -557,16 +557,16 @@
     <t xml:space="preserve">0.366343080997467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387616962194443</t>
+    <t xml:space="preserve">0.387616991996765</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360934466123581</t>
+    <t xml:space="preserve">0.360934495925903</t>
   </si>
   <si>
     <t xml:space="preserve">0.376078546047211</t>
   </si>
   <si>
-    <t xml:space="preserve">0.447111666202545</t>
+    <t xml:space="preserve">0.4471116065979</t>
   </si>
   <si>
     <t xml:space="preserve">0.424034893512726</t>
@@ -575,22 +575,22 @@
     <t xml:space="preserve">0.423313736915588</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424756050109863</t>
+    <t xml:space="preserve">0.424756020307541</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417183965444565</t>
+    <t xml:space="preserve">0.41718402504921</t>
   </si>
   <si>
-    <t xml:space="preserve">0.425477147102356</t>
+    <t xml:space="preserve">0.425477176904678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395910143852234</t>
+    <t xml:space="preserve">0.395910173654556</t>
   </si>
   <si>
     <t xml:space="preserve">0.401318728923798</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406727313995361</t>
+    <t xml:space="preserve">0.406727403402328</t>
   </si>
   <si>
     <t xml:space="preserve">0.421150326728821</t>
@@ -599,34 +599,34 @@
     <t xml:space="preserve">0.446029871702194</t>
   </si>
   <si>
-    <t xml:space="preserve">0.449275106191635</t>
+    <t xml:space="preserve">0.449275016784668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.433409839868546</t>
+    <t xml:space="preserve">0.433409810066223</t>
   </si>
   <si>
-    <t xml:space="preserve">0.432688742876053</t>
+    <t xml:space="preserve">0.432688653469086</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444227010011673</t>
+    <t xml:space="preserve">0.444226980209351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.433049261569977</t>
+    <t xml:space="preserve">0.433049291372299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.468024909496307</t>
+    <t xml:space="preserve">0.468024969100952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.475957572460175</t>
+    <t xml:space="preserve">0.475957542657852</t>
   </si>
   <si>
-    <t xml:space="preserve">0.449996173381805</t>
+    <t xml:space="preserve">0.44999623298645</t>
   </si>
   <si>
     <t xml:space="preserve">0.432328104972839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.443505853414536</t>
+    <t xml:space="preserve">0.443505883216858</t>
   </si>
   <si>
     <t xml:space="preserve">0.540860831737518</t>
@@ -638,112 +638,112 @@
     <t xml:space="preserve">0.519226431846619</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497592002153397</t>
+    <t xml:space="preserve">0.497591942548752</t>
   </si>
   <si>
-    <t xml:space="preserve">0.502639949321747</t>
+    <t xml:space="preserve">0.502640008926392</t>
   </si>
   <si>
-    <t xml:space="preserve">0.512014925479889</t>
+    <t xml:space="preserve">0.512014865875244</t>
   </si>
   <si>
-    <t xml:space="preserve">0.504803419113159</t>
+    <t xml:space="preserve">0.504803478717804</t>
   </si>
   <si>
-    <t xml:space="preserve">0.484611302614212</t>
+    <t xml:space="preserve">0.484611362218857</t>
   </si>
   <si>
     <t xml:space="preserve">0.487495899200439</t>
   </si>
   <si>
-    <t xml:space="preserve">0.483169049024582</t>
+    <t xml:space="preserve">0.48316901922226</t>
   </si>
   <si>
-    <t xml:space="preserve">0.470188409090042</t>
+    <t xml:space="preserve">0.470188349485397</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46586149930954</t>
+    <t xml:space="preserve">0.465861469507217</t>
   </si>
   <si>
-    <t xml:space="preserve">0.468746036291122</t>
+    <t xml:space="preserve">0.468746066093445</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474515229463577</t>
+    <t xml:space="preserve">0.474515289068222</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461534529924393</t>
+    <t xml:space="preserve">0.461534559726715</t>
   </si>
   <si>
-    <t xml:space="preserve">0.496149688959122</t>
+    <t xml:space="preserve">0.496149659156799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478842079639435</t>
+    <t xml:space="preserve">0.478842109441757</t>
   </si>
   <si>
-    <t xml:space="preserve">0.530764818191528</t>
+    <t xml:space="preserve">0.530764758586884</t>
   </si>
   <si>
     <t xml:space="preserve">0.490380465984344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.458649963140488</t>
+    <t xml:space="preserve">0.45864999294281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.480284452438354</t>
+    <t xml:space="preserve">0.480284363031387</t>
   </si>
   <si>
-    <t xml:space="preserve">0.486053615808487</t>
+    <t xml:space="preserve">0.486053645610809</t>
   </si>
   <si>
-    <t xml:space="preserve">0.471630662679672</t>
+    <t xml:space="preserve">0.471630692481995</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457207709550858</t>
+    <t xml:space="preserve">0.457207679748535</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464419186115265</t>
+    <t xml:space="preserve">0.464419156312943</t>
   </si>
   <si>
     <t xml:space="preserve">0.438457846641541</t>
   </si>
   <si>
-    <t xml:space="preserve">0.439900159835815</t>
+    <t xml:space="preserve">0.439900130033493</t>
   </si>
   <si>
-    <t xml:space="preserve">0.445669293403625</t>
+    <t xml:space="preserve">0.445669263601303</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46297687292099</t>
+    <t xml:space="preserve">0.462976932525635</t>
   </si>
   <si>
     <t xml:space="preserve">0.494707375764847</t>
   </si>
   <si>
-    <t xml:space="preserve">0.481726735830307</t>
+    <t xml:space="preserve">0.481726706027985</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46730375289917</t>
+    <t xml:space="preserve">0.467303812503815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452880799770355</t>
+    <t xml:space="preserve">0.452880829572678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.473072916269302</t>
+    <t xml:space="preserve">0.47307300567627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.460092335939407</t>
+    <t xml:space="preserve">0.460092306137085</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47739976644516</t>
+    <t xml:space="preserve">0.477399826049805</t>
   </si>
   <si>
     <t xml:space="preserve">0.415381133556366</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419708013534546</t>
+    <t xml:space="preserve">0.419708043336868</t>
   </si>
   <si>
-    <t xml:space="preserve">0.416823416948318</t>
+    <t xml:space="preserve">0.416823476552963</t>
   </si>
   <si>
     <t xml:space="preserve">0.390862077474594</t>
@@ -752,16 +752,16 @@
     <t xml:space="preserve">0.377881437540054</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412496536970139</t>
+    <t xml:space="preserve">0.412496507167816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409611940383911</t>
+    <t xml:space="preserve">0.409611970186234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395188927650452</t>
+    <t xml:space="preserve">0.395188987255096</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386535197496414</t>
+    <t xml:space="preserve">0.386535227298737</t>
   </si>
   <si>
     <t xml:space="preserve">0.387977480888367</t>
@@ -770,10 +770,10 @@
     <t xml:space="preserve">0.396631300449371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.426919519901276</t>
+    <t xml:space="preserve">0.426919490098953</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44278472661972</t>
+    <t xml:space="preserve">0.442784756422043</t>
   </si>
   <si>
     <t xml:space="preserve">0.405285060405731</t>
@@ -782,25 +782,25 @@
     <t xml:space="preserve">0.413938820362091</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434130907058716</t>
+    <t xml:space="preserve">0.434130966663361</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431246370077133</t>
+    <t xml:space="preserve">0.431246340274811</t>
   </si>
   <si>
-    <t xml:space="preserve">0.428361773490906</t>
+    <t xml:space="preserve">0.428361743688583</t>
   </si>
   <si>
     <t xml:space="preserve">0.441342413425446</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448553919792175</t>
+    <t xml:space="preserve">0.448553889989853</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451438516378403</t>
+    <t xml:space="preserve">0.45143848657608</t>
   </si>
   <si>
-    <t xml:space="preserve">0.48677471280098</t>
+    <t xml:space="preserve">0.486774802207947</t>
   </si>
   <si>
     <t xml:space="preserve">0.493986219167709</t>
@@ -809,106 +809,109 @@
     <t xml:space="preserve">0.515620648860931</t>
   </si>
   <si>
-    <t xml:space="preserve">0.522832214832306</t>
+    <t xml:space="preserve">0.522832095623016</t>
   </si>
   <si>
     <t xml:space="preserve">0.53230482339859</t>
   </si>
   <si>
-    <t xml:space="preserve">0.508470237255096</t>
+    <t xml:space="preserve">0.508470296859741</t>
   </si>
   <si>
-    <t xml:space="preserve">0.492580622434616</t>
+    <t xml:space="preserve">0.492580562829971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.476690977811813</t>
+    <t xml:space="preserve">0.476690918207169</t>
   </si>
   <si>
-    <t xml:space="preserve">0.488608151674271</t>
+    <t xml:space="preserve">0.488608181476593</t>
   </si>
   <si>
-    <t xml:space="preserve">0.50052547454834</t>
+    <t xml:space="preserve">0.500525414943695</t>
   </si>
   <si>
-    <t xml:space="preserve">0.504497826099396</t>
+    <t xml:space="preserve">0.504497885704041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.496553033590317</t>
+    <t xml:space="preserve">0.496553003787994</t>
   </si>
   <si>
-    <t xml:space="preserve">0.480663299560547</t>
+    <t xml:space="preserve">0.480663359165192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.468746036291122</t>
   </si>
   <si>
     <t xml:space="preserve">0.460801184177399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.472718507051468</t>
+    <t xml:space="preserve">0.472718477249146</t>
   </si>
   <si>
     <t xml:space="preserve">0.444911509752274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448883950710297</t>
+    <t xml:space="preserve">0.448883920907974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464773595333099</t>
+    <t xml:space="preserve">0.464773625135422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.484635770320892</t>
+    <t xml:space="preserve">0.48463574051857</t>
   </si>
   <si>
     <t xml:space="preserve">0.512442708015442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.603808403015137</t>
+    <t xml:space="preserve">0.603808462619781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.516415119171143</t>
+    <t xml:space="preserve">0.516415178775787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.524360060691833</t>
+    <t xml:space="preserve">0.524360001087189</t>
   </si>
   <si>
     <t xml:space="preserve">0.520387589931488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.456828773021698</t>
+    <t xml:space="preserve">0.456828743219376</t>
   </si>
   <si>
     <t xml:space="preserve">0.452856361865997</t>
   </si>
   <si>
-    <t xml:space="preserve">0.43696665763855</t>
+    <t xml:space="preserve">0.436966687440872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429021805524826</t>
+    <t xml:space="preserve">0.429021835327148</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413132071495056</t>
+    <t xml:space="preserve">0.413132101297379</t>
   </si>
   <si>
-    <t xml:space="preserve">0.425049424171448</t>
+    <t xml:space="preserve">0.425049394369125</t>
   </si>
   <si>
     <t xml:space="preserve">0.44093906879425</t>
   </si>
   <si>
-    <t xml:space="preserve">0.42107692360878</t>
+    <t xml:space="preserve">0.421076953411102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.390886574983597</t>
+    <t xml:space="preserve">0.390886545181274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38929757475853</t>
+    <t xml:space="preserve">0.389297604560852</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405187249183655</t>
+    <t xml:space="preserve">0.405187219381332</t>
   </si>
   <si>
     <t xml:space="preserve">0.397242426872253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.381352692842484</t>
+    <t xml:space="preserve">0.381352722644806</t>
   </si>
   <si>
     <t xml:space="preserve">0.357518166303635</t>
@@ -917,25 +920,22 @@
     <t xml:space="preserve">0.360696107149124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333683609962463</t>
+    <t xml:space="preserve">0.333683639764786</t>
   </si>
   <si>
-    <t xml:space="preserve">0.297137320041656</t>
+    <t xml:space="preserve">0.297137349843979</t>
   </si>
   <si>
     <t xml:space="preserve">0.319382905960083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.301904201507568</t>
+    <t xml:space="preserve">0.301904231309891</t>
   </si>
   <si>
     <t xml:space="preserve">0.313027024269104</t>
   </si>
   <si>
-    <t xml:space="preserve">0.300315290689468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.281247645616531</t>
+    <t xml:space="preserve">0.300315260887146</t>
   </si>
   <si>
     <t xml:space="preserve">0.286014556884766</t>
@@ -947,10 +947,10 @@
     <t xml:space="preserve">0.327327728271484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.328916728496552</t>
+    <t xml:space="preserve">0.328916698694229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311438053846359</t>
+    <t xml:space="preserve">0.311438024044037</t>
   </si>
   <si>
     <t xml:space="preserve">0.320971876382828</t>
@@ -959,10 +959,10 @@
     <t xml:space="preserve">0.322560846805573</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338450521230698</t>
+    <t xml:space="preserve">0.33845055103302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347984373569489</t>
+    <t xml:space="preserve">0.347984343767166</t>
   </si>
   <si>
     <t xml:space="preserve">0.354340255260468</t>
@@ -971,16 +971,16 @@
     <t xml:space="preserve">0.387708604335785</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373407900333405</t>
+    <t xml:space="preserve">0.373407870531082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367052018642426</t>
+    <t xml:space="preserve">0.367051988840103</t>
   </si>
   <si>
     <t xml:space="preserve">0.394064456224442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417104512453079</t>
+    <t xml:space="preserve">0.417104542255402</t>
   </si>
   <si>
     <t xml:space="preserve">0.432994216680527</t>
@@ -989,10 +989,10 @@
     <t xml:space="preserve">0.376585811376572</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379763722419739</t>
+    <t xml:space="preserve">0.379763752222061</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386119604110718</t>
+    <t xml:space="preserve">0.38611963391304</t>
   </si>
   <si>
     <t xml:space="preserve">0.401214838027954</t>
@@ -1004,13 +1004,13 @@
     <t xml:space="preserve">0.370229929685593</t>
   </si>
   <si>
-    <t xml:space="preserve">0.371818900108337</t>
+    <t xml:space="preserve">0.37181892991066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368640929460526</t>
+    <t xml:space="preserve">0.368640959262848</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365463048219681</t>
+    <t xml:space="preserve">0.365463018417358</t>
   </si>
   <si>
     <t xml:space="preserve">0.351162314414978</t>
@@ -1019,13 +1019,13 @@
     <t xml:space="preserve">0.363874047994614</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349573343992233</t>
+    <t xml:space="preserve">0.349573314189911</t>
   </si>
   <si>
     <t xml:space="preserve">0.34162849187851</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325738787651062</t>
+    <t xml:space="preserve">0.32573875784874</t>
   </si>
   <si>
     <t xml:space="preserve">0.330505698919296</t>
@@ -1037,31 +1037,31 @@
     <t xml:space="preserve">0.306671172380447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.298726290464401</t>
+    <t xml:space="preserve">0.298726320266724</t>
   </si>
   <si>
     <t xml:space="preserve">0.30508217215538</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309849053621292</t>
+    <t xml:space="preserve">0.309849083423615</t>
   </si>
   <si>
     <t xml:space="preserve">0.317793935537338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335272580385208</t>
+    <t xml:space="preserve">0.335272610187531</t>
   </si>
   <si>
     <t xml:space="preserve">0.340039521455765</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332094669342041</t>
+    <t xml:space="preserve">0.332094699144363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493128508329391</t>
+    <t xml:space="preserve">0.493128478527069</t>
   </si>
   <si>
-    <t xml:space="preserve">0.458522945642471</t>
+    <t xml:space="preserve">0.458523005247116</t>
   </si>
   <si>
     <t xml:space="preserve">0.445545941591263</t>
@@ -1088,10 +1088,10 @@
     <t xml:space="preserve">0.418726682662964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.401423871517181</t>
+    <t xml:space="preserve">0.401423901319504</t>
   </si>
   <si>
-    <t xml:space="preserve">0.39450278878212</t>
+    <t xml:space="preserve">0.394502818584442</t>
   </si>
   <si>
     <t xml:space="preserve">0.392772525548935</t>
@@ -1100,13 +1100,13 @@
     <t xml:space="preserve">0.389311969280243</t>
   </si>
   <si>
-    <t xml:space="preserve">0.404884457588196</t>
+    <t xml:space="preserve">0.404884427785873</t>
   </si>
   <si>
     <t xml:space="preserve">0.397963374853134</t>
   </si>
   <si>
-    <t xml:space="preserve">0.403154194355011</t>
+    <t xml:space="preserve">0.403154164552689</t>
   </si>
   <si>
     <t xml:space="preserve">0.385851442813873</t>
@@ -1121,13 +1121,13 @@
     <t xml:space="preserve">0.501779854297638</t>
   </si>
   <si>
-    <t xml:space="preserve">0.471500039100647</t>
+    <t xml:space="preserve">0.471500098705292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.519082725048065</t>
+    <t xml:space="preserve">0.51908266544342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.510431230068207</t>
+    <t xml:space="preserve">0.510431289672852</t>
   </si>
   <si>
     <t xml:space="preserve">0.506105542182922</t>
@@ -1139,22 +1139,22 @@
     <t xml:space="preserve">0.462848722934723</t>
   </si>
   <si>
-    <t xml:space="preserve">0.449871569871902</t>
+    <t xml:space="preserve">0.449871599674225</t>
   </si>
   <si>
     <t xml:space="preserve">0.441220223903656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454197287559509</t>
+    <t xml:space="preserve">0.454197257757187</t>
   </si>
   <si>
     <t xml:space="preserve">0.467174381017685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.42737802863121</t>
+    <t xml:space="preserve">0.427378058433533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.420456916093826</t>
+    <t xml:space="preserve">0.420456945896149</t>
   </si>
   <si>
     <t xml:space="preserve">0.406614750623703</t>
@@ -1169,22 +1169,22 @@
     <t xml:space="preserve">0.425647795200348</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413535803556442</t>
+    <t xml:space="preserve">0.413535833358765</t>
   </si>
   <si>
     <t xml:space="preserve">0.422187209129333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41180557012558</t>
+    <t xml:space="preserve">0.411805540323257</t>
   </si>
   <si>
     <t xml:space="preserve">0.363357841968536</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344324856996536</t>
+    <t xml:space="preserve">0.344324827194214</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346055090427399</t>
+    <t xml:space="preserve">0.346055060625076</t>
   </si>
   <si>
     <t xml:space="preserve">0.365088105201721</t>
@@ -1193,22 +1193,22 @@
     <t xml:space="preserve">0.366818398237228</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372009247541428</t>
+    <t xml:space="preserve">0.372009217739105</t>
   </si>
   <si>
     <t xml:space="preserve">0.375469744205475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378930330276489</t>
+    <t xml:space="preserve">0.378930300474167</t>
   </si>
   <si>
     <t xml:space="preserve">0.380660623311996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387581706047058</t>
+    <t xml:space="preserve">0.38758173584938</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377200067043304</t>
+    <t xml:space="preserve">0.377200037240982</t>
   </si>
   <si>
     <t xml:space="preserve">0.354706466197968</t>
@@ -25843,7 +25843,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G926" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -25869,7 +25869,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G927" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -25895,7 +25895,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G928" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -25921,7 +25921,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G929" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -25947,7 +25947,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G930" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -25973,7 +25973,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G931" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -25999,7 +25999,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G932" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -26025,7 +26025,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G933" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -26051,7 +26051,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G934" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -26077,7 +26077,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G935" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -26103,7 +26103,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G936" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -26129,7 +26129,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G937" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -26155,7 +26155,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G938" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -26181,7 +26181,7 @@
         <v>0.564999997615814</v>
       </c>
       <c r="G939" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -26207,7 +26207,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G940" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -26233,7 +26233,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G941" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -26285,7 +26285,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G943" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -26311,7 +26311,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G944" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -26337,7 +26337,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G945" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -26363,7 +26363,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G946" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -26389,7 +26389,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G947" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -26415,7 +26415,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G948" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -26441,7 +26441,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G949" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -26467,7 +26467,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G950" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -26493,7 +26493,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G951" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -26519,7 +26519,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G952" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -26545,7 +26545,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G953" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -26571,7 +26571,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G954" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -26597,7 +26597,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G955" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -26623,7 +26623,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G956" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -26649,7 +26649,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G957" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -26675,7 +26675,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G958" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -26701,7 +26701,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G959" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -26727,7 +26727,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G960" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -26753,7 +26753,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G961" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -26831,7 +26831,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G964" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -26909,7 +26909,7 @@
         <v>0.644999980926514</v>
       </c>
       <c r="G967" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -26935,7 +26935,7 @@
         <v>0.759999990463257</v>
       </c>
       <c r="G968" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -26987,7 +26987,7 @@
         <v>0.649999976158142</v>
       </c>
       <c r="G970" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -27013,7 +27013,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G971" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -27039,7 +27039,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G972" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -27065,7 +27065,7 @@
         <v>0.654999971389771</v>
       </c>
       <c r="G973" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -27221,7 +27221,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G979" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -27247,7 +27247,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G980" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -27273,7 +27273,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G981" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -27351,7 +27351,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G984" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -27377,7 +27377,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G985" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -27793,7 +27793,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1001" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -27819,7 +27819,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1002" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -27845,7 +27845,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1003" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -27871,7 +27871,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1004" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -27897,7 +27897,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1005" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -27923,7 +27923,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1006" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -27949,7 +27949,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1007" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -27975,7 +27975,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1008" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -28001,7 +28001,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1009" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -28053,7 +28053,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1011" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -28079,7 +28079,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1012" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -28105,7 +28105,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1013" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -28131,7 +28131,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1014" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -28157,7 +28157,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1015" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -28183,7 +28183,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1016" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -28209,7 +28209,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1017" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -28235,7 +28235,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1018" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -28261,7 +28261,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1019" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -28287,7 +28287,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1020" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -28313,7 +28313,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1021" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -28391,7 +28391,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1024" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -28417,7 +28417,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1025" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -28443,7 +28443,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1026" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -28469,7 +28469,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1027" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -28495,7 +28495,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1028" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -28521,7 +28521,7 @@
         <v>0.564999997615814</v>
       </c>
       <c r="G1029" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -28547,7 +28547,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1030" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -28573,7 +28573,7 @@
         <v>0.550000011920929</v>
       </c>
       <c r="G1031" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -28599,7 +28599,7 @@
         <v>0.550000011920929</v>
       </c>
       <c r="G1032" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -28625,7 +28625,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1033" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -28651,7 +28651,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1034" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -28677,7 +28677,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1035" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -28703,7 +28703,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1036" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -28729,7 +28729,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1037" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -28755,7 +28755,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1038" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -28781,7 +28781,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G1039" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -28807,7 +28807,7 @@
         <v>0.555000007152557</v>
       </c>
       <c r="G1040" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -28833,7 +28833,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1041" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -28859,7 +28859,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1042" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -28885,7 +28885,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1043" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -28911,7 +28911,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1044" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -29015,7 +29015,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1048" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -29067,7 +29067,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1050" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -29145,7 +29145,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1053" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -29171,7 +29171,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1054" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -29197,7 +29197,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1055" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -29223,7 +29223,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1056" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -29249,7 +29249,7 @@
         <v>0.492000013589859</v>
       </c>
       <c r="G1057" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -29275,7 +29275,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1058" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -29301,7 +29301,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1059" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -29327,7 +29327,7 @@
         <v>0.5</v>
       </c>
       <c r="G1060" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -29353,7 +29353,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1061" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -29379,7 +29379,7 @@
         <v>0.5</v>
       </c>
       <c r="G1062" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -29405,7 +29405,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1063" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -29431,7 +29431,7 @@
         <v>0.453999996185303</v>
       </c>
       <c r="G1064" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -29457,7 +29457,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1065" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -29483,7 +29483,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G1066" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -29509,7 +29509,7 @@
         <v>0.40200001001358</v>
       </c>
       <c r="G1067" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -29535,7 +29535,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1068" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -29561,7 +29561,7 @@
         <v>0.393999993801117</v>
       </c>
       <c r="G1069" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -29587,7 +29587,7 @@
         <v>0.377999991178513</v>
       </c>
       <c r="G1070" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -29613,7 +29613,7 @@
         <v>0.354000002145767</v>
       </c>
       <c r="G1071" t="s">
-        <v>307</v>
+        <v>109</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -29795,7 +29795,7 @@
         <v>0.40200001001358</v>
       </c>
       <c r="G1078" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -29925,7 +29925,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1083" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -29951,7 +29951,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1084" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -29977,7 +29977,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1085" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -30029,7 +30029,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1087" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -30055,7 +30055,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1088" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -30133,7 +30133,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1091" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -30523,7 +30523,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1106" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -30549,7 +30549,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1107" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -30653,7 +30653,7 @@
         <v>0.5</v>
       </c>
       <c r="G1111" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -30705,7 +30705,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1113" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -30731,7 +30731,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1114" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -30757,7 +30757,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1115" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -30861,7 +30861,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1119" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -30887,7 +30887,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1120" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -30913,7 +30913,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1121" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -30965,7 +30965,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1123" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -30991,7 +30991,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1124" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -31017,7 +31017,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1125" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -31043,7 +31043,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1126" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -31069,7 +31069,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G1127" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -31095,7 +31095,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1128" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -31121,7 +31121,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1129" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -31147,7 +31147,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1130" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -31173,7 +31173,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1131" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -31199,7 +31199,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1132" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -31225,7 +31225,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1133" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -31251,7 +31251,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1134" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -31277,7 +31277,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1135" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -31303,7 +31303,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1136" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -31329,7 +31329,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1137" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -31355,7 +31355,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1138" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -31381,7 +31381,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1139" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -31407,7 +31407,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1140" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -31433,7 +31433,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1141" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -31459,7 +31459,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1142" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -31485,7 +31485,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1143" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -31511,7 +31511,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1144" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -31537,7 +31537,7 @@
         <v>0.5</v>
       </c>
       <c r="G1145" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -31563,7 +31563,7 @@
         <v>0.5</v>
       </c>
       <c r="G1146" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -31589,7 +31589,7 @@
         <v>0.5</v>
       </c>
       <c r="G1147" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -31615,7 +31615,7 @@
         <v>0.5</v>
       </c>
       <c r="G1148" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -31641,7 +31641,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1149" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -31693,7 +31693,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1151" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -31719,7 +31719,7 @@
         <v>0.5</v>
       </c>
       <c r="G1152" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -31745,7 +31745,7 @@
         <v>0.5</v>
       </c>
       <c r="G1153" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -31797,7 +31797,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1155" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -31979,7 +31979,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1162" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32005,7 +32005,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1163" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -32031,7 +32031,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1164" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -32057,7 +32057,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1165" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -32395,7 +32395,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1178" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -32889,7 +32889,7 @@
         <v>0.453999996185303</v>
       </c>
       <c r="G1197" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -33929,7 +33929,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1237" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -34137,7 +34137,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G1245" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -34163,7 +34163,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G1246" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -34657,7 +34657,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1265" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -35307,7 +35307,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1290" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -35333,7 +35333,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1291" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -35385,7 +35385,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1293" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -35411,7 +35411,7 @@
         <v>0.5</v>
       </c>
       <c r="G1294" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -35437,7 +35437,7 @@
         <v>0.550000011920929</v>
       </c>
       <c r="G1295" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -35463,7 +35463,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1296" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -35515,7 +35515,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1298" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -35541,7 +35541,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1299" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -35567,7 +35567,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1300" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -35619,7 +35619,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1302" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -35645,7 +35645,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1303" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -35671,7 +35671,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1304" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -35697,7 +35697,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1305" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -35723,7 +35723,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1306" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -35749,7 +35749,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1307" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -35775,7 +35775,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1308" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -35801,7 +35801,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1309" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -35827,7 +35827,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1310" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -57623,27 +57623,53 @@
     </row>
     <row r="2149">
       <c r="A2149" s="1" t="n">
-        <v>45455.5626851852</v>
+        <v>45454.2916666667</v>
       </c>
       <c r="B2149" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>0.34799998998642</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>0.34799998998642</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>0.34799998998642</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>0.34799998998642</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>473</v>
+      </c>
+      <c r="H2149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B2150" t="n">
         <v>20000</v>
       </c>
-      <c r="C2149" t="n">
+      <c r="C2150" t="n">
         <v>0.345999985933304</v>
       </c>
-      <c r="D2149" t="n">
+      <c r="D2150" t="n">
         <v>0.34400001168251</v>
       </c>
-      <c r="E2149" t="n">
+      <c r="E2150" t="n">
         <v>0.345999985933304</v>
       </c>
-      <c r="F2149" t="n">
+      <c r="F2150" t="n">
         <v>0.34400001168251</v>
       </c>
-      <c r="G2149" t="s">
+      <c r="G2150" t="s">
         <v>471</v>
       </c>
-      <c r="H2149" t="s">
+      <c r="H2150" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/POPR.MI.xlsx
+++ b/data/POPR.MI.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">POPR.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.202642530202866</t>
+    <t xml:space="preserve">0.202642500400543</t>
   </si>
   <si>
     <t xml:space="preserve">0.198315650224686</t>
@@ -53,16 +53,16 @@
     <t xml:space="preserve">0.19687332212925</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188219577074051</t>
+    <t xml:space="preserve">0.18821956217289</t>
   </si>
   <si>
     <t xml:space="preserve">0.194709911942482</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170912027359009</t>
+    <t xml:space="preserve">0.17091204226017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164421677589417</t>
+    <t xml:space="preserve">0.164421707391739</t>
   </si>
   <si>
     <t xml:space="preserve">0.171849519014359</t>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">0.175960063934326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173003360629082</t>
+    <t xml:space="preserve">0.173003345727921</t>
   </si>
   <si>
     <t xml:space="preserve">0.168027430772781</t>
@@ -86,13 +86,13 @@
     <t xml:space="preserve">0.160455375909805</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160094827413559</t>
+    <t xml:space="preserve">0.160094812512398</t>
   </si>
   <si>
     <t xml:space="preserve">0.160527497529984</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162979379296303</t>
+    <t xml:space="preserve">0.162979394197464</t>
   </si>
   <si>
     <t xml:space="preserve">0.15937365591526</t>
@@ -101,10 +101,10 @@
     <t xml:space="preserve">0.173363924026489</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195431038737297</t>
+    <t xml:space="preserve">0.195431053638458</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191392600536346</t>
+    <t xml:space="preserve">0.191392615437508</t>
   </si>
   <si>
     <t xml:space="preserve">0.187498420476913</t>
@@ -119,10 +119,10 @@
     <t xml:space="preserve">0.171633169054985</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17862831056118</t>
+    <t xml:space="preserve">0.178628295660019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184613823890686</t>
+    <t xml:space="preserve">0.184613838791847</t>
   </si>
   <si>
     <t xml:space="preserve">0.182378277182579</t>
@@ -131,70 +131,70 @@
     <t xml:space="preserve">0.203435778617859</t>
   </si>
   <si>
-    <t xml:space="preserve">0.203363701701164</t>
+    <t xml:space="preserve">0.203363671898842</t>
   </si>
   <si>
     <t xml:space="preserve">0.196152210235596</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190383017063141</t>
+    <t xml:space="preserve">0.19038300216198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.216344326734543</t>
+    <t xml:space="preserve">0.216344341635704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.22103177011013</t>
+    <t xml:space="preserve">0.221031785011292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219950065016747</t>
+    <t xml:space="preserve">0.219950079917908</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211296319961548</t>
+    <t xml:space="preserve">0.211296290159225</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208411738276482</t>
+    <t xml:space="preserve">0.208411693572998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230767279863358</t>
+    <t xml:space="preserve">0.230767294764519</t>
   </si>
   <si>
-    <t xml:space="preserve">0.239421054720879</t>
+    <t xml:space="preserve">0.23942106962204</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230695188045502</t>
+    <t xml:space="preserve">0.230695158243179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.22571924328804</t>
+    <t xml:space="preserve">0.225719258189201</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222834631800652</t>
+    <t xml:space="preserve">0.222834661602974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.205527126789093</t>
+    <t xml:space="preserve">0.205527096986771</t>
   </si>
   <si>
-    <t xml:space="preserve">0.209132850170135</t>
+    <t xml:space="preserve">0.209132835268974</t>
   </si>
   <si>
     <t xml:space="preserve">0.194854140281677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193267613649368</t>
+    <t xml:space="preserve">0.193267598748207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186777278780937</t>
+    <t xml:space="preserve">0.186777263879776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17394083738327</t>
+    <t xml:space="preserve">0.173940852284431</t>
   </si>
   <si>
     <t xml:space="preserve">0.191104158759117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180214822292328</t>
+    <t xml:space="preserve">0.180214837193489</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174517750740051</t>
+    <t xml:space="preserve">0.174517765641212</t>
   </si>
   <si>
     <t xml:space="preserve">0.176681220531464</t>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">0.180863872170448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.213459745049477</t>
+    <t xml:space="preserve">0.213459759950638</t>
   </si>
   <si>
     <t xml:space="preserve">0.215623170137405</t>
@@ -212,31 +212,31 @@
     <t xml:space="preserve">0.21057516336441</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208483815193176</t>
+    <t xml:space="preserve">0.208483800292015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191825300455093</t>
+    <t xml:space="preserve">0.191825315356255</t>
   </si>
   <si>
     <t xml:space="preserve">0.183892667293549</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168748587369919</t>
+    <t xml:space="preserve">0.168748572468758</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173796609044075</t>
+    <t xml:space="preserve">0.173796623945236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170190885663033</t>
+    <t xml:space="preserve">0.170190870761871</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165863990783691</t>
+    <t xml:space="preserve">0.165864005684853</t>
   </si>
   <si>
     <t xml:space="preserve">0.18172924220562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.189517632126808</t>
+    <t xml:space="preserve">0.189517647027969</t>
   </si>
   <si>
     <t xml:space="preserve">0.195791617035866</t>
@@ -245,37 +245,37 @@
     <t xml:space="preserve">0.197594493627548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.209493428468704</t>
+    <t xml:space="preserve">0.209493398666382</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230046153068542</t>
+    <t xml:space="preserve">0.230046167969704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222113490104675</t>
+    <t xml:space="preserve">0.222113534808159</t>
   </si>
   <si>
     <t xml:space="preserve">0.204373270273209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218868359923363</t>
+    <t xml:space="preserve">0.218868345022202</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230623066425323</t>
+    <t xml:space="preserve">0.230623036623001</t>
   </si>
   <si>
-    <t xml:space="preserve">0.22355580329895</t>
+    <t xml:space="preserve">0.223555788397789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220022201538086</t>
+    <t xml:space="preserve">0.220022171735764</t>
   </si>
   <si>
     <t xml:space="preserve">0.229324996471405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244469091296196</t>
+    <t xml:space="preserve">0.244469106197357</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248723894357681</t>
+    <t xml:space="preserve">0.248723864555359</t>
   </si>
   <si>
     <t xml:space="preserve">0.266824692487717</t>
@@ -284,10 +284,10 @@
     <t xml:space="preserve">0.273315012454987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.288459122180939</t>
+    <t xml:space="preserve">0.288459092378616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.306487828493118</t>
+    <t xml:space="preserve">0.306487798690796</t>
   </si>
   <si>
     <t xml:space="preserve">0.315862715244293</t>
@@ -299,22 +299,22 @@
     <t xml:space="preserve">0.342545181512833</t>
   </si>
   <si>
-    <t xml:space="preserve">0.295670598745346</t>
+    <t xml:space="preserve">0.295670568943024</t>
   </si>
   <si>
     <t xml:space="preserve">0.298483073711395</t>
   </si>
   <si>
-    <t xml:space="preserve">0.28708890080452</t>
+    <t xml:space="preserve">0.287088960409164</t>
   </si>
   <si>
-    <t xml:space="preserve">0.287016808986664</t>
+    <t xml:space="preserve">0.287016838788986</t>
   </si>
   <si>
     <t xml:space="preserve">0.278579384088516</t>
   </si>
   <si>
-    <t xml:space="preserve">0.279084175825119</t>
+    <t xml:space="preserve">0.279084205627441</t>
   </si>
   <si>
     <t xml:space="preserve">0.279228419065475</t>
@@ -326,25 +326,25 @@
     <t xml:space="preserve">0.268267005681992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.24158450961113</t>
+    <t xml:space="preserve">0.241584524512291</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237401843070984</t>
+    <t xml:space="preserve">0.237401857972145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243026822805405</t>
+    <t xml:space="preserve">0.243026807904243</t>
   </si>
   <si>
-    <t xml:space="preserve">0.239493176341057</t>
+    <t xml:space="preserve">0.239493191242218</t>
   </si>
   <si>
     <t xml:space="preserve">0.272593855857849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.281247645616531</t>
+    <t xml:space="preserve">0.281247615814209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.264805436134338</t>
+    <t xml:space="preserve">0.264805465936661</t>
   </si>
   <si>
     <t xml:space="preserve">0.261055469512939</t>
@@ -365,7 +365,7 @@
     <t xml:space="preserve">0.255142062902451</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244541183114052</t>
+    <t xml:space="preserve">0.244541212916374</t>
   </si>
   <si>
     <t xml:space="preserve">0.230839416384697</t>
@@ -374,46 +374,46 @@
     <t xml:space="preserve">0.234373033046722</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237257644534111</t>
+    <t xml:space="preserve">0.237257614731789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.236536502838135</t>
+    <t xml:space="preserve">0.236536458134651</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237978771328926</t>
+    <t xml:space="preserve">0.237978786230087</t>
   </si>
   <si>
-    <t xml:space="preserve">0.239565297961235</t>
+    <t xml:space="preserve">0.239565327763557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243171021342278</t>
+    <t xml:space="preserve">0.243171036243439</t>
   </si>
   <si>
     <t xml:space="preserve">0.258892029523849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.252257496118546</t>
+    <t xml:space="preserve">0.252257466316223</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253339201211929</t>
+    <t xml:space="preserve">0.253339231014252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.26329106092453</t>
+    <t xml:space="preserve">0.263291031122208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.268915981054306</t>
+    <t xml:space="preserve">0.268916040658951</t>
   </si>
   <si>
-    <t xml:space="preserve">0.257593989372253</t>
+    <t xml:space="preserve">0.257594019174576</t>
   </si>
   <si>
-    <t xml:space="preserve">0.252401739358902</t>
+    <t xml:space="preserve">0.25240170955658</t>
   </si>
   <si>
     <t xml:space="preserve">0.252113252878189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248868063092232</t>
+    <t xml:space="preserve">0.248868092894554</t>
   </si>
   <si>
     <t xml:space="preserve">0.265382379293442</t>
@@ -425,7 +425,7 @@
     <t xml:space="preserve">0.256223797798157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340958684682846</t>
+    <t xml:space="preserve">0.340958625078201</t>
   </si>
   <si>
     <t xml:space="preserve">0.403842747211456</t>
@@ -437,46 +437,46 @@
     <t xml:space="preserve">0.625956237316132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.547351181507111</t>
+    <t xml:space="preserve">0.547351241111755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.501197695732117</t>
+    <t xml:space="preserve">0.501197755336761</t>
   </si>
   <si>
-    <t xml:space="preserve">0.484250754117966</t>
+    <t xml:space="preserve">0.484250694513321</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454323083162308</t>
+    <t xml:space="preserve">0.45432311296463</t>
   </si>
   <si>
-    <t xml:space="preserve">0.418265700340271</t>
+    <t xml:space="preserve">0.418265670537949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47523632645607</t>
+    <t xml:space="preserve">0.475236356258392</t>
   </si>
   <si>
     <t xml:space="preserve">0.421510875225067</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429082930088043</t>
+    <t xml:space="preserve">0.429082959890366</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397352397441864</t>
+    <t xml:space="preserve">0.397352457046509</t>
   </si>
   <si>
     <t xml:space="preserve">0.373915106058121</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36129504442215</t>
+    <t xml:space="preserve">0.361295014619827</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374636292457581</t>
+    <t xml:space="preserve">0.374636262655258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383650600910187</t>
+    <t xml:space="preserve">0.383650630712509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369227647781372</t>
+    <t xml:space="preserve">0.369227677583694</t>
   </si>
   <si>
     <t xml:space="preserve">0.400237023830414</t>
@@ -491,31 +491,31 @@
     <t xml:space="preserve">0.365261346101761</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368506461381912</t>
+    <t xml:space="preserve">0.368506491184235</t>
   </si>
   <si>
     <t xml:space="preserve">0.382208317518234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378602564334869</t>
+    <t xml:space="preserve">0.378602534532547</t>
   </si>
   <si>
     <t xml:space="preserve">0.364179611206055</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372112244367599</t>
+    <t xml:space="preserve">0.372112274169922</t>
   </si>
   <si>
     <t xml:space="preserve">0.360573917627335</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357689261436462</t>
+    <t xml:space="preserve">0.357689291238785</t>
   </si>
   <si>
-    <t xml:space="preserve">0.384011209011078</t>
+    <t xml:space="preserve">0.3840112388134</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36490073800087</t>
+    <t xml:space="preserve">0.364900767803192</t>
   </si>
   <si>
     <t xml:space="preserve">0.36345848441124</t>
@@ -524,16 +524,16 @@
     <t xml:space="preserve">0.376799702644348</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370669990777969</t>
+    <t xml:space="preserve">0.370669931173325</t>
   </si>
   <si>
-    <t xml:space="preserve">0.376439154148102</t>
+    <t xml:space="preserve">0.376439124345779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34615096449852</t>
+    <t xml:space="preserve">0.346150904893875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356247007846832</t>
+    <t xml:space="preserve">0.35624697804451</t>
   </si>
   <si>
     <t xml:space="preserve">0.356896042823792</t>
@@ -542,85 +542,85 @@
     <t xml:space="preserve">0.367785334587097</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373554557561874</t>
+    <t xml:space="preserve">0.373554527759552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.411054253578186</t>
+    <t xml:space="preserve">0.411054193973541</t>
   </si>
   <si>
     <t xml:space="preserve">0.389419823884964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.390140980482101</t>
+    <t xml:space="preserve">0.390140950679779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366343080997467</t>
+    <t xml:space="preserve">0.366343110799789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387616991996765</t>
+    <t xml:space="preserve">0.387616962194443</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360934495925903</t>
+    <t xml:space="preserve">0.360934525728226</t>
   </si>
   <si>
-    <t xml:space="preserve">0.376078546047211</t>
+    <t xml:space="preserve">0.376078575849533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4471116065979</t>
+    <t xml:space="preserve">0.447111576795578</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424034893512726</t>
+    <t xml:space="preserve">0.424034863710403</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423313736915588</t>
+    <t xml:space="preserve">0.423313766717911</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424756020307541</t>
+    <t xml:space="preserve">0.424755990505219</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41718402504921</t>
+    <t xml:space="preserve">0.417183995246887</t>
   </si>
   <si>
-    <t xml:space="preserve">0.425477176904678</t>
+    <t xml:space="preserve">0.425477206707001</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395910173654556</t>
+    <t xml:space="preserve">0.395910143852234</t>
   </si>
   <si>
     <t xml:space="preserve">0.401318728923798</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406727403402328</t>
+    <t xml:space="preserve">0.406727343797684</t>
   </si>
   <si>
     <t xml:space="preserve">0.421150326728821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446029871702194</t>
+    <t xml:space="preserve">0.446029931306839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.449275016784668</t>
+    <t xml:space="preserve">0.449275076389313</t>
   </si>
   <si>
     <t xml:space="preserve">0.433409810066223</t>
   </si>
   <si>
-    <t xml:space="preserve">0.432688653469086</t>
+    <t xml:space="preserve">0.432688683271408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444226980209351</t>
+    <t xml:space="preserve">0.444227069616318</t>
   </si>
   <si>
-    <t xml:space="preserve">0.433049291372299</t>
+    <t xml:space="preserve">0.433049261569977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.468024969100952</t>
+    <t xml:space="preserve">0.468024909496307</t>
   </si>
   <si>
-    <t xml:space="preserve">0.475957542657852</t>
+    <t xml:space="preserve">0.475957572460175</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44999623298645</t>
+    <t xml:space="preserve">0.449996262788773</t>
   </si>
   <si>
     <t xml:space="preserve">0.432328104972839</t>
@@ -632,7 +632,7 @@
     <t xml:space="preserve">0.540860831737518</t>
   </si>
   <si>
-    <t xml:space="preserve">0.504082322120667</t>
+    <t xml:space="preserve">0.504082262516022</t>
   </si>
   <si>
     <t xml:space="preserve">0.519226431846619</t>
@@ -641,115 +641,115 @@
     <t xml:space="preserve">0.497591942548752</t>
   </si>
   <si>
-    <t xml:space="preserve">0.502640008926392</t>
+    <t xml:space="preserve">0.502640068531036</t>
   </si>
   <si>
     <t xml:space="preserve">0.512014865875244</t>
   </si>
   <si>
-    <t xml:space="preserve">0.504803478717804</t>
+    <t xml:space="preserve">0.504803419113159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.484611362218857</t>
+    <t xml:space="preserve">0.484611302614212</t>
   </si>
   <si>
     <t xml:space="preserve">0.487495899200439</t>
   </si>
   <si>
-    <t xml:space="preserve">0.48316901922226</t>
+    <t xml:space="preserve">0.483169049024582</t>
   </si>
   <si>
     <t xml:space="preserve">0.470188349485397</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465861469507217</t>
+    <t xml:space="preserve">0.465861439704895</t>
   </si>
   <si>
     <t xml:space="preserve">0.468746066093445</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474515289068222</t>
+    <t xml:space="preserve">0.474515229463577</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461534559726715</t>
+    <t xml:space="preserve">0.461534589529037</t>
   </si>
   <si>
-    <t xml:space="preserve">0.496149659156799</t>
+    <t xml:space="preserve">0.496149688959122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478842109441757</t>
+    <t xml:space="preserve">0.47884213924408</t>
   </si>
   <si>
     <t xml:space="preserve">0.530764758586884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.490380465984344</t>
+    <t xml:space="preserve">0.490380525588989</t>
   </si>
   <si>
     <t xml:space="preserve">0.45864999294281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.480284363031387</t>
+    <t xml:space="preserve">0.480284452438354</t>
   </si>
   <si>
-    <t xml:space="preserve">0.486053645610809</t>
+    <t xml:space="preserve">0.486053615808487</t>
   </si>
   <si>
-    <t xml:space="preserve">0.471630692481995</t>
+    <t xml:space="preserve">0.471630662679672</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457207679748535</t>
+    <t xml:space="preserve">0.457207709550858</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464419156312943</t>
+    <t xml:space="preserve">0.464419186115265</t>
   </si>
   <si>
-    <t xml:space="preserve">0.438457846641541</t>
+    <t xml:space="preserve">0.438457876443863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.439900130033493</t>
+    <t xml:space="preserve">0.439900159835815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.445669263601303</t>
+    <t xml:space="preserve">0.445669323205948</t>
   </si>
   <si>
-    <t xml:space="preserve">0.462976932525635</t>
+    <t xml:space="preserve">0.46297687292099</t>
   </si>
   <si>
     <t xml:space="preserve">0.494707375764847</t>
   </si>
   <si>
-    <t xml:space="preserve">0.481726706027985</t>
+    <t xml:space="preserve">0.481726676225662</t>
   </si>
   <si>
-    <t xml:space="preserve">0.467303812503815</t>
+    <t xml:space="preserve">0.46730375289917</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452880829572678</t>
+    <t xml:space="preserve">0.452880769968033</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47307300567627</t>
+    <t xml:space="preserve">0.473072916269302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.460092306137085</t>
+    <t xml:space="preserve">0.460092335939407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.477399826049805</t>
+    <t xml:space="preserve">0.47739976644516</t>
   </si>
   <si>
     <t xml:space="preserve">0.415381133556366</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419708043336868</t>
+    <t xml:space="preserve">0.419708013534546</t>
   </si>
   <si>
-    <t xml:space="preserve">0.416823476552963</t>
+    <t xml:space="preserve">0.416823387145996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.390862077474594</t>
+    <t xml:space="preserve">0.390862107276917</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377881437540054</t>
+    <t xml:space="preserve">0.377881467342377</t>
   </si>
   <si>
     <t xml:space="preserve">0.412496507167816</t>
@@ -761,25 +761,25 @@
     <t xml:space="preserve">0.395188987255096</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386535227298737</t>
+    <t xml:space="preserve">0.386535197496414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387977480888367</t>
+    <t xml:space="preserve">0.387977451086044</t>
   </si>
   <si>
     <t xml:space="preserve">0.396631300449371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.426919490098953</t>
+    <t xml:space="preserve">0.426919519901276</t>
   </si>
   <si>
-    <t xml:space="preserve">0.442784756422043</t>
+    <t xml:space="preserve">0.44278472661972</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405285060405731</t>
+    <t xml:space="preserve">0.405285000801086</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413938820362091</t>
+    <t xml:space="preserve">0.413938850164413</t>
   </si>
   <si>
     <t xml:space="preserve">0.434130966663361</t>
@@ -788,19 +788,19 @@
     <t xml:space="preserve">0.431246340274811</t>
   </si>
   <si>
-    <t xml:space="preserve">0.428361743688583</t>
+    <t xml:space="preserve">0.428361773490906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.441342413425446</t>
+    <t xml:space="preserve">0.441342383623123</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448553889989853</t>
+    <t xml:space="preserve">0.448553919792175</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45143848657608</t>
+    <t xml:space="preserve">0.451438516378403</t>
   </si>
   <si>
-    <t xml:space="preserve">0.486774802207947</t>
+    <t xml:space="preserve">0.486774772405624</t>
   </si>
   <si>
     <t xml:space="preserve">0.493986219167709</t>
@@ -809,7 +809,7 @@
     <t xml:space="preserve">0.515620648860931</t>
   </si>
   <si>
-    <t xml:space="preserve">0.522832095623016</t>
+    <t xml:space="preserve">0.522832155227661</t>
   </si>
   <si>
     <t xml:space="preserve">0.53230482339859</t>
@@ -827,25 +827,22 @@
     <t xml:space="preserve">0.488608181476593</t>
   </si>
   <si>
-    <t xml:space="preserve">0.500525414943695</t>
+    <t xml:space="preserve">0.50052547454834</t>
   </si>
   <si>
-    <t xml:space="preserve">0.504497885704041</t>
+    <t xml:space="preserve">0.504497826099396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.496553003787994</t>
+    <t xml:space="preserve">0.496553033590317</t>
   </si>
   <si>
     <t xml:space="preserve">0.480663359165192</t>
   </si>
   <si>
-    <t xml:space="preserve">0.468746036291122</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.460801184177399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.472718477249146</t>
+    <t xml:space="preserve">0.472718507051468</t>
   </si>
   <si>
     <t xml:space="preserve">0.444911509752274</t>
@@ -854,10 +851,10 @@
     <t xml:space="preserve">0.448883920907974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464773625135422</t>
+    <t xml:space="preserve">0.464773654937744</t>
   </si>
   <si>
-    <t xml:space="preserve">0.48463574051857</t>
+    <t xml:space="preserve">0.484635770320892</t>
   </si>
   <si>
     <t xml:space="preserve">0.512442708015442</t>
@@ -875,43 +872,43 @@
     <t xml:space="preserve">0.520387589931488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.456828743219376</t>
+    <t xml:space="preserve">0.456828773021698</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452856361865997</t>
+    <t xml:space="preserve">0.452856332063675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436966687440872</t>
+    <t xml:space="preserve">0.43696665763855</t>
   </si>
   <si>
     <t xml:space="preserve">0.429021835327148</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413132101297379</t>
+    <t xml:space="preserve">0.413132131099701</t>
   </si>
   <si>
-    <t xml:space="preserve">0.425049394369125</t>
+    <t xml:space="preserve">0.425049424171448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44093906879425</t>
+    <t xml:space="preserve">0.440939098596573</t>
   </si>
   <si>
     <t xml:space="preserve">0.421076953411102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.390886545181274</t>
+    <t xml:space="preserve">0.390886574983597</t>
   </si>
   <si>
-    <t xml:space="preserve">0.389297604560852</t>
+    <t xml:space="preserve">0.38929757475853</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405187219381332</t>
+    <t xml:space="preserve">0.405187249183655</t>
   </si>
   <si>
     <t xml:space="preserve">0.397242426872253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.381352722644806</t>
+    <t xml:space="preserve">0.381352692842484</t>
   </si>
   <si>
     <t xml:space="preserve">0.357518166303635</t>
@@ -920,10 +917,10 @@
     <t xml:space="preserve">0.360696107149124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333683639764786</t>
+    <t xml:space="preserve">0.333683609962463</t>
   </si>
   <si>
-    <t xml:space="preserve">0.297137349843979</t>
+    <t xml:space="preserve">0.297137320041656</t>
   </si>
   <si>
     <t xml:space="preserve">0.319382905960083</t>
@@ -938,19 +935,22 @@
     <t xml:space="preserve">0.300315260887146</t>
   </si>
   <si>
+    <t xml:space="preserve">0.281247645616531</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.286014556884766</t>
   </si>
   <si>
     <t xml:space="preserve">0.279658645391464</t>
   </si>
   <si>
-    <t xml:space="preserve">0.327327728271484</t>
+    <t xml:space="preserve">0.327327758073807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.328916698694229</t>
+    <t xml:space="preserve">0.328916728496552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311438024044037</t>
+    <t xml:space="preserve">0.311438083648682</t>
   </si>
   <si>
     <t xml:space="preserve">0.320971876382828</t>
@@ -968,7 +968,7 @@
     <t xml:space="preserve">0.354340255260468</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387708604335785</t>
+    <t xml:space="preserve">0.387708634138107</t>
   </si>
   <si>
     <t xml:space="preserve">0.373407870531082</t>
@@ -977,16 +977,16 @@
     <t xml:space="preserve">0.367051988840103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394064456224442</t>
+    <t xml:space="preserve">0.394064486026764</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417104542255402</t>
+    <t xml:space="preserve">0.417104482650757</t>
   </si>
   <si>
-    <t xml:space="preserve">0.432994216680527</t>
+    <t xml:space="preserve">0.432994276285172</t>
   </si>
   <si>
-    <t xml:space="preserve">0.376585811376572</t>
+    <t xml:space="preserve">0.376585841178894</t>
   </si>
   <si>
     <t xml:space="preserve">0.379763752222061</t>
@@ -1004,28 +1004,28 @@
     <t xml:space="preserve">0.370229929685593</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37181892991066</t>
+    <t xml:space="preserve">0.371818900108337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368640959262848</t>
+    <t xml:space="preserve">0.36864098906517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365463018417358</t>
+    <t xml:space="preserve">0.365463078022003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.351162314414978</t>
+    <t xml:space="preserve">0.351162284612656</t>
   </si>
   <si>
     <t xml:space="preserve">0.363874047994614</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349573314189911</t>
+    <t xml:space="preserve">0.349573343992233</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34162849187851</t>
+    <t xml:space="preserve">0.341628462076187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32573875784874</t>
+    <t xml:space="preserve">0.325738787651062</t>
   </si>
   <si>
     <t xml:space="preserve">0.330505698919296</t>
@@ -1034,16 +1034,16 @@
     <t xml:space="preserve">0.303493201732635</t>
   </si>
   <si>
-    <t xml:space="preserve">0.306671172380447</t>
+    <t xml:space="preserve">0.306671142578125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.298726320266724</t>
+    <t xml:space="preserve">0.298726290464401</t>
   </si>
   <si>
-    <t xml:space="preserve">0.30508217215538</t>
+    <t xml:space="preserve">0.305082201957703</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309849083423615</t>
+    <t xml:space="preserve">0.309849053621292</t>
   </si>
   <si>
     <t xml:space="preserve">0.317793935537338</t>
@@ -1055,7 +1055,7 @@
     <t xml:space="preserve">0.340039521455765</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332094699144363</t>
+    <t xml:space="preserve">0.332094669342041</t>
   </si>
   <si>
     <t xml:space="preserve">0.493128478527069</t>
@@ -1064,7 +1064,7 @@
     <t xml:space="preserve">0.458523005247116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.445545941591263</t>
+    <t xml:space="preserve">0.44554591178894</t>
   </si>
   <si>
     <t xml:space="preserve">0.43256887793541</t>
@@ -1079,16 +1079,16 @@
     <t xml:space="preserve">0.416996389627457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436894536018372</t>
+    <t xml:space="preserve">0.436894565820694</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429108291864395</t>
+    <t xml:space="preserve">0.429108321666718</t>
   </si>
   <si>
-    <t xml:space="preserve">0.418726682662964</t>
+    <t xml:space="preserve">0.418726652860641</t>
   </si>
   <si>
-    <t xml:space="preserve">0.401423901319504</t>
+    <t xml:space="preserve">0.401423931121826</t>
   </si>
   <si>
     <t xml:space="preserve">0.394502818584442</t>
@@ -1100,10 +1100,10 @@
     <t xml:space="preserve">0.389311969280243</t>
   </si>
   <si>
-    <t xml:space="preserve">0.404884427785873</t>
+    <t xml:space="preserve">0.404884457588196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397963374853134</t>
+    <t xml:space="preserve">0.397963404655457</t>
   </si>
   <si>
     <t xml:space="preserve">0.403154164552689</t>
@@ -1112,10 +1112,10 @@
     <t xml:space="preserve">0.385851442813873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.384121149778366</t>
+    <t xml:space="preserve">0.384121179580688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.399693667888641</t>
+    <t xml:space="preserve">0.399693638086319</t>
   </si>
   <si>
     <t xml:space="preserve">0.501779854297638</t>
@@ -1130,7 +1130,7 @@
     <t xml:space="preserve">0.510431289672852</t>
   </si>
   <si>
-    <t xml:space="preserve">0.506105542182922</t>
+    <t xml:space="preserve">0.506105601787567</t>
   </si>
   <si>
     <t xml:space="preserve">0.475825756788254</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">0.462848722934723</t>
   </si>
   <si>
-    <t xml:space="preserve">0.449871599674225</t>
+    <t xml:space="preserve">0.449871629476547</t>
   </si>
   <si>
     <t xml:space="preserve">0.441220223903656</t>
@@ -1148,16 +1148,16 @@
     <t xml:space="preserve">0.454197257757187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.467174381017685</t>
+    <t xml:space="preserve">0.467174410820007</t>
   </si>
   <si>
-    <t xml:space="preserve">0.427378058433533</t>
+    <t xml:space="preserve">0.42737802863121</t>
   </si>
   <si>
     <t xml:space="preserve">0.420456945896149</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406614750623703</t>
+    <t xml:space="preserve">0.406614720821381</t>
   </si>
   <si>
     <t xml:space="preserve">0.396233081817627</t>
@@ -1172,10 +1172,10 @@
     <t xml:space="preserve">0.413535833358765</t>
   </si>
   <si>
-    <t xml:space="preserve">0.422187209129333</t>
+    <t xml:space="preserve">0.422187238931656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.411805540323257</t>
+    <t xml:space="preserve">0.41180557012558</t>
   </si>
   <si>
     <t xml:space="preserve">0.363357841968536</t>
@@ -1184,10 +1184,10 @@
     <t xml:space="preserve">0.344324827194214</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346055060625076</t>
+    <t xml:space="preserve">0.346055090427399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365088105201721</t>
+    <t xml:space="preserve">0.365088135004044</t>
   </si>
   <si>
     <t xml:space="preserve">0.366818398237228</t>
@@ -1208,7 +1208,7 @@
     <t xml:space="preserve">0.38758173584938</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377200037240982</t>
+    <t xml:space="preserve">0.377200067043304</t>
   </si>
   <si>
     <t xml:space="preserve">0.354706466197968</t>
@@ -1226,7 +1226,7 @@
     <t xml:space="preserve">0.37027895450592</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36438712477684</t>
+    <t xml:space="preserve">0.364387094974518</t>
   </si>
   <si>
     <t xml:space="preserve">0.369825720787048</t>
@@ -1235,10 +1235,10 @@
     <t xml:space="preserve">0.360761374235153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366199970245361</t>
+    <t xml:space="preserve">0.366200000047684</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380702912807465</t>
+    <t xml:space="preserve">0.380702942609787</t>
   </si>
   <si>
     <t xml:space="preserve">0.38251581788063</t>
@@ -1259,13 +1259,13 @@
     <t xml:space="preserve">0.335381180047989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346258372068405</t>
+    <t xml:space="preserve">0.346258401870728</t>
   </si>
   <si>
     <t xml:space="preserve">0.362574249505997</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344445526599884</t>
+    <t xml:space="preserve">0.344445496797562</t>
   </si>
   <si>
     <t xml:space="preserve">0.342632651329041</t>
@@ -1274,7 +1274,7 @@
     <t xml:space="preserve">0.333568304777145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32450395822525</t>
+    <t xml:space="preserve">0.324503928422928</t>
   </si>
   <si>
     <t xml:space="preserve">0.329942554235458</t>
@@ -1283,19 +1283,19 @@
     <t xml:space="preserve">0.320878207683563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317252457141876</t>
+    <t xml:space="preserve">0.317252427339554</t>
   </si>
   <si>
-    <t xml:space="preserve">0.319065302610397</t>
+    <t xml:space="preserve">0.31906533241272</t>
   </si>
   <si>
-    <t xml:space="preserve">0.310000985860825</t>
+    <t xml:space="preserve">0.310000956058502</t>
   </si>
   <si>
     <t xml:space="preserve">0.322691082954407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311813831329346</t>
+    <t xml:space="preserve">0.311813861131668</t>
   </si>
   <si>
     <t xml:space="preserve">0.326316833496094</t>
@@ -1304,22 +1304,22 @@
     <t xml:space="preserve">0.328129678964615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.339006900787354</t>
+    <t xml:space="preserve">0.339006930589676</t>
   </si>
   <si>
     <t xml:space="preserve">0.340819776058197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353509843349457</t>
+    <t xml:space="preserve">0.353509873151779</t>
   </si>
   <si>
     <t xml:space="preserve">0.331755429506302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397018790245056</t>
+    <t xml:space="preserve">0.397018760442734</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387954413890839</t>
+    <t xml:space="preserve">0.387954443693161</t>
   </si>
   <si>
     <t xml:space="preserve">0.389767318964005</t>
@@ -1328,13 +1328,13 @@
     <t xml:space="preserve">0.391580194234848</t>
   </si>
   <si>
-    <t xml:space="preserve">0.384328693151474</t>
+    <t xml:space="preserve">0.384328663349152</t>
   </si>
   <si>
     <t xml:space="preserve">0.386141568422318</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40427029132843</t>
+    <t xml:space="preserve">0.404270261526108</t>
   </si>
   <si>
     <t xml:space="preserve">0.338870882987976</t>
@@ -25843,7 +25843,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G926" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -25869,7 +25869,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G927" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -25895,7 +25895,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G928" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -25921,7 +25921,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G929" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -25947,7 +25947,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G930" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -25973,7 +25973,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G931" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -25999,7 +25999,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G932" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -26025,7 +26025,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G933" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -26051,7 +26051,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G934" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -26077,7 +26077,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G935" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -26103,7 +26103,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G936" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -26129,7 +26129,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G937" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -26155,7 +26155,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G938" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -26181,7 +26181,7 @@
         <v>0.564999997615814</v>
       </c>
       <c r="G939" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -26207,7 +26207,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G940" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -26233,7 +26233,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G941" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -26285,7 +26285,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G943" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -26311,7 +26311,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G944" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -26337,7 +26337,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G945" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -26363,7 +26363,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G946" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -26389,7 +26389,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G947" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -26415,7 +26415,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G948" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -26441,7 +26441,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G949" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -26467,7 +26467,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G950" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -26493,7 +26493,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G951" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -26519,7 +26519,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G952" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -26545,7 +26545,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G953" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -26571,7 +26571,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G954" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -26597,7 +26597,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G955" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -26623,7 +26623,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G956" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -26649,7 +26649,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G957" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -26675,7 +26675,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G958" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -26701,7 +26701,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G959" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -26727,7 +26727,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G960" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -26753,7 +26753,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G961" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -26831,7 +26831,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G964" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -26909,7 +26909,7 @@
         <v>0.644999980926514</v>
       </c>
       <c r="G967" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -26935,7 +26935,7 @@
         <v>0.759999990463257</v>
       </c>
       <c r="G968" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -26987,7 +26987,7 @@
         <v>0.649999976158142</v>
       </c>
       <c r="G970" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -27013,7 +27013,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G971" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -27039,7 +27039,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G972" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -27065,7 +27065,7 @@
         <v>0.654999971389771</v>
       </c>
       <c r="G973" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -27221,7 +27221,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G979" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -27247,7 +27247,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G980" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -27273,7 +27273,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G981" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -27351,7 +27351,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G984" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -27377,7 +27377,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G985" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -27793,7 +27793,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1001" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -27819,7 +27819,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1002" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -27845,7 +27845,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1003" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -27871,7 +27871,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1004" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -27897,7 +27897,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1005" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -27923,7 +27923,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1006" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -27949,7 +27949,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1007" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -27975,7 +27975,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1008" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -28001,7 +28001,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1009" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -28053,7 +28053,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1011" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -28079,7 +28079,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1012" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -28105,7 +28105,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1013" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -28131,7 +28131,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1014" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -28157,7 +28157,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1015" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -28183,7 +28183,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1016" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -28209,7 +28209,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1017" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -28235,7 +28235,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1018" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -28261,7 +28261,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1019" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -28287,7 +28287,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1020" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -28313,7 +28313,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1021" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -28391,7 +28391,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1024" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -28417,7 +28417,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1025" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -28443,7 +28443,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1026" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -28469,7 +28469,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1027" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -28495,7 +28495,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1028" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -28521,7 +28521,7 @@
         <v>0.564999997615814</v>
       </c>
       <c r="G1029" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -28547,7 +28547,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1030" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -28573,7 +28573,7 @@
         <v>0.550000011920929</v>
       </c>
       <c r="G1031" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -28599,7 +28599,7 @@
         <v>0.550000011920929</v>
       </c>
       <c r="G1032" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -28625,7 +28625,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1033" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -28651,7 +28651,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1034" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -28677,7 +28677,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1035" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -28703,7 +28703,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1036" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -28729,7 +28729,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1037" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -28755,7 +28755,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1038" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -28781,7 +28781,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G1039" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -28807,7 +28807,7 @@
         <v>0.555000007152557</v>
       </c>
       <c r="G1040" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -28833,7 +28833,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1041" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -28859,7 +28859,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1042" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -28885,7 +28885,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1043" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -28911,7 +28911,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1044" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -29015,7 +29015,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1048" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -29067,7 +29067,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1050" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -29145,7 +29145,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1053" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -29171,7 +29171,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1054" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -29197,7 +29197,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1055" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -29223,7 +29223,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1056" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -29249,7 +29249,7 @@
         <v>0.492000013589859</v>
       </c>
       <c r="G1057" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -29275,7 +29275,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1058" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -29301,7 +29301,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1059" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -29327,7 +29327,7 @@
         <v>0.5</v>
       </c>
       <c r="G1060" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -29353,7 +29353,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1061" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -29379,7 +29379,7 @@
         <v>0.5</v>
       </c>
       <c r="G1062" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -29405,7 +29405,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1063" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -29431,7 +29431,7 @@
         <v>0.453999996185303</v>
       </c>
       <c r="G1064" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -29457,7 +29457,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1065" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -29483,7 +29483,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G1066" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -29509,7 +29509,7 @@
         <v>0.40200001001358</v>
       </c>
       <c r="G1067" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -29535,7 +29535,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1068" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -29561,7 +29561,7 @@
         <v>0.393999993801117</v>
       </c>
       <c r="G1069" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -29587,7 +29587,7 @@
         <v>0.377999991178513</v>
       </c>
       <c r="G1070" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -29613,7 +29613,7 @@
         <v>0.354000002145767</v>
       </c>
       <c r="G1071" t="s">
-        <v>109</v>
+        <v>307</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -29795,7 +29795,7 @@
         <v>0.40200001001358</v>
       </c>
       <c r="G1078" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -29925,7 +29925,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1083" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -29951,7 +29951,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1084" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -29977,7 +29977,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1085" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -30029,7 +30029,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1087" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -30055,7 +30055,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1088" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -30133,7 +30133,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1091" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -30523,7 +30523,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1106" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -30549,7 +30549,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1107" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -30653,7 +30653,7 @@
         <v>0.5</v>
       </c>
       <c r="G1111" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -30705,7 +30705,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1113" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -30731,7 +30731,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1114" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -30757,7 +30757,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1115" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -30861,7 +30861,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1119" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -30887,7 +30887,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1120" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -30913,7 +30913,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1121" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -30965,7 +30965,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1123" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -30991,7 +30991,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1124" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -31017,7 +31017,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1125" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -31043,7 +31043,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1126" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -31069,7 +31069,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G1127" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -31095,7 +31095,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1128" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -31121,7 +31121,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1129" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -31147,7 +31147,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1130" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -31173,7 +31173,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1131" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -31199,7 +31199,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1132" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -31225,7 +31225,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1133" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -31251,7 +31251,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1134" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -31277,7 +31277,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1135" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -31303,7 +31303,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1136" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -31329,7 +31329,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1137" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -31355,7 +31355,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1138" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -31381,7 +31381,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1139" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -31407,7 +31407,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1140" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -31433,7 +31433,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1141" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -31459,7 +31459,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1142" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -31485,7 +31485,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1143" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -31511,7 +31511,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1144" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -31537,7 +31537,7 @@
         <v>0.5</v>
       </c>
       <c r="G1145" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -31563,7 +31563,7 @@
         <v>0.5</v>
       </c>
       <c r="G1146" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -31589,7 +31589,7 @@
         <v>0.5</v>
       </c>
       <c r="G1147" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -31615,7 +31615,7 @@
         <v>0.5</v>
       </c>
       <c r="G1148" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -31641,7 +31641,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1149" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -31693,7 +31693,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1151" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -31719,7 +31719,7 @@
         <v>0.5</v>
       </c>
       <c r="G1152" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -31745,7 +31745,7 @@
         <v>0.5</v>
       </c>
       <c r="G1153" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -31797,7 +31797,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1155" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -31979,7 +31979,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1162" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32005,7 +32005,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1163" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -32031,7 +32031,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1164" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -32057,7 +32057,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1165" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -32395,7 +32395,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1178" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -32889,7 +32889,7 @@
         <v>0.453999996185303</v>
       </c>
       <c r="G1197" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -33929,7 +33929,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1237" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -34137,7 +34137,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G1245" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -34163,7 +34163,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G1246" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -34657,7 +34657,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1265" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -35307,7 +35307,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1290" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -35333,7 +35333,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1291" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -35385,7 +35385,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1293" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -35411,7 +35411,7 @@
         <v>0.5</v>
       </c>
       <c r="G1294" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -35437,7 +35437,7 @@
         <v>0.550000011920929</v>
       </c>
       <c r="G1295" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -35463,7 +35463,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1296" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -35515,7 +35515,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1298" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -35541,7 +35541,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1299" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -35567,7 +35567,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1300" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -35619,7 +35619,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1302" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -35645,7 +35645,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1303" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -35671,7 +35671,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1304" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -35697,7 +35697,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1305" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -35723,7 +35723,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1306" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -35749,7 +35749,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1307" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -35775,7 +35775,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1308" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -35801,7 +35801,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1309" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -35827,7 +35827,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1310" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -57670,6 +57670,58 @@
         <v>471</v>
       </c>
       <c r="H2150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" s="1" t="n">
+        <v>45456.2916666667</v>
+      </c>
+      <c r="B2151" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2151" t="n">
+        <v>0.34400001168251</v>
+      </c>
+      <c r="D2151" t="n">
+        <v>0.34400001168251</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>0.34400001168251</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>0.34400001168251</v>
+      </c>
+      <c r="G2151" t="s">
+        <v>471</v>
+      </c>
+      <c r="H2151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" s="1" t="n">
+        <v>45457.4599537037</v>
+      </c>
+      <c r="B2152" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C2152" t="n">
+        <v>0.340000003576279</v>
+      </c>
+      <c r="D2152" t="n">
+        <v>0.340000003576279</v>
+      </c>
+      <c r="E2152" t="n">
+        <v>0.340000003576279</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>0.340000003576279</v>
+      </c>
+      <c r="G2152" t="s">
+        <v>472</v>
+      </c>
+      <c r="H2152" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/POPR.MI.xlsx
+++ b/data/POPR.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="474">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.201921388506889</t>
+    <t xml:space="preserve">0.201921373605728</t>
   </si>
   <si>
     <t xml:space="preserve">POPR.MI</t>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">0.202642515301704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.198315635323524</t>
+    <t xml:space="preserve">0.198315665125847</t>
   </si>
   <si>
     <t xml:space="preserve">0.196873337030411</t>
@@ -59,67 +59,67 @@
     <t xml:space="preserve">0.194709911942482</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17091204226017</t>
+    <t xml:space="preserve">0.170912027359009</t>
   </si>
   <si>
     <t xml:space="preserve">0.164421692490578</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171849519014359</t>
+    <t xml:space="preserve">0.17184953391552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166585147380829</t>
+    <t xml:space="preserve">0.166585132479668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175238907337189</t>
+    <t xml:space="preserve">0.17523892223835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175960049033165</t>
+    <t xml:space="preserve">0.175960063934326</t>
   </si>
   <si>
     <t xml:space="preserve">0.173003345727921</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168027430772781</t>
+    <t xml:space="preserve">0.16802741587162</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160455361008644</t>
+    <t xml:space="preserve">0.160455375909805</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160094812512398</t>
+    <t xml:space="preserve">0.160094827413559</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160527482628822</t>
+    <t xml:space="preserve">0.160527497529984</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162979409098625</t>
+    <t xml:space="preserve">0.162979379296303</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159373670816422</t>
+    <t xml:space="preserve">0.15937365591526</t>
   </si>
   <si>
     <t xml:space="preserve">0.173363924026489</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195431053638458</t>
+    <t xml:space="preserve">0.195431038737297</t>
   </si>
   <si>
     <t xml:space="preserve">0.191392600536346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187498405575752</t>
+    <t xml:space="preserve">0.187498420476913</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180286943912506</t>
+    <t xml:space="preserve">0.180286958813667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17740236222744</t>
+    <t xml:space="preserve">0.177402347326279</t>
   </si>
   <si>
     <t xml:space="preserve">0.171633169054985</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17862831056118</t>
+    <t xml:space="preserve">0.178628295660019</t>
   </si>
   <si>
     <t xml:space="preserve">0.184613838791847</t>
@@ -128,49 +128,49 @@
     <t xml:space="preserve">0.182378262281418</t>
   </si>
   <si>
-    <t xml:space="preserve">0.203435778617859</t>
+    <t xml:space="preserve">0.20343579351902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.203363671898842</t>
+    <t xml:space="preserve">0.203363686800003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.196152195334435</t>
+    <t xml:space="preserve">0.196152210235596</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190383017063141</t>
+    <t xml:space="preserve">0.19038300216198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.216344356536865</t>
+    <t xml:space="preserve">0.216344341635704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.221031799912453</t>
+    <t xml:space="preserve">0.221031785011292</t>
   </si>
   <si>
     <t xml:space="preserve">0.219950079917908</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211296319961548</t>
+    <t xml:space="preserve">0.211296305060387</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208411708474159</t>
+    <t xml:space="preserve">0.20841172337532</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230767264962196</t>
+    <t xml:space="preserve">0.230767294764519</t>
   </si>
   <si>
     <t xml:space="preserve">0.239421054720879</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230695173144341</t>
+    <t xml:space="preserve">0.230695158243179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225719258189201</t>
+    <t xml:space="preserve">0.22571924328804</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222834676504135</t>
+    <t xml:space="preserve">0.222834646701813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.205527141690254</t>
+    <t xml:space="preserve">0.205527126789093</t>
   </si>
   <si>
     <t xml:space="preserve">0.209132850170135</t>
@@ -179,40 +179,40 @@
     <t xml:space="preserve">0.194854140281677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193267613649368</t>
+    <t xml:space="preserve">0.193267598748207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186777278780937</t>
+    <t xml:space="preserve">0.186777293682098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173940852284431</t>
+    <t xml:space="preserve">0.17394083738327</t>
   </si>
   <si>
     <t xml:space="preserve">0.191104158759117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180214822292328</t>
+    <t xml:space="preserve">0.180214837193489</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174517780542374</t>
+    <t xml:space="preserve">0.174517750740051</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176681190729141</t>
+    <t xml:space="preserve">0.176681220531464</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180863887071609</t>
+    <t xml:space="preserve">0.180863857269287</t>
   </si>
   <si>
     <t xml:space="preserve">0.213459759950638</t>
   </si>
   <si>
-    <t xml:space="preserve">0.215623170137405</t>
+    <t xml:space="preserve">0.215623185038567</t>
   </si>
   <si>
     <t xml:space="preserve">0.210575148463249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208483800292015</t>
+    <t xml:space="preserve">0.208483830094337</t>
   </si>
   <si>
     <t xml:space="preserve">0.191825315356255</t>
@@ -221,19 +221,19 @@
     <t xml:space="preserve">0.18389268219471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168748572468758</t>
+    <t xml:space="preserve">0.168748587369919</t>
   </si>
   <si>
     <t xml:space="preserve">0.173796609044075</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170190885663033</t>
+    <t xml:space="preserve">0.170190870761871</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16586397588253</t>
+    <t xml:space="preserve">0.165864005684853</t>
   </si>
   <si>
-    <t xml:space="preserve">0.18172924220562</t>
+    <t xml:space="preserve">0.181729257106781</t>
   </si>
   <si>
     <t xml:space="preserve">0.189517632126808</t>
@@ -245,25 +245,25 @@
     <t xml:space="preserve">0.197594493627548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.209493413567543</t>
+    <t xml:space="preserve">0.209493428468704</t>
   </si>
   <si>
     <t xml:space="preserve">0.230046138167381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.222113519906998</t>
+    <t xml:space="preserve">0.222113505005836</t>
   </si>
   <si>
-    <t xml:space="preserve">0.204373270273209</t>
+    <t xml:space="preserve">0.20437328517437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21886833012104</t>
+    <t xml:space="preserve">0.218868374824524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230623036623001</t>
+    <t xml:space="preserve">0.230623066425323</t>
   </si>
   <si>
-    <t xml:space="preserve">0.223555818200111</t>
+    <t xml:space="preserve">0.22355580329895</t>
   </si>
   <si>
     <t xml:space="preserve">0.220022171735764</t>
@@ -272,7 +272,7 @@
     <t xml:space="preserve">0.229324996471405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244469076395035</t>
+    <t xml:space="preserve">0.244469121098518</t>
   </si>
   <si>
     <t xml:space="preserve">0.248723894357681</t>
@@ -281,10 +281,10 @@
     <t xml:space="preserve">0.266824692487717</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273314982652664</t>
+    <t xml:space="preserve">0.273315042257309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.288459092378616</t>
+    <t xml:space="preserve">0.288459122180939</t>
   </si>
   <si>
     <t xml:space="preserve">0.306487828493118</t>
@@ -293,22 +293,22 @@
     <t xml:space="preserve">0.315862715244293</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333170294761658</t>
+    <t xml:space="preserve">0.333170264959335</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342545181512833</t>
+    <t xml:space="preserve">0.342545211315155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.295670568943024</t>
+    <t xml:space="preserve">0.295670598745346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.298483073711395</t>
+    <t xml:space="preserve">0.298483043909073</t>
   </si>
   <si>
-    <t xml:space="preserve">0.287088930606842</t>
+    <t xml:space="preserve">0.28708890080452</t>
   </si>
   <si>
-    <t xml:space="preserve">0.287016838788986</t>
+    <t xml:space="preserve">0.287016808986664</t>
   </si>
   <si>
     <t xml:space="preserve">0.278579384088516</t>
@@ -317,25 +317,25 @@
     <t xml:space="preserve">0.279084175825119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.279228419065475</t>
+    <t xml:space="preserve">0.279228389263153</t>
   </si>
   <si>
     <t xml:space="preserve">0.263218969106674</t>
   </si>
   <si>
-    <t xml:space="preserve">0.268266946077347</t>
+    <t xml:space="preserve">0.268266975879669</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241584524512291</t>
+    <t xml:space="preserve">0.24158450961113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237401857972145</t>
+    <t xml:space="preserve">0.237401843070984</t>
   </si>
   <si>
     <t xml:space="preserve">0.243026822805405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.239493191242218</t>
+    <t xml:space="preserve">0.239493206143379</t>
   </si>
   <si>
     <t xml:space="preserve">0.272593855857849</t>
@@ -350,31 +350,31 @@
     <t xml:space="preserve">0.261055469512939</t>
   </si>
   <si>
-    <t xml:space="preserve">0.270430445671082</t>
+    <t xml:space="preserve">0.270430415868759</t>
   </si>
   <si>
     <t xml:space="preserve">0.259613215923309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.256007462739944</t>
+    <t xml:space="preserve">0.256007432937622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248796001076698</t>
+    <t xml:space="preserve">0.248795971274376</t>
   </si>
   <si>
-    <t xml:space="preserve">0.255142092704773</t>
+    <t xml:space="preserve">0.255142062902451</t>
   </si>
   <si>
     <t xml:space="preserve">0.244541212916374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230839386582375</t>
+    <t xml:space="preserve">0.230839401483536</t>
   </si>
   <si>
     <t xml:space="preserve">0.234373018145561</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237257644534111</t>
+    <t xml:space="preserve">0.237257614731789</t>
   </si>
   <si>
     <t xml:space="preserve">0.236536473035812</t>
@@ -383,22 +383,22 @@
     <t xml:space="preserve">0.237978771328926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.239565297961235</t>
+    <t xml:space="preserve">0.239565283060074</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243171036243439</t>
+    <t xml:space="preserve">0.243171021342278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.258892059326172</t>
+    <t xml:space="preserve">0.258892029523849</t>
   </si>
   <si>
     <t xml:space="preserve">0.252257466316223</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253339231014252</t>
+    <t xml:space="preserve">0.253339201211929</t>
   </si>
   <si>
-    <t xml:space="preserve">0.263291031122208</t>
+    <t xml:space="preserve">0.26329106092453</t>
   </si>
   <si>
     <t xml:space="preserve">0.268915981054306</t>
@@ -407,13 +407,13 @@
     <t xml:space="preserve">0.257593989372253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25240170955658</t>
+    <t xml:space="preserve">0.252401739358902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.252113252878189</t>
+    <t xml:space="preserve">0.252113282680511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248868107795715</t>
+    <t xml:space="preserve">0.248868092894554</t>
   </si>
   <si>
     <t xml:space="preserve">0.265382379293442</t>
@@ -422,13 +422,13 @@
     <t xml:space="preserve">0.249012321233749</t>
   </si>
   <si>
-    <t xml:space="preserve">0.256223797798157</t>
+    <t xml:space="preserve">0.256223827600479</t>
   </si>
   <si>
     <t xml:space="preserve">0.340958654880524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.403842777013779</t>
+    <t xml:space="preserve">0.403842747211456</t>
   </si>
   <si>
     <t xml:space="preserve">0.533649384975433</t>
@@ -443,16 +443,16 @@
     <t xml:space="preserve">0.501197695732117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.484250724315643</t>
+    <t xml:space="preserve">0.484250754117966</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45432311296463</t>
+    <t xml:space="preserve">0.454323083162308</t>
   </si>
   <si>
     <t xml:space="preserve">0.418265700340271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.475236386060715</t>
+    <t xml:space="preserve">0.47523632645607</t>
   </si>
   <si>
     <t xml:space="preserve">0.42151090502739</t>
@@ -470,7 +470,7 @@
     <t xml:space="preserve">0.36129504442215</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374636262655258</t>
+    <t xml:space="preserve">0.374636292457581</t>
   </si>
   <si>
     <t xml:space="preserve">0.383650630712509</t>
@@ -479,13 +479,13 @@
     <t xml:space="preserve">0.369227677583694</t>
   </si>
   <si>
-    <t xml:space="preserve">0.400237053632736</t>
+    <t xml:space="preserve">0.400237023830414</t>
   </si>
   <si>
     <t xml:space="preserve">0.391583234071732</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374996811151505</t>
+    <t xml:space="preserve">0.374996840953827</t>
   </si>
   <si>
     <t xml:space="preserve">0.365261346101761</t>
@@ -497,34 +497,34 @@
     <t xml:space="preserve">0.382208317518234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378602564334869</t>
+    <t xml:space="preserve">0.378602534532547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364179611206055</t>
+    <t xml:space="preserve">0.364179641008377</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372112244367599</t>
+    <t xml:space="preserve">0.372112214565277</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360573887825012</t>
+    <t xml:space="preserve">0.360573917627335</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357689321041107</t>
+    <t xml:space="preserve">0.357689261436462</t>
   </si>
   <si>
     <t xml:space="preserve">0.384011209011078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364900767803192</t>
+    <t xml:space="preserve">0.36490073800087</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36345848441124</t>
+    <t xml:space="preserve">0.363458514213562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.376799732446671</t>
+    <t xml:space="preserve">0.376799672842026</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370669990777969</t>
+    <t xml:space="preserve">0.370669960975647</t>
   </si>
   <si>
     <t xml:space="preserve">0.376439154148102</t>
@@ -533,7 +533,7 @@
     <t xml:space="preserve">0.346150934696198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356247007846832</t>
+    <t xml:space="preserve">0.35624697804451</t>
   </si>
   <si>
     <t xml:space="preserve">0.356896013021469</t>
@@ -542,37 +542,37 @@
     <t xml:space="preserve">0.36778536438942</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373554557561874</t>
+    <t xml:space="preserve">0.373554587364197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.411054283380508</t>
+    <t xml:space="preserve">0.411054253578186</t>
   </si>
   <si>
     <t xml:space="preserve">0.389419823884964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.390140920877457</t>
+    <t xml:space="preserve">0.390140980482101</t>
   </si>
   <si>
     <t xml:space="preserve">0.366343080997467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38761693239212</t>
+    <t xml:space="preserve">0.387616962194443</t>
   </si>
   <si>
     <t xml:space="preserve">0.360934495925903</t>
   </si>
   <si>
-    <t xml:space="preserve">0.376078575849533</t>
+    <t xml:space="preserve">0.376078546047211</t>
   </si>
   <si>
-    <t xml:space="preserve">0.447111636400223</t>
+    <t xml:space="preserve">0.4471116065979</t>
   </si>
   <si>
     <t xml:space="preserve">0.424034893512726</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423313766717911</t>
+    <t xml:space="preserve">0.423313736915588</t>
   </si>
   <si>
     <t xml:space="preserve">0.424756020307541</t>
@@ -581,34 +581,34 @@
     <t xml:space="preserve">0.417183965444565</t>
   </si>
   <si>
-    <t xml:space="preserve">0.425477147102356</t>
+    <t xml:space="preserve">0.425477176904678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395910143852234</t>
+    <t xml:space="preserve">0.395910173654556</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40131875872612</t>
+    <t xml:space="preserve">0.401318728923798</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406727343797684</t>
+    <t xml:space="preserve">0.406727373600006</t>
   </si>
   <si>
     <t xml:space="preserve">0.421150296926498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446029931306839</t>
+    <t xml:space="preserve">0.446029901504517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.449275076389313</t>
+    <t xml:space="preserve">0.449275106191635</t>
   </si>
   <si>
     <t xml:space="preserve">0.433409810066223</t>
   </si>
   <si>
-    <t xml:space="preserve">0.43268871307373</t>
+    <t xml:space="preserve">0.432688683271408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444227039813995</t>
+    <t xml:space="preserve">0.444227010011673</t>
   </si>
   <si>
     <t xml:space="preserve">0.433049231767654</t>
@@ -623,13 +623,13 @@
     <t xml:space="preserve">0.44999623298645</t>
   </si>
   <si>
-    <t xml:space="preserve">0.432328134775162</t>
+    <t xml:space="preserve">0.432328104972839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.443505942821503</t>
+    <t xml:space="preserve">0.44350591301918</t>
   </si>
   <si>
-    <t xml:space="preserve">0.540860891342163</t>
+    <t xml:space="preserve">0.540860831737518</t>
   </si>
   <si>
     <t xml:space="preserve">0.504082322120667</t>
@@ -638,43 +638,43 @@
     <t xml:space="preserve">0.519226431846619</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497592002153397</t>
+    <t xml:space="preserve">0.497591942548752</t>
   </si>
   <si>
-    <t xml:space="preserve">0.502640068531036</t>
+    <t xml:space="preserve">0.502640008926392</t>
   </si>
   <si>
-    <t xml:space="preserve">0.512014925479889</t>
+    <t xml:space="preserve">0.512014865875244</t>
   </si>
   <si>
-    <t xml:space="preserve">0.504803419113159</t>
+    <t xml:space="preserve">0.504803478717804</t>
   </si>
   <si>
     <t xml:space="preserve">0.484611302614212</t>
   </si>
   <si>
-    <t xml:space="preserve">0.487495899200439</t>
+    <t xml:space="preserve">0.487495958805084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.483169049024582</t>
+    <t xml:space="preserve">0.48316901922226</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47018837928772</t>
+    <t xml:space="preserve">0.470188349485397</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465861529111862</t>
+    <t xml:space="preserve">0.465861469507217</t>
   </si>
   <si>
     <t xml:space="preserve">0.468746036291122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474515289068222</t>
+    <t xml:space="preserve">0.474515229463577</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461534529924393</t>
+    <t xml:space="preserve">0.461534589529037</t>
   </si>
   <si>
-    <t xml:space="preserve">0.496149688959122</t>
+    <t xml:space="preserve">0.496149659156799</t>
   </si>
   <si>
     <t xml:space="preserve">0.478842109441757</t>
@@ -683,49 +683,49 @@
     <t xml:space="preserve">0.530764758586884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.490380525588989</t>
+    <t xml:space="preserve">0.490380465984344</t>
   </si>
   <si>
     <t xml:space="preserve">0.45864999294281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.480284422636032</t>
+    <t xml:space="preserve">0.480284363031387</t>
   </si>
   <si>
     <t xml:space="preserve">0.486053645610809</t>
   </si>
   <si>
-    <t xml:space="preserve">0.471630603075027</t>
+    <t xml:space="preserve">0.47163063287735</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457207649946213</t>
+    <t xml:space="preserve">0.45720773935318</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464419186115265</t>
+    <t xml:space="preserve">0.464419156312943</t>
   </si>
   <si>
-    <t xml:space="preserve">0.438457816839218</t>
+    <t xml:space="preserve">0.438457846641541</t>
   </si>
   <si>
     <t xml:space="preserve">0.439900159835815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44566935300827</t>
+    <t xml:space="preserve">0.445669293403625</t>
   </si>
   <si>
-    <t xml:space="preserve">0.462976843118668</t>
+    <t xml:space="preserve">0.462976932525635</t>
   </si>
   <si>
     <t xml:space="preserve">0.494707375764847</t>
   </si>
   <si>
-    <t xml:space="preserve">0.481726676225662</t>
+    <t xml:space="preserve">0.481726706027985</t>
   </si>
   <si>
-    <t xml:space="preserve">0.467303812503815</t>
+    <t xml:space="preserve">0.46730375289917</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452880829572678</t>
+    <t xml:space="preserve">0.452880799770355</t>
   </si>
   <si>
     <t xml:space="preserve">0.473072946071625</t>
@@ -734,40 +734,40 @@
     <t xml:space="preserve">0.460092276334763</t>
   </si>
   <si>
-    <t xml:space="preserve">0.477399796247482</t>
+    <t xml:space="preserve">0.477399826049805</t>
   </si>
   <si>
     <t xml:space="preserve">0.415381103754044</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419708013534546</t>
+    <t xml:space="preserve">0.419707983732224</t>
   </si>
   <si>
-    <t xml:space="preserve">0.416823416948318</t>
+    <t xml:space="preserve">0.416823446750641</t>
   </si>
   <si>
-    <t xml:space="preserve">0.390862107276917</t>
+    <t xml:space="preserve">0.390862077474594</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377881437540054</t>
+    <t xml:space="preserve">0.377881407737732</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412496596574783</t>
+    <t xml:space="preserve">0.412496536970139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409611910581589</t>
+    <t xml:space="preserve">0.409611970186234</t>
   </si>
   <si>
     <t xml:space="preserve">0.395188987255096</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386535227298737</t>
+    <t xml:space="preserve">0.386535197496414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387977510690689</t>
+    <t xml:space="preserve">0.387977451086044</t>
   </si>
   <si>
-    <t xml:space="preserve">0.396631270647049</t>
+    <t xml:space="preserve">0.396631330251694</t>
   </si>
   <si>
     <t xml:space="preserve">0.426919519901276</t>
@@ -779,49 +779,49 @@
     <t xml:space="preserve">0.405285030603409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413938790559769</t>
+    <t xml:space="preserve">0.413938820362091</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434130996465683</t>
+    <t xml:space="preserve">0.434130936861038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431246340274811</t>
+    <t xml:space="preserve">0.431246370077133</t>
   </si>
   <si>
-    <t xml:space="preserve">0.428361743688583</t>
+    <t xml:space="preserve">0.428361773490906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.441342383623123</t>
+    <t xml:space="preserve">0.441342443227768</t>
   </si>
   <si>
     <t xml:space="preserve">0.448553889989853</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451438516378403</t>
+    <t xml:space="preserve">0.45143848657608</t>
   </si>
   <si>
-    <t xml:space="preserve">0.486774772405624</t>
+    <t xml:space="preserve">0.486774742603302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493986189365387</t>
+    <t xml:space="preserve">0.493986219167709</t>
   </si>
   <si>
-    <t xml:space="preserve">0.515620589256287</t>
+    <t xml:space="preserve">0.515620648860931</t>
   </si>
   <si>
-    <t xml:space="preserve">0.522832155227661</t>
+    <t xml:space="preserve">0.522832095623016</t>
   </si>
   <si>
     <t xml:space="preserve">0.53230482339859</t>
   </si>
   <si>
-    <t xml:space="preserve">0.508470237255096</t>
+    <t xml:space="preserve">0.508470296859741</t>
   </si>
   <si>
-    <t xml:space="preserve">0.492580592632294</t>
+    <t xml:space="preserve">0.492580622434616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.476690948009491</t>
+    <t xml:space="preserve">0.476690977811813</t>
   </si>
   <si>
     <t xml:space="preserve">0.488608181476593</t>
@@ -830,16 +830,16 @@
     <t xml:space="preserve">0.50052547454834</t>
   </si>
   <si>
-    <t xml:space="preserve">0.504497885704041</t>
+    <t xml:space="preserve">0.504497826099396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.496553033590317</t>
+    <t xml:space="preserve">0.496553003787994</t>
   </si>
   <si>
     <t xml:space="preserve">0.480663359165192</t>
   </si>
   <si>
-    <t xml:space="preserve">0.460801184177399</t>
+    <t xml:space="preserve">0.460801154375076</t>
   </si>
   <si>
     <t xml:space="preserve">0.472718477249146</t>
@@ -851,10 +851,10 @@
     <t xml:space="preserve">0.448883920907974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464773595333099</t>
+    <t xml:space="preserve">0.464773625135422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.48463574051857</t>
+    <t xml:space="preserve">0.484635800123215</t>
   </si>
   <si>
     <t xml:space="preserve">0.512442708015442</t>
@@ -866,19 +866,19 @@
     <t xml:space="preserve">0.516415119171143</t>
   </si>
   <si>
-    <t xml:space="preserve">0.524360060691833</t>
+    <t xml:space="preserve">0.524360001087189</t>
   </si>
   <si>
     <t xml:space="preserve">0.520387530326843</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45682880282402</t>
+    <t xml:space="preserve">0.456828743219376</t>
   </si>
   <si>
     <t xml:space="preserve">0.45285639166832</t>
   </si>
   <si>
-    <t xml:space="preserve">0.43696665763855</t>
+    <t xml:space="preserve">0.436966687440872</t>
   </si>
   <si>
     <t xml:space="preserve">0.429021835327148</t>
@@ -899,7 +899,7 @@
     <t xml:space="preserve">0.390886545181274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.389297544956207</t>
+    <t xml:space="preserve">0.389297604560852</t>
   </si>
   <si>
     <t xml:space="preserve">0.405187249183655</t>
@@ -911,28 +911,28 @@
     <t xml:space="preserve">0.381352722644806</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357518196105957</t>
+    <t xml:space="preserve">0.357518166303635</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360696077346802</t>
+    <t xml:space="preserve">0.360696107149124</t>
   </si>
   <si>
     <t xml:space="preserve">0.333683609962463</t>
   </si>
   <si>
-    <t xml:space="preserve">0.297137349843979</t>
+    <t xml:space="preserve">0.297137320041656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.319382905960083</t>
+    <t xml:space="preserve">0.319382935762405</t>
   </si>
   <si>
     <t xml:space="preserve">0.301904231309891</t>
   </si>
   <si>
-    <t xml:space="preserve">0.313026994466782</t>
+    <t xml:space="preserve">0.313027024269104</t>
   </si>
   <si>
-    <t xml:space="preserve">0.300315260887146</t>
+    <t xml:space="preserve">0.300315231084824</t>
   </si>
   <si>
     <t xml:space="preserve">0.286014556884766</t>
@@ -950,19 +950,19 @@
     <t xml:space="preserve">0.311438053846359</t>
   </si>
   <si>
-    <t xml:space="preserve">0.320971876382828</t>
+    <t xml:space="preserve">0.32097190618515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32256081700325</t>
+    <t xml:space="preserve">0.322560846805573</t>
   </si>
   <si>
     <t xml:space="preserve">0.33845055103302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347984313964844</t>
+    <t xml:space="preserve">0.347984343767166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354340225458145</t>
+    <t xml:space="preserve">0.354340255260468</t>
   </si>
   <si>
     <t xml:space="preserve">0.387708604335785</t>
@@ -971,16 +971,16 @@
     <t xml:space="preserve">0.373407870531082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367052018642426</t>
+    <t xml:space="preserve">0.367051988840103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394064486026764</t>
+    <t xml:space="preserve">0.394064456224442</t>
   </si>
   <si>
     <t xml:space="preserve">0.417104512453079</t>
   </si>
   <si>
-    <t xml:space="preserve">0.432994246482849</t>
+    <t xml:space="preserve">0.432994216680527</t>
   </si>
   <si>
     <t xml:space="preserve">0.376585811376572</t>
@@ -995,13 +995,13 @@
     <t xml:space="preserve">0.401214838027954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395653426647186</t>
+    <t xml:space="preserve">0.395653456449509</t>
   </si>
   <si>
     <t xml:space="preserve">0.370229929685593</t>
   </si>
   <si>
-    <t xml:space="preserve">0.371818900108337</t>
+    <t xml:space="preserve">0.37181892991066</t>
   </si>
   <si>
     <t xml:space="preserve">0.368640959262848</t>
@@ -1010,7 +1010,7 @@
     <t xml:space="preserve">0.365463018417358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.351162314414978</t>
+    <t xml:space="preserve">0.351162284612656</t>
   </si>
   <si>
     <t xml:space="preserve">0.363874047994614</t>
@@ -1019,49 +1019,49 @@
     <t xml:space="preserve">0.349573314189911</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34162849187851</t>
+    <t xml:space="preserve">0.341628462076187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325738787651062</t>
+    <t xml:space="preserve">0.32573875784874</t>
   </si>
   <si>
     <t xml:space="preserve">0.330505698919296</t>
   </si>
   <si>
-    <t xml:space="preserve">0.303493231534958</t>
+    <t xml:space="preserve">0.303493201732635</t>
   </si>
   <si>
-    <t xml:space="preserve">0.306671112775803</t>
+    <t xml:space="preserve">0.306671172380447</t>
   </si>
   <si>
     <t xml:space="preserve">0.298726290464401</t>
   </si>
   <si>
-    <t xml:space="preserve">0.305082201957703</t>
+    <t xml:space="preserve">0.30508217215538</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309849083423615</t>
+    <t xml:space="preserve">0.309849113225937</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317793965339661</t>
+    <t xml:space="preserve">0.317793935537338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335272580385208</t>
+    <t xml:space="preserve">0.335272610187531</t>
   </si>
   <si>
     <t xml:space="preserve">0.340039521455765</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332094699144363</t>
+    <t xml:space="preserve">0.332094669342041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493128538131714</t>
+    <t xml:space="preserve">0.493128508329391</t>
   </si>
   <si>
-    <t xml:space="preserve">0.458522975444794</t>
+    <t xml:space="preserve">0.458522945642471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44554591178894</t>
+    <t xml:space="preserve">0.445545941591263</t>
   </si>
   <si>
     <t xml:space="preserve">0.43256887793541</t>
@@ -1070,46 +1070,46 @@
     <t xml:space="preserve">0.415266096591949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423917472362518</t>
+    <t xml:space="preserve">0.423917502164841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.416996359825134</t>
+    <t xml:space="preserve">0.416996389627457</t>
   </si>
   <si>
     <t xml:space="preserve">0.436894536018372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429108321666718</t>
+    <t xml:space="preserve">0.429108291864395</t>
   </si>
   <si>
     <t xml:space="preserve">0.418726682662964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.401423901319504</t>
+    <t xml:space="preserve">0.401423871517181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394502818584442</t>
+    <t xml:space="preserve">0.39450278878212</t>
   </si>
   <si>
-    <t xml:space="preserve">0.392772495746613</t>
+    <t xml:space="preserve">0.392772525548935</t>
   </si>
   <si>
     <t xml:space="preserve">0.389311969280243</t>
   </si>
   <si>
-    <t xml:space="preserve">0.404884427785873</t>
+    <t xml:space="preserve">0.404884457588196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397963345050812</t>
+    <t xml:space="preserve">0.397963374853134</t>
   </si>
   <si>
     <t xml:space="preserve">0.403154194355011</t>
   </si>
   <si>
-    <t xml:space="preserve">0.385851413011551</t>
+    <t xml:space="preserve">0.385851442813873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.384121179580688</t>
+    <t xml:space="preserve">0.384121149778366</t>
   </si>
   <si>
     <t xml:space="preserve">0.399693667888641</t>
@@ -1118,10 +1118,10 @@
     <t xml:space="preserve">0.501779854297638</t>
   </si>
   <si>
-    <t xml:space="preserve">0.471500068902969</t>
+    <t xml:space="preserve">0.471500039100647</t>
   </si>
   <si>
-    <t xml:space="preserve">0.51908266544342</t>
+    <t xml:space="preserve">0.519082725048065</t>
   </si>
   <si>
     <t xml:space="preserve">0.510431230068207</t>
@@ -1139,19 +1139,19 @@
     <t xml:space="preserve">0.449871569871902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.441220253705978</t>
+    <t xml:space="preserve">0.441220223903656</t>
   </si>
   <si>
     <t xml:space="preserve">0.454197287559509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.467174410820007</t>
+    <t xml:space="preserve">0.467174381017685</t>
   </si>
   <si>
     <t xml:space="preserve">0.42737802863121</t>
   </si>
   <si>
-    <t xml:space="preserve">0.420456945896149</t>
+    <t xml:space="preserve">0.420456916093826</t>
   </si>
   <si>
     <t xml:space="preserve">0.406614750623703</t>
@@ -1166,46 +1166,46 @@
     <t xml:space="preserve">0.425647795200348</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413535833358765</t>
+    <t xml:space="preserve">0.413535803556442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.422187238931656</t>
+    <t xml:space="preserve">0.422187209129333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.411805540323257</t>
+    <t xml:space="preserve">0.41180557012558</t>
   </si>
   <si>
     <t xml:space="preserve">0.363357841968536</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344324827194214</t>
+    <t xml:space="preserve">0.344324856996536</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346055120229721</t>
+    <t xml:space="preserve">0.346055090427399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365088135004044</t>
+    <t xml:space="preserve">0.365088105201721</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366818368434906</t>
+    <t xml:space="preserve">0.366818398237228</t>
   </si>
   <si>
     <t xml:space="preserve">0.372009247541428</t>
   </si>
   <si>
-    <t xml:space="preserve">0.375469774007797</t>
+    <t xml:space="preserve">0.375469744205475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378930300474167</t>
+    <t xml:space="preserve">0.378930330276489</t>
   </si>
   <si>
     <t xml:space="preserve">0.380660623311996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38758173584938</t>
+    <t xml:space="preserve">0.387581706047058</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377200037240982</t>
+    <t xml:space="preserve">0.377200067043304</t>
   </si>
   <si>
     <t xml:space="preserve">0.354706466197968</t>
@@ -1214,16 +1214,16 @@
     <t xml:space="preserve">0.352976202964783</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347785353660583</t>
+    <t xml:space="preserve">0.347785383462906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359897285699844</t>
+    <t xml:space="preserve">0.359897315502167</t>
   </si>
   <si>
     <t xml:space="preserve">0.37027895450592</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364387094974518</t>
+    <t xml:space="preserve">0.36438712477684</t>
   </si>
   <si>
     <t xml:space="preserve">0.369825720787048</t>
@@ -1232,10 +1232,10 @@
     <t xml:space="preserve">0.360761374235153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366200000047684</t>
+    <t xml:space="preserve">0.366199970245361</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380702942609787</t>
+    <t xml:space="preserve">0.380702912807465</t>
   </si>
   <si>
     <t xml:space="preserve">0.38251581788063</t>
@@ -1256,13 +1256,13 @@
     <t xml:space="preserve">0.335381180047989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346258401870728</t>
+    <t xml:space="preserve">0.346258372068405</t>
   </si>
   <si>
     <t xml:space="preserve">0.362574249505997</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344445496797562</t>
+    <t xml:space="preserve">0.344445526599884</t>
   </si>
   <si>
     <t xml:space="preserve">0.342632651329041</t>
@@ -1271,7 +1271,7 @@
     <t xml:space="preserve">0.333568304777145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.324503928422928</t>
+    <t xml:space="preserve">0.32450395822525</t>
   </si>
   <si>
     <t xml:space="preserve">0.329942554235458</t>
@@ -1280,19 +1280,19 @@
     <t xml:space="preserve">0.320878207683563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317252427339554</t>
+    <t xml:space="preserve">0.317252457141876</t>
   </si>
   <si>
-    <t xml:space="preserve">0.31906533241272</t>
+    <t xml:space="preserve">0.319065302610397</t>
   </si>
   <si>
-    <t xml:space="preserve">0.310000956058502</t>
+    <t xml:space="preserve">0.310000985860825</t>
   </si>
   <si>
     <t xml:space="preserve">0.322691082954407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311813861131668</t>
+    <t xml:space="preserve">0.311813831329346</t>
   </si>
   <si>
     <t xml:space="preserve">0.326316833496094</t>
@@ -1301,22 +1301,22 @@
     <t xml:space="preserve">0.328129678964615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.339006930589676</t>
+    <t xml:space="preserve">0.339006900787354</t>
   </si>
   <si>
     <t xml:space="preserve">0.340819776058197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353509873151779</t>
+    <t xml:space="preserve">0.353509843349457</t>
   </si>
   <si>
     <t xml:space="preserve">0.331755429506302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397018760442734</t>
+    <t xml:space="preserve">0.397018790245056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387954443693161</t>
+    <t xml:space="preserve">0.387954413890839</t>
   </si>
   <si>
     <t xml:space="preserve">0.389767318964005</t>
@@ -1325,13 +1325,13 @@
     <t xml:space="preserve">0.391580194234848</t>
   </si>
   <si>
-    <t xml:space="preserve">0.384328663349152</t>
+    <t xml:space="preserve">0.384328693151474</t>
   </si>
   <si>
     <t xml:space="preserve">0.386141568422318</t>
   </si>
   <si>
-    <t xml:space="preserve">0.404270261526108</t>
+    <t xml:space="preserve">0.40427029132843</t>
   </si>
   <si>
     <t xml:space="preserve">0.338870882987976</t>
@@ -1431,6 +1431,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.34799998998642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.331999987363815</t>
   </si>
 </sst>
 </file>
@@ -57750,7 +57753,7 @@
     </row>
     <row r="2154">
       <c r="A2154" s="1" t="n">
-        <v>45461.5733217593</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B2154" t="n">
         <v>4000</v>
@@ -57771,6 +57774,32 @@
         <v>471</v>
       </c>
       <c r="H2154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="1" t="n">
+        <v>45462.6382638889</v>
+      </c>
+      <c r="B2155" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C2155" t="n">
+        <v>0.331999987363815</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>0.331999987363815</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>0.331999987363815</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>0.331999987363815</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>473</v>
+      </c>
+      <c r="H2155" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/POPR.MI.xlsx
+++ b/data/POPR.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="479">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">0.198275223374367</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194041609764099</t>
+    <t xml:space="preserve">0.194041594862938</t>
   </si>
   <si>
-    <t xml:space="preserve">0.192630395293236</t>
+    <t xml:space="preserve">0.192630380392075</t>
   </si>
   <si>
     <t xml:space="preserve">0.184163123369217</t>
@@ -59,22 +59,22 @@
     <t xml:space="preserve">0.19051356613636</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16722859442234</t>
+    <t xml:space="preserve">0.167228564620018</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160878136754036</t>
+    <t xml:space="preserve">0.160878121852875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16814586520195</t>
+    <t xml:space="preserve">0.168145850300789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16299495100975</t>
+    <t xml:space="preserve">0.162994965910912</t>
   </si>
   <si>
     <t xml:space="preserve">0.171462208032608</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172167807817459</t>
+    <t xml:space="preserve">0.172167837619781</t>
   </si>
   <si>
     <t xml:space="preserve">0.16927482187748</t>
@@ -83,10 +83,10 @@
     <t xml:space="preserve">0.164406135678291</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156997263431549</t>
+    <t xml:space="preserve">0.15699727833271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156644508242607</t>
+    <t xml:space="preserve">0.156644478440285</t>
   </si>
   <si>
     <t xml:space="preserve">0.157067850232124</t>
@@ -110,76 +110,76 @@
     <t xml:space="preserve">0.183457493782043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176401451230049</t>
+    <t xml:space="preserve">0.176401436328888</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173579022288322</t>
+    <t xml:space="preserve">0.173579037189484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167934194207191</t>
+    <t xml:space="preserve">0.16793417930603</t>
   </si>
   <si>
     <t xml:space="preserve">0.174778565764427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1806351095438</t>
+    <t xml:space="preserve">0.180635094642639</t>
   </si>
   <si>
     <t xml:space="preserve">0.178447708487511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199051380157471</t>
+    <t xml:space="preserve">0.199051395058632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.198980823159218</t>
+    <t xml:space="preserve">0.198980838060379</t>
   </si>
   <si>
     <t xml:space="preserve">0.191924795508385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.18627992272377</t>
+    <t xml:space="preserve">0.186279952526093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211681753396988</t>
+    <t xml:space="preserve">0.211681738495827</t>
   </si>
   <si>
     <t xml:space="preserve">0.216268181800842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.215209797024727</t>
+    <t xml:space="preserve">0.215209767222404</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206742525100708</t>
+    <t xml:space="preserve">0.206742495298386</t>
   </si>
   <si>
     <t xml:space="preserve">0.20392008125782</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225793853402138</t>
+    <t xml:space="preserve">0.225793868303299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234261125326157</t>
+    <t xml:space="preserve">0.234261140227318</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225723311305046</t>
+    <t xml:space="preserve">0.225723296403885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220854610204697</t>
+    <t xml:space="preserve">0.220854595303535</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21803218126297</t>
+    <t xml:space="preserve">0.218032166361809</t>
   </si>
   <si>
     <t xml:space="preserve">0.201097637414932</t>
   </si>
   <si>
-    <t xml:space="preserve">0.204625681042671</t>
+    <t xml:space="preserve">0.204625695943832</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190654695034027</t>
+    <t xml:space="preserve">0.190654709935188</t>
   </si>
   <si>
-    <t xml:space="preserve">0.189102366566658</t>
+    <t xml:space="preserve">0.189102351665497</t>
   </si>
   <si>
     <t xml:space="preserve">0.182751923799515</t>
@@ -194,28 +194,28 @@
     <t xml:space="preserve">0.176330879330635</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170756608247757</t>
+    <t xml:space="preserve">0.170756593346596</t>
   </si>
   <si>
     <t xml:space="preserve">0.172873422503471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176965937018394</t>
+    <t xml:space="preserve">0.176965951919556</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208859339356422</t>
+    <t xml:space="preserve">0.208859324455261</t>
   </si>
   <si>
     <t xml:space="preserve">0.210976138710976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206036895513535</t>
+    <t xml:space="preserve">0.206036880612373</t>
   </si>
   <si>
     <t xml:space="preserve">0.203990623354912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187691152095795</t>
+    <t xml:space="preserve">0.187691137194633</t>
   </si>
   <si>
     <t xml:space="preserve">0.179929479956627</t>
@@ -224,7 +224,7 @@
     <t xml:space="preserve">0.165111765265465</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170051008462906</t>
+    <t xml:space="preserve">0.170050993561745</t>
   </si>
   <si>
     <t xml:space="preserve">0.166522964835167</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">0.177812665700912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185433208942413</t>
+    <t xml:space="preserve">0.185433194041252</t>
   </si>
   <si>
     <t xml:space="preserve">0.191571965813637</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193335980176926</t>
+    <t xml:space="preserve">0.193335995078087</t>
   </si>
   <si>
-    <t xml:space="preserve">0.204978451132774</t>
+    <t xml:space="preserve">0.204978466033936</t>
   </si>
   <si>
     <t xml:space="preserve">0.225088253617287</t>
@@ -260,28 +260,28 @@
     <t xml:space="preserve">0.214151367545128</t>
   </si>
   <si>
-    <t xml:space="preserve">0.22565270960331</t>
+    <t xml:space="preserve">0.225652724504471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218737795948982</t>
+    <t xml:space="preserve">0.218737825751305</t>
   </si>
   <si>
-    <t xml:space="preserve">0.215280324220657</t>
+    <t xml:space="preserve">0.215280339121819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.224382624030113</t>
+    <t xml:space="preserve">0.224382638931274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.239200338721275</t>
+    <t xml:space="preserve">0.239200353622437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243363454937935</t>
+    <t xml:space="preserve">0.243363440036774</t>
   </si>
   <si>
     <t xml:space="preserve">0.261074155569077</t>
   </si>
   <si>
-    <t xml:space="preserve">0.267424643039703</t>
+    <t xml:space="preserve">0.267424613237381</t>
   </si>
   <si>
     <t xml:space="preserve">0.282242327928543</t>
@@ -290,13 +290,13 @@
     <t xml:space="preserve">0.299882471561432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309055328369141</t>
+    <t xml:space="preserve">0.309055387973785</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325989902019501</t>
+    <t xml:space="preserve">0.325989931821823</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335162729024887</t>
+    <t xml:space="preserve">0.335162699222565</t>
   </si>
   <si>
     <t xml:space="preserve">0.289298385381699</t>
@@ -305,19 +305,19 @@
     <t xml:space="preserve">0.292050212621689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.280901670455933</t>
+    <t xml:space="preserve">0.28090164065361</t>
   </si>
   <si>
     <t xml:space="preserve">0.280831098556519</t>
   </si>
   <si>
-    <t xml:space="preserve">0.272575557231903</t>
+    <t xml:space="preserve">0.272575527429581</t>
   </si>
   <si>
     <t xml:space="preserve">0.273069471120834</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273210555315018</t>
+    <t xml:space="preserve">0.27321058511734</t>
   </si>
   <si>
     <t xml:space="preserve">0.257546126842499</t>
@@ -326,7 +326,7 @@
     <t xml:space="preserve">0.262485355138779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.236377954483032</t>
+    <t xml:space="preserve">0.236377939581871</t>
   </si>
   <si>
     <t xml:space="preserve">0.232285439968109</t>
@@ -335,13 +335,13 @@
     <t xml:space="preserve">0.237789154052734</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234331667423248</t>
+    <t xml:space="preserve">0.234331682324409</t>
   </si>
   <si>
     <t xml:space="preserve">0.266718983650208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.275186270475388</t>
+    <t xml:space="preserve">0.275186240673065</t>
   </si>
   <si>
     <t xml:space="preserve">0.259098440408707</t>
@@ -353,55 +353,55 @@
     <t xml:space="preserve">0.264602154493332</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254018068313599</t>
+    <t xml:space="preserve">0.254018098115921</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250490069389343</t>
+    <t xml:space="preserve">0.250490039587021</t>
   </si>
   <si>
     <t xml:space="preserve">0.243433982133865</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249643310904503</t>
+    <t xml:space="preserve">0.249643325805664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.239270955324173</t>
+    <t xml:space="preserve">0.239270925521851</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225864425301552</t>
+    <t xml:space="preserve">0.225864440202713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229321882128716</t>
+    <t xml:space="preserve">0.229321852326393</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232144296169281</t>
+    <t xml:space="preserve">0.232144311070442</t>
   </si>
   <si>
     <t xml:space="preserve">0.231438711285591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232849895954132</t>
+    <t xml:space="preserve">0.232849940657616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234402254223824</t>
+    <t xml:space="preserve">0.234402224421501</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23793026804924</t>
+    <t xml:space="preserve">0.237930297851562</t>
   </si>
   <si>
     <t xml:space="preserve">0.25331249833107</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246820881962776</t>
+    <t xml:space="preserve">0.246820896863937</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247879326343536</t>
+    <t xml:space="preserve">0.247879311442375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25761666893959</t>
+    <t xml:space="preserve">0.257616639137268</t>
   </si>
   <si>
-    <t xml:space="preserve">0.263120412826538</t>
+    <t xml:space="preserve">0.263120383024216</t>
   </si>
   <si>
     <t xml:space="preserve">0.252042382955551</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">0.246962010860443</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246679812669754</t>
+    <t xml:space="preserve">0.246679753065109</t>
   </si>
   <si>
     <t xml:space="preserve">0.243504554033279</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">0.259662926197052</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243645653128624</t>
+    <t xml:space="preserve">0.243645668029785</t>
   </si>
   <si>
     <t xml:space="preserve">0.250701755285263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333610415458679</t>
+    <t xml:space="preserve">0.333610385656357</t>
   </si>
   <si>
     <t xml:space="preserve">0.395139247179031</t>
@@ -437,28 +437,28 @@
     <t xml:space="preserve">0.612465798854828</t>
   </si>
   <si>
-    <t xml:space="preserve">0.535554885864258</t>
+    <t xml:space="preserve">0.535554766654968</t>
   </si>
   <si>
-    <t xml:space="preserve">0.490396022796631</t>
+    <t xml:space="preserve">0.490395992994308</t>
   </si>
   <si>
     <t xml:space="preserve">0.473814308643341</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44453164935112</t>
+    <t xml:space="preserve">0.444531619548798</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409251362085342</t>
+    <t xml:space="preserve">0.409251391887665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464994192123413</t>
+    <t xml:space="preserve">0.464994162321091</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412426620721817</t>
+    <t xml:space="preserve">0.412426650524139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41983550786972</t>
+    <t xml:space="preserve">0.419835478067398</t>
   </si>
   <si>
     <t xml:space="preserve">0.388788789510727</t>
@@ -470,13 +470,13 @@
     <t xml:space="preserve">0.353508502244949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366562217473984</t>
+    <t xml:space="preserve">0.366562187671661</t>
   </si>
   <si>
-    <t xml:space="preserve">0.375382304191589</t>
+    <t xml:space="preserve">0.375382274389267</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361270219087601</t>
+    <t xml:space="preserve">0.361270189285278</t>
   </si>
   <si>
     <t xml:space="preserve">0.391611188650131</t>
@@ -488,10 +488,10 @@
     <t xml:space="preserve">0.366914987564087</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357389360666275</t>
+    <t xml:space="preserve">0.357389330863953</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36056450009346</t>
+    <t xml:space="preserve">0.360564529895782</t>
   </si>
   <si>
     <t xml:space="preserve">0.373971045017242</t>
@@ -503,10 +503,10 @@
     <t xml:space="preserve">0.356330901384354</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364092588424683</t>
+    <t xml:space="preserve">0.36409255862236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352802902460098</t>
+    <t xml:space="preserve">0.352802872657776</t>
   </si>
   <si>
     <t xml:space="preserve">0.349980443716049</t>
@@ -515,7 +515,7 @@
     <t xml:space="preserve">0.375735133886337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357036530971527</t>
+    <t xml:space="preserve">0.357036501169205</t>
   </si>
   <si>
     <t xml:space="preserve">0.355625331401825</t>
@@ -524,7 +524,7 @@
     <t xml:space="preserve">0.368679016828537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362681359052658</t>
+    <t xml:space="preserve">0.36268138885498</t>
   </si>
   <si>
     <t xml:space="preserve">0.368326246738434</t>
@@ -533,10 +533,10 @@
     <t xml:space="preserve">0.338690787553787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.348569244146347</t>
+    <t xml:space="preserve">0.348569273948669</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349204301834106</t>
+    <t xml:space="preserve">0.349204272031784</t>
   </si>
   <si>
     <t xml:space="preserve">0.359858959913254</t>
@@ -551,7 +551,7 @@
     <t xml:space="preserve">0.38102713227272</t>
   </si>
   <si>
-    <t xml:space="preserve">0.381732761859894</t>
+    <t xml:space="preserve">0.381732732057571</t>
   </si>
   <si>
     <t xml:space="preserve">0.358447760343552</t>
@@ -560,67 +560,67 @@
     <t xml:space="preserve">0.379263132810593</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353155702352524</t>
+    <t xml:space="preserve">0.353155672550201</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367973417043686</t>
+    <t xml:space="preserve">0.367973387241364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437475591897964</t>
+    <t xml:space="preserve">0.437475651502609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414896219968796</t>
+    <t xml:space="preserve">0.414896190166473</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414190620183945</t>
+    <t xml:space="preserve">0.414190590381622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415601819753647</t>
+    <t xml:space="preserve">0.415601849555969</t>
   </si>
   <si>
     <t xml:space="preserve">0.408192932605743</t>
   </si>
   <si>
-    <t xml:space="preserve">0.416307389736176</t>
+    <t xml:space="preserve">0.416307419538498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387377589941025</t>
+    <t xml:space="preserve">0.38737764954567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.39266961812973</t>
+    <t xml:space="preserve">0.392669647932053</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397961646318436</t>
+    <t xml:space="preserve">0.397961676120758</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412073791027069</t>
+    <t xml:space="preserve">0.412073761224747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436417192220688</t>
+    <t xml:space="preserve">0.436417162418365</t>
   </si>
   <si>
     <t xml:space="preserve">0.43959242105484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424069136381149</t>
+    <t xml:space="preserve">0.424069076776505</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423363506793976</t>
+    <t xml:space="preserve">0.423363476991653</t>
   </si>
   <si>
     <t xml:space="preserve">0.43465319275856</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423716306686401</t>
+    <t xml:space="preserve">0.423716276884079</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457938104867935</t>
+    <t xml:space="preserve">0.45793816447258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465699791908264</t>
+    <t xml:space="preserve">0.465699881315231</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440297991037369</t>
+    <t xml:space="preserve">0.440298020839691</t>
   </si>
   <si>
     <t xml:space="preserve">0.423010677099228</t>
@@ -632,97 +632,97 @@
     <t xml:space="preserve">0.529204308986664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493218421936035</t>
+    <t xml:space="preserve">0.49321836233139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.508036136627197</t>
+    <t xml:space="preserve">0.508036196231842</t>
   </si>
   <si>
     <t xml:space="preserve">0.486867964267731</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4918073117733</t>
+    <t xml:space="preserve">0.491807281970978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.500980138778687</t>
+    <t xml:space="preserve">0.500980079174042</t>
   </si>
   <si>
     <t xml:space="preserve">0.493924021720886</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474167078733444</t>
+    <t xml:space="preserve">0.474167108535767</t>
   </si>
   <si>
     <t xml:space="preserve">0.476989537477493</t>
   </si>
   <si>
-    <t xml:space="preserve">0.472755908966064</t>
+    <t xml:space="preserve">0.472755879163742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.460055023431778</t>
+    <t xml:space="preserve">0.460054993629456</t>
   </si>
   <si>
-    <t xml:space="preserve">0.455821424722672</t>
+    <t xml:space="preserve">0.455821365118027</t>
   </si>
   <si>
-    <t xml:space="preserve">0.458643764257431</t>
+    <t xml:space="preserve">0.458643704652786</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464288592338562</t>
+    <t xml:space="preserve">0.464288622140884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451587706804276</t>
+    <t xml:space="preserve">0.451587736606598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.485456794500351</t>
+    <t xml:space="preserve">0.485456824302673</t>
   </si>
   <si>
-    <t xml:space="preserve">0.468522250652313</t>
+    <t xml:space="preserve">0.468522280454636</t>
   </si>
   <si>
     <t xml:space="preserve">0.519325852394104</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47981196641922</t>
+    <t xml:space="preserve">0.479811906814575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448765248060226</t>
+    <t xml:space="preserve">0.448765277862549</t>
   </si>
   <si>
-    <t xml:space="preserve">0.469933390617371</t>
+    <t xml:space="preserve">0.469933450222015</t>
   </si>
   <si>
     <t xml:space="preserve">0.475578308105469</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461466133594513</t>
+    <t xml:space="preserve">0.461466163396835</t>
   </si>
   <si>
     <t xml:space="preserve">0.447354108095169</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454410135746002</t>
+    <t xml:space="preserve">0.454410165548325</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429008305072784</t>
+    <t xml:space="preserve">0.429008275270462</t>
   </si>
   <si>
-    <t xml:space="preserve">0.430419594049454</t>
+    <t xml:space="preserve">0.430419534444809</t>
   </si>
   <si>
-    <t xml:space="preserve">0.43606436252594</t>
+    <t xml:space="preserve">0.436064332723618</t>
   </si>
   <si>
     <t xml:space="preserve">0.452998906373978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.484045565128326</t>
+    <t xml:space="preserve">0.484045594930649</t>
   </si>
   <si>
     <t xml:space="preserve">0.47134467959404</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457232505083084</t>
+    <t xml:space="preserve">0.457232534885406</t>
   </si>
   <si>
     <t xml:space="preserve">0.44312047958374</t>
@@ -737,10 +737,10 @@
     <t xml:space="preserve">0.467111021280289</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406428903341293</t>
+    <t xml:space="preserve">0.406428873538971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410662591457367</t>
+    <t xml:space="preserve">0.410662561655045</t>
   </si>
   <si>
     <t xml:space="preserve">0.40784016251564</t>
@@ -749,31 +749,31 @@
     <t xml:space="preserve">0.382438361644745</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369737476110458</t>
+    <t xml:space="preserve">0.369737416505814</t>
   </si>
   <si>
     <t xml:space="preserve">0.403606534004211</t>
   </si>
   <si>
-    <t xml:space="preserve">0.400784134864807</t>
+    <t xml:space="preserve">0.400784105062485</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386671960353851</t>
+    <t xml:space="preserve">0.386671990156174</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378204733133316</t>
+    <t xml:space="preserve">0.378204703330994</t>
   </si>
   <si>
     <t xml:space="preserve">0.379615902900696</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388083219528198</t>
+    <t xml:space="preserve">0.388083189725876</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417718678712845</t>
+    <t xml:space="preserve">0.417718648910522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.433241963386536</t>
+    <t xml:space="preserve">0.433241993188858</t>
   </si>
   <si>
     <t xml:space="preserve">0.396550446748734</t>
@@ -782,22 +782,22 @@
     <t xml:space="preserve">0.405017733573914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424774676561356</t>
+    <t xml:space="preserve">0.424774646759033</t>
   </si>
   <si>
     <t xml:space="preserve">0.421952277421951</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419129848480225</t>
+    <t xml:space="preserve">0.41912978887558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431830734014511</t>
+    <t xml:space="preserve">0.431830763816833</t>
   </si>
   <si>
-    <t xml:space="preserve">0.438886821269989</t>
+    <t xml:space="preserve">0.438886791467667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.441709220409393</t>
+    <t xml:space="preserve">0.441709190607071</t>
   </si>
   <si>
     <t xml:space="preserve">0.476283878087997</t>
@@ -806,37 +806,37 @@
     <t xml:space="preserve">0.483339995145798</t>
   </si>
   <si>
-    <t xml:space="preserve">0.504508137702942</t>
+    <t xml:space="preserve">0.504508078098297</t>
   </si>
   <si>
-    <t xml:space="preserve">0.511564195156097</t>
+    <t xml:space="preserve">0.511564254760742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.520832717418671</t>
+    <t xml:space="preserve">0.520832777023315</t>
   </si>
   <si>
     <t xml:space="preserve">0.497511893510818</t>
   </si>
   <si>
-    <t xml:space="preserve">0.481964588165283</t>
+    <t xml:space="preserve">0.481964647769928</t>
   </si>
   <si>
     <t xml:space="preserve">0.466417402029037</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478077828884125</t>
+    <t xml:space="preserve">0.478077799081802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.489738285541534</t>
+    <t xml:space="preserve">0.48973822593689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.49362501502037</t>
+    <t xml:space="preserve">0.493625074625015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.485851466655731</t>
+    <t xml:space="preserve">0.485851526260376</t>
   </si>
   <si>
-    <t xml:space="preserve">0.470304220914841</t>
+    <t xml:space="preserve">0.470304161310196</t>
   </si>
   <si>
     <t xml:space="preserve">0.450870126485825</t>
@@ -851,7 +851,7 @@
     <t xml:space="preserve">0.439209699630737</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45475697517395</t>
+    <t xml:space="preserve">0.454756885766983</t>
   </si>
   <si>
     <t xml:space="preserve">0.474191039800644</t>
@@ -860,22 +860,22 @@
     <t xml:space="preserve">0.501398682594299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.590795338153839</t>
+    <t xml:space="preserve">0.590795397758484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.505285561084747</t>
+    <t xml:space="preserve">0.505285501480103</t>
   </si>
   <si>
     <t xml:space="preserve">0.513059139251709</t>
   </si>
   <si>
-    <t xml:space="preserve">0.509172320365906</t>
+    <t xml:space="preserve">0.509172260761261</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446983337402344</t>
+    <t xml:space="preserve">0.446983367204666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.443096488714218</t>
+    <t xml:space="preserve">0.443096518516541</t>
   </si>
   <si>
     <t xml:space="preserve">0.42754927277565</t>
@@ -884,49 +884,49 @@
     <t xml:space="preserve">0.419775664806366</t>
   </si>
   <si>
-    <t xml:space="preserve">0.404228419065475</t>
+    <t xml:space="preserve">0.404228389263153</t>
   </si>
   <si>
     <t xml:space="preserve">0.415888875722885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431436091661453</t>
+    <t xml:space="preserve">0.431436121463776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41200202703476</t>
+    <t xml:space="preserve">0.412001997232437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382462292909622</t>
+    <t xml:space="preserve">0.3824622631073</t>
   </si>
   <si>
     <t xml:space="preserve">0.380907535552979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.396454751491547</t>
+    <t xml:space="preserve">0.396454781293869</t>
   </si>
   <si>
     <t xml:space="preserve">0.388681173324585</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373133897781372</t>
+    <t xml:space="preserve">0.37313386797905</t>
   </si>
   <si>
     <t xml:space="preserve">0.349813044071198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352922469377518</t>
+    <t xml:space="preserve">0.35292249917984</t>
   </si>
   <si>
     <t xml:space="preserve">0.326492160558701</t>
   </si>
   <si>
-    <t xml:space="preserve">0.290733486413956</t>
+    <t xml:space="preserve">0.290733516216278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312499642372131</t>
+    <t xml:space="preserve">0.312499672174454</t>
   </si>
   <si>
-    <t xml:space="preserve">0.29539766907692</t>
+    <t xml:space="preserve">0.295397698879242</t>
   </si>
   <si>
     <t xml:space="preserve">0.306280761957169</t>
@@ -947,13 +947,13 @@
     <t xml:space="preserve">0.321828007698059</t>
   </si>
   <si>
-    <t xml:space="preserve">0.30472606420517</t>
+    <t xml:space="preserve">0.304726034402847</t>
   </si>
   <si>
     <t xml:space="preserve">0.314054369926453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.315609097480774</t>
+    <t xml:space="preserve">0.315609067678452</t>
   </si>
   <si>
     <t xml:space="preserve">0.331156343221664</t>
@@ -965,37 +965,37 @@
     <t xml:space="preserve">0.346703618764877</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37935283780098</t>
+    <t xml:space="preserve">0.379352807998657</t>
   </si>
   <si>
     <t xml:space="preserve">0.365360289812088</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359141379594803</t>
+    <t xml:space="preserve">0.359141409397125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.385571718215942</t>
+    <t xml:space="preserve">0.38557168841362</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408115148544312</t>
+    <t xml:space="preserve">0.408115208148956</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423662513494492</t>
+    <t xml:space="preserve">0.423662483692169</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368469774723053</t>
+    <t xml:space="preserve">0.368469744920731</t>
   </si>
   <si>
-    <t xml:space="preserve">0.371579200029373</t>
+    <t xml:space="preserve">0.371579170227051</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377798080444336</t>
+    <t xml:space="preserve">0.377798110246658</t>
   </si>
   <si>
     <t xml:space="preserve">0.392567962408066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387126445770264</t>
+    <t xml:space="preserve">0.387126415967941</t>
   </si>
   <si>
     <t xml:space="preserve">0.362250834703445</t>
@@ -1004,22 +1004,22 @@
     <t xml:space="preserve">0.363805562257767</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360696136951447</t>
+    <t xml:space="preserve">0.360696107149124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357586711645126</t>
+    <t xml:space="preserve">0.357586652040482</t>
   </si>
   <si>
     <t xml:space="preserve">0.343594133853912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35603192448616</t>
+    <t xml:space="preserve">0.356031954288483</t>
   </si>
   <si>
     <t xml:space="preserve">0.342039436101913</t>
   </si>
   <si>
-    <t xml:space="preserve">0.334265768527985</t>
+    <t xml:space="preserve">0.334265828132629</t>
   </si>
   <si>
     <t xml:space="preserve">0.318718552589417</t>
@@ -1043,10 +1043,10 @@
     <t xml:space="preserve">0.303171277046204</t>
   </si>
   <si>
-    <t xml:space="preserve">0.31094491481781</t>
+    <t xml:space="preserve">0.310944944620132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.328046917915344</t>
+    <t xml:space="preserve">0.328046888113022</t>
   </si>
   <si>
     <t xml:space="preserve">0.332711070775986</t>
@@ -1055,13 +1055,13 @@
     <t xml:space="preserve">0.324937462806702</t>
   </si>
   <si>
-    <t xml:space="preserve">0.482500702142715</t>
+    <t xml:space="preserve">0.48250076174736</t>
   </si>
   <si>
     <t xml:space="preserve">0.448641031980515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.435943633317947</t>
+    <t xml:space="preserve">0.435943603515625</t>
   </si>
   <si>
     <t xml:space="preserve">0.423246264457703</t>
@@ -1073,10 +1073,10 @@
     <t xml:space="preserve">0.414781361818314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40800940990448</t>
+    <t xml:space="preserve">0.408009380102158</t>
   </si>
   <si>
-    <t xml:space="preserve">0.427478730678558</t>
+    <t xml:space="preserve">0.427478700876236</t>
   </si>
   <si>
     <t xml:space="preserve">0.419860303401947</t>
@@ -1085,10 +1085,10 @@
     <t xml:space="preserve">0.409702360630035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.392772555351257</t>
+    <t xml:space="preserve">0.392772495746613</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386000603437424</t>
+    <t xml:space="preserve">0.386000573635101</t>
   </si>
   <si>
     <t xml:space="preserve">0.384307593107224</t>
@@ -1100,7 +1100,7 @@
     <t xml:space="preserve">0.396158486604691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.389386594295502</t>
+    <t xml:space="preserve">0.389386564493179</t>
   </si>
   <si>
     <t xml:space="preserve">0.394465506076813</t>
@@ -1109,25 +1109,25 @@
     <t xml:space="preserve">0.377535670995712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.375842690467834</t>
+    <t xml:space="preserve">0.375842720270157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391079545021057</t>
+    <t xml:space="preserve">0.39107957482338</t>
   </si>
   <si>
     <t xml:space="preserve">0.490965634584427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461338460445404</t>
+    <t xml:space="preserve">0.461338430643082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.507895529270172</t>
+    <t xml:space="preserve">0.507895588874817</t>
   </si>
   <si>
-    <t xml:space="preserve">0.499430626630783</t>
+    <t xml:space="preserve">0.499430537223816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.495198160409927</t>
+    <t xml:space="preserve">0.495198041200638</t>
   </si>
   <si>
     <t xml:space="preserve">0.465570896863937</t>
@@ -1136,13 +1136,13 @@
     <t xml:space="preserve">0.452873528003693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440176129341125</t>
+    <t xml:space="preserve">0.440176069736481</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431711167097092</t>
+    <t xml:space="preserve">0.431711196899414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444408535957336</t>
+    <t xml:space="preserve">0.444408565759659</t>
   </si>
   <si>
     <t xml:space="preserve">0.457105994224548</t>
@@ -1163,16 +1163,16 @@
     <t xml:space="preserve">0.382614612579346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.416474342346191</t>
+    <t xml:space="preserve">0.416474312543869</t>
   </si>
   <si>
-    <t xml:space="preserve">0.404623419046402</t>
+    <t xml:space="preserve">0.40462338924408</t>
   </si>
   <si>
     <t xml:space="preserve">0.413088381290436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402930438518524</t>
+    <t xml:space="preserve">0.402930468320847</t>
   </si>
   <si>
     <t xml:space="preserve">0.355526864528656</t>
@@ -1184,34 +1184,34 @@
     <t xml:space="preserve">0.338596999645233</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357219845056534</t>
+    <t xml:space="preserve">0.357219874858856</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358912825584412</t>
+    <t xml:space="preserve">0.358912795782089</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363991767168045</t>
+    <t xml:space="preserve">0.36399182677269</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367377728223801</t>
+    <t xml:space="preserve">0.367377758026123</t>
   </si>
   <si>
     <t xml:space="preserve">0.370763689279556</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372456729412079</t>
+    <t xml:space="preserve">0.372456699609756</t>
   </si>
   <si>
     <t xml:space="preserve">0.379228681325912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369070768356323</t>
+    <t xml:space="preserve">0.369070738554001</t>
   </si>
   <si>
     <t xml:space="preserve">0.347061932086945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345368951559067</t>
+    <t xml:space="preserve">0.345368981361389</t>
   </si>
   <si>
     <t xml:space="preserve">0.340290009975433</t>
@@ -1220,13 +1220,13 @@
     <t xml:space="preserve">0.3521409034729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36229881644249</t>
+    <t xml:space="preserve">0.362298786640167</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356533914804459</t>
+    <t xml:space="preserve">0.356533944606781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361855328083038</t>
+    <t xml:space="preserve">0.361855357885361</t>
   </si>
   <si>
     <t xml:space="preserve">0.352986335754395</t>
@@ -1235,10 +1235,10 @@
     <t xml:space="preserve">0.358307749032974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372498124837875</t>
+    <t xml:space="preserve">0.372498154640198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374271929264069</t>
+    <t xml:space="preserve">0.374271959066391</t>
   </si>
   <si>
     <t xml:space="preserve">0.360081523656845</t>
@@ -1262,7 +1262,7 @@
     <t xml:space="preserve">0.354760140180588</t>
   </si>
   <si>
-    <t xml:space="preserve">0.337022095918655</t>
+    <t xml:space="preserve">0.337022125720978</t>
   </si>
   <si>
     <t xml:space="preserve">0.335248321294785</t>
@@ -1286,13 +1286,13 @@
     <t xml:space="preserve">0.312188923358917</t>
   </si>
   <si>
-    <t xml:space="preserve">0.303319901227951</t>
+    <t xml:space="preserve">0.303319931030273</t>
   </si>
   <si>
-    <t xml:space="preserve">0.315736532211304</t>
+    <t xml:space="preserve">0.315736562013626</t>
   </si>
   <si>
-    <t xml:space="preserve">0.305093735456467</t>
+    <t xml:space="preserve">0.305093705654144</t>
   </si>
   <si>
     <t xml:space="preserve">0.31928414106369</t>
@@ -1313,13 +1313,13 @@
     <t xml:space="preserve">0.324605524539948</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388462334871292</t>
+    <t xml:space="preserve">0.38846230506897</t>
   </si>
   <si>
     <t xml:space="preserve">0.379593342542648</t>
   </si>
   <si>
-    <t xml:space="preserve">0.381367146968842</t>
+    <t xml:space="preserve">0.381367176771164</t>
   </si>
   <si>
     <t xml:space="preserve">0.383140951395035</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">0.320068180561066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.321984738111496</t>
+    <t xml:space="preserve">0.321984767913818</t>
   </si>
   <si>
     <t xml:space="preserve">0.33731734752655</t>
@@ -1358,19 +1358,19 @@
     <t xml:space="preserve">0.318151593208313</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3124018907547</t>
+    <t xml:space="preserve">0.312401860952377</t>
   </si>
   <si>
-    <t xml:space="preserve">0.323901355266571</t>
+    <t xml:space="preserve">0.323901325464249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.31431844830513</t>
+    <t xml:space="preserve">0.314318478107452</t>
   </si>
   <si>
     <t xml:space="preserve">0.306652128696442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.310485303401947</t>
+    <t xml:space="preserve">0.310485273599625</t>
   </si>
   <si>
     <t xml:space="preserve">0.302819013595581</t>
@@ -1379,16 +1379,16 @@
     <t xml:space="preserve">0.316235065460205</t>
   </si>
   <si>
-    <t xml:space="preserve">0.308568745851517</t>
+    <t xml:space="preserve">0.308568716049194</t>
   </si>
   <si>
-    <t xml:space="preserve">0.304735571146011</t>
+    <t xml:space="preserve">0.304735541343689</t>
   </si>
   <si>
     <t xml:space="preserve">0.300902426242828</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341150522232056</t>
+    <t xml:space="preserve">0.341150492429733</t>
   </si>
   <si>
     <t xml:space="preserve">0.329651057720184</t>
@@ -1397,7 +1397,7 @@
     <t xml:space="preserve">0.339233934879303</t>
   </si>
   <si>
-    <t xml:space="preserve">0.343067079782486</t>
+    <t xml:space="preserve">0.343067109584808</t>
   </si>
   <si>
     <t xml:space="preserve">0.344983696937561</t>
@@ -1406,16 +1406,16 @@
     <t xml:space="preserve">0.364149421453476</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35839968919754</t>
+    <t xml:space="preserve">0.358399718999863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346900224685669</t>
+    <t xml:space="preserve">0.346900254487991</t>
   </si>
   <si>
     <t xml:space="preserve">0.352649986743927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350733369588852</t>
+    <t xml:space="preserve">0.350733399391174</t>
   </si>
   <si>
     <t xml:space="preserve">0.348816812038422</t>
@@ -1446,6 +1446,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.342000007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.340000003576279</t>
   </si>
 </sst>
 </file>
@@ -58155,7 +58158,7 @@
     </row>
     <row r="2169">
       <c r="A2169" s="1" t="n">
-        <v>45482.3217476852</v>
+        <v>45482.2916666667</v>
       </c>
       <c r="B2169" t="n">
         <v>12000</v>
@@ -58176,6 +58179,32 @@
         <v>477</v>
       </c>
       <c r="H2169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" s="1" t="n">
+        <v>45483.3368518519</v>
+      </c>
+      <c r="B2170" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C2170" t="n">
+        <v>0.340000003576279</v>
+      </c>
+      <c r="D2170" t="n">
+        <v>0.340000003576279</v>
+      </c>
+      <c r="E2170" t="n">
+        <v>0.340000003576279</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>0.340000003576279</v>
+      </c>
+      <c r="G2170" t="s">
+        <v>478</v>
+      </c>
+      <c r="H2170" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/POPR.MI.xlsx
+++ b/data/POPR.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="481">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.197569638490677</t>
+    <t xml:space="preserve">0.197569623589516</t>
   </si>
   <si>
     <t xml:space="preserve">POPR.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.198275238275528</t>
+    <t xml:space="preserve">0.198275253176689</t>
   </si>
   <si>
     <t xml:space="preserve">0.194041594862938</t>
   </si>
   <si>
-    <t xml:space="preserve">0.192630380392075</t>
+    <t xml:space="preserve">0.192630395293236</t>
   </si>
   <si>
     <t xml:space="preserve">0.184163123369217</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">0.190513581037521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16722859442234</t>
+    <t xml:space="preserve">0.167228579521179</t>
   </si>
   <si>
     <t xml:space="preserve">0.160878121852875</t>
@@ -68,31 +68,31 @@
     <t xml:space="preserve">0.16814586520195</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162994965910912</t>
+    <t xml:space="preserve">0.16299495100975</t>
   </si>
   <si>
     <t xml:space="preserve">0.171462208032608</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172167807817459</t>
+    <t xml:space="preserve">0.17216782271862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169274806976318</t>
+    <t xml:space="preserve">0.16927482187748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164406135678291</t>
+    <t xml:space="preserve">0.164406150579453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15699727833271</t>
+    <t xml:space="preserve">0.156997293233871</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156644493341446</t>
+    <t xml:space="preserve">0.156644478440285</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157067835330963</t>
+    <t xml:space="preserve">0.157067850232124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159466922283173</t>
+    <t xml:space="preserve">0.159466907382011</t>
   </si>
   <si>
     <t xml:space="preserve">0.155938878655434</t>
@@ -101,25 +101,25 @@
     <t xml:space="preserve">0.169627636671066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191219180822372</t>
+    <t xml:space="preserve">0.19121915102005</t>
   </si>
   <si>
     <t xml:space="preserve">0.187267765402794</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183457493782043</t>
+    <t xml:space="preserve">0.183457478880882</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176401436328888</t>
+    <t xml:space="preserve">0.176401451230049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173579052090645</t>
+    <t xml:space="preserve">0.173579037189484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167934164404869</t>
+    <t xml:space="preserve">0.16793417930603</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174778565764427</t>
+    <t xml:space="preserve">0.174778550863266</t>
   </si>
   <si>
     <t xml:space="preserve">0.180635094642639</t>
@@ -134,28 +134,28 @@
     <t xml:space="preserve">0.198980823159218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191924780607224</t>
+    <t xml:space="preserve">0.191924795508385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186279937624931</t>
+    <t xml:space="preserve">0.18627992272377</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211681738495827</t>
+    <t xml:space="preserve">0.21168178319931</t>
   </si>
   <si>
-    <t xml:space="preserve">0.216268181800842</t>
+    <t xml:space="preserve">0.21626815199852</t>
   </si>
   <si>
-    <t xml:space="preserve">0.215209797024727</t>
+    <t xml:space="preserve">0.215209767222404</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206742510199547</t>
+    <t xml:space="preserve">0.206742495298386</t>
   </si>
   <si>
-    <t xml:space="preserve">0.203920096158981</t>
+    <t xml:space="preserve">0.203920066356659</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225793853402138</t>
+    <t xml:space="preserve">0.225793823599815</t>
   </si>
   <si>
     <t xml:space="preserve">0.234261140227318</t>
@@ -170,13 +170,13 @@
     <t xml:space="preserve">0.218032166361809</t>
   </si>
   <si>
-    <t xml:space="preserve">0.201097637414932</t>
+    <t xml:space="preserve">0.201097667217255</t>
   </si>
   <si>
-    <t xml:space="preserve">0.204625681042671</t>
+    <t xml:space="preserve">0.20462566614151</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190654695034027</t>
+    <t xml:space="preserve">0.190654680132866</t>
   </si>
   <si>
     <t xml:space="preserve">0.189102351665497</t>
@@ -185,25 +185,25 @@
     <t xml:space="preserve">0.182751908898354</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17019210755825</t>
+    <t xml:space="preserve">0.170192122459412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186985537409782</t>
+    <t xml:space="preserve">0.186985522508621</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176330864429474</t>
+    <t xml:space="preserve">0.176330879330635</t>
   </si>
   <si>
     <t xml:space="preserve">0.170756608247757</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172873422503471</t>
+    <t xml:space="preserve">0.172873437404633</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176965937018394</t>
+    <t xml:space="preserve">0.176965951919556</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208859339356422</t>
+    <t xml:space="preserve">0.2088593095541</t>
   </si>
   <si>
     <t xml:space="preserve">0.210976138710976</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">0.206036910414696</t>
   </si>
   <si>
-    <t xml:space="preserve">0.203990623354912</t>
+    <t xml:space="preserve">0.203990653157234</t>
   </si>
   <si>
     <t xml:space="preserve">0.187691152095795</t>
@@ -221,13 +221,13 @@
     <t xml:space="preserve">0.179929479956627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165111765265465</t>
+    <t xml:space="preserve">0.165111750364304</t>
   </si>
   <si>
     <t xml:space="preserve">0.170050993561745</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166522979736328</t>
+    <t xml:space="preserve">0.166522964835167</t>
   </si>
   <si>
     <t xml:space="preserve">0.162289336323738</t>
@@ -236,22 +236,22 @@
     <t xml:space="preserve">0.177812680602074</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185433208942413</t>
+    <t xml:space="preserve">0.185433194041252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191571950912476</t>
+    <t xml:space="preserve">0.191571995615959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193335995078087</t>
+    <t xml:space="preserve">0.193335965275764</t>
   </si>
   <si>
     <t xml:space="preserve">0.204978480935097</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225088253617287</t>
+    <t xml:space="preserve">0.22508829832077</t>
   </si>
   <si>
-    <t xml:space="preserve">0.217326626181602</t>
+    <t xml:space="preserve">0.217326581478119</t>
   </si>
   <si>
     <t xml:space="preserve">0.199968665838242</t>
@@ -260,28 +260,28 @@
     <t xml:space="preserve">0.214151367545128</t>
   </si>
   <si>
-    <t xml:space="preserve">0.22565270960331</t>
+    <t xml:space="preserve">0.225652754306793</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218737795948982</t>
+    <t xml:space="preserve">0.218737825751305</t>
   </si>
   <si>
-    <t xml:space="preserve">0.215280324220657</t>
+    <t xml:space="preserve">0.21528035402298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.224382638931274</t>
+    <t xml:space="preserve">0.224382609128952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.239200308918953</t>
+    <t xml:space="preserve">0.239200338721275</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243363440036774</t>
+    <t xml:space="preserve">0.243363425135612</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261074125766754</t>
+    <t xml:space="preserve">0.261074155569077</t>
   </si>
   <si>
-    <t xml:space="preserve">0.267424583435059</t>
+    <t xml:space="preserve">0.267424613237381</t>
   </si>
   <si>
     <t xml:space="preserve">0.282242298126221</t>
@@ -293,16 +293,16 @@
     <t xml:space="preserve">0.309055358171463</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325989931821823</t>
+    <t xml:space="preserve">0.325989902019501</t>
   </si>
   <si>
     <t xml:space="preserve">0.335162758827209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.289298355579376</t>
+    <t xml:space="preserve">0.289298385381699</t>
   </si>
   <si>
-    <t xml:space="preserve">0.292050212621689</t>
+    <t xml:space="preserve">0.292050272226334</t>
   </si>
   <si>
     <t xml:space="preserve">0.28090164065361</t>
@@ -311,37 +311,37 @@
     <t xml:space="preserve">0.280831128358841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.272575527429581</t>
+    <t xml:space="preserve">0.272575557231903</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273069500923157</t>
+    <t xml:space="preserve">0.273069471120834</t>
   </si>
   <si>
     <t xml:space="preserve">0.273210555315018</t>
   </si>
   <si>
-    <t xml:space="preserve">0.257546156644821</t>
+    <t xml:space="preserve">0.257546126842499</t>
   </si>
   <si>
-    <t xml:space="preserve">0.262485384941101</t>
+    <t xml:space="preserve">0.262485355138779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.236377984285355</t>
+    <t xml:space="preserve">0.236377939581871</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232285410165787</t>
+    <t xml:space="preserve">0.232285425066948</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237789139151573</t>
+    <t xml:space="preserve">0.237789183855057</t>
   </si>
   <si>
     <t xml:space="preserve">0.234331697225571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.26671901345253</t>
+    <t xml:space="preserve">0.266718983650208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.275186270475388</t>
+    <t xml:space="preserve">0.275186240673065</t>
   </si>
   <si>
     <t xml:space="preserve">0.259098440408707</t>
@@ -350,19 +350,19 @@
     <t xml:space="preserve">0.255429297685623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.264602214097977</t>
+    <t xml:space="preserve">0.264602184295654</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254018068313599</t>
+    <t xml:space="preserve">0.254018127918243</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250490069389343</t>
+    <t xml:space="preserve">0.250490039587021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243433982133865</t>
+    <t xml:space="preserve">0.243434011936188</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249643340706825</t>
+    <t xml:space="preserve">0.249643310904503</t>
   </si>
   <si>
     <t xml:space="preserve">0.239270955324173</t>
@@ -380,16 +380,16 @@
     <t xml:space="preserve">0.231438711285591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232849895954132</t>
+    <t xml:space="preserve">0.232849955558777</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234402224421501</t>
+    <t xml:space="preserve">0.234402254223824</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237930282950401</t>
+    <t xml:space="preserve">0.237930253148079</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25331249833107</t>
+    <t xml:space="preserve">0.253312468528748</t>
   </si>
   <si>
     <t xml:space="preserve">0.246820881962776</t>
@@ -398,7 +398,7 @@
     <t xml:space="preserve">0.247879296541214</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25761666893959</t>
+    <t xml:space="preserve">0.257616698741913</t>
   </si>
   <si>
     <t xml:space="preserve">0.263120412826538</t>
@@ -407,10 +407,10 @@
     <t xml:space="preserve">0.252042382955551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246962040662766</t>
+    <t xml:space="preserve">0.246961995959282</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246679812669754</t>
+    <t xml:space="preserve">0.246679797768593</t>
   </si>
   <si>
     <t xml:space="preserve">0.243504568934441</t>
@@ -419,22 +419,22 @@
     <t xml:space="preserve">0.259662926197052</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243645668029785</t>
+    <t xml:space="preserve">0.243645653128624</t>
   </si>
   <si>
     <t xml:space="preserve">0.250701755285263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333610445261002</t>
+    <t xml:space="preserve">0.333610415458679</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395139276981354</t>
+    <t xml:space="preserve">0.395139247179031</t>
   </si>
   <si>
-    <t xml:space="preserve">0.522148251533508</t>
+    <t xml:space="preserve">0.522148311138153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.612465798854828</t>
+    <t xml:space="preserve">0.612465858459473</t>
   </si>
   <si>
     <t xml:space="preserve">0.535554826259613</t>
@@ -443,22 +443,22 @@
     <t xml:space="preserve">0.490396022796631</t>
   </si>
   <si>
-    <t xml:space="preserve">0.473814278841019</t>
+    <t xml:space="preserve">0.473814308643341</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44453164935112</t>
+    <t xml:space="preserve">0.444531679153442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409251362085342</t>
+    <t xml:space="preserve">0.40925133228302</t>
   </si>
   <si>
     <t xml:space="preserve">0.464994192123413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412426620721817</t>
+    <t xml:space="preserve">0.412426590919495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419835478067398</t>
+    <t xml:space="preserve">0.41983550786972</t>
   </si>
   <si>
     <t xml:space="preserve">0.388788819313049</t>
@@ -479,13 +479,13 @@
     <t xml:space="preserve">0.361270189285278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391611188650131</t>
+    <t xml:space="preserve">0.391611218452454</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383143901824951</t>
+    <t xml:space="preserve">0.383143991231918</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366914987564087</t>
+    <t xml:space="preserve">0.366914957761765</t>
   </si>
   <si>
     <t xml:space="preserve">0.357389330863953</t>
@@ -494,28 +494,28 @@
     <t xml:space="preserve">0.360564529895782</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373971074819565</t>
+    <t xml:space="preserve">0.373971045017242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370443016290665</t>
+    <t xml:space="preserve">0.370443046092987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356330931186676</t>
+    <t xml:space="preserve">0.356330901384354</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364092588424683</t>
+    <t xml:space="preserve">0.36409255862236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352802872657776</t>
+    <t xml:space="preserve">0.352802902460098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349980473518372</t>
+    <t xml:space="preserve">0.349980443716049</t>
   </si>
   <si>
     <t xml:space="preserve">0.375735104084015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357036501169205</t>
+    <t xml:space="preserve">0.357036530971527</t>
   </si>
   <si>
     <t xml:space="preserve">0.355625361204147</t>
@@ -530,7 +530,7 @@
     <t xml:space="preserve">0.368326246738434</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338690787553787</t>
+    <t xml:space="preserve">0.338690757751465</t>
   </si>
   <si>
     <t xml:space="preserve">0.348569244146347</t>
@@ -545,28 +545,28 @@
     <t xml:space="preserve">0.365503817796707</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402195274829865</t>
+    <t xml:space="preserve">0.402195334434509</t>
   </si>
   <si>
     <t xml:space="preserve">0.381027162075043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.381732732057571</t>
+    <t xml:space="preserve">0.381732761859894</t>
   </si>
   <si>
     <t xml:space="preserve">0.358447760343552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37926310300827</t>
+    <t xml:space="preserve">0.379263132810593</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353155732154846</t>
+    <t xml:space="preserve">0.353155702352524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367973446846008</t>
+    <t xml:space="preserve">0.367973417043686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437475591897964</t>
+    <t xml:space="preserve">0.437475651502609</t>
   </si>
   <si>
     <t xml:space="preserve">0.414896190166473</t>
@@ -575,16 +575,16 @@
     <t xml:space="preserve">0.414190590381622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415601819753647</t>
+    <t xml:space="preserve">0.415601849555969</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408192962408066</t>
+    <t xml:space="preserve">0.408192902803421</t>
   </si>
   <si>
     <t xml:space="preserve">0.416307419538498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387377619743347</t>
+    <t xml:space="preserve">0.387377589941025</t>
   </si>
   <si>
     <t xml:space="preserve">0.39266961812973</t>
@@ -602,61 +602,61 @@
     <t xml:space="preserve">0.439592450857162</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424069136381149</t>
+    <t xml:space="preserve">0.424069076776505</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423363476991653</t>
+    <t xml:space="preserve">0.423363566398621</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434653252363205</t>
+    <t xml:space="preserve">0.434653162956238</t>
   </si>
   <si>
     <t xml:space="preserve">0.423716247081757</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457938224077225</t>
+    <t xml:space="preserve">0.457938134670258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465699791908264</t>
+    <t xml:space="preserve">0.465699911117554</t>
   </si>
   <si>
     <t xml:space="preserve">0.440298020839691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423010677099228</t>
+    <t xml:space="preserve">0.42301070690155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.433947563171387</t>
+    <t xml:space="preserve">0.433947592973709</t>
   </si>
   <si>
-    <t xml:space="preserve">0.529204428195953</t>
+    <t xml:space="preserve">0.529204368591309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493218421936035</t>
+    <t xml:space="preserve">0.49321848154068</t>
   </si>
   <si>
-    <t xml:space="preserve">0.508036136627197</t>
+    <t xml:space="preserve">0.508036255836487</t>
   </si>
   <si>
-    <t xml:space="preserve">0.486867964267731</t>
+    <t xml:space="preserve">0.486868023872375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4918073117733</t>
+    <t xml:space="preserve">0.491807222366333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.500980138778687</t>
+    <t xml:space="preserve">0.500980079174042</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493924081325531</t>
+    <t xml:space="preserve">0.493923991918564</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474167019128799</t>
+    <t xml:space="preserve">0.474167078733444</t>
   </si>
   <si>
-    <t xml:space="preserve">0.476989567279816</t>
+    <t xml:space="preserve">0.476989507675171</t>
   </si>
   <si>
-    <t xml:space="preserve">0.472755968570709</t>
+    <t xml:space="preserve">0.472755879163742</t>
   </si>
   <si>
     <t xml:space="preserve">0.460054993629456</t>
@@ -671,10 +671,10 @@
     <t xml:space="preserve">0.464288622140884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451587706804276</t>
+    <t xml:space="preserve">0.451587647199631</t>
   </si>
   <si>
-    <t xml:space="preserve">0.485456854104996</t>
+    <t xml:space="preserve">0.485456764698029</t>
   </si>
   <si>
     <t xml:space="preserve">0.468522280454636</t>
@@ -683,46 +683,46 @@
     <t xml:space="preserve">0.519325852394104</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479811906814575</t>
+    <t xml:space="preserve">0.479811877012253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448765277862549</t>
+    <t xml:space="preserve">0.448765218257904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.469933390617371</t>
+    <t xml:space="preserve">0.469933450222015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.475578278303146</t>
+    <t xml:space="preserve">0.475578367710114</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461466133594513</t>
+    <t xml:space="preserve">0.461466163396835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.447354108095169</t>
+    <t xml:space="preserve">0.447354048490524</t>
   </si>
   <si>
     <t xml:space="preserve">0.454410135746002</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429008305072784</t>
+    <t xml:space="preserve">0.429008334875107</t>
   </si>
   <si>
-    <t xml:space="preserve">0.430419594049454</t>
+    <t xml:space="preserve">0.430419534444809</t>
   </si>
   <si>
     <t xml:space="preserve">0.436064332723618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452998906373978</t>
+    <t xml:space="preserve">0.452998965978622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.484045505523682</t>
+    <t xml:space="preserve">0.484045594930649</t>
   </si>
   <si>
-    <t xml:space="preserve">0.471344619989395</t>
+    <t xml:space="preserve">0.471344709396362</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457232534885406</t>
+    <t xml:space="preserve">0.457232564687729</t>
   </si>
   <si>
     <t xml:space="preserve">0.44312047958374</t>
@@ -731,34 +731,34 @@
     <t xml:space="preserve">0.462877422571182</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450176507234573</t>
+    <t xml:space="preserve">0.450176596641541</t>
   </si>
   <si>
     <t xml:space="preserve">0.467110991477966</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406428873538971</t>
+    <t xml:space="preserve">0.406428933143616</t>
   </si>
   <si>
     <t xml:space="preserve">0.410662591457367</t>
   </si>
   <si>
-    <t xml:space="preserve">0.407840192317963</t>
+    <t xml:space="preserve">0.407840132713318</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382438361644745</t>
+    <t xml:space="preserve">0.3824383020401</t>
   </si>
   <si>
     <t xml:space="preserve">0.369737416505814</t>
   </si>
   <si>
-    <t xml:space="preserve">0.403606593608856</t>
+    <t xml:space="preserve">0.403606534004211</t>
   </si>
   <si>
-    <t xml:space="preserve">0.400784134864807</t>
+    <t xml:space="preserve">0.400784075260162</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386671990156174</t>
+    <t xml:space="preserve">0.386671930551529</t>
   </si>
   <si>
     <t xml:space="preserve">0.378204703330994</t>
@@ -770,16 +770,16 @@
     <t xml:space="preserve">0.388083189725876</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417718678712845</t>
+    <t xml:space="preserve">0.4177186191082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.433241993188858</t>
+    <t xml:space="preserve">0.433241963386536</t>
   </si>
   <si>
-    <t xml:space="preserve">0.396550476551056</t>
+    <t xml:space="preserve">0.396550506353378</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405017733573914</t>
+    <t xml:space="preserve">0.405017673969269</t>
   </si>
   <si>
     <t xml:space="preserve">0.424774706363678</t>
@@ -794,22 +794,22 @@
     <t xml:space="preserve">0.431830734014511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.438886851072311</t>
+    <t xml:space="preserve">0.438886821269989</t>
   </si>
   <si>
     <t xml:space="preserve">0.441709220409393</t>
   </si>
   <si>
-    <t xml:space="preserve">0.476283878087997</t>
+    <t xml:space="preserve">0.476283848285675</t>
   </si>
   <si>
     <t xml:space="preserve">0.483339995145798</t>
   </si>
   <si>
-    <t xml:space="preserve">0.504508197307587</t>
+    <t xml:space="preserve">0.504508137702942</t>
   </si>
   <si>
-    <t xml:space="preserve">0.511564135551453</t>
+    <t xml:space="preserve">0.511564254760742</t>
   </si>
   <si>
     <t xml:space="preserve">0.520832717418671</t>
@@ -818,40 +818,40 @@
     <t xml:space="preserve">0.497511833906174</t>
   </si>
   <si>
-    <t xml:space="preserve">0.481964617967606</t>
+    <t xml:space="preserve">0.48196467757225</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46641743183136</t>
+    <t xml:space="preserve">0.466417491436005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478077828884125</t>
+    <t xml:space="preserve">0.478077858686447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.48973822593689</t>
+    <t xml:space="preserve">0.489738285541534</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493625074625015</t>
+    <t xml:space="preserve">0.493625044822693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.485851466655731</t>
+    <t xml:space="preserve">0.485851496458054</t>
   </si>
   <si>
-    <t xml:space="preserve">0.470304220914841</t>
+    <t xml:space="preserve">0.470304191112518</t>
   </si>
   <si>
     <t xml:space="preserve">0.450870096683502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.462530583143234</t>
+    <t xml:space="preserve">0.462530612945557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.435322880744934</t>
+    <t xml:space="preserve">0.435322910547256</t>
   </si>
   <si>
-    <t xml:space="preserve">0.439209669828415</t>
+    <t xml:space="preserve">0.43920972943306</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454756945371628</t>
+    <t xml:space="preserve">0.45475697517395</t>
   </si>
   <si>
     <t xml:space="preserve">0.474191009998322</t>
@@ -866,79 +866,79 @@
     <t xml:space="preserve">0.505285501480103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513059139251709</t>
+    <t xml:space="preserve">0.513059198856354</t>
   </si>
   <si>
-    <t xml:space="preserve">0.509172260761261</t>
+    <t xml:space="preserve">0.509172320365906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446983307600021</t>
+    <t xml:space="preserve">0.446983337402344</t>
   </si>
   <si>
     <t xml:space="preserve">0.443096548318863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.427549332380295</t>
+    <t xml:space="preserve">0.42754927277565</t>
   </si>
   <si>
     <t xml:space="preserve">0.419775664806366</t>
   </si>
   <si>
-    <t xml:space="preserve">0.404228389263153</t>
+    <t xml:space="preserve">0.404228359460831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415888845920563</t>
+    <t xml:space="preserve">0.415888875722885</t>
   </si>
   <si>
     <t xml:space="preserve">0.431436091661453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41200202703476</t>
+    <t xml:space="preserve">0.412001997232437</t>
   </si>
   <si>
     <t xml:space="preserve">0.3824622631073</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380907535552979</t>
+    <t xml:space="preserve">0.380907565355301</t>
   </si>
   <si>
     <t xml:space="preserve">0.396454751491547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388681173324585</t>
+    <t xml:space="preserve">0.388681143522263</t>
   </si>
   <si>
     <t xml:space="preserve">0.373133897781372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349813044071198</t>
+    <t xml:space="preserve">0.349813014268875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352922469377518</t>
+    <t xml:space="preserve">0.35292249917984</t>
   </si>
   <si>
-    <t xml:space="preserve">0.326492130756378</t>
+    <t xml:space="preserve">0.326492160558701</t>
   </si>
   <si>
     <t xml:space="preserve">0.290733516216278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312499642372131</t>
+    <t xml:space="preserve">0.312499672174454</t>
   </si>
   <si>
     <t xml:space="preserve">0.29539766907692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.306280761957169</t>
+    <t xml:space="preserve">0.306280732154846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.293842941522598</t>
+    <t xml:space="preserve">0.293842971324921</t>
   </si>
   <si>
-    <t xml:space="preserve">0.279850453138351</t>
+    <t xml:space="preserve">0.279850482940674</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273631513118744</t>
+    <t xml:space="preserve">0.273631542921066</t>
   </si>
   <si>
     <t xml:space="preserve">0.320273280143738</t>
@@ -947,25 +947,25 @@
     <t xml:space="preserve">0.321828007698059</t>
   </si>
   <si>
-    <t xml:space="preserve">0.304726034402847</t>
+    <t xml:space="preserve">0.304726004600525</t>
   </si>
   <si>
     <t xml:space="preserve">0.314054369926453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.315609067678452</t>
+    <t xml:space="preserve">0.315609097480774</t>
   </si>
   <si>
     <t xml:space="preserve">0.331156343221664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34048467874527</t>
+    <t xml:space="preserve">0.340484708547592</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346703618764877</t>
+    <t xml:space="preserve">0.346703588962555</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379352807998657</t>
+    <t xml:space="preserve">0.37935283780098</t>
   </si>
   <si>
     <t xml:space="preserve">0.365360289812088</t>
@@ -977,19 +977,19 @@
     <t xml:space="preserve">0.38557168841362</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408115178346634</t>
+    <t xml:space="preserve">0.408115208148956</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423662483692169</t>
+    <t xml:space="preserve">0.423662453889847</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368469715118408</t>
+    <t xml:space="preserve">0.368469744920731</t>
   </si>
   <si>
-    <t xml:space="preserve">0.371579200029373</t>
+    <t xml:space="preserve">0.371579140424728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377798110246658</t>
+    <t xml:space="preserve">0.377798080444336</t>
   </si>
   <si>
     <t xml:space="preserve">0.392567962408066</t>
@@ -1001,13 +1001,13 @@
     <t xml:space="preserve">0.362250834703445</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363805592060089</t>
+    <t xml:space="preserve">0.363805532455444</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360696077346802</t>
+    <t xml:space="preserve">0.360696107149124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357586652040482</t>
+    <t xml:space="preserve">0.357586681842804</t>
   </si>
   <si>
     <t xml:space="preserve">0.343594133853912</t>
@@ -1016,22 +1016,22 @@
     <t xml:space="preserve">0.356031954288483</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342039406299591</t>
+    <t xml:space="preserve">0.342039436101913</t>
   </si>
   <si>
-    <t xml:space="preserve">0.334265768527985</t>
+    <t xml:space="preserve">0.334265798330307</t>
   </si>
   <si>
-    <t xml:space="preserve">0.318718522787094</t>
+    <t xml:space="preserve">0.318718552589417</t>
   </si>
   <si>
     <t xml:space="preserve">0.32338273525238</t>
   </si>
   <si>
-    <t xml:space="preserve">0.296952426433563</t>
+    <t xml:space="preserve">0.296952396631241</t>
   </si>
   <si>
-    <t xml:space="preserve">0.300061851739883</t>
+    <t xml:space="preserve">0.300061881542206</t>
   </si>
   <si>
     <t xml:space="preserve">0.292288213968277</t>
@@ -1040,25 +1040,25 @@
     <t xml:space="preserve">0.298507153987885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.303171306848526</t>
+    <t xml:space="preserve">0.303171277046204</t>
   </si>
   <si>
     <t xml:space="preserve">0.31094491481781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.328046917915344</t>
+    <t xml:space="preserve">0.328046888113022</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332711070775986</t>
+    <t xml:space="preserve">0.332711040973663</t>
   </si>
   <si>
-    <t xml:space="preserve">0.324937492609024</t>
+    <t xml:space="preserve">0.324937433004379</t>
   </si>
   <si>
-    <t xml:space="preserve">0.482500702142715</t>
+    <t xml:space="preserve">0.48250076174736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44864097237587</t>
+    <t xml:space="preserve">0.448641002178192</t>
   </si>
   <si>
     <t xml:space="preserve">0.43594366312027</t>
@@ -1070,10 +1070,10 @@
     <t xml:space="preserve">0.40631639957428</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414781361818314</t>
+    <t xml:space="preserve">0.414781332015991</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40800940990448</t>
+    <t xml:space="preserve">0.408009380102158</t>
   </si>
   <si>
     <t xml:space="preserve">0.427478700876236</t>
@@ -1085,16 +1085,16 @@
     <t xml:space="preserve">0.409702390432358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.392772525548935</t>
+    <t xml:space="preserve">0.392772495746613</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386000603437424</t>
+    <t xml:space="preserve">0.386000573635101</t>
   </si>
   <si>
-    <t xml:space="preserve">0.384307593107224</t>
+    <t xml:space="preserve">0.384307622909546</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380921602249146</t>
+    <t xml:space="preserve">0.380921632051468</t>
   </si>
   <si>
     <t xml:space="preserve">0.396158486604691</t>
@@ -1106,7 +1106,7 @@
     <t xml:space="preserve">0.394465535879135</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377535670995712</t>
+    <t xml:space="preserve">0.377535700798035</t>
   </si>
   <si>
     <t xml:space="preserve">0.375842690467834</t>
@@ -1118,16 +1118,16 @@
     <t xml:space="preserve">0.490965634584427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461338430643082</t>
+    <t xml:space="preserve">0.461338400840759</t>
   </si>
   <si>
-    <t xml:space="preserve">0.507895529270172</t>
+    <t xml:space="preserve">0.507895588874817</t>
   </si>
   <si>
     <t xml:space="preserve">0.499430567026138</t>
   </si>
   <si>
-    <t xml:space="preserve">0.495198100805283</t>
+    <t xml:space="preserve">0.495198130607605</t>
   </si>
   <si>
     <t xml:space="preserve">0.46557092666626</t>
@@ -1139,25 +1139,25 @@
     <t xml:space="preserve">0.440176069736481</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431711167097092</t>
+    <t xml:space="preserve">0.431711196899414</t>
   </si>
   <si>
     <t xml:space="preserve">0.444408565759659</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457105994224548</t>
+    <t xml:space="preserve">0.457105964422226</t>
   </si>
   <si>
-    <t xml:space="preserve">0.418167293071747</t>
+    <t xml:space="preserve">0.418167263269424</t>
   </si>
   <si>
-    <t xml:space="preserve">0.411395370960236</t>
+    <t xml:space="preserve">0.411395341157913</t>
   </si>
   <si>
     <t xml:space="preserve">0.397851496934891</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387693554162979</t>
+    <t xml:space="preserve">0.387693583965302</t>
   </si>
   <si>
     <t xml:space="preserve">0.382614612579346</t>
@@ -1166,25 +1166,25 @@
     <t xml:space="preserve">0.416474342346191</t>
   </si>
   <si>
-    <t xml:space="preserve">0.404623419046402</t>
+    <t xml:space="preserve">0.40462338924408</t>
   </si>
   <si>
     <t xml:space="preserve">0.413088351488113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402930438518524</t>
+    <t xml:space="preserve">0.402930468320847</t>
   </si>
   <si>
     <t xml:space="preserve">0.355526834726334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.336904019117355</t>
+    <t xml:space="preserve">0.336904048919678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338597029447556</t>
+    <t xml:space="preserve">0.338596999645233</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357219845056534</t>
+    <t xml:space="preserve">0.357219815254211</t>
   </si>
   <si>
     <t xml:space="preserve">0.358912825584412</t>
@@ -1193,7 +1193,7 @@
     <t xml:space="preserve">0.363991796970367</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367377758026123</t>
+    <t xml:space="preserve">0.367377728223801</t>
   </si>
   <si>
     <t xml:space="preserve">0.370763719081879</t>
@@ -1202,13 +1202,13 @@
     <t xml:space="preserve">0.372456729412079</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379228681325912</t>
+    <t xml:space="preserve">0.37922865152359</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369070738554001</t>
+    <t xml:space="preserve">0.369070768356323</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347061932086945</t>
+    <t xml:space="preserve">0.347061902284622</t>
   </si>
   <si>
     <t xml:space="preserve">0.345368951559067</t>
@@ -1226,16 +1226,16 @@
     <t xml:space="preserve">0.356533944606781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361855328083038</t>
+    <t xml:space="preserve">0.361855357885361</t>
   </si>
   <si>
     <t xml:space="preserve">0.352986335754395</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358307719230652</t>
+    <t xml:space="preserve">0.358307749032974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372498095035553</t>
+    <t xml:space="preserve">0.372498124837875</t>
   </si>
   <si>
     <t xml:space="preserve">0.374271929264069</t>
@@ -1259,7 +1259,7 @@
     <t xml:space="preserve">0.338795900344849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354760140180588</t>
+    <t xml:space="preserve">0.35476016998291</t>
   </si>
   <si>
     <t xml:space="preserve">0.337022125720978</t>
@@ -1271,7 +1271,7 @@
     <t xml:space="preserve">0.326379328966141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317510336637497</t>
+    <t xml:space="preserve">0.317510306835175</t>
   </si>
   <si>
     <t xml:space="preserve">0.322831720113754</t>
@@ -1280,7 +1280,7 @@
     <t xml:space="preserve">0.31396272778511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.310415118932724</t>
+    <t xml:space="preserve">0.310415089130402</t>
   </si>
   <si>
     <t xml:space="preserve">0.312188893556595</t>
@@ -1310,13 +1310,13 @@
     <t xml:space="preserve">0.345891088247299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.324605524539948</t>
+    <t xml:space="preserve">0.324605494737625</t>
   </si>
   <si>
     <t xml:space="preserve">0.388462334871292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379593312740326</t>
+    <t xml:space="preserve">0.379593342542648</t>
   </si>
   <si>
     <t xml:space="preserve">0.381367146968842</t>
@@ -1325,13 +1325,13 @@
     <t xml:space="preserve">0.383140951395035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.376045733690262</t>
+    <t xml:space="preserve">0.376045763492584</t>
   </si>
   <si>
     <t xml:space="preserve">0.377819538116455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395557582378387</t>
+    <t xml:space="preserve">0.395557552576065</t>
   </si>
   <si>
     <t xml:space="preserve">0.331567615270615</t>
@@ -1452,6 +1452,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.34400001168251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.337999999523163</t>
   </si>
 </sst>
 </file>
@@ -58263,6 +58266,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2173">
+      <c r="A2173" s="1" t="n">
+        <v>45488.2916666667</v>
+      </c>
+      <c r="B2173" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2173" t="n">
+        <v>0.34400001168251</v>
+      </c>
+      <c r="D2173" t="n">
+        <v>0.34400001168251</v>
+      </c>
+      <c r="E2173" t="n">
+        <v>0.34400001168251</v>
+      </c>
+      <c r="F2173" t="n">
+        <v>0.34400001168251</v>
+      </c>
+      <c r="G2173" t="s">
+        <v>479</v>
+      </c>
+      <c r="H2173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" s="1" t="n">
+        <v>45489.6272916667</v>
+      </c>
+      <c r="B2174" t="n">
+        <v>28000</v>
+      </c>
+      <c r="C2174" t="n">
+        <v>0.337999999523163</v>
+      </c>
+      <c r="D2174" t="n">
+        <v>0.330000013113022</v>
+      </c>
+      <c r="E2174" t="n">
+        <v>0.342000007629395</v>
+      </c>
+      <c r="F2174" t="n">
+        <v>0.337999999523163</v>
+      </c>
+      <c r="G2174" t="s">
+        <v>480</v>
+      </c>
+      <c r="H2174" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/POPR.MI.xlsx
+++ b/data/POPR.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="483">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,16 +44,16 @@
     <t xml:space="preserve">POPR.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.198275238275528</t>
+    <t xml:space="preserve">0.198275223374367</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194041609764099</t>
+    <t xml:space="preserve">0.194041594862938</t>
   </si>
   <si>
     <t xml:space="preserve">0.192630380392075</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184163123369217</t>
+    <t xml:space="preserve">0.184163108468056</t>
   </si>
   <si>
     <t xml:space="preserve">0.190513581037521</t>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">0.16814586520195</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16299495100975</t>
+    <t xml:space="preserve">0.162994936108589</t>
   </si>
   <si>
     <t xml:space="preserve">0.171462208032608</t>
@@ -83,19 +83,19 @@
     <t xml:space="preserve">0.164406150579453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15699727833271</t>
+    <t xml:space="preserve">0.156997293233871</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156644493341446</t>
+    <t xml:space="preserve">0.156644478440285</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157067835330963</t>
+    <t xml:space="preserve">0.157067850232124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159466922283173</t>
+    <t xml:space="preserve">0.159466907382011</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155938878655434</t>
+    <t xml:space="preserve">0.155938893556595</t>
   </si>
   <si>
     <t xml:space="preserve">0.169627636671066</t>
@@ -110,10 +110,10 @@
     <t xml:space="preserve">0.183457493782043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176401436328888</t>
+    <t xml:space="preserve">0.176401451230049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173579052090645</t>
+    <t xml:space="preserve">0.173579037189484</t>
   </si>
   <si>
     <t xml:space="preserve">0.16793417930603</t>
@@ -122,13 +122,13 @@
     <t xml:space="preserve">0.174778565764427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1806351095438</t>
+    <t xml:space="preserve">0.180635094642639</t>
   </si>
   <si>
     <t xml:space="preserve">0.178447708487511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199051380157471</t>
+    <t xml:space="preserve">0.199051395058632</t>
   </si>
   <si>
     <t xml:space="preserve">0.198980823159218</t>
@@ -137,46 +137,46 @@
     <t xml:space="preserve">0.191924780607224</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186279937624931</t>
+    <t xml:space="preserve">0.18627992272377</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211681738495827</t>
+    <t xml:space="preserve">0.211681708693504</t>
   </si>
   <si>
     <t xml:space="preserve">0.216268181800842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.215209782123566</t>
+    <t xml:space="preserve">0.215209767222404</t>
   </si>
   <si>
     <t xml:space="preserve">0.206742510199547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.20392008125782</t>
+    <t xml:space="preserve">0.203920066356659</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225793853402138</t>
+    <t xml:space="preserve">0.225793838500977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234261140227318</t>
+    <t xml:space="preserve">0.234261110424995</t>
   </si>
   <si>
     <t xml:space="preserve">0.225723296403885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220854625105858</t>
+    <t xml:space="preserve">0.220854610204697</t>
   </si>
   <si>
     <t xml:space="preserve">0.218032166361809</t>
   </si>
   <si>
-    <t xml:space="preserve">0.201097637414932</t>
+    <t xml:space="preserve">0.201097622513771</t>
   </si>
   <si>
-    <t xml:space="preserve">0.204625695943832</t>
+    <t xml:space="preserve">0.204625681042671</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190654695034027</t>
+    <t xml:space="preserve">0.190654709935188</t>
   </si>
   <si>
     <t xml:space="preserve">0.189102366566658</t>
@@ -188,31 +188,31 @@
     <t xml:space="preserve">0.17019210755825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186985537409782</t>
+    <t xml:space="preserve">0.186985522508621</t>
   </si>
   <si>
     <t xml:space="preserve">0.176330879330635</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170756608247757</t>
+    <t xml:space="preserve">0.170756593346596</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172873422503471</t>
+    <t xml:space="preserve">0.172873437404633</t>
   </si>
   <si>
     <t xml:space="preserve">0.176965937018394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208859339356422</t>
+    <t xml:space="preserve">0.2088593095541</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210976153612137</t>
+    <t xml:space="preserve">0.210976138710976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206036910414696</t>
+    <t xml:space="preserve">0.206036925315857</t>
   </si>
   <si>
-    <t xml:space="preserve">0.203990593552589</t>
+    <t xml:space="preserve">0.203990623354912</t>
   </si>
   <si>
     <t xml:space="preserve">0.187691152095795</t>
@@ -221,25 +221,25 @@
     <t xml:space="preserve">0.179929479956627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165111750364304</t>
+    <t xml:space="preserve">0.165111765265465</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170050993561745</t>
+    <t xml:space="preserve">0.170051008462906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166522979736328</t>
+    <t xml:space="preserve">0.166522964835167</t>
   </si>
   <si>
     <t xml:space="preserve">0.162289336323738</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177812680602074</t>
+    <t xml:space="preserve">0.177812665700912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185433194041252</t>
+    <t xml:space="preserve">0.185433208942413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191571965813637</t>
+    <t xml:space="preserve">0.191571980714798</t>
   </si>
   <si>
     <t xml:space="preserve">0.193335980176926</t>
@@ -248,10 +248,10 @@
     <t xml:space="preserve">0.204978466033936</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225088268518448</t>
+    <t xml:space="preserve">0.225088283419609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21732659637928</t>
+    <t xml:space="preserve">0.217326581478119</t>
   </si>
   <si>
     <t xml:space="preserve">0.199968665838242</t>
@@ -260,46 +260,46 @@
     <t xml:space="preserve">0.214151352643967</t>
   </si>
   <si>
-    <t xml:space="preserve">0.22565270960331</t>
+    <t xml:space="preserve">0.225652754306793</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218737810850143</t>
+    <t xml:space="preserve">0.218737825751305</t>
   </si>
   <si>
     <t xml:space="preserve">0.215280339121819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.224382624030113</t>
+    <t xml:space="preserve">0.224382609128952</t>
   </si>
   <si>
     <t xml:space="preserve">0.239200338721275</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243363440036774</t>
+    <t xml:space="preserve">0.243363425135612</t>
   </si>
   <si>
     <t xml:space="preserve">0.261074155569077</t>
   </si>
   <si>
-    <t xml:space="preserve">0.267424613237381</t>
+    <t xml:space="preserve">0.267424583435059</t>
   </si>
   <si>
-    <t xml:space="preserve">0.282242298126221</t>
+    <t xml:space="preserve">0.282242327928543</t>
   </si>
   <si>
     <t xml:space="preserve">0.299882471561432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309055358171463</t>
+    <t xml:space="preserve">0.309055328369141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325989902019501</t>
+    <t xml:space="preserve">0.325989872217178</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335162729024887</t>
+    <t xml:space="preserve">0.335162758827209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.289298355579376</t>
+    <t xml:space="preserve">0.289298385381699</t>
   </si>
   <si>
     <t xml:space="preserve">0.292050242424011</t>
@@ -308,19 +308,19 @@
     <t xml:space="preserve">0.280901670455933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.280831128358841</t>
+    <t xml:space="preserve">0.280831098556519</t>
   </si>
   <si>
     <t xml:space="preserve">0.272575557231903</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273069471120834</t>
+    <t xml:space="preserve">0.273069441318512</t>
   </si>
   <si>
     <t xml:space="preserve">0.273210555315018</t>
   </si>
   <si>
-    <t xml:space="preserve">0.257546156644821</t>
+    <t xml:space="preserve">0.257546126842499</t>
   </si>
   <si>
     <t xml:space="preserve">0.262485355138779</t>
@@ -329,10 +329,10 @@
     <t xml:space="preserve">0.236377954483032</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232285439968109</t>
+    <t xml:space="preserve">0.232285395264626</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237789139151573</t>
+    <t xml:space="preserve">0.237789154052734</t>
   </si>
   <si>
     <t xml:space="preserve">0.234331697225571</t>
@@ -341,22 +341,22 @@
     <t xml:space="preserve">0.266718983650208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.275186270475388</t>
+    <t xml:space="preserve">0.275186240673065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.259098410606384</t>
+    <t xml:space="preserve">0.259098440408707</t>
   </si>
   <si>
-    <t xml:space="preserve">0.255429267883301</t>
+    <t xml:space="preserve">0.255429297685623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.264602184295654</t>
+    <t xml:space="preserve">0.264602154493332</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254018098115921</t>
+    <t xml:space="preserve">0.254018068313599</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250490069389343</t>
+    <t xml:space="preserve">0.250490039587021</t>
   </si>
   <si>
     <t xml:space="preserve">0.243433982133865</t>
@@ -368,34 +368,34 @@
     <t xml:space="preserve">0.239270955324173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225864395499229</t>
+    <t xml:space="preserve">0.225864425301552</t>
   </si>
   <si>
     <t xml:space="preserve">0.229321867227554</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232144296169281</t>
+    <t xml:space="preserve">0.232144311070442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23143869638443</t>
+    <t xml:space="preserve">0.231438711285591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232849910855293</t>
+    <t xml:space="preserve">0.232849895954132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234402224421501</t>
+    <t xml:space="preserve">0.234402254223824</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237930282950401</t>
+    <t xml:space="preserve">0.237930253148079</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25331249833107</t>
+    <t xml:space="preserve">0.253312528133392</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246820911765099</t>
+    <t xml:space="preserve">0.246820881962776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247879296541214</t>
+    <t xml:space="preserve">0.247879326343536</t>
   </si>
   <si>
     <t xml:space="preserve">0.25761666893959</t>
@@ -407,10 +407,10 @@
     <t xml:space="preserve">0.252042382955551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246962040662766</t>
+    <t xml:space="preserve">0.246962055563927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246679812669754</t>
+    <t xml:space="preserve">0.246679797768593</t>
   </si>
   <si>
     <t xml:space="preserve">0.243504568934441</t>
@@ -419,7 +419,7 @@
     <t xml:space="preserve">0.259662926197052</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243645653128624</t>
+    <t xml:space="preserve">0.243645682930946</t>
   </si>
   <si>
     <t xml:space="preserve">0.250701755285263</t>
@@ -434,31 +434,31 @@
     <t xml:space="preserve">0.522148311138153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.612465798854828</t>
+    <t xml:space="preserve">0.612465858459473</t>
   </si>
   <si>
-    <t xml:space="preserve">0.535554885864258</t>
+    <t xml:space="preserve">0.535554826259613</t>
   </si>
   <si>
-    <t xml:space="preserve">0.490396022796631</t>
+    <t xml:space="preserve">0.490396052598953</t>
   </si>
   <si>
-    <t xml:space="preserve">0.473814338445663</t>
+    <t xml:space="preserve">0.473814368247986</t>
   </si>
   <si>
     <t xml:space="preserve">0.444531619548798</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409251391887665</t>
+    <t xml:space="preserve">0.409251362085342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464994162321091</t>
+    <t xml:space="preserve">0.464994192123413</t>
   </si>
   <si>
     <t xml:space="preserve">0.412426650524139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419835478067398</t>
+    <t xml:space="preserve">0.41983550786972</t>
   </si>
   <si>
     <t xml:space="preserve">0.388788789510727</t>
@@ -467,7 +467,7 @@
     <t xml:space="preserve">0.36585658788681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353508502244949</t>
+    <t xml:space="preserve">0.353508532047272</t>
   </si>
   <si>
     <t xml:space="preserve">0.366562217473984</t>
@@ -476,58 +476,58 @@
     <t xml:space="preserve">0.375382304191589</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361270219087601</t>
+    <t xml:space="preserve">0.361270189285278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391611188650131</t>
+    <t xml:space="preserve">0.391611218452454</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383143931627274</t>
+    <t xml:space="preserve">0.383143961429596</t>
   </si>
   <si>
     <t xml:space="preserve">0.366914987564087</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35738930106163</t>
+    <t xml:space="preserve">0.357389330863953</t>
   </si>
   <si>
     <t xml:space="preserve">0.360564529895782</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373971074819565</t>
+    <t xml:space="preserve">0.373971045017242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370443046092987</t>
+    <t xml:space="preserve">0.370443075895309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356330931186676</t>
+    <t xml:space="preserve">0.356330901384354</t>
   </si>
   <si>
     <t xml:space="preserve">0.364092588424683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352802872657776</t>
+    <t xml:space="preserve">0.352802902460098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349980503320694</t>
+    <t xml:space="preserve">0.349980473518372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.375735104084015</t>
+    <t xml:space="preserve">0.375735133886337</t>
   </si>
   <si>
     <t xml:space="preserve">0.357036530971527</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355625361204147</t>
+    <t xml:space="preserve">0.355625331401825</t>
   </si>
   <si>
     <t xml:space="preserve">0.368679016828537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36268138885498</t>
+    <t xml:space="preserve">0.362681418657303</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368326246738434</t>
+    <t xml:space="preserve">0.368326216936111</t>
   </si>
   <si>
     <t xml:space="preserve">0.338690757751465</t>
@@ -545,28 +545,28 @@
     <t xml:space="preserve">0.365503817796707</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402195274829865</t>
+    <t xml:space="preserve">0.402195245027542</t>
   </si>
   <si>
     <t xml:space="preserve">0.381027162075043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.381732702255249</t>
+    <t xml:space="preserve">0.381732732057571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358447730541229</t>
+    <t xml:space="preserve">0.358447760343552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37926310300827</t>
+    <t xml:space="preserve">0.379263132810593</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353155732154846</t>
+    <t xml:space="preserve">0.353155702352524</t>
   </si>
   <si>
     <t xml:space="preserve">0.367973417043686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437475621700287</t>
+    <t xml:space="preserve">0.437475651502609</t>
   </si>
   <si>
     <t xml:space="preserve">0.414896160364151</t>
@@ -578,79 +578,79 @@
     <t xml:space="preserve">0.415601819753647</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408192962408066</t>
+    <t xml:space="preserve">0.408192902803421</t>
   </si>
   <si>
     <t xml:space="preserve">0.416307419538498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387377589941025</t>
+    <t xml:space="preserve">0.387377619743347</t>
   </si>
   <si>
-    <t xml:space="preserve">0.392669647932053</t>
+    <t xml:space="preserve">0.39266961812973</t>
   </si>
   <si>
     <t xml:space="preserve">0.397961646318436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412073820829391</t>
+    <t xml:space="preserve">0.412073850631714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436417192220688</t>
+    <t xml:space="preserve">0.436417132616043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.43959242105484</t>
+    <t xml:space="preserve">0.439592391252518</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424069076776505</t>
+    <t xml:space="preserve">0.424069106578827</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423363476991653</t>
+    <t xml:space="preserve">0.423363417387009</t>
   </si>
   <si>
-    <t xml:space="preserve">0.43465319275856</t>
+    <t xml:space="preserve">0.434653162956238</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423716276884079</t>
+    <t xml:space="preserve">0.423716247081757</t>
   </si>
   <si>
     <t xml:space="preserve">0.45793816447258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465699821710587</t>
+    <t xml:space="preserve">0.465699791908264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440298050642014</t>
+    <t xml:space="preserve">0.440298020839691</t>
   </si>
   <si>
     <t xml:space="preserve">0.423010677099228</t>
   </si>
   <si>
-    <t xml:space="preserve">0.433947622776031</t>
+    <t xml:space="preserve">0.433947592973709</t>
   </si>
   <si>
-    <t xml:space="preserve">0.529204368591309</t>
+    <t xml:space="preserve">0.529204308986664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493218421936035</t>
+    <t xml:space="preserve">0.493218451738358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.508036196231842</t>
+    <t xml:space="preserve">0.508036136627197</t>
   </si>
   <si>
     <t xml:space="preserve">0.486867964267731</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4918073117733</t>
+    <t xml:space="preserve">0.491807281970978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.500980138778687</t>
+    <t xml:space="preserve">0.500980079174042</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493924081325531</t>
+    <t xml:space="preserve">0.493924111127853</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474167019128799</t>
+    <t xml:space="preserve">0.474167078733444</t>
   </si>
   <si>
     <t xml:space="preserve">0.476989507675171</t>
@@ -659,79 +659,79 @@
     <t xml:space="preserve">0.472755908966064</t>
   </si>
   <si>
-    <t xml:space="preserve">0.460054993629456</t>
+    <t xml:space="preserve">0.460055023431778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.455821394920349</t>
+    <t xml:space="preserve">0.455821365118027</t>
   </si>
   <si>
     <t xml:space="preserve">0.458643734455109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464288592338562</t>
+    <t xml:space="preserve">0.464288622140884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451587706804276</t>
+    <t xml:space="preserve">0.451587677001953</t>
   </si>
   <si>
     <t xml:space="preserve">0.485456794500351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.468522280454636</t>
+    <t xml:space="preserve">0.468522220849991</t>
   </si>
   <si>
     <t xml:space="preserve">0.519325852394104</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47981196641922</t>
+    <t xml:space="preserve">0.479811936616898</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448765248060226</t>
+    <t xml:space="preserve">0.448765218257904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.469933450222015</t>
+    <t xml:space="preserve">0.469933480024338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.475578278303146</t>
+    <t xml:space="preserve">0.475578308105469</t>
   </si>
   <si>
     <t xml:space="preserve">0.461466133594513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.447354108095169</t>
+    <t xml:space="preserve">0.447354137897491</t>
   </si>
   <si>
     <t xml:space="preserve">0.45441010594368</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429008305072784</t>
+    <t xml:space="preserve">0.429008334875107</t>
   </si>
   <si>
-    <t xml:space="preserve">0.430419564247131</t>
+    <t xml:space="preserve">0.430419534444809</t>
   </si>
   <si>
     <t xml:space="preserve">0.436064332723618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452998906373978</t>
+    <t xml:space="preserve">0.452998965978622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.484045565128326</t>
+    <t xml:space="preserve">0.484045594930649</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47134467959404</t>
+    <t xml:space="preserve">0.471344709396362</t>
   </si>
   <si>
     <t xml:space="preserve">0.457232534885406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44312047958374</t>
+    <t xml:space="preserve">0.443120449781418</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46287739276886</t>
+    <t xml:space="preserve">0.462877422571182</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450176537036896</t>
+    <t xml:space="preserve">0.450176566839218</t>
   </si>
   <si>
     <t xml:space="preserve">0.467110991477966</t>
@@ -740,22 +740,22 @@
     <t xml:space="preserve">0.406428903341293</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410662591457367</t>
+    <t xml:space="preserve">0.410662531852722</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40784016251564</t>
+    <t xml:space="preserve">0.407840132713318</t>
   </si>
   <si>
     <t xml:space="preserve">0.382438331842422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369737446308136</t>
+    <t xml:space="preserve">0.369737416505814</t>
   </si>
   <si>
-    <t xml:space="preserve">0.403606563806534</t>
+    <t xml:space="preserve">0.403606534004211</t>
   </si>
   <si>
-    <t xml:space="preserve">0.400784134864807</t>
+    <t xml:space="preserve">0.400784105062485</t>
   </si>
   <si>
     <t xml:space="preserve">0.386671960353851</t>
@@ -764,61 +764,61 @@
     <t xml:space="preserve">0.378204733133316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379615902900696</t>
+    <t xml:space="preserve">0.379615873098373</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388083219528198</t>
+    <t xml:space="preserve">0.388083189725876</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417718678712845</t>
+    <t xml:space="preserve">0.4177186191082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.433241993188858</t>
+    <t xml:space="preserve">0.433241933584213</t>
   </si>
   <si>
-    <t xml:space="preserve">0.396550476551056</t>
+    <t xml:space="preserve">0.396550446748734</t>
   </si>
   <si>
     <t xml:space="preserve">0.405017703771591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424774706363678</t>
+    <t xml:space="preserve">0.424774736166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421952307224274</t>
+    <t xml:space="preserve">0.421952277421951</t>
   </si>
   <si>
     <t xml:space="preserve">0.419129818677902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431830763816833</t>
+    <t xml:space="preserve">0.431830734014511</t>
   </si>
   <si>
     <t xml:space="preserve">0.438886791467667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.441709250211716</t>
+    <t xml:space="preserve">0.441709220409393</t>
   </si>
   <si>
-    <t xml:space="preserve">0.476283878087997</t>
+    <t xml:space="preserve">0.476283967494965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.483339935541153</t>
+    <t xml:space="preserve">0.483339995145798</t>
   </si>
   <si>
     <t xml:space="preserve">0.504508137702942</t>
   </si>
   <si>
-    <t xml:space="preserve">0.511564135551453</t>
+    <t xml:space="preserve">0.511564254760742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.520832777023315</t>
+    <t xml:space="preserve">0.520832717418671</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497511893510818</t>
+    <t xml:space="preserve">0.497511833906174</t>
   </si>
   <si>
-    <t xml:space="preserve">0.481964617967606</t>
+    <t xml:space="preserve">0.48196467757225</t>
   </si>
   <si>
     <t xml:space="preserve">0.46641743183136</t>
@@ -830,37 +830,37 @@
     <t xml:space="preserve">0.48973822593689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493625074625015</t>
+    <t xml:space="preserve">0.493625104427338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.485851526260376</t>
+    <t xml:space="preserve">0.485851496458054</t>
   </si>
   <si>
-    <t xml:space="preserve">0.470304220914841</t>
+    <t xml:space="preserve">0.470304191112518</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450870126485825</t>
+    <t xml:space="preserve">0.450870096683502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.462530642747879</t>
+    <t xml:space="preserve">0.462530583143234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.435322910547256</t>
+    <t xml:space="preserve">0.435322880744934</t>
   </si>
   <si>
-    <t xml:space="preserve">0.439209759235382</t>
+    <t xml:space="preserve">0.43920972943306</t>
   </si>
   <si>
     <t xml:space="preserve">0.454756915569305</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474191069602966</t>
+    <t xml:space="preserve">0.474191009998322</t>
   </si>
   <si>
     <t xml:space="preserve">0.501398682594299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.590795397758484</t>
+    <t xml:space="preserve">0.590795338153839</t>
   </si>
   <si>
     <t xml:space="preserve">0.505285501480103</t>
@@ -872,10 +872,10 @@
     <t xml:space="preserve">0.509172260761261</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446983367204666</t>
+    <t xml:space="preserve">0.446983307600021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.443096488714218</t>
+    <t xml:space="preserve">0.443096518516541</t>
   </si>
   <si>
     <t xml:space="preserve">0.427549302577972</t>
@@ -887,37 +887,37 @@
     <t xml:space="preserve">0.404228389263153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415888845920563</t>
+    <t xml:space="preserve">0.415888875722885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431436061859131</t>
+    <t xml:space="preserve">0.431436091661453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412001997232437</t>
+    <t xml:space="preserve">0.412001967430115</t>
   </si>
   <si>
     <t xml:space="preserve">0.3824622631073</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380907535552979</t>
+    <t xml:space="preserve">0.380907565355301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.396454721689224</t>
+    <t xml:space="preserve">0.396454781293869</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388681173324585</t>
+    <t xml:space="preserve">0.388681143522263</t>
   </si>
   <si>
     <t xml:space="preserve">0.373133897781372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349813044071198</t>
+    <t xml:space="preserve">0.349813014268875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352922469377518</t>
+    <t xml:space="preserve">0.35292249917984</t>
   </si>
   <si>
-    <t xml:space="preserve">0.326492130756378</t>
+    <t xml:space="preserve">0.326492160558701</t>
   </si>
   <si>
     <t xml:space="preserve">0.290733486413956</t>
@@ -926,10 +926,10 @@
     <t xml:space="preserve">0.312499642372131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.295397698879242</t>
+    <t xml:space="preserve">0.29539766907692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.306280761957169</t>
+    <t xml:space="preserve">0.306280732154846</t>
   </si>
   <si>
     <t xml:space="preserve">0.293842941522598</t>
@@ -938,10 +938,10 @@
     <t xml:space="preserve">0.279850453138351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273631483316422</t>
+    <t xml:space="preserve">0.273631542921066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.320273250341415</t>
+    <t xml:space="preserve">0.320273280143738</t>
   </si>
   <si>
     <t xml:space="preserve">0.321828007698059</t>
@@ -950,22 +950,22 @@
     <t xml:space="preserve">0.304726034402847</t>
   </si>
   <si>
-    <t xml:space="preserve">0.31405434012413</t>
+    <t xml:space="preserve">0.314054399728775</t>
   </si>
   <si>
-    <t xml:space="preserve">0.315609067678452</t>
+    <t xml:space="preserve">0.315609097480774</t>
   </si>
   <si>
     <t xml:space="preserve">0.331156343221664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34048467874527</t>
+    <t xml:space="preserve">0.340484708547592</t>
   </si>
   <si>
     <t xml:space="preserve">0.346703618764877</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379352778196335</t>
+    <t xml:space="preserve">0.379352807998657</t>
   </si>
   <si>
     <t xml:space="preserve">0.365360289812088</t>
@@ -977,16 +977,16 @@
     <t xml:space="preserve">0.38557168841362</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408115178346634</t>
+    <t xml:space="preserve">0.408115208148956</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423662483692169</t>
+    <t xml:space="preserve">0.423662453889847</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368469744920731</t>
+    <t xml:space="preserve">0.368469774723053</t>
   </si>
   <si>
-    <t xml:space="preserve">0.371579200029373</t>
+    <t xml:space="preserve">0.371579170227051</t>
   </si>
   <si>
     <t xml:space="preserve">0.377798110246658</t>
@@ -1001,10 +1001,10 @@
     <t xml:space="preserve">0.362250834703445</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363805592060089</t>
+    <t xml:space="preserve">0.363805562257767</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360696107149124</t>
+    <t xml:space="preserve">0.360696077346802</t>
   </si>
   <si>
     <t xml:space="preserve">0.357586681842804</t>
@@ -1013,7 +1013,7 @@
     <t xml:space="preserve">0.343594133853912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356031894683838</t>
+    <t xml:space="preserve">0.356031954288483</t>
   </si>
   <si>
     <t xml:space="preserve">0.342039406299591</t>
@@ -1025,7 +1025,7 @@
     <t xml:space="preserve">0.318718552589417</t>
   </si>
   <si>
-    <t xml:space="preserve">0.323382765054703</t>
+    <t xml:space="preserve">0.32338273525238</t>
   </si>
   <si>
     <t xml:space="preserve">0.296952396631241</t>
@@ -1034,7 +1034,7 @@
     <t xml:space="preserve">0.300061851739883</t>
   </si>
   <si>
-    <t xml:space="preserve">0.292288213968277</t>
+    <t xml:space="preserve">0.292288243770599</t>
   </si>
   <si>
     <t xml:space="preserve">0.298507153987885</t>
@@ -1049,10 +1049,10 @@
     <t xml:space="preserve">0.328046888113022</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332711040973663</t>
+    <t xml:space="preserve">0.332711070775986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.324937492609024</t>
+    <t xml:space="preserve">0.324937462806702</t>
   </si>
   <si>
     <t xml:space="preserve">0.482500702142715</t>
@@ -1061,7 +1061,7 @@
     <t xml:space="preserve">0.44864097237587</t>
   </si>
   <si>
-    <t xml:space="preserve">0.43594366312027</t>
+    <t xml:space="preserve">0.435943633317947</t>
   </si>
   <si>
     <t xml:space="preserve">0.423246264457703</t>
@@ -1076,7 +1076,7 @@
     <t xml:space="preserve">0.40800940990448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.427478700876236</t>
+    <t xml:space="preserve">0.427478730678558</t>
   </si>
   <si>
     <t xml:space="preserve">0.419860273599625</t>
@@ -1085,16 +1085,16 @@
     <t xml:space="preserve">0.409702390432358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.392772525548935</t>
+    <t xml:space="preserve">0.392772495746613</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386000603437424</t>
+    <t xml:space="preserve">0.386000573635101</t>
   </si>
   <si>
-    <t xml:space="preserve">0.384307593107224</t>
+    <t xml:space="preserve">0.384307622909546</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380921602249146</t>
+    <t xml:space="preserve">0.380921632051468</t>
   </si>
   <si>
     <t xml:space="preserve">0.396158486604691</t>
@@ -1106,7 +1106,7 @@
     <t xml:space="preserve">0.394465535879135</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377535670995712</t>
+    <t xml:space="preserve">0.377535700798035</t>
   </si>
   <si>
     <t xml:space="preserve">0.375842690467834</t>
@@ -1118,7 +1118,7 @@
     <t xml:space="preserve">0.490965634584427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461338430643082</t>
+    <t xml:space="preserve">0.461338400840759</t>
   </si>
   <si>
     <t xml:space="preserve">0.507895529270172</t>
@@ -1127,7 +1127,7 @@
     <t xml:space="preserve">0.499430567026138</t>
   </si>
   <si>
-    <t xml:space="preserve">0.495198100805283</t>
+    <t xml:space="preserve">0.495198130607605</t>
   </si>
   <si>
     <t xml:space="preserve">0.46557092666626</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">0.440176069736481</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431711167097092</t>
+    <t xml:space="preserve">0.431711196899414</t>
   </si>
   <si>
     <t xml:space="preserve">0.444408565759659</t>
@@ -1157,7 +1157,7 @@
     <t xml:space="preserve">0.397851496934891</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387693554162979</t>
+    <t xml:space="preserve">0.387693583965302</t>
   </si>
   <si>
     <t xml:space="preserve">0.382614612579346</t>
@@ -1172,13 +1172,13 @@
     <t xml:space="preserve">0.413088351488113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402930438518524</t>
+    <t xml:space="preserve">0.402930468320847</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355526834726334</t>
+    <t xml:space="preserve">0.355526864528656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.336904019117355</t>
+    <t xml:space="preserve">0.336904048919678</t>
   </si>
   <si>
     <t xml:space="preserve">0.338597029447556</t>
@@ -1187,22 +1187,22 @@
     <t xml:space="preserve">0.357219845056534</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358912825584412</t>
+    <t xml:space="preserve">0.358912855386734</t>
   </si>
   <si>
     <t xml:space="preserve">0.363991796970367</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367377758026123</t>
+    <t xml:space="preserve">0.367377728223801</t>
   </si>
   <si>
     <t xml:space="preserve">0.370763719081879</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372456729412079</t>
+    <t xml:space="preserve">0.372456699609756</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379228681325912</t>
+    <t xml:space="preserve">0.37922865152359</t>
   </si>
   <si>
     <t xml:space="preserve">0.369070738554001</t>
@@ -1211,31 +1211,31 @@
     <t xml:space="preserve">0.347061932086945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345368951559067</t>
+    <t xml:space="preserve">0.345368981361389</t>
   </si>
   <si>
     <t xml:space="preserve">0.340290009975433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3521409034729</t>
+    <t xml:space="preserve">0.352140933275223</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362298786640167</t>
+    <t xml:space="preserve">0.36229881644249</t>
   </si>
   <si>
     <t xml:space="preserve">0.356533944606781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361855328083038</t>
+    <t xml:space="preserve">0.361855357885361</t>
   </si>
   <si>
     <t xml:space="preserve">0.352986335754395</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358307719230652</t>
+    <t xml:space="preserve">0.358307749032974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372498095035553</t>
+    <t xml:space="preserve">0.372498124837875</t>
   </si>
   <si>
     <t xml:space="preserve">0.374271929264069</t>
@@ -1259,7 +1259,7 @@
     <t xml:space="preserve">0.338795900344849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354760140180588</t>
+    <t xml:space="preserve">0.35476016998291</t>
   </si>
   <si>
     <t xml:space="preserve">0.337022125720978</t>
@@ -1271,7 +1271,7 @@
     <t xml:space="preserve">0.326379328966141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317510336637497</t>
+    <t xml:space="preserve">0.317510306835175</t>
   </si>
   <si>
     <t xml:space="preserve">0.322831720113754</t>
@@ -1280,7 +1280,7 @@
     <t xml:space="preserve">0.31396272778511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.310415118932724</t>
+    <t xml:space="preserve">0.310415089130402</t>
   </si>
   <si>
     <t xml:space="preserve">0.312188893556595</t>
@@ -1310,13 +1310,13 @@
     <t xml:space="preserve">0.345891088247299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.324605524539948</t>
+    <t xml:space="preserve">0.324605494737625</t>
   </si>
   <si>
     <t xml:space="preserve">0.388462334871292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379593312740326</t>
+    <t xml:space="preserve">0.379593342542648</t>
   </si>
   <si>
     <t xml:space="preserve">0.381367146968842</t>
@@ -1325,13 +1325,13 @@
     <t xml:space="preserve">0.383140951395035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.376045733690262</t>
+    <t xml:space="preserve">0.376045763492584</t>
   </si>
   <si>
     <t xml:space="preserve">0.377819538116455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395557582378387</t>
+    <t xml:space="preserve">0.395557552576065</t>
   </si>
   <si>
     <t xml:space="preserve">0.331567615270615</t>
@@ -1458,6 +1458,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.321999996900558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.324000000953674</t>
   </si>
 </sst>
 </file>
@@ -58349,7 +58352,7 @@
     </row>
     <row r="2176">
       <c r="A2176" s="1" t="n">
-        <v>45491.6178819444</v>
+        <v>45491.2916666667</v>
       </c>
       <c r="B2176" t="n">
         <v>196000</v>
@@ -58370,6 +58373,32 @@
         <v>481</v>
       </c>
       <c r="H2176" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" s="1" t="n">
+        <v>45492.6416666667</v>
+      </c>
+      <c r="B2177" t="n">
+        <v>28000</v>
+      </c>
+      <c r="C2177" t="n">
+        <v>0.324000000953674</v>
+      </c>
+      <c r="D2177" t="n">
+        <v>0.319999992847443</v>
+      </c>
+      <c r="E2177" t="n">
+        <v>0.319999992847443</v>
+      </c>
+      <c r="F2177" t="n">
+        <v>0.324000000953674</v>
+      </c>
+      <c r="G2177" t="s">
+        <v>482</v>
+      </c>
+      <c r="H2177" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/POPR.MI.xlsx
+++ b/data/POPR.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.197569623589516</t>
+    <t xml:space="preserve">0.197569608688354</t>
   </si>
   <si>
     <t xml:space="preserve">POPR.MI</t>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">0.198275223374367</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194041594862938</t>
+    <t xml:space="preserve">0.19404162466526</t>
   </si>
   <si>
     <t xml:space="preserve">0.192630380392075</t>
@@ -65,64 +65,64 @@
     <t xml:space="preserve">0.160878121852875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168145850300789</t>
+    <t xml:space="preserve">0.168145880103111</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162994965910912</t>
+    <t xml:space="preserve">0.16299495100975</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171462208032608</t>
+    <t xml:space="preserve">0.171462222933769</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172167837619781</t>
+    <t xml:space="preserve">0.17216782271862</t>
   </si>
   <si>
     <t xml:space="preserve">0.16927482187748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164406135678291</t>
+    <t xml:space="preserve">0.164406150579453</t>
   </si>
   <si>
     <t xml:space="preserve">0.15699727833271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156644478440285</t>
+    <t xml:space="preserve">0.156644493341446</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157067865133286</t>
+    <t xml:space="preserve">0.157067850232124</t>
   </si>
   <si>
     <t xml:space="preserve">0.159466907382011</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155938863754272</t>
+    <t xml:space="preserve">0.155938878655434</t>
   </si>
   <si>
     <t xml:space="preserve">0.169627636671066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191219180822372</t>
+    <t xml:space="preserve">0.191219165921211</t>
   </si>
   <si>
     <t xml:space="preserve">0.187267780303955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183457493782043</t>
+    <t xml:space="preserve">0.183457508683205</t>
   </si>
   <si>
     <t xml:space="preserve">0.176401451230049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173579052090645</t>
+    <t xml:space="preserve">0.173579037189484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16793417930603</t>
+    <t xml:space="preserve">0.167934194207191</t>
   </si>
   <si>
     <t xml:space="preserve">0.174778565764427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180635094642639</t>
+    <t xml:space="preserve">0.1806351095438</t>
   </si>
   <si>
     <t xml:space="preserve">0.178447708487511</t>
@@ -137,49 +137,49 @@
     <t xml:space="preserve">0.191924795508385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186279952526093</t>
+    <t xml:space="preserve">0.18627992272377</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211681723594666</t>
+    <t xml:space="preserve">0.211681768298149</t>
   </si>
   <si>
-    <t xml:space="preserve">0.216268181800842</t>
+    <t xml:space="preserve">0.216268166899681</t>
   </si>
   <si>
     <t xml:space="preserve">0.215209767222404</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206742510199547</t>
+    <t xml:space="preserve">0.206742525100708</t>
   </si>
   <si>
     <t xml:space="preserve">0.20392008125782</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225793853402138</t>
+    <t xml:space="preserve">0.225793838500977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234261140227318</t>
+    <t xml:space="preserve">0.234261125326157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225723281502724</t>
+    <t xml:space="preserve">0.225723296403885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220854595303535</t>
+    <t xml:space="preserve">0.220854610204697</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21803218126297</t>
+    <t xml:space="preserve">0.218032196164131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.201097637414932</t>
+    <t xml:space="preserve">0.201097667217255</t>
   </si>
   <si>
-    <t xml:space="preserve">0.204625681042671</t>
+    <t xml:space="preserve">0.20462566614151</t>
   </si>
   <si>
     <t xml:space="preserve">0.190654709935188</t>
   </si>
   <si>
-    <t xml:space="preserve">0.189102351665497</t>
+    <t xml:space="preserve">0.189102366566658</t>
   </si>
   <si>
     <t xml:space="preserve">0.182751908898354</t>
@@ -194,25 +194,25 @@
     <t xml:space="preserve">0.176330894231796</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170756578445435</t>
+    <t xml:space="preserve">0.170756593346596</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172873437404633</t>
+    <t xml:space="preserve">0.172873422503471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176965951919556</t>
+    <t xml:space="preserve">0.176965937018394</t>
   </si>
   <si>
     <t xml:space="preserve">0.208859324455261</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210976123809814</t>
+    <t xml:space="preserve">0.210976138710976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206036880612373</t>
+    <t xml:space="preserve">0.206036895513535</t>
   </si>
   <si>
-    <t xml:space="preserve">0.203990623354912</t>
+    <t xml:space="preserve">0.203990653157234</t>
   </si>
   <si>
     <t xml:space="preserve">0.187691152095795</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">0.177812665700912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185433208942413</t>
+    <t xml:space="preserve">0.185433194041252</t>
   </si>
   <si>
     <t xml:space="preserve">0.191571965813637</t>
@@ -245,43 +245,43 @@
     <t xml:space="preserve">0.193335980176926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.204978466033936</t>
+    <t xml:space="preserve">0.204978480935097</t>
   </si>
   <si>
     <t xml:space="preserve">0.225088253617287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.217326611280441</t>
+    <t xml:space="preserve">0.21732659637928</t>
   </si>
   <si>
     <t xml:space="preserve">0.199968680739403</t>
   </si>
   <si>
-    <t xml:space="preserve">0.214151382446289</t>
+    <t xml:space="preserve">0.214151367545128</t>
   </si>
   <si>
     <t xml:space="preserve">0.225652724504471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218737810850143</t>
+    <t xml:space="preserve">0.218737795948982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.215280339121819</t>
+    <t xml:space="preserve">0.215280324220657</t>
   </si>
   <si>
-    <t xml:space="preserve">0.224382638931274</t>
+    <t xml:space="preserve">0.224382653832436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.239200353622437</t>
+    <t xml:space="preserve">0.239200383424759</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243363440036774</t>
+    <t xml:space="preserve">0.243363469839096</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261074155569077</t>
+    <t xml:space="preserve">0.261074125766754</t>
   </si>
   <si>
-    <t xml:space="preserve">0.267424643039703</t>
+    <t xml:space="preserve">0.267424613237381</t>
   </si>
   <si>
     <t xml:space="preserve">0.282242327928543</t>
@@ -290,16 +290,16 @@
     <t xml:space="preserve">0.299882471561432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309055358171463</t>
+    <t xml:space="preserve">0.309055328369141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325989931821823</t>
+    <t xml:space="preserve">0.325989902019501</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335162699222565</t>
+    <t xml:space="preserve">0.335162758827209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.289298415184021</t>
+    <t xml:space="preserve">0.289298355579376</t>
   </si>
   <si>
     <t xml:space="preserve">0.292050212621689</t>
@@ -308,58 +308,58 @@
     <t xml:space="preserve">0.28090164065361</t>
   </si>
   <si>
-    <t xml:space="preserve">0.280831128358841</t>
+    <t xml:space="preserve">0.280831098556519</t>
   </si>
   <si>
-    <t xml:space="preserve">0.272575527429581</t>
+    <t xml:space="preserve">0.272575557231903</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273069471120834</t>
+    <t xml:space="preserve">0.273069441318512</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273210555315018</t>
+    <t xml:space="preserve">0.273210525512695</t>
   </si>
   <si>
     <t xml:space="preserve">0.257546126842499</t>
   </si>
   <si>
-    <t xml:space="preserve">0.262485355138779</t>
+    <t xml:space="preserve">0.262485384941101</t>
   </si>
   <si>
-    <t xml:space="preserve">0.236377939581871</t>
+    <t xml:space="preserve">0.23637792468071</t>
   </si>
   <si>
     <t xml:space="preserve">0.232285425066948</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237789154052734</t>
+    <t xml:space="preserve">0.237789168953896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234331667423248</t>
+    <t xml:space="preserve">0.234331697225571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.26671901345253</t>
+    <t xml:space="preserve">0.266718983650208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.275186240673065</t>
+    <t xml:space="preserve">0.275186270475388</t>
   </si>
   <si>
-    <t xml:space="preserve">0.259098440408707</t>
+    <t xml:space="preserve">0.259098410606384</t>
   </si>
   <si>
     <t xml:space="preserve">0.255429267883301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.264602154493332</t>
+    <t xml:space="preserve">0.264602184295654</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254018068313599</t>
+    <t xml:space="preserve">0.254018098115921</t>
   </si>
   <si>
     <t xml:space="preserve">0.250490039587021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243433982133865</t>
+    <t xml:space="preserve">0.243433967232704</t>
   </si>
   <si>
     <t xml:space="preserve">0.249643340706825</t>
@@ -368,70 +368,70 @@
     <t xml:space="preserve">0.239270925521851</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225864440202713</t>
+    <t xml:space="preserve">0.225864410400391</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229321852326393</t>
+    <t xml:space="preserve">0.229321867227554</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232144325971603</t>
+    <t xml:space="preserve">0.232144311070442</t>
   </si>
   <si>
     <t xml:space="preserve">0.231438726186752</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232849925756454</t>
+    <t xml:space="preserve">0.232849910855293</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234402224421501</t>
+    <t xml:space="preserve">0.234402239322662</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237930297851562</t>
+    <t xml:space="preserve">0.237930253148079</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253312468528748</t>
+    <t xml:space="preserve">0.25331249833107</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246820896863937</t>
+    <t xml:space="preserve">0.246820911765099</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247879326343536</t>
+    <t xml:space="preserve">0.247879296541214</t>
   </si>
   <si>
-    <t xml:space="preserve">0.257616639137268</t>
+    <t xml:space="preserve">0.25761666893959</t>
   </si>
   <si>
     <t xml:space="preserve">0.263120412826538</t>
   </si>
   <si>
-    <t xml:space="preserve">0.252042382955551</t>
+    <t xml:space="preserve">0.252042353153229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246962025761604</t>
+    <t xml:space="preserve">0.246962040662766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.24667976796627</t>
+    <t xml:space="preserve">0.246679812669754</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243504539132118</t>
+    <t xml:space="preserve">0.243504554033279</t>
   </si>
   <si>
     <t xml:space="preserve">0.259662926197052</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243645668029785</t>
+    <t xml:space="preserve">0.243645682930946</t>
   </si>
   <si>
     <t xml:space="preserve">0.250701755285263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333610385656357</t>
+    <t xml:space="preserve">0.333610415458679</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395139247179031</t>
+    <t xml:space="preserve">0.395139217376709</t>
   </si>
   <si>
-    <t xml:space="preserve">0.522148311138153</t>
+    <t xml:space="preserve">0.522148251533508</t>
   </si>
   <si>
     <t xml:space="preserve">0.612465798854828</t>
@@ -440,28 +440,28 @@
     <t xml:space="preserve">0.535554766654968</t>
   </si>
   <si>
-    <t xml:space="preserve">0.490395992994308</t>
+    <t xml:space="preserve">0.490396022796631</t>
   </si>
   <si>
-    <t xml:space="preserve">0.473814308643341</t>
+    <t xml:space="preserve">0.473814278841019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444531589746475</t>
+    <t xml:space="preserve">0.44453164935112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409251362085342</t>
+    <t xml:space="preserve">0.40925133228302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464994162321091</t>
+    <t xml:space="preserve">0.464994192123413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412426650524139</t>
+    <t xml:space="preserve">0.412426620721817</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419835478067398</t>
+    <t xml:space="preserve">0.419835448265076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388788789510727</t>
+    <t xml:space="preserve">0.388788759708405</t>
   </si>
   <si>
     <t xml:space="preserve">0.365856558084488</t>
@@ -470,28 +470,28 @@
     <t xml:space="preserve">0.353508502244949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366562187671661</t>
+    <t xml:space="preserve">0.366562247276306</t>
   </si>
   <si>
     <t xml:space="preserve">0.375382304191589</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361270189285278</t>
+    <t xml:space="preserve">0.361270219087601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391611188650131</t>
+    <t xml:space="preserve">0.391611218452454</t>
   </si>
   <si>
     <t xml:space="preserve">0.383143931627274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366914987564087</t>
+    <t xml:space="preserve">0.366915017366409</t>
   </si>
   <si>
     <t xml:space="preserve">0.357389330863953</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360564529895782</t>
+    <t xml:space="preserve">0.360564559698105</t>
   </si>
   <si>
     <t xml:space="preserve">0.373971074819565</t>
@@ -503,13 +503,13 @@
     <t xml:space="preserve">0.356330901384354</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36409255862236</t>
+    <t xml:space="preserve">0.364092588424683</t>
   </si>
   <si>
     <t xml:space="preserve">0.352802902460098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349980443716049</t>
+    <t xml:space="preserve">0.349980473518372</t>
   </si>
   <si>
     <t xml:space="preserve">0.375735133886337</t>
@@ -524,7 +524,7 @@
     <t xml:space="preserve">0.368679016828537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36268138885498</t>
+    <t xml:space="preserve">0.362681359052658</t>
   </si>
   <si>
     <t xml:space="preserve">0.368326246738434</t>
@@ -536,7 +536,7 @@
     <t xml:space="preserve">0.348569244146347</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349204272031784</t>
+    <t xml:space="preserve">0.349204301834106</t>
   </si>
   <si>
     <t xml:space="preserve">0.359858959913254</t>
@@ -545,13 +545,13 @@
     <t xml:space="preserve">0.365503817796707</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402195274829865</t>
+    <t xml:space="preserve">0.402195334434509</t>
   </si>
   <si>
     <t xml:space="preserve">0.381027162075043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.381732732057571</t>
+    <t xml:space="preserve">0.381732761859894</t>
   </si>
   <si>
     <t xml:space="preserve">0.358447760343552</t>
@@ -563,136 +563,136 @@
     <t xml:space="preserve">0.353155702352524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367973387241364</t>
+    <t xml:space="preserve">0.367973446846008</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437475621700287</t>
+    <t xml:space="preserve">0.437475591897964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414896160364151</t>
+    <t xml:space="preserve">0.414896219968796</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414190620183945</t>
+    <t xml:space="preserve">0.414190590381622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415601819753647</t>
+    <t xml:space="preserve">0.415601789951324</t>
   </si>
   <si>
     <t xml:space="preserve">0.408192932605743</t>
   </si>
   <si>
-    <t xml:space="preserve">0.416307389736176</t>
+    <t xml:space="preserve">0.416307419538498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387377619743347</t>
+    <t xml:space="preserve">0.387377589941025</t>
   </si>
   <si>
-    <t xml:space="preserve">0.39266961812973</t>
+    <t xml:space="preserve">0.392669647932053</t>
   </si>
   <si>
     <t xml:space="preserve">0.397961676120758</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412073761224747</t>
+    <t xml:space="preserve">0.412073791027069</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436417162418365</t>
+    <t xml:space="preserve">0.436417192220688</t>
   </si>
   <si>
     <t xml:space="preserve">0.43959242105484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424069076776505</t>
+    <t xml:space="preserve">0.424069046974182</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423363447189331</t>
+    <t xml:space="preserve">0.423363536596298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434653222560883</t>
+    <t xml:space="preserve">0.43465319275856</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423716276884079</t>
+    <t xml:space="preserve">0.423716306686401</t>
   </si>
   <si>
     <t xml:space="preserve">0.457938194274902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465699851512909</t>
+    <t xml:space="preserve">0.465699821710587</t>
   </si>
   <si>
     <t xml:space="preserve">0.440298020839691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423010647296906</t>
+    <t xml:space="preserve">0.423010677099228</t>
   </si>
   <si>
-    <t xml:space="preserve">0.433947533369064</t>
+    <t xml:space="preserve">0.433947563171387</t>
   </si>
   <si>
-    <t xml:space="preserve">0.529204308986664</t>
+    <t xml:space="preserve">0.529204368591309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493218392133713</t>
+    <t xml:space="preserve">0.493218421936035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.508036136627197</t>
+    <t xml:space="preserve">0.508036196231842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.486867964267731</t>
+    <t xml:space="preserve">0.486867934465408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4918073117733</t>
+    <t xml:space="preserve">0.491807252168655</t>
   </si>
   <si>
     <t xml:space="preserve">0.500980079174042</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493924051523209</t>
+    <t xml:space="preserve">0.493924081325531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474167108535767</t>
+    <t xml:space="preserve">0.474167048931122</t>
   </si>
   <si>
     <t xml:space="preserve">0.476989507675171</t>
   </si>
   <si>
-    <t xml:space="preserve">0.472755879163742</t>
+    <t xml:space="preserve">0.47275584936142</t>
   </si>
   <si>
-    <t xml:space="preserve">0.460054993629456</t>
+    <t xml:space="preserve">0.460054963827133</t>
   </si>
   <si>
-    <t xml:space="preserve">0.455821394920349</t>
+    <t xml:space="preserve">0.455821365118027</t>
   </si>
   <si>
-    <t xml:space="preserve">0.458643704652786</t>
+    <t xml:space="preserve">0.458643734455109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464288651943207</t>
+    <t xml:space="preserve">0.464288622140884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451587706804276</t>
+    <t xml:space="preserve">0.451587677001953</t>
   </si>
   <si>
-    <t xml:space="preserve">0.485456824302673</t>
+    <t xml:space="preserve">0.485456794500351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.468522280454636</t>
+    <t xml:space="preserve">0.468522250652313</t>
   </si>
   <si>
     <t xml:space="preserve">0.519325852394104</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479811936616898</t>
+    <t xml:space="preserve">0.479811877012253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448765277862549</t>
+    <t xml:space="preserve">0.448765307664871</t>
   </si>
   <si>
     <t xml:space="preserve">0.469933420419693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.475578308105469</t>
+    <t xml:space="preserve">0.475578337907791</t>
   </si>
   <si>
     <t xml:space="preserve">0.461466163396835</t>
@@ -701,16 +701,16 @@
     <t xml:space="preserve">0.447354108095169</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454410165548325</t>
+    <t xml:space="preserve">0.45441010594368</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429008305072784</t>
+    <t xml:space="preserve">0.429008334875107</t>
   </si>
   <si>
     <t xml:space="preserve">0.430419534444809</t>
   </si>
   <si>
-    <t xml:space="preserve">0.43606436252594</t>
+    <t xml:space="preserve">0.436064392328262</t>
   </si>
   <si>
     <t xml:space="preserve">0.4529989361763</t>
@@ -719,10 +719,10 @@
     <t xml:space="preserve">0.484045565128326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47134467959404</t>
+    <t xml:space="preserve">0.471344619989395</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457232564687729</t>
+    <t xml:space="preserve">0.457232534885406</t>
   </si>
   <si>
     <t xml:space="preserve">0.44312047958374</t>
@@ -737,70 +737,70 @@
     <t xml:space="preserve">0.467111021280289</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406428903341293</t>
+    <t xml:space="preserve">0.406428933143616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410662561655045</t>
+    <t xml:space="preserve">0.410662591457367</t>
   </si>
   <si>
     <t xml:space="preserve">0.40784016251564</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382438361644745</t>
+    <t xml:space="preserve">0.382438331842422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369737446308136</t>
+    <t xml:space="preserve">0.369737416505814</t>
   </si>
   <si>
-    <t xml:space="preserve">0.403606534004211</t>
+    <t xml:space="preserve">0.403606563806534</t>
   </si>
   <si>
-    <t xml:space="preserve">0.400784105062485</t>
+    <t xml:space="preserve">0.400784134864807</t>
   </si>
   <si>
     <t xml:space="preserve">0.386671960353851</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378204703330994</t>
+    <t xml:space="preserve">0.378204733133316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379615902900696</t>
+    <t xml:space="preserve">0.379615932703018</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388083189725876</t>
+    <t xml:space="preserve">0.388083249330521</t>
   </si>
   <si>
     <t xml:space="preserve">0.417718648910522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.433241993188858</t>
+    <t xml:space="preserve">0.43324202299118</t>
   </si>
   <si>
     <t xml:space="preserve">0.396550446748734</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405017733573914</t>
+    <t xml:space="preserve">0.405017703771591</t>
   </si>
   <si>
     <t xml:space="preserve">0.424774676561356</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421952247619629</t>
+    <t xml:space="preserve">0.421952277421951</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41912978887558</t>
+    <t xml:space="preserve">0.419129818677902</t>
   </si>
   <si>
     <t xml:space="preserve">0.431830763816833</t>
   </si>
   <si>
-    <t xml:space="preserve">0.438886791467667</t>
+    <t xml:space="preserve">0.438886821269989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.441709190607071</t>
+    <t xml:space="preserve">0.441709220409393</t>
   </si>
   <si>
-    <t xml:space="preserve">0.476283848285675</t>
+    <t xml:space="preserve">0.476283937692642</t>
   </si>
   <si>
     <t xml:space="preserve">0.48334002494812</t>
@@ -809,49 +809,49 @@
     <t xml:space="preserve">0.504508137702942</t>
   </si>
   <si>
-    <t xml:space="preserve">0.511564254760742</t>
+    <t xml:space="preserve">0.511564195156097</t>
   </si>
   <si>
-    <t xml:space="preserve">0.520832777023315</t>
+    <t xml:space="preserve">0.520832717418671</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497511863708496</t>
+    <t xml:space="preserve">0.497511833906174</t>
   </si>
   <si>
-    <t xml:space="preserve">0.481964647769928</t>
+    <t xml:space="preserve">0.481964617967606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.466417402029037</t>
+    <t xml:space="preserve">0.46641743183136</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478077858686447</t>
+    <t xml:space="preserve">0.478077828884125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.489738255739212</t>
+    <t xml:space="preserve">0.48973822593689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493625104427338</t>
+    <t xml:space="preserve">0.493625074625015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.485851496458054</t>
+    <t xml:space="preserve">0.485851466655731</t>
   </si>
   <si>
-    <t xml:space="preserve">0.470304161310196</t>
+    <t xml:space="preserve">0.470304220914841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450870126485825</t>
+    <t xml:space="preserve">0.450870096683502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.462530612945557</t>
+    <t xml:space="preserve">0.462530583143234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.435322910547256</t>
+    <t xml:space="preserve">0.435322880744934</t>
   </si>
   <si>
-    <t xml:space="preserve">0.439209699630737</t>
+    <t xml:space="preserve">0.439209669828415</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454756885766983</t>
+    <t xml:space="preserve">0.454756945371628</t>
   </si>
   <si>
     <t xml:space="preserve">0.474191009998322</t>
@@ -860,7 +860,7 @@
     <t xml:space="preserve">0.501398682594299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.590795397758484</t>
+    <t xml:space="preserve">0.590795338153839</t>
   </si>
   <si>
     <t xml:space="preserve">0.505285501480103</t>
@@ -869,16 +869,16 @@
     <t xml:space="preserve">0.513059139251709</t>
   </si>
   <si>
-    <t xml:space="preserve">0.509172201156616</t>
+    <t xml:space="preserve">0.509172260761261</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446983367204666</t>
+    <t xml:space="preserve">0.446983307600021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.443096518516541</t>
+    <t xml:space="preserve">0.443096548318863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.42754927277565</t>
+    <t xml:space="preserve">0.427549332380295</t>
   </si>
   <si>
     <t xml:space="preserve">0.419775664806366</t>
@@ -887,22 +887,22 @@
     <t xml:space="preserve">0.404228389263153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415888905525208</t>
+    <t xml:space="preserve">0.415888845920563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431436121463776</t>
+    <t xml:space="preserve">0.431436091661453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412001967430115</t>
+    <t xml:space="preserve">0.41200202703476</t>
   </si>
   <si>
     <t xml:space="preserve">0.3824622631073</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380907505750656</t>
+    <t xml:space="preserve">0.380907535552979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.396454781293869</t>
+    <t xml:space="preserve">0.396454751491547</t>
   </si>
   <si>
     <t xml:space="preserve">0.388681173324585</t>
@@ -917,94 +917,94 @@
     <t xml:space="preserve">0.352922469377518</t>
   </si>
   <si>
-    <t xml:space="preserve">0.326492160558701</t>
+    <t xml:space="preserve">0.326492130756378</t>
   </si>
   <si>
-    <t xml:space="preserve">0.290733486413956</t>
+    <t xml:space="preserve">0.290733516216278</t>
   </si>
   <si>
     <t xml:space="preserve">0.312499642372131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.295397698879242</t>
+    <t xml:space="preserve">0.29539766907692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.306280732154846</t>
+    <t xml:space="preserve">0.306280761957169</t>
   </si>
   <si>
-    <t xml:space="preserve">0.293842911720276</t>
+    <t xml:space="preserve">0.293842941522598</t>
   </si>
   <si>
     <t xml:space="preserve">0.279850453138351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273631542921066</t>
+    <t xml:space="preserve">0.273631513118744</t>
   </si>
   <si>
     <t xml:space="preserve">0.320273280143738</t>
   </si>
   <si>
-    <t xml:space="preserve">0.321827977895737</t>
+    <t xml:space="preserve">0.321828007698059</t>
   </si>
   <si>
     <t xml:space="preserve">0.304726034402847</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314054399728775</t>
+    <t xml:space="preserve">0.314054369926453</t>
   </si>
   <si>
     <t xml:space="preserve">0.315609067678452</t>
   </si>
   <si>
-    <t xml:space="preserve">0.331156313419342</t>
+    <t xml:space="preserve">0.331156343221664</t>
   </si>
   <si>
     <t xml:space="preserve">0.34048467874527</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346703588962555</t>
+    <t xml:space="preserve">0.346703618764877</t>
   </si>
   <si>
     <t xml:space="preserve">0.379352807998657</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365360260009766</t>
+    <t xml:space="preserve">0.365360289812088</t>
   </si>
   <si>
     <t xml:space="preserve">0.359141409397125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.385571718215942</t>
+    <t xml:space="preserve">0.38557168841362</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408115208148956</t>
+    <t xml:space="preserve">0.408115178346634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423662453889847</t>
+    <t xml:space="preserve">0.423662483692169</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368469744920731</t>
+    <t xml:space="preserve">0.368469715118408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.371579140424728</t>
+    <t xml:space="preserve">0.371579200029373</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377798080444336</t>
+    <t xml:space="preserve">0.377798110246658</t>
   </si>
   <si>
     <t xml:space="preserve">0.392567962408066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387126415967941</t>
+    <t xml:space="preserve">0.387126445770264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362250804901123</t>
+    <t xml:space="preserve">0.362250834703445</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363805562257767</t>
+    <t xml:space="preserve">0.363805592060089</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360696107149124</t>
+    <t xml:space="preserve">0.360696077346802</t>
   </si>
   <si>
     <t xml:space="preserve">0.357586652040482</t>
@@ -1016,10 +1016,10 @@
     <t xml:space="preserve">0.356031954288483</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342039436101913</t>
+    <t xml:space="preserve">0.342039406299591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.334265798330307</t>
+    <t xml:space="preserve">0.334265768527985</t>
   </si>
   <si>
     <t xml:space="preserve">0.318718522787094</t>
@@ -1028,7 +1028,7 @@
     <t xml:space="preserve">0.32338273525238</t>
   </si>
   <si>
-    <t xml:space="preserve">0.296952396631241</t>
+    <t xml:space="preserve">0.296952426433563</t>
   </si>
   <si>
     <t xml:space="preserve">0.300061851739883</t>
@@ -1040,28 +1040,28 @@
     <t xml:space="preserve">0.298507153987885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.303171277046204</t>
+    <t xml:space="preserve">0.303171306848526</t>
   </si>
   <si>
-    <t xml:space="preserve">0.310944944620132</t>
+    <t xml:space="preserve">0.31094491481781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.328046888113022</t>
+    <t xml:space="preserve">0.328046917915344</t>
   </si>
   <si>
     <t xml:space="preserve">0.332711070775986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.324937433004379</t>
+    <t xml:space="preserve">0.324937492609024</t>
   </si>
   <si>
-    <t xml:space="preserve">0.48250076174736</t>
+    <t xml:space="preserve">0.482500702142715</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448641031980515</t>
+    <t xml:space="preserve">0.44864097237587</t>
   </si>
   <si>
-    <t xml:space="preserve">0.435943603515625</t>
+    <t xml:space="preserve">0.43594366312027</t>
   </si>
   <si>
     <t xml:space="preserve">0.423246264457703</t>
@@ -1070,46 +1070,46 @@
     <t xml:space="preserve">0.40631639957428</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414781332015991</t>
+    <t xml:space="preserve">0.414781361818314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408009380102158</t>
+    <t xml:space="preserve">0.40800940990448</t>
   </si>
   <si>
     <t xml:space="preserve">0.427478700876236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419860303401947</t>
+    <t xml:space="preserve">0.419860273599625</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409702360630035</t>
+    <t xml:space="preserve">0.409702390432358</t>
   </si>
   <si>
     <t xml:space="preserve">0.392772525548935</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386000573635101</t>
+    <t xml:space="preserve">0.386000603437424</t>
   </si>
   <si>
     <t xml:space="preserve">0.384307593107224</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380921632051468</t>
+    <t xml:space="preserve">0.380921602249146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.396158516407013</t>
+    <t xml:space="preserve">0.396158486604691</t>
   </si>
   <si>
     <t xml:space="preserve">0.389386564493179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394465506076813</t>
+    <t xml:space="preserve">0.394465535879135</t>
   </si>
   <si>
     <t xml:space="preserve">0.377535670995712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.375842720270157</t>
+    <t xml:space="preserve">0.375842690467834</t>
   </si>
   <si>
     <t xml:space="preserve">0.39107957482338</t>
@@ -1124,22 +1124,22 @@
     <t xml:space="preserve">0.507895529270172</t>
   </si>
   <si>
-    <t xml:space="preserve">0.499430537223816</t>
+    <t xml:space="preserve">0.499430567026138</t>
   </si>
   <si>
-    <t xml:space="preserve">0.495198041200638</t>
+    <t xml:space="preserve">0.495198100805283</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465570896863937</t>
+    <t xml:space="preserve">0.46557092666626</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452873557806015</t>
+    <t xml:space="preserve">0.452873528003693</t>
   </si>
   <si>
     <t xml:space="preserve">0.440176069736481</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431711196899414</t>
+    <t xml:space="preserve">0.431711167097092</t>
   </si>
   <si>
     <t xml:space="preserve">0.444408565759659</t>
@@ -1148,34 +1148,34 @@
     <t xml:space="preserve">0.457105994224548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.418167263269424</t>
+    <t xml:space="preserve">0.418167293071747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.411395400762558</t>
+    <t xml:space="preserve">0.411395370960236</t>
   </si>
   <si>
     <t xml:space="preserve">0.397851496934891</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387693583965302</t>
+    <t xml:space="preserve">0.387693554162979</t>
   </si>
   <si>
     <t xml:space="preserve">0.382614612579346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.416474312543869</t>
+    <t xml:space="preserve">0.416474342346191</t>
   </si>
   <si>
     <t xml:space="preserve">0.404623419046402</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413088381290436</t>
+    <t xml:space="preserve">0.413088351488113</t>
   </si>
   <si>
     <t xml:space="preserve">0.402930438518524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355526864528656</t>
+    <t xml:space="preserve">0.355526834726334</t>
   </si>
   <si>
     <t xml:space="preserve">0.336904019117355</t>
@@ -1187,7 +1187,7 @@
     <t xml:space="preserve">0.357219845056534</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358912795782089</t>
+    <t xml:space="preserve">0.358912825584412</t>
   </si>
   <si>
     <t xml:space="preserve">0.363991796970367</t>
@@ -1196,10 +1196,10 @@
     <t xml:space="preserve">0.367377758026123</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370763689279556</t>
+    <t xml:space="preserve">0.370763719081879</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372456699609756</t>
+    <t xml:space="preserve">0.372456729412079</t>
   </si>
   <si>
     <t xml:space="preserve">0.379228681325912</t>
@@ -1211,7 +1211,7 @@
     <t xml:space="preserve">0.347061932086945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345368981361389</t>
+    <t xml:space="preserve">0.345368951559067</t>
   </si>
   <si>
     <t xml:space="preserve">0.340290009975433</t>
@@ -1220,25 +1220,25 @@
     <t xml:space="preserve">0.3521409034729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36229881644249</t>
+    <t xml:space="preserve">0.362298786640167</t>
   </si>
   <si>
     <t xml:space="preserve">0.356533944606781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361855357885361</t>
+    <t xml:space="preserve">0.361855328083038</t>
   </si>
   <si>
     <t xml:space="preserve">0.352986335754395</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358307749032974</t>
+    <t xml:space="preserve">0.358307719230652</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372498154640198</t>
+    <t xml:space="preserve">0.372498095035553</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374271959066391</t>
+    <t xml:space="preserve">0.374271929264069</t>
   </si>
   <si>
     <t xml:space="preserve">0.360081523656845</t>
@@ -1256,7 +1256,7 @@
     <t xml:space="preserve">0.328153133392334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338795930147171</t>
+    <t xml:space="preserve">0.338795900344849</t>
   </si>
   <si>
     <t xml:space="preserve">0.354760140180588</t>
@@ -1271,7 +1271,7 @@
     <t xml:space="preserve">0.326379328966141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317510306835175</t>
+    <t xml:space="preserve">0.317510336637497</t>
   </si>
   <si>
     <t xml:space="preserve">0.322831720113754</t>
@@ -1280,16 +1280,16 @@
     <t xml:space="preserve">0.31396272778511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.310415089130402</t>
+    <t xml:space="preserve">0.310415118932724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312188923358917</t>
+    <t xml:space="preserve">0.312188893556595</t>
   </si>
   <si>
     <t xml:space="preserve">0.303319931030273</t>
   </si>
   <si>
-    <t xml:space="preserve">0.315736562013626</t>
+    <t xml:space="preserve">0.315736532211304</t>
   </si>
   <si>
     <t xml:space="preserve">0.305093705654144</t>
@@ -1301,37 +1301,37 @@
     <t xml:space="preserve">0.321057915687561</t>
   </si>
   <si>
-    <t xml:space="preserve">0.33170074224472</t>
+    <t xml:space="preserve">0.331700712442398</t>
   </si>
   <si>
     <t xml:space="preserve">0.333474516868591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345891118049622</t>
+    <t xml:space="preserve">0.345891088247299</t>
   </si>
   <si>
     <t xml:space="preserve">0.324605524539948</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38846230506897</t>
+    <t xml:space="preserve">0.388462334871292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379593342542648</t>
+    <t xml:space="preserve">0.379593312740326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.381367176771164</t>
+    <t xml:space="preserve">0.381367146968842</t>
   </si>
   <si>
     <t xml:space="preserve">0.383140951395035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.376045703887939</t>
+    <t xml:space="preserve">0.376045733690262</t>
   </si>
   <si>
     <t xml:space="preserve">0.377819538116455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395557552576065</t>
+    <t xml:space="preserve">0.395557582378387</t>
   </si>
   <si>
     <t xml:space="preserve">0.331567615270615</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">0.320068180561066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.321984767913818</t>
+    <t xml:space="preserve">0.321984738111496</t>
   </si>
   <si>
     <t xml:space="preserve">0.33731734752655</t>
@@ -1358,19 +1358,19 @@
     <t xml:space="preserve">0.318151593208313</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312401860952377</t>
+    <t xml:space="preserve">0.3124018907547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.323901325464249</t>
+    <t xml:space="preserve">0.323901355266571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314318478107452</t>
+    <t xml:space="preserve">0.31431844830513</t>
   </si>
   <si>
     <t xml:space="preserve">0.306652128696442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.310485273599625</t>
+    <t xml:space="preserve">0.310485303401947</t>
   </si>
   <si>
     <t xml:space="preserve">0.302819013595581</t>
@@ -1379,16 +1379,16 @@
     <t xml:space="preserve">0.316235065460205</t>
   </si>
   <si>
-    <t xml:space="preserve">0.308568716049194</t>
+    <t xml:space="preserve">0.308568745851517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.304735541343689</t>
+    <t xml:space="preserve">0.304735571146011</t>
   </si>
   <si>
     <t xml:space="preserve">0.300902426242828</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341150492429733</t>
+    <t xml:space="preserve">0.341150522232056</t>
   </si>
   <si>
     <t xml:space="preserve">0.329651057720184</t>
@@ -1397,7 +1397,7 @@
     <t xml:space="preserve">0.339233934879303</t>
   </si>
   <si>
-    <t xml:space="preserve">0.343067109584808</t>
+    <t xml:space="preserve">0.343067079782486</t>
   </si>
   <si>
     <t xml:space="preserve">0.344983696937561</t>
@@ -1406,16 +1406,16 @@
     <t xml:space="preserve">0.364149421453476</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358399718999863</t>
+    <t xml:space="preserve">0.35839968919754</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346900254487991</t>
+    <t xml:space="preserve">0.346900224685669</t>
   </si>
   <si>
     <t xml:space="preserve">0.352649986743927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350733399391174</t>
+    <t xml:space="preserve">0.350733369588852</t>
   </si>
   <si>
     <t xml:space="preserve">0.348816812038422</t>
@@ -58436,7 +58436,7 @@
     </row>
     <row r="2179">
       <c r="A2179" s="1" t="n">
-        <v>45496.6302083333</v>
+        <v>45496.2916666667</v>
       </c>
       <c r="B2179" t="n">
         <v>16000</v>
@@ -58457,6 +58457,32 @@
         <v>484</v>
       </c>
       <c r="H2179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" s="1" t="n">
+        <v>45497.6347916667</v>
+      </c>
+      <c r="B2180" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C2180" t="n">
+        <v>0.342000007629395</v>
+      </c>
+      <c r="D2180" t="n">
+        <v>0.342000007629395</v>
+      </c>
+      <c r="E2180" t="n">
+        <v>0.342000007629395</v>
+      </c>
+      <c r="F2180" t="n">
+        <v>0.342000007629395</v>
+      </c>
+      <c r="G2180" t="s">
+        <v>477</v>
+      </c>
+      <c r="H2180" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/POPR.MI.xlsx
+++ b/data/POPR.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.197569608688354</t>
+    <t xml:space="preserve">0.197569623589516</t>
   </si>
   <si>
     <t xml:space="preserve">POPR.MI</t>
@@ -47,46 +47,46 @@
     <t xml:space="preserve">0.198275223374367</t>
   </si>
   <si>
-    <t xml:space="preserve">0.19404162466526</t>
+    <t xml:space="preserve">0.194041609764099</t>
   </si>
   <si>
-    <t xml:space="preserve">0.192630380392075</t>
+    <t xml:space="preserve">0.192630395293236</t>
   </si>
   <si>
     <t xml:space="preserve">0.184163123369217</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190513581037521</t>
+    <t xml:space="preserve">0.19051356613636</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167228564620018</t>
+    <t xml:space="preserve">0.16722859442234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160878121852875</t>
+    <t xml:space="preserve">0.160878136754036</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168145880103111</t>
+    <t xml:space="preserve">0.16814586520195</t>
   </si>
   <si>
     <t xml:space="preserve">0.16299495100975</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171462222933769</t>
+    <t xml:space="preserve">0.171462208032608</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17216782271862</t>
+    <t xml:space="preserve">0.172167807817459</t>
   </si>
   <si>
     <t xml:space="preserve">0.16927482187748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164406150579453</t>
+    <t xml:space="preserve">0.164406135678291</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15699727833271</t>
+    <t xml:space="preserve">0.156997263431549</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156644493341446</t>
+    <t xml:space="preserve">0.156644508242607</t>
   </si>
   <si>
     <t xml:space="preserve">0.157067850232124</t>
@@ -101,19 +101,19 @@
     <t xml:space="preserve">0.169627636671066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191219165921211</t>
+    <t xml:space="preserve">0.191219180822372</t>
   </si>
   <si>
     <t xml:space="preserve">0.187267780303955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183457508683205</t>
+    <t xml:space="preserve">0.183457493782043</t>
   </si>
   <si>
     <t xml:space="preserve">0.176401451230049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173579037189484</t>
+    <t xml:space="preserve">0.173579022288322</t>
   </si>
   <si>
     <t xml:space="preserve">0.167934194207191</t>
@@ -128,10 +128,10 @@
     <t xml:space="preserve">0.178447708487511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199051395058632</t>
+    <t xml:space="preserve">0.199051380157471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.198980838060379</t>
+    <t xml:space="preserve">0.198980823159218</t>
   </si>
   <si>
     <t xml:space="preserve">0.191924795508385</t>
@@ -140,13 +140,13 @@
     <t xml:space="preserve">0.18627992272377</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211681768298149</t>
+    <t xml:space="preserve">0.211681753396988</t>
   </si>
   <si>
-    <t xml:space="preserve">0.216268166899681</t>
+    <t xml:space="preserve">0.216268181800842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.215209767222404</t>
+    <t xml:space="preserve">0.215209797024727</t>
   </si>
   <si>
     <t xml:space="preserve">0.206742525100708</t>
@@ -155,46 +155,46 @@
     <t xml:space="preserve">0.20392008125782</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225793838500977</t>
+    <t xml:space="preserve">0.225793853402138</t>
   </si>
   <si>
     <t xml:space="preserve">0.234261125326157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225723296403885</t>
+    <t xml:space="preserve">0.225723311305046</t>
   </si>
   <si>
     <t xml:space="preserve">0.220854610204697</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218032196164131</t>
+    <t xml:space="preserve">0.21803218126297</t>
   </si>
   <si>
-    <t xml:space="preserve">0.201097667217255</t>
+    <t xml:space="preserve">0.201097637414932</t>
   </si>
   <si>
-    <t xml:space="preserve">0.20462566614151</t>
+    <t xml:space="preserve">0.204625681042671</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190654709935188</t>
+    <t xml:space="preserve">0.190654695034027</t>
   </si>
   <si>
     <t xml:space="preserve">0.189102366566658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182751908898354</t>
+    <t xml:space="preserve">0.182751923799515</t>
   </si>
   <si>
     <t xml:space="preserve">0.17019210755825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186985537409782</t>
+    <t xml:space="preserve">0.186985522508621</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176330894231796</t>
+    <t xml:space="preserve">0.176330879330635</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170756593346596</t>
+    <t xml:space="preserve">0.170756608247757</t>
   </si>
   <si>
     <t xml:space="preserve">0.172873422503471</t>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">0.176965937018394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208859324455261</t>
+    <t xml:space="preserve">0.208859339356422</t>
   </si>
   <si>
     <t xml:space="preserve">0.210976138710976</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">0.206036895513535</t>
   </si>
   <si>
-    <t xml:space="preserve">0.203990653157234</t>
+    <t xml:space="preserve">0.203990623354912</t>
   </si>
   <si>
     <t xml:space="preserve">0.187691152095795</t>
@@ -224,19 +224,19 @@
     <t xml:space="preserve">0.165111765265465</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170050993561745</t>
+    <t xml:space="preserve">0.170051008462906</t>
   </si>
   <si>
     <t xml:space="preserve">0.166522964835167</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162289336323738</t>
+    <t xml:space="preserve">0.162289321422577</t>
   </si>
   <si>
     <t xml:space="preserve">0.177812665700912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185433194041252</t>
+    <t xml:space="preserve">0.185433208942413</t>
   </si>
   <si>
     <t xml:space="preserve">0.191571965813637</t>
@@ -245,7 +245,7 @@
     <t xml:space="preserve">0.193335980176926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.204978480935097</t>
+    <t xml:space="preserve">0.204978451132774</t>
   </si>
   <si>
     <t xml:space="preserve">0.225088253617287</t>
@@ -260,7 +260,7 @@
     <t xml:space="preserve">0.214151367545128</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225652724504471</t>
+    <t xml:space="preserve">0.22565270960331</t>
   </si>
   <si>
     <t xml:space="preserve">0.218737795948982</t>
@@ -269,19 +269,19 @@
     <t xml:space="preserve">0.215280324220657</t>
   </si>
   <si>
-    <t xml:space="preserve">0.224382653832436</t>
+    <t xml:space="preserve">0.224382624030113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.239200383424759</t>
+    <t xml:space="preserve">0.239200338721275</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243363469839096</t>
+    <t xml:space="preserve">0.243363454937935</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261074125766754</t>
+    <t xml:space="preserve">0.261074155569077</t>
   </si>
   <si>
-    <t xml:space="preserve">0.267424613237381</t>
+    <t xml:space="preserve">0.267424643039703</t>
   </si>
   <si>
     <t xml:space="preserve">0.282242327928543</t>
@@ -296,16 +296,16 @@
     <t xml:space="preserve">0.325989902019501</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335162758827209</t>
+    <t xml:space="preserve">0.335162729024887</t>
   </si>
   <si>
-    <t xml:space="preserve">0.289298355579376</t>
+    <t xml:space="preserve">0.289298385381699</t>
   </si>
   <si>
     <t xml:space="preserve">0.292050212621689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.28090164065361</t>
+    <t xml:space="preserve">0.280901670455933</t>
   </si>
   <si>
     <t xml:space="preserve">0.280831098556519</t>
@@ -314,28 +314,28 @@
     <t xml:space="preserve">0.272575557231903</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273069441318512</t>
+    <t xml:space="preserve">0.273069471120834</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273210525512695</t>
+    <t xml:space="preserve">0.273210555315018</t>
   </si>
   <si>
     <t xml:space="preserve">0.257546126842499</t>
   </si>
   <si>
-    <t xml:space="preserve">0.262485384941101</t>
+    <t xml:space="preserve">0.262485355138779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23637792468071</t>
+    <t xml:space="preserve">0.236377954483032</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232285425066948</t>
+    <t xml:space="preserve">0.232285439968109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237789168953896</t>
+    <t xml:space="preserve">0.237789154052734</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234331697225571</t>
+    <t xml:space="preserve">0.234331667423248</t>
   </si>
   <si>
     <t xml:space="preserve">0.266718983650208</t>
@@ -344,58 +344,58 @@
     <t xml:space="preserve">0.275186270475388</t>
   </si>
   <si>
-    <t xml:space="preserve">0.259098410606384</t>
+    <t xml:space="preserve">0.259098440408707</t>
   </si>
   <si>
-    <t xml:space="preserve">0.255429267883301</t>
+    <t xml:space="preserve">0.255429297685623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.264602184295654</t>
+    <t xml:space="preserve">0.264602154493332</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254018098115921</t>
+    <t xml:space="preserve">0.254018068313599</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250490039587021</t>
+    <t xml:space="preserve">0.250490069389343</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243433967232704</t>
+    <t xml:space="preserve">0.243433982133865</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249643340706825</t>
+    <t xml:space="preserve">0.249643310904503</t>
   </si>
   <si>
-    <t xml:space="preserve">0.239270925521851</t>
+    <t xml:space="preserve">0.239270955324173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225864410400391</t>
+    <t xml:space="preserve">0.225864425301552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229321867227554</t>
+    <t xml:space="preserve">0.229321882128716</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232144311070442</t>
+    <t xml:space="preserve">0.232144296169281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.231438726186752</t>
+    <t xml:space="preserve">0.231438711285591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232849910855293</t>
+    <t xml:space="preserve">0.232849895954132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234402239322662</t>
+    <t xml:space="preserve">0.234402254223824</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237930253148079</t>
+    <t xml:space="preserve">0.23793026804924</t>
   </si>
   <si>
     <t xml:space="preserve">0.25331249833107</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246820911765099</t>
+    <t xml:space="preserve">0.246820881962776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247879296541214</t>
+    <t xml:space="preserve">0.247879326343536</t>
   </si>
   <si>
     <t xml:space="preserve">0.25761666893959</t>
@@ -404,10 +404,10 @@
     <t xml:space="preserve">0.263120412826538</t>
   </si>
   <si>
-    <t xml:space="preserve">0.252042353153229</t>
+    <t xml:space="preserve">0.252042382955551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246962040662766</t>
+    <t xml:space="preserve">0.246962010860443</t>
   </si>
   <si>
     <t xml:space="preserve">0.246679812669754</t>
@@ -419,7 +419,7 @@
     <t xml:space="preserve">0.259662926197052</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243645682930946</t>
+    <t xml:space="preserve">0.243645653128624</t>
   </si>
   <si>
     <t xml:space="preserve">0.250701755285263</t>
@@ -428,28 +428,28 @@
     <t xml:space="preserve">0.333610415458679</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395139217376709</t>
+    <t xml:space="preserve">0.395139247179031</t>
   </si>
   <si>
-    <t xml:space="preserve">0.522148251533508</t>
+    <t xml:space="preserve">0.522148311138153</t>
   </si>
   <si>
     <t xml:space="preserve">0.612465798854828</t>
   </si>
   <si>
-    <t xml:space="preserve">0.535554766654968</t>
+    <t xml:space="preserve">0.535554885864258</t>
   </si>
   <si>
     <t xml:space="preserve">0.490396022796631</t>
   </si>
   <si>
-    <t xml:space="preserve">0.473814278841019</t>
+    <t xml:space="preserve">0.473814308643341</t>
   </si>
   <si>
     <t xml:space="preserve">0.44453164935112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40925133228302</t>
+    <t xml:space="preserve">0.409251362085342</t>
   </si>
   <si>
     <t xml:space="preserve">0.464994192123413</t>
@@ -458,19 +458,19 @@
     <t xml:space="preserve">0.412426620721817</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419835448265076</t>
+    <t xml:space="preserve">0.41983550786972</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388788759708405</t>
+    <t xml:space="preserve">0.388788789510727</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365856558084488</t>
+    <t xml:space="preserve">0.36585658788681</t>
   </si>
   <si>
     <t xml:space="preserve">0.353508502244949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366562247276306</t>
+    <t xml:space="preserve">0.366562217473984</t>
   </si>
   <si>
     <t xml:space="preserve">0.375382304191589</t>
@@ -479,22 +479,22 @@
     <t xml:space="preserve">0.361270219087601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391611218452454</t>
+    <t xml:space="preserve">0.391611188650131</t>
   </si>
   <si>
     <t xml:space="preserve">0.383143931627274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366915017366409</t>
+    <t xml:space="preserve">0.366914987564087</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357389330863953</t>
+    <t xml:space="preserve">0.357389360666275</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360564559698105</t>
+    <t xml:space="preserve">0.36056450009346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373971074819565</t>
+    <t xml:space="preserve">0.373971045017242</t>
   </si>
   <si>
     <t xml:space="preserve">0.370443016290665</t>
@@ -509,13 +509,13 @@
     <t xml:space="preserve">0.352802902460098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349980473518372</t>
+    <t xml:space="preserve">0.349980443716049</t>
   </si>
   <si>
     <t xml:space="preserve">0.375735133886337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357036501169205</t>
+    <t xml:space="preserve">0.357036530971527</t>
   </si>
   <si>
     <t xml:space="preserve">0.355625331401825</t>
@@ -542,13 +542,13 @@
     <t xml:space="preserve">0.359858959913254</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365503817796707</t>
+    <t xml:space="preserve">0.36550384759903</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402195334434509</t>
+    <t xml:space="preserve">0.402195274829865</t>
   </si>
   <si>
-    <t xml:space="preserve">0.381027162075043</t>
+    <t xml:space="preserve">0.38102713227272</t>
   </si>
   <si>
     <t xml:space="preserve">0.381732761859894</t>
@@ -563,7 +563,7 @@
     <t xml:space="preserve">0.353155702352524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367973446846008</t>
+    <t xml:space="preserve">0.367973417043686</t>
   </si>
   <si>
     <t xml:space="preserve">0.437475591897964</t>
@@ -572,25 +572,25 @@
     <t xml:space="preserve">0.414896219968796</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414190590381622</t>
+    <t xml:space="preserve">0.414190620183945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415601789951324</t>
+    <t xml:space="preserve">0.415601819753647</t>
   </si>
   <si>
     <t xml:space="preserve">0.408192932605743</t>
   </si>
   <si>
-    <t xml:space="preserve">0.416307419538498</t>
+    <t xml:space="preserve">0.416307389736176</t>
   </si>
   <si>
     <t xml:space="preserve">0.387377589941025</t>
   </si>
   <si>
-    <t xml:space="preserve">0.392669647932053</t>
+    <t xml:space="preserve">0.39266961812973</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397961676120758</t>
+    <t xml:space="preserve">0.397961646318436</t>
   </si>
   <si>
     <t xml:space="preserve">0.412073791027069</t>
@@ -602,10 +602,10 @@
     <t xml:space="preserve">0.43959242105484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424069046974182</t>
+    <t xml:space="preserve">0.424069136381149</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423363536596298</t>
+    <t xml:space="preserve">0.423363506793976</t>
   </si>
   <si>
     <t xml:space="preserve">0.43465319275856</t>
@@ -614,64 +614,64 @@
     <t xml:space="preserve">0.423716306686401</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457938194274902</t>
+    <t xml:space="preserve">0.457938104867935</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465699821710587</t>
+    <t xml:space="preserve">0.465699791908264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440298020839691</t>
+    <t xml:space="preserve">0.440297991037369</t>
   </si>
   <si>
     <t xml:space="preserve">0.423010677099228</t>
   </si>
   <si>
-    <t xml:space="preserve">0.433947563171387</t>
+    <t xml:space="preserve">0.433947533369064</t>
   </si>
   <si>
-    <t xml:space="preserve">0.529204368591309</t>
+    <t xml:space="preserve">0.529204308986664</t>
   </si>
   <si>
     <t xml:space="preserve">0.493218421936035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.508036196231842</t>
+    <t xml:space="preserve">0.508036136627197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.486867934465408</t>
+    <t xml:space="preserve">0.486867964267731</t>
   </si>
   <si>
-    <t xml:space="preserve">0.491807252168655</t>
+    <t xml:space="preserve">0.4918073117733</t>
   </si>
   <si>
-    <t xml:space="preserve">0.500980079174042</t>
+    <t xml:space="preserve">0.500980138778687</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493924081325531</t>
+    <t xml:space="preserve">0.493924021720886</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474167048931122</t>
+    <t xml:space="preserve">0.474167078733444</t>
   </si>
   <si>
-    <t xml:space="preserve">0.476989507675171</t>
+    <t xml:space="preserve">0.476989537477493</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47275584936142</t>
+    <t xml:space="preserve">0.472755908966064</t>
   </si>
   <si>
-    <t xml:space="preserve">0.460054963827133</t>
+    <t xml:space="preserve">0.460055023431778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.455821365118027</t>
+    <t xml:space="preserve">0.455821424722672</t>
   </si>
   <si>
-    <t xml:space="preserve">0.458643734455109</t>
+    <t xml:space="preserve">0.458643764257431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464288622140884</t>
+    <t xml:space="preserve">0.464288592338562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451587677001953</t>
+    <t xml:space="preserve">0.451587706804276</t>
   </si>
   <si>
     <t xml:space="preserve">0.485456794500351</t>
@@ -683,52 +683,52 @@
     <t xml:space="preserve">0.519325852394104</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479811877012253</t>
+    <t xml:space="preserve">0.47981196641922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448765307664871</t>
+    <t xml:space="preserve">0.448765248060226</t>
   </si>
   <si>
-    <t xml:space="preserve">0.469933420419693</t>
+    <t xml:space="preserve">0.469933390617371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.475578337907791</t>
+    <t xml:space="preserve">0.475578308105469</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461466163396835</t>
+    <t xml:space="preserve">0.461466133594513</t>
   </si>
   <si>
     <t xml:space="preserve">0.447354108095169</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45441010594368</t>
+    <t xml:space="preserve">0.454410135746002</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429008334875107</t>
+    <t xml:space="preserve">0.429008305072784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.430419534444809</t>
+    <t xml:space="preserve">0.430419594049454</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436064392328262</t>
+    <t xml:space="preserve">0.43606436252594</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4529989361763</t>
+    <t xml:space="preserve">0.452998906373978</t>
   </si>
   <si>
     <t xml:space="preserve">0.484045565128326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.471344619989395</t>
+    <t xml:space="preserve">0.47134467959404</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457232534885406</t>
+    <t xml:space="preserve">0.457232505083084</t>
   </si>
   <si>
     <t xml:space="preserve">0.44312047958374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.462877452373505</t>
+    <t xml:space="preserve">0.462877422571182</t>
   </si>
   <si>
     <t xml:space="preserve">0.450176507234573</t>
@@ -737,7 +737,7 @@
     <t xml:space="preserve">0.467111021280289</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406428933143616</t>
+    <t xml:space="preserve">0.406428903341293</t>
   </si>
   <si>
     <t xml:space="preserve">0.410662591457367</t>
@@ -746,13 +746,13 @@
     <t xml:space="preserve">0.40784016251564</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382438331842422</t>
+    <t xml:space="preserve">0.382438361644745</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369737416505814</t>
+    <t xml:space="preserve">0.369737476110458</t>
   </si>
   <si>
-    <t xml:space="preserve">0.403606563806534</t>
+    <t xml:space="preserve">0.403606534004211</t>
   </si>
   <si>
     <t xml:space="preserve">0.400784134864807</t>
@@ -764,22 +764,22 @@
     <t xml:space="preserve">0.378204733133316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379615932703018</t>
+    <t xml:space="preserve">0.379615902900696</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388083249330521</t>
+    <t xml:space="preserve">0.388083219528198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417718648910522</t>
+    <t xml:space="preserve">0.417718678712845</t>
   </si>
   <si>
-    <t xml:space="preserve">0.43324202299118</t>
+    <t xml:space="preserve">0.433241963386536</t>
   </si>
   <si>
     <t xml:space="preserve">0.396550446748734</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405017703771591</t>
+    <t xml:space="preserve">0.405017733573914</t>
   </si>
   <si>
     <t xml:space="preserve">0.424774676561356</t>
@@ -788,10 +788,10 @@
     <t xml:space="preserve">0.421952277421951</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419129818677902</t>
+    <t xml:space="preserve">0.419129848480225</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431830763816833</t>
+    <t xml:space="preserve">0.431830734014511</t>
   </si>
   <si>
     <t xml:space="preserve">0.438886821269989</t>
@@ -800,10 +800,10 @@
     <t xml:space="preserve">0.441709220409393</t>
   </si>
   <si>
-    <t xml:space="preserve">0.476283937692642</t>
+    <t xml:space="preserve">0.476283878087997</t>
   </si>
   <si>
-    <t xml:space="preserve">0.48334002494812</t>
+    <t xml:space="preserve">0.483339995145798</t>
   </si>
   <si>
     <t xml:space="preserve">0.504508137702942</t>
@@ -815,22 +815,22 @@
     <t xml:space="preserve">0.520832717418671</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497511833906174</t>
+    <t xml:space="preserve">0.497511893510818</t>
   </si>
   <si>
-    <t xml:space="preserve">0.481964617967606</t>
+    <t xml:space="preserve">0.481964588165283</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46641743183136</t>
+    <t xml:space="preserve">0.466417402029037</t>
   </si>
   <si>
     <t xml:space="preserve">0.478077828884125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.48973822593689</t>
+    <t xml:space="preserve">0.489738285541534</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493625074625015</t>
+    <t xml:space="preserve">0.49362501502037</t>
   </si>
   <si>
     <t xml:space="preserve">0.485851466655731</t>
@@ -839,22 +839,22 @@
     <t xml:space="preserve">0.470304220914841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450870096683502</t>
+    <t xml:space="preserve">0.450870126485825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.462530583143234</t>
+    <t xml:space="preserve">0.462530612945557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.435322880744934</t>
+    <t xml:space="preserve">0.435322910547256</t>
   </si>
   <si>
-    <t xml:space="preserve">0.439209669828415</t>
+    <t xml:space="preserve">0.439209699630737</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454756945371628</t>
+    <t xml:space="preserve">0.45475697517395</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474191009998322</t>
+    <t xml:space="preserve">0.474191039800644</t>
   </si>
   <si>
     <t xml:space="preserve">0.501398682594299</t>
@@ -863,31 +863,31 @@
     <t xml:space="preserve">0.590795338153839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.505285501480103</t>
+    <t xml:space="preserve">0.505285561084747</t>
   </si>
   <si>
     <t xml:space="preserve">0.513059139251709</t>
   </si>
   <si>
-    <t xml:space="preserve">0.509172260761261</t>
+    <t xml:space="preserve">0.509172320365906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446983307600021</t>
+    <t xml:space="preserve">0.446983337402344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.443096548318863</t>
+    <t xml:space="preserve">0.443096488714218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.427549332380295</t>
+    <t xml:space="preserve">0.42754927277565</t>
   </si>
   <si>
     <t xml:space="preserve">0.419775664806366</t>
   </si>
   <si>
-    <t xml:space="preserve">0.404228389263153</t>
+    <t xml:space="preserve">0.404228419065475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415888845920563</t>
+    <t xml:space="preserve">0.415888875722885</t>
   </si>
   <si>
     <t xml:space="preserve">0.431436091661453</t>
@@ -896,7 +896,7 @@
     <t xml:space="preserve">0.41200202703476</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3824622631073</t>
+    <t xml:space="preserve">0.382462292909622</t>
   </si>
   <si>
     <t xml:space="preserve">0.380907535552979</t>
@@ -917,10 +917,10 @@
     <t xml:space="preserve">0.352922469377518</t>
   </si>
   <si>
-    <t xml:space="preserve">0.326492130756378</t>
+    <t xml:space="preserve">0.326492160558701</t>
   </si>
   <si>
-    <t xml:space="preserve">0.290733516216278</t>
+    <t xml:space="preserve">0.290733486413956</t>
   </si>
   <si>
     <t xml:space="preserve">0.312499642372131</t>
@@ -947,13 +947,13 @@
     <t xml:space="preserve">0.321828007698059</t>
   </si>
   <si>
-    <t xml:space="preserve">0.304726034402847</t>
+    <t xml:space="preserve">0.30472606420517</t>
   </si>
   <si>
     <t xml:space="preserve">0.314054369926453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.315609067678452</t>
+    <t xml:space="preserve">0.315609097480774</t>
   </si>
   <si>
     <t xml:space="preserve">0.331156343221664</t>
@@ -965,31 +965,31 @@
     <t xml:space="preserve">0.346703618764877</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379352807998657</t>
+    <t xml:space="preserve">0.37935283780098</t>
   </si>
   <si>
     <t xml:space="preserve">0.365360289812088</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359141409397125</t>
+    <t xml:space="preserve">0.359141379594803</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38557168841362</t>
+    <t xml:space="preserve">0.385571718215942</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408115178346634</t>
+    <t xml:space="preserve">0.408115148544312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423662483692169</t>
+    <t xml:space="preserve">0.423662513494492</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368469715118408</t>
+    <t xml:space="preserve">0.368469774723053</t>
   </si>
   <si>
     <t xml:space="preserve">0.371579200029373</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377798110246658</t>
+    <t xml:space="preserve">0.377798080444336</t>
   </si>
   <si>
     <t xml:space="preserve">0.392567962408066</t>
@@ -1001,34 +1001,34 @@
     <t xml:space="preserve">0.362250834703445</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363805592060089</t>
+    <t xml:space="preserve">0.363805562257767</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360696077346802</t>
+    <t xml:space="preserve">0.360696136951447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357586652040482</t>
+    <t xml:space="preserve">0.357586711645126</t>
   </si>
   <si>
     <t xml:space="preserve">0.343594133853912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356031954288483</t>
+    <t xml:space="preserve">0.35603192448616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342039406299591</t>
+    <t xml:space="preserve">0.342039436101913</t>
   </si>
   <si>
     <t xml:space="preserve">0.334265768527985</t>
   </si>
   <si>
-    <t xml:space="preserve">0.318718522787094</t>
+    <t xml:space="preserve">0.318718552589417</t>
   </si>
   <si>
     <t xml:space="preserve">0.32338273525238</t>
   </si>
   <si>
-    <t xml:space="preserve">0.296952426433563</t>
+    <t xml:space="preserve">0.296952396631241</t>
   </si>
   <si>
     <t xml:space="preserve">0.300061851739883</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">0.298507153987885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.303171306848526</t>
+    <t xml:space="preserve">0.303171277046204</t>
   </si>
   <si>
     <t xml:space="preserve">0.31094491481781</t>
@@ -1052,16 +1052,16 @@
     <t xml:space="preserve">0.332711070775986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.324937492609024</t>
+    <t xml:space="preserve">0.324937462806702</t>
   </si>
   <si>
     <t xml:space="preserve">0.482500702142715</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44864097237587</t>
+    <t xml:space="preserve">0.448641031980515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.43594366312027</t>
+    <t xml:space="preserve">0.435943633317947</t>
   </si>
   <si>
     <t xml:space="preserve">0.423246264457703</t>
@@ -1076,16 +1076,16 @@
     <t xml:space="preserve">0.40800940990448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.427478700876236</t>
+    <t xml:space="preserve">0.427478730678558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419860273599625</t>
+    <t xml:space="preserve">0.419860303401947</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409702390432358</t>
+    <t xml:space="preserve">0.409702360630035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.392772525548935</t>
+    <t xml:space="preserve">0.392772555351257</t>
   </si>
   <si>
     <t xml:space="preserve">0.386000603437424</t>
@@ -1094,16 +1094,16 @@
     <t xml:space="preserve">0.384307593107224</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380921602249146</t>
+    <t xml:space="preserve">0.380921632051468</t>
   </si>
   <si>
     <t xml:space="preserve">0.396158486604691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.389386564493179</t>
+    <t xml:space="preserve">0.389386594295502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394465535879135</t>
+    <t xml:space="preserve">0.394465506076813</t>
   </si>
   <si>
     <t xml:space="preserve">0.377535670995712</t>
@@ -1112,37 +1112,37 @@
     <t xml:space="preserve">0.375842690467834</t>
   </si>
   <si>
-    <t xml:space="preserve">0.39107957482338</t>
+    <t xml:space="preserve">0.391079545021057</t>
   </si>
   <si>
     <t xml:space="preserve">0.490965634584427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461338430643082</t>
+    <t xml:space="preserve">0.461338460445404</t>
   </si>
   <si>
     <t xml:space="preserve">0.507895529270172</t>
   </si>
   <si>
-    <t xml:space="preserve">0.499430567026138</t>
+    <t xml:space="preserve">0.499430626630783</t>
   </si>
   <si>
-    <t xml:space="preserve">0.495198100805283</t>
+    <t xml:space="preserve">0.495198160409927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46557092666626</t>
+    <t xml:space="preserve">0.465570896863937</t>
   </si>
   <si>
     <t xml:space="preserve">0.452873528003693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440176069736481</t>
+    <t xml:space="preserve">0.440176129341125</t>
   </si>
   <si>
     <t xml:space="preserve">0.431711167097092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444408565759659</t>
+    <t xml:space="preserve">0.444408535957336</t>
   </si>
   <si>
     <t xml:space="preserve">0.457105994224548</t>
@@ -1154,10 +1154,10 @@
     <t xml:space="preserve">0.411395370960236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397851496934891</t>
+    <t xml:space="preserve">0.397851467132568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387693554162979</t>
+    <t xml:space="preserve">0.387693583965302</t>
   </si>
   <si>
     <t xml:space="preserve">0.382614612579346</t>
@@ -1169,19 +1169,19 @@
     <t xml:space="preserve">0.404623419046402</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413088351488113</t>
+    <t xml:space="preserve">0.413088381290436</t>
   </si>
   <si>
     <t xml:space="preserve">0.402930438518524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355526834726334</t>
+    <t xml:space="preserve">0.355526864528656</t>
   </si>
   <si>
     <t xml:space="preserve">0.336904019117355</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338597029447556</t>
+    <t xml:space="preserve">0.338596999645233</t>
   </si>
   <si>
     <t xml:space="preserve">0.357219845056534</t>
@@ -1190,13 +1190,13 @@
     <t xml:space="preserve">0.358912825584412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363991796970367</t>
+    <t xml:space="preserve">0.363991767168045</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367377758026123</t>
+    <t xml:space="preserve">0.367377728223801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370763719081879</t>
+    <t xml:space="preserve">0.370763689279556</t>
   </si>
   <si>
     <t xml:space="preserve">0.372456729412079</t>
@@ -1205,7 +1205,7 @@
     <t xml:space="preserve">0.379228681325912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369070738554001</t>
+    <t xml:space="preserve">0.369070768356323</t>
   </si>
   <si>
     <t xml:space="preserve">0.347061932086945</t>
@@ -1220,10 +1220,10 @@
     <t xml:space="preserve">0.3521409034729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362298786640167</t>
+    <t xml:space="preserve">0.36229881644249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356533944606781</t>
+    <t xml:space="preserve">0.356533914804459</t>
   </si>
   <si>
     <t xml:space="preserve">0.361855328083038</t>
@@ -1232,10 +1232,10 @@
     <t xml:space="preserve">0.352986335754395</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358307719230652</t>
+    <t xml:space="preserve">0.358307749032974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372498095035553</t>
+    <t xml:space="preserve">0.372498124837875</t>
   </si>
   <si>
     <t xml:space="preserve">0.374271929264069</t>
@@ -1256,13 +1256,13 @@
     <t xml:space="preserve">0.328153133392334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338795900344849</t>
+    <t xml:space="preserve">0.338795930147171</t>
   </si>
   <si>
     <t xml:space="preserve">0.354760140180588</t>
   </si>
   <si>
-    <t xml:space="preserve">0.337022125720978</t>
+    <t xml:space="preserve">0.337022095918655</t>
   </si>
   <si>
     <t xml:space="preserve">0.335248321294785</t>
@@ -1271,7 +1271,7 @@
     <t xml:space="preserve">0.326379328966141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317510336637497</t>
+    <t xml:space="preserve">0.317510306835175</t>
   </si>
   <si>
     <t xml:space="preserve">0.322831720113754</t>
@@ -1280,19 +1280,19 @@
     <t xml:space="preserve">0.31396272778511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.310415118932724</t>
+    <t xml:space="preserve">0.310415089130402</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312188893556595</t>
+    <t xml:space="preserve">0.312188923358917</t>
   </si>
   <si>
-    <t xml:space="preserve">0.303319931030273</t>
+    <t xml:space="preserve">0.303319901227951</t>
   </si>
   <si>
     <t xml:space="preserve">0.315736532211304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.305093705654144</t>
+    <t xml:space="preserve">0.305093735456467</t>
   </si>
   <si>
     <t xml:space="preserve">0.31928414106369</t>
@@ -1301,13 +1301,13 @@
     <t xml:space="preserve">0.321057915687561</t>
   </si>
   <si>
-    <t xml:space="preserve">0.331700712442398</t>
+    <t xml:space="preserve">0.33170074224472</t>
   </si>
   <si>
     <t xml:space="preserve">0.333474516868591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345891088247299</t>
+    <t xml:space="preserve">0.345891118049622</t>
   </si>
   <si>
     <t xml:space="preserve">0.324605524539948</t>
@@ -1316,7 +1316,7 @@
     <t xml:space="preserve">0.388462334871292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379593312740326</t>
+    <t xml:space="preserve">0.379593342542648</t>
   </si>
   <si>
     <t xml:space="preserve">0.381367146968842</t>
@@ -1325,13 +1325,13 @@
     <t xml:space="preserve">0.383140951395035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.376045733690262</t>
+    <t xml:space="preserve">0.376045703887939</t>
   </si>
   <si>
     <t xml:space="preserve">0.377819538116455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395557582378387</t>
+    <t xml:space="preserve">0.395557552576065</t>
   </si>
   <si>
     <t xml:space="preserve">0.331567615270615</t>
@@ -58462,7 +58462,7 @@
     </row>
     <row r="2180">
       <c r="A2180" s="1" t="n">
-        <v>45497.6347916667</v>
+        <v>45497.2916666667</v>
       </c>
       <c r="B2180" t="n">
         <v>4000</v>

--- a/data/POPR.MI.xlsx
+++ b/data/POPR.MI.xlsx
@@ -47,10 +47,10 @@
     <t xml:space="preserve">0.198275223374367</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194041594862938</t>
+    <t xml:space="preserve">0.19404162466526</t>
   </si>
   <si>
-    <t xml:space="preserve">0.192630365490913</t>
+    <t xml:space="preserve">0.192630380392075</t>
   </si>
   <si>
     <t xml:space="preserve">0.184163123369217</t>
@@ -59,19 +59,19 @@
     <t xml:space="preserve">0.19051356613636</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167228564620018</t>
+    <t xml:space="preserve">0.167228579521179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160878121852875</t>
+    <t xml:space="preserve">0.160878106951714</t>
   </si>
   <si>
     <t xml:space="preserve">0.16814586520195</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16299495100975</t>
+    <t xml:space="preserve">0.162994936108589</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171462222933769</t>
+    <t xml:space="preserve">0.171462208032608</t>
   </si>
   <si>
     <t xml:space="preserve">0.172167807817459</t>
@@ -89,25 +89,25 @@
     <t xml:space="preserve">0.156644493341446</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157067865133286</t>
+    <t xml:space="preserve">0.157067835330963</t>
   </si>
   <si>
     <t xml:space="preserve">0.159466907382011</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155938863754272</t>
+    <t xml:space="preserve">0.155938893556595</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169627651572227</t>
+    <t xml:space="preserve">0.169627636671066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191219180822372</t>
+    <t xml:space="preserve">0.19121915102005</t>
   </si>
   <si>
     <t xml:space="preserve">0.187267780303955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183457508683205</t>
+    <t xml:space="preserve">0.183457493782043</t>
   </si>
   <si>
     <t xml:space="preserve">0.176401451230049</t>
@@ -116,85 +116,85 @@
     <t xml:space="preserve">0.173579022288322</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16793417930603</t>
+    <t xml:space="preserve">0.167934194207191</t>
   </si>
   <si>
     <t xml:space="preserve">0.174778565764427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180635094642639</t>
+    <t xml:space="preserve">0.180635079741478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178447723388672</t>
+    <t xml:space="preserve">0.178447708487511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199051395058632</t>
+    <t xml:space="preserve">0.199051409959793</t>
   </si>
   <si>
-    <t xml:space="preserve">0.19898085296154</t>
+    <t xml:space="preserve">0.198980838060379</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191924810409546</t>
+    <t xml:space="preserve">0.191924780607224</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186279937624931</t>
+    <t xml:space="preserve">0.18627992272377</t>
   </si>
   <si>
     <t xml:space="preserve">0.211681738495827</t>
   </si>
   <si>
-    <t xml:space="preserve">0.216268181800842</t>
+    <t xml:space="preserve">0.216268166899681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.215209752321243</t>
+    <t xml:space="preserve">0.215209767222404</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206742510199547</t>
+    <t xml:space="preserve">0.206742525100708</t>
   </si>
   <si>
     <t xml:space="preserve">0.203920096158981</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225793853402138</t>
+    <t xml:space="preserve">0.225793838500977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234261125326157</t>
+    <t xml:space="preserve">0.234261110424995</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225723311305046</t>
+    <t xml:space="preserve">0.225723296403885</t>
   </si>
   <si>
     <t xml:space="preserve">0.220854625105858</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218032196164131</t>
+    <t xml:space="preserve">0.218032166361809</t>
   </si>
   <si>
-    <t xml:space="preserve">0.201097667217255</t>
+    <t xml:space="preserve">0.201097652316093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.20462566614151</t>
+    <t xml:space="preserve">0.204625681042671</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190654709935188</t>
+    <t xml:space="preserve">0.190654695034027</t>
   </si>
   <si>
-    <t xml:space="preserve">0.189102366566658</t>
+    <t xml:space="preserve">0.189102351665497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182751908898354</t>
+    <t xml:space="preserve">0.182751893997192</t>
   </si>
   <si>
     <t xml:space="preserve">0.170192122459412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186985537409782</t>
+    <t xml:space="preserve">0.186985522508621</t>
   </si>
   <si>
     <t xml:space="preserve">0.176330894231796</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170756578445435</t>
+    <t xml:space="preserve">0.170756593346596</t>
   </si>
   <si>
     <t xml:space="preserve">0.172873437404633</t>
@@ -203,55 +203,55 @@
     <t xml:space="preserve">0.176965937018394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208859354257584</t>
+    <t xml:space="preserve">0.2088593095541</t>
   </si>
   <si>
     <t xml:space="preserve">0.210976108908653</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206036880612373</t>
+    <t xml:space="preserve">0.206036895513535</t>
   </si>
   <si>
-    <t xml:space="preserve">0.203990653157234</t>
+    <t xml:space="preserve">0.203990623354912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187691166996956</t>
+    <t xml:space="preserve">0.187691137194633</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179929479956627</t>
+    <t xml:space="preserve">0.179929465055466</t>
   </si>
   <si>
     <t xml:space="preserve">0.165111750364304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170051008462906</t>
+    <t xml:space="preserve">0.170050993561745</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166522979736328</t>
+    <t xml:space="preserve">0.166522964835167</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162289351224899</t>
+    <t xml:space="preserve">0.162289321422577</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177812650799751</t>
+    <t xml:space="preserve">0.177812665700912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185433223843575</t>
+    <t xml:space="preserve">0.185433208942413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191571980714798</t>
+    <t xml:space="preserve">0.191571950912476</t>
   </si>
   <si>
     <t xml:space="preserve">0.193335980176926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.204978466033936</t>
+    <t xml:space="preserve">0.204978480935097</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225088268518448</t>
+    <t xml:space="preserve">0.225088238716125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.217326611280441</t>
+    <t xml:space="preserve">0.217326581478119</t>
   </si>
   <si>
     <t xml:space="preserve">0.199968695640564</t>
@@ -260,49 +260,49 @@
     <t xml:space="preserve">0.214151367545128</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225652739405632</t>
+    <t xml:space="preserve">0.225652724504471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218737781047821</t>
+    <t xml:space="preserve">0.218737795948982</t>
   </si>
   <si>
     <t xml:space="preserve">0.215280324220657</t>
   </si>
   <si>
-    <t xml:space="preserve">0.224382624030113</t>
+    <t xml:space="preserve">0.224382653832436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.239200383424759</t>
+    <t xml:space="preserve">0.239200353622437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243363410234451</t>
+    <t xml:space="preserve">0.243363454937935</t>
   </si>
   <si>
     <t xml:space="preserve">0.261074155569077</t>
   </si>
   <si>
-    <t xml:space="preserve">0.267424583435059</t>
+    <t xml:space="preserve">0.267424613237381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.282242327928543</t>
+    <t xml:space="preserve">0.282242298126221</t>
   </si>
   <si>
-    <t xml:space="preserve">0.299882501363754</t>
+    <t xml:space="preserve">0.299882471561432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309055328369141</t>
+    <t xml:space="preserve">0.309055298566818</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325989902019501</t>
+    <t xml:space="preserve">0.325989872217178</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335162758827209</t>
+    <t xml:space="preserve">0.335162729024887</t>
   </si>
   <si>
-    <t xml:space="preserve">0.289298415184021</t>
+    <t xml:space="preserve">0.289298385381699</t>
   </si>
   <si>
-    <t xml:space="preserve">0.292050212621689</t>
+    <t xml:space="preserve">0.292050242424011</t>
   </si>
   <si>
     <t xml:space="preserve">0.28090164065361</t>
@@ -311,19 +311,19 @@
     <t xml:space="preserve">0.280831098556519</t>
   </si>
   <si>
-    <t xml:space="preserve">0.272575527429581</t>
+    <t xml:space="preserve">0.272575557231903</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273069441318512</t>
+    <t xml:space="preserve">0.27306941151619</t>
   </si>
   <si>
-    <t xml:space="preserve">0.27321058511734</t>
+    <t xml:space="preserve">0.273210555315018</t>
   </si>
   <si>
     <t xml:space="preserve">0.257546126842499</t>
   </si>
   <si>
-    <t xml:space="preserve">0.262485355138779</t>
+    <t xml:space="preserve">0.262485384941101</t>
   </si>
   <si>
     <t xml:space="preserve">0.236377954483032</t>
@@ -332,19 +332,19 @@
     <t xml:space="preserve">0.232285410165787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237789139151573</t>
+    <t xml:space="preserve">0.237789168953896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234331697225571</t>
+    <t xml:space="preserve">0.234331682324409</t>
   </si>
   <si>
     <t xml:space="preserve">0.266718983650208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.275186240673065</t>
+    <t xml:space="preserve">0.275186270475388</t>
   </si>
   <si>
-    <t xml:space="preserve">0.259098410606384</t>
+    <t xml:space="preserve">0.259098440408707</t>
   </si>
   <si>
     <t xml:space="preserve">0.255429297685623</t>
@@ -353,37 +353,37 @@
     <t xml:space="preserve">0.264602184295654</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254018098115921</t>
+    <t xml:space="preserve">0.254018127918243</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250490069389343</t>
+    <t xml:space="preserve">0.250490039587021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243433982133865</t>
+    <t xml:space="preserve">0.243433997035027</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249643310904503</t>
+    <t xml:space="preserve">0.249643340706825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.239270955324173</t>
+    <t xml:space="preserve">0.239270925521851</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225864440202713</t>
+    <t xml:space="preserve">0.225864425301552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229321867227554</t>
+    <t xml:space="preserve">0.229321911931038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232144296169281</t>
+    <t xml:space="preserve">0.232144311070442</t>
   </si>
   <si>
     <t xml:space="preserve">0.231438711285591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232849910855293</t>
+    <t xml:space="preserve">0.232849925756454</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234402254223824</t>
+    <t xml:space="preserve">0.234402239322662</t>
   </si>
   <si>
     <t xml:space="preserve">0.23793026804924</t>
@@ -392,10 +392,10 @@
     <t xml:space="preserve">0.253312468528748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246820896863937</t>
+    <t xml:space="preserve">0.246820911765099</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247879356145859</t>
+    <t xml:space="preserve">0.247879311442375</t>
   </si>
   <si>
     <t xml:space="preserve">0.257616698741913</t>
@@ -404,22 +404,22 @@
     <t xml:space="preserve">0.263120383024216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.252042382955551</t>
+    <t xml:space="preserve">0.252042412757874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246962025761604</t>
+    <t xml:space="preserve">0.246962040662766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246679827570915</t>
+    <t xml:space="preserve">0.246679753065109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243504568934441</t>
+    <t xml:space="preserve">0.243504524230957</t>
   </si>
   <si>
-    <t xml:space="preserve">0.259662955999374</t>
+    <t xml:space="preserve">0.259662926197052</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243645682930946</t>
+    <t xml:space="preserve">0.243645668029785</t>
   </si>
   <si>
     <t xml:space="preserve">0.250701755285263</t>
@@ -434,34 +434,34 @@
     <t xml:space="preserve">0.522148311138153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.612465739250183</t>
+    <t xml:space="preserve">0.612465798854828</t>
   </si>
   <si>
-    <t xml:space="preserve">0.535554766654968</t>
+    <t xml:space="preserve">0.535554707050323</t>
   </si>
   <si>
-    <t xml:space="preserve">0.490395992994308</t>
+    <t xml:space="preserve">0.490396022796631</t>
   </si>
   <si>
-    <t xml:space="preserve">0.473814278841019</t>
+    <t xml:space="preserve">0.473814308643341</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444531679153442</t>
+    <t xml:space="preserve">0.444531619548798</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40925133228302</t>
+    <t xml:space="preserve">0.409251362085342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464994192123413</t>
+    <t xml:space="preserve">0.464994162321091</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412426590919495</t>
+    <t xml:space="preserve">0.412426620721817</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419835478067398</t>
+    <t xml:space="preserve">0.419835448265076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388788849115372</t>
+    <t xml:space="preserve">0.388788759708405</t>
   </si>
   <si>
     <t xml:space="preserve">0.36585658788681</t>
@@ -470,22 +470,22 @@
     <t xml:space="preserve">0.353508532047272</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366562187671661</t>
+    <t xml:space="preserve">0.366562217473984</t>
   </si>
   <si>
-    <t xml:space="preserve">0.375382333993912</t>
+    <t xml:space="preserve">0.375382274389267</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361270189285278</t>
+    <t xml:space="preserve">0.361270159482956</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391611218452454</t>
+    <t xml:space="preserve">0.391611188650131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383143961429596</t>
+    <t xml:space="preserve">0.383143901824951</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366915017366409</t>
+    <t xml:space="preserve">0.366914987564087</t>
   </si>
   <si>
     <t xml:space="preserve">0.357389330863953</t>
@@ -494,7 +494,7 @@
     <t xml:space="preserve">0.360564529895782</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373971074819565</t>
+    <t xml:space="preserve">0.373971045017242</t>
   </si>
   <si>
     <t xml:space="preserve">0.370443046092987</t>
@@ -503,22 +503,22 @@
     <t xml:space="preserve">0.356330931186676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364092588424683</t>
+    <t xml:space="preserve">0.36409255862236</t>
   </si>
   <si>
     <t xml:space="preserve">0.352802902460098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349980473518372</t>
+    <t xml:space="preserve">0.349980443716049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.375735133886337</t>
+    <t xml:space="preserve">0.375735104084015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357036530971527</t>
+    <t xml:space="preserve">0.357036501169205</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355625301599503</t>
+    <t xml:space="preserve">0.355625331401825</t>
   </si>
   <si>
     <t xml:space="preserve">0.368679016828537</t>
@@ -530,7 +530,7 @@
     <t xml:space="preserve">0.368326246738434</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338690787553787</t>
+    <t xml:space="preserve">0.338690757751465</t>
   </si>
   <si>
     <t xml:space="preserve">0.348569244146347</t>
@@ -539,46 +539,46 @@
     <t xml:space="preserve">0.349204301834106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359858959913254</t>
+    <t xml:space="preserve">0.359858930110931</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365503817796707</t>
+    <t xml:space="preserve">0.365503787994385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402195334434509</t>
+    <t xml:space="preserve">0.402195304632187</t>
   </si>
   <si>
     <t xml:space="preserve">0.38102713227272</t>
   </si>
   <si>
-    <t xml:space="preserve">0.381732732057571</t>
+    <t xml:space="preserve">0.381732761859894</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358447760343552</t>
+    <t xml:space="preserve">0.358447730541229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379263132810593</t>
+    <t xml:space="preserve">0.379263162612915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353155732154846</t>
+    <t xml:space="preserve">0.353155702352524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367973417043686</t>
+    <t xml:space="preserve">0.367973387241364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437475562095642</t>
+    <t xml:space="preserve">0.437475591897964</t>
   </si>
   <si>
     <t xml:space="preserve">0.414896190166473</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414190620183945</t>
+    <t xml:space="preserve">0.414190590381622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415601760149002</t>
+    <t xml:space="preserve">0.415601789951324</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408192902803421</t>
+    <t xml:space="preserve">0.408192992210388</t>
   </si>
   <si>
     <t xml:space="preserve">0.416307389736176</t>
@@ -590,148 +590,148 @@
     <t xml:space="preserve">0.392669647932053</t>
   </si>
   <si>
-    <t xml:space="preserve">0.39796170592308</t>
+    <t xml:space="preserve">0.397961676120758</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412073761224747</t>
+    <t xml:space="preserve">0.412073791027069</t>
   </si>
   <si>
     <t xml:space="preserve">0.436417162418365</t>
   </si>
   <si>
-    <t xml:space="preserve">0.439592480659485</t>
+    <t xml:space="preserve">0.439592391252518</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424069136381149</t>
+    <t xml:space="preserve">0.424069106578827</t>
   </si>
   <si>
     <t xml:space="preserve">0.423363476991653</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434653222560883</t>
+    <t xml:space="preserve">0.434653162956238</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423716276884079</t>
+    <t xml:space="preserve">0.423716306686401</t>
   </si>
   <si>
     <t xml:space="preserve">0.45793816447258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465699821710587</t>
+    <t xml:space="preserve">0.465699851512909</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440297991037369</t>
+    <t xml:space="preserve">0.440298050642014</t>
   </si>
   <si>
     <t xml:space="preserve">0.423010647296906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.433947622776031</t>
+    <t xml:space="preserve">0.433947563171387</t>
   </si>
   <si>
     <t xml:space="preserve">0.529204368591309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493218511343002</t>
+    <t xml:space="preserve">0.493218451738358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.508036196231842</t>
+    <t xml:space="preserve">0.508036255836487</t>
   </si>
   <si>
-    <t xml:space="preserve">0.486867964267731</t>
+    <t xml:space="preserve">0.486867994070053</t>
   </si>
   <si>
-    <t xml:space="preserve">0.491807192564011</t>
+    <t xml:space="preserve">0.491807252168655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.500980138778687</t>
+    <t xml:space="preserve">0.500980079174042</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493924051523209</t>
+    <t xml:space="preserve">0.493924081325531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474167078733444</t>
+    <t xml:space="preserve">0.474167168140411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.476989507675171</t>
+    <t xml:space="preserve">0.476989537477493</t>
   </si>
   <si>
     <t xml:space="preserve">0.472755908966064</t>
   </si>
   <si>
-    <t xml:space="preserve">0.460054963827133</t>
+    <t xml:space="preserve">0.460054993629456</t>
   </si>
   <si>
     <t xml:space="preserve">0.455821394920349</t>
   </si>
   <si>
-    <t xml:space="preserve">0.458643734455109</t>
+    <t xml:space="preserve">0.458643823862076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464288592338562</t>
+    <t xml:space="preserve">0.464288622140884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451587706804276</t>
+    <t xml:space="preserve">0.451587677001953</t>
   </si>
   <si>
-    <t xml:space="preserve">0.485456794500351</t>
+    <t xml:space="preserve">0.485456734895706</t>
   </si>
   <si>
-    <t xml:space="preserve">0.468522250652313</t>
+    <t xml:space="preserve">0.468522220849991</t>
   </si>
   <si>
-    <t xml:space="preserve">0.519325911998749</t>
+    <t xml:space="preserve">0.519325852394104</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47981196641922</t>
+    <t xml:space="preserve">0.479811936616898</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448765248060226</t>
+    <t xml:space="preserve">0.448765307664871</t>
   </si>
   <si>
-    <t xml:space="preserve">0.469933480024338</t>
+    <t xml:space="preserve">0.469933420419693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.475578278303146</t>
+    <t xml:space="preserve">0.475578337907791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46146622300148</t>
+    <t xml:space="preserve">0.461466193199158</t>
   </si>
   <si>
-    <t xml:space="preserve">0.447354078292847</t>
+    <t xml:space="preserve">0.447354108095169</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454410135746002</t>
+    <t xml:space="preserve">0.454410076141357</t>
   </si>
   <si>
     <t xml:space="preserve">0.429008334875107</t>
   </si>
   <si>
-    <t xml:space="preserve">0.430419504642487</t>
+    <t xml:space="preserve">0.430419534444809</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436064392328262</t>
+    <t xml:space="preserve">0.436064332723618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4529989361763</t>
+    <t xml:space="preserve">0.452998906373978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.484045535326004</t>
+    <t xml:space="preserve">0.484045565128326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47134467959404</t>
+    <t xml:space="preserve">0.471344649791718</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457232505083084</t>
+    <t xml:space="preserve">0.457232594490051</t>
   </si>
   <si>
-    <t xml:space="preserve">0.443120449781418</t>
+    <t xml:space="preserve">0.44312047958374</t>
   </si>
   <si>
     <t xml:space="preserve">0.462877422571182</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450176537036896</t>
+    <t xml:space="preserve">0.450176477432251</t>
   </si>
   <si>
     <t xml:space="preserve">0.467110991477966</t>
@@ -740,58 +740,58 @@
     <t xml:space="preserve">0.406428933143616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410662591457367</t>
+    <t xml:space="preserve">0.410662621259689</t>
   </si>
   <si>
     <t xml:space="preserve">0.407840192317963</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382438361644745</t>
+    <t xml:space="preserve">0.3824383020401</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369737446308136</t>
+    <t xml:space="preserve">0.369737416505814</t>
   </si>
   <si>
     <t xml:space="preserve">0.403606504201889</t>
   </si>
   <si>
-    <t xml:space="preserve">0.400784075260162</t>
+    <t xml:space="preserve">0.400784105062485</t>
   </si>
   <si>
     <t xml:space="preserve">0.386671960353851</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378204733133316</t>
+    <t xml:space="preserve">0.378204703330994</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379615873098373</t>
+    <t xml:space="preserve">0.379615902900696</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388083189725876</t>
+    <t xml:space="preserve">0.388083249330521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417718708515167</t>
+    <t xml:space="preserve">0.4177186191082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.433241933584213</t>
+    <t xml:space="preserve">0.433241993188858</t>
   </si>
   <si>
     <t xml:space="preserve">0.396550446748734</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405017733573914</t>
+    <t xml:space="preserve">0.405017703771591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424774706363678</t>
+    <t xml:space="preserve">0.424774676561356</t>
   </si>
   <si>
     <t xml:space="preserve">0.421952217817307</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419129848480225</t>
+    <t xml:space="preserve">0.41912978887558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431830734014511</t>
+    <t xml:space="preserve">0.431830763816833</t>
   </si>
   <si>
     <t xml:space="preserve">0.438886791467667</t>
@@ -800,25 +800,25 @@
     <t xml:space="preserve">0.441709250211716</t>
   </si>
   <si>
-    <t xml:space="preserve">0.476283937692642</t>
+    <t xml:space="preserve">0.476283878087997</t>
   </si>
   <si>
     <t xml:space="preserve">0.483339965343475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.504508197307587</t>
+    <t xml:space="preserve">0.504508137702942</t>
   </si>
   <si>
-    <t xml:space="preserve">0.511564195156097</t>
+    <t xml:space="preserve">0.511564254760742</t>
   </si>
   <si>
     <t xml:space="preserve">0.520832777023315</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497511863708496</t>
+    <t xml:space="preserve">0.497511833906174</t>
   </si>
   <si>
-    <t xml:space="preserve">0.48196467757225</t>
+    <t xml:space="preserve">0.481964647769928</t>
   </si>
   <si>
     <t xml:space="preserve">0.466417402029037</t>
@@ -827,25 +827,28 @@
     <t xml:space="preserve">0.478077828884125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.489738255739212</t>
+    <t xml:space="preserve">0.48973822593689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493625044822693</t>
+    <t xml:space="preserve">0.493625074625015</t>
   </si>
   <si>
     <t xml:space="preserve">0.485851466655731</t>
   </si>
   <si>
-    <t xml:space="preserve">0.470304220914841</t>
+    <t xml:space="preserve">0.470304250717163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.458643734455109</t>
   </si>
   <si>
     <t xml:space="preserve">0.450870126485825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.462530642747879</t>
+    <t xml:space="preserve">0.462530583143234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.435322850942612</t>
+    <t xml:space="preserve">0.435322910547256</t>
   </si>
   <si>
     <t xml:space="preserve">0.439209669828415</t>
@@ -854,43 +857,43 @@
     <t xml:space="preserve">0.454756945371628</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474190980195999</t>
+    <t xml:space="preserve">0.474191009998322</t>
   </si>
   <si>
     <t xml:space="preserve">0.501398622989655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.590795397758484</t>
+    <t xml:space="preserve">0.590795338153839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.505285501480103</t>
+    <t xml:space="preserve">0.505285561084747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513059198856354</t>
+    <t xml:space="preserve">0.513059139251709</t>
   </si>
   <si>
-    <t xml:space="preserve">0.509172260761261</t>
+    <t xml:space="preserve">0.509172320365906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446983367204666</t>
+    <t xml:space="preserve">0.446983307600021</t>
   </si>
   <si>
     <t xml:space="preserve">0.443096518516541</t>
   </si>
   <si>
-    <t xml:space="preserve">0.427549213171005</t>
+    <t xml:space="preserve">0.427549332380295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419775694608688</t>
+    <t xml:space="preserve">0.419775664806366</t>
   </si>
   <si>
-    <t xml:space="preserve">0.404228359460831</t>
+    <t xml:space="preserve">0.404228389263153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415888875722885</t>
+    <t xml:space="preserve">0.415888845920563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431436091661453</t>
+    <t xml:space="preserve">0.431436061859131</t>
   </si>
   <si>
     <t xml:space="preserve">0.412001997232437</t>
@@ -899,7 +902,7 @@
     <t xml:space="preserve">0.3824622631073</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380907535552979</t>
+    <t xml:space="preserve">0.380907565355301</t>
   </si>
   <si>
     <t xml:space="preserve">0.396454751491547</t>
@@ -914,7 +917,7 @@
     <t xml:space="preserve">0.349813044071198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352922469377518</t>
+    <t xml:space="preserve">0.35292249917984</t>
   </si>
   <si>
     <t xml:space="preserve">0.326492160558701</t>
@@ -923,28 +926,25 @@
     <t xml:space="preserve">0.290733516216278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312499642372131</t>
+    <t xml:space="preserve">0.312499612569809</t>
   </si>
   <si>
-    <t xml:space="preserve">0.295397698879242</t>
+    <t xml:space="preserve">0.29539766907692</t>
   </si>
   <si>
     <t xml:space="preserve">0.306280761957169</t>
   </si>
   <si>
-    <t xml:space="preserve">0.293842911720276</t>
+    <t xml:space="preserve">0.293842941522598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.275186270475388</t>
+    <t xml:space="preserve">0.279850482940674</t>
   </si>
   <si>
-    <t xml:space="preserve">0.279850453138351</t>
+    <t xml:space="preserve">0.273631513118744</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273631542921066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.320273280143738</t>
+    <t xml:space="preserve">0.320273250341415</t>
   </si>
   <si>
     <t xml:space="preserve">0.321827977895737</t>
@@ -953,28 +953,28 @@
     <t xml:space="preserve">0.304726034402847</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314054369926453</t>
+    <t xml:space="preserve">0.314054399728775</t>
   </si>
   <si>
     <t xml:space="preserve">0.315609097480774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.331156343221664</t>
+    <t xml:space="preserve">0.331156313419342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34048467874527</t>
+    <t xml:space="preserve">0.340484648942947</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346703588962555</t>
+    <t xml:space="preserve">0.346703618764877</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37935283780098</t>
+    <t xml:space="preserve">0.379352807998657</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365360260009766</t>
+    <t xml:space="preserve">0.365360289812088</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359141409397125</t>
+    <t xml:space="preserve">0.359141379594803</t>
   </si>
   <si>
     <t xml:space="preserve">0.38557168841362</t>
@@ -983,13 +983,13 @@
     <t xml:space="preserve">0.408115208148956</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423662453889847</t>
+    <t xml:space="preserve">0.423662483692169</t>
   </si>
   <si>
     <t xml:space="preserve">0.368469744920731</t>
   </si>
   <si>
-    <t xml:space="preserve">0.371579170227051</t>
+    <t xml:space="preserve">0.371579200029373</t>
   </si>
   <si>
     <t xml:space="preserve">0.377798080444336</t>
@@ -998,10 +998,10 @@
     <t xml:space="preserve">0.392567962408066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387126415967941</t>
+    <t xml:space="preserve">0.387126445770264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362250804901123</t>
+    <t xml:space="preserve">0.362250834703445</t>
   </si>
   <si>
     <t xml:space="preserve">0.363805562257767</t>
@@ -1010,55 +1010,55 @@
     <t xml:space="preserve">0.360696107149124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357586681842804</t>
+    <t xml:space="preserve">0.357586652040482</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34359410405159</t>
+    <t xml:space="preserve">0.343594163656235</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35603192448616</t>
+    <t xml:space="preserve">0.356031954288483</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342039406299591</t>
+    <t xml:space="preserve">0.342039436101913</t>
   </si>
   <si>
-    <t xml:space="preserve">0.334265768527985</t>
+    <t xml:space="preserve">0.334265798330307</t>
   </si>
   <si>
-    <t xml:space="preserve">0.318718522787094</t>
+    <t xml:space="preserve">0.318718552589417</t>
   </si>
   <si>
-    <t xml:space="preserve">0.323382705450058</t>
+    <t xml:space="preserve">0.32338273525238</t>
   </si>
   <si>
     <t xml:space="preserve">0.296952396631241</t>
   </si>
   <si>
-    <t xml:space="preserve">0.300061851739883</t>
+    <t xml:space="preserve">0.300061881542206</t>
   </si>
   <si>
     <t xml:space="preserve">0.292288213968277</t>
   </si>
   <si>
-    <t xml:space="preserve">0.298507124185562</t>
+    <t xml:space="preserve">0.298507153987885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.303171277046204</t>
+    <t xml:space="preserve">0.303171306848526</t>
   </si>
   <si>
     <t xml:space="preserve">0.31094491481781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.328046858310699</t>
+    <t xml:space="preserve">0.328046917915344</t>
   </si>
   <si>
     <t xml:space="preserve">0.332711070775986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.324937433004379</t>
+    <t xml:space="preserve">0.324937492609024</t>
   </si>
   <si>
-    <t xml:space="preserve">0.48250076174736</t>
+    <t xml:space="preserve">0.482500702142715</t>
   </si>
   <si>
     <t xml:space="preserve">0.448641031980515</t>
@@ -1073,22 +1073,22 @@
     <t xml:space="preserve">0.40631639957428</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414781332015991</t>
+    <t xml:space="preserve">0.414781361818314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408009380102158</t>
+    <t xml:space="preserve">0.40800940990448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.427478700876236</t>
+    <t xml:space="preserve">0.427478730678558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419860273599625</t>
+    <t xml:space="preserve">0.419860303401947</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409702390432358</t>
+    <t xml:space="preserve">0.409702360630035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.392772525548935</t>
+    <t xml:space="preserve">0.392772555351257</t>
   </si>
   <si>
     <t xml:space="preserve">0.386000603437424</t>
@@ -1100,10 +1100,10 @@
     <t xml:space="preserve">0.380921632051468</t>
   </si>
   <si>
-    <t xml:space="preserve">0.396158516407013</t>
+    <t xml:space="preserve">0.396158486604691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.389386564493179</t>
+    <t xml:space="preserve">0.389386594295502</t>
   </si>
   <si>
     <t xml:space="preserve">0.394465506076813</t>
@@ -1115,40 +1115,40 @@
     <t xml:space="preserve">0.375842690467834</t>
   </si>
   <si>
-    <t xml:space="preserve">0.39107957482338</t>
+    <t xml:space="preserve">0.391079545021057</t>
   </si>
   <si>
     <t xml:space="preserve">0.490965634584427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461338430643082</t>
+    <t xml:space="preserve">0.461338460445404</t>
   </si>
   <si>
     <t xml:space="preserve">0.507895529270172</t>
   </si>
   <si>
-    <t xml:space="preserve">0.499430596828461</t>
+    <t xml:space="preserve">0.499430626630783</t>
   </si>
   <si>
-    <t xml:space="preserve">0.495198100805283</t>
+    <t xml:space="preserve">0.495198160409927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465570867061615</t>
+    <t xml:space="preserve">0.465570896863937</t>
   </si>
   <si>
     <t xml:space="preserve">0.452873528003693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440176069736481</t>
+    <t xml:space="preserve">0.440176129341125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431711196899414</t>
+    <t xml:space="preserve">0.431711167097092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444408565759659</t>
+    <t xml:space="preserve">0.444408535957336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457106024026871</t>
+    <t xml:space="preserve">0.457105994224548</t>
   </si>
   <si>
     <t xml:space="preserve">0.418167293071747</t>
@@ -1157,16 +1157,16 @@
     <t xml:space="preserve">0.411395370960236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397851496934891</t>
+    <t xml:space="preserve">0.397851467132568</t>
   </si>
   <si>
     <t xml:space="preserve">0.387693583965302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382614582777023</t>
+    <t xml:space="preserve">0.382614612579346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.416474312543869</t>
+    <t xml:space="preserve">0.416474342346191</t>
   </si>
   <si>
     <t xml:space="preserve">0.404623419046402</t>
@@ -1178,7 +1178,7 @@
     <t xml:space="preserve">0.402930438518524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355526834726334</t>
+    <t xml:space="preserve">0.355526864528656</t>
   </si>
   <si>
     <t xml:space="preserve">0.336904019117355</t>
@@ -1187,28 +1187,28 @@
     <t xml:space="preserve">0.338596999645233</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357219815254211</t>
+    <t xml:space="preserve">0.357219845056534</t>
   </si>
   <si>
     <t xml:space="preserve">0.358912825584412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363991796970367</t>
+    <t xml:space="preserve">0.363991767168045</t>
   </si>
   <si>
     <t xml:space="preserve">0.367377728223801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370763719081879</t>
+    <t xml:space="preserve">0.370763689279556</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372456699609756</t>
+    <t xml:space="preserve">0.372456729412079</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37922865152359</t>
+    <t xml:space="preserve">0.379228681325912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369070738554001</t>
+    <t xml:space="preserve">0.369070768356323</t>
   </si>
   <si>
     <t xml:space="preserve">0.347061932086945</t>
@@ -1220,13 +1220,13 @@
     <t xml:space="preserve">0.340290009975433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352140873670578</t>
+    <t xml:space="preserve">0.3521409034729</t>
   </si>
   <si>
     <t xml:space="preserve">0.36229881644249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356533944606781</t>
+    <t xml:space="preserve">0.356533914804459</t>
   </si>
   <si>
     <t xml:space="preserve">0.361855328083038</t>
@@ -1244,7 +1244,7 @@
     <t xml:space="preserve">0.374271929264069</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360081553459167</t>
+    <t xml:space="preserve">0.360081523656845</t>
   </si>
   <si>
     <t xml:space="preserve">0.363629132509232</t>
@@ -1253,10 +1253,10 @@
     <t xml:space="preserve">0.351212531328201</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340569704771042</t>
+    <t xml:space="preserve">0.340569734573364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.328153103590012</t>
+    <t xml:space="preserve">0.328153133392334</t>
   </si>
   <si>
     <t xml:space="preserve">0.338795930147171</t>
@@ -1265,13 +1265,13 @@
     <t xml:space="preserve">0.354760140180588</t>
   </si>
   <si>
-    <t xml:space="preserve">0.337022125720978</t>
+    <t xml:space="preserve">0.337022095918655</t>
   </si>
   <si>
     <t xml:space="preserve">0.335248321294785</t>
   </si>
   <si>
-    <t xml:space="preserve">0.326379358768463</t>
+    <t xml:space="preserve">0.326379328966141</t>
   </si>
   <si>
     <t xml:space="preserve">0.317510306835175</t>
@@ -1289,13 +1289,13 @@
     <t xml:space="preserve">0.312188923358917</t>
   </si>
   <si>
-    <t xml:space="preserve">0.303319931030273</t>
+    <t xml:space="preserve">0.303319901227951</t>
   </si>
   <si>
     <t xml:space="preserve">0.315736532211304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.305093705654144</t>
+    <t xml:space="preserve">0.305093735456467</t>
   </si>
   <si>
     <t xml:space="preserve">0.31928414106369</t>
@@ -1325,10 +1325,10 @@
     <t xml:space="preserve">0.381367146968842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383140981197357</t>
+    <t xml:space="preserve">0.383140951395035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.376045733690262</t>
+    <t xml:space="preserve">0.376045703887939</t>
   </si>
   <si>
     <t xml:space="preserve">0.377819538116455</t>
@@ -1349,7 +1349,7 @@
     <t xml:space="preserve">0.320068180561066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.321984767913818</t>
+    <t xml:space="preserve">0.321984738111496</t>
   </si>
   <si>
     <t xml:space="preserve">0.33731734752655</t>
@@ -1361,19 +1361,19 @@
     <t xml:space="preserve">0.318151593208313</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312401860952377</t>
+    <t xml:space="preserve">0.3124018907547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.323901325464249</t>
+    <t xml:space="preserve">0.323901355266571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314318478107452</t>
+    <t xml:space="preserve">0.31431844830513</t>
   </si>
   <si>
     <t xml:space="preserve">0.306652128696442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.310485273599625</t>
+    <t xml:space="preserve">0.310485303401947</t>
   </si>
   <si>
     <t xml:space="preserve">0.302819013595581</t>
@@ -1382,16 +1382,16 @@
     <t xml:space="preserve">0.316235065460205</t>
   </si>
   <si>
-    <t xml:space="preserve">0.308568716049194</t>
+    <t xml:space="preserve">0.308568745851517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.304735541343689</t>
+    <t xml:space="preserve">0.304735571146011</t>
   </si>
   <si>
     <t xml:space="preserve">0.300902426242828</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341150492429733</t>
+    <t xml:space="preserve">0.341150522232056</t>
   </si>
   <si>
     <t xml:space="preserve">0.329651057720184</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">0.339233934879303</t>
   </si>
   <si>
-    <t xml:space="preserve">0.343067109584808</t>
+    <t xml:space="preserve">0.343067079782486</t>
   </si>
   <si>
     <t xml:space="preserve">0.344983696937561</t>
@@ -1409,16 +1409,16 @@
     <t xml:space="preserve">0.364149421453476</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358399718999863</t>
+    <t xml:space="preserve">0.35839968919754</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346900254487991</t>
+    <t xml:space="preserve">0.346900224685669</t>
   </si>
   <si>
     <t xml:space="preserve">0.352649986743927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350733399391174</t>
+    <t xml:space="preserve">0.350733369588852</t>
   </si>
   <si>
     <t xml:space="preserve">0.348816812038422</t>
@@ -25879,7 +25879,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G926" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -25905,7 +25905,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G927" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -25931,7 +25931,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G928" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -25957,7 +25957,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G929" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -25983,7 +25983,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G930" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -26009,7 +26009,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G931" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -26035,7 +26035,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G932" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -26061,7 +26061,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G933" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -26087,7 +26087,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G934" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -26113,7 +26113,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G935" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -26139,7 +26139,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G936" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -26165,7 +26165,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G937" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -26191,7 +26191,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G938" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -26217,7 +26217,7 @@
         <v>0.564999997615814</v>
       </c>
       <c r="G939" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -26243,7 +26243,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G940" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -26269,7 +26269,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G941" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -26321,7 +26321,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G943" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -26347,7 +26347,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G944" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -26373,7 +26373,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G945" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -26399,7 +26399,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G946" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -26425,7 +26425,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G947" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -26451,7 +26451,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G948" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -26477,7 +26477,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G949" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -26503,7 +26503,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G950" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -26529,7 +26529,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G951" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -26555,7 +26555,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G952" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -26581,7 +26581,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G953" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -26607,7 +26607,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G954" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -26633,7 +26633,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G955" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -26659,7 +26659,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G956" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -26685,7 +26685,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G957" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -26711,7 +26711,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G958" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -26737,7 +26737,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G959" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -26763,7 +26763,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G960" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -26789,7 +26789,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G961" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -26867,7 +26867,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G964" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -26945,7 +26945,7 @@
         <v>0.644999980926514</v>
       </c>
       <c r="G967" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -26971,7 +26971,7 @@
         <v>0.759999990463257</v>
       </c>
       <c r="G968" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -27023,7 +27023,7 @@
         <v>0.649999976158142</v>
       </c>
       <c r="G970" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -27049,7 +27049,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G971" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -27075,7 +27075,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G972" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -27101,7 +27101,7 @@
         <v>0.654999971389771</v>
       </c>
       <c r="G973" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -27257,7 +27257,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G979" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -27283,7 +27283,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G980" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -27309,7 +27309,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G981" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -27387,7 +27387,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G984" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -27413,7 +27413,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G985" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -27829,7 +27829,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1001" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -27855,7 +27855,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1002" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -27881,7 +27881,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1003" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -27907,7 +27907,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1004" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -27933,7 +27933,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1005" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -27959,7 +27959,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1006" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -27985,7 +27985,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1007" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -28011,7 +28011,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1008" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -28037,7 +28037,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1009" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -28089,7 +28089,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1011" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -28115,7 +28115,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1012" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -28141,7 +28141,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1013" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -28167,7 +28167,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1014" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -28193,7 +28193,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1015" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -28219,7 +28219,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1016" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -28245,7 +28245,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1017" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -28271,7 +28271,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1018" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -28297,7 +28297,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1019" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -28323,7 +28323,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1020" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -28349,7 +28349,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1021" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -28427,7 +28427,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1024" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -28453,7 +28453,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1025" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -28479,7 +28479,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1026" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -28505,7 +28505,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1027" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -28531,7 +28531,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1028" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -28557,7 +28557,7 @@
         <v>0.564999997615814</v>
       </c>
       <c r="G1029" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -28583,7 +28583,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1030" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -28609,7 +28609,7 @@
         <v>0.550000011920929</v>
       </c>
       <c r="G1031" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -28635,7 +28635,7 @@
         <v>0.550000011920929</v>
       </c>
       <c r="G1032" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -28661,7 +28661,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1033" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -28687,7 +28687,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1034" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -28713,7 +28713,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1035" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -28739,7 +28739,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1036" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -28765,7 +28765,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1037" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -28791,7 +28791,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1038" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -28817,7 +28817,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G1039" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -28843,7 +28843,7 @@
         <v>0.555000007152557</v>
       </c>
       <c r="G1040" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -28869,7 +28869,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1041" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -28895,7 +28895,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1042" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -28921,7 +28921,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1043" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -28947,7 +28947,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1044" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -29051,7 +29051,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1048" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -29103,7 +29103,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1050" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -29181,7 +29181,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1053" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -29207,7 +29207,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1054" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -29233,7 +29233,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1055" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -29259,7 +29259,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1056" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -29285,7 +29285,7 @@
         <v>0.492000013589859</v>
       </c>
       <c r="G1057" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -29311,7 +29311,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1058" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -29337,7 +29337,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1059" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -29363,7 +29363,7 @@
         <v>0.5</v>
       </c>
       <c r="G1060" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -29389,7 +29389,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1061" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -29415,7 +29415,7 @@
         <v>0.5</v>
       </c>
       <c r="G1062" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -29441,7 +29441,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1063" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -29467,7 +29467,7 @@
         <v>0.453999996185303</v>
       </c>
       <c r="G1064" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -29493,7 +29493,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1065" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -29519,7 +29519,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G1066" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -29545,7 +29545,7 @@
         <v>0.40200001001358</v>
       </c>
       <c r="G1067" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -29571,7 +29571,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1068" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -29597,7 +29597,7 @@
         <v>0.393999993801117</v>
       </c>
       <c r="G1069" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -29623,7 +29623,7 @@
         <v>0.377999991178513</v>
       </c>
       <c r="G1070" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -29649,7 +29649,7 @@
         <v>0.354000002145767</v>
       </c>
       <c r="G1071" t="s">
-        <v>307</v>
+        <v>109</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -29831,7 +29831,7 @@
         <v>0.40200001001358</v>
       </c>
       <c r="G1078" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -29961,7 +29961,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1083" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -29987,7 +29987,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1084" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -30013,7 +30013,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1085" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -30065,7 +30065,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1087" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -30091,7 +30091,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1088" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -30169,7 +30169,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1091" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -30559,7 +30559,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1106" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -30585,7 +30585,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1107" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -30689,7 +30689,7 @@
         <v>0.5</v>
       </c>
       <c r="G1111" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -30741,7 +30741,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1113" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -30767,7 +30767,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1114" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -30793,7 +30793,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1115" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -30897,7 +30897,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1119" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -30923,7 +30923,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1120" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -30949,7 +30949,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1121" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -31001,7 +31001,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1123" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -31027,7 +31027,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1124" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -31053,7 +31053,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1125" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -31079,7 +31079,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1126" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -31105,7 +31105,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G1127" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -31131,7 +31131,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1128" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -31157,7 +31157,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1129" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -31183,7 +31183,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1130" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -31209,7 +31209,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1131" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -31235,7 +31235,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1132" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -31261,7 +31261,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1133" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -31287,7 +31287,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1134" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -31313,7 +31313,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1135" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -31339,7 +31339,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1136" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -31365,7 +31365,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1137" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -31391,7 +31391,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1138" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -31417,7 +31417,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1139" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -31443,7 +31443,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1140" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -31469,7 +31469,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1141" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -31495,7 +31495,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1142" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -31521,7 +31521,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1143" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -31547,7 +31547,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1144" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -31573,7 +31573,7 @@
         <v>0.5</v>
       </c>
       <c r="G1145" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -31599,7 +31599,7 @@
         <v>0.5</v>
       </c>
       <c r="G1146" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -31625,7 +31625,7 @@
         <v>0.5</v>
       </c>
       <c r="G1147" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -31651,7 +31651,7 @@
         <v>0.5</v>
       </c>
       <c r="G1148" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -31677,7 +31677,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1149" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -31729,7 +31729,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1151" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -31755,7 +31755,7 @@
         <v>0.5</v>
       </c>
       <c r="G1152" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -31781,7 +31781,7 @@
         <v>0.5</v>
       </c>
       <c r="G1153" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -31833,7 +31833,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1155" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -32015,7 +32015,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1162" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32041,7 +32041,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1163" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -32067,7 +32067,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1164" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -32093,7 +32093,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1165" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -32431,7 +32431,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1178" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -32925,7 +32925,7 @@
         <v>0.453999996185303</v>
       </c>
       <c r="G1197" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -33965,7 +33965,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1237" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -34173,7 +34173,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G1245" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -34199,7 +34199,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G1246" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -34693,7 +34693,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1265" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -35343,7 +35343,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1290" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -35369,7 +35369,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1291" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -35421,7 +35421,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1293" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -35447,7 +35447,7 @@
         <v>0.5</v>
       </c>
       <c r="G1294" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -35473,7 +35473,7 @@
         <v>0.550000011920929</v>
       </c>
       <c r="G1295" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -35499,7 +35499,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1296" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -35551,7 +35551,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1298" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -35577,7 +35577,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1299" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -35603,7 +35603,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1300" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -35655,7 +35655,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1302" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -35681,7 +35681,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1303" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -35707,7 +35707,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1304" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -35733,7 +35733,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1305" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -35759,7 +35759,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1306" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -35785,7 +35785,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1307" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -35811,7 +35811,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1308" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -35837,7 +35837,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1309" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -35863,7 +35863,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1310" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -58564,6 +58564,32 @@
         <v>478</v>
       </c>
       <c r="H2183" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" s="1" t="n">
+        <v>45503.2916666667</v>
+      </c>
+      <c r="B2184" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2184" t="n">
+        <v>0.342000007629395</v>
+      </c>
+      <c r="D2184" t="n">
+        <v>0.342000007629395</v>
+      </c>
+      <c r="E2184" t="n">
+        <v>0.342000007629395</v>
+      </c>
+      <c r="F2184" t="n">
+        <v>0.342000007629395</v>
+      </c>
+      <c r="G2184" t="s">
+        <v>478</v>
+      </c>
+      <c r="H2184" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/POPR.MI.xlsx
+++ b/data/POPR.MI.xlsx
@@ -47,31 +47,31 @@
     <t xml:space="preserve">0.198275223374367</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194041594862938</t>
+    <t xml:space="preserve">0.194041579961777</t>
   </si>
   <si>
-    <t xml:space="preserve">0.192630380392075</t>
+    <t xml:space="preserve">0.192630395293236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184163108468056</t>
+    <t xml:space="preserve">0.184163123369217</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190513595938683</t>
+    <t xml:space="preserve">0.19051356613636</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16722859442234</t>
+    <t xml:space="preserve">0.167228579521179</t>
   </si>
   <si>
     <t xml:space="preserve">0.160878121852875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16814586520195</t>
+    <t xml:space="preserve">0.168145850300789</t>
   </si>
   <si>
     <t xml:space="preserve">0.162994936108589</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171462193131447</t>
+    <t xml:space="preserve">0.171462208032608</t>
   </si>
   <si>
     <t xml:space="preserve">0.172167807817459</t>
@@ -80,28 +80,28 @@
     <t xml:space="preserve">0.16927482187748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164406165480614</t>
+    <t xml:space="preserve">0.164406135678291</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156997293233871</t>
+    <t xml:space="preserve">0.15699727833271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156644478440285</t>
+    <t xml:space="preserve">0.156644493341446</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157067850232124</t>
+    <t xml:space="preserve">0.157067835330963</t>
   </si>
   <si>
     <t xml:space="preserve">0.159466907382011</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155938893556595</t>
+    <t xml:space="preserve">0.155938878655434</t>
   </si>
   <si>
     <t xml:space="preserve">0.169627636671066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191219165921211</t>
+    <t xml:space="preserve">0.191219180822372</t>
   </si>
   <si>
     <t xml:space="preserve">0.187267765402794</t>
@@ -116,19 +116,19 @@
     <t xml:space="preserve">0.173579037189484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167934194207191</t>
+    <t xml:space="preserve">0.167934164404869</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174778550863266</t>
+    <t xml:space="preserve">0.174778565764427</t>
   </si>
   <si>
     <t xml:space="preserve">0.180635094642639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178447708487511</t>
+    <t xml:space="preserve">0.178447693586349</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199051395058632</t>
+    <t xml:space="preserve">0.199051409959793</t>
   </si>
   <si>
     <t xml:space="preserve">0.198980823159218</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">0.191924795508385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.18627992272377</t>
+    <t xml:space="preserve">0.186279937624931</t>
   </si>
   <si>
     <t xml:space="preserve">0.211681738495827</t>
@@ -149,97 +149,97 @@
     <t xml:space="preserve">0.215209767222404</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206742510199547</t>
+    <t xml:space="preserve">0.206742525100708</t>
   </si>
   <si>
-    <t xml:space="preserve">0.203920096158981</t>
+    <t xml:space="preserve">0.203920066356659</t>
   </si>
   <si>
     <t xml:space="preserve">0.225793838500977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234261110424995</t>
+    <t xml:space="preserve">0.234261095523834</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225723296403885</t>
+    <t xml:space="preserve">0.225723281502724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220854610204697</t>
+    <t xml:space="preserve">0.220854595303535</t>
   </si>
   <si>
     <t xml:space="preserve">0.218032166361809</t>
   </si>
   <si>
-    <t xml:space="preserve">0.201097652316093</t>
+    <t xml:space="preserve">0.201097637414932</t>
   </si>
   <si>
-    <t xml:space="preserve">0.20462566614151</t>
+    <t xml:space="preserve">0.204625681042671</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190654695034027</t>
+    <t xml:space="preserve">0.190654709935188</t>
   </si>
   <si>
     <t xml:space="preserve">0.189102351665497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182751923799515</t>
+    <t xml:space="preserve">0.182751893997192</t>
   </si>
   <si>
     <t xml:space="preserve">0.17019210755825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186985522508621</t>
+    <t xml:space="preserve">0.18698550760746</t>
   </si>
   <si>
     <t xml:space="preserve">0.176330879330635</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170756608247757</t>
+    <t xml:space="preserve">0.170756593346596</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172873437404633</t>
+    <t xml:space="preserve">0.17287340760231</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176965951919556</t>
+    <t xml:space="preserve">0.176965922117233</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2088593095541</t>
+    <t xml:space="preserve">0.208859339356422</t>
   </si>
   <si>
     <t xml:space="preserve">0.210976138710976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206036925315857</t>
+    <t xml:space="preserve">0.206036880612373</t>
   </si>
   <si>
-    <t xml:space="preserve">0.203990638256073</t>
+    <t xml:space="preserve">0.203990623354912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187691152095795</t>
+    <t xml:space="preserve">0.187691137194633</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179929465055466</t>
+    <t xml:space="preserve">0.179929479956627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165111765265465</t>
+    <t xml:space="preserve">0.165111750364304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170051008462906</t>
+    <t xml:space="preserve">0.170050993561745</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166522964835167</t>
+    <t xml:space="preserve">0.166522949934006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162289351224899</t>
+    <t xml:space="preserve">0.162289336323738</t>
   </si>
   <si>
     <t xml:space="preserve">0.177812665700912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185433194041252</t>
+    <t xml:space="preserve">0.185433208942413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191571980714798</t>
+    <t xml:space="preserve">0.191571965813637</t>
   </si>
   <si>
     <t xml:space="preserve">0.193335980176926</t>
@@ -248,25 +248,25 @@
     <t xml:space="preserve">0.204978466033936</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225088283419609</t>
+    <t xml:space="preserve">0.225088238716125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.217326581478119</t>
+    <t xml:space="preserve">0.21732659637928</t>
   </si>
   <si>
     <t xml:space="preserve">0.199968665838242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.214151352643967</t>
+    <t xml:space="preserve">0.214151367545128</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225652754306793</t>
+    <t xml:space="preserve">0.225652724504471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218737825751305</t>
+    <t xml:space="preserve">0.218737795948982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.215280339121819</t>
+    <t xml:space="preserve">0.215280324220657</t>
   </si>
   <si>
     <t xml:space="preserve">0.224382638931274</t>
@@ -275,16 +275,16 @@
     <t xml:space="preserve">0.239200338721275</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243363425135612</t>
+    <t xml:space="preserve">0.243363440036774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261074155569077</t>
+    <t xml:space="preserve">0.261074125766754</t>
   </si>
   <si>
     <t xml:space="preserve">0.267424583435059</t>
   </si>
   <si>
-    <t xml:space="preserve">0.282242357730865</t>
+    <t xml:space="preserve">0.282242327928543</t>
   </si>
   <si>
     <t xml:space="preserve">0.299882471561432</t>
@@ -302,16 +302,16 @@
     <t xml:space="preserve">0.289298385381699</t>
   </si>
   <si>
-    <t xml:space="preserve">0.292050242424011</t>
+    <t xml:space="preserve">0.292050212621689</t>
   </si>
   <si>
     <t xml:space="preserve">0.28090164065361</t>
   </si>
   <si>
-    <t xml:space="preserve">0.280831128358841</t>
+    <t xml:space="preserve">0.280831098556519</t>
   </si>
   <si>
-    <t xml:space="preserve">0.272575557231903</t>
+    <t xml:space="preserve">0.272575497627258</t>
   </si>
   <si>
     <t xml:space="preserve">0.273069441318512</t>
@@ -326,22 +326,22 @@
     <t xml:space="preserve">0.262485355138779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.236377954483032</t>
+    <t xml:space="preserve">0.236377939581871</t>
   </si>
   <si>
     <t xml:space="preserve">0.232285395264626</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237789154052734</t>
+    <t xml:space="preserve">0.237789139151573</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234331697225571</t>
+    <t xml:space="preserve">0.234331682324409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.266718983650208</t>
+    <t xml:space="preserve">0.26671901345253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.275186240673065</t>
+    <t xml:space="preserve">0.275186270475388</t>
   </si>
   <si>
     <t xml:space="preserve">0.259098440408707</t>
@@ -353,73 +353,73 @@
     <t xml:space="preserve">0.264602154493332</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254018098115921</t>
+    <t xml:space="preserve">0.254018068313599</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250490039587021</t>
+    <t xml:space="preserve">0.250490069389343</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243434011936188</t>
+    <t xml:space="preserve">0.243433967232704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249643340706825</t>
+    <t xml:space="preserve">0.249643355607986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.239270955324173</t>
+    <t xml:space="preserve">0.239270925521851</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225864425301552</t>
+    <t xml:space="preserve">0.225864410400391</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229321867227554</t>
+    <t xml:space="preserve">0.229321852326393</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232144311070442</t>
+    <t xml:space="preserve">0.23214428126812</t>
   </si>
   <si>
-    <t xml:space="preserve">0.231438711285591</t>
+    <t xml:space="preserve">0.23143869638443</t>
   </si>
   <si>
     <t xml:space="preserve">0.232849895954132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234402254223824</t>
+    <t xml:space="preserve">0.23440220952034</t>
   </si>
   <si>
     <t xml:space="preserve">0.237930253148079</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253312528133392</t>
+    <t xml:space="preserve">0.253312468528748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246820881962776</t>
+    <t xml:space="preserve">0.246820867061615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247879326343536</t>
+    <t xml:space="preserve">0.247879296541214</t>
   </si>
   <si>
     <t xml:space="preserve">0.25761666893959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.263120412826538</t>
+    <t xml:space="preserve">0.263120383024216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.252042382955551</t>
+    <t xml:space="preserve">0.252042353153229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246962025761604</t>
+    <t xml:space="preserve">0.246962010860443</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246679797768593</t>
+    <t xml:space="preserve">0.24667976796627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243504568934441</t>
+    <t xml:space="preserve">0.243504554033279</t>
   </si>
   <si>
-    <t xml:space="preserve">0.259662926197052</t>
+    <t xml:space="preserve">0.259662955999374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243645712733269</t>
+    <t xml:space="preserve">0.243645668029785</t>
   </si>
   <si>
     <t xml:space="preserve">0.250701755285263</t>
@@ -431,7 +431,7 @@
     <t xml:space="preserve">0.395139247179031</t>
   </si>
   <si>
-    <t xml:space="preserve">0.522148311138153</t>
+    <t xml:space="preserve">0.522148251533508</t>
   </si>
   <si>
     <t xml:space="preserve">0.612465798854828</t>
@@ -440,22 +440,22 @@
     <t xml:space="preserve">0.535554826259613</t>
   </si>
   <si>
-    <t xml:space="preserve">0.490396052598953</t>
+    <t xml:space="preserve">0.490396022796631</t>
   </si>
   <si>
-    <t xml:space="preserve">0.473814368247986</t>
+    <t xml:space="preserve">0.473814338445663</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444531619548798</t>
+    <t xml:space="preserve">0.44453164935112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40925133228302</t>
+    <t xml:space="preserve">0.409251362085342</t>
   </si>
   <si>
     <t xml:space="preserve">0.464994192123413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412426650524139</t>
+    <t xml:space="preserve">0.412426620721817</t>
   </si>
   <si>
     <t xml:space="preserve">0.41983550786972</t>
@@ -464,25 +464,25 @@
     <t xml:space="preserve">0.388788789510727</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36585658788681</t>
+    <t xml:space="preserve">0.365856558084488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353508532047272</t>
+    <t xml:space="preserve">0.353508502244949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366562217473984</t>
+    <t xml:space="preserve">0.366562247276306</t>
   </si>
   <si>
-    <t xml:space="preserve">0.375382304191589</t>
+    <t xml:space="preserve">0.375382274389267</t>
   </si>
   <si>
     <t xml:space="preserve">0.361270189285278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391611218452454</t>
+    <t xml:space="preserve">0.391611188650131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383143961429596</t>
+    <t xml:space="preserve">0.383143931627274</t>
   </si>
   <si>
     <t xml:space="preserve">0.366914987564087</t>
@@ -494,10 +494,10 @@
     <t xml:space="preserve">0.360564529895782</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373971045017242</t>
+    <t xml:space="preserve">0.37397101521492</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370443075895309</t>
+    <t xml:space="preserve">0.370443016290665</t>
   </si>
   <si>
     <t xml:space="preserve">0.356330901384354</t>
@@ -509,25 +509,25 @@
     <t xml:space="preserve">0.352802902460098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349980473518372</t>
+    <t xml:space="preserve">0.349980443716049</t>
   </si>
   <si>
     <t xml:space="preserve">0.375735104084015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357036530971527</t>
+    <t xml:space="preserve">0.357036501169205</t>
   </si>
   <si>
     <t xml:space="preserve">0.355625331401825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368679016828537</t>
+    <t xml:space="preserve">0.368678987026215</t>
   </si>
   <si>
     <t xml:space="preserve">0.36268138885498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368326216936111</t>
+    <t xml:space="preserve">0.368326246738434</t>
   </si>
   <si>
     <t xml:space="preserve">0.338690757751465</t>
@@ -536,25 +536,25 @@
     <t xml:space="preserve">0.348569244146347</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349204301834106</t>
+    <t xml:space="preserve">0.349204272031784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359858930110931</t>
+    <t xml:space="preserve">0.359858959913254</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36550384759903</t>
+    <t xml:space="preserve">0.365503787994385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402195304632187</t>
+    <t xml:space="preserve">0.402195274829865</t>
   </si>
   <si>
-    <t xml:space="preserve">0.381027191877365</t>
+    <t xml:space="preserve">0.38102713227272</t>
   </si>
   <si>
     <t xml:space="preserve">0.381732732057571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358447760343552</t>
+    <t xml:space="preserve">0.358447730541229</t>
   </si>
   <si>
     <t xml:space="preserve">0.379263132810593</t>
@@ -563,28 +563,28 @@
     <t xml:space="preserve">0.353155672550201</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367973446846008</t>
+    <t xml:space="preserve">0.367973387241364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437475651502609</t>
+    <t xml:space="preserve">0.437475591897964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414896219968796</t>
+    <t xml:space="preserve">0.414896190166473</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414190590381622</t>
+    <t xml:space="preserve">0.414190620183945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415601760149002</t>
+    <t xml:space="preserve">0.415601789951324</t>
   </si>
   <si>
     <t xml:space="preserve">0.408192902803421</t>
   </si>
   <si>
-    <t xml:space="preserve">0.416307419538498</t>
+    <t xml:space="preserve">0.416307389736176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387377589941025</t>
+    <t xml:space="preserve">0.387377619743347</t>
   </si>
   <si>
     <t xml:space="preserve">0.392669647932053</t>
@@ -593,13 +593,13 @@
     <t xml:space="preserve">0.397961646318436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412073850631714</t>
+    <t xml:space="preserve">0.412073761224747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436417132616043</t>
+    <t xml:space="preserve">0.436417192220688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.439592450857162</t>
+    <t xml:space="preserve">0.439592391252518</t>
   </si>
   <si>
     <t xml:space="preserve">0.424069106578827</t>
@@ -608,13 +608,13 @@
     <t xml:space="preserve">0.423363476991653</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434653162956238</t>
+    <t xml:space="preserve">0.43465319275856</t>
   </si>
   <si>
     <t xml:space="preserve">0.423716276884079</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45793816447258</t>
+    <t xml:space="preserve">0.457938134670258</t>
   </si>
   <si>
     <t xml:space="preserve">0.465699791908264</t>
@@ -623,88 +623,88 @@
     <t xml:space="preserve">0.440298020839691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423010617494583</t>
+    <t xml:space="preserve">0.423010647296906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.433947592973709</t>
+    <t xml:space="preserve">0.433947563171387</t>
   </si>
   <si>
     <t xml:space="preserve">0.529204308986664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.49321848154068</t>
+    <t xml:space="preserve">0.493218421936035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.508036196231842</t>
+    <t xml:space="preserve">0.508036136627197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.486868023872375</t>
+    <t xml:space="preserve">0.486867934465408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.491807281970978</t>
+    <t xml:space="preserve">0.491807192564011</t>
   </si>
   <si>
-    <t xml:space="preserve">0.500980079174042</t>
+    <t xml:space="preserve">0.500980138778687</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493924051523209</t>
+    <t xml:space="preserve">0.493924021720886</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474167078733444</t>
+    <t xml:space="preserve">0.474167048931122</t>
   </si>
   <si>
     <t xml:space="preserve">0.476989507675171</t>
   </si>
   <si>
-    <t xml:space="preserve">0.472755908966064</t>
+    <t xml:space="preserve">0.472755879163742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.460055023431778</t>
+    <t xml:space="preserve">0.460054993629456</t>
   </si>
   <si>
-    <t xml:space="preserve">0.455821305513382</t>
+    <t xml:space="preserve">0.455821394920349</t>
   </si>
   <si>
-    <t xml:space="preserve">0.458643734455109</t>
+    <t xml:space="preserve">0.458643704652786</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464288622140884</t>
+    <t xml:space="preserve">0.46428856253624</t>
   </si>
   <si>
     <t xml:space="preserve">0.451587677001953</t>
   </si>
   <si>
-    <t xml:space="preserve">0.485456764698029</t>
+    <t xml:space="preserve">0.485456824302673</t>
   </si>
   <si>
-    <t xml:space="preserve">0.468522220849991</t>
+    <t xml:space="preserve">0.468522191047668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.519325852394104</t>
+    <t xml:space="preserve">0.519325911998749</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479811936616898</t>
+    <t xml:space="preserve">0.479811906814575</t>
   </si>
   <si>
     <t xml:space="preserve">0.448765277862549</t>
   </si>
   <si>
-    <t xml:space="preserve">0.469933480024338</t>
+    <t xml:space="preserve">0.469933420419693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.475578308105469</t>
+    <t xml:space="preserve">0.475578278303146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461466193199158</t>
+    <t xml:space="preserve">0.461466163396835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.447354078292847</t>
+    <t xml:space="preserve">0.447354048490524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454410165548325</t>
+    <t xml:space="preserve">0.45441010594368</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429008334875107</t>
+    <t xml:space="preserve">0.429008305072784</t>
   </si>
   <si>
     <t xml:space="preserve">0.430419534444809</t>
@@ -713,28 +713,28 @@
     <t xml:space="preserve">0.436064332723618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452998965978622</t>
+    <t xml:space="preserve">0.452998876571655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.484045594930649</t>
+    <t xml:space="preserve">0.484045535326004</t>
   </si>
   <si>
     <t xml:space="preserve">0.471344709396362</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457232564687729</t>
+    <t xml:space="preserve">0.457232505083084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.443120449781418</t>
+    <t xml:space="preserve">0.443120419979095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.462877422571182</t>
+    <t xml:space="preserve">0.46287739276886</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450176566839218</t>
+    <t xml:space="preserve">0.450176477432251</t>
   </si>
   <si>
-    <t xml:space="preserve">0.467110991477966</t>
+    <t xml:space="preserve">0.467111021280289</t>
   </si>
   <si>
     <t xml:space="preserve">0.406428903341293</t>
@@ -743,19 +743,19 @@
     <t xml:space="preserve">0.410662591457367</t>
   </si>
   <si>
-    <t xml:space="preserve">0.407840192317963</t>
+    <t xml:space="preserve">0.407840132713318</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382438331842422</t>
+    <t xml:space="preserve">0.382438361644745</t>
   </si>
   <si>
     <t xml:space="preserve">0.369737446308136</t>
   </si>
   <si>
-    <t xml:space="preserve">0.403606534004211</t>
+    <t xml:space="preserve">0.403606563806534</t>
   </si>
   <si>
-    <t xml:space="preserve">0.400784075260162</t>
+    <t xml:space="preserve">0.400784105062485</t>
   </si>
   <si>
     <t xml:space="preserve">0.386671960353851</t>
@@ -767,10 +767,10 @@
     <t xml:space="preserve">0.379615902900696</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388083189725876</t>
+    <t xml:space="preserve">0.388083159923553</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4177186191082</t>
+    <t xml:space="preserve">0.417718678712845</t>
   </si>
   <si>
     <t xml:space="preserve">0.433241933584213</t>
@@ -779,28 +779,28 @@
     <t xml:space="preserve">0.396550446748734</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405017703771591</t>
+    <t xml:space="preserve">0.405017733573914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424774676561356</t>
+    <t xml:space="preserve">0.424774736166</t>
   </si>
   <si>
     <t xml:space="preserve">0.421952277421951</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419129878282547</t>
+    <t xml:space="preserve">0.41912978887558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431830734014511</t>
+    <t xml:space="preserve">0.431830763816833</t>
   </si>
   <si>
     <t xml:space="preserve">0.438886791467667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.441709220409393</t>
+    <t xml:space="preserve">0.441709190607071</t>
   </si>
   <si>
-    <t xml:space="preserve">0.476283967494965</t>
+    <t xml:space="preserve">0.47628390789032</t>
   </si>
   <si>
     <t xml:space="preserve">0.483339995145798</t>
@@ -809,37 +809,37 @@
     <t xml:space="preserve">0.504508137702942</t>
   </si>
   <si>
-    <t xml:space="preserve">0.511564254760742</t>
+    <t xml:space="preserve">0.511564135551453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.520832717418671</t>
+    <t xml:space="preserve">0.520832777023315</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497511833906174</t>
+    <t xml:space="preserve">0.497511804103851</t>
   </si>
   <si>
     <t xml:space="preserve">0.48196467757225</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46641743183136</t>
+    <t xml:space="preserve">0.466417461633682</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478077799081802</t>
+    <t xml:space="preserve">0.478077858686447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.48973822593689</t>
+    <t xml:space="preserve">0.489738285541534</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493625104427338</t>
+    <t xml:space="preserve">0.493625044822693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.485851496458054</t>
+    <t xml:space="preserve">0.485851466655731</t>
   </si>
   <si>
-    <t xml:space="preserve">0.470304191112518</t>
+    <t xml:space="preserve">0.470304220914841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450870096683502</t>
+    <t xml:space="preserve">0.450870126485825</t>
   </si>
   <si>
     <t xml:space="preserve">0.462530583143234</t>
@@ -848,19 +848,19 @@
     <t xml:space="preserve">0.435322880744934</t>
   </si>
   <si>
-    <t xml:space="preserve">0.43920972943306</t>
+    <t xml:space="preserve">0.439209699630737</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454756915569305</t>
+    <t xml:space="preserve">0.454756945371628</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474191009998322</t>
+    <t xml:space="preserve">0.474190980195999</t>
   </si>
   <si>
     <t xml:space="preserve">0.501398682594299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.590795338153839</t>
+    <t xml:space="preserve">0.590795397758484</t>
   </si>
   <si>
     <t xml:space="preserve">0.505285501480103</t>
@@ -872,28 +872,28 @@
     <t xml:space="preserve">0.509172260761261</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446983307600021</t>
+    <t xml:space="preserve">0.446983397006989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.443096518516541</t>
+    <t xml:space="preserve">0.443096548318863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.427549302577972</t>
+    <t xml:space="preserve">0.427549242973328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419775664806366</t>
+    <t xml:space="preserve">0.419775694608688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.404228389263153</t>
+    <t xml:space="preserve">0.404228359460831</t>
   </si>
   <si>
     <t xml:space="preserve">0.415888875722885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431436091661453</t>
+    <t xml:space="preserve">0.431436061859131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412001967430115</t>
+    <t xml:space="preserve">0.41200202703476</t>
   </si>
   <si>
     <t xml:space="preserve">0.3824622631073</t>
@@ -902,34 +902,34 @@
     <t xml:space="preserve">0.380907565355301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.396454781293869</t>
+    <t xml:space="preserve">0.396454751491547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388681143522263</t>
+    <t xml:space="preserve">0.388681173324585</t>
   </si>
   <si>
     <t xml:space="preserve">0.373133897781372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349813014268875</t>
+    <t xml:space="preserve">0.349813044071198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35292249917984</t>
+    <t xml:space="preserve">0.352922469377518</t>
   </si>
   <si>
     <t xml:space="preserve">0.326492160558701</t>
   </si>
   <si>
-    <t xml:space="preserve">0.290733486413956</t>
+    <t xml:space="preserve">0.290733516216278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312499642372131</t>
+    <t xml:space="preserve">0.312499672174454</t>
   </si>
   <si>
-    <t xml:space="preserve">0.29539766907692</t>
+    <t xml:space="preserve">0.295397698879242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.306280732154846</t>
+    <t xml:space="preserve">0.306280791759491</t>
   </si>
   <si>
     <t xml:space="preserve">0.293842941522598</t>
@@ -944,10 +944,10 @@
     <t xml:space="preserve">0.320273280143738</t>
   </si>
   <si>
-    <t xml:space="preserve">0.321828007698059</t>
+    <t xml:space="preserve">0.321827977895737</t>
   </si>
   <si>
-    <t xml:space="preserve">0.304726034402847</t>
+    <t xml:space="preserve">0.304726004600525</t>
   </si>
   <si>
     <t xml:space="preserve">0.314054399728775</t>
@@ -959,13 +959,13 @@
     <t xml:space="preserve">0.331156343221664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340484708547592</t>
+    <t xml:space="preserve">0.34048467874527</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346703618764877</t>
+    <t xml:space="preserve">0.346703588962555</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379352807998657</t>
+    <t xml:space="preserve">0.37935283780098</t>
   </si>
   <si>
     <t xml:space="preserve">0.365360289812088</t>
@@ -974,10 +974,10 @@
     <t xml:space="preserve">0.359141409397125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38557168841362</t>
+    <t xml:space="preserve">0.385571718215942</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408115208148956</t>
+    <t xml:space="preserve">0.408115237951279</t>
   </si>
   <si>
     <t xml:space="preserve">0.423662453889847</t>
@@ -986,16 +986,16 @@
     <t xml:space="preserve">0.368469774723053</t>
   </si>
   <si>
-    <t xml:space="preserve">0.371579170227051</t>
+    <t xml:space="preserve">0.371579140424728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377798110246658</t>
+    <t xml:space="preserve">0.377798050642014</t>
   </si>
   <si>
     <t xml:space="preserve">0.392567962408066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387126445770264</t>
+    <t xml:space="preserve">0.387126415967941</t>
   </si>
   <si>
     <t xml:space="preserve">0.362250834703445</t>
@@ -1031,19 +1031,19 @@
     <t xml:space="preserve">0.296952396631241</t>
   </si>
   <si>
-    <t xml:space="preserve">0.300061851739883</t>
+    <t xml:space="preserve">0.300061881542206</t>
   </si>
   <si>
-    <t xml:space="preserve">0.292288243770599</t>
+    <t xml:space="preserve">0.292288213968277</t>
   </si>
   <si>
-    <t xml:space="preserve">0.298507153987885</t>
+    <t xml:space="preserve">0.29850709438324</t>
   </si>
   <si>
     <t xml:space="preserve">0.303171277046204</t>
   </si>
   <si>
-    <t xml:space="preserve">0.310944944620132</t>
+    <t xml:space="preserve">0.31094491481781</t>
   </si>
   <si>
     <t xml:space="preserve">0.328046888113022</t>
@@ -1055,13 +1055,13 @@
     <t xml:space="preserve">0.324937462806702</t>
   </si>
   <si>
-    <t xml:space="preserve">0.482500702142715</t>
+    <t xml:space="preserve">0.48250076174736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44864097237587</t>
+    <t xml:space="preserve">0.448641031980515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.435943633317947</t>
+    <t xml:space="preserve">0.435943603515625</t>
   </si>
   <si>
     <t xml:space="preserve">0.423246264457703</t>
@@ -1076,13 +1076,13 @@
     <t xml:space="preserve">0.40800940990448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.427478730678558</t>
+    <t xml:space="preserve">0.427478700876236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419860273599625</t>
+    <t xml:space="preserve">0.419860303401947</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409702390432358</t>
+    <t xml:space="preserve">0.409702360630035</t>
   </si>
   <si>
     <t xml:space="preserve">0.392772495746613</t>
@@ -1091,7 +1091,7 @@
     <t xml:space="preserve">0.386000573635101</t>
   </si>
   <si>
-    <t xml:space="preserve">0.384307622909546</t>
+    <t xml:space="preserve">0.384307593107224</t>
   </si>
   <si>
     <t xml:space="preserve">0.380921632051468</t>
@@ -1103,13 +1103,13 @@
     <t xml:space="preserve">0.389386564493179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394465535879135</t>
+    <t xml:space="preserve">0.394465506076813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377535700798035</t>
+    <t xml:space="preserve">0.377535670995712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.375842690467834</t>
+    <t xml:space="preserve">0.375842720270157</t>
   </si>
   <si>
     <t xml:space="preserve">0.39107957482338</t>
@@ -1118,19 +1118,19 @@
     <t xml:space="preserve">0.490965634584427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461338400840759</t>
+    <t xml:space="preserve">0.461338430643082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.507895529270172</t>
+    <t xml:space="preserve">0.507895588874817</t>
   </si>
   <si>
-    <t xml:space="preserve">0.499430567026138</t>
+    <t xml:space="preserve">0.499430537223816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.495198130607605</t>
+    <t xml:space="preserve">0.495198100805283</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46557092666626</t>
+    <t xml:space="preserve">0.465570867061615</t>
   </si>
   <si>
     <t xml:space="preserve">0.452873528003693</t>
@@ -1139,10 +1139,10 @@
     <t xml:space="preserve">0.440176069736481</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431711196899414</t>
+    <t xml:space="preserve">0.431711167097092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444408565759659</t>
+    <t xml:space="preserve">0.444408595561981</t>
   </si>
   <si>
     <t xml:space="preserve">0.457105994224548</t>
@@ -1151,7 +1151,7 @@
     <t xml:space="preserve">0.418167293071747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.411395370960236</t>
+    <t xml:space="preserve">0.411395341157913</t>
   </si>
   <si>
     <t xml:space="preserve">0.397851496934891</t>
@@ -1160,34 +1160,34 @@
     <t xml:space="preserve">0.387693583965302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382614612579346</t>
+    <t xml:space="preserve">0.382614582777023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.416474342346191</t>
+    <t xml:space="preserve">0.416474312543869</t>
   </si>
   <si>
-    <t xml:space="preserve">0.404623419046402</t>
+    <t xml:space="preserve">0.40462338924408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413088351488113</t>
+    <t xml:space="preserve">0.413088381290436</t>
   </si>
   <si>
     <t xml:space="preserve">0.402930468320847</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355526864528656</t>
+    <t xml:space="preserve">0.355526834726334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.336904048919678</t>
+    <t xml:space="preserve">0.336904019117355</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338597029447556</t>
+    <t xml:space="preserve">0.338596999645233</t>
   </si>
   <si>
     <t xml:space="preserve">0.357219845056534</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358912855386734</t>
+    <t xml:space="preserve">0.358912825584412</t>
   </si>
   <si>
     <t xml:space="preserve">0.363991796970367</t>
@@ -1211,22 +1211,22 @@
     <t xml:space="preserve">0.347061932086945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345368981361389</t>
+    <t xml:space="preserve">0.345368951559067</t>
   </si>
   <si>
     <t xml:space="preserve">0.340290009975433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352140933275223</t>
+    <t xml:space="preserve">0.3521409034729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36229881644249</t>
+    <t xml:space="preserve">0.362298786640167</t>
   </si>
   <si>
     <t xml:space="preserve">0.356533944606781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361855357885361</t>
+    <t xml:space="preserve">0.361855328083038</t>
   </si>
   <si>
     <t xml:space="preserve">0.352986335754395</t>
@@ -1241,7 +1241,7 @@
     <t xml:space="preserve">0.374271929264069</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360081523656845</t>
+    <t xml:space="preserve">0.360081553459167</t>
   </si>
   <si>
     <t xml:space="preserve">0.363629132509232</t>
@@ -1250,16 +1250,16 @@
     <t xml:space="preserve">0.351212531328201</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340569734573364</t>
+    <t xml:space="preserve">0.340569704771042</t>
   </si>
   <si>
-    <t xml:space="preserve">0.328153133392334</t>
+    <t xml:space="preserve">0.328153103590012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338795900344849</t>
+    <t xml:space="preserve">0.338795930147171</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35476016998291</t>
+    <t xml:space="preserve">0.354760140180588</t>
   </si>
   <si>
     <t xml:space="preserve">0.337022125720978</t>
@@ -1268,7 +1268,7 @@
     <t xml:space="preserve">0.335248321294785</t>
   </si>
   <si>
-    <t xml:space="preserve">0.326379328966141</t>
+    <t xml:space="preserve">0.326379358768463</t>
   </si>
   <si>
     <t xml:space="preserve">0.317510306835175</t>
@@ -1283,7 +1283,7 @@
     <t xml:space="preserve">0.310415089130402</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312188893556595</t>
+    <t xml:space="preserve">0.312188923358917</t>
   </si>
   <si>
     <t xml:space="preserve">0.303319931030273</t>
@@ -1301,16 +1301,16 @@
     <t xml:space="preserve">0.321057915687561</t>
   </si>
   <si>
-    <t xml:space="preserve">0.331700712442398</t>
+    <t xml:space="preserve">0.33170074224472</t>
   </si>
   <si>
     <t xml:space="preserve">0.333474516868591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345891088247299</t>
+    <t xml:space="preserve">0.345891118049622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.324605494737625</t>
+    <t xml:space="preserve">0.324605524539948</t>
   </si>
   <si>
     <t xml:space="preserve">0.388462334871292</t>
@@ -1322,10 +1322,10 @@
     <t xml:space="preserve">0.381367146968842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383140951395035</t>
+    <t xml:space="preserve">0.383140981197357</t>
   </si>
   <si>
-    <t xml:space="preserve">0.376045763492584</t>
+    <t xml:space="preserve">0.376045733690262</t>
   </si>
   <si>
     <t xml:space="preserve">0.377819538116455</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">0.320068180561066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.321984738111496</t>
+    <t xml:space="preserve">0.321984767913818</t>
   </si>
   <si>
     <t xml:space="preserve">0.33731734752655</t>
@@ -1358,19 +1358,19 @@
     <t xml:space="preserve">0.318151593208313</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3124018907547</t>
+    <t xml:space="preserve">0.312401860952377</t>
   </si>
   <si>
-    <t xml:space="preserve">0.323901355266571</t>
+    <t xml:space="preserve">0.323901325464249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.31431844830513</t>
+    <t xml:space="preserve">0.314318478107452</t>
   </si>
   <si>
     <t xml:space="preserve">0.306652128696442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.310485303401947</t>
+    <t xml:space="preserve">0.310485273599625</t>
   </si>
   <si>
     <t xml:space="preserve">0.302819013595581</t>
@@ -1379,16 +1379,16 @@
     <t xml:space="preserve">0.316235065460205</t>
   </si>
   <si>
-    <t xml:space="preserve">0.308568745851517</t>
+    <t xml:space="preserve">0.308568716049194</t>
   </si>
   <si>
-    <t xml:space="preserve">0.304735571146011</t>
+    <t xml:space="preserve">0.304735541343689</t>
   </si>
   <si>
     <t xml:space="preserve">0.300902426242828</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341150522232056</t>
+    <t xml:space="preserve">0.341150492429733</t>
   </si>
   <si>
     <t xml:space="preserve">0.329651057720184</t>
@@ -1397,7 +1397,7 @@
     <t xml:space="preserve">0.339233934879303</t>
   </si>
   <si>
-    <t xml:space="preserve">0.343067079782486</t>
+    <t xml:space="preserve">0.343067109584808</t>
   </si>
   <si>
     <t xml:space="preserve">0.344983696937561</t>
@@ -1406,16 +1406,16 @@
     <t xml:space="preserve">0.364149421453476</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35839968919754</t>
+    <t xml:space="preserve">0.358399718999863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346900224685669</t>
+    <t xml:space="preserve">0.346900254487991</t>
   </si>
   <si>
     <t xml:space="preserve">0.352649986743927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350733369588852</t>
+    <t xml:space="preserve">0.350733399391174</t>
   </si>
   <si>
     <t xml:space="preserve">0.348816812038422</t>
@@ -58621,7 +58621,7 @@
     </row>
     <row r="2186">
       <c r="A2186" s="1" t="n">
-        <v>45505.6389583333</v>
+        <v>45505.2916666667</v>
       </c>
       <c r="B2186" t="n">
         <v>20000</v>
@@ -58642,6 +58642,32 @@
         <v>485</v>
       </c>
       <c r="H2186" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" s="1" t="n">
+        <v>45506.6441782407</v>
+      </c>
+      <c r="B2187" t="n">
+        <v>32000</v>
+      </c>
+      <c r="C2187" t="n">
+        <v>0.32600000500679</v>
+      </c>
+      <c r="D2187" t="n">
+        <v>0.319999992847443</v>
+      </c>
+      <c r="E2187" t="n">
+        <v>0.32600000500679</v>
+      </c>
+      <c r="F2187" t="n">
+        <v>0.321999996900558</v>
+      </c>
+      <c r="G2187" t="s">
+        <v>481</v>
+      </c>
+      <c r="H2187" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/POPR.MI.xlsx
+++ b/data/POPR.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="487">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,13 +44,13 @@
     <t xml:space="preserve">POPR.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.198275238275528</t>
+    <t xml:space="preserve">0.198275208473206</t>
   </si>
   <si>
     <t xml:space="preserve">0.194041594862938</t>
   </si>
   <si>
-    <t xml:space="preserve">0.192630410194397</t>
+    <t xml:space="preserve">0.192630365490913</t>
   </si>
   <si>
     <t xml:space="preserve">0.184163123369217</t>
@@ -68,13 +68,13 @@
     <t xml:space="preserve">0.16814586520195</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162994936108589</t>
+    <t xml:space="preserve">0.162994921207428</t>
   </si>
   <si>
     <t xml:space="preserve">0.171462208032608</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172167807817459</t>
+    <t xml:space="preserve">0.17216782271862</t>
   </si>
   <si>
     <t xml:space="preserve">0.16927482187748</t>
@@ -83,13 +83,13 @@
     <t xml:space="preserve">0.164406150579453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156997293233871</t>
+    <t xml:space="preserve">0.15699727833271</t>
   </si>
   <si>
     <t xml:space="preserve">0.156644493341446</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157067850232124</t>
+    <t xml:space="preserve">0.157067835330963</t>
   </si>
   <si>
     <t xml:space="preserve">0.159466907382011</t>
@@ -101,43 +101,43 @@
     <t xml:space="preserve">0.169627636671066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191219180822372</t>
+    <t xml:space="preserve">0.191219165921211</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187267780303955</t>
+    <t xml:space="preserve">0.187267765402794</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183457493782043</t>
+    <t xml:space="preserve">0.183457508683205</t>
   </si>
   <si>
     <t xml:space="preserve">0.176401436328888</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173579022288322</t>
+    <t xml:space="preserve">0.173579037189484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167934194207191</t>
+    <t xml:space="preserve">0.167934164404869</t>
   </si>
   <si>
     <t xml:space="preserve">0.174778550863266</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180635094642639</t>
+    <t xml:space="preserve">0.1806351095438</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178447723388672</t>
+    <t xml:space="preserve">0.178447693586349</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199051409959793</t>
+    <t xml:space="preserve">0.199051395058632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.198980838060379</t>
+    <t xml:space="preserve">0.19898085296154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191924810409546</t>
+    <t xml:space="preserve">0.191924795508385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186279937624931</t>
+    <t xml:space="preserve">0.186279907822609</t>
   </si>
   <si>
     <t xml:space="preserve">0.211681753396988</t>
@@ -149,49 +149,49 @@
     <t xml:space="preserve">0.215209782123566</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206742525100708</t>
+    <t xml:space="preserve">0.206742510199547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.203920111060143</t>
+    <t xml:space="preserve">0.20392008125782</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225793838500977</t>
+    <t xml:space="preserve">0.225793853402138</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234261095523834</t>
+    <t xml:space="preserve">0.234261125326157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225723281502724</t>
+    <t xml:space="preserve">0.225723296403885</t>
   </si>
   <si>
     <t xml:space="preserve">0.220854610204697</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21803218126297</t>
+    <t xml:space="preserve">0.218032196164131</t>
   </si>
   <si>
     <t xml:space="preserve">0.201097652316093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.20462566614151</t>
+    <t xml:space="preserve">0.204625681042671</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190654680132866</t>
+    <t xml:space="preserve">0.190654695034027</t>
   </si>
   <si>
-    <t xml:space="preserve">0.189102351665497</t>
+    <t xml:space="preserve">0.189102366566658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182751908898354</t>
+    <t xml:space="preserve">0.182751893997192</t>
   </si>
   <si>
     <t xml:space="preserve">0.170192122459412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186985522508621</t>
+    <t xml:space="preserve">0.186985537409782</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176330879330635</t>
+    <t xml:space="preserve">0.176330894231796</t>
   </si>
   <si>
     <t xml:space="preserve">0.170756593346596</t>
@@ -200,55 +200,55 @@
     <t xml:space="preserve">0.172873422503471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176965951919556</t>
+    <t xml:space="preserve">0.176965937018394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208859339356422</t>
+    <t xml:space="preserve">0.2088593095541</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210976138710976</t>
+    <t xml:space="preserve">0.210976153612137</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206036910414696</t>
+    <t xml:space="preserve">0.206036895513535</t>
   </si>
   <si>
-    <t xml:space="preserve">0.203990638256073</t>
+    <t xml:space="preserve">0.203990623354912</t>
   </si>
   <si>
     <t xml:space="preserve">0.187691137194633</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179929479956627</t>
+    <t xml:space="preserve">0.179929465055466</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165111765265465</t>
+    <t xml:space="preserve">0.165111750364304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170050993561745</t>
+    <t xml:space="preserve">0.170050978660583</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166522964835167</t>
+    <t xml:space="preserve">0.166522949934006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162289336323738</t>
+    <t xml:space="preserve">0.162289321422577</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177812665700912</t>
+    <t xml:space="preserve">0.177812650799751</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185433194041252</t>
+    <t xml:space="preserve">0.185433208942413</t>
   </si>
   <si>
     <t xml:space="preserve">0.191571980714798</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193335965275764</t>
+    <t xml:space="preserve">0.193335995078087</t>
   </si>
   <si>
-    <t xml:space="preserve">0.204978466033936</t>
+    <t xml:space="preserve">0.204978451132774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225088238716125</t>
+    <t xml:space="preserve">0.225088223814964</t>
   </si>
   <si>
     <t xml:space="preserve">0.21732659637928</t>
@@ -257,13 +257,13 @@
     <t xml:space="preserve">0.199968665838242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.214151382446289</t>
+    <t xml:space="preserve">0.214151352643967</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225652739405632</t>
+    <t xml:space="preserve">0.225652694702148</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218737810850143</t>
+    <t xml:space="preserve">0.218737795948982</t>
   </si>
   <si>
     <t xml:space="preserve">0.215280324220657</t>
@@ -272,40 +272,40 @@
     <t xml:space="preserve">0.224382624030113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.239200338721275</t>
+    <t xml:space="preserve">0.239200368523598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243363440036774</t>
+    <t xml:space="preserve">0.243363410234451</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261074155569077</t>
+    <t xml:space="preserve">0.261074125766754</t>
   </si>
   <si>
-    <t xml:space="preserve">0.267424613237381</t>
+    <t xml:space="preserve">0.267424583435059</t>
   </si>
   <si>
-    <t xml:space="preserve">0.282242357730865</t>
+    <t xml:space="preserve">0.282242327928543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.299882471561432</t>
+    <t xml:space="preserve">0.299882441759109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309055358171463</t>
+    <t xml:space="preserve">0.309055328369141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325989872217178</t>
+    <t xml:space="preserve">0.325989842414856</t>
   </si>
   <si>
     <t xml:space="preserve">0.335162758827209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.289298415184021</t>
+    <t xml:space="preserve">0.289298385381699</t>
   </si>
   <si>
-    <t xml:space="preserve">0.292050242424011</t>
+    <t xml:space="preserve">0.292050212621689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.280901610851288</t>
+    <t xml:space="preserve">0.28090164065361</t>
   </si>
   <si>
     <t xml:space="preserve">0.280831128358841</t>
@@ -314,16 +314,16 @@
     <t xml:space="preserve">0.272575527429581</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273069441318512</t>
+    <t xml:space="preserve">0.27306941151619</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273210555315018</t>
+    <t xml:space="preserve">0.27321058511734</t>
   </si>
   <si>
-    <t xml:space="preserve">0.257546126842499</t>
+    <t xml:space="preserve">0.257546097040176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.262485355138779</t>
+    <t xml:space="preserve">0.262485384941101</t>
   </si>
   <si>
     <t xml:space="preserve">0.236377939581871</t>
@@ -335,7 +335,7 @@
     <t xml:space="preserve">0.237789168953896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234331682324409</t>
+    <t xml:space="preserve">0.234331652522087</t>
   </si>
   <si>
     <t xml:space="preserve">0.26671901345253</t>
@@ -347,43 +347,43 @@
     <t xml:space="preserve">0.259098440408707</t>
   </si>
   <si>
-    <t xml:space="preserve">0.255429297685623</t>
+    <t xml:space="preserve">0.255429267883301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.26460212469101</t>
+    <t xml:space="preserve">0.264602154493332</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254018098115921</t>
+    <t xml:space="preserve">0.254018068313599</t>
   </si>
   <si>
     <t xml:space="preserve">0.250490069389343</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243434026837349</t>
+    <t xml:space="preserve">0.243433997035027</t>
   </si>
   <si>
     <t xml:space="preserve">0.249643325805664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.239270925521851</t>
+    <t xml:space="preserve">0.239270895719528</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225864395499229</t>
+    <t xml:space="preserve">0.225864425301552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229321867227554</t>
+    <t xml:space="preserve">0.229321897029877</t>
   </si>
   <si>
     <t xml:space="preserve">0.232144311070442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.231438726186752</t>
+    <t xml:space="preserve">0.23143869638443</t>
   </si>
   <si>
     <t xml:space="preserve">0.232849925756454</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234402269124985</t>
+    <t xml:space="preserve">0.234402239322662</t>
   </si>
   <si>
     <t xml:space="preserve">0.237930253148079</t>
@@ -392,13 +392,13 @@
     <t xml:space="preserve">0.253312468528748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246820867061615</t>
+    <t xml:space="preserve">0.246820896863937</t>
   </si>
   <si>
     <t xml:space="preserve">0.247879326343536</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25761666893959</t>
+    <t xml:space="preserve">0.257616698741913</t>
   </si>
   <si>
     <t xml:space="preserve">0.263120412826538</t>
@@ -407,7 +407,7 @@
     <t xml:space="preserve">0.252042382955551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246962010860443</t>
+    <t xml:space="preserve">0.246962040662766</t>
   </si>
   <si>
     <t xml:space="preserve">0.24667976796627</t>
@@ -416,25 +416,25 @@
     <t xml:space="preserve">0.243504583835602</t>
   </si>
   <si>
-    <t xml:space="preserve">0.259662926197052</t>
+    <t xml:space="preserve">0.259662955999374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243645668029785</t>
+    <t xml:space="preserve">0.243645697832108</t>
   </si>
   <si>
     <t xml:space="preserve">0.250701755285263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333610415458679</t>
+    <t xml:space="preserve">0.333610385656357</t>
   </si>
   <si>
     <t xml:space="preserve">0.395139247179031</t>
   </si>
   <si>
-    <t xml:space="preserve">0.522148311138153</t>
+    <t xml:space="preserve">0.522148251533508</t>
   </si>
   <si>
-    <t xml:space="preserve">0.612465798854828</t>
+    <t xml:space="preserve">0.612465858459473</t>
   </si>
   <si>
     <t xml:space="preserve">0.535554826259613</t>
@@ -446,16 +446,16 @@
     <t xml:space="preserve">0.473814338445663</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444531619548798</t>
+    <t xml:space="preserve">0.44453164935112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40925133228302</t>
+    <t xml:space="preserve">0.409251362085342</t>
   </si>
   <si>
     <t xml:space="preserve">0.464994192123413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412426650524139</t>
+    <t xml:space="preserve">0.412426620721817</t>
   </si>
   <si>
     <t xml:space="preserve">0.419835478067398</t>
@@ -464,19 +464,19 @@
     <t xml:space="preserve">0.388788789510727</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36585658788681</t>
+    <t xml:space="preserve">0.365856558084488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353508532047272</t>
+    <t xml:space="preserve">0.353508472442627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366562247276306</t>
+    <t xml:space="preserve">0.366562217473984</t>
   </si>
   <si>
     <t xml:space="preserve">0.375382274389267</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361270189285278</t>
+    <t xml:space="preserve">0.361270219087601</t>
   </si>
   <si>
     <t xml:space="preserve">0.391611188650131</t>
@@ -485,25 +485,25 @@
     <t xml:space="preserve">0.383143961429596</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366914987564087</t>
+    <t xml:space="preserve">0.366915017366409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35738930106163</t>
+    <t xml:space="preserve">0.357389330863953</t>
   </si>
   <si>
     <t xml:space="preserve">0.360564559698105</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373971045017242</t>
+    <t xml:space="preserve">0.373971074819565</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370443046092987</t>
+    <t xml:space="preserve">0.370443016290665</t>
   </si>
   <si>
     <t xml:space="preserve">0.356330931186676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364092528820038</t>
+    <t xml:space="preserve">0.36409255862236</t>
   </si>
   <si>
     <t xml:space="preserve">0.352802872657776</t>
@@ -512,19 +512,19 @@
     <t xml:space="preserve">0.349980443716049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.375735074281693</t>
+    <t xml:space="preserve">0.375735104084015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357036501169205</t>
+    <t xml:space="preserve">0.357036471366882</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355625331401825</t>
+    <t xml:space="preserve">0.355625301599503</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368678987026215</t>
+    <t xml:space="preserve">0.368679016828537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362681329250336</t>
+    <t xml:space="preserve">0.36268138885498</t>
   </si>
   <si>
     <t xml:space="preserve">0.368326246738434</t>
@@ -533,16 +533,16 @@
     <t xml:space="preserve">0.338690757751465</t>
   </si>
   <si>
-    <t xml:space="preserve">0.348569244146347</t>
+    <t xml:space="preserve">0.348569273948669</t>
   </si>
   <si>
     <t xml:space="preserve">0.349204301834106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359858959913254</t>
+    <t xml:space="preserve">0.359858930110931</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365503817796707</t>
+    <t xml:space="preserve">0.365503787994385</t>
   </si>
   <si>
     <t xml:space="preserve">0.402195304632187</t>
@@ -557,43 +557,43 @@
     <t xml:space="preserve">0.358447760343552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379263162612915</t>
+    <t xml:space="preserve">0.379263132810593</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353155672550201</t>
+    <t xml:space="preserve">0.353155732154846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367973417043686</t>
+    <t xml:space="preserve">0.367973446846008</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437475621700287</t>
+    <t xml:space="preserve">0.437475591897964</t>
   </si>
   <si>
     <t xml:space="preserve">0.414896219968796</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414190590381622</t>
+    <t xml:space="preserve">0.414190649986267</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415601760149002</t>
+    <t xml:space="preserve">0.415601819753647</t>
   </si>
   <si>
     <t xml:space="preserve">0.408192932605743</t>
   </si>
   <si>
-    <t xml:space="preserve">0.416307419538498</t>
+    <t xml:space="preserve">0.416307389736176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387377560138702</t>
+    <t xml:space="preserve">0.387377589941025</t>
   </si>
   <si>
     <t xml:space="preserve">0.39266961812973</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397961676120758</t>
+    <t xml:space="preserve">0.39796170592308</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412073820829391</t>
+    <t xml:space="preserve">0.412073791027069</t>
   </si>
   <si>
     <t xml:space="preserve">0.436417162418365</t>
@@ -602,7 +602,7 @@
     <t xml:space="preserve">0.439592450857162</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424069106578827</t>
+    <t xml:space="preserve">0.42406901717186</t>
   </si>
   <si>
     <t xml:space="preserve">0.423363506793976</t>
@@ -611,10 +611,10 @@
     <t xml:space="preserve">0.43465319275856</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423716306686401</t>
+    <t xml:space="preserve">0.423716276884079</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457938104867935</t>
+    <t xml:space="preserve">0.45793816447258</t>
   </si>
   <si>
     <t xml:space="preserve">0.465699851512909</t>
@@ -626,19 +626,19 @@
     <t xml:space="preserve">0.423010647296906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.433947533369064</t>
+    <t xml:space="preserve">0.433947592973709</t>
   </si>
   <si>
-    <t xml:space="preserve">0.529204249382019</t>
+    <t xml:space="preserve">0.529204308986664</t>
   </si>
   <si>
     <t xml:space="preserve">0.49321848154068</t>
   </si>
   <si>
-    <t xml:space="preserve">0.508036196231842</t>
+    <t xml:space="preserve">0.508036136627197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.486868053674698</t>
+    <t xml:space="preserve">0.486867994070053</t>
   </si>
   <si>
     <t xml:space="preserve">0.491807252168655</t>
@@ -647,10 +647,10 @@
     <t xml:space="preserve">0.500980138778687</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493924021720886</t>
+    <t xml:space="preserve">0.493924081325531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474167108535767</t>
+    <t xml:space="preserve">0.474167048931122</t>
   </si>
   <si>
     <t xml:space="preserve">0.476989507675171</t>
@@ -662,25 +662,25 @@
     <t xml:space="preserve">0.460054993629456</t>
   </si>
   <si>
-    <t xml:space="preserve">0.455821365118027</t>
+    <t xml:space="preserve">0.455821335315704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.458643734455109</t>
+    <t xml:space="preserve">0.458643794059753</t>
   </si>
   <si>
     <t xml:space="preserve">0.464288622140884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451587677001953</t>
+    <t xml:space="preserve">0.451587706804276</t>
   </si>
   <si>
     <t xml:space="preserve">0.485456824302673</t>
   </si>
   <si>
-    <t xml:space="preserve">0.468522191047668</t>
+    <t xml:space="preserve">0.468522250652313</t>
   </si>
   <si>
-    <t xml:space="preserve">0.519325852394104</t>
+    <t xml:space="preserve">0.519325911998749</t>
   </si>
   <si>
     <t xml:space="preserve">0.479811906814575</t>
@@ -689,7 +689,7 @@
     <t xml:space="preserve">0.448765248060226</t>
   </si>
   <si>
-    <t xml:space="preserve">0.469933420419693</t>
+    <t xml:space="preserve">0.469933480024338</t>
   </si>
   <si>
     <t xml:space="preserve">0.475578337907791</t>
@@ -701,19 +701,19 @@
     <t xml:space="preserve">0.447354048490524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454410135746002</t>
+    <t xml:space="preserve">0.454410195350647</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429008334875107</t>
+    <t xml:space="preserve">0.429008364677429</t>
   </si>
   <si>
     <t xml:space="preserve">0.430419564247131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.43606436252594</t>
+    <t xml:space="preserve">0.436064392328262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452998906373978</t>
+    <t xml:space="preserve">0.452998965978622</t>
   </si>
   <si>
     <t xml:space="preserve">0.484045535326004</t>
@@ -722,79 +722,79 @@
     <t xml:space="preserve">0.471344649791718</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457232594490051</t>
+    <t xml:space="preserve">0.457232505083084</t>
   </si>
   <si>
     <t xml:space="preserve">0.443120419979095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.462877452373505</t>
+    <t xml:space="preserve">0.46287739276886</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450176477432251</t>
+    <t xml:space="preserve">0.450176447629929</t>
   </si>
   <si>
     <t xml:space="preserve">0.467111021280289</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406428933143616</t>
+    <t xml:space="preserve">0.406428903341293</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410662591457367</t>
+    <t xml:space="preserve">0.410662621259689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.407840222120285</t>
+    <t xml:space="preserve">0.40784016251564</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382438361644745</t>
+    <t xml:space="preserve">0.382438331842422</t>
   </si>
   <si>
     <t xml:space="preserve">0.369737446308136</t>
   </si>
   <si>
-    <t xml:space="preserve">0.403606534004211</t>
+    <t xml:space="preserve">0.403606504201889</t>
   </si>
   <si>
-    <t xml:space="preserve">0.400784075260162</t>
+    <t xml:space="preserve">0.400784134864807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386671930551529</t>
+    <t xml:space="preserve">0.386671990156174</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378204703330994</t>
+    <t xml:space="preserve">0.378204733133316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379615902900696</t>
+    <t xml:space="preserve">0.379615873098373</t>
   </si>
   <si>
     <t xml:space="preserve">0.388083189725876</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417718678712845</t>
+    <t xml:space="preserve">0.4177186191082</t>
   </si>
   <si>
     <t xml:space="preserve">0.433241963386536</t>
   </si>
   <si>
-    <t xml:space="preserve">0.396550476551056</t>
+    <t xml:space="preserve">0.396550416946411</t>
   </si>
   <si>
     <t xml:space="preserve">0.405017733573914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424774646759033</t>
+    <t xml:space="preserve">0.424774706363678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421952277421951</t>
+    <t xml:space="preserve">0.421952307224274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419129848480225</t>
+    <t xml:space="preserve">0.419129878282547</t>
   </si>
   <si>
     <t xml:space="preserve">0.431830734014511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.438886791467667</t>
+    <t xml:space="preserve">0.438886761665344</t>
   </si>
   <si>
     <t xml:space="preserve">0.441709220409393</t>
@@ -821,31 +821,31 @@
     <t xml:space="preserve">0.48196467757225</t>
   </si>
   <si>
-    <t xml:space="preserve">0.466417461633682</t>
+    <t xml:space="preserve">0.466417402029037</t>
   </si>
   <si>
     <t xml:space="preserve">0.478077799081802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.489738285541534</t>
+    <t xml:space="preserve">0.48973822593689</t>
   </si>
   <si>
     <t xml:space="preserve">0.493625044822693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.485851466655731</t>
+    <t xml:space="preserve">0.485851436853409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.470304161310196</t>
+    <t xml:space="preserve">0.470304220914841</t>
   </si>
   <si>
     <t xml:space="preserve">0.450870126485825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.462530583143234</t>
+    <t xml:space="preserve">0.462530642747879</t>
   </si>
   <si>
-    <t xml:space="preserve">0.435322880744934</t>
+    <t xml:space="preserve">0.435322940349579</t>
   </si>
   <si>
     <t xml:space="preserve">0.43920972943306</t>
@@ -857,16 +857,16 @@
     <t xml:space="preserve">0.474191039800644</t>
   </si>
   <si>
-    <t xml:space="preserve">0.501398622989655</t>
+    <t xml:space="preserve">0.501398682594299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.590795338153839</t>
+    <t xml:space="preserve">0.590795397758484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.505285441875458</t>
+    <t xml:space="preserve">0.505285501480103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513059198856354</t>
+    <t xml:space="preserve">0.513059139251709</t>
   </si>
   <si>
     <t xml:space="preserve">0.509172320365906</t>
@@ -875,34 +875,34 @@
     <t xml:space="preserve">0.446983337402344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.443096518516541</t>
+    <t xml:space="preserve">0.443096488714218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.42754927277565</t>
+    <t xml:space="preserve">0.427549302577972</t>
   </si>
   <si>
     <t xml:space="preserve">0.419775664806366</t>
   </si>
   <si>
-    <t xml:space="preserve">0.404228359460831</t>
+    <t xml:space="preserve">0.404228389263153</t>
   </si>
   <si>
     <t xml:space="preserve">0.415888875722885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431436061859131</t>
+    <t xml:space="preserve">0.431436091661453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412001967430115</t>
+    <t xml:space="preserve">0.412002056837082</t>
   </si>
   <si>
     <t xml:space="preserve">0.382462292909622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380907565355301</t>
+    <t xml:space="preserve">0.380907535552979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.396454751491547</t>
+    <t xml:space="preserve">0.396454781293869</t>
   </si>
   <si>
     <t xml:space="preserve">0.388681173324585</t>
@@ -914,10 +914,10 @@
     <t xml:space="preserve">0.349813044071198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352922469377518</t>
+    <t xml:space="preserve">0.35292249917984</t>
   </si>
   <si>
-    <t xml:space="preserve">0.326492190361023</t>
+    <t xml:space="preserve">0.326492160558701</t>
   </si>
   <si>
     <t xml:space="preserve">0.290733516216278</t>
@@ -926,7 +926,7 @@
     <t xml:space="preserve">0.312499672174454</t>
   </si>
   <si>
-    <t xml:space="preserve">0.29539766907692</t>
+    <t xml:space="preserve">0.295397698879242</t>
   </si>
   <si>
     <t xml:space="preserve">0.306280761957169</t>
@@ -941,7 +941,7 @@
     <t xml:space="preserve">0.279850453138351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273631513118744</t>
+    <t xml:space="preserve">0.273631542921066</t>
   </si>
   <si>
     <t xml:space="preserve">0.320273280143738</t>
@@ -965,7 +965,7 @@
     <t xml:space="preserve">0.34048467874527</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346703588962555</t>
+    <t xml:space="preserve">0.346703618764877</t>
   </si>
   <si>
     <t xml:space="preserve">0.379352807998657</t>
@@ -980,19 +980,19 @@
     <t xml:space="preserve">0.38557168841362</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408115208148956</t>
+    <t xml:space="preserve">0.408115178346634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423662453889847</t>
+    <t xml:space="preserve">0.423662483692169</t>
   </si>
   <si>
     <t xml:space="preserve">0.368469744920731</t>
   </si>
   <si>
-    <t xml:space="preserve">0.371579140424728</t>
+    <t xml:space="preserve">0.371579170227051</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377798050642014</t>
+    <t xml:space="preserve">0.377798080444336</t>
   </si>
   <si>
     <t xml:space="preserve">0.392567962408066</t>
@@ -1001,13 +1001,13 @@
     <t xml:space="preserve">0.387126415967941</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362250864505768</t>
+    <t xml:space="preserve">0.362250834703445</t>
   </si>
   <si>
     <t xml:space="preserve">0.363805562257767</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360696077346802</t>
+    <t xml:space="preserve">0.360696107149124</t>
   </si>
   <si>
     <t xml:space="preserve">0.357586681842804</t>
@@ -1022,7 +1022,7 @@
     <t xml:space="preserve">0.342039436101913</t>
   </si>
   <si>
-    <t xml:space="preserve">0.334265798330307</t>
+    <t xml:space="preserve">0.334265768527985</t>
   </si>
   <si>
     <t xml:space="preserve">0.318718552589417</t>
@@ -1052,16 +1052,16 @@
     <t xml:space="preserve">0.328046858310699</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332711100578308</t>
+    <t xml:space="preserve">0.332711070775986</t>
   </si>
   <si>
     <t xml:space="preserve">0.324937462806702</t>
   </si>
   <si>
-    <t xml:space="preserve">0.482500731945038</t>
+    <t xml:space="preserve">0.482500702142715</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44864097237587</t>
+    <t xml:space="preserve">0.448641061782837</t>
   </si>
   <si>
     <t xml:space="preserve">0.43594366312027</t>
@@ -1073,10 +1073,10 @@
     <t xml:space="preserve">0.40631639957428</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414781361818314</t>
+    <t xml:space="preserve">0.414781332015991</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40800940990448</t>
+    <t xml:space="preserve">0.408009380102158</t>
   </si>
   <si>
     <t xml:space="preserve">0.427478700876236</t>
@@ -1088,13 +1088,13 @@
     <t xml:space="preserve">0.409702390432358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.392772495746613</t>
+    <t xml:space="preserve">0.392772525548935</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386000573635101</t>
+    <t xml:space="preserve">0.386000603437424</t>
   </si>
   <si>
-    <t xml:space="preserve">0.384307593107224</t>
+    <t xml:space="preserve">0.384307622909546</t>
   </si>
   <si>
     <t xml:space="preserve">0.380921632051468</t>
@@ -1106,13 +1106,13 @@
     <t xml:space="preserve">0.389386564493179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394465535879135</t>
+    <t xml:space="preserve">0.394465506076813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377535670995712</t>
+    <t xml:space="preserve">0.377535700798035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.375842660665512</t>
+    <t xml:space="preserve">0.375842690467834</t>
   </si>
   <si>
     <t xml:space="preserve">0.39107957482338</t>
@@ -1121,31 +1121,31 @@
     <t xml:space="preserve">0.490965634584427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461338400840759</t>
+    <t xml:space="preserve">0.461338460445404</t>
   </si>
   <si>
-    <t xml:space="preserve">0.507895588874817</t>
+    <t xml:space="preserve">0.507895529270172</t>
   </si>
   <si>
-    <t xml:space="preserve">0.499430567026138</t>
+    <t xml:space="preserve">0.499430626630783</t>
   </si>
   <si>
-    <t xml:space="preserve">0.495198100805283</t>
+    <t xml:space="preserve">0.495198130607605</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465570896863937</t>
+    <t xml:space="preserve">0.46557092666626</t>
   </si>
   <si>
     <t xml:space="preserve">0.452873528003693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440176069736481</t>
+    <t xml:space="preserve">0.440176099538803</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431711167097092</t>
+    <t xml:space="preserve">0.431711196899414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444408565759659</t>
+    <t xml:space="preserve">0.444408535957336</t>
   </si>
   <si>
     <t xml:space="preserve">0.457105964422226</t>
@@ -1154,7 +1154,7 @@
     <t xml:space="preserve">0.418167293071747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.411395341157913</t>
+    <t xml:space="preserve">0.411395370960236</t>
   </si>
   <si>
     <t xml:space="preserve">0.397851496934891</t>
@@ -1169,7 +1169,7 @@
     <t xml:space="preserve">0.416474342346191</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40462338924408</t>
+    <t xml:space="preserve">0.404623419046402</t>
   </si>
   <si>
     <t xml:space="preserve">0.413088351488113</t>
@@ -1178,10 +1178,10 @@
     <t xml:space="preserve">0.402930438518524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355526864528656</t>
+    <t xml:space="preserve">0.355526834726334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.336904048919678</t>
+    <t xml:space="preserve">0.336904019117355</t>
   </si>
   <si>
     <t xml:space="preserve">0.338596999645233</t>
@@ -1193,7 +1193,7 @@
     <t xml:space="preserve">0.358912825584412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363991796970367</t>
+    <t xml:space="preserve">0.363991767168045</t>
   </si>
   <si>
     <t xml:space="preserve">0.367377728223801</t>
@@ -1205,10 +1205,10 @@
     <t xml:space="preserve">0.372456729412079</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37922865152359</t>
+    <t xml:space="preserve">0.379228681325912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369070768356323</t>
+    <t xml:space="preserve">0.369070738554001</t>
   </si>
   <si>
     <t xml:space="preserve">0.347061932086945</t>
@@ -1223,22 +1223,22 @@
     <t xml:space="preserve">0.3521409034729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36229881644249</t>
+    <t xml:space="preserve">0.362298786640167</t>
   </si>
   <si>
     <t xml:space="preserve">0.356533944606781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361855328083038</t>
+    <t xml:space="preserve">0.361855357885361</t>
   </si>
   <si>
     <t xml:space="preserve">0.352986335754395</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358307719230652</t>
+    <t xml:space="preserve">0.358307749032974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372498095035553</t>
+    <t xml:space="preserve">0.372498124837875</t>
   </si>
   <si>
     <t xml:space="preserve">0.374271929264069</t>
@@ -1262,7 +1262,7 @@
     <t xml:space="preserve">0.338795900344849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354760140180588</t>
+    <t xml:space="preserve">0.35476016998291</t>
   </si>
   <si>
     <t xml:space="preserve">0.337022125720978</t>
@@ -1274,7 +1274,7 @@
     <t xml:space="preserve">0.326379328966141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317510336637497</t>
+    <t xml:space="preserve">0.317510306835175</t>
   </si>
   <si>
     <t xml:space="preserve">0.322831720113754</t>
@@ -1283,7 +1283,7 @@
     <t xml:space="preserve">0.31396272778511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.310415118932724</t>
+    <t xml:space="preserve">0.310415089130402</t>
   </si>
   <si>
     <t xml:space="preserve">0.312188893556595</t>
@@ -1313,13 +1313,13 @@
     <t xml:space="preserve">0.345891088247299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.324605524539948</t>
+    <t xml:space="preserve">0.324605494737625</t>
   </si>
   <si>
     <t xml:space="preserve">0.388462334871292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379593312740326</t>
+    <t xml:space="preserve">0.379593342542648</t>
   </si>
   <si>
     <t xml:space="preserve">0.381367146968842</t>
@@ -1328,13 +1328,13 @@
     <t xml:space="preserve">0.383140951395035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.376045733690262</t>
+    <t xml:space="preserve">0.376045763492584</t>
   </si>
   <si>
     <t xml:space="preserve">0.377819538116455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395557582378387</t>
+    <t xml:space="preserve">0.395557552576065</t>
   </si>
   <si>
     <t xml:space="preserve">0.331567615270615</t>
@@ -1473,9 +1473,6 @@
   </si>
   <si>
     <t xml:space="preserve">0.330000013113022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.319999992847443</t>
   </si>
 </sst>
 </file>
@@ -58653,7 +58650,7 @@
     </row>
     <row r="2187">
       <c r="A2187" s="1" t="n">
-        <v>45506.6441782407</v>
+        <v>45506.2916666667</v>
       </c>
       <c r="B2187" t="n">
         <v>32000</v>
@@ -58668,10 +58665,10 @@
         <v>0.32600000500679</v>
       </c>
       <c r="F2187" t="n">
-        <v>0.319999992847443</v>
+        <v>0.321999996900558</v>
       </c>
       <c r="G2187" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H2187" t="s">
         <v>9</v>

--- a/data/POPR.MI.xlsx
+++ b/data/POPR.MI.xlsx
@@ -47,16 +47,16 @@
     <t xml:space="preserve">0.198275223374367</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194041609764099</t>
+    <t xml:space="preserve">0.194041579961777</t>
   </si>
   <si>
     <t xml:space="preserve">0.192630380392075</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184163123369217</t>
+    <t xml:space="preserve">0.184163108468056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.19051356613636</t>
+    <t xml:space="preserve">0.190513581037521</t>
   </si>
   <si>
     <t xml:space="preserve">0.167228564620018</t>
@@ -68,52 +68,52 @@
     <t xml:space="preserve">0.16814586520195</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162994936108589</t>
+    <t xml:space="preserve">0.16299495100975</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171462208032608</t>
+    <t xml:space="preserve">0.171462222933769</t>
   </si>
   <si>
     <t xml:space="preserve">0.17216782271862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169274836778641</t>
+    <t xml:space="preserve">0.16927482187748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164406135678291</t>
+    <t xml:space="preserve">0.164406150579453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156997293233871</t>
+    <t xml:space="preserve">0.15699727833271</t>
   </si>
   <si>
     <t xml:space="preserve">0.156644493341446</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157067835330963</t>
+    <t xml:space="preserve">0.157067850232124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15946689248085</t>
+    <t xml:space="preserve">0.159466907382011</t>
   </si>
   <si>
     <t xml:space="preserve">0.155938878655434</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169627621769905</t>
+    <t xml:space="preserve">0.169627651572227</t>
   </si>
   <si>
-    <t xml:space="preserve">0.19121915102005</t>
+    <t xml:space="preserve">0.191219180822372</t>
   </si>
   <si>
     <t xml:space="preserve">0.187267765402794</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183457493782043</t>
+    <t xml:space="preserve">0.183457478880882</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176401451230049</t>
+    <t xml:space="preserve">0.176401436328888</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173579022288322</t>
+    <t xml:space="preserve">0.173579037189484</t>
   </si>
   <si>
     <t xml:space="preserve">0.16793417930603</t>
@@ -122,52 +122,52 @@
     <t xml:space="preserve">0.174778565764427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180635094642639</t>
+    <t xml:space="preserve">0.180635079741478</t>
   </si>
   <si>
     <t xml:space="preserve">0.178447708487511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199051395058632</t>
+    <t xml:space="preserve">0.199051409959793</t>
   </si>
   <si>
-    <t xml:space="preserve">0.198980838060379</t>
+    <t xml:space="preserve">0.19898085296154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191924780607224</t>
+    <t xml:space="preserve">0.191924810409546</t>
   </si>
   <si>
-    <t xml:space="preserve">0.18627992272377</t>
+    <t xml:space="preserve">0.186279937624931</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211681738495827</t>
+    <t xml:space="preserve">0.211681753396988</t>
   </si>
   <si>
-    <t xml:space="preserve">0.216268166899681</t>
+    <t xml:space="preserve">0.216268181800842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.215209767222404</t>
+    <t xml:space="preserve">0.215209752321243</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206742525100708</t>
+    <t xml:space="preserve">0.206742495298386</t>
   </si>
   <si>
     <t xml:space="preserve">0.203920096158981</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225793853402138</t>
+    <t xml:space="preserve">0.225793868303299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234261110424995</t>
+    <t xml:space="preserve">0.234261125326157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225723296403885</t>
+    <t xml:space="preserve">0.225723311305046</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220854625105858</t>
+    <t xml:space="preserve">0.220854610204697</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218032151460648</t>
+    <t xml:space="preserve">0.218032166361809</t>
   </si>
   <si>
     <t xml:space="preserve">0.201097652316093</t>
@@ -176,13 +176,13 @@
     <t xml:space="preserve">0.204625681042671</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190654695034027</t>
+    <t xml:space="preserve">0.190654680132866</t>
   </si>
   <si>
     <t xml:space="preserve">0.189102366566658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182751893997192</t>
+    <t xml:space="preserve">0.182751908898354</t>
   </si>
   <si>
     <t xml:space="preserve">0.170192122459412</t>
@@ -203,19 +203,19 @@
     <t xml:space="preserve">0.176965937018394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208859324455261</t>
+    <t xml:space="preserve">0.208859339356422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210976108908653</t>
+    <t xml:space="preserve">0.210976138710976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206036895513535</t>
+    <t xml:space="preserve">0.206036880612373</t>
   </si>
   <si>
-    <t xml:space="preserve">0.203990623354912</t>
+    <t xml:space="preserve">0.203990638256073</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187691137194633</t>
+    <t xml:space="preserve">0.187691166996956</t>
   </si>
   <si>
     <t xml:space="preserve">0.179929465055466</t>
@@ -224,13 +224,13 @@
     <t xml:space="preserve">0.165111750364304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170050978660583</t>
+    <t xml:space="preserve">0.170051008462906</t>
   </si>
   <si>
     <t xml:space="preserve">0.166522964835167</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162289321422577</t>
+    <t xml:space="preserve">0.162289336323738</t>
   </si>
   <si>
     <t xml:space="preserve">0.177812665700912</t>
@@ -239,28 +239,28 @@
     <t xml:space="preserve">0.185433208942413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191571950912476</t>
+    <t xml:space="preserve">0.191571980714798</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193335980176926</t>
+    <t xml:space="preserve">0.193335995078087</t>
   </si>
   <si>
-    <t xml:space="preserve">0.204978480935097</t>
+    <t xml:space="preserve">0.204978466033936</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225088223814964</t>
+    <t xml:space="preserve">0.225088238716125</t>
   </si>
   <si>
     <t xml:space="preserve">0.217326581478119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199968680739403</t>
+    <t xml:space="preserve">0.199968695640564</t>
   </si>
   <si>
-    <t xml:space="preserve">0.214151382446289</t>
+    <t xml:space="preserve">0.214151352643967</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225652739405632</t>
+    <t xml:space="preserve">0.225652754306793</t>
   </si>
   <si>
     <t xml:space="preserve">0.218737795948982</t>
@@ -269,19 +269,19 @@
     <t xml:space="preserve">0.215280324220657</t>
   </si>
   <si>
-    <t xml:space="preserve">0.224382653832436</t>
+    <t xml:space="preserve">0.224382624030113</t>
   </si>
   <si>
     <t xml:space="preserve">0.239200383424759</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243363469839096</t>
+    <t xml:space="preserve">0.243363440036774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261074125766754</t>
+    <t xml:space="preserve">0.261074155569077</t>
   </si>
   <si>
-    <t xml:space="preserve">0.267424613237381</t>
+    <t xml:space="preserve">0.267424583435059</t>
   </si>
   <si>
     <t xml:space="preserve">0.282242327928543</t>
@@ -290,19 +290,19 @@
     <t xml:space="preserve">0.299882471561432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309055298566818</t>
+    <t xml:space="preserve">0.309055328369141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325989872217178</t>
+    <t xml:space="preserve">0.325989902019501</t>
   </si>
   <si>
     <t xml:space="preserve">0.335162758827209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.289298355579376</t>
+    <t xml:space="preserve">0.289298385381699</t>
   </si>
   <si>
-    <t xml:space="preserve">0.292050242424011</t>
+    <t xml:space="preserve">0.292050212621689</t>
   </si>
   <si>
     <t xml:space="preserve">0.28090164065361</t>
@@ -311,13 +311,13 @@
     <t xml:space="preserve">0.280831098556519</t>
   </si>
   <si>
-    <t xml:space="preserve">0.272575527429581</t>
+    <t xml:space="preserve">0.272575497627258</t>
   </si>
   <si>
     <t xml:space="preserve">0.273069441318512</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273210555315018</t>
+    <t xml:space="preserve">0.273210614919662</t>
   </si>
   <si>
     <t xml:space="preserve">0.257546126842499</t>
@@ -326,19 +326,19 @@
     <t xml:space="preserve">0.262485384941101</t>
   </si>
   <si>
-    <t xml:space="preserve">0.236377954483032</t>
+    <t xml:space="preserve">0.236377969384193</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232285410165787</t>
+    <t xml:space="preserve">0.232285425066948</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237789168953896</t>
+    <t xml:space="preserve">0.237789154052734</t>
   </si>
   <si>
     <t xml:space="preserve">0.234331682324409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.266718953847885</t>
+    <t xml:space="preserve">0.266718983650208</t>
   </si>
   <si>
     <t xml:space="preserve">0.275186240673065</t>
@@ -347,52 +347,52 @@
     <t xml:space="preserve">0.259098440408707</t>
   </si>
   <si>
-    <t xml:space="preserve">0.255429267883301</t>
+    <t xml:space="preserve">0.255429297685623</t>
   </si>
   <si>
     <t xml:space="preserve">0.264602184295654</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254018127918243</t>
+    <t xml:space="preserve">0.254018068313599</t>
   </si>
   <si>
     <t xml:space="preserve">0.250490039587021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243433997035027</t>
+    <t xml:space="preserve">0.243433982133865</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249643340706825</t>
+    <t xml:space="preserve">0.249643325805664</t>
   </si>
   <si>
     <t xml:space="preserve">0.239270925521851</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225864425301552</t>
+    <t xml:space="preserve">0.225864440202713</t>
   </si>
   <si>
     <t xml:space="preserve">0.229321882128716</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232144311070442</t>
+    <t xml:space="preserve">0.23214428126812</t>
   </si>
   <si>
     <t xml:space="preserve">0.231438711285591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232849895954132</t>
+    <t xml:space="preserve">0.232849940657616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234402239322662</t>
+    <t xml:space="preserve">0.234402269124985</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23793026804924</t>
+    <t xml:space="preserve">0.237930297851562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25331249833107</t>
+    <t xml:space="preserve">0.253312468528748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246820911765099</t>
+    <t xml:space="preserve">0.246820896863937</t>
   </si>
   <si>
     <t xml:space="preserve">0.247879311442375</t>
@@ -407,13 +407,13 @@
     <t xml:space="preserve">0.252042382955551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246962040662766</t>
+    <t xml:space="preserve">0.246961981058121</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246679753065109</t>
+    <t xml:space="preserve">0.246679812669754</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243504524230957</t>
+    <t xml:space="preserve">0.243504554033279</t>
   </si>
   <si>
     <t xml:space="preserve">0.259662926197052</t>
@@ -431,67 +431,67 @@
     <t xml:space="preserve">0.395139247179031</t>
   </si>
   <si>
-    <t xml:space="preserve">0.522148251533508</t>
+    <t xml:space="preserve">0.522148311138153</t>
   </si>
   <si>
     <t xml:space="preserve">0.612465739250183</t>
   </si>
   <si>
-    <t xml:space="preserve">0.535554707050323</t>
+    <t xml:space="preserve">0.535554766654968</t>
   </si>
   <si>
-    <t xml:space="preserve">0.490395963191986</t>
+    <t xml:space="preserve">0.490395992994308</t>
   </si>
   <si>
-    <t xml:space="preserve">0.473814308643341</t>
+    <t xml:space="preserve">0.473814278841019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44453164935112</t>
+    <t xml:space="preserve">0.444531679153442</t>
   </si>
   <si>
     <t xml:space="preserve">0.409251362085342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464994221925735</t>
+    <t xml:space="preserve">0.464994162321091</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412426620721817</t>
+    <t xml:space="preserve">0.412426590919495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419835448265076</t>
+    <t xml:space="preserve">0.41983550786972</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388788759708405</t>
+    <t xml:space="preserve">0.388788819313049</t>
   </si>
   <si>
     <t xml:space="preserve">0.36585658788681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353508532047272</t>
+    <t xml:space="preserve">0.353508502244949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366562217473984</t>
+    <t xml:space="preserve">0.366562187671661</t>
   </si>
   <si>
-    <t xml:space="preserve">0.375382274389267</t>
+    <t xml:space="preserve">0.375382333993912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361270189285278</t>
+    <t xml:space="preserve">0.361270159482956</t>
   </si>
   <si>
     <t xml:space="preserve">0.391611218452454</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383143901824951</t>
+    <t xml:space="preserve">0.383143961429596</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366914987564087</t>
+    <t xml:space="preserve">0.366914957761765</t>
   </si>
   <si>
     <t xml:space="preserve">0.357389330863953</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360564529895782</t>
+    <t xml:space="preserve">0.36056450009346</t>
   </si>
   <si>
     <t xml:space="preserve">0.373971045017242</t>
@@ -506,13 +506,13 @@
     <t xml:space="preserve">0.36409255862236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352802902460098</t>
+    <t xml:space="preserve">0.352802872657776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349980443716049</t>
+    <t xml:space="preserve">0.349980473518372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.375735104084015</t>
+    <t xml:space="preserve">0.375735133886337</t>
   </si>
   <si>
     <t xml:space="preserve">0.357036501169205</t>
@@ -521,109 +521,109 @@
     <t xml:space="preserve">0.355625331401825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368678987026215</t>
+    <t xml:space="preserve">0.368679016828537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36268138885498</t>
+    <t xml:space="preserve">0.362681359052658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368326246738434</t>
+    <t xml:space="preserve">0.368326216936111</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338690787553787</t>
+    <t xml:space="preserve">0.338690757751465</t>
   </si>
   <si>
-    <t xml:space="preserve">0.348569244146347</t>
+    <t xml:space="preserve">0.348569273948669</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349204301834106</t>
+    <t xml:space="preserve">0.349204272031784</t>
   </si>
   <si>
     <t xml:space="preserve">0.359858930110931</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365503787994385</t>
+    <t xml:space="preserve">0.365503817796707</t>
   </si>
   <si>
     <t xml:space="preserve">0.402195304632187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38102713227272</t>
+    <t xml:space="preserve">0.381027162075043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.381732761859894</t>
+    <t xml:space="preserve">0.381732732057571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358447730541229</t>
+    <t xml:space="preserve">0.358447760343552</t>
   </si>
   <si>
     <t xml:space="preserve">0.379263162612915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353155732154846</t>
+    <t xml:space="preserve">0.353155702352524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367973417043686</t>
+    <t xml:space="preserve">0.367973387241364</t>
   </si>
   <si>
     <t xml:space="preserve">0.437475591897964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414896190166473</t>
+    <t xml:space="preserve">0.414896219968796</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414190590381622</t>
+    <t xml:space="preserve">0.414190620183945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415601789951324</t>
+    <t xml:space="preserve">0.415601819753647</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408192962408066</t>
+    <t xml:space="preserve">0.408192932605743</t>
   </si>
   <si>
-    <t xml:space="preserve">0.416307389736176</t>
+    <t xml:space="preserve">0.416307419538498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38737764954567</t>
+    <t xml:space="preserve">0.387377619743347</t>
   </si>
   <si>
     <t xml:space="preserve">0.392669647932053</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397961676120758</t>
+    <t xml:space="preserve">0.39796170592308</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412073791027069</t>
+    <t xml:space="preserve">0.412073761224747</t>
   </si>
   <si>
     <t xml:space="preserve">0.436417162418365</t>
   </si>
   <si>
-    <t xml:space="preserve">0.439592391252518</t>
+    <t xml:space="preserve">0.439592450857162</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424069076776505</t>
+    <t xml:space="preserve">0.424069136381149</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423363476991653</t>
+    <t xml:space="preserve">0.423363506793976</t>
   </si>
   <si>
     <t xml:space="preserve">0.434653162956238</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423716336488724</t>
+    <t xml:space="preserve">0.423716276884079</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457938224077225</t>
+    <t xml:space="preserve">0.45793816447258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465699791908264</t>
+    <t xml:space="preserve">0.465699881315231</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440298050642014</t>
+    <t xml:space="preserve">0.440297991037369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423010647296906</t>
+    <t xml:space="preserve">0.423010677099228</t>
   </si>
   <si>
     <t xml:space="preserve">0.433947592973709</t>
@@ -632,22 +632,22 @@
     <t xml:space="preserve">0.529204368591309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493218451738358</t>
+    <t xml:space="preserve">0.493218421936035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.508036255836487</t>
+    <t xml:space="preserve">0.508036136627197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.486867994070053</t>
+    <t xml:space="preserve">0.486867964267731</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4918073117733</t>
+    <t xml:space="preserve">0.491807192564011</t>
   </si>
   <si>
     <t xml:space="preserve">0.500980079174042</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493924081325531</t>
+    <t xml:space="preserve">0.493923962116241</t>
   </si>
   <si>
     <t xml:space="preserve">0.474167108535767</t>
@@ -656,88 +656,88 @@
     <t xml:space="preserve">0.476989507675171</t>
   </si>
   <si>
-    <t xml:space="preserve">0.472755908966064</t>
+    <t xml:space="preserve">0.472755938768387</t>
   </si>
   <si>
-    <t xml:space="preserve">0.460054993629456</t>
+    <t xml:space="preserve">0.460054934024811</t>
   </si>
   <si>
-    <t xml:space="preserve">0.455821394920349</t>
+    <t xml:space="preserve">0.455821365118027</t>
   </si>
   <si>
     <t xml:space="preserve">0.458643764257431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464288622140884</t>
+    <t xml:space="preserve">0.46428856253624</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451587706804276</t>
+    <t xml:space="preserve">0.451587736606598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.485456794500351</t>
+    <t xml:space="preserve">0.485456824302673</t>
   </si>
   <si>
-    <t xml:space="preserve">0.468522220849991</t>
+    <t xml:space="preserve">0.468522250652313</t>
   </si>
   <si>
     <t xml:space="preserve">0.519325852394104</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479811936616898</t>
+    <t xml:space="preserve">0.47981196641922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448765307664871</t>
+    <t xml:space="preserve">0.448765248060226</t>
   </si>
   <si>
-    <t xml:space="preserve">0.469933420419693</t>
+    <t xml:space="preserve">0.469933450222015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.475578337907791</t>
+    <t xml:space="preserve">0.475578308105469</t>
   </si>
   <si>
     <t xml:space="preserve">0.461466193199158</t>
   </si>
   <si>
-    <t xml:space="preserve">0.447354048490524</t>
+    <t xml:space="preserve">0.447354108095169</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454410076141357</t>
+    <t xml:space="preserve">0.454410135746002</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429008334875107</t>
+    <t xml:space="preserve">0.429008364677429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.430419534444809</t>
+    <t xml:space="preserve">0.430419504642487</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436064302921295</t>
+    <t xml:space="preserve">0.436064332723618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452998906373978</t>
+    <t xml:space="preserve">0.4529989361763</t>
   </si>
   <si>
-    <t xml:space="preserve">0.484045565128326</t>
+    <t xml:space="preserve">0.484045594930649</t>
   </si>
   <si>
-    <t xml:space="preserve">0.471344649791718</t>
+    <t xml:space="preserve">0.47134467959404</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457232594490051</t>
+    <t xml:space="preserve">0.457232534885406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44312047958374</t>
+    <t xml:space="preserve">0.443120419979095</t>
   </si>
   <si>
     <t xml:space="preserve">0.462877422571182</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450176447629929</t>
+    <t xml:space="preserve">0.450176477432251</t>
   </si>
   <si>
-    <t xml:space="preserve">0.467111051082611</t>
+    <t xml:space="preserve">0.467110991477966</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406428933143616</t>
+    <t xml:space="preserve">0.406428903341293</t>
   </si>
   <si>
     <t xml:space="preserve">0.410662591457367</t>
@@ -746,10 +746,10 @@
     <t xml:space="preserve">0.407840192317963</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3824383020401</t>
+    <t xml:space="preserve">0.382438361644745</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369737416505814</t>
+    <t xml:space="preserve">0.369737446308136</t>
   </si>
   <si>
     <t xml:space="preserve">0.403606504201889</t>
@@ -758,7 +758,7 @@
     <t xml:space="preserve">0.400784105062485</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386671960353851</t>
+    <t xml:space="preserve">0.386671990156174</t>
   </si>
   <si>
     <t xml:space="preserve">0.378204733133316</t>
@@ -767,151 +767,148 @@
     <t xml:space="preserve">0.379615902900696</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388083219528198</t>
+    <t xml:space="preserve">0.388083159923553</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417718648910522</t>
+    <t xml:space="preserve">0.417718678712845</t>
   </si>
   <si>
-    <t xml:space="preserve">0.433241963386536</t>
+    <t xml:space="preserve">0.433241933584213</t>
   </si>
   <si>
     <t xml:space="preserve">0.396550446748734</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405017673969269</t>
+    <t xml:space="preserve">0.405017733573914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424774676561356</t>
+    <t xml:space="preserve">0.424774706363678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421952217817307</t>
+    <t xml:space="preserve">0.421952277421951</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41912978887558</t>
+    <t xml:space="preserve">0.419129878282547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431830734014511</t>
+    <t xml:space="preserve">0.431830704212189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.438886791467667</t>
+    <t xml:space="preserve">0.438886731863022</t>
   </si>
   <si>
-    <t xml:space="preserve">0.441709250211716</t>
+    <t xml:space="preserve">0.441709220409393</t>
   </si>
   <si>
-    <t xml:space="preserve">0.476283937692642</t>
+    <t xml:space="preserve">0.476283967494965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.483339965343475</t>
+    <t xml:space="preserve">0.483339995145798</t>
   </si>
   <si>
-    <t xml:space="preserve">0.504508137702942</t>
+    <t xml:space="preserve">0.504508078098297</t>
   </si>
   <si>
     <t xml:space="preserve">0.511564195156097</t>
   </si>
   <si>
-    <t xml:space="preserve">0.520832777023315</t>
+    <t xml:space="preserve">0.52083283662796</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497511863708496</t>
+    <t xml:space="preserve">0.497511833906174</t>
   </si>
   <si>
     <t xml:space="preserve">0.481964647769928</t>
   </si>
   <si>
-    <t xml:space="preserve">0.466417402029037</t>
+    <t xml:space="preserve">0.46641743183136</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478077858686447</t>
+    <t xml:space="preserve">0.478077799081802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.489738255739212</t>
+    <t xml:space="preserve">0.489738285541534</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493625104427338</t>
+    <t xml:space="preserve">0.493625074625015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.485851436853409</t>
+    <t xml:space="preserve">0.485851466655731</t>
   </si>
   <si>
-    <t xml:space="preserve">0.470304250717163</t>
+    <t xml:space="preserve">0.470304161310196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.458643734455109</t>
+    <t xml:space="preserve">0.450870096683502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450870126485825</t>
+    <t xml:space="preserve">0.462530612945557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.462530583143234</t>
+    <t xml:space="preserve">0.435322880744934</t>
   </si>
   <si>
-    <t xml:space="preserve">0.435322910547256</t>
+    <t xml:space="preserve">0.439209699630737</t>
   </si>
   <si>
-    <t xml:space="preserve">0.439209669828415</t>
+    <t xml:space="preserve">0.454756915569305</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454756945371628</t>
+    <t xml:space="preserve">0.474190980195999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474191009998322</t>
+    <t xml:space="preserve">0.501398682594299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.501398622989655</t>
+    <t xml:space="preserve">0.590795397758484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.590795338153839</t>
+    <t xml:space="preserve">0.505285441875458</t>
   </si>
   <si>
-    <t xml:space="preserve">0.505285501480103</t>
+    <t xml:space="preserve">0.513059139251709</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513059079647064</t>
+    <t xml:space="preserve">0.509172260761261</t>
   </si>
   <si>
-    <t xml:space="preserve">0.509172320365906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.446983307600021</t>
+    <t xml:space="preserve">0.446983337402344</t>
   </si>
   <si>
     <t xml:space="preserve">0.443096518516541</t>
   </si>
   <si>
-    <t xml:space="preserve">0.427549302577972</t>
+    <t xml:space="preserve">0.42754927277565</t>
   </si>
   <si>
     <t xml:space="preserve">0.419775664806366</t>
   </si>
   <si>
-    <t xml:space="preserve">0.404228389263153</t>
+    <t xml:space="preserve">0.404228359460831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415888845920563</t>
+    <t xml:space="preserve">0.415888875722885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431436091661453</t>
+    <t xml:space="preserve">0.431436061859131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412001997232437</t>
+    <t xml:space="preserve">0.41200202703476</t>
   </si>
   <si>
     <t xml:space="preserve">0.3824622631073</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380907535552979</t>
+    <t xml:space="preserve">0.380907565355301</t>
   </si>
   <si>
     <t xml:space="preserve">0.396454751491547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388681173324585</t>
+    <t xml:space="preserve">0.388681143522263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373133927583694</t>
+    <t xml:space="preserve">0.37313386797905</t>
   </si>
   <si>
     <t xml:space="preserve">0.349813014268875</t>
@@ -926,22 +923,25 @@
     <t xml:space="preserve">0.290733516216278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312499612569809</t>
+    <t xml:space="preserve">0.312499672174454</t>
   </si>
   <si>
-    <t xml:space="preserve">0.29539766907692</t>
+    <t xml:space="preserve">0.295397698879242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.306280732154846</t>
+    <t xml:space="preserve">0.306280791759491</t>
   </si>
   <si>
-    <t xml:space="preserve">0.293842911720276</t>
+    <t xml:space="preserve">0.293842941522598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.279850482940674</t>
+    <t xml:space="preserve">0.275186270475388</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273631542921066</t>
+    <t xml:space="preserve">0.279850453138351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.273631513118744</t>
   </si>
   <si>
     <t xml:space="preserve">0.320273250341415</t>
@@ -953,37 +953,37 @@
     <t xml:space="preserve">0.304726034402847</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314054399728775</t>
+    <t xml:space="preserve">0.314054369926453</t>
   </si>
   <si>
     <t xml:space="preserve">0.315609097480774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.331156313419342</t>
+    <t xml:space="preserve">0.331156343221664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340484648942947</t>
+    <t xml:space="preserve">0.34048467874527</t>
   </si>
   <si>
     <t xml:space="preserve">0.346703588962555</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37935283780098</t>
+    <t xml:space="preserve">0.379352807998657</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365360260009766</t>
+    <t xml:space="preserve">0.36536031961441</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359141379594803</t>
+    <t xml:space="preserve">0.359141439199448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38557168841362</t>
+    <t xml:space="preserve">0.385571718215942</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408115208148956</t>
+    <t xml:space="preserve">0.408115178346634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423662453889847</t>
+    <t xml:space="preserve">0.423662513494492</t>
   </si>
   <si>
     <t xml:space="preserve">0.368469715118408</t>
@@ -992,7 +992,7 @@
     <t xml:space="preserve">0.371579170227051</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377798080444336</t>
+    <t xml:space="preserve">0.377798110246658</t>
   </si>
   <si>
     <t xml:space="preserve">0.392567962408066</t>
@@ -1016,37 +1016,37 @@
     <t xml:space="preserve">0.343594133853912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35603192448616</t>
+    <t xml:space="preserve">0.356031954288483</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342039436101913</t>
+    <t xml:space="preserve">0.342039406299591</t>
   </si>
   <si>
     <t xml:space="preserve">0.334265798330307</t>
   </si>
   <si>
-    <t xml:space="preserve">0.318718522787094</t>
+    <t xml:space="preserve">0.318718552589417</t>
   </si>
   <si>
     <t xml:space="preserve">0.32338273525238</t>
   </si>
   <si>
-    <t xml:space="preserve">0.296952396631241</t>
+    <t xml:space="preserve">0.296952366828918</t>
   </si>
   <si>
-    <t xml:space="preserve">0.300061851739883</t>
+    <t xml:space="preserve">0.300061881542206</t>
   </si>
   <si>
-    <t xml:space="preserve">0.292288243770599</t>
+    <t xml:space="preserve">0.292288213968277</t>
   </si>
   <si>
-    <t xml:space="preserve">0.298507153987885</t>
+    <t xml:space="preserve">0.298507124185562</t>
   </si>
   <si>
     <t xml:space="preserve">0.303171277046204</t>
   </si>
   <si>
-    <t xml:space="preserve">0.310944944620132</t>
+    <t xml:space="preserve">0.310944974422455</t>
   </si>
   <si>
     <t xml:space="preserve">0.328046888113022</t>
@@ -1058,52 +1058,52 @@
     <t xml:space="preserve">0.324937462806702</t>
   </si>
   <si>
-    <t xml:space="preserve">0.482500731945038</t>
+    <t xml:space="preserve">0.48250076174736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448641061782837</t>
+    <t xml:space="preserve">0.448641031980515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.435943633317947</t>
+    <t xml:space="preserve">0.435943603515625</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423246264457703</t>
+    <t xml:space="preserve">0.42324623465538</t>
   </si>
   <si>
     <t xml:space="preserve">0.40631639957428</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414781332015991</t>
+    <t xml:space="preserve">0.414781361818314</t>
   </si>
   <si>
     <t xml:space="preserve">0.40800940990448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.427478700876236</t>
+    <t xml:space="preserve">0.427478730678558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419860273599625</t>
+    <t xml:space="preserve">0.419860303401947</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409702390432358</t>
+    <t xml:space="preserve">0.409702360630035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.392772555351257</t>
+    <t xml:space="preserve">0.392772525548935</t>
   </si>
   <si>
     <t xml:space="preserve">0.386000603437424</t>
   </si>
   <si>
-    <t xml:space="preserve">0.384307593107224</t>
+    <t xml:space="preserve">0.384307622909546</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380921632051468</t>
+    <t xml:space="preserve">0.380921602249146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.396158516407013</t>
+    <t xml:space="preserve">0.396158486604691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.389386594295502</t>
+    <t xml:space="preserve">0.389386564493179</t>
   </si>
   <si>
     <t xml:space="preserve">0.394465506076813</t>
@@ -1112,46 +1112,46 @@
     <t xml:space="preserve">0.377535670995712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.375842720270157</t>
+    <t xml:space="preserve">0.375842690467834</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391079545021057</t>
+    <t xml:space="preserve">0.39107957482338</t>
   </si>
   <si>
     <t xml:space="preserve">0.490965634584427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461338460445404</t>
+    <t xml:space="preserve">0.461338490247726</t>
   </si>
   <si>
     <t xml:space="preserve">0.507895588874817</t>
   </si>
   <si>
-    <t xml:space="preserve">0.499430626630783</t>
+    <t xml:space="preserve">0.499430596828461</t>
   </si>
   <si>
     <t xml:space="preserve">0.495198100805283</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465570896863937</t>
+    <t xml:space="preserve">0.465570867061615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452873557806015</t>
+    <t xml:space="preserve">0.452873528003693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440176099538803</t>
+    <t xml:space="preserve">0.440176069736481</t>
   </si>
   <si>
     <t xml:space="preserve">0.431711167097092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444408535957336</t>
+    <t xml:space="preserve">0.444408565759659</t>
   </si>
   <si>
     <t xml:space="preserve">0.457105994224548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.418167293071747</t>
+    <t xml:space="preserve">0.418167322874069</t>
   </si>
   <si>
     <t xml:space="preserve">0.411395370960236</t>
@@ -1166,10 +1166,10 @@
     <t xml:space="preserve">0.382614612579346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.416474342346191</t>
+    <t xml:space="preserve">0.416474312543869</t>
   </si>
   <si>
-    <t xml:space="preserve">0.404623419046402</t>
+    <t xml:space="preserve">0.40462338924408</t>
   </si>
   <si>
     <t xml:space="preserve">0.413088381290436</t>
@@ -1178,19 +1178,19 @@
     <t xml:space="preserve">0.402930438518524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355526864528656</t>
+    <t xml:space="preserve">0.355526834726334</t>
   </si>
   <si>
     <t xml:space="preserve">0.336904019117355</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338596999645233</t>
+    <t xml:space="preserve">0.338597029447556</t>
   </si>
   <si>
     <t xml:space="preserve">0.357219845056534</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358912825584412</t>
+    <t xml:space="preserve">0.358912855386734</t>
   </si>
   <si>
     <t xml:space="preserve">0.363991796970367</t>
@@ -1199,16 +1199,16 @@
     <t xml:space="preserve">0.367377728223801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370763689279556</t>
+    <t xml:space="preserve">0.370763719081879</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372456729412079</t>
+    <t xml:space="preserve">0.372456699609756</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379228681325912</t>
+    <t xml:space="preserve">0.37922865152359</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369070738554001</t>
+    <t xml:space="preserve">0.369070708751678</t>
   </si>
   <si>
     <t xml:space="preserve">0.347061932086945</t>
@@ -1223,13 +1223,13 @@
     <t xml:space="preserve">0.3521409034729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36229881644249</t>
+    <t xml:space="preserve">0.362298786640167</t>
   </si>
   <si>
     <t xml:space="preserve">0.356533944606781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361855357885361</t>
+    <t xml:space="preserve">0.361855328083038</t>
   </si>
   <si>
     <t xml:space="preserve">0.352986335754395</t>
@@ -1238,10 +1238,10 @@
     <t xml:space="preserve">0.358307749032974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372498154640198</t>
+    <t xml:space="preserve">0.372498124837875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374271959066391</t>
+    <t xml:space="preserve">0.374271929264069</t>
   </si>
   <si>
     <t xml:space="preserve">0.360081523656845</t>
@@ -1259,10 +1259,10 @@
     <t xml:space="preserve">0.328153133392334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338795930147171</t>
+    <t xml:space="preserve">0.338795900344849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354760140180588</t>
+    <t xml:space="preserve">0.35476016998291</t>
   </si>
   <si>
     <t xml:space="preserve">0.337022125720978</t>
@@ -1274,7 +1274,7 @@
     <t xml:space="preserve">0.326379328966141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317510306835175</t>
+    <t xml:space="preserve">0.317510336637497</t>
   </si>
   <si>
     <t xml:space="preserve">0.322831720113754</t>
@@ -1286,13 +1286,13 @@
     <t xml:space="preserve">0.310415089130402</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312188923358917</t>
+    <t xml:space="preserve">0.312188893556595</t>
   </si>
   <si>
     <t xml:space="preserve">0.303319931030273</t>
   </si>
   <si>
-    <t xml:space="preserve">0.315736562013626</t>
+    <t xml:space="preserve">0.315736502408981</t>
   </si>
   <si>
     <t xml:space="preserve">0.305093705654144</t>
@@ -1301,7 +1301,7 @@
     <t xml:space="preserve">0.31928414106369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.321057915687561</t>
+    <t xml:space="preserve">0.321057945489883</t>
   </si>
   <si>
     <t xml:space="preserve">0.33170074224472</t>
@@ -1316,22 +1316,22 @@
     <t xml:space="preserve">0.324605524539948</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38846230506897</t>
+    <t xml:space="preserve">0.388462334871292</t>
   </si>
   <si>
     <t xml:space="preserve">0.379593342542648</t>
   </si>
   <si>
-    <t xml:space="preserve">0.381367176771164</t>
+    <t xml:space="preserve">0.381367146968842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383140951395035</t>
+    <t xml:space="preserve">0.383140981197357</t>
   </si>
   <si>
-    <t xml:space="preserve">0.376045703887939</t>
+    <t xml:space="preserve">0.376045763492584</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377819538116455</t>
+    <t xml:space="preserve">0.377819567918777</t>
   </si>
   <si>
     <t xml:space="preserve">0.395557552576065</t>
@@ -25888,7 +25888,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G926" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -25914,7 +25914,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G927" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -25940,7 +25940,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G928" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -25966,7 +25966,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G929" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -25992,7 +25992,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G930" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -26018,7 +26018,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G931" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -26044,7 +26044,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G932" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -26070,7 +26070,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G933" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -26096,7 +26096,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G934" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -26122,7 +26122,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G935" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -26148,7 +26148,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G936" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -26174,7 +26174,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G937" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -26200,7 +26200,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G938" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -26226,7 +26226,7 @@
         <v>0.564999997615814</v>
       </c>
       <c r="G939" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -26252,7 +26252,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G940" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -26278,7 +26278,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G941" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -26330,7 +26330,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G943" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -26356,7 +26356,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G944" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -26382,7 +26382,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G945" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -26408,7 +26408,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G946" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -26434,7 +26434,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G947" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -26460,7 +26460,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G948" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -26486,7 +26486,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G949" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -26512,7 +26512,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G950" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -26538,7 +26538,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G951" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -26564,7 +26564,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G952" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -26590,7 +26590,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G953" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -26616,7 +26616,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G954" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -26642,7 +26642,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G955" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -26668,7 +26668,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G956" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -26694,7 +26694,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G957" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -26720,7 +26720,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G958" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -26746,7 +26746,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G959" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -26772,7 +26772,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G960" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -26798,7 +26798,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G961" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -26876,7 +26876,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G964" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -26954,7 +26954,7 @@
         <v>0.644999980926514</v>
       </c>
       <c r="G967" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -26980,7 +26980,7 @@
         <v>0.759999990463257</v>
       </c>
       <c r="G968" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -27032,7 +27032,7 @@
         <v>0.649999976158142</v>
       </c>
       <c r="G970" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -27058,7 +27058,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G971" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -27084,7 +27084,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G972" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -27110,7 +27110,7 @@
         <v>0.654999971389771</v>
       </c>
       <c r="G973" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -27266,7 +27266,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G979" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -27292,7 +27292,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G980" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -27318,7 +27318,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G981" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -27396,7 +27396,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G984" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -27422,7 +27422,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G985" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -27838,7 +27838,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1001" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -27864,7 +27864,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1002" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -27890,7 +27890,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1003" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -27916,7 +27916,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1004" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -27942,7 +27942,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1005" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -27968,7 +27968,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1006" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -27994,7 +27994,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1007" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -28020,7 +28020,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1008" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -28046,7 +28046,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1009" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -28098,7 +28098,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1011" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -28124,7 +28124,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1012" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -28150,7 +28150,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1013" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -28176,7 +28176,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1014" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -28202,7 +28202,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1015" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -28228,7 +28228,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1016" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -28254,7 +28254,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1017" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -28280,7 +28280,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1018" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -28306,7 +28306,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1019" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -28332,7 +28332,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1020" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -28358,7 +28358,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1021" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -28436,7 +28436,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1024" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -28462,7 +28462,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1025" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -28488,7 +28488,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1026" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -28514,7 +28514,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1027" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -28540,7 +28540,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1028" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -28566,7 +28566,7 @@
         <v>0.564999997615814</v>
       </c>
       <c r="G1029" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -28592,7 +28592,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1030" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -28618,7 +28618,7 @@
         <v>0.550000011920929</v>
       </c>
       <c r="G1031" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -28644,7 +28644,7 @@
         <v>0.550000011920929</v>
       </c>
       <c r="G1032" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -28670,7 +28670,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1033" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -28696,7 +28696,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1034" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -28722,7 +28722,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1035" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -28748,7 +28748,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1036" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -28774,7 +28774,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1037" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -28800,7 +28800,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1038" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -28826,7 +28826,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G1039" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -28852,7 +28852,7 @@
         <v>0.555000007152557</v>
       </c>
       <c r="G1040" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -28878,7 +28878,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1041" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -28904,7 +28904,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1042" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -28930,7 +28930,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1043" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -28956,7 +28956,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1044" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -29060,7 +29060,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1048" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -29112,7 +29112,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1050" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -29190,7 +29190,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1053" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -29216,7 +29216,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1054" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -29242,7 +29242,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1055" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -29268,7 +29268,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1056" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -29294,7 +29294,7 @@
         <v>0.492000013589859</v>
       </c>
       <c r="G1057" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -29320,7 +29320,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1058" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -29346,7 +29346,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1059" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -29372,7 +29372,7 @@
         <v>0.5</v>
       </c>
       <c r="G1060" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -29398,7 +29398,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1061" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -29424,7 +29424,7 @@
         <v>0.5</v>
       </c>
       <c r="G1062" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -29450,7 +29450,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1063" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -29476,7 +29476,7 @@
         <v>0.453999996185303</v>
       </c>
       <c r="G1064" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -29502,7 +29502,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1065" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -29528,7 +29528,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G1066" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -29554,7 +29554,7 @@
         <v>0.40200001001358</v>
       </c>
       <c r="G1067" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -29580,7 +29580,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1068" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -29606,7 +29606,7 @@
         <v>0.393999993801117</v>
       </c>
       <c r="G1069" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -29632,7 +29632,7 @@
         <v>0.377999991178513</v>
       </c>
       <c r="G1070" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -29658,7 +29658,7 @@
         <v>0.354000002145767</v>
       </c>
       <c r="G1071" t="s">
-        <v>109</v>
+        <v>307</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -29840,7 +29840,7 @@
         <v>0.40200001001358</v>
       </c>
       <c r="G1078" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -29970,7 +29970,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1083" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -29996,7 +29996,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1084" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -30022,7 +30022,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1085" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -30074,7 +30074,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1087" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -30100,7 +30100,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1088" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -30178,7 +30178,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1091" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -30568,7 +30568,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1106" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -30594,7 +30594,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1107" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -30698,7 +30698,7 @@
         <v>0.5</v>
       </c>
       <c r="G1111" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -30750,7 +30750,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1113" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -30776,7 +30776,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1114" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -30802,7 +30802,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1115" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -30906,7 +30906,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1119" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -30932,7 +30932,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1120" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -30958,7 +30958,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1121" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -31010,7 +31010,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1123" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -31036,7 +31036,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1124" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -31062,7 +31062,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1125" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -31088,7 +31088,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1126" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -31114,7 +31114,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G1127" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -31140,7 +31140,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1128" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -31166,7 +31166,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1129" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -31192,7 +31192,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1130" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -31218,7 +31218,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1131" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -31244,7 +31244,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1132" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -31270,7 +31270,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1133" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -31296,7 +31296,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1134" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -31322,7 +31322,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1135" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -31348,7 +31348,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1136" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -31374,7 +31374,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1137" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -31400,7 +31400,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1138" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -31426,7 +31426,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1139" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -31452,7 +31452,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1140" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -31478,7 +31478,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1141" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -31504,7 +31504,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1142" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -31530,7 +31530,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1143" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -31556,7 +31556,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1144" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -31582,7 +31582,7 @@
         <v>0.5</v>
       </c>
       <c r="G1145" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -31608,7 +31608,7 @@
         <v>0.5</v>
       </c>
       <c r="G1146" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -31634,7 +31634,7 @@
         <v>0.5</v>
       </c>
       <c r="G1147" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -31660,7 +31660,7 @@
         <v>0.5</v>
       </c>
       <c r="G1148" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -31686,7 +31686,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1149" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -31738,7 +31738,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1151" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -31764,7 +31764,7 @@
         <v>0.5</v>
       </c>
       <c r="G1152" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -31790,7 +31790,7 @@
         <v>0.5</v>
       </c>
       <c r="G1153" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -31842,7 +31842,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1155" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -32024,7 +32024,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1162" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32050,7 +32050,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1163" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -32076,7 +32076,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1164" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -32102,7 +32102,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1165" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -32440,7 +32440,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1178" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -32934,7 +32934,7 @@
         <v>0.453999996185303</v>
       </c>
       <c r="G1197" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -33974,7 +33974,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1237" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -34182,7 +34182,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G1245" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -34208,7 +34208,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G1246" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -34702,7 +34702,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1265" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -35352,7 +35352,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1290" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -35378,7 +35378,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1291" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -35430,7 +35430,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1293" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -35456,7 +35456,7 @@
         <v>0.5</v>
       </c>
       <c r="G1294" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -35482,7 +35482,7 @@
         <v>0.550000011920929</v>
       </c>
       <c r="G1295" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -35508,7 +35508,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1296" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -35560,7 +35560,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1298" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -35586,7 +35586,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1299" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -35612,7 +35612,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1300" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -35664,7 +35664,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1302" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -35690,7 +35690,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1303" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -35716,7 +35716,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1304" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -35742,7 +35742,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1305" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -35768,7 +35768,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1306" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -35794,7 +35794,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1307" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -35820,7 +35820,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1308" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -35846,7 +35846,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1309" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -35872,7 +35872,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1310" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -58812,7 +58812,7 @@
     </row>
     <row r="2193">
       <c r="A2193" s="1" t="n">
-        <v>45516.477662037</v>
+        <v>45516.2916666667</v>
       </c>
       <c r="B2193" t="n">
         <v>12000</v>

--- a/data/POPR.MI.xlsx
+++ b/data/POPR.MI.xlsx
@@ -56,19 +56,19 @@
     <t xml:space="preserve">0.184163123369217</t>
   </si>
   <si>
-    <t xml:space="preserve">0.19051356613636</t>
+    <t xml:space="preserve">0.190513581037521</t>
   </si>
   <si>
     <t xml:space="preserve">0.167228579521179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160878136754036</t>
+    <t xml:space="preserve">0.160878121852875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16814586520195</t>
+    <t xml:space="preserve">0.168145850300789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162994936108589</t>
+    <t xml:space="preserve">0.16299495100975</t>
   </si>
   <si>
     <t xml:space="preserve">0.171462208032608</t>
@@ -83,10 +83,10 @@
     <t xml:space="preserve">0.164406135678291</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15699727833271</t>
+    <t xml:space="preserve">0.156997293233871</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156644478440285</t>
+    <t xml:space="preserve">0.156644493341446</t>
   </si>
   <si>
     <t xml:space="preserve">0.157067850232124</t>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">0.159466907382011</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155938878655434</t>
+    <t xml:space="preserve">0.155938863754272</t>
   </si>
   <si>
     <t xml:space="preserve">0.169627621769905</t>
@@ -104,7 +104,7 @@
     <t xml:space="preserve">0.191219180822372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187267750501633</t>
+    <t xml:space="preserve">0.187267795205116</t>
   </si>
   <si>
     <t xml:space="preserve">0.183457493782043</t>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">0.176401451230049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173579037189484</t>
+    <t xml:space="preserve">0.173579052090645</t>
   </si>
   <si>
     <t xml:space="preserve">0.16793417930603</t>
@@ -122,7 +122,7 @@
     <t xml:space="preserve">0.174778550863266</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180635094642639</t>
+    <t xml:space="preserve">0.1806351095438</t>
   </si>
   <si>
     <t xml:space="preserve">0.178447708487511</t>
@@ -137,19 +137,19 @@
     <t xml:space="preserve">0.191924795508385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186279952526093</t>
+    <t xml:space="preserve">0.18627992272377</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211681753396988</t>
+    <t xml:space="preserve">0.211681768298149</t>
   </si>
   <si>
-    <t xml:space="preserve">0.216268181800842</t>
+    <t xml:space="preserve">0.21626815199852</t>
   </si>
   <si>
     <t xml:space="preserve">0.215209782123566</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206742480397224</t>
+    <t xml:space="preserve">0.206742510199547</t>
   </si>
   <si>
     <t xml:space="preserve">0.203920066356659</t>
@@ -167,52 +167,52 @@
     <t xml:space="preserve">0.220854610204697</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218032196164131</t>
+    <t xml:space="preserve">0.21803218126297</t>
   </si>
   <si>
-    <t xml:space="preserve">0.201097652316093</t>
+    <t xml:space="preserve">0.201097637414932</t>
   </si>
   <si>
-    <t xml:space="preserve">0.204625681042671</t>
+    <t xml:space="preserve">0.20462566614151</t>
   </si>
   <si>
     <t xml:space="preserve">0.190654695034027</t>
   </si>
   <si>
-    <t xml:space="preserve">0.189102336764336</t>
+    <t xml:space="preserve">0.189102351665497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182751908898354</t>
+    <t xml:space="preserve">0.182751893997192</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170192137360573</t>
+    <t xml:space="preserve">0.17019210755825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186985522508621</t>
+    <t xml:space="preserve">0.186985537409782</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176330879330635</t>
+    <t xml:space="preserve">0.176330894231796</t>
   </si>
   <si>
     <t xml:space="preserve">0.170756593346596</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172873437404633</t>
+    <t xml:space="preserve">0.172873422503471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176965951919556</t>
+    <t xml:space="preserve">0.176965937018394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208859339356422</t>
+    <t xml:space="preserve">0.208859324455261</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210976123809814</t>
+    <t xml:space="preserve">0.210976108908653</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206036880612373</t>
+    <t xml:space="preserve">0.206036910414696</t>
   </si>
   <si>
-    <t xml:space="preserve">0.203990638256073</t>
+    <t xml:space="preserve">0.203990623354912</t>
   </si>
   <si>
     <t xml:space="preserve">0.187691152095795</t>
@@ -221,121 +221,121 @@
     <t xml:space="preserve">0.179929465055466</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165111765265465</t>
+    <t xml:space="preserve">0.165111750364304</t>
   </si>
   <si>
     <t xml:space="preserve">0.170051008462906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166522964835167</t>
+    <t xml:space="preserve">0.166522979736328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162289321422577</t>
+    <t xml:space="preserve">0.162289351224899</t>
   </si>
   <si>
     <t xml:space="preserve">0.177812665700912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185433223843575</t>
+    <t xml:space="preserve">0.185433208942413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191571950912476</t>
+    <t xml:space="preserve">0.191571965813637</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193335965275764</t>
+    <t xml:space="preserve">0.193335980176926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.204978466033936</t>
+    <t xml:space="preserve">0.204978451132774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225088253617287</t>
+    <t xml:space="preserve">0.225088268518448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.217326581478119</t>
+    <t xml:space="preserve">0.21732659637928</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199968680739403</t>
+    <t xml:space="preserve">0.199968665838242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.214151352643967</t>
+    <t xml:space="preserve">0.214151367545128</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225652769207954</t>
+    <t xml:space="preserve">0.225652739405632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218737825751305</t>
+    <t xml:space="preserve">0.218737795948982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.215280339121819</t>
+    <t xml:space="preserve">0.215280324220657</t>
   </si>
   <si>
-    <t xml:space="preserve">0.224382638931274</t>
+    <t xml:space="preserve">0.224382624030113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.239200353622437</t>
+    <t xml:space="preserve">0.239200383424759</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243363410234451</t>
+    <t xml:space="preserve">0.243363454937935</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261074155569077</t>
+    <t xml:space="preserve">0.261074125766754</t>
   </si>
   <si>
-    <t xml:space="preserve">0.267424613237381</t>
+    <t xml:space="preserve">0.267424583435059</t>
   </si>
   <si>
     <t xml:space="preserve">0.282242327928543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.299882441759109</t>
+    <t xml:space="preserve">0.299882471561432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309055358171463</t>
+    <t xml:space="preserve">0.309055328369141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325989872217178</t>
+    <t xml:space="preserve">0.325989902019501</t>
   </si>
   <si>
     <t xml:space="preserve">0.335162729024887</t>
   </si>
   <si>
-    <t xml:space="preserve">0.289298385381699</t>
+    <t xml:space="preserve">0.289298415184021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.292050212621689</t>
+    <t xml:space="preserve">0.292050242424011</t>
   </si>
   <si>
-    <t xml:space="preserve">0.28090164065361</t>
+    <t xml:space="preserve">0.280901670455933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.280831098556519</t>
+    <t xml:space="preserve">0.280831128358841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.272575557231903</t>
+    <t xml:space="preserve">0.272575527429581</t>
   </si>
   <si>
     <t xml:space="preserve">0.273069441318512</t>
   </si>
   <si>
-    <t xml:space="preserve">0.27321058511734</t>
+    <t xml:space="preserve">0.273210555315018</t>
   </si>
   <si>
     <t xml:space="preserve">0.257546126842499</t>
   </si>
   <si>
-    <t xml:space="preserve">0.262485355138779</t>
+    <t xml:space="preserve">0.262485384941101</t>
   </si>
   <si>
-    <t xml:space="preserve">0.236377939581871</t>
+    <t xml:space="preserve">0.236377954483032</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232285425066948</t>
+    <t xml:space="preserve">0.232285439968109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237789183855057</t>
+    <t xml:space="preserve">0.237789168953896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234331697225571</t>
+    <t xml:space="preserve">0.234331667423248</t>
   </si>
   <si>
     <t xml:space="preserve">0.266718983650208</t>
@@ -344,25 +344,25 @@
     <t xml:space="preserve">0.275186210870743</t>
   </si>
   <si>
-    <t xml:space="preserve">0.259098440408707</t>
+    <t xml:space="preserve">0.259098410606384</t>
   </si>
   <si>
-    <t xml:space="preserve">0.255429297685623</t>
+    <t xml:space="preserve">0.255429267883301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.264602154493332</t>
+    <t xml:space="preserve">0.264602184295654</t>
   </si>
   <si>
-    <t xml:space="preserve">0.254018127918243</t>
+    <t xml:space="preserve">0.254018098115921</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250490069389343</t>
+    <t xml:space="preserve">0.250490039587021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243434011936188</t>
+    <t xml:space="preserve">0.243433982133865</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249643296003342</t>
+    <t xml:space="preserve">0.249643310904503</t>
   </si>
   <si>
     <t xml:space="preserve">0.239270925521851</t>
@@ -371,7 +371,7 @@
     <t xml:space="preserve">0.225864425301552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229321852326393</t>
+    <t xml:space="preserve">0.229321882128716</t>
   </si>
   <si>
     <t xml:space="preserve">0.232144325971603</t>
@@ -383,10 +383,10 @@
     <t xml:space="preserve">0.232849925756454</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234402254223824</t>
+    <t xml:space="preserve">0.234402239322662</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237930297851562</t>
+    <t xml:space="preserve">0.237930282950401</t>
   </si>
   <si>
     <t xml:space="preserve">0.253312468528748</t>
@@ -395,67 +395,67 @@
     <t xml:space="preserve">0.246820896863937</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247879311442375</t>
+    <t xml:space="preserve">0.247879326343536</t>
   </si>
   <si>
-    <t xml:space="preserve">0.257616698741913</t>
+    <t xml:space="preserve">0.257616639137268</t>
   </si>
   <si>
-    <t xml:space="preserve">0.263120383024216</t>
+    <t xml:space="preserve">0.263120412826538</t>
   </si>
   <si>
-    <t xml:space="preserve">0.252042382955551</t>
+    <t xml:space="preserve">0.252042412757874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246962010860443</t>
+    <t xml:space="preserve">0.246962025761604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246679782867432</t>
+    <t xml:space="preserve">0.246679797768593</t>
   </si>
   <si>
     <t xml:space="preserve">0.243504554033279</t>
   </si>
   <si>
-    <t xml:space="preserve">0.259662926197052</t>
+    <t xml:space="preserve">0.259662985801697</t>
   </si>
   <si>
     <t xml:space="preserve">0.243645668029785</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250701755285263</t>
+    <t xml:space="preserve">0.250701725482941</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333610415458679</t>
+    <t xml:space="preserve">0.333610385656357</t>
   </si>
   <si>
     <t xml:space="preserve">0.395139247179031</t>
   </si>
   <si>
-    <t xml:space="preserve">0.522148311138153</t>
+    <t xml:space="preserve">0.522148251533508</t>
   </si>
   <si>
-    <t xml:space="preserve">0.612465739250183</t>
+    <t xml:space="preserve">0.612465798854828</t>
   </si>
   <si>
-    <t xml:space="preserve">0.535554766654968</t>
+    <t xml:space="preserve">0.535554826259613</t>
   </si>
   <si>
     <t xml:space="preserve">0.490396052598953</t>
   </si>
   <si>
-    <t xml:space="preserve">0.473814278841019</t>
+    <t xml:space="preserve">0.473814249038696</t>
   </si>
   <si>
     <t xml:space="preserve">0.44453164935112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409251362085342</t>
+    <t xml:space="preserve">0.40925133228302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464994221925735</t>
+    <t xml:space="preserve">0.464994192123413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412426620721817</t>
+    <t xml:space="preserve">0.412426590919495</t>
   </si>
   <si>
     <t xml:space="preserve">0.41983550786972</t>
@@ -467,55 +467,55 @@
     <t xml:space="preserve">0.36585658788681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353508502244949</t>
+    <t xml:space="preserve">0.353508472442627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366562187671661</t>
+    <t xml:space="preserve">0.366562217473984</t>
   </si>
   <si>
     <t xml:space="preserve">0.375382304191589</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361270189285278</t>
+    <t xml:space="preserve">0.361270219087601</t>
   </si>
   <si>
     <t xml:space="preserve">0.391611218452454</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383143901824951</t>
+    <t xml:space="preserve">0.383143931627274</t>
   </si>
   <si>
     <t xml:space="preserve">0.366914987564087</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35738930106163</t>
+    <t xml:space="preserve">0.357389330863953</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360564529895782</t>
+    <t xml:space="preserve">0.360564559698105</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373971045017242</t>
+    <t xml:space="preserve">0.373971074819565</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370443046092987</t>
+    <t xml:space="preserve">0.370443016290665</t>
   </si>
   <si>
     <t xml:space="preserve">0.356330901384354</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36409255862236</t>
+    <t xml:space="preserve">0.364092588424683</t>
   </si>
   <si>
     <t xml:space="preserve">0.352802902460098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349980473518372</t>
+    <t xml:space="preserve">0.349980443716049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.375735104084015</t>
+    <t xml:space="preserve">0.37573516368866</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357036530971527</t>
+    <t xml:space="preserve">0.357036501169205</t>
   </si>
   <si>
     <t xml:space="preserve">0.355625331401825</t>
@@ -530,25 +530,25 @@
     <t xml:space="preserve">0.368326246738434</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338690757751465</t>
+    <t xml:space="preserve">0.338690787553787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.348569273948669</t>
+    <t xml:space="preserve">0.348569244146347</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349204272031784</t>
+    <t xml:space="preserve">0.349204301834106</t>
   </si>
   <si>
     <t xml:space="preserve">0.359858930110931</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365503817796707</t>
+    <t xml:space="preserve">0.365503787994385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402195304632187</t>
+    <t xml:space="preserve">0.402195274829865</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38102713227272</t>
+    <t xml:space="preserve">0.381027162075043</t>
   </si>
   <si>
     <t xml:space="preserve">0.381732732057571</t>
@@ -557,115 +557,115 @@
     <t xml:space="preserve">0.358447760343552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379263132810593</t>
+    <t xml:space="preserve">0.379263162612915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353155672550201</t>
+    <t xml:space="preserve">0.353155732154846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367973417043686</t>
+    <t xml:space="preserve">0.367973446846008</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437475651502609</t>
+    <t xml:space="preserve">0.437475591897964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414896190166473</t>
+    <t xml:space="preserve">0.414896130561829</t>
   </si>
   <si>
     <t xml:space="preserve">0.414190620183945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415601849555969</t>
+    <t xml:space="preserve">0.415601789951324</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408192902803421</t>
+    <t xml:space="preserve">0.408192932605743</t>
   </si>
   <si>
-    <t xml:space="preserve">0.416307389736176</t>
+    <t xml:space="preserve">0.41630744934082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387377619743347</t>
+    <t xml:space="preserve">0.387377589941025</t>
   </si>
   <si>
-    <t xml:space="preserve">0.39266961812973</t>
+    <t xml:space="preserve">0.392669647932053</t>
   </si>
   <si>
     <t xml:space="preserve">0.39796170592308</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412073761224747</t>
+    <t xml:space="preserve">0.412073820829391</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436417192220688</t>
+    <t xml:space="preserve">0.43641722202301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.439592480659485</t>
+    <t xml:space="preserve">0.43959242105484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424069106578827</t>
+    <t xml:space="preserve">0.424069076776505</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423363506793976</t>
+    <t xml:space="preserve">0.423363536596298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434653162956238</t>
+    <t xml:space="preserve">0.43465319275856</t>
   </si>
   <si>
     <t xml:space="preserve">0.423716276884079</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457938134670258</t>
+    <t xml:space="preserve">0.45793816447258</t>
   </si>
   <si>
     <t xml:space="preserve">0.465699851512909</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440298020839691</t>
+    <t xml:space="preserve">0.440298050642014</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423010677099228</t>
+    <t xml:space="preserve">0.423010647296906</t>
   </si>
   <si>
     <t xml:space="preserve">0.433947622776031</t>
   </si>
   <si>
-    <t xml:space="preserve">0.529204308986664</t>
+    <t xml:space="preserve">0.529204368591309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.49321848154068</t>
+    <t xml:space="preserve">0.493218451738358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.508036255836487</t>
+    <t xml:space="preserve">0.508036196231842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.486868023872375</t>
+    <t xml:space="preserve">0.486867964267731</t>
   </si>
   <si>
-    <t xml:space="preserve">0.491807281970978</t>
+    <t xml:space="preserve">0.491807252168655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.500980138778687</t>
+    <t xml:space="preserve">0.500980079174042</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493924021720886</t>
+    <t xml:space="preserve">0.493924051523209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474167078733444</t>
+    <t xml:space="preserve">0.474167048931122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.476989567279816</t>
+    <t xml:space="preserve">0.476989477872849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.472755879163742</t>
+    <t xml:space="preserve">0.472755908966064</t>
   </si>
   <si>
-    <t xml:space="preserve">0.460054963827133</t>
+    <t xml:space="preserve">0.460054993629456</t>
   </si>
   <si>
-    <t xml:space="preserve">0.455821394920349</t>
+    <t xml:space="preserve">0.455821335315704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.458643704652786</t>
+    <t xml:space="preserve">0.458643764257431</t>
   </si>
   <si>
     <t xml:space="preserve">0.464288651943207</t>
@@ -674,55 +674,55 @@
     <t xml:space="preserve">0.451587736606598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.485456824302673</t>
+    <t xml:space="preserve">0.485456854104996</t>
   </si>
   <si>
     <t xml:space="preserve">0.468522220849991</t>
   </si>
   <si>
-    <t xml:space="preserve">0.519325852394104</t>
+    <t xml:space="preserve">0.519325971603394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47981196641922</t>
+    <t xml:space="preserve">0.479811996221542</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448765277862549</t>
+    <t xml:space="preserve">0.448765248060226</t>
   </si>
   <si>
     <t xml:space="preserve">0.469933480024338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.475578367710114</t>
+    <t xml:space="preserve">0.475578337907791</t>
   </si>
   <si>
     <t xml:space="preserve">0.461466163396835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.447354048490524</t>
+    <t xml:space="preserve">0.447354078292847</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454410135746002</t>
+    <t xml:space="preserve">0.45441010594368</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429008334875107</t>
+    <t xml:space="preserve">0.429008305072784</t>
   </si>
   <si>
     <t xml:space="preserve">0.430419564247131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436064392328262</t>
+    <t xml:space="preserve">0.43606436252594</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4529989361763</t>
+    <t xml:space="preserve">0.452998965978622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.484045594930649</t>
+    <t xml:space="preserve">0.484045565128326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.471344619989395</t>
+    <t xml:space="preserve">0.47134467959404</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457232534885406</t>
+    <t xml:space="preserve">0.457232564687729</t>
   </si>
   <si>
     <t xml:space="preserve">0.443120419979095</t>
@@ -731,16 +731,16 @@
     <t xml:space="preserve">0.462877422571182</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450176507234573</t>
+    <t xml:space="preserve">0.450176537036896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.467110991477966</t>
+    <t xml:space="preserve">0.467110961675644</t>
   </si>
   <si>
     <t xml:space="preserve">0.406428933143616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410662621259689</t>
+    <t xml:space="preserve">0.410662591457367</t>
   </si>
   <si>
     <t xml:space="preserve">0.407840132713318</t>
@@ -758,40 +758,40 @@
     <t xml:space="preserve">0.400784105062485</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386671930551529</t>
+    <t xml:space="preserve">0.386671960353851</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378204673528671</t>
+    <t xml:space="preserve">0.378204703330994</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379615932703018</t>
+    <t xml:space="preserve">0.379615873098373</t>
   </si>
   <si>
     <t xml:space="preserve">0.388083189725876</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417718678712845</t>
+    <t xml:space="preserve">0.417718648910522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.433241993188858</t>
+    <t xml:space="preserve">0.433241963386536</t>
   </si>
   <si>
     <t xml:space="preserve">0.396550416946411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405017733573914</t>
+    <t xml:space="preserve">0.405017793178558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424774706363678</t>
+    <t xml:space="preserve">0.424774676561356</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421952247619629</t>
+    <t xml:space="preserve">0.421952217817307</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419129878282547</t>
+    <t xml:space="preserve">0.419129848480225</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431830763816833</t>
+    <t xml:space="preserve">0.431830704212189</t>
   </si>
   <si>
     <t xml:space="preserve">0.438886791467667</t>
@@ -803,10 +803,10 @@
     <t xml:space="preserve">0.476283937692642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.483339995145798</t>
+    <t xml:space="preserve">0.483339965343475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.504508078098297</t>
+    <t xml:space="preserve">0.504508137702942</t>
   </si>
   <si>
     <t xml:space="preserve">0.511564195156097</t>
@@ -815,22 +815,22 @@
     <t xml:space="preserve">0.520832777023315</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497511893510818</t>
+    <t xml:space="preserve">0.497511923313141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.481964707374573</t>
+    <t xml:space="preserve">0.481964647769928</t>
   </si>
   <si>
-    <t xml:space="preserve">0.466417402029037</t>
+    <t xml:space="preserve">0.466417461633682</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478077858686447</t>
+    <t xml:space="preserve">0.47807788848877</t>
   </si>
   <si>
-    <t xml:space="preserve">0.48973822593689</t>
+    <t xml:space="preserve">0.489738255739212</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493625074625015</t>
+    <t xml:space="preserve">0.493625044822693</t>
   </si>
   <si>
     <t xml:space="preserve">0.485851466655731</t>
@@ -839,22 +839,22 @@
     <t xml:space="preserve">0.470304220914841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.458643734455109</t>
+    <t xml:space="preserve">0.458643794059753</t>
   </si>
   <si>
     <t xml:space="preserve">0.450870126485825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.462530612945557</t>
+    <t xml:space="preserve">0.462530642747879</t>
   </si>
   <si>
-    <t xml:space="preserve">0.435322880744934</t>
+    <t xml:space="preserve">0.435322910547256</t>
   </si>
   <si>
-    <t xml:space="preserve">0.439209669828415</t>
+    <t xml:space="preserve">0.439209699630737</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454756915569305</t>
+    <t xml:space="preserve">0.454756945371628</t>
   </si>
   <si>
     <t xml:space="preserve">0.474191039800644</t>
@@ -866,31 +866,31 @@
     <t xml:space="preserve">0.590795397758484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.505285441875458</t>
+    <t xml:space="preserve">0.505285501480103</t>
   </si>
   <si>
     <t xml:space="preserve">0.513059139251709</t>
   </si>
   <si>
-    <t xml:space="preserve">0.509172260761261</t>
+    <t xml:space="preserve">0.509172320365906</t>
   </si>
   <si>
     <t xml:space="preserve">0.446983337402344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.443096518516541</t>
+    <t xml:space="preserve">0.443096488714218</t>
   </si>
   <si>
     <t xml:space="preserve">0.42754927277565</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419775664806366</t>
+    <t xml:space="preserve">0.419775694608688</t>
   </si>
   <si>
     <t xml:space="preserve">0.404228389263153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415888845920563</t>
+    <t xml:space="preserve">0.415888905525208</t>
   </si>
   <si>
     <t xml:space="preserve">0.431436091661453</t>
@@ -902,28 +902,28 @@
     <t xml:space="preserve">0.382462292909622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380907565355301</t>
+    <t xml:space="preserve">0.380907535552979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.396454751491547</t>
+    <t xml:space="preserve">0.396454721689224</t>
   </si>
   <si>
     <t xml:space="preserve">0.388681173324585</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37313386797905</t>
+    <t xml:space="preserve">0.373133897781372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349813044071198</t>
+    <t xml:space="preserve">0.349813014268875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35292249917984</t>
+    <t xml:space="preserve">0.352922469377518</t>
   </si>
   <si>
-    <t xml:space="preserve">0.326492160558701</t>
+    <t xml:space="preserve">0.326492190361023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2907335460186</t>
+    <t xml:space="preserve">0.290733486413956</t>
   </si>
   <si>
     <t xml:space="preserve">0.312499642372131</t>
@@ -932,25 +932,25 @@
     <t xml:space="preserve">0.295397698879242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.306280761957169</t>
+    <t xml:space="preserve">0.306280732154846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.293842971324921</t>
+    <t xml:space="preserve">0.293842911720276</t>
   </si>
   <si>
-    <t xml:space="preserve">0.275186240673065</t>
+    <t xml:space="preserve">0.275186270475388</t>
   </si>
   <si>
     <t xml:space="preserve">0.279850453138351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273631483316422</t>
+    <t xml:space="preserve">0.273631542921066</t>
   </si>
   <si>
     <t xml:space="preserve">0.320273280143738</t>
   </si>
   <si>
-    <t xml:space="preserve">0.321828007698059</t>
+    <t xml:space="preserve">0.321827977895737</t>
   </si>
   <si>
     <t xml:space="preserve">0.304726034402847</t>
@@ -965,25 +965,25 @@
     <t xml:space="preserve">0.331156343221664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340484708547592</t>
+    <t xml:space="preserve">0.340484648942947</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346703618764877</t>
+    <t xml:space="preserve">0.346703588962555</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379352807998657</t>
+    <t xml:space="preserve">0.37935283780098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365360289812088</t>
+    <t xml:space="preserve">0.365360260009766</t>
   </si>
   <si>
     <t xml:space="preserve">0.359141379594803</t>
   </si>
   <si>
-    <t xml:space="preserve">0.385571718215942</t>
+    <t xml:space="preserve">0.38557168841362</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408115208148956</t>
+    <t xml:space="preserve">0.408115178346634</t>
   </si>
   <si>
     <t xml:space="preserve">0.423662483692169</t>
@@ -995,7 +995,7 @@
     <t xml:space="preserve">0.371579170227051</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377798110246658</t>
+    <t xml:space="preserve">0.377798080444336</t>
   </si>
   <si>
     <t xml:space="preserve">0.392567962408066</t>
@@ -1010,25 +1010,25 @@
     <t xml:space="preserve">0.363805562257767</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360696107149124</t>
+    <t xml:space="preserve">0.360696136951447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357586652040482</t>
+    <t xml:space="preserve">0.357586711645126</t>
   </si>
   <si>
-    <t xml:space="preserve">0.343594133853912</t>
+    <t xml:space="preserve">0.34359410405159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356031954288483</t>
+    <t xml:space="preserve">0.35603192448616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342039406299591</t>
+    <t xml:space="preserve">0.342039436101913</t>
   </si>
   <si>
-    <t xml:space="preserve">0.334265798330307</t>
+    <t xml:space="preserve">0.334265768527985</t>
   </si>
   <si>
-    <t xml:space="preserve">0.318718582391739</t>
+    <t xml:space="preserve">0.318718552589417</t>
   </si>
   <si>
     <t xml:space="preserve">0.32338273525238</t>
@@ -1043,13 +1043,13 @@
     <t xml:space="preserve">0.292288213968277</t>
   </si>
   <si>
-    <t xml:space="preserve">0.298507124185562</t>
+    <t xml:space="preserve">0.298507153987885</t>
   </si>
   <si>
     <t xml:space="preserve">0.303171247243881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.310944944620132</t>
+    <t xml:space="preserve">0.31094491481781</t>
   </si>
   <si>
     <t xml:space="preserve">0.328046888113022</t>
@@ -1058,16 +1058,16 @@
     <t xml:space="preserve">0.332711070775986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.324937492609024</t>
+    <t xml:space="preserve">0.324937433004379</t>
   </si>
   <si>
-    <t xml:space="preserve">0.48250076174736</t>
+    <t xml:space="preserve">0.482500731945038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448641031980515</t>
+    <t xml:space="preserve">0.448641061782837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.435943603515625</t>
+    <t xml:space="preserve">0.435943633317947</t>
   </si>
   <si>
     <t xml:space="preserve">0.423246264457703</t>
@@ -1076,7 +1076,7 @@
     <t xml:space="preserve">0.40631639957428</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414781361818314</t>
+    <t xml:space="preserve">0.414781332015991</t>
   </si>
   <si>
     <t xml:space="preserve">0.40800940990448</t>
@@ -1085,16 +1085,16 @@
     <t xml:space="preserve">0.427478700876236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419860303401947</t>
+    <t xml:space="preserve">0.419860273599625</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409702360630035</t>
+    <t xml:space="preserve">0.409702390432358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.392772495746613</t>
+    <t xml:space="preserve">0.392772555351257</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386000573635101</t>
+    <t xml:space="preserve">0.386000603437424</t>
   </si>
   <si>
     <t xml:space="preserve">0.384307593107224</t>
@@ -1103,10 +1103,10 @@
     <t xml:space="preserve">0.380921632051468</t>
   </si>
   <si>
-    <t xml:space="preserve">0.396158486604691</t>
+    <t xml:space="preserve">0.396158516407013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.389386564493179</t>
+    <t xml:space="preserve">0.389386594295502</t>
   </si>
   <si>
     <t xml:space="preserve">0.394465506076813</t>
@@ -1118,37 +1118,37 @@
     <t xml:space="preserve">0.375842720270157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.39107957482338</t>
+    <t xml:space="preserve">0.391079545021057</t>
   </si>
   <si>
     <t xml:space="preserve">0.490965634584427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461338430643082</t>
+    <t xml:space="preserve">0.461338460445404</t>
   </si>
   <si>
     <t xml:space="preserve">0.507895588874817</t>
   </si>
   <si>
-    <t xml:space="preserve">0.499430537223816</t>
+    <t xml:space="preserve">0.499430626630783</t>
   </si>
   <si>
     <t xml:space="preserve">0.495198100805283</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465570867061615</t>
+    <t xml:space="preserve">0.465570896863937</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452873528003693</t>
+    <t xml:space="preserve">0.452873557806015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440176069736481</t>
+    <t xml:space="preserve">0.440176099538803</t>
   </si>
   <si>
     <t xml:space="preserve">0.431711167097092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444408595561981</t>
+    <t xml:space="preserve">0.444408535957336</t>
   </si>
   <si>
     <t xml:space="preserve">0.457105994224548</t>
@@ -1157,7 +1157,7 @@
     <t xml:space="preserve">0.418167293071747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.411395341157913</t>
+    <t xml:space="preserve">0.411395370960236</t>
   </si>
   <si>
     <t xml:space="preserve">0.397851496934891</t>
@@ -1166,22 +1166,22 @@
     <t xml:space="preserve">0.387693583965302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382614582777023</t>
+    <t xml:space="preserve">0.382614612579346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.416474312543869</t>
+    <t xml:space="preserve">0.416474342346191</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40462338924408</t>
+    <t xml:space="preserve">0.404623419046402</t>
   </si>
   <si>
     <t xml:space="preserve">0.413088381290436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402930468320847</t>
+    <t xml:space="preserve">0.402930438518524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355526834726334</t>
+    <t xml:space="preserve">0.355526864528656</t>
   </si>
   <si>
     <t xml:space="preserve">0.336904019117355</t>
@@ -1202,13 +1202,13 @@
     <t xml:space="preserve">0.367377728223801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370763719081879</t>
+    <t xml:space="preserve">0.370763689279556</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372456699609756</t>
+    <t xml:space="preserve">0.372456729412079</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37922865152359</t>
+    <t xml:space="preserve">0.379228681325912</t>
   </si>
   <si>
     <t xml:space="preserve">0.369070738554001</t>
@@ -1226,13 +1226,13 @@
     <t xml:space="preserve">0.3521409034729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362298786640167</t>
+    <t xml:space="preserve">0.36229881644249</t>
   </si>
   <si>
     <t xml:space="preserve">0.356533944606781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361855328083038</t>
+    <t xml:space="preserve">0.361855357885361</t>
   </si>
   <si>
     <t xml:space="preserve">0.352986335754395</t>
@@ -1241,13 +1241,13 @@
     <t xml:space="preserve">0.358307749032974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372498124837875</t>
+    <t xml:space="preserve">0.372498154640198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374271929264069</t>
+    <t xml:space="preserve">0.374271959066391</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360081553459167</t>
+    <t xml:space="preserve">0.360081523656845</t>
   </si>
   <si>
     <t xml:space="preserve">0.363629132509232</t>
@@ -1256,10 +1256,10 @@
     <t xml:space="preserve">0.351212531328201</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340569704771042</t>
+    <t xml:space="preserve">0.340569734573364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.328153103590012</t>
+    <t xml:space="preserve">0.328153133392334</t>
   </si>
   <si>
     <t xml:space="preserve">0.338795930147171</t>
@@ -1274,7 +1274,7 @@
     <t xml:space="preserve">0.335248321294785</t>
   </si>
   <si>
-    <t xml:space="preserve">0.326379358768463</t>
+    <t xml:space="preserve">0.326379328966141</t>
   </si>
   <si>
     <t xml:space="preserve">0.317510306835175</t>
@@ -1295,7 +1295,7 @@
     <t xml:space="preserve">0.303319931030273</t>
   </si>
   <si>
-    <t xml:space="preserve">0.315736532211304</t>
+    <t xml:space="preserve">0.315736562013626</t>
   </si>
   <si>
     <t xml:space="preserve">0.305093705654144</t>
@@ -1319,19 +1319,19 @@
     <t xml:space="preserve">0.324605524539948</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388462334871292</t>
+    <t xml:space="preserve">0.38846230506897</t>
   </si>
   <si>
     <t xml:space="preserve">0.379593342542648</t>
   </si>
   <si>
-    <t xml:space="preserve">0.381367146968842</t>
+    <t xml:space="preserve">0.381367176771164</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383140981197357</t>
+    <t xml:space="preserve">0.383140951395035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.376045733690262</t>
+    <t xml:space="preserve">0.376045703887939</t>
   </si>
   <si>
     <t xml:space="preserve">0.377819538116455</t>
@@ -58870,7 +58870,7 @@
     </row>
     <row r="2195">
       <c r="A2195" s="1" t="n">
-        <v>45518.3493287037</v>
+        <v>45518.2916666667</v>
       </c>
       <c r="B2195" t="n">
         <v>12000</v>

--- a/data/POPR.MI.xlsx
+++ b/data/POPR.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.197569623589516</t>
+    <t xml:space="preserve">0.197569608688354</t>
   </si>
   <si>
     <t xml:space="preserve">POPR.MI</t>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">0.194041594862938</t>
   </si>
   <si>
-    <t xml:space="preserve">0.192630380392075</t>
+    <t xml:space="preserve">0.192630365490913</t>
   </si>
   <si>
     <t xml:space="preserve">0.184163123369217</t>
@@ -62,25 +62,25 @@
     <t xml:space="preserve">0.167228579521179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160878106951714</t>
+    <t xml:space="preserve">0.160878121852875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168145850300789</t>
+    <t xml:space="preserve">0.16814586520195</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16299495100975</t>
+    <t xml:space="preserve">0.162994936108589</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171462208032608</t>
+    <t xml:space="preserve">0.171462222933769</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172167807817459</t>
+    <t xml:space="preserve">0.17216782271862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169274806976318</t>
+    <t xml:space="preserve">0.16927482187748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164406135678291</t>
+    <t xml:space="preserve">0.164406150579453</t>
   </si>
   <si>
     <t xml:space="preserve">0.156997293233871</t>
@@ -89,22 +89,22 @@
     <t xml:space="preserve">0.156644493341446</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157067850232124</t>
+    <t xml:space="preserve">0.157067835330963</t>
   </si>
   <si>
     <t xml:space="preserve">0.159466907382011</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155938863754272</t>
+    <t xml:space="preserve">0.155938878655434</t>
   </si>
   <si>
     <t xml:space="preserve">0.169627636671066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191219180822372</t>
+    <t xml:space="preserve">0.19121915102005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187267780303955</t>
+    <t xml:space="preserve">0.187267765402794</t>
   </si>
   <si>
     <t xml:space="preserve">0.183457493782043</t>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">0.173579037189484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167934164404869</t>
+    <t xml:space="preserve">0.167934194207191</t>
   </si>
   <si>
     <t xml:space="preserve">0.174778550863266</t>
@@ -131,7 +131,7 @@
     <t xml:space="preserve">0.199051395058632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.19898085296154</t>
+    <t xml:space="preserve">0.198980838060379</t>
   </si>
   <si>
     <t xml:space="preserve">0.191924795508385</t>
@@ -140,37 +140,37 @@
     <t xml:space="preserve">0.18627992272377</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211681753396988</t>
+    <t xml:space="preserve">0.21168178319931</t>
   </si>
   <si>
-    <t xml:space="preserve">0.216268181800842</t>
+    <t xml:space="preserve">0.21626815199852</t>
   </si>
   <si>
-    <t xml:space="preserve">0.215209752321243</t>
+    <t xml:space="preserve">0.215209797024727</t>
   </si>
   <si>
     <t xml:space="preserve">0.206742495298386</t>
   </si>
   <si>
-    <t xml:space="preserve">0.203920066356659</t>
+    <t xml:space="preserve">0.20392008125782</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225793868303299</t>
+    <t xml:space="preserve">0.225793853402138</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234261125326157</t>
+    <t xml:space="preserve">0.234261140227318</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225723296403885</t>
+    <t xml:space="preserve">0.225723281502724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220854640007019</t>
+    <t xml:space="preserve">0.220854610204697</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21803218126297</t>
+    <t xml:space="preserve">0.218032166361809</t>
   </si>
   <si>
-    <t xml:space="preserve">0.201097637414932</t>
+    <t xml:space="preserve">0.201097667217255</t>
   </si>
   <si>
     <t xml:space="preserve">0.20462566614151</t>
@@ -182,10 +182,10 @@
     <t xml:space="preserve">0.189102351665497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182751893997192</t>
+    <t xml:space="preserve">0.182751908898354</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17019210755825</t>
+    <t xml:space="preserve">0.170192122459412</t>
   </si>
   <si>
     <t xml:space="preserve">0.186985537409782</t>
@@ -203,16 +203,16 @@
     <t xml:space="preserve">0.176965951919556</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208859324455261</t>
+    <t xml:space="preserve">0.2088593095541</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210976123809814</t>
+    <t xml:space="preserve">0.210976138710976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206036895513535</t>
+    <t xml:space="preserve">0.206036880612373</t>
   </si>
   <si>
-    <t xml:space="preserve">0.203990638256073</t>
+    <t xml:space="preserve">0.203990653157234</t>
   </si>
   <si>
     <t xml:space="preserve">0.187691152095795</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">0.179929479956627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165111735463142</t>
+    <t xml:space="preserve">0.165111765265465</t>
   </si>
   <si>
     <t xml:space="preserve">0.170050993561745</t>
@@ -230,58 +230,58 @@
     <t xml:space="preserve">0.166522979736328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162289351224899</t>
+    <t xml:space="preserve">0.162289321422577</t>
   </si>
   <si>
     <t xml:space="preserve">0.177812665700912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185433208942413</t>
+    <t xml:space="preserve">0.185433194041252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191571980714798</t>
+    <t xml:space="preserve">0.191571965813637</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193335980176926</t>
+    <t xml:space="preserve">0.193335995078087</t>
   </si>
   <si>
-    <t xml:space="preserve">0.204978466033936</t>
+    <t xml:space="preserve">0.204978480935097</t>
   </si>
   <si>
     <t xml:space="preserve">0.225088268518448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.217326611280441</t>
+    <t xml:space="preserve">0.217326581478119</t>
   </si>
   <si>
     <t xml:space="preserve">0.199968680739403</t>
   </si>
   <si>
-    <t xml:space="preserve">0.214151352643967</t>
+    <t xml:space="preserve">0.214151367545128</t>
   </si>
   <si>
     <t xml:space="preserve">0.225652739405632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218737781047821</t>
+    <t xml:space="preserve">0.218737825751305</t>
   </si>
   <si>
     <t xml:space="preserve">0.215280324220657</t>
   </si>
   <si>
-    <t xml:space="preserve">0.224382653832436</t>
+    <t xml:space="preserve">0.224382638931274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.239200383424759</t>
+    <t xml:space="preserve">0.239200368523598</t>
   </si>
   <si>
     <t xml:space="preserve">0.243363454937935</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261074125766754</t>
+    <t xml:space="preserve">0.261074155569077</t>
   </si>
   <si>
-    <t xml:space="preserve">0.267424583435059</t>
+    <t xml:space="preserve">0.267424613237381</t>
   </si>
   <si>
     <t xml:space="preserve">0.282242298126221</t>
@@ -293,10 +293,10 @@
     <t xml:space="preserve">0.309055328369141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325989902019501</t>
+    <t xml:space="preserve">0.325989872217178</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335162729024887</t>
+    <t xml:space="preserve">0.335162788629532</t>
   </si>
   <si>
     <t xml:space="preserve">0.289298385381699</t>
@@ -305,19 +305,19 @@
     <t xml:space="preserve">0.292050242424011</t>
   </si>
   <si>
-    <t xml:space="preserve">0.280901670455933</t>
+    <t xml:space="preserve">0.28090164065361</t>
   </si>
   <si>
-    <t xml:space="preserve">0.280831128358841</t>
+    <t xml:space="preserve">0.280831098556519</t>
   </si>
   <si>
-    <t xml:space="preserve">0.272575497627258</t>
+    <t xml:space="preserve">0.272575557231903</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273069441318512</t>
+    <t xml:space="preserve">0.273069471120834</t>
   </si>
   <si>
-    <t xml:space="preserve">0.27321058511734</t>
+    <t xml:space="preserve">0.273210555315018</t>
   </si>
   <si>
     <t xml:space="preserve">0.257546126842499</t>
@@ -326,127 +326,127 @@
     <t xml:space="preserve">0.262485355138779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.236377954483032</t>
+    <t xml:space="preserve">0.236377939581871</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232285410165787</t>
+    <t xml:space="preserve">0.232285425066948</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237789139151573</t>
+    <t xml:space="preserve">0.237789183855057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234331667423248</t>
+    <t xml:space="preserve">0.234331697225571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.26671901345253</t>
+    <t xml:space="preserve">0.266718983650208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.275186240673065</t>
+    <t xml:space="preserve">0.275186270475388</t>
   </si>
   <si>
-    <t xml:space="preserve">0.259098440408707</t>
+    <t xml:space="preserve">0.259098410606384</t>
   </si>
   <si>
     <t xml:space="preserve">0.255429267883301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.264602184295654</t>
+    <t xml:space="preserve">0.264602154493332</t>
   </si>
   <si>
     <t xml:space="preserve">0.254018098115921</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250490069389343</t>
+    <t xml:space="preserve">0.250490039587021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243434011936188</t>
+    <t xml:space="preserve">0.243433982133865</t>
   </si>
   <si>
     <t xml:space="preserve">0.249643310904503</t>
   </si>
   <si>
-    <t xml:space="preserve">0.239270925521851</t>
+    <t xml:space="preserve">0.239270955324173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225864425301552</t>
+    <t xml:space="preserve">0.225864410400391</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229321911931038</t>
+    <t xml:space="preserve">0.229321867227554</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232144325971603</t>
+    <t xml:space="preserve">0.232144311070442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.231438711285591</t>
+    <t xml:space="preserve">0.231438741087914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232849910855293</t>
+    <t xml:space="preserve">0.232849925756454</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234402239322662</t>
+    <t xml:space="preserve">0.234402254223824</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237930282950401</t>
+    <t xml:space="preserve">0.237930253148079</t>
   </si>
   <si>
     <t xml:space="preserve">0.253312468528748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246820896863937</t>
+    <t xml:space="preserve">0.246820911765099</t>
   </si>
   <si>
     <t xml:space="preserve">0.247879296541214</t>
   </si>
   <si>
-    <t xml:space="preserve">0.257616639137268</t>
+    <t xml:space="preserve">0.257616698741913</t>
   </si>
   <si>
-    <t xml:space="preserve">0.263120412826538</t>
+    <t xml:space="preserve">0.263120383024216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.252042412757874</t>
+    <t xml:space="preserve">0.252042382955551</t>
   </si>
   <si>
     <t xml:space="preserve">0.246962025761604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.24667976796627</t>
+    <t xml:space="preserve">0.246679797768593</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243504524230957</t>
+    <t xml:space="preserve">0.243504568934441</t>
   </si>
   <si>
-    <t xml:space="preserve">0.259662955999374</t>
+    <t xml:space="preserve">0.25966289639473</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243645697832108</t>
+    <t xml:space="preserve">0.243645682930946</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250701725482941</t>
+    <t xml:space="preserve">0.250701755285263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333610385656357</t>
+    <t xml:space="preserve">0.333610415458679</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395139247179031</t>
+    <t xml:space="preserve">0.395139217376709</t>
   </si>
   <si>
-    <t xml:space="preserve">0.522148251533508</t>
+    <t xml:space="preserve">0.522148311138153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.612465798854828</t>
+    <t xml:space="preserve">0.612465858459473</t>
   </si>
   <si>
     <t xml:space="preserve">0.535554766654968</t>
   </si>
   <si>
-    <t xml:space="preserve">0.490395992994308</t>
+    <t xml:space="preserve">0.490396022796631</t>
   </si>
   <si>
-    <t xml:space="preserve">0.473814308643341</t>
+    <t xml:space="preserve">0.473814368247986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44453164935112</t>
+    <t xml:space="preserve">0.444531679153442</t>
   </si>
   <si>
     <t xml:space="preserve">0.40925133228302</t>
@@ -455,19 +455,19 @@
     <t xml:space="preserve">0.464994192123413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412426620721817</t>
+    <t xml:space="preserve">0.412426650524139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419835478067398</t>
+    <t xml:space="preserve">0.419835448265076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388788819313049</t>
+    <t xml:space="preserve">0.388788789510727</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365856558084488</t>
+    <t xml:space="preserve">0.36585658788681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353508472442627</t>
+    <t xml:space="preserve">0.353508502244949</t>
   </si>
   <si>
     <t xml:space="preserve">0.366562247276306</t>
@@ -479,10 +479,10 @@
     <t xml:space="preserve">0.361270189285278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391611218452454</t>
+    <t xml:space="preserve">0.391611248254776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383143961429596</t>
+    <t xml:space="preserve">0.383143931627274</t>
   </si>
   <si>
     <t xml:space="preserve">0.366914987564087</t>
@@ -503,13 +503,13 @@
     <t xml:space="preserve">0.356330901384354</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364092588424683</t>
+    <t xml:space="preserve">0.36409255862236</t>
   </si>
   <si>
     <t xml:space="preserve">0.352802902460098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349980473518372</t>
+    <t xml:space="preserve">0.349980443716049</t>
   </si>
   <si>
     <t xml:space="preserve">0.375735133886337</t>
@@ -536,52 +536,52 @@
     <t xml:space="preserve">0.348569244146347</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349204301834106</t>
+    <t xml:space="preserve">0.349204272031784</t>
   </si>
   <si>
     <t xml:space="preserve">0.359858959913254</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365503787994385</t>
+    <t xml:space="preserve">0.365503817796707</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402195274829865</t>
+    <t xml:space="preserve">0.402195334434509</t>
   </si>
   <si>
     <t xml:space="preserve">0.381027162075043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.381732732057571</t>
+    <t xml:space="preserve">0.381732761859894</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358447760343552</t>
+    <t xml:space="preserve">0.358447790145874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379263132810593</t>
+    <t xml:space="preserve">0.379263162612915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353155732154846</t>
+    <t xml:space="preserve">0.353155702352524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367973446846008</t>
+    <t xml:space="preserve">0.367973417043686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437475562095642</t>
+    <t xml:space="preserve">0.437475651502609</t>
   </si>
   <si>
     <t xml:space="preserve">0.414896190166473</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414190649986267</t>
+    <t xml:space="preserve">0.414190590381622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415601819753647</t>
+    <t xml:space="preserve">0.415601789951324</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408192932605743</t>
+    <t xml:space="preserve">0.408192902803421</t>
   </si>
   <si>
-    <t xml:space="preserve">0.416307389736176</t>
+    <t xml:space="preserve">0.416307419538498</t>
   </si>
   <si>
     <t xml:space="preserve">0.387377589941025</t>
@@ -590,274 +590,271 @@
     <t xml:space="preserve">0.39266961812973</t>
   </si>
   <si>
-    <t xml:space="preserve">0.39796170592308</t>
+    <t xml:space="preserve">0.397961676120758</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412073791027069</t>
+    <t xml:space="preserve">0.412073761224747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436417251825333</t>
+    <t xml:space="preserve">0.436417132616043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.43959242105484</t>
+    <t xml:space="preserve">0.439592450857162</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424069106578827</t>
+    <t xml:space="preserve">0.424069076776505</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423363506793976</t>
+    <t xml:space="preserve">0.423363566398621</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434653222560883</t>
+    <t xml:space="preserve">0.434653162956238</t>
   </si>
   <si>
     <t xml:space="preserve">0.423716247081757</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45793816447258</t>
+    <t xml:space="preserve">0.457938134670258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465699821710587</t>
+    <t xml:space="preserve">0.465699851512909</t>
   </si>
   <si>
     <t xml:space="preserve">0.440298020839691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423010647296906</t>
+    <t xml:space="preserve">0.42301070690155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.433947622776031</t>
+    <t xml:space="preserve">0.433947592973709</t>
   </si>
   <si>
-    <t xml:space="preserve">0.529204368591309</t>
+    <t xml:space="preserve">0.529204308986664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493218451738358</t>
+    <t xml:space="preserve">0.49321848154068</t>
   </si>
   <si>
     <t xml:space="preserve">0.508036196231842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.486868023872375</t>
+    <t xml:space="preserve">0.486867964267731</t>
   </si>
   <si>
-    <t xml:space="preserve">0.491807252168655</t>
+    <t xml:space="preserve">0.491807281970978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.500980138778687</t>
+    <t xml:space="preserve">0.500980079174042</t>
   </si>
   <si>
     <t xml:space="preserve">0.493924051523209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474167048931122</t>
+    <t xml:space="preserve">0.474167078733444</t>
   </si>
   <si>
-    <t xml:space="preserve">0.476989567279816</t>
+    <t xml:space="preserve">0.476989507675171</t>
   </si>
   <si>
-    <t xml:space="preserve">0.472755908966064</t>
+    <t xml:space="preserve">0.472755879163742</t>
   </si>
   <si>
     <t xml:space="preserve">0.460054993629456</t>
   </si>
   <si>
-    <t xml:space="preserve">0.455821335315704</t>
+    <t xml:space="preserve">0.455821394920349</t>
   </si>
   <si>
-    <t xml:space="preserve">0.458643823862076</t>
+    <t xml:space="preserve">0.458643734455109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464288651943207</t>
+    <t xml:space="preserve">0.464288622140884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451587736606598</t>
+    <t xml:space="preserve">0.451587706804276</t>
   </si>
   <si>
-    <t xml:space="preserve">0.485456794500351</t>
+    <t xml:space="preserve">0.485456764698029</t>
   </si>
   <si>
-    <t xml:space="preserve">0.468522250652313</t>
+    <t xml:space="preserve">0.468522280454636</t>
   </si>
   <si>
-    <t xml:space="preserve">0.519325911998749</t>
+    <t xml:space="preserve">0.519325792789459</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479811936616898</t>
+    <t xml:space="preserve">0.479811877012253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448765307664871</t>
+    <t xml:space="preserve">0.448765277862549</t>
   </si>
   <si>
-    <t xml:space="preserve">0.469933480024338</t>
+    <t xml:space="preserve">0.469933450222015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.475578278303146</t>
+    <t xml:space="preserve">0.475578367710114</t>
   </si>
   <si>
     <t xml:space="preserve">0.461466163396835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.447354078292847</t>
+    <t xml:space="preserve">0.447354108095169</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454410135746002</t>
+    <t xml:space="preserve">0.45441010594368</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429008305072784</t>
+    <t xml:space="preserve">0.429008334875107</t>
   </si>
   <si>
-    <t xml:space="preserve">0.430419504642487</t>
+    <t xml:space="preserve">0.430419594049454</t>
   </si>
   <si>
-    <t xml:space="preserve">0.43606436252594</t>
+    <t xml:space="preserve">0.436064332723618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452998906373978</t>
+    <t xml:space="preserve">0.452998965978622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.484045565128326</t>
+    <t xml:space="preserve">0.484045594930649</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47134467959404</t>
+    <t xml:space="preserve">0.471344649791718</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457232505083084</t>
+    <t xml:space="preserve">0.457232564687729</t>
   </si>
   <si>
     <t xml:space="preserve">0.44312047958374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.462877422571182</t>
+    <t xml:space="preserve">0.462877482175827</t>
   </si>
   <si>
     <t xml:space="preserve">0.450176537036896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.467110961675644</t>
+    <t xml:space="preserve">0.467110991477966</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406428903341293</t>
+    <t xml:space="preserve">0.406428933143616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410662591457367</t>
+    <t xml:space="preserve">0.410662561655045</t>
   </si>
   <si>
-    <t xml:space="preserve">0.407840132713318</t>
+    <t xml:space="preserve">0.40784016251564</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382438361644745</t>
+    <t xml:space="preserve">0.3824383020401</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369737446308136</t>
+    <t xml:space="preserve">0.369737386703491</t>
   </si>
   <si>
-    <t xml:space="preserve">0.403606504201889</t>
+    <t xml:space="preserve">0.403606534004211</t>
   </si>
   <si>
-    <t xml:space="preserve">0.400784075260162</t>
+    <t xml:space="preserve">0.400784134864807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386671960353851</t>
+    <t xml:space="preserve">0.386671990156174</t>
   </si>
   <si>
     <t xml:space="preserve">0.378204703330994</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379615843296051</t>
+    <t xml:space="preserve">0.379615873098373</t>
   </si>
   <si>
     <t xml:space="preserve">0.388083189725876</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417718648910522</t>
+    <t xml:space="preserve">0.4177186191082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.433241963386536</t>
+    <t xml:space="preserve">0.43324202299118</t>
   </si>
   <si>
     <t xml:space="preserve">0.396550446748734</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405017763376236</t>
+    <t xml:space="preserve">0.405017703771591</t>
   </si>
   <si>
     <t xml:space="preserve">0.424774706363678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421952247619629</t>
+    <t xml:space="preserve">0.421952277421951</t>
   </si>
   <si>
     <t xml:space="preserve">0.419129848480225</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431830763816833</t>
+    <t xml:space="preserve">0.431830793619156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.438886761665344</t>
+    <t xml:space="preserve">0.438886821269989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.441709280014038</t>
+    <t xml:space="preserve">0.441709220409393</t>
   </si>
   <si>
-    <t xml:space="preserve">0.476283878087997</t>
+    <t xml:space="preserve">0.476283848285675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.483339965343475</t>
+    <t xml:space="preserve">0.483339995145798</t>
   </si>
   <si>
-    <t xml:space="preserve">0.504508197307587</t>
+    <t xml:space="preserve">0.504508137702942</t>
   </si>
   <si>
-    <t xml:space="preserve">0.511564195156097</t>
+    <t xml:space="preserve">0.511564254760742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.520832777023315</t>
+    <t xml:space="preserve">0.520832717418671</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497511923313141</t>
+    <t xml:space="preserve">0.497511893510818</t>
   </si>
   <si>
-    <t xml:space="preserve">0.481964617967606</t>
+    <t xml:space="preserve">0.48196467757225</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46641743183136</t>
+    <t xml:space="preserve">0.466417491436005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47807788848877</t>
+    <t xml:space="preserve">0.478077858686447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.489738255739212</t>
+    <t xml:space="preserve">0.489738285541534</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493624985218048</t>
+    <t xml:space="preserve">0.493625044822693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.485851436853409</t>
+    <t xml:space="preserve">0.485851466655731</t>
   </si>
   <si>
-    <t xml:space="preserve">0.470304220914841</t>
+    <t xml:space="preserve">0.470304250717163</t>
   </si>
   <si>
-    <t xml:space="preserve">0.458643734455109</t>
+    <t xml:space="preserve">0.450870096683502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450870126485825</t>
+    <t xml:space="preserve">0.462530553340912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.462530612945557</t>
+    <t xml:space="preserve">0.435322880744934</t>
   </si>
   <si>
-    <t xml:space="preserve">0.435322910547256</t>
+    <t xml:space="preserve">0.439209669828415</t>
   </si>
   <si>
-    <t xml:space="preserve">0.439209699630737</t>
+    <t xml:space="preserve">0.45475697517395</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454756945371628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.474190980195999</t>
+    <t xml:space="preserve">0.474191069602966</t>
   </si>
   <si>
     <t xml:space="preserve">0.501398682594299</t>
@@ -866,10 +863,10 @@
     <t xml:space="preserve">0.590795338153839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.505285561084747</t>
+    <t xml:space="preserve">0.505285501480103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513059079647064</t>
+    <t xml:space="preserve">0.513059139251709</t>
   </si>
   <si>
     <t xml:space="preserve">0.509172260761261</t>
@@ -878,19 +875,19 @@
     <t xml:space="preserve">0.446983307600021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.443096488714218</t>
+    <t xml:space="preserve">0.443096548318863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.42754927277565</t>
+    <t xml:space="preserve">0.427549302577972</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419775694608688</t>
+    <t xml:space="preserve">0.419775664806366</t>
   </si>
   <si>
     <t xml:space="preserve">0.404228389263153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415888875722885</t>
+    <t xml:space="preserve">0.415888845920563</t>
   </si>
   <si>
     <t xml:space="preserve">0.431436091661453</t>
@@ -908,22 +905,22 @@
     <t xml:space="preserve">0.396454751491547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388681173324585</t>
+    <t xml:space="preserve">0.388681143522263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373133897781372</t>
+    <t xml:space="preserve">0.373133927583694</t>
   </si>
   <si>
     <t xml:space="preserve">0.349813014268875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352922469377518</t>
+    <t xml:space="preserve">0.35292249917984</t>
   </si>
   <si>
     <t xml:space="preserve">0.326492160558701</t>
   </si>
   <si>
-    <t xml:space="preserve">0.290733486413956</t>
+    <t xml:space="preserve">0.290733516216278</t>
   </si>
   <si>
     <t xml:space="preserve">0.312499672174454</t>
@@ -938,13 +935,16 @@
     <t xml:space="preserve">0.293842941522598</t>
   </si>
   <si>
+    <t xml:space="preserve">0.275186240673065</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.279850453138351</t>
   </si>
   <si>
     <t xml:space="preserve">0.273631542921066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.320273250341415</t>
+    <t xml:space="preserve">0.320273280143738</t>
   </si>
   <si>
     <t xml:space="preserve">0.321828007698059</t>
@@ -956,31 +956,31 @@
     <t xml:space="preserve">0.314054399728775</t>
   </si>
   <si>
-    <t xml:space="preserve">0.315609067678452</t>
+    <t xml:space="preserve">0.315609097480774</t>
   </si>
   <si>
     <t xml:space="preserve">0.331156343221664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340484648942947</t>
+    <t xml:space="preserve">0.34048467874527</t>
   </si>
   <si>
     <t xml:space="preserve">0.346703588962555</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379352807998657</t>
+    <t xml:space="preserve">0.37935283780098</t>
   </si>
   <si>
     <t xml:space="preserve">0.365360289812088</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359141379594803</t>
+    <t xml:space="preserve">0.359141409397125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.385571718215942</t>
+    <t xml:space="preserve">0.38557168841362</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408115148544312</t>
+    <t xml:space="preserve">0.408115178346634</t>
   </si>
   <si>
     <t xml:space="preserve">0.423662453889847</t>
@@ -992,40 +992,40 @@
     <t xml:space="preserve">0.371579170227051</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377798080444336</t>
+    <t xml:space="preserve">0.377798110246658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.392567932605743</t>
+    <t xml:space="preserve">0.392567962408066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387126415967941</t>
+    <t xml:space="preserve">0.387126445770264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362250804901123</t>
+    <t xml:space="preserve">0.362250834703445</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363805532455444</t>
+    <t xml:space="preserve">0.363805562257767</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360696136951447</t>
+    <t xml:space="preserve">0.360696107149124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357586711645126</t>
+    <t xml:space="preserve">0.357586652040482</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34359410405159</t>
+    <t xml:space="preserve">0.343594133853912</t>
   </si>
   <si>
     <t xml:space="preserve">0.356031954288483</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342039436101913</t>
+    <t xml:space="preserve">0.342039406299591</t>
   </si>
   <si>
     <t xml:space="preserve">0.334265768527985</t>
   </si>
   <si>
-    <t xml:space="preserve">0.318718522787094</t>
+    <t xml:space="preserve">0.318718552589417</t>
   </si>
   <si>
     <t xml:space="preserve">0.32338273525238</t>
@@ -1034,25 +1034,25 @@
     <t xml:space="preserve">0.296952396631241</t>
   </si>
   <si>
-    <t xml:space="preserve">0.300061821937561</t>
+    <t xml:space="preserve">0.300061881542206</t>
   </si>
   <si>
-    <t xml:space="preserve">0.292288243770599</t>
+    <t xml:space="preserve">0.292288213968277</t>
   </si>
   <si>
     <t xml:space="preserve">0.298507153987885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.303171277046204</t>
+    <t xml:space="preserve">0.303171306848526</t>
   </si>
   <si>
-    <t xml:space="preserve">0.310944885015488</t>
+    <t xml:space="preserve">0.31094491481781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.328046888113022</t>
+    <t xml:space="preserve">0.328046917915344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332711070775986</t>
+    <t xml:space="preserve">0.332711040973663</t>
   </si>
   <si>
     <t xml:space="preserve">0.324937462806702</t>
@@ -1061,7 +1061,7 @@
     <t xml:space="preserve">0.48250076174736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448641031980515</t>
+    <t xml:space="preserve">0.448641002178192</t>
   </si>
   <si>
     <t xml:space="preserve">0.43594366312027</t>
@@ -1076,7 +1076,7 @@
     <t xml:space="preserve">0.414781332015991</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40800940990448</t>
+    <t xml:space="preserve">0.408009380102158</t>
   </si>
   <si>
     <t xml:space="preserve">0.427478700876236</t>
@@ -1088,13 +1088,13 @@
     <t xml:space="preserve">0.409702390432358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.392772525548935</t>
+    <t xml:space="preserve">0.392772495746613</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386000603437424</t>
+    <t xml:space="preserve">0.386000573635101</t>
   </si>
   <si>
-    <t xml:space="preserve">0.384307593107224</t>
+    <t xml:space="preserve">0.384307622909546</t>
   </si>
   <si>
     <t xml:space="preserve">0.380921632051468</t>
@@ -1106,10 +1106,10 @@
     <t xml:space="preserve">0.389386564493179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394465506076813</t>
+    <t xml:space="preserve">0.394465535879135</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377535670995712</t>
+    <t xml:space="preserve">0.377535700798035</t>
   </si>
   <si>
     <t xml:space="preserve">0.375842690467834</t>
@@ -1121,40 +1121,40 @@
     <t xml:space="preserve">0.490965634584427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461338430643082</t>
+    <t xml:space="preserve">0.461338400840759</t>
   </si>
   <si>
-    <t xml:space="preserve">0.507895529270172</t>
+    <t xml:space="preserve">0.507895588874817</t>
   </si>
   <si>
-    <t xml:space="preserve">0.499430596828461</t>
+    <t xml:space="preserve">0.499430567026138</t>
   </si>
   <si>
-    <t xml:space="preserve">0.495198100805283</t>
+    <t xml:space="preserve">0.495198130607605</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465570896863937</t>
+    <t xml:space="preserve">0.46557092666626</t>
   </si>
   <si>
     <t xml:space="preserve">0.452873528003693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440176099538803</t>
+    <t xml:space="preserve">0.440176069736481</t>
   </si>
   <si>
     <t xml:space="preserve">0.431711196899414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444408535957336</t>
+    <t xml:space="preserve">0.444408565759659</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457106024026871</t>
+    <t xml:space="preserve">0.457105964422226</t>
   </si>
   <si>
-    <t xml:space="preserve">0.418167293071747</t>
+    <t xml:space="preserve">0.418167263269424</t>
   </si>
   <si>
-    <t xml:space="preserve">0.411395400762558</t>
+    <t xml:space="preserve">0.411395341157913</t>
   </si>
   <si>
     <t xml:space="preserve">0.397851496934891</t>
@@ -1166,28 +1166,28 @@
     <t xml:space="preserve">0.382614612579346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.416474312543869</t>
+    <t xml:space="preserve">0.416474342346191</t>
   </si>
   <si>
-    <t xml:space="preserve">0.404623419046402</t>
+    <t xml:space="preserve">0.40462338924408</t>
   </si>
   <si>
     <t xml:space="preserve">0.413088351488113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402930438518524</t>
+    <t xml:space="preserve">0.402930468320847</t>
   </si>
   <si>
     <t xml:space="preserve">0.355526834726334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.336904019117355</t>
+    <t xml:space="preserve">0.336904048919678</t>
   </si>
   <si>
     <t xml:space="preserve">0.338596999645233</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357219845056534</t>
+    <t xml:space="preserve">0.357219815254211</t>
   </si>
   <si>
     <t xml:space="preserve">0.358912825584412</t>
@@ -1202,16 +1202,16 @@
     <t xml:space="preserve">0.370763719081879</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372456699609756</t>
+    <t xml:space="preserve">0.372456729412079</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379228681325912</t>
+    <t xml:space="preserve">0.37922865152359</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369070738554001</t>
+    <t xml:space="preserve">0.369070768356323</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347061932086945</t>
+    <t xml:space="preserve">0.347061902284622</t>
   </si>
   <si>
     <t xml:space="preserve">0.345368951559067</t>
@@ -1220,16 +1220,16 @@
     <t xml:space="preserve">0.340290009975433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352140873670578</t>
+    <t xml:space="preserve">0.3521409034729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36229881644249</t>
+    <t xml:space="preserve">0.362298786640167</t>
   </si>
   <si>
     <t xml:space="preserve">0.356533944606781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361855328083038</t>
+    <t xml:space="preserve">0.361855357885361</t>
   </si>
   <si>
     <t xml:space="preserve">0.352986335754395</t>
@@ -1244,7 +1244,7 @@
     <t xml:space="preserve">0.374271929264069</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360081553459167</t>
+    <t xml:space="preserve">0.360081523656845</t>
   </si>
   <si>
     <t xml:space="preserve">0.363629132509232</t>
@@ -1253,16 +1253,16 @@
     <t xml:space="preserve">0.351212531328201</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340569704771042</t>
+    <t xml:space="preserve">0.340569734573364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.328153103590012</t>
+    <t xml:space="preserve">0.328153133392334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338795930147171</t>
+    <t xml:space="preserve">0.338795900344849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354760140180588</t>
+    <t xml:space="preserve">0.35476016998291</t>
   </si>
   <si>
     <t xml:space="preserve">0.337022125720978</t>
@@ -1271,7 +1271,7 @@
     <t xml:space="preserve">0.335248321294785</t>
   </si>
   <si>
-    <t xml:space="preserve">0.326379358768463</t>
+    <t xml:space="preserve">0.326379328966141</t>
   </si>
   <si>
     <t xml:space="preserve">0.317510306835175</t>
@@ -1286,7 +1286,7 @@
     <t xml:space="preserve">0.310415089130402</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312188923358917</t>
+    <t xml:space="preserve">0.312188893556595</t>
   </si>
   <si>
     <t xml:space="preserve">0.303319931030273</t>
@@ -1304,16 +1304,16 @@
     <t xml:space="preserve">0.321057915687561</t>
   </si>
   <si>
-    <t xml:space="preserve">0.33170074224472</t>
+    <t xml:space="preserve">0.331700712442398</t>
   </si>
   <si>
     <t xml:space="preserve">0.333474516868591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345891118049622</t>
+    <t xml:space="preserve">0.345891088247299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.324605524539948</t>
+    <t xml:space="preserve">0.324605494737625</t>
   </si>
   <si>
     <t xml:space="preserve">0.388462334871292</t>
@@ -1325,10 +1325,10 @@
     <t xml:space="preserve">0.381367146968842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383140981197357</t>
+    <t xml:space="preserve">0.383140951395035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.376045733690262</t>
+    <t xml:space="preserve">0.376045763492584</t>
   </si>
   <si>
     <t xml:space="preserve">0.377819538116455</t>
@@ -1349,7 +1349,7 @@
     <t xml:space="preserve">0.320068180561066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.321984767913818</t>
+    <t xml:space="preserve">0.321984738111496</t>
   </si>
   <si>
     <t xml:space="preserve">0.33731734752655</t>
@@ -1361,19 +1361,19 @@
     <t xml:space="preserve">0.318151593208313</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312401860952377</t>
+    <t xml:space="preserve">0.3124018907547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.323901325464249</t>
+    <t xml:space="preserve">0.323901355266571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314318478107452</t>
+    <t xml:space="preserve">0.31431844830513</t>
   </si>
   <si>
     <t xml:space="preserve">0.306652128696442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.310485273599625</t>
+    <t xml:space="preserve">0.310485303401947</t>
   </si>
   <si>
     <t xml:space="preserve">0.302819013595581</t>
@@ -1382,16 +1382,16 @@
     <t xml:space="preserve">0.316235065460205</t>
   </si>
   <si>
-    <t xml:space="preserve">0.308568716049194</t>
+    <t xml:space="preserve">0.308568745851517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.304735541343689</t>
+    <t xml:space="preserve">0.304735571146011</t>
   </si>
   <si>
     <t xml:space="preserve">0.300902426242828</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341150492429733</t>
+    <t xml:space="preserve">0.341150522232056</t>
   </si>
   <si>
     <t xml:space="preserve">0.329651057720184</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">0.339233934879303</t>
   </si>
   <si>
-    <t xml:space="preserve">0.343067109584808</t>
+    <t xml:space="preserve">0.343067079782486</t>
   </si>
   <si>
     <t xml:space="preserve">0.344983696937561</t>
@@ -1409,16 +1409,16 @@
     <t xml:space="preserve">0.364149421453476</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358399718999863</t>
+    <t xml:space="preserve">0.35839968919754</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346900254487991</t>
+    <t xml:space="preserve">0.346900224685669</t>
   </si>
   <si>
     <t xml:space="preserve">0.352649986743927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350733399391174</t>
+    <t xml:space="preserve">0.350733369588852</t>
   </si>
   <si>
     <t xml:space="preserve">0.348816812038422</t>
@@ -25891,7 +25891,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G926" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -25917,7 +25917,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G927" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -25943,7 +25943,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G928" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -25969,7 +25969,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G929" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -25995,7 +25995,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G930" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -26021,7 +26021,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G931" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -26047,7 +26047,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G932" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -26073,7 +26073,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G933" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -26099,7 +26099,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G934" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -26125,7 +26125,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G935" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -26151,7 +26151,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G936" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -26177,7 +26177,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G937" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -26203,7 +26203,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G938" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -26229,7 +26229,7 @@
         <v>0.564999997615814</v>
       </c>
       <c r="G939" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -26255,7 +26255,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G940" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -26281,7 +26281,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G941" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -26333,7 +26333,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G943" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -26359,7 +26359,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G944" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -26385,7 +26385,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G945" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -26411,7 +26411,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G946" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -26437,7 +26437,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G947" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -26463,7 +26463,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G948" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -26489,7 +26489,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G949" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -26515,7 +26515,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G950" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -26541,7 +26541,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G951" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -26567,7 +26567,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G952" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -26593,7 +26593,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G953" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -26619,7 +26619,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G954" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -26645,7 +26645,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G955" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -26671,7 +26671,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G956" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -26697,7 +26697,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G957" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -26723,7 +26723,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G958" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -26749,7 +26749,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G959" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -26775,7 +26775,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G960" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -26801,7 +26801,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G961" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -26879,7 +26879,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G964" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -26957,7 +26957,7 @@
         <v>0.644999980926514</v>
       </c>
       <c r="G967" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -26983,7 +26983,7 @@
         <v>0.759999990463257</v>
       </c>
       <c r="G968" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -27035,7 +27035,7 @@
         <v>0.649999976158142</v>
       </c>
       <c r="G970" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -27061,7 +27061,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G971" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -27087,7 +27087,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G972" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -27113,7 +27113,7 @@
         <v>0.654999971389771</v>
       </c>
       <c r="G973" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -27269,7 +27269,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G979" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -27295,7 +27295,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G980" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -27321,7 +27321,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G981" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -27399,7 +27399,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G984" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -27425,7 +27425,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G985" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -27841,7 +27841,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1001" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -27867,7 +27867,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1002" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -27893,7 +27893,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1003" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -27919,7 +27919,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1004" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -27945,7 +27945,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1005" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -27971,7 +27971,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1006" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -27997,7 +27997,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1007" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -28023,7 +28023,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1008" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -28049,7 +28049,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1009" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -28101,7 +28101,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1011" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -28127,7 +28127,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1012" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -28153,7 +28153,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1013" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -28179,7 +28179,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1014" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -28205,7 +28205,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1015" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -28231,7 +28231,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1016" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -28257,7 +28257,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1017" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -28283,7 +28283,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1018" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -28309,7 +28309,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1019" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -28335,7 +28335,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1020" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -28361,7 +28361,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1021" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -28439,7 +28439,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1024" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -28465,7 +28465,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1025" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -28491,7 +28491,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1026" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -28517,7 +28517,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1027" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -28543,7 +28543,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1028" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -28569,7 +28569,7 @@
         <v>0.564999997615814</v>
       </c>
       <c r="G1029" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -28595,7 +28595,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1030" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -28621,7 +28621,7 @@
         <v>0.550000011920929</v>
       </c>
       <c r="G1031" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -28647,7 +28647,7 @@
         <v>0.550000011920929</v>
       </c>
       <c r="G1032" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -28673,7 +28673,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1033" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -28699,7 +28699,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1034" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -28725,7 +28725,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1035" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -28751,7 +28751,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1036" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -28777,7 +28777,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1037" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -28803,7 +28803,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1038" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -28829,7 +28829,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G1039" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -28855,7 +28855,7 @@
         <v>0.555000007152557</v>
       </c>
       <c r="G1040" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -28881,7 +28881,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1041" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -28907,7 +28907,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1042" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -28933,7 +28933,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1043" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -28959,7 +28959,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1044" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -29063,7 +29063,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1048" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -29115,7 +29115,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1050" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -29193,7 +29193,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1053" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -29219,7 +29219,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1054" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -29245,7 +29245,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1055" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -29271,7 +29271,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1056" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -29297,7 +29297,7 @@
         <v>0.492000013589859</v>
       </c>
       <c r="G1057" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -29323,7 +29323,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1058" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -29349,7 +29349,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1059" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -29375,7 +29375,7 @@
         <v>0.5</v>
       </c>
       <c r="G1060" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -29401,7 +29401,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1061" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -29427,7 +29427,7 @@
         <v>0.5</v>
       </c>
       <c r="G1062" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -29453,7 +29453,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1063" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -29479,7 +29479,7 @@
         <v>0.453999996185303</v>
       </c>
       <c r="G1064" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -29505,7 +29505,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1065" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -29531,7 +29531,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G1066" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -29557,7 +29557,7 @@
         <v>0.40200001001358</v>
       </c>
       <c r="G1067" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -29583,7 +29583,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1068" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -29609,7 +29609,7 @@
         <v>0.393999993801117</v>
       </c>
       <c r="G1069" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -29635,7 +29635,7 @@
         <v>0.377999991178513</v>
       </c>
       <c r="G1070" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -29661,7 +29661,7 @@
         <v>0.354000002145767</v>
       </c>
       <c r="G1071" t="s">
-        <v>109</v>
+        <v>307</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -29843,7 +29843,7 @@
         <v>0.40200001001358</v>
       </c>
       <c r="G1078" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -29973,7 +29973,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1083" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -29999,7 +29999,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1084" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -30025,7 +30025,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1085" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -30077,7 +30077,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1087" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -30103,7 +30103,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1088" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -30181,7 +30181,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1091" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -30571,7 +30571,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1106" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -30597,7 +30597,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1107" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -30701,7 +30701,7 @@
         <v>0.5</v>
       </c>
       <c r="G1111" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -30753,7 +30753,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1113" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -30779,7 +30779,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1114" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -30805,7 +30805,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1115" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -30909,7 +30909,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1119" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -30935,7 +30935,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1120" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -30961,7 +30961,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1121" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -31013,7 +31013,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1123" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -31039,7 +31039,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1124" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -31065,7 +31065,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1125" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -31091,7 +31091,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1126" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -31117,7 +31117,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G1127" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -31143,7 +31143,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1128" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -31169,7 +31169,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1129" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -31195,7 +31195,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1130" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -31221,7 +31221,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1131" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -31247,7 +31247,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1132" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -31273,7 +31273,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1133" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -31299,7 +31299,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1134" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -31325,7 +31325,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1135" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -31351,7 +31351,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1136" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -31377,7 +31377,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1137" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -31403,7 +31403,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1138" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -31429,7 +31429,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1139" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -31455,7 +31455,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1140" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -31481,7 +31481,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1141" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -31507,7 +31507,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1142" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -31533,7 +31533,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1143" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -31559,7 +31559,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1144" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -31585,7 +31585,7 @@
         <v>0.5</v>
       </c>
       <c r="G1145" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -31611,7 +31611,7 @@
         <v>0.5</v>
       </c>
       <c r="G1146" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -31637,7 +31637,7 @@
         <v>0.5</v>
       </c>
       <c r="G1147" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -31663,7 +31663,7 @@
         <v>0.5</v>
       </c>
       <c r="G1148" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -31689,7 +31689,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1149" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -31741,7 +31741,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1151" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -31767,7 +31767,7 @@
         <v>0.5</v>
       </c>
       <c r="G1152" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -31793,7 +31793,7 @@
         <v>0.5</v>
       </c>
       <c r="G1153" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -31845,7 +31845,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1155" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -32027,7 +32027,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1162" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32053,7 +32053,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1163" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -32079,7 +32079,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1164" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -32105,7 +32105,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1165" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -32443,7 +32443,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1178" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -32937,7 +32937,7 @@
         <v>0.453999996185303</v>
       </c>
       <c r="G1197" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -33977,7 +33977,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1237" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -34185,7 +34185,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G1245" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -34211,7 +34211,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G1246" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -34705,7 +34705,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1265" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -35355,7 +35355,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1290" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -35381,7 +35381,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1291" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -35433,7 +35433,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1293" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -35459,7 +35459,7 @@
         <v>0.5</v>
       </c>
       <c r="G1294" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -35485,7 +35485,7 @@
         <v>0.550000011920929</v>
       </c>
       <c r="G1295" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -35511,7 +35511,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1296" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -35563,7 +35563,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1298" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -35589,7 +35589,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1299" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -35615,7 +35615,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1300" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -35667,7 +35667,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1302" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -35693,7 +35693,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1303" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -35719,7 +35719,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1304" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -35745,7 +35745,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1305" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -35771,7 +35771,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1306" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -35797,7 +35797,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1307" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -35823,7 +35823,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1308" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -35849,7 +35849,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1309" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -35875,7 +35875,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1310" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -58966,6 +58966,32 @@
         <v>489</v>
       </c>
       <c r="H2198" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" s="1" t="n">
+        <v>45525.2916666667</v>
+      </c>
+      <c r="B2199" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2199" t="n">
+        <v>0.314000010490417</v>
+      </c>
+      <c r="D2199" t="n">
+        <v>0.314000010490417</v>
+      </c>
+      <c r="E2199" t="n">
+        <v>0.314000010490417</v>
+      </c>
+      <c r="F2199" t="n">
+        <v>0.314000010490417</v>
+      </c>
+      <c r="G2199" t="s">
+        <v>489</v>
+      </c>
+      <c r="H2199" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/POPR.MI.xlsx
+++ b/data/POPR.MI.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">POPR.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.198275208473206</t>
+    <t xml:space="preserve">0.198275223374367</t>
   </si>
   <si>
     <t xml:space="preserve">0.194041609764099</t>
@@ -56,7 +56,7 @@
     <t xml:space="preserve">0.184163123369217</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190513581037521</t>
+    <t xml:space="preserve">0.19051356613636</t>
   </si>
   <si>
     <t xml:space="preserve">0.167228564620018</t>
@@ -65,25 +65,25 @@
     <t xml:space="preserve">0.160878106951714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16814586520195</t>
+    <t xml:space="preserve">0.168145850300789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162994936108589</t>
+    <t xml:space="preserve">0.162994965910912</t>
   </si>
   <si>
     <t xml:space="preserve">0.171462208032608</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17216782271862</t>
+    <t xml:space="preserve">0.172167792916298</t>
   </si>
   <si>
     <t xml:space="preserve">0.16927482187748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164406150579453</t>
+    <t xml:space="preserve">0.16440612077713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156997293233871</t>
+    <t xml:space="preserve">0.15699727833271</t>
   </si>
   <si>
     <t xml:space="preserve">0.156644493341446</t>
@@ -95,16 +95,16 @@
     <t xml:space="preserve">0.159466907382011</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155938878655434</t>
+    <t xml:space="preserve">0.155938863754272</t>
   </si>
   <si>
     <t xml:space="preserve">0.169627636671066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191219195723534</t>
+    <t xml:space="preserve">0.191219180822372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187267795205116</t>
+    <t xml:space="preserve">0.187267765402794</t>
   </si>
   <si>
     <t xml:space="preserve">0.183457493782043</t>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">0.176401451230049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173579022288322</t>
+    <t xml:space="preserve">0.173579037189484</t>
   </si>
   <si>
     <t xml:space="preserve">0.16793417930603</t>
@@ -125,10 +125,10 @@
     <t xml:space="preserve">0.180635094642639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178447708487511</t>
+    <t xml:space="preserve">0.178447723388672</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199051409959793</t>
+    <t xml:space="preserve">0.199051395058632</t>
   </si>
   <si>
     <t xml:space="preserve">0.19898085296154</t>
@@ -137,13 +137,13 @@
     <t xml:space="preserve">0.191924795508385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.18627992272377</t>
+    <t xml:space="preserve">0.186279907822609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211681753396988</t>
+    <t xml:space="preserve">0.211681738495827</t>
   </si>
   <si>
-    <t xml:space="preserve">0.216268166899681</t>
+    <t xml:space="preserve">0.216268181800842</t>
   </si>
   <si>
     <t xml:space="preserve">0.215209767222404</t>
@@ -158,7 +158,7 @@
     <t xml:space="preserve">0.225793838500977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234261125326157</t>
+    <t xml:space="preserve">0.234261110424995</t>
   </si>
   <si>
     <t xml:space="preserve">0.225723296403885</t>
@@ -167,25 +167,25 @@
     <t xml:space="preserve">0.220854625105858</t>
   </si>
   <si>
-    <t xml:space="preserve">0.218032196164131</t>
+    <t xml:space="preserve">0.21803218126297</t>
   </si>
   <si>
-    <t xml:space="preserve">0.201097667217255</t>
+    <t xml:space="preserve">0.201097637414932</t>
   </si>
   <si>
-    <t xml:space="preserve">0.204625681042671</t>
+    <t xml:space="preserve">0.20462566614151</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190654695034027</t>
+    <t xml:space="preserve">0.190654709935188</t>
   </si>
   <si>
     <t xml:space="preserve">0.189102336764336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182751908898354</t>
+    <t xml:space="preserve">0.182751893997192</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170192122459412</t>
+    <t xml:space="preserve">0.17019210755825</t>
   </si>
   <si>
     <t xml:space="preserve">0.186985522508621</t>
@@ -194,7 +194,7 @@
     <t xml:space="preserve">0.176330894231796</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170756593346596</t>
+    <t xml:space="preserve">0.170756578445435</t>
   </si>
   <si>
     <t xml:space="preserve">0.172873422503471</t>
@@ -203,19 +203,19 @@
     <t xml:space="preserve">0.176965937018394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208859339356422</t>
+    <t xml:space="preserve">0.2088593095541</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210976138710976</t>
+    <t xml:space="preserve">0.210976123809814</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206036880612373</t>
+    <t xml:space="preserve">0.206036910414696</t>
   </si>
   <si>
     <t xml:space="preserve">0.203990623354912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187691166996956</t>
+    <t xml:space="preserve">0.187691152095795</t>
   </si>
   <si>
     <t xml:space="preserve">0.179929479956627</t>
@@ -227,7 +227,7 @@
     <t xml:space="preserve">0.170050993561745</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166522979736328</t>
+    <t xml:space="preserve">0.166522964835167</t>
   </si>
   <si>
     <t xml:space="preserve">0.162289336323738</t>
@@ -245,22 +245,22 @@
     <t xml:space="preserve">0.193335980176926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.204978495836258</t>
+    <t xml:space="preserve">0.204978466033936</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225088253617287</t>
+    <t xml:space="preserve">0.225088268518448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21732659637928</t>
+    <t xml:space="preserve">0.217326566576958</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199968665838242</t>
+    <t xml:space="preserve">0.199968680739403</t>
   </si>
   <si>
-    <t xml:space="preserve">0.214151337742805</t>
+    <t xml:space="preserve">0.214151367545128</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225652739405632</t>
+    <t xml:space="preserve">0.225652724504471</t>
   </si>
   <si>
     <t xml:space="preserve">0.218737795948982</t>
@@ -269,37 +269,37 @@
     <t xml:space="preserve">0.215280324220657</t>
   </si>
   <si>
-    <t xml:space="preserve">0.224382638931274</t>
+    <t xml:space="preserve">0.224382653832436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.239200338721275</t>
+    <t xml:space="preserve">0.239200383424759</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243363469839096</t>
+    <t xml:space="preserve">0.243363425135612</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261074155569077</t>
+    <t xml:space="preserve">0.261074125766754</t>
   </si>
   <si>
-    <t xml:space="preserve">0.267424613237381</t>
+    <t xml:space="preserve">0.267424643039703</t>
   </si>
   <si>
-    <t xml:space="preserve">0.282242298126221</t>
+    <t xml:space="preserve">0.282242327928543</t>
   </si>
   <si>
     <t xml:space="preserve">0.299882501363754</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309055358171463</t>
+    <t xml:space="preserve">0.309055328369141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325989872217178</t>
+    <t xml:space="preserve">0.325989931821823</t>
   </si>
   <si>
     <t xml:space="preserve">0.335162758827209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.289298355579376</t>
+    <t xml:space="preserve">0.289298385381699</t>
   </si>
   <si>
     <t xml:space="preserve">0.292050242424011</t>
@@ -311,31 +311,31 @@
     <t xml:space="preserve">0.280831128358841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.272575497627258</t>
+    <t xml:space="preserve">0.272575527429581</t>
   </si>
   <si>
-    <t xml:space="preserve">0.27306941151619</t>
+    <t xml:space="preserve">0.273069441318512</t>
   </si>
   <si>
     <t xml:space="preserve">0.273210555315018</t>
   </si>
   <si>
-    <t xml:space="preserve">0.257546097040176</t>
+    <t xml:space="preserve">0.257546126842499</t>
   </si>
   <si>
-    <t xml:space="preserve">0.262485325336456</t>
+    <t xml:space="preserve">0.262485355138779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.236377939581871</t>
+    <t xml:space="preserve">0.236377954483032</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23228545486927</t>
+    <t xml:space="preserve">0.232285410165787</t>
   </si>
   <si>
     <t xml:space="preserve">0.237789168953896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234331682324409</t>
+    <t xml:space="preserve">0.234331712126732</t>
   </si>
   <si>
     <t xml:space="preserve">0.266718983650208</t>
@@ -347,139 +347,139 @@
     <t xml:space="preserve">0.259098440408707</t>
   </si>
   <si>
-    <t xml:space="preserve">0.255429297685623</t>
+    <t xml:space="preserve">0.255429238080978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.26460212469101</t>
+    <t xml:space="preserve">0.264602184295654</t>
   </si>
   <si>
     <t xml:space="preserve">0.254018098115921</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250490039587021</t>
+    <t xml:space="preserve">0.250490069389343</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243433997035027</t>
+    <t xml:space="preserve">0.243434011936188</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249643325805664</t>
+    <t xml:space="preserve">0.249643310904503</t>
   </si>
   <si>
     <t xml:space="preserve">0.239270925521851</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225864410400391</t>
+    <t xml:space="preserve">0.225864425301552</t>
   </si>
   <si>
     <t xml:space="preserve">0.229321882128716</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23214428126812</t>
+    <t xml:space="preserve">0.232144325971603</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23143869638443</t>
+    <t xml:space="preserve">0.231438726186752</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232849925756454</t>
+    <t xml:space="preserve">0.232849910855293</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234402269124985</t>
+    <t xml:space="preserve">0.234402239322662</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237930282950401</t>
+    <t xml:space="preserve">0.237930253148079</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253312468528748</t>
+    <t xml:space="preserve">0.253312438726425</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246820867061615</t>
+    <t xml:space="preserve">0.24682092666626</t>
   </si>
   <si>
     <t xml:space="preserve">0.247879326343536</t>
   </si>
   <si>
-    <t xml:space="preserve">0.257616698741913</t>
+    <t xml:space="preserve">0.25761666893959</t>
   </si>
   <si>
     <t xml:space="preserve">0.263120412826538</t>
   </si>
   <si>
-    <t xml:space="preserve">0.252042412757874</t>
+    <t xml:space="preserve">0.252042382955551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246961981058121</t>
+    <t xml:space="preserve">0.246962025761604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.24667976796627</t>
+    <t xml:space="preserve">0.246679797768593</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243504583835602</t>
+    <t xml:space="preserve">0.243504524230957</t>
   </si>
   <si>
     <t xml:space="preserve">0.259662955999374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243645668029785</t>
+    <t xml:space="preserve">0.243645697832108</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250701725482941</t>
+    <t xml:space="preserve">0.250701695680618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333610385656357</t>
+    <t xml:space="preserve">0.333610415458679</t>
   </si>
   <si>
     <t xml:space="preserve">0.395139247179031</t>
   </si>
   <si>
-    <t xml:space="preserve">0.522148311138153</t>
+    <t xml:space="preserve">0.522148251533508</t>
   </si>
   <si>
-    <t xml:space="preserve">0.612465858459473</t>
+    <t xml:space="preserve">0.612465739250183</t>
   </si>
   <si>
-    <t xml:space="preserve">0.535554826259613</t>
+    <t xml:space="preserve">0.535554766654968</t>
   </si>
   <si>
-    <t xml:space="preserve">0.490396022796631</t>
+    <t xml:space="preserve">0.490395992994308</t>
   </si>
   <si>
-    <t xml:space="preserve">0.473814338445663</t>
+    <t xml:space="preserve">0.473814308643341</t>
   </si>
   <si>
     <t xml:space="preserve">0.44453164935112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409251362085342</t>
+    <t xml:space="preserve">0.40925133228302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464994251728058</t>
+    <t xml:space="preserve">0.464994221925735</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412426590919495</t>
+    <t xml:space="preserve">0.412426620721817</t>
   </si>
   <si>
     <t xml:space="preserve">0.419835448265076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388788759708405</t>
+    <t xml:space="preserve">0.388788789510727</t>
   </si>
   <si>
     <t xml:space="preserve">0.36585658788681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353508472442627</t>
+    <t xml:space="preserve">0.353508502244949</t>
   </si>
   <si>
     <t xml:space="preserve">0.366562247276306</t>
   </si>
   <si>
-    <t xml:space="preserve">0.375382333993912</t>
+    <t xml:space="preserve">0.375382304191589</t>
   </si>
   <si>
     <t xml:space="preserve">0.361270189285278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391611248254776</t>
+    <t xml:space="preserve">0.391611218452454</t>
   </si>
   <si>
     <t xml:space="preserve">0.383143931627274</t>
@@ -488,7 +488,7 @@
     <t xml:space="preserve">0.366914987564087</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357389330863953</t>
+    <t xml:space="preserve">0.357389360666275</t>
   </si>
   <si>
     <t xml:space="preserve">0.360564559698105</t>
@@ -497,7 +497,7 @@
     <t xml:space="preserve">0.373971045017242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370443046092987</t>
+    <t xml:space="preserve">0.370443016290665</t>
   </si>
   <si>
     <t xml:space="preserve">0.356330931186676</t>
@@ -509,7 +509,7 @@
     <t xml:space="preserve">0.352802902460098</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349980473518372</t>
+    <t xml:space="preserve">0.349980443716049</t>
   </si>
   <si>
     <t xml:space="preserve">0.375735104084015</t>
@@ -521,7 +521,7 @@
     <t xml:space="preserve">0.355625331401825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368678987026215</t>
+    <t xml:space="preserve">0.368679016828537</t>
   </si>
   <si>
     <t xml:space="preserve">0.36268138885498</t>
@@ -530,7 +530,7 @@
     <t xml:space="preserve">0.368326246738434</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338690757751465</t>
+    <t xml:space="preserve">0.338690787553787</t>
   </si>
   <si>
     <t xml:space="preserve">0.348569244146347</t>
@@ -542,25 +542,25 @@
     <t xml:space="preserve">0.359858959913254</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365503817796707</t>
+    <t xml:space="preserve">0.365503787994385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402195334434509</t>
+    <t xml:space="preserve">0.402195274829865</t>
   </si>
   <si>
-    <t xml:space="preserve">0.381027162075043</t>
+    <t xml:space="preserve">0.38102713227272</t>
   </si>
   <si>
-    <t xml:space="preserve">0.381732702255249</t>
+    <t xml:space="preserve">0.381732761859894</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358447730541229</t>
+    <t xml:space="preserve">0.358447760343552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379263162612915</t>
+    <t xml:space="preserve">0.37926310300827</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353155702352524</t>
+    <t xml:space="preserve">0.353155732154846</t>
   </si>
   <si>
     <t xml:space="preserve">0.367973417043686</t>
@@ -572,13 +572,13 @@
     <t xml:space="preserve">0.414896190166473</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414190620183945</t>
+    <t xml:space="preserve">0.414190590381622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415601789951324</t>
+    <t xml:space="preserve">0.415601819753647</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408192902803421</t>
+    <t xml:space="preserve">0.408192962408066</t>
   </si>
   <si>
     <t xml:space="preserve">0.416307389736176</t>
@@ -593,31 +593,31 @@
     <t xml:space="preserve">0.39796170592308</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412073761224747</t>
+    <t xml:space="preserve">0.412073820829391</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436417251825333</t>
+    <t xml:space="preserve">0.436417192220688</t>
   </si>
   <si>
     <t xml:space="preserve">0.43959242105484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424069076776505</t>
+    <t xml:space="preserve">0.424069106578827</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423363506793976</t>
+    <t xml:space="preserve">0.423363476991653</t>
   </si>
   <si>
-    <t xml:space="preserve">0.43465319275856</t>
+    <t xml:space="preserve">0.434653133153915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423716247081757</t>
+    <t xml:space="preserve">0.423716276884079</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45793816447258</t>
+    <t xml:space="preserve">0.457938194274902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465699851512909</t>
+    <t xml:space="preserve">0.465699821710587</t>
   </si>
   <si>
     <t xml:space="preserve">0.440298020839691</t>
@@ -626,70 +626,70 @@
     <t xml:space="preserve">0.423010677099228</t>
   </si>
   <si>
-    <t xml:space="preserve">0.433947563171387</t>
+    <t xml:space="preserve">0.433947592973709</t>
   </si>
   <si>
-    <t xml:space="preserve">0.529204249382019</t>
+    <t xml:space="preserve">0.529204368591309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.49321848154068</t>
+    <t xml:space="preserve">0.493218451738358</t>
   </si>
   <si>
     <t xml:space="preserve">0.508036196231842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.486867994070053</t>
+    <t xml:space="preserve">0.486868023872375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.491807281970978</t>
+    <t xml:space="preserve">0.491807252168655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.500980079174042</t>
+    <t xml:space="preserve">0.500980138778687</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493923962116241</t>
+    <t xml:space="preserve">0.493924051523209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474167048931122</t>
+    <t xml:space="preserve">0.474167108535767</t>
   </si>
   <si>
-    <t xml:space="preserve">0.476989507675171</t>
+    <t xml:space="preserve">0.476989477872849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.472755879163742</t>
+    <t xml:space="preserve">0.472755908966064</t>
   </si>
   <si>
-    <t xml:space="preserve">0.460054993629456</t>
+    <t xml:space="preserve">0.460054934024811</t>
   </si>
   <si>
-    <t xml:space="preserve">0.455821335315704</t>
+    <t xml:space="preserve">0.455821394920349</t>
   </si>
   <si>
     <t xml:space="preserve">0.458643764257431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46428856253624</t>
+    <t xml:space="preserve">0.464288651943207</t>
   </si>
   <si>
     <t xml:space="preserve">0.451587677001953</t>
   </si>
   <si>
-    <t xml:space="preserve">0.485456764698029</t>
+    <t xml:space="preserve">0.485456794500351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.468522250652313</t>
+    <t xml:space="preserve">0.468522220849991</t>
   </si>
   <si>
     <t xml:space="preserve">0.519325911998749</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479811906814575</t>
+    <t xml:space="preserve">0.479811936616898</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448765277862549</t>
+    <t xml:space="preserve">0.448765307664871</t>
   </si>
   <si>
-    <t xml:space="preserve">0.469933420419693</t>
+    <t xml:space="preserve">0.469933450222015</t>
   </si>
   <si>
     <t xml:space="preserve">0.475578337907791</t>
@@ -698,61 +698,61 @@
     <t xml:space="preserve">0.461466163396835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.447354048490524</t>
+    <t xml:space="preserve">0.447354078292847</t>
   </si>
   <si>
     <t xml:space="preserve">0.45441010594368</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429008364677429</t>
+    <t xml:space="preserve">0.429008334875107</t>
   </si>
   <si>
     <t xml:space="preserve">0.430419534444809</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436064392328262</t>
+    <t xml:space="preserve">0.43606436252594</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452998995780945</t>
+    <t xml:space="preserve">0.452998965978622</t>
   </si>
   <si>
     <t xml:space="preserve">0.484045594930649</t>
   </si>
   <si>
-    <t xml:space="preserve">0.471344649791718</t>
+    <t xml:space="preserve">0.47134467959404</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457232594490051</t>
+    <t xml:space="preserve">0.457232564687729</t>
   </si>
   <si>
     <t xml:space="preserve">0.443120449781418</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46287739276886</t>
+    <t xml:space="preserve">0.462877452373505</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450176507234573</t>
+    <t xml:space="preserve">0.450176537036896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.467111021280289</t>
+    <t xml:space="preserve">0.467111080884933</t>
   </si>
   <si>
     <t xml:space="preserve">0.406428933143616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410662591457367</t>
+    <t xml:space="preserve">0.410662561655045</t>
   </si>
   <si>
     <t xml:space="preserve">0.40784016251564</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382438391447067</t>
+    <t xml:space="preserve">0.382438361644745</t>
   </si>
   <si>
     <t xml:space="preserve">0.369737446308136</t>
   </si>
   <si>
-    <t xml:space="preserve">0.403606563806534</t>
+    <t xml:space="preserve">0.403606534004211</t>
   </si>
   <si>
     <t xml:space="preserve">0.400784075260162</t>
@@ -770,25 +770,25 @@
     <t xml:space="preserve">0.388083219528198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417718678712845</t>
+    <t xml:space="preserve">0.4177186191082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.433241993188858</t>
+    <t xml:space="preserve">0.43324202299118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.396550416946411</t>
+    <t xml:space="preserve">0.396550446748734</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405017703771591</t>
+    <t xml:space="preserve">0.405017763376236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424774706363678</t>
+    <t xml:space="preserve">0.424774646759033</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421952277421951</t>
+    <t xml:space="preserve">0.421952247619629</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419129848480225</t>
+    <t xml:space="preserve">0.419129818677902</t>
   </si>
   <si>
     <t xml:space="preserve">0.431830704212189</t>
@@ -800,46 +800,46 @@
     <t xml:space="preserve">0.441709250211716</t>
   </si>
   <si>
-    <t xml:space="preserve">0.476283967494965</t>
+    <t xml:space="preserve">0.476283937692642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.483339995145798</t>
+    <t xml:space="preserve">0.483339965343475</t>
   </si>
   <si>
     <t xml:space="preserve">0.504508137702942</t>
   </si>
   <si>
-    <t xml:space="preserve">0.511564195156097</t>
+    <t xml:space="preserve">0.511564254760742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.52083283662796</t>
+    <t xml:space="preserve">0.520832777023315</t>
   </si>
   <si>
     <t xml:space="preserve">0.497511863708496</t>
   </si>
   <si>
-    <t xml:space="preserve">0.48196467757225</t>
+    <t xml:space="preserve">0.481964647769928</t>
   </si>
   <si>
     <t xml:space="preserve">0.466417402029037</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478077799081802</t>
+    <t xml:space="preserve">0.478077858686447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.489738285541534</t>
+    <t xml:space="preserve">0.489738255739212</t>
   </si>
   <si>
     <t xml:space="preserve">0.493625104427338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.485851466655731</t>
+    <t xml:space="preserve">0.485851436853409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.470304161310196</t>
+    <t xml:space="preserve">0.470304220914841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.458643704652786</t>
+    <t xml:space="preserve">0.458643734455109</t>
   </si>
   <si>
     <t xml:space="preserve">0.450870126485825</t>
@@ -848,16 +848,16 @@
     <t xml:space="preserve">0.462530583143234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.435322880744934</t>
+    <t xml:space="preserve">0.435322910547256</t>
   </si>
   <si>
-    <t xml:space="preserve">0.439209699630737</t>
+    <t xml:space="preserve">0.439209669828415</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454756885766983</t>
+    <t xml:space="preserve">0.454756945371628</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474190980195999</t>
+    <t xml:space="preserve">0.474191009998322</t>
   </si>
   <si>
     <t xml:space="preserve">0.501398682594299</t>
@@ -869,88 +869,88 @@
     <t xml:space="preserve">0.505285501480103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513059139251709</t>
+    <t xml:space="preserve">0.513059079647064</t>
   </si>
   <si>
     <t xml:space="preserve">0.509172260761261</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446983367204666</t>
+    <t xml:space="preserve">0.446983337402344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.443096548318863</t>
+    <t xml:space="preserve">0.443096488714218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.42754927277565</t>
+    <t xml:space="preserve">0.427549302577972</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419775694608688</t>
+    <t xml:space="preserve">0.419775664806366</t>
   </si>
   <si>
-    <t xml:space="preserve">0.404228359460831</t>
+    <t xml:space="preserve">0.404228389263153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415888905525208</t>
+    <t xml:space="preserve">0.415888875722885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431436121463776</t>
+    <t xml:space="preserve">0.431436091661453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41200202703476</t>
+    <t xml:space="preserve">0.412001997232437</t>
   </si>
   <si>
     <t xml:space="preserve">0.3824622631073</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380907535552979</t>
+    <t xml:space="preserve">0.380907505750656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.396454781293869</t>
+    <t xml:space="preserve">0.396454751491547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388681173324585</t>
+    <t xml:space="preserve">0.388681143522263</t>
   </si>
   <si>
     <t xml:space="preserve">0.373133897781372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349813044071198</t>
+    <t xml:space="preserve">0.349813014268875</t>
   </si>
   <si>
     <t xml:space="preserve">0.352922469377518</t>
   </si>
   <si>
-    <t xml:space="preserve">0.326492190361023</t>
+    <t xml:space="preserve">0.326492130756378</t>
   </si>
   <si>
-    <t xml:space="preserve">0.290733516216278</t>
+    <t xml:space="preserve">0.290733486413956</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312499672174454</t>
+    <t xml:space="preserve">0.312499612569809</t>
   </si>
   <si>
     <t xml:space="preserve">0.29539766907692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.306280732154846</t>
+    <t xml:space="preserve">0.306280702352524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.293842941522598</t>
+    <t xml:space="preserve">0.293842911720276</t>
   </si>
   <si>
     <t xml:space="preserve">0.279850453138351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273631513118744</t>
+    <t xml:space="preserve">0.273631542921066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.320273280143738</t>
+    <t xml:space="preserve">0.320273250341415</t>
   </si>
   <si>
     <t xml:space="preserve">0.321827977895737</t>
   </si>
   <si>
-    <t xml:space="preserve">0.304726004600525</t>
+    <t xml:space="preserve">0.304726034402847</t>
   </si>
   <si>
     <t xml:space="preserve">0.314054399728775</t>
@@ -959,76 +959,76 @@
     <t xml:space="preserve">0.315609067678452</t>
   </si>
   <si>
-    <t xml:space="preserve">0.331156373023987</t>
+    <t xml:space="preserve">0.331156313419342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340484648942947</t>
+    <t xml:space="preserve">0.34048467874527</t>
   </si>
   <si>
     <t xml:space="preserve">0.346703588962555</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37935283780098</t>
+    <t xml:space="preserve">0.379352778196335</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365360289812088</t>
+    <t xml:space="preserve">0.365360260009766</t>
   </si>
   <si>
     <t xml:space="preserve">0.359141409397125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.385571718215942</t>
+    <t xml:space="preserve">0.38557168841362</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408115208148956</t>
+    <t xml:space="preserve">0.408115178346634</t>
   </si>
   <si>
     <t xml:space="preserve">0.423662453889847</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368469744920731</t>
+    <t xml:space="preserve">0.368469715118408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.371579170227051</t>
+    <t xml:space="preserve">0.371579140424728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377798110246658</t>
+    <t xml:space="preserve">0.377798080444336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.392567962408066</t>
+    <t xml:space="preserve">0.392567992210388</t>
   </si>
   <si>
     <t xml:space="preserve">0.387126415967941</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362250834703445</t>
+    <t xml:space="preserve">0.362250775098801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363805592060089</t>
+    <t xml:space="preserve">0.363805562257767</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360696107149124</t>
+    <t xml:space="preserve">0.360696077346802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357586681842804</t>
+    <t xml:space="preserve">0.357586652040482</t>
   </si>
   <si>
-    <t xml:space="preserve">0.343594163656235</t>
+    <t xml:space="preserve">0.34359410405159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356031954288483</t>
+    <t xml:space="preserve">0.35603192448616</t>
   </si>
   <si>
     <t xml:space="preserve">0.342039406299591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.334265798330307</t>
+    <t xml:space="preserve">0.334265768527985</t>
   </si>
   <si>
-    <t xml:space="preserve">0.318718552589417</t>
+    <t xml:space="preserve">0.318718522787094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32338273525238</t>
+    <t xml:space="preserve">0.323382705450058</t>
   </si>
   <si>
     <t xml:space="preserve">0.296952396631241</t>
@@ -1037,25 +1037,25 @@
     <t xml:space="preserve">0.300061851739883</t>
   </si>
   <si>
-    <t xml:space="preserve">0.292288213968277</t>
+    <t xml:space="preserve">0.292288243770599</t>
   </si>
   <si>
-    <t xml:space="preserve">0.298507153987885</t>
+    <t xml:space="preserve">0.298507124185562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.303171306848526</t>
+    <t xml:space="preserve">0.303171277046204</t>
   </si>
   <si>
-    <t xml:space="preserve">0.310944944620132</t>
+    <t xml:space="preserve">0.31094491481781</t>
   </si>
   <si>
     <t xml:space="preserve">0.328046888113022</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332711100578308</t>
+    <t xml:space="preserve">0.332711070775986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.324937462806702</t>
+    <t xml:space="preserve">0.324937433004379</t>
   </si>
   <si>
     <t xml:space="preserve">0.48250076174736</t>
@@ -59234,7 +59234,7 @@
     </row>
     <row r="2209">
       <c r="A2209" s="1" t="n">
-        <v>45539.4140509259</v>
+        <v>45539.2916666667</v>
       </c>
       <c r="B2209" t="n">
         <v>8000</v>
@@ -59255,6 +59255,32 @@
         <v>490</v>
       </c>
       <c r="H2209" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210" s="1" t="n">
+        <v>45540.4223842593</v>
+      </c>
+      <c r="B2210" t="n">
+        <v>36000</v>
+      </c>
+      <c r="C2210" t="n">
+        <v>0.32600000500679</v>
+      </c>
+      <c r="D2210" t="n">
+        <v>0.316000014543533</v>
+      </c>
+      <c r="E2210" t="n">
+        <v>0.316000014543533</v>
+      </c>
+      <c r="F2210" t="n">
+        <v>0.32600000500679</v>
+      </c>
+      <c r="G2210" t="s">
+        <v>484</v>
+      </c>
+      <c r="H2210" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/POPR.MI.xlsx
+++ b/data/POPR.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="492">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">0.198275223374367</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194041609764099</t>
+    <t xml:space="preserve">0.19404162466526</t>
   </si>
   <si>
-    <t xml:space="preserve">0.192630365490913</t>
+    <t xml:space="preserve">0.192630380392075</t>
   </si>
   <si>
     <t xml:space="preserve">0.184163123369217</t>
@@ -65,22 +65,22 @@
     <t xml:space="preserve">0.160878106951714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168145850300789</t>
+    <t xml:space="preserve">0.168145880103111</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162994965910912</t>
+    <t xml:space="preserve">0.16299495100975</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171462208032608</t>
+    <t xml:space="preserve">0.171462222933769</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172167792916298</t>
+    <t xml:space="preserve">0.172167807817459</t>
   </si>
   <si>
     <t xml:space="preserve">0.16927482187748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16440612077713</t>
+    <t xml:space="preserve">0.164406150579453</t>
   </si>
   <si>
     <t xml:space="preserve">0.15699727833271</t>
@@ -95,16 +95,16 @@
     <t xml:space="preserve">0.159466907382011</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155938863754272</t>
+    <t xml:space="preserve">0.155938878655434</t>
   </si>
   <si>
     <t xml:space="preserve">0.169627636671066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191219180822372</t>
+    <t xml:space="preserve">0.191219165921211</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187267765402794</t>
+    <t xml:space="preserve">0.187267780303955</t>
   </si>
   <si>
     <t xml:space="preserve">0.183457493782043</t>
@@ -113,37 +113,37 @@
     <t xml:space="preserve">0.176401451230049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173579037189484</t>
+    <t xml:space="preserve">0.173579022288322</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16793417930603</t>
+    <t xml:space="preserve">0.167934194207191</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174778550863266</t>
+    <t xml:space="preserve">0.174778565764427</t>
   </si>
   <si>
     <t xml:space="preserve">0.180635094642639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178447723388672</t>
+    <t xml:space="preserve">0.178447708487511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199051395058632</t>
+    <t xml:space="preserve">0.199051409959793</t>
   </si>
   <si>
-    <t xml:space="preserve">0.19898085296154</t>
+    <t xml:space="preserve">0.198980823159218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191924795508385</t>
+    <t xml:space="preserve">0.191924780607224</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186279907822609</t>
+    <t xml:space="preserve">0.18627992272377</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211681738495827</t>
+    <t xml:space="preserve">0.211681753396988</t>
   </si>
   <si>
-    <t xml:space="preserve">0.216268181800842</t>
+    <t xml:space="preserve">0.216268166899681</t>
   </si>
   <si>
     <t xml:space="preserve">0.215209767222404</t>
@@ -158,43 +158,43 @@
     <t xml:space="preserve">0.225793838500977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234261110424995</t>
+    <t xml:space="preserve">0.234261125326157</t>
   </si>
   <si>
     <t xml:space="preserve">0.225723296403885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220854625105858</t>
+    <t xml:space="preserve">0.220854595303535</t>
   </si>
   <si>
     <t xml:space="preserve">0.21803218126297</t>
   </si>
   <si>
-    <t xml:space="preserve">0.201097637414932</t>
+    <t xml:space="preserve">0.201097667217255</t>
   </si>
   <si>
     <t xml:space="preserve">0.20462566614151</t>
   </si>
   <si>
-    <t xml:space="preserve">0.190654709935188</t>
+    <t xml:space="preserve">0.190654695034027</t>
   </si>
   <si>
-    <t xml:space="preserve">0.189102336764336</t>
+    <t xml:space="preserve">0.189102351665497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182751893997192</t>
+    <t xml:space="preserve">0.182751908898354</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17019210755825</t>
+    <t xml:space="preserve">0.170192122459412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186985522508621</t>
+    <t xml:space="preserve">0.186985537409782</t>
   </si>
   <si>
     <t xml:space="preserve">0.176330894231796</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170756578445435</t>
+    <t xml:space="preserve">0.170756593346596</t>
   </si>
   <si>
     <t xml:space="preserve">0.172873422503471</t>
@@ -209,19 +209,19 @@
     <t xml:space="preserve">0.210976123809814</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206036910414696</t>
+    <t xml:space="preserve">0.206036895513535</t>
   </si>
   <si>
-    <t xml:space="preserve">0.203990623354912</t>
+    <t xml:space="preserve">0.203990653157234</t>
   </si>
   <si>
     <t xml:space="preserve">0.187691152095795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179929479956627</t>
+    <t xml:space="preserve">0.179929465055466</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165111750364304</t>
+    <t xml:space="preserve">0.165111765265465</t>
   </si>
   <si>
     <t xml:space="preserve">0.170050993561745</t>
@@ -230,7 +230,7 @@
     <t xml:space="preserve">0.166522964835167</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162289336323738</t>
+    <t xml:space="preserve">0.162289321422577</t>
   </si>
   <si>
     <t xml:space="preserve">0.177812665700912</t>
@@ -245,16 +245,16 @@
     <t xml:space="preserve">0.193335980176926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.204978466033936</t>
+    <t xml:space="preserve">0.204978480935097</t>
   </si>
   <si>
     <t xml:space="preserve">0.225088268518448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.217326566576958</t>
+    <t xml:space="preserve">0.217326581478119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199968680739403</t>
+    <t xml:space="preserve">0.199968695640564</t>
   </si>
   <si>
     <t xml:space="preserve">0.214151367545128</t>
@@ -275,16 +275,16 @@
     <t xml:space="preserve">0.239200383424759</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243363425135612</t>
+    <t xml:space="preserve">0.243363454937935</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261074125766754</t>
+    <t xml:space="preserve">0.261074155569077</t>
   </si>
   <si>
-    <t xml:space="preserve">0.267424643039703</t>
+    <t xml:space="preserve">0.267424613237381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.282242327928543</t>
+    <t xml:space="preserve">0.282242298126221</t>
   </si>
   <si>
     <t xml:space="preserve">0.299882501363754</t>
@@ -293,28 +293,28 @@
     <t xml:space="preserve">0.309055328369141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325989931821823</t>
+    <t xml:space="preserve">0.325989902019501</t>
   </si>
   <si>
     <t xml:space="preserve">0.335162758827209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.289298385381699</t>
+    <t xml:space="preserve">0.289298355579376</t>
   </si>
   <si>
-    <t xml:space="preserve">0.292050242424011</t>
+    <t xml:space="preserve">0.292050212621689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.280901670455933</t>
+    <t xml:space="preserve">0.28090164065361</t>
   </si>
   <si>
-    <t xml:space="preserve">0.280831128358841</t>
+    <t xml:space="preserve">0.280831098556519</t>
   </si>
   <si>
-    <t xml:space="preserve">0.272575527429581</t>
+    <t xml:space="preserve">0.272575557231903</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273069441318512</t>
+    <t xml:space="preserve">0.27306941151619</t>
   </si>
   <si>
     <t xml:space="preserve">0.273210555315018</t>
@@ -326,28 +326,28 @@
     <t xml:space="preserve">0.262485355138779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.236377954483032</t>
+    <t xml:space="preserve">0.23637792468071</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232285410165787</t>
+    <t xml:space="preserve">0.232285439968109</t>
   </si>
   <si>
     <t xml:space="preserve">0.237789168953896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.234331712126732</t>
+    <t xml:space="preserve">0.234331682324409</t>
   </si>
   <si>
     <t xml:space="preserve">0.266718983650208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.275186240673065</t>
+    <t xml:space="preserve">0.275186270475388</t>
   </si>
   <si>
     <t xml:space="preserve">0.259098440408707</t>
   </si>
   <si>
-    <t xml:space="preserve">0.255429238080978</t>
+    <t xml:space="preserve">0.255429297685623</t>
   </si>
   <si>
     <t xml:space="preserve">0.264602184295654</t>
@@ -356,13 +356,13 @@
     <t xml:space="preserve">0.254018098115921</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250490069389343</t>
+    <t xml:space="preserve">0.250490039587021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243434011936188</t>
+    <t xml:space="preserve">0.243433967232704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249643310904503</t>
+    <t xml:space="preserve">0.249643340706825</t>
   </si>
   <si>
     <t xml:space="preserve">0.239270925521851</t>
@@ -374,85 +374,85 @@
     <t xml:space="preserve">0.229321882128716</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232144325971603</t>
+    <t xml:space="preserve">0.232144311070442</t>
   </si>
   <si>
     <t xml:space="preserve">0.231438726186752</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232849910855293</t>
+    <t xml:space="preserve">0.232849925756454</t>
   </si>
   <si>
     <t xml:space="preserve">0.234402239322662</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237930253148079</t>
+    <t xml:space="preserve">0.237930238246918</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253312438726425</t>
+    <t xml:space="preserve">0.253312468528748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.24682092666626</t>
+    <t xml:space="preserve">0.246820911765099</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247879326343536</t>
+    <t xml:space="preserve">0.247879296541214</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25761666893959</t>
+    <t xml:space="preserve">0.257616698741913</t>
   </si>
   <si>
-    <t xml:space="preserve">0.263120412826538</t>
+    <t xml:space="preserve">0.263120383024216</t>
   </si>
   <si>
     <t xml:space="preserve">0.252042382955551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246962025761604</t>
+    <t xml:space="preserve">0.246962040662766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246679797768593</t>
+    <t xml:space="preserve">0.246679812669754</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243504524230957</t>
+    <t xml:space="preserve">0.243504554033279</t>
   </si>
   <si>
-    <t xml:space="preserve">0.259662955999374</t>
+    <t xml:space="preserve">0.259662926197052</t>
   </si>
   <si>
     <t xml:space="preserve">0.243645697832108</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250701695680618</t>
+    <t xml:space="preserve">0.250701755285263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333610415458679</t>
+    <t xml:space="preserve">0.333610385656357</t>
   </si>
   <si>
     <t xml:space="preserve">0.395139247179031</t>
   </si>
   <si>
-    <t xml:space="preserve">0.522148251533508</t>
+    <t xml:space="preserve">0.522148311138153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.612465739250183</t>
+    <t xml:space="preserve">0.612465798854828</t>
   </si>
   <si>
-    <t xml:space="preserve">0.535554766654968</t>
+    <t xml:space="preserve">0.535554707050323</t>
   </si>
   <si>
-    <t xml:space="preserve">0.490395992994308</t>
+    <t xml:space="preserve">0.490396022796631</t>
   </si>
   <si>
-    <t xml:space="preserve">0.473814308643341</t>
+    <t xml:space="preserve">0.473814278841019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44453164935112</t>
+    <t xml:space="preserve">0.444531619548798</t>
   </si>
   <si>
     <t xml:space="preserve">0.40925133228302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464994221925735</t>
+    <t xml:space="preserve">0.464994162321091</t>
   </si>
   <si>
     <t xml:space="preserve">0.412426620721817</t>
@@ -461,16 +461,16 @@
     <t xml:space="preserve">0.419835448265076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388788789510727</t>
+    <t xml:space="preserve">0.388788759708405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36585658788681</t>
+    <t xml:space="preserve">0.365856558084488</t>
   </si>
   <si>
     <t xml:space="preserve">0.353508502244949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366562247276306</t>
+    <t xml:space="preserve">0.366562217473984</t>
   </si>
   <si>
     <t xml:space="preserve">0.375382304191589</t>
@@ -488,13 +488,13 @@
     <t xml:space="preserve">0.366914987564087</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357389360666275</t>
+    <t xml:space="preserve">0.357389330863953</t>
   </si>
   <si>
     <t xml:space="preserve">0.360564559698105</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373971045017242</t>
+    <t xml:space="preserve">0.373971074819565</t>
   </si>
   <si>
     <t xml:space="preserve">0.370443016290665</t>
@@ -524,43 +524,43 @@
     <t xml:space="preserve">0.368679016828537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36268138885498</t>
+    <t xml:space="preserve">0.362681359052658</t>
   </si>
   <si>
     <t xml:space="preserve">0.368326246738434</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338690787553787</t>
+    <t xml:space="preserve">0.338690757751465</t>
   </si>
   <si>
     <t xml:space="preserve">0.348569244146347</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349204272031784</t>
+    <t xml:space="preserve">0.349204301834106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359858959913254</t>
+    <t xml:space="preserve">0.359858930110931</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365503787994385</t>
+    <t xml:space="preserve">0.365503817796707</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402195274829865</t>
+    <t xml:space="preserve">0.402195334434509</t>
   </si>
   <si>
     <t xml:space="preserve">0.38102713227272</t>
   </si>
   <si>
-    <t xml:space="preserve">0.381732761859894</t>
+    <t xml:space="preserve">0.381732791662216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358447760343552</t>
+    <t xml:space="preserve">0.358447730541229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37926310300827</t>
+    <t xml:space="preserve">0.379263162612915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353155732154846</t>
+    <t xml:space="preserve">0.353155702352524</t>
   </si>
   <si>
     <t xml:space="preserve">0.367973417043686</t>
@@ -569,31 +569,31 @@
     <t xml:space="preserve">0.437475591897964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414896190166473</t>
+    <t xml:space="preserve">0.414896219968796</t>
   </si>
   <si>
     <t xml:space="preserve">0.414190590381622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415601819753647</t>
+    <t xml:space="preserve">0.415601789951324</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408192962408066</t>
+    <t xml:space="preserve">0.408192932605743</t>
   </si>
   <si>
     <t xml:space="preserve">0.416307389736176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387377619743347</t>
+    <t xml:space="preserve">0.387377589941025</t>
   </si>
   <si>
     <t xml:space="preserve">0.392669647932053</t>
   </si>
   <si>
-    <t xml:space="preserve">0.39796170592308</t>
+    <t xml:space="preserve">0.397961646318436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412073820829391</t>
+    <t xml:space="preserve">0.412073791027069</t>
   </si>
   <si>
     <t xml:space="preserve">0.436417192220688</t>
@@ -602,22 +602,22 @@
     <t xml:space="preserve">0.43959242105484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424069106578827</t>
+    <t xml:space="preserve">0.424069076776505</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423363476991653</t>
+    <t xml:space="preserve">0.423363506793976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434653133153915</t>
+    <t xml:space="preserve">0.434653162956238</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423716276884079</t>
+    <t xml:space="preserve">0.423716306686401</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457938194274902</t>
+    <t xml:space="preserve">0.457938224077225</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465699821710587</t>
+    <t xml:space="preserve">0.465699851512909</t>
   </si>
   <si>
     <t xml:space="preserve">0.440298020839691</t>
@@ -626,7 +626,7 @@
     <t xml:space="preserve">0.423010677099228</t>
   </si>
   <si>
-    <t xml:space="preserve">0.433947592973709</t>
+    <t xml:space="preserve">0.433947563171387</t>
   </si>
   <si>
     <t xml:space="preserve">0.529204368591309</t>
@@ -638,28 +638,28 @@
     <t xml:space="preserve">0.508036196231842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.486868023872375</t>
+    <t xml:space="preserve">0.486867934465408</t>
   </si>
   <si>
     <t xml:space="preserve">0.491807252168655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.500980138778687</t>
+    <t xml:space="preserve">0.500980079174042</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493924051523209</t>
+    <t xml:space="preserve">0.493924081325531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474167108535767</t>
+    <t xml:space="preserve">0.474167078733444</t>
   </si>
   <si>
-    <t xml:space="preserve">0.476989477872849</t>
+    <t xml:space="preserve">0.476989537477493</t>
   </si>
   <si>
-    <t xml:space="preserve">0.472755908966064</t>
+    <t xml:space="preserve">0.47275584936142</t>
   </si>
   <si>
-    <t xml:space="preserve">0.460054934024811</t>
+    <t xml:space="preserve">0.460054993629456</t>
   </si>
   <si>
     <t xml:space="preserve">0.455821394920349</t>
@@ -668,7 +668,7 @@
     <t xml:space="preserve">0.458643764257431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464288651943207</t>
+    <t xml:space="preserve">0.464288622140884</t>
   </si>
   <si>
     <t xml:space="preserve">0.451587677001953</t>
@@ -677,10 +677,10 @@
     <t xml:space="preserve">0.485456794500351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.468522220849991</t>
+    <t xml:space="preserve">0.468522250652313</t>
   </si>
   <si>
-    <t xml:space="preserve">0.519325911998749</t>
+    <t xml:space="preserve">0.519325852394104</t>
   </si>
   <si>
     <t xml:space="preserve">0.479811936616898</t>
@@ -689,19 +689,19 @@
     <t xml:space="preserve">0.448765307664871</t>
   </si>
   <si>
-    <t xml:space="preserve">0.469933450222015</t>
+    <t xml:space="preserve">0.469933420419693</t>
   </si>
   <si>
     <t xml:space="preserve">0.475578337907791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461466163396835</t>
+    <t xml:space="preserve">0.461466193199158</t>
   </si>
   <si>
-    <t xml:space="preserve">0.447354078292847</t>
+    <t xml:space="preserve">0.447354108095169</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45441010594368</t>
+    <t xml:space="preserve">0.454410076141357</t>
   </si>
   <si>
     <t xml:space="preserve">0.429008334875107</t>
@@ -716,10 +716,10 @@
     <t xml:space="preserve">0.452998965978622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.484045594930649</t>
+    <t xml:space="preserve">0.484045565128326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47134467959404</t>
+    <t xml:space="preserve">0.471344649791718</t>
   </si>
   <si>
     <t xml:space="preserve">0.457232564687729</t>
@@ -734,40 +734,40 @@
     <t xml:space="preserve">0.450176537036896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.467111080884933</t>
+    <t xml:space="preserve">0.467110991477966</t>
   </si>
   <si>
     <t xml:space="preserve">0.406428933143616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410662561655045</t>
+    <t xml:space="preserve">0.410662591457367</t>
   </si>
   <si>
     <t xml:space="preserve">0.40784016251564</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382438361644745</t>
+    <t xml:space="preserve">0.382438331842422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369737446308136</t>
+    <t xml:space="preserve">0.369737416505814</t>
   </si>
   <si>
     <t xml:space="preserve">0.403606534004211</t>
   </si>
   <si>
-    <t xml:space="preserve">0.400784075260162</t>
+    <t xml:space="preserve">0.400784105062485</t>
   </si>
   <si>
     <t xml:space="preserve">0.386671960353851</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378204673528671</t>
+    <t xml:space="preserve">0.378204703330994</t>
   </si>
   <si>
     <t xml:space="preserve">0.379615902900696</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388083219528198</t>
+    <t xml:space="preserve">0.388083249330521</t>
   </si>
   <si>
     <t xml:space="preserve">0.4177186191082</t>
@@ -779,7 +779,7 @@
     <t xml:space="preserve">0.396550446748734</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405017763376236</t>
+    <t xml:space="preserve">0.405017703771591</t>
   </si>
   <si>
     <t xml:space="preserve">0.424774646759033</t>
@@ -788,22 +788,22 @@
     <t xml:space="preserve">0.421952247619629</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419129818677902</t>
+    <t xml:space="preserve">0.41912978887558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431830704212189</t>
+    <t xml:space="preserve">0.431830763816833</t>
   </si>
   <si>
     <t xml:space="preserve">0.438886791467667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.441709250211716</t>
+    <t xml:space="preserve">0.441709190607071</t>
   </si>
   <si>
     <t xml:space="preserve">0.476283937692642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.483339965343475</t>
+    <t xml:space="preserve">0.48334002494812</t>
   </si>
   <si>
     <t xml:space="preserve">0.504508137702942</t>
@@ -812,28 +812,28 @@
     <t xml:space="preserve">0.511564254760742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.520832777023315</t>
+    <t xml:space="preserve">0.520832717418671</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497511863708496</t>
+    <t xml:space="preserve">0.497511833906174</t>
   </si>
   <si>
-    <t xml:space="preserve">0.481964647769928</t>
+    <t xml:space="preserve">0.481964617967606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.466417402029037</t>
+    <t xml:space="preserve">0.46641743183136</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478077858686447</t>
+    <t xml:space="preserve">0.478077828884125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.489738255739212</t>
+    <t xml:space="preserve">0.48973822593689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493625104427338</t>
+    <t xml:space="preserve">0.493625074625015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.485851436853409</t>
+    <t xml:space="preserve">0.485851466655731</t>
   </si>
   <si>
     <t xml:space="preserve">0.470304220914841</t>
@@ -842,13 +842,13 @@
     <t xml:space="preserve">0.458643734455109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450870126485825</t>
+    <t xml:space="preserve">0.450870096683502</t>
   </si>
   <si>
     <t xml:space="preserve">0.462530583143234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.435322910547256</t>
+    <t xml:space="preserve">0.435322880744934</t>
   </si>
   <si>
     <t xml:space="preserve">0.439209669828415</t>
@@ -869,19 +869,19 @@
     <t xml:space="preserve">0.505285501480103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513059079647064</t>
+    <t xml:space="preserve">0.513059139251709</t>
   </si>
   <si>
     <t xml:space="preserve">0.509172260761261</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446983337402344</t>
+    <t xml:space="preserve">0.446983307600021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.443096488714218</t>
+    <t xml:space="preserve">0.443096548318863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.427549302577972</t>
+    <t xml:space="preserve">0.427549332380295</t>
   </si>
   <si>
     <t xml:space="preserve">0.419775664806366</t>
@@ -890,31 +890,31 @@
     <t xml:space="preserve">0.404228389263153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415888875722885</t>
+    <t xml:space="preserve">0.415888845920563</t>
   </si>
   <si>
     <t xml:space="preserve">0.431436091661453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412001997232437</t>
+    <t xml:space="preserve">0.41200202703476</t>
   </si>
   <si>
     <t xml:space="preserve">0.3824622631073</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380907505750656</t>
+    <t xml:space="preserve">0.380907535552979</t>
   </si>
   <si>
     <t xml:space="preserve">0.396454751491547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388681143522263</t>
+    <t xml:space="preserve">0.388681173324585</t>
   </si>
   <si>
     <t xml:space="preserve">0.373133897781372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349813014268875</t>
+    <t xml:space="preserve">0.349813044071198</t>
   </si>
   <si>
     <t xml:space="preserve">0.352922469377518</t>
@@ -923,55 +923,55 @@
     <t xml:space="preserve">0.326492130756378</t>
   </si>
   <si>
-    <t xml:space="preserve">0.290733486413956</t>
+    <t xml:space="preserve">0.290733516216278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312499612569809</t>
+    <t xml:space="preserve">0.312499642372131</t>
   </si>
   <si>
     <t xml:space="preserve">0.29539766907692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.306280702352524</t>
+    <t xml:space="preserve">0.306280761957169</t>
   </si>
   <si>
-    <t xml:space="preserve">0.293842911720276</t>
+    <t xml:space="preserve">0.293842941522598</t>
   </si>
   <si>
     <t xml:space="preserve">0.279850453138351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273631542921066</t>
+    <t xml:space="preserve">0.273631513118744</t>
   </si>
   <si>
-    <t xml:space="preserve">0.320273250341415</t>
+    <t xml:space="preserve">0.320273280143738</t>
   </si>
   <si>
-    <t xml:space="preserve">0.321827977895737</t>
+    <t xml:space="preserve">0.321828007698059</t>
   </si>
   <si>
     <t xml:space="preserve">0.304726034402847</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314054399728775</t>
+    <t xml:space="preserve">0.314054369926453</t>
   </si>
   <si>
     <t xml:space="preserve">0.315609067678452</t>
   </si>
   <si>
-    <t xml:space="preserve">0.331156313419342</t>
+    <t xml:space="preserve">0.331156343221664</t>
   </si>
   <si>
     <t xml:space="preserve">0.34048467874527</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346703588962555</t>
+    <t xml:space="preserve">0.346703618764877</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379352778196335</t>
+    <t xml:space="preserve">0.379352807998657</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365360260009766</t>
+    <t xml:space="preserve">0.365360289812088</t>
   </si>
   <si>
     <t xml:space="preserve">0.359141409397125</t>
@@ -983,28 +983,28 @@
     <t xml:space="preserve">0.408115178346634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423662453889847</t>
+    <t xml:space="preserve">0.423662483692169</t>
   </si>
   <si>
     <t xml:space="preserve">0.368469715118408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.371579140424728</t>
+    <t xml:space="preserve">0.371579200029373</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377798080444336</t>
+    <t xml:space="preserve">0.377798110246658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.392567992210388</t>
+    <t xml:space="preserve">0.392567962408066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387126415967941</t>
+    <t xml:space="preserve">0.387126445770264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362250775098801</t>
+    <t xml:space="preserve">0.362250834703445</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363805562257767</t>
+    <t xml:space="preserve">0.363805592060089</t>
   </si>
   <si>
     <t xml:space="preserve">0.360696077346802</t>
@@ -1013,10 +1013,10 @@
     <t xml:space="preserve">0.357586652040482</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34359410405159</t>
+    <t xml:space="preserve">0.343594133853912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35603192448616</t>
+    <t xml:space="preserve">0.356031954288483</t>
   </si>
   <si>
     <t xml:space="preserve">0.342039406299591</t>
@@ -1028,43 +1028,43 @@
     <t xml:space="preserve">0.318718522787094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.323382705450058</t>
+    <t xml:space="preserve">0.32338273525238</t>
   </si>
   <si>
-    <t xml:space="preserve">0.296952396631241</t>
+    <t xml:space="preserve">0.296952426433563</t>
   </si>
   <si>
     <t xml:space="preserve">0.300061851739883</t>
   </si>
   <si>
-    <t xml:space="preserve">0.292288243770599</t>
+    <t xml:space="preserve">0.292288213968277</t>
   </si>
   <si>
-    <t xml:space="preserve">0.298507124185562</t>
+    <t xml:space="preserve">0.298507153987885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.303171277046204</t>
+    <t xml:space="preserve">0.303171306848526</t>
   </si>
   <si>
     <t xml:space="preserve">0.31094491481781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.328046888113022</t>
+    <t xml:space="preserve">0.328046917915344</t>
   </si>
   <si>
     <t xml:space="preserve">0.332711070775986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.324937433004379</t>
+    <t xml:space="preserve">0.324937492609024</t>
   </si>
   <si>
-    <t xml:space="preserve">0.48250076174736</t>
+    <t xml:space="preserve">0.482500702142715</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448641031980515</t>
+    <t xml:space="preserve">0.44864097237587</t>
   </si>
   <si>
-    <t xml:space="preserve">0.435943603515625</t>
+    <t xml:space="preserve">0.43594366312027</t>
   </si>
   <si>
     <t xml:space="preserve">0.423246264457703</t>
@@ -1073,46 +1073,46 @@
     <t xml:space="preserve">0.40631639957428</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414781332015991</t>
+    <t xml:space="preserve">0.414781361818314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408009380102158</t>
+    <t xml:space="preserve">0.40800940990448</t>
   </si>
   <si>
     <t xml:space="preserve">0.427478700876236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419860303401947</t>
+    <t xml:space="preserve">0.419860273599625</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409702360630035</t>
+    <t xml:space="preserve">0.409702390432358</t>
   </si>
   <si>
     <t xml:space="preserve">0.392772525548935</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386000573635101</t>
+    <t xml:space="preserve">0.386000603437424</t>
   </si>
   <si>
     <t xml:space="preserve">0.384307593107224</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380921632051468</t>
+    <t xml:space="preserve">0.380921602249146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.396158516407013</t>
+    <t xml:space="preserve">0.396158486604691</t>
   </si>
   <si>
     <t xml:space="preserve">0.389386564493179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394465506076813</t>
+    <t xml:space="preserve">0.394465535879135</t>
   </si>
   <si>
     <t xml:space="preserve">0.377535670995712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.375842720270157</t>
+    <t xml:space="preserve">0.375842690467834</t>
   </si>
   <si>
     <t xml:space="preserve">0.39107957482338</t>
@@ -1127,22 +1127,22 @@
     <t xml:space="preserve">0.507895529270172</t>
   </si>
   <si>
-    <t xml:space="preserve">0.499430537223816</t>
+    <t xml:space="preserve">0.499430567026138</t>
   </si>
   <si>
-    <t xml:space="preserve">0.495198041200638</t>
+    <t xml:space="preserve">0.495198100805283</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465570896863937</t>
+    <t xml:space="preserve">0.46557092666626</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452873557806015</t>
+    <t xml:space="preserve">0.452873528003693</t>
   </si>
   <si>
     <t xml:space="preserve">0.440176069736481</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431711196899414</t>
+    <t xml:space="preserve">0.431711167097092</t>
   </si>
   <si>
     <t xml:space="preserve">0.444408565759659</t>
@@ -1151,34 +1151,34 @@
     <t xml:space="preserve">0.457105994224548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.418167263269424</t>
+    <t xml:space="preserve">0.418167293071747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.411395400762558</t>
+    <t xml:space="preserve">0.411395370960236</t>
   </si>
   <si>
     <t xml:space="preserve">0.397851496934891</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387693583965302</t>
+    <t xml:space="preserve">0.387693554162979</t>
   </si>
   <si>
     <t xml:space="preserve">0.382614612579346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.416474312543869</t>
+    <t xml:space="preserve">0.416474342346191</t>
   </si>
   <si>
     <t xml:space="preserve">0.404623419046402</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413088381290436</t>
+    <t xml:space="preserve">0.413088351488113</t>
   </si>
   <si>
     <t xml:space="preserve">0.402930438518524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355526864528656</t>
+    <t xml:space="preserve">0.355526834726334</t>
   </si>
   <si>
     <t xml:space="preserve">0.336904019117355</t>
@@ -1190,7 +1190,7 @@
     <t xml:space="preserve">0.357219845056534</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358912795782089</t>
+    <t xml:space="preserve">0.358912825584412</t>
   </si>
   <si>
     <t xml:space="preserve">0.363991796970367</t>
@@ -1199,10 +1199,10 @@
     <t xml:space="preserve">0.367377758026123</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370763689279556</t>
+    <t xml:space="preserve">0.370763719081879</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372456699609756</t>
+    <t xml:space="preserve">0.372456729412079</t>
   </si>
   <si>
     <t xml:space="preserve">0.379228681325912</t>
@@ -1214,7 +1214,7 @@
     <t xml:space="preserve">0.347061932086945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345368981361389</t>
+    <t xml:space="preserve">0.345368951559067</t>
   </si>
   <si>
     <t xml:space="preserve">0.340290009975433</t>
@@ -1223,25 +1223,25 @@
     <t xml:space="preserve">0.3521409034729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36229881644249</t>
+    <t xml:space="preserve">0.362298786640167</t>
   </si>
   <si>
     <t xml:space="preserve">0.356533944606781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361855357885361</t>
+    <t xml:space="preserve">0.361855328083038</t>
   </si>
   <si>
     <t xml:space="preserve">0.352986335754395</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358307749032974</t>
+    <t xml:space="preserve">0.358307719230652</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372498154640198</t>
+    <t xml:space="preserve">0.372498095035553</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374271959066391</t>
+    <t xml:space="preserve">0.374271929264069</t>
   </si>
   <si>
     <t xml:space="preserve">0.360081523656845</t>
@@ -1259,7 +1259,7 @@
     <t xml:space="preserve">0.328153133392334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338795930147171</t>
+    <t xml:space="preserve">0.338795900344849</t>
   </si>
   <si>
     <t xml:space="preserve">0.354760140180588</t>
@@ -1274,7 +1274,7 @@
     <t xml:space="preserve">0.326379328966141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317510306835175</t>
+    <t xml:space="preserve">0.317510336637497</t>
   </si>
   <si>
     <t xml:space="preserve">0.322831720113754</t>
@@ -1283,16 +1283,16 @@
     <t xml:space="preserve">0.31396272778511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.310415089130402</t>
+    <t xml:space="preserve">0.310415118932724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312188923358917</t>
+    <t xml:space="preserve">0.312188893556595</t>
   </si>
   <si>
     <t xml:space="preserve">0.303319931030273</t>
   </si>
   <si>
-    <t xml:space="preserve">0.315736562013626</t>
+    <t xml:space="preserve">0.315736532211304</t>
   </si>
   <si>
     <t xml:space="preserve">0.305093705654144</t>
@@ -1304,37 +1304,37 @@
     <t xml:space="preserve">0.321057915687561</t>
   </si>
   <si>
-    <t xml:space="preserve">0.33170074224472</t>
+    <t xml:space="preserve">0.331700712442398</t>
   </si>
   <si>
     <t xml:space="preserve">0.333474516868591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345891118049622</t>
+    <t xml:space="preserve">0.345891088247299</t>
   </si>
   <si>
     <t xml:space="preserve">0.324605524539948</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38846230506897</t>
+    <t xml:space="preserve">0.388462334871292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379593342542648</t>
+    <t xml:space="preserve">0.379593312740326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.381367176771164</t>
+    <t xml:space="preserve">0.381367146968842</t>
   </si>
   <si>
     <t xml:space="preserve">0.383140951395035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.376045703887939</t>
+    <t xml:space="preserve">0.376045733690262</t>
   </si>
   <si>
     <t xml:space="preserve">0.377819538116455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395557552576065</t>
+    <t xml:space="preserve">0.395557582378387</t>
   </si>
   <si>
     <t xml:space="preserve">0.331567615270615</t>
@@ -1349,7 +1349,7 @@
     <t xml:space="preserve">0.320068180561066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.321984767913818</t>
+    <t xml:space="preserve">0.321984738111496</t>
   </si>
   <si>
     <t xml:space="preserve">0.33731734752655</t>
@@ -1361,19 +1361,19 @@
     <t xml:space="preserve">0.318151593208313</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312401860952377</t>
+    <t xml:space="preserve">0.3124018907547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.323901325464249</t>
+    <t xml:space="preserve">0.323901355266571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314318478107452</t>
+    <t xml:space="preserve">0.31431844830513</t>
   </si>
   <si>
     <t xml:space="preserve">0.306652128696442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.310485273599625</t>
+    <t xml:space="preserve">0.310485303401947</t>
   </si>
   <si>
     <t xml:space="preserve">0.302819013595581</t>
@@ -1382,16 +1382,16 @@
     <t xml:space="preserve">0.316235065460205</t>
   </si>
   <si>
-    <t xml:space="preserve">0.308568716049194</t>
+    <t xml:space="preserve">0.308568745851517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.304735541343689</t>
+    <t xml:space="preserve">0.304735571146011</t>
   </si>
   <si>
     <t xml:space="preserve">0.300902426242828</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341150492429733</t>
+    <t xml:space="preserve">0.341150522232056</t>
   </si>
   <si>
     <t xml:space="preserve">0.329651057720184</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">0.339233934879303</t>
   </si>
   <si>
-    <t xml:space="preserve">0.343067109584808</t>
+    <t xml:space="preserve">0.343067079782486</t>
   </si>
   <si>
     <t xml:space="preserve">0.344983696937561</t>
@@ -1409,16 +1409,16 @@
     <t xml:space="preserve">0.364149421453476</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358399718999863</t>
+    <t xml:space="preserve">0.35839968919754</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346900254487991</t>
+    <t xml:space="preserve">0.346900224685669</t>
   </si>
   <si>
     <t xml:space="preserve">0.352649986743927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350733399391174</t>
+    <t xml:space="preserve">0.350733369588852</t>
   </si>
   <si>
     <t xml:space="preserve">0.348816812038422</t>
@@ -1485,6 +1485,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.316000014543533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.328000009059906</t>
   </si>
 </sst>
 </file>
@@ -59260,7 +59263,7 @@
     </row>
     <row r="2210">
       <c r="A2210" s="1" t="n">
-        <v>45540.4223842593</v>
+        <v>45540.2916666667</v>
       </c>
       <c r="B2210" t="n">
         <v>36000</v>
@@ -59281,6 +59284,32 @@
         <v>484</v>
       </c>
       <c r="H2210" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2211">
+      <c r="A2211" s="1" t="n">
+        <v>45541.6286226852</v>
+      </c>
+      <c r="B2211" t="n">
+        <v>12000</v>
+      </c>
+      <c r="C2211" t="n">
+        <v>0.328000009059906</v>
+      </c>
+      <c r="D2211" t="n">
+        <v>0.324000000953674</v>
+      </c>
+      <c r="E2211" t="n">
+        <v>0.324000000953674</v>
+      </c>
+      <c r="F2211" t="n">
+        <v>0.328000009059906</v>
+      </c>
+      <c r="G2211" t="s">
+        <v>491</v>
+      </c>
+      <c r="H2211" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/POPR.MI.xlsx
+++ b/data/POPR.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="493">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193052023649216</t>
+    <t xml:space="preserve">0.193052038550377</t>
   </si>
   <si>
     <t xml:space="preserve">POPR.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193741515278816</t>
+    <t xml:space="preserve">0.193741485476494</t>
   </si>
   <si>
     <t xml:space="preserve">0.18960465490818</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188225716352463</t>
+    <t xml:space="preserve">0.188225731253624</t>
   </si>
   <si>
     <t xml:space="preserve">0.179952070116997</t>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">0.186157330870628</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163404732942581</t>
+    <t xml:space="preserve">0.163404762744904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157199516892433</t>
+    <t xml:space="preserve">0.157199501991272</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164301082491875</t>
+    <t xml:space="preserve">0.164301067590714</t>
   </si>
   <si>
     <t xml:space="preserve">0.15926793217659</t>
@@ -74,10 +74,10 @@
     <t xml:space="preserve">0.167541578412056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168231070041656</t>
+    <t xml:space="preserve">0.168231055140495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165404230356216</t>
+    <t xml:space="preserve">0.165404215455055</t>
   </si>
   <si>
     <t xml:space="preserve">0.160646870732307</t>
@@ -86,13 +86,13 @@
     <t xml:space="preserve">0.153407409787178</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153062701225281</t>
+    <t xml:space="preserve">0.15306268632412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153476357460022</t>
+    <t xml:space="preserve">0.153476372361183</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155820563435555</t>
+    <t xml:space="preserve">0.155820578336716</t>
   </si>
   <si>
     <t xml:space="preserve">0.15237320959568</t>
@@ -101,70 +101,70 @@
     <t xml:space="preserve">0.165748968720436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186846777796745</t>
+    <t xml:space="preserve">0.186846792697906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182985723018646</t>
+    <t xml:space="preserve">0.182985752820969</t>
   </si>
   <si>
     <t xml:space="preserve">0.179262593388557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172367870807648</t>
+    <t xml:space="preserve">0.172367885708809</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169610023498535</t>
+    <t xml:space="preserve">0.169609993696213</t>
   </si>
   <si>
     <t xml:space="preserve">0.164094224572182</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170782119035721</t>
+    <t xml:space="preserve">0.17078210413456</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176504716277122</t>
+    <t xml:space="preserve">0.176504731178284</t>
   </si>
   <si>
     <t xml:space="preserve">0.174367353320122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194499909877777</t>
+    <t xml:space="preserve">0.194499924778938</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194430992007256</t>
+    <t xml:space="preserve">0.194430977106094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187536284327507</t>
+    <t xml:space="preserve">0.187536269426346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182020470499992</t>
+    <t xml:space="preserve">0.182020485401154</t>
   </si>
   <si>
     <t xml:space="preserve">0.206841468811035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211323037743568</t>
+    <t xml:space="preserve">0.211323022842407</t>
   </si>
   <si>
     <t xml:space="preserve">0.210288822650909</t>
   </si>
   <si>
-    <t xml:space="preserve">0.202015161514282</t>
+    <t xml:space="preserve">0.202015191316605</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199257284402847</t>
+    <t xml:space="preserve">0.199257269501686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220630884170532</t>
+    <t xml:space="preserve">0.220630869269371</t>
   </si>
   <si>
     <t xml:space="preserve">0.228904530405998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220561966300011</t>
+    <t xml:space="preserve">0.220561951398849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.215804576873779</t>
+    <t xml:space="preserve">0.21580459177494</t>
   </si>
   <si>
     <t xml:space="preserve">0.213046714663506</t>
@@ -176,10 +176,10 @@
     <t xml:space="preserve">0.199946731328964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186295196413994</t>
+    <t xml:space="preserve">0.186295211315155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184778392314911</t>
+    <t xml:space="preserve">0.18477837741375</t>
   </si>
   <si>
     <t xml:space="preserve">0.17857314646244</t>
@@ -191,13 +191,13 @@
     <t xml:space="preserve">0.182709947228432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172298952937126</t>
+    <t xml:space="preserve">0.172298938035965</t>
   </si>
   <si>
     <t xml:space="preserve">0.166852116584778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168920531868935</t>
+    <t xml:space="preserve">0.168920516967773</t>
   </si>
   <si>
     <t xml:space="preserve">0.172919481992722</t>
@@ -206,100 +206,100 @@
     <t xml:space="preserve">0.2040835916996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206151962280273</t>
+    <t xml:space="preserve">0.206151977181435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.201325654983521</t>
+    <t xml:space="preserve">0.201325684785843</t>
   </si>
   <si>
-    <t xml:space="preserve">0.19932621717453</t>
+    <t xml:space="preserve">0.199326202273369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183399453759193</t>
+    <t xml:space="preserve">0.183399423956871</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175815224647522</t>
+    <t xml:space="preserve">0.175815254449844</t>
   </si>
   <si>
     <t xml:space="preserve">0.161336347460747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166162639856339</t>
+    <t xml:space="preserve">0.166162624955177</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162715286016464</t>
+    <t xml:space="preserve">0.162715271115303</t>
   </si>
   <si>
     <t xml:space="preserve">0.158578455448151</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173746809363365</t>
+    <t xml:space="preserve">0.173746824264526</t>
   </si>
   <si>
     <t xml:space="preserve">0.181193128228188</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187191531062126</t>
+    <t xml:space="preserve">0.187191545963287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188915193080902</t>
+    <t xml:space="preserve">0.188915207982063</t>
   </si>
   <si>
-    <t xml:space="preserve">0.200291454792023</t>
+    <t xml:space="preserve">0.200291469693184</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219941422343254</t>
+    <t xml:space="preserve">0.219941407442093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.212357252836227</t>
+    <t xml:space="preserve">0.212357223033905</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195396244525909</t>
+    <t xml:space="preserve">0.195396229624748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.20925460755825</t>
+    <t xml:space="preserve">0.209254592657089</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220493003726006</t>
+    <t xml:space="preserve">0.220492959022522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.213736191391945</t>
+    <t xml:space="preserve">0.213736176490784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210357770323753</t>
+    <t xml:space="preserve">0.210357755422592</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219251930713654</t>
+    <t xml:space="preserve">0.219251945614815</t>
   </si>
   <si>
     <t xml:space="preserve">0.233730837702751</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237798735499382</t>
+    <t xml:space="preserve">0.237798720598221</t>
   </si>
   <si>
-    <t xml:space="preserve">0.255104452371597</t>
+    <t xml:space="preserve">0.25510448217392</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261309742927551</t>
+    <t xml:space="preserve">0.261309713125229</t>
   </si>
   <si>
     <t xml:space="preserve">0.275788605213165</t>
   </si>
   <si>
-    <t xml:space="preserve">0.293025374412537</t>
+    <t xml:space="preserve">0.293025404214859</t>
   </si>
   <si>
-    <t xml:space="preserve">0.301988542079926</t>
+    <t xml:space="preserve">0.301988512277603</t>
   </si>
   <si>
     <t xml:space="preserve">0.31853586435318</t>
   </si>
   <si>
-    <t xml:space="preserve">0.327498972415924</t>
+    <t xml:space="preserve">0.327498942613602</t>
   </si>
   <si>
-    <t xml:space="preserve">0.282683342695236</t>
+    <t xml:space="preserve">0.282683372497559</t>
   </si>
   <si>
     <t xml:space="preserve">0.285372287034988</t>
@@ -308,19 +308,19 @@
     <t xml:space="preserve">0.274478614330292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.274409681558609</t>
+    <t xml:space="preserve">0.274409651756287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.266342848539352</t>
+    <t xml:space="preserve">0.26634281873703</t>
   </si>
   <si>
-    <t xml:space="preserve">0.266825526952744</t>
+    <t xml:space="preserve">0.266825467348099</t>
   </si>
   <si>
-    <t xml:space="preserve">0.266963422298431</t>
+    <t xml:space="preserve">0.266963392496109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.251657158136368</t>
+    <t xml:space="preserve">0.251657098531723</t>
   </si>
   <si>
     <t xml:space="preserve">0.256483405828476</t>
@@ -332,106 +332,106 @@
     <t xml:space="preserve">0.22697402536869</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232351914048195</t>
+    <t xml:space="preserve">0.232351958751678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228973507881165</t>
+    <t xml:space="preserve">0.228973492980003</t>
   </si>
   <si>
     <t xml:space="preserve">0.26062023639679</t>
   </si>
   <si>
-    <t xml:space="preserve">0.268893927335739</t>
+    <t xml:space="preserve">0.268893897533417</t>
   </si>
   <si>
     <t xml:space="preserve">0.25317394733429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249588713049889</t>
+    <t xml:space="preserve">0.249588698148727</t>
   </si>
   <si>
-    <t xml:space="preserve">0.258551836013794</t>
+    <t xml:space="preserve">0.258551806211472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248209789395332</t>
+    <t xml:space="preserve">0.248209774494171</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244762390851974</t>
+    <t xml:space="preserve">0.244762361049652</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237867683172226</t>
+    <t xml:space="preserve">0.237867712974548</t>
   </si>
   <si>
     <t xml:space="preserve">0.243935033679008</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233799815177917</t>
+    <t xml:space="preserve">0.233799800276756</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220699861645699</t>
+    <t xml:space="preserve">0.220699816942215</t>
   </si>
   <si>
-    <t xml:space="preserve">0.224078252911568</t>
+    <t xml:space="preserve">0.224078238010406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226836130023003</t>
+    <t xml:space="preserve">0.226836174726486</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226146653294563</t>
+    <t xml:space="preserve">0.226146668195724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227525651454926</t>
+    <t xml:space="preserve">0.227525621652603</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229042425751686</t>
+    <t xml:space="preserve">0.22904247045517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232489794492722</t>
+    <t xml:space="preserve">0.23248977959156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247520282864571</t>
+    <t xml:space="preserve">0.247520267963409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241177141666412</t>
+    <t xml:space="preserve">0.24117711186409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.242211356759071</t>
+    <t xml:space="preserve">0.242211371660233</t>
   </si>
   <si>
-    <t xml:space="preserve">0.251726061105728</t>
+    <t xml:space="preserve">0.251726031303406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25710391998291</t>
+    <t xml:space="preserve">0.257103949785233</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246279254555702</t>
+    <t xml:space="preserve">0.24627922475338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2413150370121</t>
+    <t xml:space="preserve">0.241315022110939</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241039261221886</t>
+    <t xml:space="preserve">0.241039231419563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237936615943909</t>
+    <t xml:space="preserve">0.237936660647392</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253725558519363</t>
+    <t xml:space="preserve">0.253725528717041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238074496388435</t>
+    <t xml:space="preserve">0.238074511289597</t>
   </si>
   <si>
-    <t xml:space="preserve">0.24496927857399</t>
+    <t xml:space="preserve">0.244969233870506</t>
   </si>
   <si>
     <t xml:space="preserve">0.325982123613358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386104047298431</t>
+    <t xml:space="preserve">0.386104077100754</t>
   </si>
   <si>
-    <t xml:space="preserve">0.510208904743195</t>
+    <t xml:space="preserve">0.510208964347839</t>
   </si>
   <si>
     <t xml:space="preserve">0.598461210727692</t>
@@ -440,49 +440,49 @@
     <t xml:space="preserve">0.523308873176575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479182660579681</t>
+    <t xml:space="preserve">0.479182720184326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46298012137413</t>
+    <t xml:space="preserve">0.462980151176453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434367090463638</t>
+    <t xml:space="preserve">0.434367060661316</t>
   </si>
   <si>
     <t xml:space="preserve">0.399893462657928</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454361706972122</t>
+    <t xml:space="preserve">0.454361766576767</t>
   </si>
   <si>
     <t xml:space="preserve">0.402996122837067</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410235613584518</t>
+    <t xml:space="preserve">0.410235553979874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379898846149445</t>
+    <t xml:space="preserve">0.379898816347122</t>
   </si>
   <si>
     <t xml:space="preserve">0.357490986585617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345425218343735</t>
+    <t xml:space="preserve">0.345425248146057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358180433511734</t>
+    <t xml:space="preserve">0.358180463314056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366798907518387</t>
+    <t xml:space="preserve">0.366798847913742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353009432554245</t>
+    <t xml:space="preserve">0.353009462356567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382656663656235</t>
+    <t xml:space="preserve">0.38265672326088</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374383062124252</t>
+    <t xml:space="preserve">0.374383091926575</t>
   </si>
   <si>
     <t xml:space="preserve">0.358525186777115</t>
@@ -491,22 +491,22 @@
     <t xml:space="preserve">0.34921732544899</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352319955825806</t>
+    <t xml:space="preserve">0.352319926023483</t>
   </si>
   <si>
     <t xml:space="preserve">0.365419894456863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361972540616989</t>
+    <t xml:space="preserve">0.361972510814667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.348183125257492</t>
+    <t xml:space="preserve">0.34818309545517</t>
   </si>
   <si>
     <t xml:space="preserve">0.35576730966568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344735741615295</t>
+    <t xml:space="preserve">0.344735771417618</t>
   </si>
   <si>
     <t xml:space="preserve">0.341977894306183</t>
@@ -515,10 +515,10 @@
     <t xml:space="preserve">0.367143601179123</t>
   </si>
   <si>
-    <t xml:space="preserve">0.348872572183609</t>
+    <t xml:space="preserve">0.348872601985931</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34749361872673</t>
+    <t xml:space="preserve">0.347493648529053</t>
   </si>
   <si>
     <t xml:space="preserve">0.360248893499374</t>
@@ -533,13 +533,13 @@
     <t xml:space="preserve">0.330946326255798</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340598940849304</t>
+    <t xml:space="preserve">0.340598911046982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341219484806061</t>
+    <t xml:space="preserve">0.341219425201416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.351630449295044</t>
+    <t xml:space="preserve">0.351630508899689</t>
   </si>
   <si>
     <t xml:space="preserve">0.357146292924881</t>
@@ -557,46 +557,46 @@
     <t xml:space="preserve">0.35025155544281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370590955018997</t>
+    <t xml:space="preserve">0.37059098482132</t>
   </si>
   <si>
     <t xml:space="preserve">0.345080524682999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359559386968613</t>
+    <t xml:space="preserve">0.359559416770935</t>
   </si>
   <si>
-    <t xml:space="preserve">0.42747238278389</t>
+    <t xml:space="preserve">0.427472352981567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405409276485443</t>
+    <t xml:space="preserve">0.405409246683121</t>
   </si>
   <si>
-    <t xml:space="preserve">0.404719829559326</t>
+    <t xml:space="preserve">0.404719859361649</t>
   </si>
   <si>
     <t xml:space="preserve">0.40609872341156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398859292268753</t>
+    <t xml:space="preserve">0.398859232664108</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406788170337677</t>
+    <t xml:space="preserve">0.406788140535355</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378519922494888</t>
+    <t xml:space="preserve">0.378519892692566</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3836909532547</t>
+    <t xml:space="preserve">0.383690893650055</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388861984014511</t>
+    <t xml:space="preserve">0.388861954212189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402651309967041</t>
+    <t xml:space="preserve">0.402651369571686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.426438093185425</t>
+    <t xml:space="preserve">0.426438212394714</t>
   </si>
   <si>
     <t xml:space="preserve">0.429540783166885</t>
@@ -608,100 +608,100 @@
     <t xml:space="preserve">0.41368293762207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424714505672455</t>
+    <t xml:space="preserve">0.42471444606781</t>
   </si>
   <si>
     <t xml:space="preserve">0.414027631282806</t>
   </si>
   <si>
-    <t xml:space="preserve">0.447467029094696</t>
+    <t xml:space="preserve">0.447466999292374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.455051302909851</t>
+    <t xml:space="preserve">0.455051243305206</t>
   </si>
   <si>
     <t xml:space="preserve">0.430230230093002</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413338184356689</t>
+    <t xml:space="preserve">0.413338214159012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424025058746338</t>
+    <t xml:space="preserve">0.424025028944016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.517103672027588</t>
+    <t xml:space="preserve">0.517103612422943</t>
   </si>
   <si>
     <t xml:space="preserve">0.481940567493439</t>
   </si>
   <si>
-    <t xml:space="preserve">0.496419578790665</t>
+    <t xml:space="preserve">0.496419548988342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.475735366344452</t>
+    <t xml:space="preserve">0.475735425949097</t>
   </si>
   <si>
-    <t xml:space="preserve">0.480561703443527</t>
+    <t xml:space="preserve">0.480561643838882</t>
   </si>
   <si>
-    <t xml:space="preserve">0.489524781703949</t>
+    <t xml:space="preserve">0.489524722099304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4826300740242</t>
+    <t xml:space="preserve">0.482630044221878</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463324904441833</t>
+    <t xml:space="preserve">0.463324874639511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.466082781553268</t>
+    <t xml:space="preserve">0.466082751750946</t>
   </si>
   <si>
     <t xml:space="preserve">0.461945950984955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.449535399675369</t>
+    <t xml:space="preserve">0.449535459280014</t>
   </si>
   <si>
-    <t xml:space="preserve">0.445398658514023</t>
+    <t xml:space="preserve">0.4453986287117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448156505823135</t>
+    <t xml:space="preserve">0.448156476020813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453672260046005</t>
+    <t xml:space="preserve">0.453672349452972</t>
   </si>
   <si>
-    <t xml:space="preserve">0.441261768341064</t>
+    <t xml:space="preserve">0.441261738538742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474356383085251</t>
+    <t xml:space="preserve">0.474356442689896</t>
   </si>
   <si>
     <t xml:space="preserve">0.457809060811996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.507451117038727</t>
+    <t xml:space="preserve">0.507451057434082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.468840599060059</t>
+    <t xml:space="preserve">0.468840658664703</t>
   </si>
   <si>
-    <t xml:space="preserve">0.438503861427307</t>
+    <t xml:space="preserve">0.43850389122963</t>
   </si>
   <si>
-    <t xml:space="preserve">0.459188044071198</t>
+    <t xml:space="preserve">0.459188014268875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46470382809639</t>
+    <t xml:space="preserve">0.464703917503357</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450914323329926</t>
+    <t xml:space="preserve">0.45091438293457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437124967575073</t>
+    <t xml:space="preserve">0.437124937772751</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444019705057144</t>
+    <t xml:space="preserve">0.444019675254822</t>
   </si>
   <si>
     <t xml:space="preserve">0.41919869184494</t>
@@ -713,55 +713,55 @@
     <t xml:space="preserve">0.426093429327011</t>
   </si>
   <si>
-    <t xml:space="preserve">0.442640751600266</t>
+    <t xml:space="preserve">0.442640721797943</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47297739982605</t>
+    <t xml:space="preserve">0.472977459430695</t>
   </si>
   <si>
-    <t xml:space="preserve">0.460567027330399</t>
+    <t xml:space="preserve">0.460566967725754</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446777552366257</t>
+    <t xml:space="preserve">0.446777611970901</t>
   </si>
   <si>
     <t xml:space="preserve">0.43298813700676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452293306589127</t>
+    <t xml:space="preserve">0.452293336391449</t>
   </si>
   <si>
-    <t xml:space="preserve">0.439882844686508</t>
+    <t xml:space="preserve">0.439882814884186</t>
   </si>
   <si>
-    <t xml:space="preserve">0.456430107355118</t>
+    <t xml:space="preserve">0.456430166959763</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397135555744171</t>
+    <t xml:space="preserve">0.397135615348816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40127244591713</t>
+    <t xml:space="preserve">0.401272416114807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398514568805695</t>
+    <t xml:space="preserve">0.398514539003372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373693555593491</t>
+    <t xml:space="preserve">0.373693585395813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361283034086227</t>
+    <t xml:space="preserve">0.36128306388855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394377708435059</t>
+    <t xml:space="preserve">0.394377738237381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391619861125946</t>
+    <t xml:space="preserve">0.391619831323624</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377830386161804</t>
+    <t xml:space="preserve">0.377830415964127</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369556784629822</t>
+    <t xml:space="preserve">0.369556754827499</t>
   </si>
   <si>
     <t xml:space="preserve">0.370935678482056</t>
@@ -773,127 +773,127 @@
     <t xml:space="preserve">0.4081671833992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423335492610931</t>
+    <t xml:space="preserve">0.423335611820221</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387483030557632</t>
+    <t xml:space="preserve">0.387482970952988</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395756661891937</t>
+    <t xml:space="preserve">0.395756632089615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415061891078949</t>
+    <t xml:space="preserve">0.415061920881271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412303924560547</t>
+    <t xml:space="preserve">0.412303954362869</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409546107053757</t>
+    <t xml:space="preserve">0.409546047449112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421956568956375</t>
+    <t xml:space="preserve">0.421956539154053</t>
   </si>
   <si>
-    <t xml:space="preserve">0.428851276636124</t>
+    <t xml:space="preserve">0.428851246833801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431609153747559</t>
+    <t xml:space="preserve">0.431609183549881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465393275022507</t>
+    <t xml:space="preserve">0.465393334627151</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4722880423069</t>
+    <t xml:space="preserve">0.472287952899933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.492972165346146</t>
+    <t xml:space="preserve">0.492972105741501</t>
   </si>
   <si>
-    <t xml:space="preserve">0.499866813421249</t>
+    <t xml:space="preserve">0.499866932630539</t>
   </si>
   <si>
-    <t xml:space="preserve">0.508923411369324</t>
+    <t xml:space="preserve">0.508923470973969</t>
   </si>
   <si>
-    <t xml:space="preserve">0.486135810613632</t>
+    <t xml:space="preserve">0.486135840415955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.470944195985794</t>
+    <t xml:space="preserve">0.470944136381149</t>
   </si>
   <si>
-    <t xml:space="preserve">0.455752402544022</t>
+    <t xml:space="preserve">0.455752372741699</t>
   </si>
   <si>
-    <t xml:space="preserve">0.467146188020706</t>
+    <t xml:space="preserve">0.467146217823029</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478539973497391</t>
+    <t xml:space="preserve">0.478540003299713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.482337892055511</t>
+    <t xml:space="preserve">0.482337981462479</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47474205493927</t>
+    <t xml:space="preserve">0.474742084741592</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45955029129982</t>
+    <t xml:space="preserve">0.459550321102142</t>
   </si>
   <si>
     <t xml:space="preserve">0.440560609102249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451954454183578</t>
+    <t xml:space="preserve">0.451954394578934</t>
   </si>
   <si>
-    <t xml:space="preserve">0.425368845462799</t>
+    <t xml:space="preserve">0.425368875265121</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429166793823242</t>
+    <t xml:space="preserve">0.429166823625565</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444358497858047</t>
+    <t xml:space="preserve">0.44435852766037</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463348209857941</t>
+    <t xml:space="preserve">0.463348239660263</t>
   </si>
   <si>
     <t xml:space="preserve">0.489933758974075</t>
   </si>
   <si>
-    <t xml:space="preserve">0.57728636264801</t>
+    <t xml:space="preserve">0.577286303043365</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493731737136841</t>
+    <t xml:space="preserve">0.493731677532196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.501327693462372</t>
+    <t xml:space="preserve">0.501327574253082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497529655694962</t>
+    <t xml:space="preserve">0.497529596090317</t>
   </si>
   <si>
     <t xml:space="preserve">0.436762690544128</t>
   </si>
   <si>
-    <t xml:space="preserve">0.43296480178833</t>
+    <t xml:space="preserve">0.432964771986008</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417772978544235</t>
+    <t xml:space="preserve">0.417773008346558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410177171230316</t>
+    <t xml:space="preserve">0.410177141427994</t>
   </si>
   <si>
     <t xml:space="preserve">0.394985347986221</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406379252672195</t>
+    <t xml:space="preserve">0.406379222869873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421570926904678</t>
+    <t xml:space="preserve">0.421570956707001</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402581244707108</t>
+    <t xml:space="preserve">0.402581214904785</t>
   </si>
   <si>
     <t xml:space="preserve">0.373716950416565</t>
@@ -902,7 +902,7 @@
     <t xml:space="preserve">0.372197777032852</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38738951086998</t>
+    <t xml:space="preserve">0.387389540672302</t>
   </si>
   <si>
     <t xml:space="preserve">0.379793643951416</t>
@@ -911,10 +911,10 @@
     <t xml:space="preserve">0.364601880311966</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341814249753952</t>
+    <t xml:space="preserve">0.341814279556274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344852656126022</t>
+    <t xml:space="preserve">0.344852596521378</t>
   </si>
   <si>
     <t xml:space="preserve">0.31902664899826</t>
@@ -926,100 +926,100 @@
     <t xml:space="preserve">0.305354088544846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.288643181324005</t>
+    <t xml:space="preserve">0.288643151521683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.299277395009995</t>
+    <t xml:space="preserve">0.299277365207672</t>
   </si>
   <si>
-    <t xml:space="preserve">0.28712397813797</t>
+    <t xml:space="preserve">0.287124007940292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273451447486877</t>
+    <t xml:space="preserve">0.273451417684555</t>
   </si>
   <si>
-    <t xml:space="preserve">0.267374724149704</t>
+    <t xml:space="preserve">0.267374694347382</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312949955463409</t>
+    <t xml:space="preserve">0.312949985265732</t>
   </si>
   <si>
     <t xml:space="preserve">0.314469128847122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.297758221626282</t>
+    <t xml:space="preserve">0.297758191823959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.306873261928558</t>
+    <t xml:space="preserve">0.306873321533203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.308392405509949</t>
+    <t xml:space="preserve">0.308392435312271</t>
   </si>
   <si>
     <t xml:space="preserve">0.323584198951721</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332699239253998</t>
+    <t xml:space="preserve">0.332699209451675</t>
   </si>
   <si>
     <t xml:space="preserve">0.338775902986526</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370678603649139</t>
+    <t xml:space="preserve">0.370678633451462</t>
   </si>
   <si>
     <t xml:space="preserve">0.357006013393402</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350929319858551</t>
+    <t xml:space="preserve">0.350929349660873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.376755326986313</t>
+    <t xml:space="preserve">0.37675529718399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398783355951309</t>
+    <t xml:space="preserve">0.398783326148987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413975089788437</t>
+    <t xml:space="preserve">0.413975059986115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360044360160828</t>
+    <t xml:space="preserve">0.360044419765472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363082677125931</t>
+    <t xml:space="preserve">0.363082736730576</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369159400463104</t>
+    <t xml:space="preserve">0.369159430265427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383591592311859</t>
+    <t xml:space="preserve">0.383591562509537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378274470567703</t>
+    <t xml:space="preserve">0.378274440765381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353967666625977</t>
+    <t xml:space="preserve">0.353967696428299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355486840009689</t>
+    <t xml:space="preserve">0.355486810207367</t>
   </si>
   <si>
     <t xml:space="preserve">0.352448493242264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349410176277161</t>
+    <t xml:space="preserve">0.349410116672516</t>
   </si>
   <si>
     <t xml:space="preserve">0.335737586021423</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347891002893448</t>
+    <t xml:space="preserve">0.347890973091125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.334218412637711</t>
+    <t xml:space="preserve">0.334218442440033</t>
   </si>
   <si>
-    <t xml:space="preserve">0.326622515916824</t>
+    <t xml:space="preserve">0.326622545719147</t>
   </si>
   <si>
     <t xml:space="preserve">0.311430782079697</t>
@@ -1028,13 +1028,13 @@
     <t xml:space="preserve">0.315988302230835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.290162324905396</t>
+    <t xml:space="preserve">0.29016238451004</t>
   </si>
   <si>
-    <t xml:space="preserve">0.293200701475143</t>
+    <t xml:space="preserve">0.293200671672821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.285604774951935</t>
+    <t xml:space="preserve">0.285604804754257</t>
   </si>
   <si>
     <t xml:space="preserve">0.291681498289108</t>
@@ -1052,19 +1052,19 @@
     <t xml:space="preserve">0.325103372335434</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317507475614548</t>
+    <t xml:space="preserve">0.31750750541687</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47146800160408</t>
+    <t xml:space="preserve">0.471467971801758</t>
   </si>
   <si>
-    <t xml:space="preserve">0.438382476568222</t>
+    <t xml:space="preserve">0.4383824467659</t>
   </si>
   <si>
     <t xml:space="preserve">0.425975412130356</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413568407297134</t>
+    <t xml:space="preserve">0.413568377494812</t>
   </si>
   <si>
     <t xml:space="preserve">0.397025644779205</t>
@@ -1076,7 +1076,7 @@
     <t xml:space="preserve">0.398679912090302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417704075574875</t>
+    <t xml:space="preserve">0.417704045772552</t>
   </si>
   <si>
     <t xml:space="preserve">0.41025984287262</t>
@@ -1085,25 +1085,25 @@
     <t xml:space="preserve">0.40033420920372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383791476488113</t>
+    <t xml:space="preserve">0.383791446685791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377174407243729</t>
+    <t xml:space="preserve">0.377174377441406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.375520080327988</t>
+    <t xml:space="preserve">0.375520050525665</t>
   </si>
   <si>
     <t xml:space="preserve">0.372211545705795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387100011110306</t>
+    <t xml:space="preserve">0.387099951505661</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380482912063599</t>
+    <t xml:space="preserve">0.380482882261276</t>
   </si>
   <si>
-    <t xml:space="preserve">0.385445713996887</t>
+    <t xml:space="preserve">0.38544574379921</t>
   </si>
   <si>
     <t xml:space="preserve">0.368902981281281</t>
@@ -1112,34 +1112,34 @@
     <t xml:space="preserve">0.367248743772507</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382137179374695</t>
+    <t xml:space="preserve">0.382137209177017</t>
   </si>
   <si>
     <t xml:space="preserve">0.479739308357239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450789570808411</t>
+    <t xml:space="preserve">0.450789541006088</t>
   </si>
   <si>
     <t xml:space="preserve">0.496282070875168</t>
   </si>
   <si>
-    <t xml:space="preserve">0.48801064491272</t>
+    <t xml:space="preserve">0.488010674715042</t>
   </si>
   <si>
     <t xml:space="preserve">0.483874976634979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454925209283829</t>
+    <t xml:space="preserve">0.454925239086151</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44251823425293</t>
+    <t xml:space="preserve">0.442518204450607</t>
   </si>
   <si>
-    <t xml:space="preserve">0.430111110210419</t>
+    <t xml:space="preserve">0.430111080408096</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421839714050293</t>
+    <t xml:space="preserve">0.421839773654938</t>
   </si>
   <si>
     <t xml:space="preserve">0.434246808290482</t>
@@ -1154,10 +1154,10 @@
     <t xml:space="preserve">0.401988476514816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388754308223724</t>
+    <t xml:space="preserve">0.388754278421402</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378828674554825</t>
+    <t xml:space="preserve">0.378828644752502</t>
   </si>
   <si>
     <t xml:space="preserve">0.373865813016891</t>
@@ -1166,19 +1166,19 @@
     <t xml:space="preserve">0.406951308250427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395371347665787</t>
+    <t xml:space="preserve">0.395371377468109</t>
   </si>
   <si>
     <t xml:space="preserve">0.403642773628235</t>
   </si>
   <si>
-    <t xml:space="preserve">0.393717110157013</t>
+    <t xml:space="preserve">0.393717080354691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347397416830063</t>
+    <t xml:space="preserve">0.347397446632385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329200446605682</t>
+    <t xml:space="preserve">0.32920041680336</t>
   </si>
   <si>
     <t xml:space="preserve">0.330854713916779</t>
@@ -1187,31 +1187,31 @@
     <t xml:space="preserve">0.349051713943481</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3507060110569</t>
+    <t xml:space="preserve">0.350705951452255</t>
   </si>
   <si>
     <t xml:space="preserve">0.355668812990189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358977317810059</t>
+    <t xml:space="preserve">0.358977347612381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362285912036896</t>
+    <t xml:space="preserve">0.362285882234573</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36394014954567</t>
+    <t xml:space="preserve">0.363940209150314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370557278394699</t>
+    <t xml:space="preserve">0.370557308197021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3606316447258</t>
+    <t xml:space="preserve">0.360631614923477</t>
   </si>
   <si>
-    <t xml:space="preserve">0.33912605047226</t>
+    <t xml:space="preserve">0.339126080274582</t>
   </si>
   <si>
-    <t xml:space="preserve">0.337471783161163</t>
+    <t xml:space="preserve">0.337471812963486</t>
   </si>
   <si>
     <t xml:space="preserve">0.332508981227875</t>
@@ -1220,16 +1220,16 @@
     <t xml:space="preserve">0.34408888220787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354014575481415</t>
+    <t xml:space="preserve">0.354014545679092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.348381489515305</t>
+    <t xml:space="preserve">0.348381459712982</t>
   </si>
   <si>
     <t xml:space="preserve">0.353581190109253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34491503238678</t>
+    <t xml:space="preserve">0.344915002584457</t>
   </si>
   <si>
     <t xml:space="preserve">0.350114732980728</t>
@@ -1241,22 +1241,22 @@
     <t xml:space="preserve">0.365713894367218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.351847976446152</t>
+    <t xml:space="preserve">0.351847946643829</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355314433574677</t>
+    <t xml:space="preserve">0.355314463376999</t>
   </si>
   <si>
     <t xml:space="preserve">0.343181759119034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332782298326492</t>
+    <t xml:space="preserve">0.332782328128815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32064962387085</t>
+    <t xml:space="preserve">0.320649653673172</t>
   </si>
   <si>
-    <t xml:space="preserve">0.331049054861069</t>
+    <t xml:space="preserve">0.331049084663391</t>
   </si>
   <si>
     <t xml:space="preserve">0.346648246049881</t>
@@ -1268,10 +1268,10 @@
     <t xml:space="preserve">0.327582597732544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.318916410207748</t>
+    <t xml:space="preserve">0.318916380405426</t>
   </si>
   <si>
-    <t xml:space="preserve">0.310250222682953</t>
+    <t xml:space="preserve">0.310250163078308</t>
   </si>
   <si>
     <t xml:space="preserve">0.315449893474579</t>
@@ -1283,52 +1283,52 @@
     <t xml:space="preserve">0.303317189216614</t>
   </si>
   <si>
-    <t xml:space="preserve">0.305050432682037</t>
+    <t xml:space="preserve">0.30505046248436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.296384274959564</t>
+    <t xml:space="preserve">0.296384245157242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.308516919612885</t>
+    <t xml:space="preserve">0.308516949415207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.298117488622665</t>
+    <t xml:space="preserve">0.298117518424988</t>
   </si>
   <si>
     <t xml:space="preserve">0.311983436346054</t>
   </si>
   <si>
-    <t xml:space="preserve">0.313716679811478</t>
+    <t xml:space="preserve">0.313716650009155</t>
   </si>
   <si>
     <t xml:space="preserve">0.324116140604019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325849324464798</t>
+    <t xml:space="preserve">0.32584935426712</t>
   </si>
   <si>
     <t xml:space="preserve">0.337982028722763</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317183166742325</t>
+    <t xml:space="preserve">0.317183136940002</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379579842090607</t>
+    <t xml:space="preserve">0.379579812288284</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370913654565811</t>
+    <t xml:space="preserve">0.370913624763489</t>
   </si>
   <si>
     <t xml:space="preserve">0.372646868228912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374380141496658</t>
+    <t xml:space="preserve">0.374380111694336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367447167634964</t>
+    <t xml:space="preserve">0.367447108030319</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369180411100388</t>
+    <t xml:space="preserve">0.369180381298065</t>
   </si>
   <si>
     <t xml:space="preserve">0.386512786149979</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">0.312749564647675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314622312784195</t>
+    <t xml:space="preserve">0.314622282981873</t>
   </si>
   <si>
     <t xml:space="preserve">0.329604297876358</t>
@@ -1358,19 +1358,19 @@
     <t xml:space="preserve">0.310876786708832</t>
   </si>
   <si>
-    <t xml:space="preserve">0.305258542299271</t>
+    <t xml:space="preserve">0.305258572101593</t>
   </si>
   <si>
-    <t xml:space="preserve">0.316495060920715</t>
+    <t xml:space="preserve">0.316495090723038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.307131320238113</t>
+    <t xml:space="preserve">0.307131290435791</t>
   </si>
   <si>
     <t xml:space="preserve">0.299640268087387</t>
   </si>
   <si>
-    <t xml:space="preserve">0.303385764360428</t>
+    <t xml:space="preserve">0.30338579416275</t>
   </si>
   <si>
     <t xml:space="preserve">0.295894801616669</t>
@@ -1379,16 +1379,16 @@
     <t xml:space="preserve">0.309004098176956</t>
   </si>
   <si>
-    <t xml:space="preserve">0.30151304602623</t>
+    <t xml:space="preserve">0.301513075828552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.297767519950867</t>
+    <t xml:space="preserve">0.297767549753189</t>
   </si>
   <si>
     <t xml:space="preserve">0.294022053480148</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333349794149399</t>
+    <t xml:space="preserve">0.333349823951721</t>
   </si>
   <si>
     <t xml:space="preserve">0.322113305330276</t>
@@ -1397,7 +1397,7 @@
     <t xml:space="preserve">0.331477075815201</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335222601890564</t>
+    <t xml:space="preserve">0.335222572088242</t>
   </si>
   <si>
     <t xml:space="preserve">0.337095350027084</t>
@@ -1406,16 +1406,16 @@
     <t xml:space="preserve">0.355822831392288</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350204616785049</t>
+    <t xml:space="preserve">0.350204586982727</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338968098163605</t>
+    <t xml:space="preserve">0.338968068361282</t>
   </si>
   <si>
     <t xml:space="preserve">0.344586342573166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342713594436646</t>
+    <t xml:space="preserve">0.342713564634323</t>
   </si>
   <si>
     <t xml:space="preserve">0.340840816497803</t>
@@ -1488,6 +1488,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.324000000953674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.317999988794327</t>
   </si>
 </sst>
 </file>
@@ -59315,7 +59318,7 @@
     </row>
     <row r="2212">
       <c r="A2212" s="1" t="n">
-        <v>45544.2969444444</v>
+        <v>45544.2916666667</v>
       </c>
       <c r="B2212" t="n">
         <v>4000</v>
@@ -59336,6 +59339,32 @@
         <v>491</v>
       </c>
       <c r="H2212" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="A2213" s="1" t="n">
+        <v>45545.5234722222</v>
+      </c>
+      <c r="B2213" t="n">
+        <v>12000</v>
+      </c>
+      <c r="C2213" t="n">
+        <v>0.317999988794327</v>
+      </c>
+      <c r="D2213" t="n">
+        <v>0.317999988794327</v>
+      </c>
+      <c r="E2213" t="n">
+        <v>0.317999988794327</v>
+      </c>
+      <c r="F2213" t="n">
+        <v>0.317999988794327</v>
+      </c>
+      <c r="G2213" t="s">
+        <v>492</v>
+      </c>
+      <c r="H2213" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/POPR.MI.xlsx
+++ b/data/POPR.MI.xlsx
@@ -38,16 +38,16 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193052023649216</t>
+    <t xml:space="preserve">0.193052008748055</t>
   </si>
   <si>
     <t xml:space="preserve">POPR.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193741500377655</t>
+    <t xml:space="preserve">0.193741485476494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.189604699611664</t>
+    <t xml:space="preserve">0.189604669809341</t>
   </si>
   <si>
     <t xml:space="preserve">0.188225716352463</t>
@@ -62,34 +62,34 @@
     <t xml:space="preserve">0.163404747843742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157199487090111</t>
+    <t xml:space="preserve">0.157199516892433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164301082491875</t>
+    <t xml:space="preserve">0.164301052689552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159267947077751</t>
+    <t xml:space="preserve">0.15926793217659</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167541608214378</t>
+    <t xml:space="preserve">0.167541578412056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168231040239334</t>
+    <t xml:space="preserve">0.168231055140495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165404215455055</t>
+    <t xml:space="preserve">0.165404230356216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160646855831146</t>
+    <t xml:space="preserve">0.160646870732307</t>
   </si>
   <si>
     <t xml:space="preserve">0.153407409787178</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153062701225281</t>
+    <t xml:space="preserve">0.153062671422958</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153476342558861</t>
+    <t xml:space="preserve">0.153476357460022</t>
   </si>
   <si>
     <t xml:space="preserve">0.155820578336716</t>
@@ -98,10 +98,10 @@
     <t xml:space="preserve">0.15237320959568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165748938918114</t>
+    <t xml:space="preserve">0.165748953819275</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186846807599068</t>
+    <t xml:space="preserve">0.186846777796745</t>
   </si>
   <si>
     <t xml:space="preserve">0.182985737919807</t>
@@ -119,10 +119,10 @@
     <t xml:space="preserve">0.164094224572182</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170782089233398</t>
+    <t xml:space="preserve">0.17078210413456</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176504731178284</t>
+    <t xml:space="preserve">0.176504716277122</t>
   </si>
   <si>
     <t xml:space="preserve">0.174367353320122</t>
@@ -134,19 +134,19 @@
     <t xml:space="preserve">0.194430977106094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187536284327507</t>
+    <t xml:space="preserve">0.187536269426346</t>
   </si>
   <si>
     <t xml:space="preserve">0.182020485401154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206841483712196</t>
+    <t xml:space="preserve">0.206841468811035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211323022842407</t>
+    <t xml:space="preserve">0.211323007941246</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210288837552071</t>
+    <t xml:space="preserve">0.210288822650909</t>
   </si>
   <si>
     <t xml:space="preserve">0.202015176415443</t>
@@ -155,157 +155,157 @@
     <t xml:space="preserve">0.199257269501686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220630899071693</t>
+    <t xml:space="preserve">0.220630884170532</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228904560208321</t>
+    <t xml:space="preserve">0.228904530405998</t>
   </si>
   <si>
     <t xml:space="preserve">0.220561936497688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.215804576873779</t>
+    <t xml:space="preserve">0.215804606676102</t>
   </si>
   <si>
     <t xml:space="preserve">0.213046699762344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.19649937748909</t>
+    <t xml:space="preserve">0.196499362587929</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199946716427803</t>
+    <t xml:space="preserve">0.199946731328964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186295226216316</t>
+    <t xml:space="preserve">0.186295211315155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184778392314911</t>
+    <t xml:space="preserve">0.184778362512589</t>
   </si>
   <si>
     <t xml:space="preserve">0.17857314646244</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166300520300865</t>
+    <t xml:space="preserve">0.166300535202026</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182709947228432</t>
+    <t xml:space="preserve">0.182709962129593</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172298952937126</t>
+    <t xml:space="preserve">0.172298938035965</t>
   </si>
   <si>
     <t xml:space="preserve">0.166852101683617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168920516967773</t>
+    <t xml:space="preserve">0.168920531868935</t>
   </si>
   <si>
     <t xml:space="preserve">0.17291946709156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2040835916996</t>
+    <t xml:space="preserve">0.204083576798439</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206151977181435</t>
+    <t xml:space="preserve">0.206151992082596</t>
   </si>
   <si>
     <t xml:space="preserve">0.201325684785843</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199326232075691</t>
+    <t xml:space="preserve">0.19932621717453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.18339940905571</t>
+    <t xml:space="preserve">0.183399438858032</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175815239548683</t>
+    <t xml:space="preserve">0.175815224647522</t>
   </si>
   <si>
     <t xml:space="preserve">0.161336332559586</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166162624955177</t>
+    <t xml:space="preserve">0.1661626547575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162715286016464</t>
+    <t xml:space="preserve">0.162715271115303</t>
   </si>
   <si>
     <t xml:space="preserve">0.158578455448151</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173746824264526</t>
+    <t xml:space="preserve">0.173746839165688</t>
   </si>
   <si>
     <t xml:space="preserve">0.181193128228188</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187191531062126</t>
+    <t xml:space="preserve">0.187191516160965</t>
   </si>
   <si>
     <t xml:space="preserve">0.188915193080902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.200291439890862</t>
+    <t xml:space="preserve">0.200291454792023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219941392540932</t>
+    <t xml:space="preserve">0.219941407442093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.212357237935066</t>
+    <t xml:space="preserve">0.212357252836227</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195396229624748</t>
+    <t xml:space="preserve">0.195396214723587</t>
   </si>
   <si>
-    <t xml:space="preserve">0.209254637360573</t>
+    <t xml:space="preserve">0.20925460755825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220493003726006</t>
+    <t xml:space="preserve">0.220492973923683</t>
   </si>
   <si>
     <t xml:space="preserve">0.213736176490784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210357755422592</t>
+    <t xml:space="preserve">0.210357770323753</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219251960515976</t>
+    <t xml:space="preserve">0.219251945614815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233730867505074</t>
+    <t xml:space="preserve">0.23373082280159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23779870569706</t>
+    <t xml:space="preserve">0.237798720598221</t>
   </si>
   <si>
     <t xml:space="preserve">0.255104452371597</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261309772729874</t>
+    <t xml:space="preserve">0.261309683322906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.275788575410843</t>
+    <t xml:space="preserve">0.275788635015488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.293025404214859</t>
+    <t xml:space="preserve">0.293025374412537</t>
   </si>
   <si>
     <t xml:space="preserve">0.301988542079926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.318535894155502</t>
+    <t xml:space="preserve">0.31853586435318</t>
   </si>
   <si>
-    <t xml:space="preserve">0.327498972415924</t>
+    <t xml:space="preserve">0.327499002218246</t>
   </si>
   <si>
     <t xml:space="preserve">0.282683342695236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.285372287034988</t>
+    <t xml:space="preserve">0.285372257232666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.274478584527969</t>
+    <t xml:space="preserve">0.274478614330292</t>
   </si>
   <si>
     <t xml:space="preserve">0.274409651756287</t>
@@ -314,28 +314,28 @@
     <t xml:space="preserve">0.266342848539352</t>
   </si>
   <si>
-    <t xml:space="preserve">0.266825497150421</t>
+    <t xml:space="preserve">0.266825467348099</t>
   </si>
   <si>
     <t xml:space="preserve">0.266963362693787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.251657128334045</t>
+    <t xml:space="preserve">0.251657098531723</t>
   </si>
   <si>
-    <t xml:space="preserve">0.256483435630798</t>
+    <t xml:space="preserve">0.256483405828476</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230972975492477</t>
+    <t xml:space="preserve">0.230972960591316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.22697402536869</t>
+    <t xml:space="preserve">0.226974055171013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232351914048195</t>
+    <t xml:space="preserve">0.232351928949356</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228973507881165</t>
+    <t xml:space="preserve">0.228973492980003</t>
   </si>
   <si>
     <t xml:space="preserve">0.26062023639679</t>
@@ -347,13 +347,13 @@
     <t xml:space="preserve">0.25317394733429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249588683247566</t>
+    <t xml:space="preserve">0.249588638544083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.258551806211472</t>
+    <t xml:space="preserve">0.258551836013794</t>
   </si>
   <si>
-    <t xml:space="preserve">0.24820975959301</t>
+    <t xml:space="preserve">0.248209744691849</t>
   </si>
   <si>
     <t xml:space="preserve">0.244762390851974</t>
@@ -368,142 +368,142 @@
     <t xml:space="preserve">0.233799785375595</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220699846744537</t>
+    <t xml:space="preserve">0.220699831843376</t>
   </si>
   <si>
-    <t xml:space="preserve">0.224078252911568</t>
+    <t xml:space="preserve">0.224078238010406</t>
   </si>
   <si>
     <t xml:space="preserve">0.226836130023003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226146653294563</t>
+    <t xml:space="preserve">0.226146638393402</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227525621652603</t>
+    <t xml:space="preserve">0.227525636553764</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229042440652847</t>
+    <t xml:space="preserve">0.229042455554008</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232489764690399</t>
+    <t xml:space="preserve">0.232489809393883</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247520267963409</t>
+    <t xml:space="preserve">0.247520312666893</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241177141666412</t>
+    <t xml:space="preserve">0.241177096962929</t>
   </si>
   <si>
-    <t xml:space="preserve">0.242211326956749</t>
+    <t xml:space="preserve">0.242211386561394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.251726061105728</t>
+    <t xml:space="preserve">0.251726031303406</t>
   </si>
   <si>
     <t xml:space="preserve">0.25710391998291</t>
   </si>
   <si>
-    <t xml:space="preserve">0.24627922475338</t>
+    <t xml:space="preserve">0.246279239654541</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2413150370121</t>
+    <t xml:space="preserve">0.241315051913261</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241039261221886</t>
+    <t xml:space="preserve">0.241039216518402</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237936645746231</t>
+    <t xml:space="preserve">0.237936615943909</t>
   </si>
   <si>
     <t xml:space="preserve">0.253725528717041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238074496388435</t>
+    <t xml:space="preserve">0.238074526190758</t>
   </si>
   <si>
-    <t xml:space="preserve">0.24496927857399</t>
+    <t xml:space="preserve">0.244969248771667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325982123613358</t>
+    <t xml:space="preserve">0.325982093811035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386104047298431</t>
+    <t xml:space="preserve">0.386104017496109</t>
   </si>
   <si>
     <t xml:space="preserve">0.510208904743195</t>
   </si>
   <si>
-    <t xml:space="preserve">0.598461210727692</t>
+    <t xml:space="preserve">0.598461270332336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.523308873176575</t>
+    <t xml:space="preserve">0.52330881357193</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479182720184326</t>
+    <t xml:space="preserve">0.479182690382004</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46298012137413</t>
+    <t xml:space="preserve">0.462980180978775</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434367090463638</t>
+    <t xml:space="preserve">0.434367060661316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.399893432855606</t>
+    <t xml:space="preserve">0.399893462657928</t>
   </si>
   <si>
     <t xml:space="preserve">0.4543616771698</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402996122837067</t>
+    <t xml:space="preserve">0.402996152639389</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410235553979874</t>
+    <t xml:space="preserve">0.410235613584518</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379898816347122</t>
+    <t xml:space="preserve">0.379898846149445</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357490926980972</t>
+    <t xml:space="preserve">0.357490986585617</t>
   </si>
   <si>
     <t xml:space="preserve">0.345425248146057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358180493116379</t>
+    <t xml:space="preserve">0.358180463314056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36679881811142</t>
+    <t xml:space="preserve">0.366798877716064</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353009462356567</t>
+    <t xml:space="preserve">0.353009432554245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382656693458557</t>
+    <t xml:space="preserve">0.382656663656235</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374383062124252</t>
+    <t xml:space="preserve">0.37438303232193</t>
   </si>
   <si>
     <t xml:space="preserve">0.358525216579437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349217355251312</t>
+    <t xml:space="preserve">0.34921732544899</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352319955825806</t>
+    <t xml:space="preserve">0.352319985628128</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365419894456863</t>
+    <t xml:space="preserve">0.365419924259186</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361972510814667</t>
+    <t xml:space="preserve">0.361972540616989</t>
   </si>
   <si>
     <t xml:space="preserve">0.34818309545517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355767279863358</t>
+    <t xml:space="preserve">0.355767339468002</t>
   </si>
   <si>
     <t xml:space="preserve">0.344735741615295</t>
@@ -512,19 +512,19 @@
     <t xml:space="preserve">0.34197786450386</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367143601179123</t>
+    <t xml:space="preserve">0.367143630981445</t>
   </si>
   <si>
-    <t xml:space="preserve">0.348872572183609</t>
+    <t xml:space="preserve">0.348872601985931</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347493648529053</t>
+    <t xml:space="preserve">0.347493678331375</t>
   </si>
   <si>
     <t xml:space="preserve">0.360248893499374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354388356208801</t>
+    <t xml:space="preserve">0.354388326406479</t>
   </si>
   <si>
     <t xml:space="preserve">0.359904140233994</t>
@@ -539,31 +539,31 @@
     <t xml:space="preserve">0.341219455003738</t>
   </si>
   <si>
-    <t xml:space="preserve">0.351630479097366</t>
+    <t xml:space="preserve">0.351630449295044</t>
   </si>
   <si>
     <t xml:space="preserve">0.357146292924881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.39299875497818</t>
+    <t xml:space="preserve">0.392998725175858</t>
   </si>
   <si>
     <t xml:space="preserve">0.372314661741257</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373004108667374</t>
+    <t xml:space="preserve">0.373004078865051</t>
   </si>
   <si>
     <t xml:space="preserve">0.35025155544281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370590955018997</t>
+    <t xml:space="preserve">0.37059098482132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345080524682999</t>
+    <t xml:space="preserve">0.345080554485321</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359559416770935</t>
+    <t xml:space="preserve">0.359559386968613</t>
   </si>
   <si>
     <t xml:space="preserve">0.427472352981567</t>
@@ -572,22 +572,22 @@
     <t xml:space="preserve">0.405409246683121</t>
   </si>
   <si>
-    <t xml:space="preserve">0.404719740152359</t>
+    <t xml:space="preserve">0.404719799757004</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406098693609238</t>
+    <t xml:space="preserve">0.40609872341156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398859292268753</t>
+    <t xml:space="preserve">0.398859262466431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406788200139999</t>
+    <t xml:space="preserve">0.406788170337677</t>
   </si>
   <si>
     <t xml:space="preserve">0.378519862890244</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3836909532547</t>
+    <t xml:space="preserve">0.383690893650055</t>
   </si>
   <si>
     <t xml:space="preserve">0.388861954212189</t>
@@ -599,43 +599,43 @@
     <t xml:space="preserve">0.426438122987747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429540753364563</t>
+    <t xml:space="preserve">0.429540783166885</t>
   </si>
   <si>
     <t xml:space="preserve">0.414372354745865</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413682967424393</t>
+    <t xml:space="preserve">0.41368293762207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424714475870132</t>
+    <t xml:space="preserve">0.424714505672455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414027631282806</t>
+    <t xml:space="preserve">0.414027661085129</t>
   </si>
   <si>
-    <t xml:space="preserve">0.447467029094696</t>
+    <t xml:space="preserve">0.447466999292374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.455051243305206</t>
+    <t xml:space="preserve">0.455051273107529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.430230289697647</t>
+    <t xml:space="preserve">0.430230259895325</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413338184356689</t>
+    <t xml:space="preserve">0.413338154554367</t>
   </si>
   <si>
     <t xml:space="preserve">0.424025028944016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.517103612422943</t>
+    <t xml:space="preserve">0.517103672027588</t>
   </si>
   <si>
-    <t xml:space="preserve">0.481940567493439</t>
+    <t xml:space="preserve">0.481940537691116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.49641951918602</t>
+    <t xml:space="preserve">0.496419489383698</t>
   </si>
   <si>
     <t xml:space="preserve">0.475735306739807</t>
@@ -647,76 +647,76 @@
     <t xml:space="preserve">0.489524781703949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4826300740242</t>
+    <t xml:space="preserve">0.482630103826523</t>
   </si>
   <si>
     <t xml:space="preserve">0.463324844837189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.466082781553268</t>
+    <t xml:space="preserve">0.466082721948624</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461945950984955</t>
+    <t xml:space="preserve">0.461945921182632</t>
   </si>
   <si>
     <t xml:space="preserve">0.449535399675369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.445398658514023</t>
+    <t xml:space="preserve">0.445398569107056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448156505823135</t>
+    <t xml:space="preserve">0.448156476020813</t>
   </si>
   <si>
     <t xml:space="preserve">0.453672260046005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.441261798143387</t>
+    <t xml:space="preserve">0.441261768341064</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474356442689896</t>
+    <t xml:space="preserve">0.474356412887573</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457809120416641</t>
+    <t xml:space="preserve">0.457809060811996</t>
   </si>
   <si>
     <t xml:space="preserve">0.507451057434082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.468840658664703</t>
+    <t xml:space="preserve">0.468840599060059</t>
   </si>
   <si>
-    <t xml:space="preserve">0.438503921031952</t>
+    <t xml:space="preserve">0.43850389122963</t>
   </si>
   <si>
-    <t xml:space="preserve">0.459187984466553</t>
+    <t xml:space="preserve">0.459188014268875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46470382809639</t>
+    <t xml:space="preserve">0.464703857898712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450914323329926</t>
+    <t xml:space="preserve">0.45091438293457</t>
   </si>
   <si>
     <t xml:space="preserve">0.437124967575073</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444019705057144</t>
+    <t xml:space="preserve">0.444019675254822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41919869184494</t>
+    <t xml:space="preserve">0.419198721647263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.420577675104141</t>
+    <t xml:space="preserve">0.420577645301819</t>
   </si>
   <si>
     <t xml:space="preserve">0.426093399524689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.442640751600266</t>
+    <t xml:space="preserve">0.442640721797943</t>
   </si>
   <si>
-    <t xml:space="preserve">0.472977459430695</t>
+    <t xml:space="preserve">0.472977429628372</t>
   </si>
   <si>
     <t xml:space="preserve">0.460566967725754</t>
@@ -725,19 +725,19 @@
     <t xml:space="preserve">0.446777552366257</t>
   </si>
   <si>
-    <t xml:space="preserve">0.43298813700676</t>
+    <t xml:space="preserve">0.432988107204437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452293306589127</t>
+    <t xml:space="preserve">0.452293276786804</t>
   </si>
   <si>
-    <t xml:space="preserve">0.439882785081863</t>
+    <t xml:space="preserve">0.439882814884186</t>
   </si>
   <si>
-    <t xml:space="preserve">0.456430166959763</t>
+    <t xml:space="preserve">0.45643013715744</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397135615348816</t>
+    <t xml:space="preserve">0.397135585546494</t>
   </si>
   <si>
     <t xml:space="preserve">0.40127244591713</t>
@@ -746,37 +746,37 @@
     <t xml:space="preserve">0.398514539003372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373693615198135</t>
+    <t xml:space="preserve">0.373693555593491</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361283034086227</t>
+    <t xml:space="preserve">0.36128306388855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394377708435059</t>
+    <t xml:space="preserve">0.394377738237381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391619890928268</t>
+    <t xml:space="preserve">0.391619831323624</t>
   </si>
   <si>
     <t xml:space="preserve">0.377830386161804</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369556784629822</t>
+    <t xml:space="preserve">0.369556725025177</t>
   </si>
   <si>
     <t xml:space="preserve">0.370935648679733</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379209399223328</t>
+    <t xml:space="preserve">0.379209339618683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4081671833992</t>
+    <t xml:space="preserve">0.408167153596878</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423335492610931</t>
+    <t xml:space="preserve">0.423335522413254</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38748300075531</t>
+    <t xml:space="preserve">0.387482970952988</t>
   </si>
   <si>
     <t xml:space="preserve">0.395756661891937</t>
@@ -785,31 +785,31 @@
     <t xml:space="preserve">0.415061861276627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412303954362869</t>
+    <t xml:space="preserve">0.412303984165192</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409546077251434</t>
+    <t xml:space="preserve">0.409546047449112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421956539154053</t>
+    <t xml:space="preserve">0.421956568956375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.428851306438446</t>
+    <t xml:space="preserve">0.428851276636124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431609153747559</t>
+    <t xml:space="preserve">0.431609213352203</t>
   </si>
   <si>
     <t xml:space="preserve">0.465393245220184</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4722880423069</t>
+    <t xml:space="preserve">0.47228792309761</t>
   </si>
   <si>
-    <t xml:space="preserve">0.492972105741501</t>
+    <t xml:space="preserve">0.492972135543823</t>
   </si>
   <si>
-    <t xml:space="preserve">0.499866873025894</t>
+    <t xml:space="preserve">0.499866902828217</t>
   </si>
   <si>
     <t xml:space="preserve">0.508923470973969</t>
@@ -818,94 +818,94 @@
     <t xml:space="preserve">0.486135870218277</t>
   </si>
   <si>
-    <t xml:space="preserve">0.470944195985794</t>
+    <t xml:space="preserve">0.470944076776505</t>
   </si>
   <si>
-    <t xml:space="preserve">0.455752402544022</t>
+    <t xml:space="preserve">0.455752372741699</t>
   </si>
   <si>
-    <t xml:space="preserve">0.467146188020706</t>
+    <t xml:space="preserve">0.467146158218384</t>
   </si>
   <si>
     <t xml:space="preserve">0.478539973497391</t>
   </si>
   <si>
-    <t xml:space="preserve">0.482337951660156</t>
+    <t xml:space="preserve">0.482337892055511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47474205493927</t>
+    <t xml:space="preserve">0.474742025136948</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45955029129982</t>
+    <t xml:space="preserve">0.459550321102142</t>
   </si>
   <si>
     <t xml:space="preserve">0.440560579299927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451954394578934</t>
+    <t xml:space="preserve">0.451954454183578</t>
   </si>
   <si>
-    <t xml:space="preserve">0.425368845462799</t>
+    <t xml:space="preserve">0.425368875265121</t>
   </si>
   <si>
-    <t xml:space="preserve">0.42916676402092</t>
+    <t xml:space="preserve">0.429166793823242</t>
   </si>
   <si>
     <t xml:space="preserve">0.444358557462692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463348209857941</t>
+    <t xml:space="preserve">0.463348239660263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.489933758974075</t>
+    <t xml:space="preserve">0.489933788776398</t>
   </si>
   <si>
     <t xml:space="preserve">0.577286303043365</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493731796741486</t>
+    <t xml:space="preserve">0.493731737136841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.501327633857727</t>
+    <t xml:space="preserve">0.501327574253082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497529655694962</t>
+    <t xml:space="preserve">0.497529685497284</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436762660741806</t>
+    <t xml:space="preserve">0.436762630939484</t>
   </si>
   <si>
     <t xml:space="preserve">0.432964742183685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41777303814888</t>
+    <t xml:space="preserve">0.417773008346558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410177171230316</t>
+    <t xml:space="preserve">0.410177141427994</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394985377788544</t>
+    <t xml:space="preserve">0.394985347986221</t>
   </si>
   <si>
     <t xml:space="preserve">0.406379222869873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421570956707001</t>
+    <t xml:space="preserve">0.421570926904678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402581244707108</t>
+    <t xml:space="preserve">0.40258127450943</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373716950416565</t>
+    <t xml:space="preserve">0.373716980218887</t>
   </si>
   <si>
     <t xml:space="preserve">0.372197777032852</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38738951086998</t>
+    <t xml:space="preserve">0.387389451265335</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379793643951416</t>
+    <t xml:space="preserve">0.379793614149094</t>
   </si>
   <si>
     <t xml:space="preserve">0.364601880311966</t>
@@ -914,7 +914,7 @@
     <t xml:space="preserve">0.341814249753952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344852685928345</t>
+    <t xml:space="preserve">0.3448526263237</t>
   </si>
   <si>
     <t xml:space="preserve">0.31902664899826</t>
@@ -923,16 +923,16 @@
     <t xml:space="preserve">0.284085661172867</t>
   </si>
   <si>
-    <t xml:space="preserve">0.305354088544846</t>
+    <t xml:space="preserve">0.305354118347168</t>
   </si>
   <si>
     <t xml:space="preserve">0.288643151521683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.299277365207672</t>
+    <t xml:space="preserve">0.299277395009995</t>
   </si>
   <si>
-    <t xml:space="preserve">0.287124007940292</t>
+    <t xml:space="preserve">0.28712397813797</t>
   </si>
   <si>
     <t xml:space="preserve">0.268893927335739</t>
@@ -941,13 +941,13 @@
     <t xml:space="preserve">0.273451447486877</t>
   </si>
   <si>
-    <t xml:space="preserve">0.267374724149704</t>
+    <t xml:space="preserve">0.267374694347382</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312949925661087</t>
+    <t xml:space="preserve">0.312949955463409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314469128847122</t>
+    <t xml:space="preserve">0.314469158649445</t>
   </si>
   <si>
     <t xml:space="preserve">0.297758221626282</t>
@@ -956,7 +956,7 @@
     <t xml:space="preserve">0.306873291730881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.308392405509949</t>
+    <t xml:space="preserve">0.308392435312271</t>
   </si>
   <si>
     <t xml:space="preserve">0.323584169149399</t>
@@ -968,19 +968,19 @@
     <t xml:space="preserve">0.338775932788849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370678544044495</t>
+    <t xml:space="preserve">0.370678603649139</t>
   </si>
   <si>
     <t xml:space="preserve">0.357006013393402</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350929319858551</t>
+    <t xml:space="preserve">0.350929349660873</t>
   </si>
   <si>
     <t xml:space="preserve">0.37675529718399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398783326148987</t>
+    <t xml:space="preserve">0.398783266544342</t>
   </si>
   <si>
     <t xml:space="preserve">0.413975059986115</t>
@@ -992,34 +992,34 @@
     <t xml:space="preserve">0.363082706928253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369159400463104</t>
+    <t xml:space="preserve">0.369159430265427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383591592311859</t>
+    <t xml:space="preserve">0.383591532707214</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378274470567703</t>
+    <t xml:space="preserve">0.378274440765381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353967636823654</t>
+    <t xml:space="preserve">0.353967666625977</t>
   </si>
   <si>
     <t xml:space="preserve">0.355486810207367</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352448493242264</t>
+    <t xml:space="preserve">0.352448523044586</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349410146474838</t>
+    <t xml:space="preserve">0.349410176277161</t>
   </si>
   <si>
     <t xml:space="preserve">0.335737586021423</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347890973091125</t>
+    <t xml:space="preserve">0.347891002893448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.334218412637711</t>
+    <t xml:space="preserve">0.334218382835388</t>
   </si>
   <si>
     <t xml:space="preserve">0.326622515916824</t>
@@ -1028,13 +1028,13 @@
     <t xml:space="preserve">0.311430782079697</t>
   </si>
   <si>
-    <t xml:space="preserve">0.315988302230835</t>
+    <t xml:space="preserve">0.315988332033157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.290162354707718</t>
+    <t xml:space="preserve">0.290162324905396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.293200731277466</t>
+    <t xml:space="preserve">0.293200671672821</t>
   </si>
   <si>
     <t xml:space="preserve">0.28560483455658</t>
@@ -1046,55 +1046,55 @@
     <t xml:space="preserve">0.296239018440247</t>
   </si>
   <si>
-    <t xml:space="preserve">0.303834915161133</t>
+    <t xml:space="preserve">0.30383488535881</t>
   </si>
   <si>
     <t xml:space="preserve">0.320545822381973</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325103372335434</t>
+    <t xml:space="preserve">0.325103312730789</t>
   </si>
   <si>
     <t xml:space="preserve">0.31750750541687</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47146800160408</t>
+    <t xml:space="preserve">0.471467912197113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.438382506370544</t>
+    <t xml:space="preserve">0.438382476568222</t>
   </si>
   <si>
     <t xml:space="preserve">0.425975441932678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413568407297134</t>
+    <t xml:space="preserve">0.413568377494812</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397025644779205</t>
+    <t xml:space="preserve">0.397025614976883</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405297011137009</t>
+    <t xml:space="preserve">0.405297040939331</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398679912090302</t>
+    <t xml:space="preserve">0.398679941892624</t>
   </si>
   <si>
     <t xml:space="preserve">0.417704075574875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41025984287262</t>
+    <t xml:space="preserve">0.410259813070297</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40033420920372</t>
+    <t xml:space="preserve">0.400334179401398</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383791446685791</t>
+    <t xml:space="preserve">0.383791476488113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377174377441406</t>
+    <t xml:space="preserve">0.377174347639084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.375520080327988</t>
+    <t xml:space="preserve">0.37552011013031</t>
   </si>
   <si>
     <t xml:space="preserve">0.372211545705795</t>
@@ -1103,13 +1103,13 @@
     <t xml:space="preserve">0.387099981307983</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380482912063599</t>
+    <t xml:space="preserve">0.380482941865921</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38544574379921</t>
+    <t xml:space="preserve">0.385445713996887</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368903011083603</t>
+    <t xml:space="preserve">0.368902981281281</t>
   </si>
   <si>
     <t xml:space="preserve">0.367248743772507</t>
@@ -1118,13 +1118,13 @@
     <t xml:space="preserve">0.382137179374695</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479739308357239</t>
+    <t xml:space="preserve">0.479739278554916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450789511203766</t>
+    <t xml:space="preserve">0.450789570808411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.496282070875168</t>
+    <t xml:space="preserve">0.49628210067749</t>
   </si>
   <si>
     <t xml:space="preserve">0.48801064491272</t>
@@ -1133,7 +1133,7 @@
     <t xml:space="preserve">0.483874976634979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454925209283829</t>
+    <t xml:space="preserve">0.454925239086151</t>
   </si>
   <si>
     <t xml:space="preserve">0.44251823425293</t>
@@ -1142,46 +1142,46 @@
     <t xml:space="preserve">0.430111110210419</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421839773654938</t>
+    <t xml:space="preserve">0.421839743852615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434246808290482</t>
+    <t xml:space="preserve">0.434246778488159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446653872728348</t>
+    <t xml:space="preserve">0.44665390253067</t>
   </si>
   <si>
     <t xml:space="preserve">0.408605575561523</t>
   </si>
   <si>
-    <t xml:space="preserve">0.401988446712494</t>
+    <t xml:space="preserve">0.401988476514816</t>
   </si>
   <si>
     <t xml:space="preserve">0.388754308223724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378828644752502</t>
+    <t xml:space="preserve">0.378828674554825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373865783214569</t>
+    <t xml:space="preserve">0.373865813016891</t>
   </si>
   <si>
     <t xml:space="preserve">0.406951308250427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395371407270432</t>
+    <t xml:space="preserve">0.395371377468109</t>
   </si>
   <si>
     <t xml:space="preserve">0.403642743825912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.393717110157013</t>
+    <t xml:space="preserve">0.393717080354691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347397416830063</t>
+    <t xml:space="preserve">0.347397446632385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32920041680336</t>
+    <t xml:space="preserve">0.329200446605682</t>
   </si>
   <si>
     <t xml:space="preserve">0.330854713916779</t>
@@ -1190,19 +1190,19 @@
     <t xml:space="preserve">0.349051713943481</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350705981254578</t>
+    <t xml:space="preserve">0.3507060110569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355668812990189</t>
+    <t xml:space="preserve">0.355668842792511</t>
   </si>
   <si>
     <t xml:space="preserve">0.358977347612381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362285912036896</t>
+    <t xml:space="preserve">0.362285882234573</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36394014954567</t>
+    <t xml:space="preserve">0.363940179347992</t>
   </si>
   <si>
     <t xml:space="preserve">0.370557278394699</t>
@@ -1211,22 +1211,22 @@
     <t xml:space="preserve">0.360631614923477</t>
   </si>
   <si>
-    <t xml:space="preserve">0.339126080274582</t>
+    <t xml:space="preserve">0.339126110076904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.337471812963486</t>
+    <t xml:space="preserve">0.337471783161163</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332508951425552</t>
+    <t xml:space="preserve">0.332509011030197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344088912010193</t>
+    <t xml:space="preserve">0.34408888220787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354014575481415</t>
+    <t xml:space="preserve">0.35401451587677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.348381459712982</t>
+    <t xml:space="preserve">0.348381489515305</t>
   </si>
   <si>
     <t xml:space="preserve">0.353581219911575</t>
@@ -1235,13 +1235,13 @@
     <t xml:space="preserve">0.344915002584457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350114732980728</t>
+    <t xml:space="preserve">0.350114762783051</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363980650901794</t>
+    <t xml:space="preserve">0.363980680704117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365713894367218</t>
+    <t xml:space="preserve">0.36571392416954</t>
   </si>
   <si>
     <t xml:space="preserve">0.351847976446152</t>
@@ -1256,25 +1256,25 @@
     <t xml:space="preserve">0.332782328128815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.320649594068527</t>
+    <t xml:space="preserve">0.320649653673172</t>
   </si>
   <si>
-    <t xml:space="preserve">0.331049084663391</t>
+    <t xml:space="preserve">0.331049114465714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346648246049881</t>
+    <t xml:space="preserve">0.346648275852203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329315811395645</t>
+    <t xml:space="preserve">0.329315841197968</t>
   </si>
   <si>
     <t xml:space="preserve">0.327582627534866</t>
   </si>
   <si>
-    <t xml:space="preserve">0.318916410207748</t>
+    <t xml:space="preserve">0.318916380405426</t>
   </si>
   <si>
-    <t xml:space="preserve">0.31025019288063</t>
+    <t xml:space="preserve">0.310250163078308</t>
   </si>
   <si>
     <t xml:space="preserve">0.315449893474579</t>
@@ -1301,16 +1301,16 @@
     <t xml:space="preserve">0.311983436346054</t>
   </si>
   <si>
-    <t xml:space="preserve">0.313716679811478</t>
+    <t xml:space="preserve">0.313716650009155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.324116110801697</t>
+    <t xml:space="preserve">0.324116140604019</t>
   </si>
   <si>
     <t xml:space="preserve">0.32584935426712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.337982028722763</t>
+    <t xml:space="preserve">0.337982058525085</t>
   </si>
   <si>
     <t xml:space="preserve">0.317183166742325</t>
@@ -1319,7 +1319,7 @@
     <t xml:space="preserve">0.379579842090607</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370913654565811</t>
+    <t xml:space="preserve">0.370913624763489</t>
   </si>
   <si>
     <t xml:space="preserve">0.372646868228912</t>
@@ -1331,10 +1331,10 @@
     <t xml:space="preserve">0.367447137832642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369180411100388</t>
+    <t xml:space="preserve">0.369180381298065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386512815952301</t>
+    <t xml:space="preserve">0.386512786149979</t>
   </si>
   <si>
     <t xml:space="preserve">0.323986053466797</t>
@@ -59535,7 +59535,7 @@
     </row>
     <row r="2220">
       <c r="A2220" s="1" t="n">
-        <v>45554.4736226852</v>
+        <v>45554.2916666667</v>
       </c>
       <c r="B2220" t="n">
         <v>8000</v>
@@ -59556,6 +59556,32 @@
         <v>495</v>
       </c>
       <c r="H2220" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221" s="1" t="n">
+        <v>45555.5515856482</v>
+      </c>
+      <c r="B2221" t="n">
+        <v>20000</v>
+      </c>
+      <c r="C2221" t="n">
+        <v>0.319999992847443</v>
+      </c>
+      <c r="D2221" t="n">
+        <v>0.316000014543533</v>
+      </c>
+      <c r="E2221" t="n">
+        <v>0.316000014543533</v>
+      </c>
+      <c r="F2221" t="n">
+        <v>0.319999992847443</v>
+      </c>
+      <c r="G2221" t="s">
+        <v>495</v>
+      </c>
+      <c r="H2221" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/POPR.MI.xlsx
+++ b/data/POPR.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193052023649216</t>
+    <t xml:space="preserve">0.193052008748055</t>
   </si>
   <si>
     <t xml:space="preserve">POPR.MI</t>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">0.193741500377655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.189604684710503</t>
+    <t xml:space="preserve">0.189604669809341</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188225731253624</t>
+    <t xml:space="preserve">0.188225761055946</t>
   </si>
   <si>
     <t xml:space="preserve">0.179952070116997</t>
@@ -59,28 +59,28 @@
     <t xml:space="preserve">0.186157330870628</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163404762744904</t>
+    <t xml:space="preserve">0.163404777646065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157199516892433</t>
+    <t xml:space="preserve">0.157199531793594</t>
   </si>
   <si>
     <t xml:space="preserve">0.164301067590714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159267917275429</t>
+    <t xml:space="preserve">0.15926793217659</t>
   </si>
   <si>
     <t xml:space="preserve">0.167541578412056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168231055140495</t>
+    <t xml:space="preserve">0.168231040239334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165404230356216</t>
+    <t xml:space="preserve">0.165404215455055</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160646870732307</t>
+    <t xml:space="preserve">0.160646885633469</t>
   </si>
   <si>
     <t xml:space="preserve">0.153407409787178</t>
@@ -89,10 +89,10 @@
     <t xml:space="preserve">0.15306268632412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153476357460022</t>
+    <t xml:space="preserve">0.153476372361183</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155820548534393</t>
+    <t xml:space="preserve">0.155820578336716</t>
   </si>
   <si>
     <t xml:space="preserve">0.15237320959568</t>
@@ -104,7 +104,7 @@
     <t xml:space="preserve">0.186846792697906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182985723018646</t>
+    <t xml:space="preserve">0.182985737919807</t>
   </si>
   <si>
     <t xml:space="preserve">0.179262593388557</t>
@@ -119,31 +119,31 @@
     <t xml:space="preserve">0.164094224572182</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17078210413456</t>
+    <t xml:space="preserve">0.170782089233398</t>
   </si>
   <si>
     <t xml:space="preserve">0.176504716277122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174367353320122</t>
+    <t xml:space="preserve">0.174367368221283</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194499909877777</t>
+    <t xml:space="preserve">0.194499924778938</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194430992007256</t>
+    <t xml:space="preserve">0.194430977106094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187536269426346</t>
+    <t xml:space="preserve">0.187536284327507</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182020500302315</t>
+    <t xml:space="preserve">0.182020485401154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206841453909874</t>
+    <t xml:space="preserve">0.206841468811035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211323022842407</t>
+    <t xml:space="preserve">0.211323007941246</t>
   </si>
   <si>
     <t xml:space="preserve">0.210288822650909</t>
@@ -158,52 +158,52 @@
     <t xml:space="preserve">0.220630869269371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228904545307159</t>
+    <t xml:space="preserve">0.228904515504837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220561951398849</t>
+    <t xml:space="preserve">0.220561921596527</t>
   </si>
   <si>
     <t xml:space="preserve">0.21580459177494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.213046669960022</t>
+    <t xml:space="preserve">0.213046684861183</t>
   </si>
   <si>
     <t xml:space="preserve">0.196499392390251</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199946746230125</t>
+    <t xml:space="preserve">0.199946731328964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186295226216316</t>
+    <t xml:space="preserve">0.186295196413994</t>
   </si>
   <si>
-    <t xml:space="preserve">0.18477837741375</t>
+    <t xml:space="preserve">0.184778362512589</t>
   </si>
   <si>
     <t xml:space="preserve">0.178573131561279</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166300520300865</t>
+    <t xml:space="preserve">0.166300535202026</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182709962129593</t>
+    <t xml:space="preserve">0.182709947228432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172298923134804</t>
+    <t xml:space="preserve">0.172298938035965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166852086782455</t>
+    <t xml:space="preserve">0.166852101683617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168920546770096</t>
+    <t xml:space="preserve">0.168920531868935</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172919452190399</t>
+    <t xml:space="preserve">0.172919481992722</t>
   </si>
   <si>
-    <t xml:space="preserve">0.204083576798439</t>
+    <t xml:space="preserve">0.2040835916996</t>
   </si>
   <si>
     <t xml:space="preserve">0.206151992082596</t>
@@ -230,61 +230,61 @@
     <t xml:space="preserve">0.162715286016464</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158578440546989</t>
+    <t xml:space="preserve">0.158578455448151</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173746839165688</t>
+    <t xml:space="preserve">0.173746824264526</t>
   </si>
   <si>
     <t xml:space="preserve">0.181193113327026</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187191501259804</t>
+    <t xml:space="preserve">0.187191531062126</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188915193080902</t>
+    <t xml:space="preserve">0.188915178179741</t>
   </si>
   <si>
-    <t xml:space="preserve">0.200291469693184</t>
+    <t xml:space="preserve">0.200291454792023</t>
   </si>
   <si>
     <t xml:space="preserve">0.219941422343254</t>
   </si>
   <si>
-    <t xml:space="preserve">0.212357208132744</t>
+    <t xml:space="preserve">0.212357237935066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195396229624748</t>
+    <t xml:space="preserve">0.195396199822426</t>
   </si>
   <si>
     <t xml:space="preserve">0.209254622459412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220492988824844</t>
+    <t xml:space="preserve">0.220493003726006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.213736176490784</t>
+    <t xml:space="preserve">0.213736206293106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210357785224915</t>
+    <t xml:space="preserve">0.210357770323753</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219251975417137</t>
+    <t xml:space="preserve">0.219251945614815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23373082280159</t>
+    <t xml:space="preserve">0.233730837702751</t>
   </si>
   <si>
     <t xml:space="preserve">0.237798750400543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25510448217392</t>
+    <t xml:space="preserve">0.255104452371597</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261309713125229</t>
+    <t xml:space="preserve">0.261309742927551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.275788635015488</t>
+    <t xml:space="preserve">0.27578866481781</t>
   </si>
   <si>
     <t xml:space="preserve">0.293025404214859</t>
@@ -293,13 +293,13 @@
     <t xml:space="preserve">0.301988542079926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.318535834550858</t>
+    <t xml:space="preserve">0.31853586435318</t>
   </si>
   <si>
     <t xml:space="preserve">0.327499002218246</t>
   </si>
   <si>
-    <t xml:space="preserve">0.282683283090591</t>
+    <t xml:space="preserve">0.282683342695236</t>
   </si>
   <si>
     <t xml:space="preserve">0.285372287034988</t>
@@ -308,10 +308,10 @@
     <t xml:space="preserve">0.274478584527969</t>
   </si>
   <si>
-    <t xml:space="preserve">0.274409651756287</t>
+    <t xml:space="preserve">0.274409681558609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.266342848539352</t>
+    <t xml:space="preserve">0.266342878341675</t>
   </si>
   <si>
     <t xml:space="preserve">0.266825467348099</t>
@@ -323,31 +323,31 @@
     <t xml:space="preserve">0.251657128334045</t>
   </si>
   <si>
-    <t xml:space="preserve">0.256483435630798</t>
+    <t xml:space="preserve">0.256483405828476</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230972975492477</t>
+    <t xml:space="preserve">0.230972990393639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226974010467529</t>
+    <t xml:space="preserve">0.22697402536869</t>
   </si>
   <si>
     <t xml:space="preserve">0.232351928949356</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228973507881165</t>
+    <t xml:space="preserve">0.228973492980003</t>
   </si>
   <si>
     <t xml:space="preserve">0.260620266199112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.268893927335739</t>
+    <t xml:space="preserve">0.268893897533417</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253173917531967</t>
+    <t xml:space="preserve">0.25317394733429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249588668346405</t>
+    <t xml:space="preserve">0.249588698148727</t>
   </si>
   <si>
     <t xml:space="preserve">0.258551806211472</t>
@@ -356,49 +356,49 @@
     <t xml:space="preserve">0.248209774494171</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244762361049652</t>
+    <t xml:space="preserve">0.244762390851974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237867668271065</t>
+    <t xml:space="preserve">0.237867698073387</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243935033679008</t>
+    <t xml:space="preserve">0.24393504858017</t>
   </si>
   <si>
     <t xml:space="preserve">0.233799785375595</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220699831843376</t>
+    <t xml:space="preserve">0.220699816942215</t>
   </si>
   <si>
-    <t xml:space="preserve">0.224078252911568</t>
+    <t xml:space="preserve">0.224078223109245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226836159825325</t>
+    <t xml:space="preserve">0.226836144924164</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226146683096886</t>
+    <t xml:space="preserve">0.226146668195724</t>
   </si>
   <si>
     <t xml:space="preserve">0.227525621652603</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229042440652847</t>
+    <t xml:space="preserve">0.22904247045517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232489809393883</t>
+    <t xml:space="preserve">0.23248977959156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247520282864571</t>
+    <t xml:space="preserve">0.247520312666893</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241177126765251</t>
+    <t xml:space="preserve">0.24117711186409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.242211326956749</t>
+    <t xml:space="preserve">0.242211356759071</t>
   </si>
   <si>
-    <t xml:space="preserve">0.251726061105728</t>
+    <t xml:space="preserve">0.251726031303406</t>
   </si>
   <si>
     <t xml:space="preserve">0.25710391998291</t>
@@ -410,58 +410,58 @@
     <t xml:space="preserve">0.2413150370121</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241039246320724</t>
+    <t xml:space="preserve">0.241039231419563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237936601042747</t>
+    <t xml:space="preserve">0.23793663084507</t>
   </si>
   <si>
     <t xml:space="preserve">0.253725528717041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238074511289597</t>
+    <t xml:space="preserve">0.238074526190758</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244969218969345</t>
+    <t xml:space="preserve">0.244969248771667</t>
   </si>
   <si>
     <t xml:space="preserve">0.32598215341568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386104047298431</t>
+    <t xml:space="preserve">0.386104017496109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.510208964347839</t>
+    <t xml:space="preserve">0.510208904743195</t>
   </si>
   <si>
-    <t xml:space="preserve">0.598461210727692</t>
+    <t xml:space="preserve">0.598461270332336</t>
   </si>
   <si>
     <t xml:space="preserve">0.523308873176575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479182690382004</t>
+    <t xml:space="preserve">0.479182660579681</t>
   </si>
   <si>
     <t xml:space="preserve">0.462980180978775</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434367060661316</t>
+    <t xml:space="preserve">0.434367030858994</t>
   </si>
   <si>
-    <t xml:space="preserve">0.399893492460251</t>
+    <t xml:space="preserve">0.399893462657928</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4543616771698</t>
+    <t xml:space="preserve">0.454361706972122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402996122837067</t>
+    <t xml:space="preserve">0.402996182441711</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410235553979874</t>
+    <t xml:space="preserve">0.410235583782196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3798987865448</t>
+    <t xml:space="preserve">0.379898816347122</t>
   </si>
   <si>
     <t xml:space="preserve">0.357490986585617</t>
@@ -479,10 +479,10 @@
     <t xml:space="preserve">0.353009432554245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382656663656235</t>
+    <t xml:space="preserve">0.382656693458557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374383002519608</t>
+    <t xml:space="preserve">0.374383062124252</t>
   </si>
   <si>
     <t xml:space="preserve">0.358525186777115</t>
@@ -491,19 +491,19 @@
     <t xml:space="preserve">0.34921732544899</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352319926023483</t>
+    <t xml:space="preserve">0.352319955825806</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365419924259186</t>
+    <t xml:space="preserve">0.365419894456863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361972540616989</t>
+    <t xml:space="preserve">0.361972570419312</t>
   </si>
   <si>
     <t xml:space="preserve">0.348183125257492</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35576730966568</t>
+    <t xml:space="preserve">0.355767250061035</t>
   </si>
   <si>
     <t xml:space="preserve">0.344735741615295</t>
@@ -512,19 +512,19 @@
     <t xml:space="preserve">0.341977834701538</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367143630981445</t>
+    <t xml:space="preserve">0.367143601179123</t>
   </si>
   <si>
-    <t xml:space="preserve">0.348872601985931</t>
+    <t xml:space="preserve">0.348872572183609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347493678331375</t>
+    <t xml:space="preserve">0.347493648529053</t>
   </si>
   <si>
     <t xml:space="preserve">0.360248863697052</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354388356208801</t>
+    <t xml:space="preserve">0.354388326406479</t>
   </si>
   <si>
     <t xml:space="preserve">0.359904140233994</t>
@@ -533,7 +533,7 @@
     <t xml:space="preserve">0.330946356058121</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340598940849304</t>
+    <t xml:space="preserve">0.340598911046982</t>
   </si>
   <si>
     <t xml:space="preserve">0.341219455003738</t>
@@ -554,19 +554,19 @@
     <t xml:space="preserve">0.373004108667374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350251525640488</t>
+    <t xml:space="preserve">0.35025155544281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370591014623642</t>
+    <t xml:space="preserve">0.37059098482132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345080524682999</t>
+    <t xml:space="preserve">0.345080494880676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359559386968613</t>
+    <t xml:space="preserve">0.359559416770935</t>
   </si>
   <si>
-    <t xml:space="preserve">0.427472352981567</t>
+    <t xml:space="preserve">0.427472412586212</t>
   </si>
   <si>
     <t xml:space="preserve">0.405409246683121</t>
@@ -575,22 +575,22 @@
     <t xml:space="preserve">0.404719769954681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40609872341156</t>
+    <t xml:space="preserve">0.406098693609238</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398859322071075</t>
+    <t xml:space="preserve">0.398859262466431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406788170337677</t>
+    <t xml:space="preserve">0.406788200139999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378519892692566</t>
+    <t xml:space="preserve">0.378519862890244</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3836909532547</t>
+    <t xml:space="preserve">0.383690923452377</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388861984014511</t>
+    <t xml:space="preserve">0.388861954212189</t>
   </si>
   <si>
     <t xml:space="preserve">0.402651399374008</t>
@@ -599,76 +599,76 @@
     <t xml:space="preserve">0.426438122987747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429540723562241</t>
+    <t xml:space="preserve">0.429540812969208</t>
   </si>
   <si>
     <t xml:space="preserve">0.41437241435051</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413682907819748</t>
+    <t xml:space="preserve">0.41368293762207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424714416265488</t>
+    <t xml:space="preserve">0.424714475870132</t>
   </si>
   <si>
     <t xml:space="preserve">0.414027690887451</t>
   </si>
   <si>
-    <t xml:space="preserve">0.447467058897018</t>
+    <t xml:space="preserve">0.447466969490051</t>
   </si>
   <si>
     <t xml:space="preserve">0.455051243305206</t>
   </si>
   <si>
-    <t xml:space="preserve">0.43023020029068</t>
+    <t xml:space="preserve">0.430230259895325</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413338214159012</t>
+    <t xml:space="preserve">0.413338154554367</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424024999141693</t>
+    <t xml:space="preserve">0.424024969339371</t>
   </si>
   <si>
     <t xml:space="preserve">0.517103612422943</t>
   </si>
   <si>
-    <t xml:space="preserve">0.481940656900406</t>
+    <t xml:space="preserve">0.481940597295761</t>
   </si>
   <si>
     <t xml:space="preserve">0.496419548988342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47573533654213</t>
+    <t xml:space="preserve">0.475735396146774</t>
   </si>
   <si>
     <t xml:space="preserve">0.480561673641205</t>
   </si>
   <si>
-    <t xml:space="preserve">0.489524722099304</t>
+    <t xml:space="preserve">0.489524781703949</t>
   </si>
   <si>
     <t xml:space="preserve">0.4826300740242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463324934244156</t>
+    <t xml:space="preserve">0.463324874639511</t>
   </si>
   <si>
     <t xml:space="preserve">0.466082721948624</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461945950984955</t>
+    <t xml:space="preserve">0.461945980787277</t>
   </si>
   <si>
     <t xml:space="preserve">0.449535459280014</t>
   </si>
   <si>
-    <t xml:space="preserve">0.445398598909378</t>
+    <t xml:space="preserve">0.445398658514023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448156505823135</t>
+    <t xml:space="preserve">0.448156446218491</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45367231965065</t>
+    <t xml:space="preserve">0.453672289848328</t>
   </si>
   <si>
     <t xml:space="preserve">0.441261738538742</t>
@@ -677,31 +677,31 @@
     <t xml:space="preserve">0.474356412887573</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457809090614319</t>
+    <t xml:space="preserve">0.457809031009674</t>
   </si>
   <si>
     <t xml:space="preserve">0.507451057434082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.468840628862381</t>
+    <t xml:space="preserve">0.468840599060059</t>
   </si>
   <si>
-    <t xml:space="preserve">0.438503950834274</t>
+    <t xml:space="preserve">0.43850389122963</t>
   </si>
   <si>
-    <t xml:space="preserve">0.459188014268875</t>
+    <t xml:space="preserve">0.459188044071198</t>
   </si>
   <si>
     <t xml:space="preserve">0.464703857898712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45091438293457</t>
+    <t xml:space="preserve">0.450914412736893</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437124937772751</t>
+    <t xml:space="preserve">0.437124907970428</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444019645452499</t>
+    <t xml:space="preserve">0.444019675254822</t>
   </si>
   <si>
     <t xml:space="preserve">0.41919869184494</t>
@@ -710,25 +710,25 @@
     <t xml:space="preserve">0.420577645301819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.426093339920044</t>
+    <t xml:space="preserve">0.426093369722366</t>
   </si>
   <si>
-    <t xml:space="preserve">0.442640781402588</t>
+    <t xml:space="preserve">0.442640721797943</t>
   </si>
   <si>
     <t xml:space="preserve">0.472977489233017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.460566937923431</t>
+    <t xml:space="preserve">0.460566967725754</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446777611970901</t>
+    <t xml:space="preserve">0.446777641773224</t>
   </si>
   <si>
-    <t xml:space="preserve">0.43298813700676</t>
+    <t xml:space="preserve">0.432988107204437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452293366193771</t>
+    <t xml:space="preserve">0.452293336391449</t>
   </si>
   <si>
     <t xml:space="preserve">0.439882844686508</t>
@@ -737,7 +737,7 @@
     <t xml:space="preserve">0.456430166959763</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397135615348816</t>
+    <t xml:space="preserve">0.397135585546494</t>
   </si>
   <si>
     <t xml:space="preserve">0.40127244591713</t>
@@ -755,52 +755,52 @@
     <t xml:space="preserve">0.394377738237381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391619831323624</t>
+    <t xml:space="preserve">0.391619801521301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377830386161804</t>
+    <t xml:space="preserve">0.377830356359482</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369556754827499</t>
+    <t xml:space="preserve">0.369556725025177</t>
   </si>
   <si>
     <t xml:space="preserve">0.370935648679733</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379209369421005</t>
+    <t xml:space="preserve">0.379209339618683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408167153596878</t>
+    <t xml:space="preserve">0.4081671833992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423335552215576</t>
+    <t xml:space="preserve">0.423335522413254</t>
   </si>
   <si>
     <t xml:space="preserve">0.38748300075531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395756602287292</t>
+    <t xml:space="preserve">0.395756661891937</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415061831474304</t>
+    <t xml:space="preserve">0.415061801671982</t>
   </si>
   <si>
     <t xml:space="preserve">0.412303984165192</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409546047449112</t>
+    <t xml:space="preserve">0.409546077251434</t>
   </si>
   <si>
     <t xml:space="preserve">0.421956539154053</t>
   </si>
   <si>
-    <t xml:space="preserve">0.428851246833801</t>
+    <t xml:space="preserve">0.428851306438446</t>
   </si>
   <si>
     <t xml:space="preserve">0.431609183549881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465393334627151</t>
+    <t xml:space="preserve">0.465393275022507</t>
   </si>
   <si>
     <t xml:space="preserve">0.472287982702255</t>
@@ -815,13 +815,13 @@
     <t xml:space="preserve">0.508923470973969</t>
   </si>
   <si>
-    <t xml:space="preserve">0.486135840415955</t>
+    <t xml:space="preserve">0.486135810613632</t>
   </si>
   <si>
     <t xml:space="preserve">0.470944106578827</t>
   </si>
   <si>
-    <t xml:space="preserve">0.455752372741699</t>
+    <t xml:space="preserve">0.455752432346344</t>
   </si>
   <si>
     <t xml:space="preserve">0.467146158218384</t>
@@ -830,28 +830,25 @@
     <t xml:space="preserve">0.478539973497391</t>
   </si>
   <si>
-    <t xml:space="preserve">0.482337951660156</t>
+    <t xml:space="preserve">0.482337921857834</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474742025136948</t>
+    <t xml:space="preserve">0.47474205493927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45955029129982</t>
+    <t xml:space="preserve">0.459550261497498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448156446218491</t>
+    <t xml:space="preserve">0.440560579299927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440560609102249</t>
+    <t xml:space="preserve">0.451954424381256</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451954394578934</t>
+    <t xml:space="preserve">0.425368875265121</t>
   </si>
   <si>
-    <t xml:space="preserve">0.425368845462799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.42916676402092</t>
+    <t xml:space="preserve">0.429166823625565</t>
   </si>
   <si>
     <t xml:space="preserve">0.44435852766037</t>
@@ -866,49 +863,49 @@
     <t xml:space="preserve">0.577286243438721</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493731737136841</t>
+    <t xml:space="preserve">0.493731707334518</t>
   </si>
   <si>
-    <t xml:space="preserve">0.501327633857727</t>
+    <t xml:space="preserve">0.501327693462372</t>
   </si>
   <si>
     <t xml:space="preserve">0.497529685497284</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436762630939484</t>
+    <t xml:space="preserve">0.436762660741806</t>
   </si>
   <si>
     <t xml:space="preserve">0.432964742183685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41777303814888</t>
+    <t xml:space="preserve">0.417773008346558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410177141427994</t>
+    <t xml:space="preserve">0.410177111625671</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394985347986221</t>
+    <t xml:space="preserve">0.394985318183899</t>
   </si>
   <si>
     <t xml:space="preserve">0.406379193067551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421570926904678</t>
+    <t xml:space="preserve">0.421570897102356</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402581214904785</t>
+    <t xml:space="preserve">0.402581185102463</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373716950416565</t>
+    <t xml:space="preserve">0.373716980218887</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372197777032852</t>
+    <t xml:space="preserve">0.37219774723053</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387389451265335</t>
+    <t xml:space="preserve">0.387389481067657</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379793614149094</t>
+    <t xml:space="preserve">0.379793643951416</t>
   </si>
   <si>
     <t xml:space="preserve">0.364601880311966</t>
@@ -923,25 +920,28 @@
     <t xml:space="preserve">0.31902664899826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.284085661172867</t>
+    <t xml:space="preserve">0.284085631370544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.305354088544846</t>
+    <t xml:space="preserve">0.305354118347168</t>
   </si>
   <si>
     <t xml:space="preserve">0.28864312171936</t>
   </si>
   <si>
-    <t xml:space="preserve">0.299277365207672</t>
+    <t xml:space="preserve">0.299277395009995</t>
   </si>
   <si>
-    <t xml:space="preserve">0.287124007940292</t>
+    <t xml:space="preserve">0.28712397813797</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273451417684555</t>
+    <t xml:space="preserve">0.268893927335739</t>
   </si>
   <si>
-    <t xml:space="preserve">0.267374694347382</t>
+    <t xml:space="preserve">0.273451447486877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.267374724149704</t>
   </si>
   <si>
     <t xml:space="preserve">0.312949955463409</t>
@@ -950,7 +950,7 @@
     <t xml:space="preserve">0.314469128847122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.297758221626282</t>
+    <t xml:space="preserve">0.297758191823959</t>
   </si>
   <si>
     <t xml:space="preserve">0.306873261928558</t>
@@ -959,22 +959,22 @@
     <t xml:space="preserve">0.308392435312271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.323584198951721</t>
+    <t xml:space="preserve">0.323584169149399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332699209451675</t>
+    <t xml:space="preserve">0.332699239253998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338775962591171</t>
+    <t xml:space="preserve">0.338775932788849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370678603649139</t>
+    <t xml:space="preserve">0.370678573846817</t>
   </si>
   <si>
     <t xml:space="preserve">0.357006013393402</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350929319858551</t>
+    <t xml:space="preserve">0.350929379463196</t>
   </si>
   <si>
     <t xml:space="preserve">0.376755267381668</t>
@@ -983,7 +983,7 @@
     <t xml:space="preserve">0.398783296346664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413975059986115</t>
+    <t xml:space="preserve">0.413975030183792</t>
   </si>
   <si>
     <t xml:space="preserve">0.36004438996315</t>
@@ -992,34 +992,34 @@
     <t xml:space="preserve">0.363082706928253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369159400463104</t>
+    <t xml:space="preserve">0.369159370660782</t>
   </si>
   <si>
     <t xml:space="preserve">0.383591562509537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378274470567703</t>
+    <t xml:space="preserve">0.378274440765381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353967666625977</t>
+    <t xml:space="preserve">0.353967696428299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355486869812012</t>
+    <t xml:space="preserve">0.355486840009689</t>
   </si>
   <si>
     <t xml:space="preserve">0.352448493242264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349410146474838</t>
+    <t xml:space="preserve">0.349410176277161</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335737586021423</t>
+    <t xml:space="preserve">0.335737615823746</t>
   </si>
   <si>
     <t xml:space="preserve">0.347890973091125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.334218382835388</t>
+    <t xml:space="preserve">0.334218412637711</t>
   </si>
   <si>
     <t xml:space="preserve">0.326622545719147</t>
@@ -1034,40 +1034,40 @@
     <t xml:space="preserve">0.290162324905396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.293200731277466</t>
+    <t xml:space="preserve">0.293200701475143</t>
   </si>
   <si>
-    <t xml:space="preserve">0.28560483455658</t>
+    <t xml:space="preserve">0.285604804754257</t>
   </si>
   <si>
     <t xml:space="preserve">0.291681528091431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.296239018440247</t>
+    <t xml:space="preserve">0.296238988637924</t>
   </si>
   <si>
-    <t xml:space="preserve">0.303834915161133</t>
+    <t xml:space="preserve">0.30383488535881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.320545852184296</t>
+    <t xml:space="preserve">0.320545822381973</t>
   </si>
   <si>
     <t xml:space="preserve">0.325103342533112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.31750750541687</t>
+    <t xml:space="preserve">0.317507475614548</t>
   </si>
   <si>
     <t xml:space="preserve">0.471467941999435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.438382476568222</t>
+    <t xml:space="preserve">0.438382416963577</t>
   </si>
   <si>
     <t xml:space="preserve">0.425975441932678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413568377494812</t>
+    <t xml:space="preserve">0.413568407297134</t>
   </si>
   <si>
     <t xml:space="preserve">0.397025614976883</t>
@@ -1076,10 +1076,10 @@
     <t xml:space="preserve">0.405297011137009</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398679912090302</t>
+    <t xml:space="preserve">0.398679941892624</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41770401597023</t>
+    <t xml:space="preserve">0.417704045772552</t>
   </si>
   <si>
     <t xml:space="preserve">0.410259813070297</t>
@@ -1088,13 +1088,13 @@
     <t xml:space="preserve">0.40033420920372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383791476488113</t>
+    <t xml:space="preserve">0.383791446685791</t>
   </si>
   <si>
     <t xml:space="preserve">0.377174347639084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37552011013031</t>
+    <t xml:space="preserve">0.375520080327988</t>
   </si>
   <si>
     <t xml:space="preserve">0.372211515903473</t>
@@ -1106,55 +1106,55 @@
     <t xml:space="preserve">0.380482941865921</t>
   </si>
   <si>
-    <t xml:space="preserve">0.385445713996887</t>
+    <t xml:space="preserve">0.38544574379921</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368903011083603</t>
+    <t xml:space="preserve">0.368902981281281</t>
   </si>
   <si>
     <t xml:space="preserve">0.367248713970184</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382137179374695</t>
+    <t xml:space="preserve">0.382137209177017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479739308357239</t>
+    <t xml:space="preserve">0.479739278554916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450789570808411</t>
+    <t xml:space="preserve">0.450789511203766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.496282041072845</t>
+    <t xml:space="preserve">0.496282160282135</t>
   </si>
   <si>
     <t xml:space="preserve">0.488010674715042</t>
   </si>
   <si>
-    <t xml:space="preserve">0.483875006437302</t>
+    <t xml:space="preserve">0.483874976634979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454925268888474</t>
+    <t xml:space="preserve">0.454925239086151</t>
   </si>
   <si>
     <t xml:space="preserve">0.442518204450607</t>
   </si>
   <si>
-    <t xml:space="preserve">0.430111110210419</t>
+    <t xml:space="preserve">0.430111080408096</t>
   </si>
   <si>
     <t xml:space="preserve">0.421839743852615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434246748685837</t>
+    <t xml:space="preserve">0.434246778488159</t>
   </si>
   <si>
     <t xml:space="preserve">0.446653842926025</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408605575561523</t>
+    <t xml:space="preserve">0.408605545759201</t>
   </si>
   <si>
-    <t xml:space="preserve">0.401988476514816</t>
+    <t xml:space="preserve">0.401988446712494</t>
   </si>
   <si>
     <t xml:space="preserve">0.388754308223724</t>
@@ -1163,25 +1163,25 @@
     <t xml:space="preserve">0.378828644752502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373865813016891</t>
+    <t xml:space="preserve">0.373865842819214</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406951308250427</t>
+    <t xml:space="preserve">0.40695133805275</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395371377468109</t>
+    <t xml:space="preserve">0.395371347665787</t>
   </si>
   <si>
     <t xml:space="preserve">0.403642743825912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.393717080354691</t>
+    <t xml:space="preserve">0.393717110157013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347397416830063</t>
+    <t xml:space="preserve">0.347397446632385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32920041680336</t>
+    <t xml:space="preserve">0.329200476408005</t>
   </si>
   <si>
     <t xml:space="preserve">0.330854684114456</t>
@@ -1193,28 +1193,28 @@
     <t xml:space="preserve">0.3507060110569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355668812990189</t>
+    <t xml:space="preserve">0.355668842792511</t>
   </si>
   <si>
     <t xml:space="preserve">0.358977317810059</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362285882234573</t>
+    <t xml:space="preserve">0.362285912036896</t>
   </si>
   <si>
     <t xml:space="preserve">0.363940179347992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370557308197021</t>
+    <t xml:space="preserve">0.370557278394699</t>
   </si>
   <si>
     <t xml:space="preserve">0.3606316447258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.339126080274582</t>
+    <t xml:space="preserve">0.33912605047226</t>
   </si>
   <si>
-    <t xml:space="preserve">0.337471783161163</t>
+    <t xml:space="preserve">0.337471812963486</t>
   </si>
   <si>
     <t xml:space="preserve">0.332509011030197</t>
@@ -1235,7 +1235,7 @@
     <t xml:space="preserve">0.34491503238678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350114762783051</t>
+    <t xml:space="preserve">0.350114732980728</t>
   </si>
   <si>
     <t xml:space="preserve">0.363980650901794</t>
@@ -1250,10 +1250,10 @@
     <t xml:space="preserve">0.355314463376999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.343181759119034</t>
+    <t xml:space="preserve">0.343181788921356</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332782357931137</t>
+    <t xml:space="preserve">0.332782328128815</t>
   </si>
   <si>
     <t xml:space="preserve">0.320649653673172</t>
@@ -1262,7 +1262,7 @@
     <t xml:space="preserve">0.331049054861069</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346648246049881</t>
+    <t xml:space="preserve">0.346648275852203</t>
   </si>
   <si>
     <t xml:space="preserve">0.329315841197968</t>
@@ -1277,7 +1277,7 @@
     <t xml:space="preserve">0.31025019288063</t>
   </si>
   <si>
-    <t xml:space="preserve">0.315449893474579</t>
+    <t xml:space="preserve">0.315449923276901</t>
   </si>
   <si>
     <t xml:space="preserve">0.306783705949783</t>
@@ -1286,10 +1286,10 @@
     <t xml:space="preserve">0.303317219018936</t>
   </si>
   <si>
-    <t xml:space="preserve">0.30505046248436</t>
+    <t xml:space="preserve">0.305050432682037</t>
   </si>
   <si>
-    <t xml:space="preserve">0.296384245157242</t>
+    <t xml:space="preserve">0.296384274959564</t>
   </si>
   <si>
     <t xml:space="preserve">0.308516949415207</t>
@@ -1298,10 +1298,10 @@
     <t xml:space="preserve">0.298117488622665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311983466148376</t>
+    <t xml:space="preserve">0.311983436346054</t>
   </si>
   <si>
-    <t xml:space="preserve">0.313716650009155</t>
+    <t xml:space="preserve">0.313716679811478</t>
   </si>
   <si>
     <t xml:space="preserve">0.324116110801697</t>
@@ -1313,10 +1313,10 @@
     <t xml:space="preserve">0.337982028722763</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317183136940002</t>
+    <t xml:space="preserve">0.317183166742325</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379579842090607</t>
+    <t xml:space="preserve">0.379579812288284</t>
   </si>
   <si>
     <t xml:space="preserve">0.370913594961166</t>
@@ -1325,16 +1325,16 @@
     <t xml:space="preserve">0.372646868228912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374380081892014</t>
+    <t xml:space="preserve">0.374380111694336</t>
   </si>
   <si>
     <t xml:space="preserve">0.367447137832642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369180351495743</t>
+    <t xml:space="preserve">0.369180381298065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386512786149979</t>
+    <t xml:space="preserve">0.386512815952301</t>
   </si>
   <si>
     <t xml:space="preserve">0.323986053466797</t>
@@ -25909,7 +25909,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G926" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -25935,7 +25935,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G927" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -25961,7 +25961,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G928" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -25987,7 +25987,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G929" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -26013,7 +26013,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G930" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -26039,7 +26039,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G931" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -26065,7 +26065,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G932" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -26091,7 +26091,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G933" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -26117,7 +26117,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G934" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -26143,7 +26143,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G935" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -26169,7 +26169,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G936" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -26195,7 +26195,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G937" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -26221,7 +26221,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G938" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -26247,7 +26247,7 @@
         <v>0.564999997615814</v>
       </c>
       <c r="G939" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -26273,7 +26273,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G940" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -26299,7 +26299,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G941" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -26351,7 +26351,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G943" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -26377,7 +26377,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G944" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -26403,7 +26403,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G945" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -26429,7 +26429,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G946" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -26455,7 +26455,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G947" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -26481,7 +26481,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G948" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -26507,7 +26507,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G949" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -26533,7 +26533,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G950" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -26559,7 +26559,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G951" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -26585,7 +26585,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G952" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -26611,7 +26611,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G953" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -26637,7 +26637,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G954" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -26663,7 +26663,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G955" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -26689,7 +26689,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G956" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -26715,7 +26715,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G957" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -26741,7 +26741,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G958" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -26767,7 +26767,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G959" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -26793,7 +26793,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G960" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -26819,7 +26819,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G961" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -26897,7 +26897,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G964" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -26975,7 +26975,7 @@
         <v>0.644999980926514</v>
       </c>
       <c r="G967" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -27001,7 +27001,7 @@
         <v>0.759999990463257</v>
       </c>
       <c r="G968" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -27053,7 +27053,7 @@
         <v>0.649999976158142</v>
       </c>
       <c r="G970" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -27079,7 +27079,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G971" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -27105,7 +27105,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G972" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -27131,7 +27131,7 @@
         <v>0.654999971389771</v>
       </c>
       <c r="G973" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -27287,7 +27287,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G979" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -27313,7 +27313,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G980" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -27339,7 +27339,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G981" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -27417,7 +27417,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G984" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -27443,7 +27443,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G985" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -27859,7 +27859,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1001" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -27885,7 +27885,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1002" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -27911,7 +27911,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1003" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -27937,7 +27937,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1004" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -27963,7 +27963,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1005" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -27989,7 +27989,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1006" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -28015,7 +28015,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1007" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -28041,7 +28041,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1008" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -28067,7 +28067,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1009" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -28119,7 +28119,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1011" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -28145,7 +28145,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1012" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -28171,7 +28171,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1013" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -28197,7 +28197,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1014" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -28223,7 +28223,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1015" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -28249,7 +28249,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1016" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -28275,7 +28275,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1017" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -28301,7 +28301,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1018" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -28327,7 +28327,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1019" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -28353,7 +28353,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1020" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -28379,7 +28379,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1021" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -28457,7 +28457,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1024" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -28483,7 +28483,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1025" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -28509,7 +28509,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1026" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -28535,7 +28535,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1027" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -28561,7 +28561,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1028" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -28587,7 +28587,7 @@
         <v>0.564999997615814</v>
       </c>
       <c r="G1029" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -28613,7 +28613,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1030" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -28639,7 +28639,7 @@
         <v>0.550000011920929</v>
       </c>
       <c r="G1031" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -28665,7 +28665,7 @@
         <v>0.550000011920929</v>
       </c>
       <c r="G1032" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -28691,7 +28691,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1033" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -28717,7 +28717,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1034" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -28743,7 +28743,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1035" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -28769,7 +28769,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1036" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -28795,7 +28795,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1037" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -28821,7 +28821,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1038" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -28847,7 +28847,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G1039" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -28873,7 +28873,7 @@
         <v>0.555000007152557</v>
       </c>
       <c r="G1040" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -28899,7 +28899,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1041" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -28925,7 +28925,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1042" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -28951,7 +28951,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1043" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -28977,7 +28977,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1044" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -29081,7 +29081,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1048" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -29133,7 +29133,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1050" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -29211,7 +29211,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1053" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -29237,7 +29237,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1054" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -29263,7 +29263,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1055" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -29289,7 +29289,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1056" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -29315,7 +29315,7 @@
         <v>0.492000013589859</v>
       </c>
       <c r="G1057" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -29341,7 +29341,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1058" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -29367,7 +29367,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1059" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -29393,7 +29393,7 @@
         <v>0.5</v>
       </c>
       <c r="G1060" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -29419,7 +29419,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1061" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -29445,7 +29445,7 @@
         <v>0.5</v>
       </c>
       <c r="G1062" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -29471,7 +29471,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1063" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -29497,7 +29497,7 @@
         <v>0.453999996185303</v>
       </c>
       <c r="G1064" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -29523,7 +29523,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1065" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -29549,7 +29549,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G1066" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -29575,7 +29575,7 @@
         <v>0.40200001001358</v>
       </c>
       <c r="G1067" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -29601,7 +29601,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1068" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -29627,7 +29627,7 @@
         <v>0.393999993801117</v>
       </c>
       <c r="G1069" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -29653,7 +29653,7 @@
         <v>0.377999991178513</v>
       </c>
       <c r="G1070" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -29679,7 +29679,7 @@
         <v>0.354000002145767</v>
       </c>
       <c r="G1071" t="s">
-        <v>109</v>
+        <v>307</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -29861,7 +29861,7 @@
         <v>0.40200001001358</v>
       </c>
       <c r="G1078" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -29991,7 +29991,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1083" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -30017,7 +30017,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1084" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -30043,7 +30043,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1085" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -30095,7 +30095,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1087" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -30121,7 +30121,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1088" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -30199,7 +30199,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1091" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -30589,7 +30589,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1106" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -30615,7 +30615,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1107" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -30719,7 +30719,7 @@
         <v>0.5</v>
       </c>
       <c r="G1111" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -30771,7 +30771,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1113" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -30797,7 +30797,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1114" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -30823,7 +30823,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1115" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -30927,7 +30927,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1119" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -30953,7 +30953,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1120" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -30979,7 +30979,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1121" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -31031,7 +31031,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1123" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -31057,7 +31057,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1124" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -31083,7 +31083,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1125" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -31109,7 +31109,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1126" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -31135,7 +31135,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G1127" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -31161,7 +31161,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1128" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -31187,7 +31187,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1129" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -31213,7 +31213,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1130" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -31239,7 +31239,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1131" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -31265,7 +31265,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1132" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -31291,7 +31291,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1133" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -31317,7 +31317,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1134" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -31343,7 +31343,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1135" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -31369,7 +31369,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1136" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -31395,7 +31395,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1137" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -31421,7 +31421,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1138" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -31447,7 +31447,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1139" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -31473,7 +31473,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1140" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -31499,7 +31499,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1141" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -31525,7 +31525,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1142" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -31551,7 +31551,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1143" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -31577,7 +31577,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1144" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -31603,7 +31603,7 @@
         <v>0.5</v>
       </c>
       <c r="G1145" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -31629,7 +31629,7 @@
         <v>0.5</v>
       </c>
       <c r="G1146" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -31655,7 +31655,7 @@
         <v>0.5</v>
       </c>
       <c r="G1147" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -31681,7 +31681,7 @@
         <v>0.5</v>
       </c>
       <c r="G1148" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -31707,7 +31707,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1149" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -31759,7 +31759,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1151" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -31785,7 +31785,7 @@
         <v>0.5</v>
       </c>
       <c r="G1152" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -31811,7 +31811,7 @@
         <v>0.5</v>
       </c>
       <c r="G1153" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -31863,7 +31863,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1155" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -32045,7 +32045,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1162" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32071,7 +32071,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1163" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -32097,7 +32097,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1164" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -32123,7 +32123,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1165" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -32461,7 +32461,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1178" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -32955,7 +32955,7 @@
         <v>0.453999996185303</v>
       </c>
       <c r="G1197" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -33995,7 +33995,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1237" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -34203,7 +34203,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G1245" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -34229,7 +34229,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G1246" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -34723,7 +34723,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1265" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -35373,7 +35373,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1290" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -35399,7 +35399,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1291" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -35451,7 +35451,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1293" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -35477,7 +35477,7 @@
         <v>0.5</v>
       </c>
       <c r="G1294" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -35503,7 +35503,7 @@
         <v>0.550000011920929</v>
       </c>
       <c r="G1295" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -35529,7 +35529,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1296" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -35581,7 +35581,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1298" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -35607,7 +35607,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1299" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -35633,7 +35633,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1300" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -35685,7 +35685,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1302" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -35711,7 +35711,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1303" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -35737,7 +35737,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1304" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -35763,7 +35763,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1305" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -35789,7 +35789,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1306" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -35815,7 +35815,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1307" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -35841,7 +35841,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1308" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -35867,7 +35867,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1309" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -35893,7 +35893,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1310" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -59608,6 +59608,32 @@
         <v>495</v>
       </c>
       <c r="H2222" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" s="1" t="n">
+        <v>45559.2916666667</v>
+      </c>
+      <c r="B2223" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2223" t="n">
+        <v>0.319999992847443</v>
+      </c>
+      <c r="D2223" t="n">
+        <v>0.319999992847443</v>
+      </c>
+      <c r="E2223" t="n">
+        <v>0.319999992847443</v>
+      </c>
+      <c r="F2223" t="n">
+        <v>0.319999992847443</v>
+      </c>
+      <c r="G2223" t="s">
+        <v>495</v>
+      </c>
+      <c r="H2223" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/POPR.MI.xlsx
+++ b/data/POPR.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="499">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,13 +44,13 @@
     <t xml:space="preserve">POPR.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193741485476494</t>
+    <t xml:space="preserve">0.193741470575333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.189604669809341</t>
+    <t xml:space="preserve">0.18960465490818</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188225701451302</t>
+    <t xml:space="preserve">0.188225731253624</t>
   </si>
   <si>
     <t xml:space="preserve">0.179952070116997</t>
@@ -59,34 +59,34 @@
     <t xml:space="preserve">0.186157330870628</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163404762744904</t>
+    <t xml:space="preserve">0.163404747843742</t>
   </si>
   <si>
     <t xml:space="preserve">0.157199516892433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164301052689552</t>
+    <t xml:space="preserve">0.164301067590714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159267917275429</t>
+    <t xml:space="preserve">0.15926793217659</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167541578412056</t>
+    <t xml:space="preserve">0.167541593313217</t>
   </si>
   <si>
     <t xml:space="preserve">0.168231055140495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165404215455055</t>
+    <t xml:space="preserve">0.165404245257378</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160646870732307</t>
+    <t xml:space="preserve">0.160646855831146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153407409787178</t>
+    <t xml:space="preserve">0.153407424688339</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153062671422958</t>
+    <t xml:space="preserve">0.15306268632412</t>
   </si>
   <si>
     <t xml:space="preserve">0.153476357460022</t>
@@ -95,19 +95,19 @@
     <t xml:space="preserve">0.155820578336716</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15237320959568</t>
+    <t xml:space="preserve">0.152373224496841</t>
   </si>
   <si>
     <t xml:space="preserve">0.165748953819275</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186846777796745</t>
+    <t xml:space="preserve">0.186846792697906</t>
   </si>
   <si>
     <t xml:space="preserve">0.182985737919807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179262608289719</t>
+    <t xml:space="preserve">0.179262593388557</t>
   </si>
   <si>
     <t xml:space="preserve">0.172367885708809</t>
@@ -116,109 +116,109 @@
     <t xml:space="preserve">0.169610008597374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164094209671021</t>
+    <t xml:space="preserve">0.164094239473343</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17078210413456</t>
+    <t xml:space="preserve">0.170782089233398</t>
   </si>
   <si>
     <t xml:space="preserve">0.176504716277122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174367338418961</t>
+    <t xml:space="preserve">0.174367353320122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194499924778938</t>
+    <t xml:space="preserve">0.194499909877777</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194430977106094</t>
+    <t xml:space="preserve">0.194430992007256</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187536254525185</t>
+    <t xml:space="preserve">0.187536269426346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182020470499992</t>
+    <t xml:space="preserve">0.182020485401154</t>
   </si>
   <si>
     <t xml:space="preserve">0.206841468811035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211323007941246</t>
+    <t xml:space="preserve">0.211323037743568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210288807749748</t>
+    <t xml:space="preserve">0.210288822650909</t>
   </si>
   <si>
-    <t xml:space="preserve">0.202015161514282</t>
+    <t xml:space="preserve">0.202015176415443</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199257284402847</t>
+    <t xml:space="preserve">0.199257254600525</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220630884170532</t>
+    <t xml:space="preserve">0.220630869269371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228904515504837</t>
+    <t xml:space="preserve">0.228904545307159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220561951398849</t>
+    <t xml:space="preserve">0.220561936497688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.215804606676102</t>
+    <t xml:space="preserve">0.215804576873779</t>
   </si>
   <si>
     <t xml:space="preserve">0.213046699762344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.196499362587929</t>
+    <t xml:space="preserve">0.196499407291412</t>
   </si>
   <si>
     <t xml:space="preserve">0.199946746230125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186295226216316</t>
+    <t xml:space="preserve">0.186295211315155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184778362512589</t>
+    <t xml:space="preserve">0.18477837741375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178573116660118</t>
+    <t xml:space="preserve">0.178573131561279</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166300535202026</t>
+    <t xml:space="preserve">0.166300550103188</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182709932327271</t>
+    <t xml:space="preserve">0.182709947228432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172298938035965</t>
+    <t xml:space="preserve">0.172298952937126</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166852116584778</t>
+    <t xml:space="preserve">0.166852101683617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168920531868935</t>
+    <t xml:space="preserve">0.168920516967773</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17291946709156</t>
+    <t xml:space="preserve">0.172919481992722</t>
   </si>
   <si>
-    <t xml:space="preserve">0.204083561897278</t>
+    <t xml:space="preserve">0.2040835916996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206152006983757</t>
+    <t xml:space="preserve">0.206151992082596</t>
   </si>
   <si>
-    <t xml:space="preserve">0.201325684785843</t>
+    <t xml:space="preserve">0.201325699687004</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199326202273369</t>
+    <t xml:space="preserve">0.19932621717453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183399438858032</t>
+    <t xml:space="preserve">0.183399453759193</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175815224647522</t>
+    <t xml:space="preserve">0.175815239548683</t>
   </si>
   <si>
     <t xml:space="preserve">0.161336332559586</t>
@@ -230,10 +230,10 @@
     <t xml:space="preserve">0.162715286016464</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158578470349312</t>
+    <t xml:space="preserve">0.158578440546989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173746824264526</t>
+    <t xml:space="preserve">0.173746839165688</t>
   </si>
   <si>
     <t xml:space="preserve">0.181193128228188</t>
@@ -242,31 +242,31 @@
     <t xml:space="preserve">0.187191516160965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188915207982063</t>
+    <t xml:space="preserve">0.188915193080902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.200291454792023</t>
+    <t xml:space="preserve">0.200291469693184</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219941437244415</t>
+    <t xml:space="preserve">0.219941422343254</t>
   </si>
   <si>
-    <t xml:space="preserve">0.212357252836227</t>
+    <t xml:space="preserve">0.212357223033905</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195396214723587</t>
+    <t xml:space="preserve">0.195396229624748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.209254622459412</t>
+    <t xml:space="preserve">0.209254592657089</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220492973923683</t>
+    <t xml:space="preserve">0.220492988824844</t>
   </si>
   <si>
     <t xml:space="preserve">0.213736176490784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210357755422592</t>
+    <t xml:space="preserve">0.210357770323753</t>
   </si>
   <si>
     <t xml:space="preserve">0.219251945614815</t>
@@ -287,52 +287,52 @@
     <t xml:space="preserve">0.275788635015488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.293025374412537</t>
+    <t xml:space="preserve">0.293025434017181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.301988512277603</t>
+    <t xml:space="preserve">0.301988482475281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.318535834550858</t>
+    <t xml:space="preserve">0.31853586435318</t>
   </si>
   <si>
-    <t xml:space="preserve">0.327498972415924</t>
+    <t xml:space="preserve">0.327498942613602</t>
   </si>
   <si>
-    <t xml:space="preserve">0.282683342695236</t>
+    <t xml:space="preserve">0.282683312892914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.285372257232666</t>
+    <t xml:space="preserve">0.285372287034988</t>
   </si>
   <si>
-    <t xml:space="preserve">0.274478644132614</t>
+    <t xml:space="preserve">0.274478614330292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.274409651756287</t>
+    <t xml:space="preserve">0.274409681558609</t>
   </si>
   <si>
     <t xml:space="preserve">0.266342848539352</t>
   </si>
   <si>
-    <t xml:space="preserve">0.266825497150421</t>
+    <t xml:space="preserve">0.266825437545776</t>
   </si>
   <si>
     <t xml:space="preserve">0.266963362693787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.251657098531723</t>
+    <t xml:space="preserve">0.251657128334045</t>
   </si>
   <si>
-    <t xml:space="preserve">0.256483435630798</t>
+    <t xml:space="preserve">0.256483405828476</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230972960591316</t>
+    <t xml:space="preserve">0.230972945690155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.22697402536869</t>
+    <t xml:space="preserve">0.226974040269852</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232351899147034</t>
+    <t xml:space="preserve">0.232351943850517</t>
   </si>
   <si>
     <t xml:space="preserve">0.228973507881165</t>
@@ -341,79 +341,79 @@
     <t xml:space="preserve">0.26062023639679</t>
   </si>
   <si>
-    <t xml:space="preserve">0.268893867731094</t>
+    <t xml:space="preserve">0.268893897533417</t>
   </si>
   <si>
     <t xml:space="preserve">0.25317394733429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249588653445244</t>
+    <t xml:space="preserve">0.249588668346405</t>
   </si>
   <si>
     <t xml:space="preserve">0.258551806211472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248209729790688</t>
+    <t xml:space="preserve">0.248209744691849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244762405753136</t>
+    <t xml:space="preserve">0.244762390851974</t>
   </si>
   <si>
     <t xml:space="preserve">0.237867683172226</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243935018777847</t>
+    <t xml:space="preserve">0.243935033679008</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233799800276756</t>
+    <t xml:space="preserve">0.233799755573273</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220699846744537</t>
+    <t xml:space="preserve">0.220699816942215</t>
   </si>
   <si>
-    <t xml:space="preserve">0.224078238010406</t>
+    <t xml:space="preserve">0.224078223109245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226836115121841</t>
+    <t xml:space="preserve">0.226836159825325</t>
   </si>
   <si>
     <t xml:space="preserve">0.226146653294563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227525621652603</t>
+    <t xml:space="preserve">0.227525636553764</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229042440652847</t>
+    <t xml:space="preserve">0.229042425751686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232489809393883</t>
+    <t xml:space="preserve">0.232489824295044</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247520253062248</t>
+    <t xml:space="preserve">0.247520282864571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241177156567574</t>
+    <t xml:space="preserve">0.241177096962929</t>
   </si>
   <si>
-    <t xml:space="preserve">0.24221134185791</t>
+    <t xml:space="preserve">0.242211386561394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.251726061105728</t>
+    <t xml:space="preserve">0.251726031303406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25710391998291</t>
+    <t xml:space="preserve">0.257103890180588</t>
   </si>
   <si>
-    <t xml:space="preserve">0.24627922475338</t>
+    <t xml:space="preserve">0.246279239654541</t>
   </si>
   <si>
     <t xml:space="preserve">0.2413150370121</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241039246320724</t>
+    <t xml:space="preserve">0.241039216518402</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23793663084507</t>
+    <t xml:space="preserve">0.237936615943909</t>
   </si>
   <si>
     <t xml:space="preserve">0.253725528717041</t>
@@ -422,7 +422,7 @@
     <t xml:space="preserve">0.238074511289597</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244969263672829</t>
+    <t xml:space="preserve">0.244969218969345</t>
   </si>
   <si>
     <t xml:space="preserve">0.325982123613358</t>
@@ -437,31 +437,31 @@
     <t xml:space="preserve">0.598461270332336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.523308873176575</t>
+    <t xml:space="preserve">0.52330881357193</t>
   </si>
   <si>
     <t xml:space="preserve">0.479182690382004</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46298012137413</t>
+    <t xml:space="preserve">0.462980151176453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434367030858994</t>
+    <t xml:space="preserve">0.434367090463638</t>
   </si>
   <si>
     <t xml:space="preserve">0.399893492460251</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454361706972122</t>
+    <t xml:space="preserve">0.454361736774445</t>
   </si>
   <si>
     <t xml:space="preserve">0.402996152639389</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410235613584518</t>
+    <t xml:space="preserve">0.410235553979874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3798987865448</t>
+    <t xml:space="preserve">0.379898816347122</t>
   </si>
   <si>
     <t xml:space="preserve">0.357490956783295</t>
@@ -473,7 +473,7 @@
     <t xml:space="preserve">0.358180433511734</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366798877716064</t>
+    <t xml:space="preserve">0.366798907518387</t>
   </si>
   <si>
     <t xml:space="preserve">0.353009432554245</t>
@@ -485,25 +485,25 @@
     <t xml:space="preserve">0.37438303232193</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358525216579437</t>
+    <t xml:space="preserve">0.358525186777115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349217355251312</t>
+    <t xml:space="preserve">0.34921732544899</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352319985628128</t>
+    <t xml:space="preserve">0.352319955825806</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365419864654541</t>
+    <t xml:space="preserve">0.365419894456863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361972510814667</t>
+    <t xml:space="preserve">0.361972540616989</t>
   </si>
   <si>
     <t xml:space="preserve">0.348183125257492</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35576730966568</t>
+    <t xml:space="preserve">0.355767279863358</t>
   </si>
   <si>
     <t xml:space="preserve">0.344735771417618</t>
@@ -518,7 +518,7 @@
     <t xml:space="preserve">0.348872572183609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347493648529053</t>
+    <t xml:space="preserve">0.347493678331375</t>
   </si>
   <si>
     <t xml:space="preserve">0.360248863697052</t>
@@ -530,28 +530,28 @@
     <t xml:space="preserve">0.359904140233994</t>
   </si>
   <si>
-    <t xml:space="preserve">0.330946326255798</t>
+    <t xml:space="preserve">0.330946356058121</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340598970651627</t>
+    <t xml:space="preserve">0.340598940849304</t>
   </si>
   <si>
     <t xml:space="preserve">0.341219455003738</t>
   </si>
   <si>
-    <t xml:space="preserve">0.351630449295044</t>
+    <t xml:space="preserve">0.351630479097366</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357146233320236</t>
+    <t xml:space="preserve">0.357146263122559</t>
   </si>
   <si>
-    <t xml:space="preserve">0.392998725175858</t>
+    <t xml:space="preserve">0.392998814582825</t>
   </si>
   <si>
     <t xml:space="preserve">0.372314661741257</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373004108667374</t>
+    <t xml:space="preserve">0.373004049062729</t>
   </si>
   <si>
     <t xml:space="preserve">0.35025155544281</t>
@@ -560,7 +560,7 @@
     <t xml:space="preserve">0.370590955018997</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345080554485321</t>
+    <t xml:space="preserve">0.345080524682999</t>
   </si>
   <si>
     <t xml:space="preserve">0.359559416770935</t>
@@ -572,61 +572,61 @@
     <t xml:space="preserve">0.405409246683121</t>
   </si>
   <si>
-    <t xml:space="preserve">0.404719799757004</t>
+    <t xml:space="preserve">0.404719829559326</t>
   </si>
   <si>
     <t xml:space="preserve">0.40609872341156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398859262466431</t>
+    <t xml:space="preserve">0.398859202861786</t>
   </si>
   <si>
     <t xml:space="preserve">0.406788170337677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378519862890244</t>
+    <t xml:space="preserve">0.378519922494888</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383690863847733</t>
+    <t xml:space="preserve">0.3836909532547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388861954212189</t>
+    <t xml:space="preserve">0.388861984014511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402651369571686</t>
+    <t xml:space="preserve">0.402651399374008</t>
   </si>
   <si>
-    <t xml:space="preserve">0.426438122987747</t>
+    <t xml:space="preserve">0.42643815279007</t>
   </si>
   <si>
     <t xml:space="preserve">0.429540783166885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414372384548187</t>
+    <t xml:space="preserve">0.41437241435051</t>
   </si>
   <si>
     <t xml:space="preserve">0.41368293762207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424714505672455</t>
+    <t xml:space="preserve">0.42471444606781</t>
   </si>
   <si>
     <t xml:space="preserve">0.414027661085129</t>
   </si>
   <si>
-    <t xml:space="preserve">0.447466969490051</t>
+    <t xml:space="preserve">0.447466999292374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.455051243305206</t>
+    <t xml:space="preserve">0.455051273107529</t>
   </si>
   <si>
     <t xml:space="preserve">0.430230259895325</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413338154554367</t>
+    <t xml:space="preserve">0.413338214159012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424024999141693</t>
+    <t xml:space="preserve">0.424025028944016</t>
   </si>
   <si>
     <t xml:space="preserve">0.517103612422943</t>
@@ -635,16 +635,16 @@
     <t xml:space="preserve">0.481940567493439</t>
   </si>
   <si>
-    <t xml:space="preserve">0.496419459581375</t>
+    <t xml:space="preserve">0.496419489383698</t>
   </si>
   <si>
     <t xml:space="preserve">0.475735366344452</t>
   </si>
   <si>
-    <t xml:space="preserve">0.480561643838882</t>
+    <t xml:space="preserve">0.480561673641205</t>
   </si>
   <si>
-    <t xml:space="preserve">0.489524811506271</t>
+    <t xml:space="preserve">0.489524781703949</t>
   </si>
   <si>
     <t xml:space="preserve">0.4826300740242</t>
@@ -653,76 +653,76 @@
     <t xml:space="preserve">0.463324844837189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.466082692146301</t>
+    <t xml:space="preserve">0.466082751750946</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461945921182632</t>
+    <t xml:space="preserve">0.46194589138031</t>
   </si>
   <si>
-    <t xml:space="preserve">0.449535399675369</t>
+    <t xml:space="preserve">0.449535429477692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.445398539304733</t>
+    <t xml:space="preserve">0.445398688316345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448156476020813</t>
+    <t xml:space="preserve">0.448156446218491</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453672230243683</t>
+    <t xml:space="preserve">0.45367231965065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.441261768341064</t>
+    <t xml:space="preserve">0.441261738538742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474356412887573</t>
+    <t xml:space="preserve">0.474356442689896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457809031009674</t>
+    <t xml:space="preserve">0.457809090614319</t>
   </si>
   <si>
     <t xml:space="preserve">0.507451057434082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.468840628862381</t>
+    <t xml:space="preserve">0.468840688467026</t>
   </si>
   <si>
     <t xml:space="preserve">0.43850389122963</t>
   </si>
   <si>
-    <t xml:space="preserve">0.459188014268875</t>
+    <t xml:space="preserve">0.459188044071198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464703798294067</t>
+    <t xml:space="preserve">0.464703887701035</t>
   </si>
   <si>
     <t xml:space="preserve">0.450914353132248</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437124937772751</t>
+    <t xml:space="preserve">0.437124907970428</t>
   </si>
   <si>
     <t xml:space="preserve">0.444019675254822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41919869184494</t>
+    <t xml:space="preserve">0.419198721647263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.420577615499496</t>
+    <t xml:space="preserve">0.420577645301819</t>
   </si>
   <si>
     <t xml:space="preserve">0.426093399524689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.442640751600266</t>
+    <t xml:space="preserve">0.442640721797943</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47297739982605</t>
+    <t xml:space="preserve">0.472977459430695</t>
   </si>
   <si>
-    <t xml:space="preserve">0.460566967725754</t>
+    <t xml:space="preserve">0.460566937923431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446777552366257</t>
+    <t xml:space="preserve">0.446777582168579</t>
   </si>
   <si>
     <t xml:space="preserve">0.43298813700676</t>
@@ -731,10 +731,10 @@
     <t xml:space="preserve">0.452293306589127</t>
   </si>
   <si>
-    <t xml:space="preserve">0.439882874488831</t>
+    <t xml:space="preserve">0.439882844686508</t>
   </si>
   <si>
-    <t xml:space="preserve">0.456430196762085</t>
+    <t xml:space="preserve">0.45643013715744</t>
   </si>
   <si>
     <t xml:space="preserve">0.397135585546494</t>
@@ -743,82 +743,82 @@
     <t xml:space="preserve">0.40127244591713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398514568805695</t>
+    <t xml:space="preserve">0.39851450920105</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373693555593491</t>
+    <t xml:space="preserve">0.373693585395813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36128306388855</t>
+    <t xml:space="preserve">0.361283093690872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394377708435059</t>
+    <t xml:space="preserve">0.394377738237381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391619861125946</t>
+    <t xml:space="preserve">0.391619801521301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377830415964127</t>
+    <t xml:space="preserve">0.377830386161804</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369556725025177</t>
+    <t xml:space="preserve">0.369556754827499</t>
   </si>
   <si>
     <t xml:space="preserve">0.370935678482056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379209339618683</t>
+    <t xml:space="preserve">0.37920930981636</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408167123794556</t>
+    <t xml:space="preserve">0.4081671833992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423335522413254</t>
+    <t xml:space="preserve">0.423335552215576</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387482970952988</t>
+    <t xml:space="preserve">0.387482941150665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.39575669169426</t>
+    <t xml:space="preserve">0.395756632089615</t>
   </si>
   <si>
     <t xml:space="preserve">0.415061861276627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412304013967514</t>
+    <t xml:space="preserve">0.412303984165192</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409546077251434</t>
+    <t xml:space="preserve">0.409546047449112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421956539154053</t>
+    <t xml:space="preserve">0.42195650935173</t>
   </si>
   <si>
     <t xml:space="preserve">0.428851276636124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431609213352203</t>
+    <t xml:space="preserve">0.431609153747559</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465393245220184</t>
+    <t xml:space="preserve">0.465393304824829</t>
   </si>
   <si>
-    <t xml:space="preserve">0.472287893295288</t>
+    <t xml:space="preserve">0.472287952899933</t>
   </si>
   <si>
     <t xml:space="preserve">0.492972135543823</t>
   </si>
   <si>
-    <t xml:space="preserve">0.499866902828217</t>
+    <t xml:space="preserve">0.499866843223572</t>
   </si>
   <si>
     <t xml:space="preserve">0.508923470973969</t>
   </si>
   <si>
-    <t xml:space="preserve">0.486135929822922</t>
+    <t xml:space="preserve">0.486135840415955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.470944106578827</t>
+    <t xml:space="preserve">0.470944076776505</t>
   </si>
   <si>
     <t xml:space="preserve">0.455752402544022</t>
@@ -827,22 +827,22 @@
     <t xml:space="preserve">0.467146188020706</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478539973497391</t>
+    <t xml:space="preserve">0.478540003299713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.482337862253189</t>
+    <t xml:space="preserve">0.482337921857834</t>
   </si>
   <si>
     <t xml:space="preserve">0.47474205493927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.459550350904465</t>
+    <t xml:space="preserve">0.459550321102142</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440560638904572</t>
+    <t xml:space="preserve">0.440560579299927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451954483985901</t>
+    <t xml:space="preserve">0.451954394578934</t>
   </si>
   <si>
     <t xml:space="preserve">0.425368875265121</t>
@@ -854,52 +854,52 @@
     <t xml:space="preserve">0.44435852766037</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463348239660263</t>
+    <t xml:space="preserve">0.463348209857941</t>
   </si>
   <si>
     <t xml:space="preserve">0.489933788776398</t>
   </si>
   <si>
-    <t xml:space="preserve">0.57728636264801</t>
+    <t xml:space="preserve">0.577286303043365</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493731737136841</t>
+    <t xml:space="preserve">0.493731647729874</t>
   </si>
   <si>
     <t xml:space="preserve">0.501327633857727</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497529655694962</t>
+    <t xml:space="preserve">0.497529685497284</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436762630939484</t>
+    <t xml:space="preserve">0.436762690544128</t>
   </si>
   <si>
-    <t xml:space="preserve">0.432964742183685</t>
+    <t xml:space="preserve">0.432964771986008</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417773008346558</t>
+    <t xml:space="preserve">0.417772978544235</t>
   </si>
   <si>
     <t xml:space="preserve">0.410177141427994</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394985377788544</t>
+    <t xml:space="preserve">0.394985347986221</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406379222869873</t>
+    <t xml:space="preserve">0.406379193067551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421570986509323</t>
+    <t xml:space="preserve">0.421570926904678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40258127450943</t>
+    <t xml:space="preserve">0.402581244707108</t>
   </si>
   <si>
     <t xml:space="preserve">0.373716950416565</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372197777032852</t>
+    <t xml:space="preserve">0.372197717428207</t>
   </si>
   <si>
     <t xml:space="preserve">0.387389481067657</t>
@@ -911,22 +911,22 @@
     <t xml:space="preserve">0.364601880311966</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341814249753952</t>
+    <t xml:space="preserve">0.341814279556274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3448526263237</t>
+    <t xml:space="preserve">0.344852596521378</t>
   </si>
   <si>
-    <t xml:space="preserve">0.319026678800583</t>
+    <t xml:space="preserve">0.31902664899826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.284085661172867</t>
+    <t xml:space="preserve">0.284085690975189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.305354118347168</t>
+    <t xml:space="preserve">0.305354088544846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.288643181324005</t>
+    <t xml:space="preserve">0.288643151521683</t>
   </si>
   <si>
     <t xml:space="preserve">0.299277365207672</t>
@@ -935,16 +935,16 @@
     <t xml:space="preserve">0.28712397813797</t>
   </si>
   <si>
-    <t xml:space="preserve">0.268893897533417</t>
+    <t xml:space="preserve">0.268893927335739</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273451447486877</t>
+    <t xml:space="preserve">0.273451417684555</t>
   </si>
   <si>
-    <t xml:space="preserve">0.267374724149704</t>
+    <t xml:space="preserve">0.267374694347382</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312949925661087</t>
+    <t xml:space="preserve">0.312949955463409</t>
   </si>
   <si>
     <t xml:space="preserve">0.314469128847122</t>
@@ -953,37 +953,37 @@
     <t xml:space="preserve">0.297758221626282</t>
   </si>
   <si>
-    <t xml:space="preserve">0.306873261928558</t>
+    <t xml:space="preserve">0.306873291730881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.308392435312271</t>
+    <t xml:space="preserve">0.308392405509949</t>
   </si>
   <si>
     <t xml:space="preserve">0.323584198951721</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332699209451675</t>
+    <t xml:space="preserve">0.332699179649353</t>
   </si>
   <si>
     <t xml:space="preserve">0.338775932788849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370678573846817</t>
+    <t xml:space="preserve">0.370678603649139</t>
   </si>
   <si>
     <t xml:space="preserve">0.357006043195724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350929319858551</t>
+    <t xml:space="preserve">0.350929349660873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.376755267381668</t>
+    <t xml:space="preserve">0.37675529718399</t>
   </si>
   <si>
     <t xml:space="preserve">0.398783266544342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413975089788437</t>
+    <t xml:space="preserve">0.413975059986115</t>
   </si>
   <si>
     <t xml:space="preserve">0.36004438996315</t>
@@ -992,16 +992,16 @@
     <t xml:space="preserve">0.363082706928253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369159400463104</t>
+    <t xml:space="preserve">0.369159430265427</t>
   </si>
   <si>
     <t xml:space="preserve">0.383591562509537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378274470567703</t>
+    <t xml:space="preserve">0.378274440765381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353967666625977</t>
+    <t xml:space="preserve">0.353967636823654</t>
   </si>
   <si>
     <t xml:space="preserve">0.355486840009689</t>
@@ -1010,34 +1010,34 @@
     <t xml:space="preserve">0.352448493242264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349410176277161</t>
+    <t xml:space="preserve">0.349410116672516</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335737556219101</t>
+    <t xml:space="preserve">0.335737586021423</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347891002893448</t>
+    <t xml:space="preserve">0.347890973091125</t>
   </si>
   <si>
     <t xml:space="preserve">0.334218382835388</t>
   </si>
   <si>
-    <t xml:space="preserve">0.326622545719147</t>
+    <t xml:space="preserve">0.326622515916824</t>
   </si>
   <si>
     <t xml:space="preserve">0.311430782079697</t>
   </si>
   <si>
-    <t xml:space="preserve">0.315988332033157</t>
+    <t xml:space="preserve">0.315988302230835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.290162354707718</t>
+    <t xml:space="preserve">0.290162324905396</t>
   </si>
   <si>
     <t xml:space="preserve">0.293200671672821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.28560483455658</t>
+    <t xml:space="preserve">0.285604804754257</t>
   </si>
   <si>
     <t xml:space="preserve">0.291681528091431</t>
@@ -1046,34 +1046,34 @@
     <t xml:space="preserve">0.296239018440247</t>
   </si>
   <si>
-    <t xml:space="preserve">0.30383488535881</t>
+    <t xml:space="preserve">0.303834915161133</t>
   </si>
   <si>
     <t xml:space="preserve">0.320545852184296</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325103342533112</t>
+    <t xml:space="preserve">0.325103372335434</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317507535219193</t>
+    <t xml:space="preserve">0.31750750541687</t>
   </si>
   <si>
-    <t xml:space="preserve">0.471467941999435</t>
+    <t xml:space="preserve">0.471467971801758</t>
   </si>
   <si>
     <t xml:space="preserve">0.438382476568222</t>
   </si>
   <si>
-    <t xml:space="preserve">0.425975471735001</t>
+    <t xml:space="preserve">0.425975412130356</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413568377494812</t>
+    <t xml:space="preserve">0.413568407297134</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397025614976883</t>
+    <t xml:space="preserve">0.397025644779205</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405297040939331</t>
+    <t xml:space="preserve">0.405296981334686</t>
   </si>
   <si>
     <t xml:space="preserve">0.398679912090302</t>
@@ -1082,28 +1082,28 @@
     <t xml:space="preserve">0.417704045772552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41025984287262</t>
+    <t xml:space="preserve">0.410259813070297</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40033420920372</t>
+    <t xml:space="preserve">0.400334179401398</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383791476488113</t>
+    <t xml:space="preserve">0.383791446685791</t>
   </si>
   <si>
     <t xml:space="preserve">0.377174377441406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.375520050525665</t>
+    <t xml:space="preserve">0.375520080327988</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372211515903473</t>
+    <t xml:space="preserve">0.372211545705795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387099981307983</t>
+    <t xml:space="preserve">0.387099951505661</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380482941865921</t>
+    <t xml:space="preserve">0.380482882261276</t>
   </si>
   <si>
     <t xml:space="preserve">0.385445713996887</t>
@@ -1115,10 +1115,10 @@
     <t xml:space="preserve">0.367248743772507</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382137209177017</t>
+    <t xml:space="preserve">0.382137179374695</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479739308357239</t>
+    <t xml:space="preserve">0.479739338159561</t>
   </si>
   <si>
     <t xml:space="preserve">0.450789541006088</t>
@@ -1127,28 +1127,28 @@
     <t xml:space="preserve">0.49628210067749</t>
   </si>
   <si>
-    <t xml:space="preserve">0.48801064491272</t>
+    <t xml:space="preserve">0.488010674715042</t>
   </si>
   <si>
-    <t xml:space="preserve">0.483875036239624</t>
+    <t xml:space="preserve">0.483874946832657</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454925268888474</t>
+    <t xml:space="preserve">0.454925239086151</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44251823425293</t>
+    <t xml:space="preserve">0.442518174648285</t>
   </si>
   <si>
-    <t xml:space="preserve">0.430111110210419</t>
+    <t xml:space="preserve">0.430111080408096</t>
   </si>
   <si>
     <t xml:space="preserve">0.421839743852615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434246748685837</t>
+    <t xml:space="preserve">0.434246778488159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44665390253067</t>
+    <t xml:space="preserve">0.446653872728348</t>
   </si>
   <si>
     <t xml:space="preserve">0.408605545759201</t>
@@ -1157,19 +1157,19 @@
     <t xml:space="preserve">0.401988476514816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388754278421402</t>
+    <t xml:space="preserve">0.388754308223724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378828644752502</t>
+    <t xml:space="preserve">0.378828674554825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373865813016891</t>
+    <t xml:space="preserve">0.373865842819214</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406951278448105</t>
+    <t xml:space="preserve">0.406951308250427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395371347665787</t>
+    <t xml:space="preserve">0.395371377468109</t>
   </si>
   <si>
     <t xml:space="preserve">0.403642743825912</t>
@@ -1178,10 +1178,10 @@
     <t xml:space="preserve">0.393717110157013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347397416830063</t>
+    <t xml:space="preserve">0.347397446632385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32920041680336</t>
+    <t xml:space="preserve">0.329200446605682</t>
   </si>
   <si>
     <t xml:space="preserve">0.330854713916779</t>
@@ -1193,25 +1193,25 @@
     <t xml:space="preserve">0.350705981254578</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355668783187866</t>
+    <t xml:space="preserve">0.355668842792511</t>
   </si>
   <si>
     <t xml:space="preserve">0.358977347612381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362285882234573</t>
+    <t xml:space="preserve">0.362285852432251</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363940179347992</t>
+    <t xml:space="preserve">0.36394014954567</t>
   </si>
   <si>
     <t xml:space="preserve">0.370557308197021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3606316447258</t>
+    <t xml:space="preserve">0.360631614923477</t>
   </si>
   <si>
-    <t xml:space="preserve">0.339126110076904</t>
+    <t xml:space="preserve">0.33912605047226</t>
   </si>
   <si>
     <t xml:space="preserve">0.337471812963486</t>
@@ -1220,7 +1220,7 @@
     <t xml:space="preserve">0.332508981227875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344088912010193</t>
+    <t xml:space="preserve">0.34408888220787</t>
   </si>
   <si>
     <t xml:space="preserve">0.354014545679092</t>
@@ -1229,40 +1229,40 @@
     <t xml:space="preserve">0.348381489515305</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353581190109253</t>
+    <t xml:space="preserve">0.353581219911575</t>
   </si>
   <si>
     <t xml:space="preserve">0.34491503238678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350114732980728</t>
+    <t xml:space="preserve">0.350114762783051</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363980650901794</t>
+    <t xml:space="preserve">0.363980680704117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365713894367218</t>
+    <t xml:space="preserve">0.36571392416954</t>
   </si>
   <si>
     <t xml:space="preserve">0.351847976446152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355314433574677</t>
+    <t xml:space="preserve">0.355314463376999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.343181759119034</t>
+    <t xml:space="preserve">0.343181788921356</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332782298326492</t>
+    <t xml:space="preserve">0.332782328128815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32064962387085</t>
+    <t xml:space="preserve">0.320649653673172</t>
   </si>
   <si>
-    <t xml:space="preserve">0.331049054861069</t>
+    <t xml:space="preserve">0.331049084663391</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346648246049881</t>
+    <t xml:space="preserve">0.346648275852203</t>
   </si>
   <si>
     <t xml:space="preserve">0.329315811395645</t>
@@ -1274,10 +1274,10 @@
     <t xml:space="preserve">0.318916410207748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.310250222682953</t>
+    <t xml:space="preserve">0.310250163078308</t>
   </si>
   <si>
-    <t xml:space="preserve">0.315449893474579</t>
+    <t xml:space="preserve">0.315449923276901</t>
   </si>
   <si>
     <t xml:space="preserve">0.306783705949783</t>
@@ -1286,16 +1286,16 @@
     <t xml:space="preserve">0.303317189216614</t>
   </si>
   <si>
-    <t xml:space="preserve">0.305050432682037</t>
+    <t xml:space="preserve">0.30505046248436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.296384274959564</t>
+    <t xml:space="preserve">0.296384245157242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.308516919612885</t>
+    <t xml:space="preserve">0.308516949415207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.298117488622665</t>
+    <t xml:space="preserve">0.298117518424988</t>
   </si>
   <si>
     <t xml:space="preserve">0.311983436346054</t>
@@ -1307,31 +1307,31 @@
     <t xml:space="preserve">0.324116140604019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325849324464798</t>
+    <t xml:space="preserve">0.32584935426712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.337982028722763</t>
+    <t xml:space="preserve">0.337982058525085</t>
   </si>
   <si>
     <t xml:space="preserve">0.317183166742325</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379579842090607</t>
+    <t xml:space="preserve">0.379579782485962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370913654565811</t>
+    <t xml:space="preserve">0.370913624763489</t>
   </si>
   <si>
     <t xml:space="preserve">0.372646868228912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374380141496658</t>
+    <t xml:space="preserve">0.374380111694336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367447167634964</t>
+    <t xml:space="preserve">0.367447137832642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369180411100388</t>
+    <t xml:space="preserve">0.369180381298065</t>
   </si>
   <si>
     <t xml:space="preserve">0.386512786149979</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">0.323986053466797</t>
   </si>
   <si>
-    <t xml:space="preserve">0.320240586996078</t>
+    <t xml:space="preserve">0.320240557193756</t>
   </si>
   <si>
     <t xml:space="preserve">0.318367809057236</t>
@@ -1352,10 +1352,10 @@
     <t xml:space="preserve">0.314622312784195</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329604297876358</t>
+    <t xml:space="preserve">0.32960432767868</t>
   </si>
   <si>
-    <t xml:space="preserve">0.327731549739838</t>
+    <t xml:space="preserve">0.32773157954216</t>
   </si>
   <si>
     <t xml:space="preserve">0.310876786708832</t>
@@ -1367,31 +1367,31 @@
     <t xml:space="preserve">0.316495060920715</t>
   </si>
   <si>
-    <t xml:space="preserve">0.307131320238113</t>
+    <t xml:space="preserve">0.307131290435791</t>
   </si>
   <si>
     <t xml:space="preserve">0.299640268087387</t>
   </si>
   <si>
-    <t xml:space="preserve">0.303385764360428</t>
+    <t xml:space="preserve">0.30338579416275</t>
   </si>
   <si>
-    <t xml:space="preserve">0.295894801616669</t>
+    <t xml:space="preserve">0.295894831418991</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309004098176956</t>
+    <t xml:space="preserve">0.309004068374634</t>
   </si>
   <si>
     <t xml:space="preserve">0.30151304602623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.297767519950867</t>
+    <t xml:space="preserve">0.297767549753189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.294022053480148</t>
+    <t xml:space="preserve">0.294022023677826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333349794149399</t>
+    <t xml:space="preserve">0.333349823951721</t>
   </si>
   <si>
     <t xml:space="preserve">0.322113305330276</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">0.331477075815201</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335222601890564</t>
+    <t xml:space="preserve">0.335222572088242</t>
   </si>
   <si>
     <t xml:space="preserve">0.337095350027084</t>
@@ -1409,16 +1409,16 @@
     <t xml:space="preserve">0.355822831392288</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350204616785049</t>
+    <t xml:space="preserve">0.350204586982727</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338968098163605</t>
+    <t xml:space="preserve">0.338968068361282</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344586342573166</t>
+    <t xml:space="preserve">0.344586372375488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342713594436646</t>
+    <t xml:space="preserve">0.342713564634323</t>
   </si>
   <si>
     <t xml:space="preserve">0.340840816497803</t>
@@ -1427,7 +1427,7 @@
     <t xml:space="preserve">0.340362787246704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32888987660408</t>
+    <t xml:space="preserve">0.328889906406403</t>
   </si>
   <si>
     <t xml:space="preserve">0.325065582990646</t>
@@ -1439,10 +1439,10 @@
     <t xml:space="preserve">0.317416965961456</t>
   </si>
   <si>
-    <t xml:space="preserve">0.315504848957062</t>
+    <t xml:space="preserve">0.315504819154739</t>
   </si>
   <si>
-    <t xml:space="preserve">0.326977759599686</t>
+    <t xml:space="preserve">0.326977729797363</t>
   </si>
   <si>
     <t xml:space="preserve">0.343951225280762</t>
@@ -1506,6 +1506,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.337999999523163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.342000007629395</t>
   </si>
 </sst>
 </file>
@@ -59749,7 +59752,7 @@
     </row>
     <row r="2228">
       <c r="A2228" s="1" t="n">
-        <v>45566.6417361111</v>
+        <v>45566.2916666667</v>
       </c>
       <c r="B2228" t="n">
         <v>8000</v>
@@ -59770,6 +59773,32 @@
         <v>497</v>
       </c>
       <c r="H2228" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" s="1" t="n">
+        <v>45567.4112847222</v>
+      </c>
+      <c r="B2229" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C2229" t="n">
+        <v>0.342000007629395</v>
+      </c>
+      <c r="D2229" t="n">
+        <v>0.342000007629395</v>
+      </c>
+      <c r="E2229" t="n">
+        <v>0.342000007629395</v>
+      </c>
+      <c r="F2229" t="n">
+        <v>0.342000007629395</v>
+      </c>
+      <c r="G2229" t="s">
+        <v>498</v>
+      </c>
+      <c r="H2229" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/POPR.MI.xlsx
+++ b/data/POPR.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="500">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193052023649216</t>
+    <t xml:space="preserve">0.193052038550377</t>
   </si>
   <si>
     <t xml:space="preserve">POPR.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193741470575333</t>
+    <t xml:space="preserve">0.193741485476494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.18960465490818</t>
+    <t xml:space="preserve">0.189604669809341</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188225731253624</t>
+    <t xml:space="preserve">0.188225716352463</t>
   </si>
   <si>
     <t xml:space="preserve">0.179952070116997</t>
@@ -62,13 +62,13 @@
     <t xml:space="preserve">0.163404747843742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157199516892433</t>
+    <t xml:space="preserve">0.157199501991272</t>
   </si>
   <si>
     <t xml:space="preserve">0.164301067590714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15926793217659</t>
+    <t xml:space="preserve">0.159267917275429</t>
   </si>
   <si>
     <t xml:space="preserve">0.167541593313217</t>
@@ -77,13 +77,13 @@
     <t xml:space="preserve">0.168231055140495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165404245257378</t>
+    <t xml:space="preserve">0.165404215455055</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160646855831146</t>
+    <t xml:space="preserve">0.160646870732307</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153407424688339</t>
+    <t xml:space="preserve">0.153407409787178</t>
   </si>
   <si>
     <t xml:space="preserve">0.15306268632412</t>
@@ -92,13 +92,13 @@
     <t xml:space="preserve">0.153476357460022</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155820578336716</t>
+    <t xml:space="preserve">0.155820563435555</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152373224496841</t>
+    <t xml:space="preserve">0.152373194694519</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165748953819275</t>
+    <t xml:space="preserve">0.165748938918114</t>
   </si>
   <si>
     <t xml:space="preserve">0.186846792697906</t>
@@ -113,10 +113,10 @@
     <t xml:space="preserve">0.172367885708809</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169610008597374</t>
+    <t xml:space="preserve">0.169609993696213</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164094239473343</t>
+    <t xml:space="preserve">0.164094224572182</t>
   </si>
   <si>
     <t xml:space="preserve">0.170782089233398</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">0.194430992007256</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187536269426346</t>
+    <t xml:space="preserve">0.187536254525185</t>
   </si>
   <si>
     <t xml:space="preserve">0.182020485401154</t>
@@ -146,22 +146,22 @@
     <t xml:space="preserve">0.211323037743568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210288822650909</t>
+    <t xml:space="preserve">0.210288837552071</t>
   </si>
   <si>
     <t xml:space="preserve">0.202015176415443</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199257254600525</t>
+    <t xml:space="preserve">0.199257269501686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220630869269371</t>
+    <t xml:space="preserve">0.220630884170532</t>
   </si>
   <si>
     <t xml:space="preserve">0.228904545307159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220561936497688</t>
+    <t xml:space="preserve">0.220561951398849</t>
   </si>
   <si>
     <t xml:space="preserve">0.215804576873779</t>
@@ -170,28 +170,28 @@
     <t xml:space="preserve">0.213046699762344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.196499407291412</t>
+    <t xml:space="preserve">0.196499392390251</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199946746230125</t>
+    <t xml:space="preserve">0.199946731328964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186295211315155</t>
+    <t xml:space="preserve">0.186295226216316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.18477837741375</t>
+    <t xml:space="preserve">0.184778347611427</t>
   </si>
   <si>
     <t xml:space="preserve">0.178573131561279</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166300550103188</t>
+    <t xml:space="preserve">0.166300535202026</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182709947228432</t>
+    <t xml:space="preserve">0.182709932327271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172298952937126</t>
+    <t xml:space="preserve">0.172298938035965</t>
   </si>
   <si>
     <t xml:space="preserve">0.166852101683617</t>
@@ -206,16 +206,16 @@
     <t xml:space="preserve">0.2040835916996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206151992082596</t>
+    <t xml:space="preserve">0.206151977181435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.201325699687004</t>
+    <t xml:space="preserve">0.201325669884682</t>
   </si>
   <si>
     <t xml:space="preserve">0.19932621717453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183399453759193</t>
+    <t xml:space="preserve">0.183399423956871</t>
   </si>
   <si>
     <t xml:space="preserve">0.175815239548683</t>
@@ -233,13 +233,13 @@
     <t xml:space="preserve">0.158578440546989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173746839165688</t>
+    <t xml:space="preserve">0.173746824264526</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181193128228188</t>
+    <t xml:space="preserve">0.181193113327026</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187191516160965</t>
+    <t xml:space="preserve">0.187191531062126</t>
   </si>
   <si>
     <t xml:space="preserve">0.188915193080902</t>
@@ -251,13 +251,13 @@
     <t xml:space="preserve">0.219941422343254</t>
   </si>
   <si>
-    <t xml:space="preserve">0.212357223033905</t>
+    <t xml:space="preserve">0.212357208132744</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195396229624748</t>
+    <t xml:space="preserve">0.195396214723587</t>
   </si>
   <si>
-    <t xml:space="preserve">0.209254592657089</t>
+    <t xml:space="preserve">0.209254577755928</t>
   </si>
   <si>
     <t xml:space="preserve">0.220492988824844</t>
@@ -269,40 +269,40 @@
     <t xml:space="preserve">0.210357770323753</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219251945614815</t>
+    <t xml:space="preserve">0.219251930713654</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233730807900429</t>
+    <t xml:space="preserve">0.233730837702751</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237798750400543</t>
+    <t xml:space="preserve">0.237798720598221</t>
   </si>
   <si>
-    <t xml:space="preserve">0.255104452371597</t>
+    <t xml:space="preserve">0.25510448217392</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261309713125229</t>
+    <t xml:space="preserve">0.261309742927551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.275788635015488</t>
+    <t xml:space="preserve">0.275788605213165</t>
   </si>
   <si>
-    <t xml:space="preserve">0.293025434017181</t>
+    <t xml:space="preserve">0.293025404214859</t>
   </si>
   <si>
-    <t xml:space="preserve">0.301988482475281</t>
+    <t xml:space="preserve">0.301988542079926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.31853586435318</t>
+    <t xml:space="preserve">0.318535834550858</t>
   </si>
   <si>
-    <t xml:space="preserve">0.327498942613602</t>
+    <t xml:space="preserve">0.327498972415924</t>
   </si>
   <si>
-    <t xml:space="preserve">0.282683312892914</t>
+    <t xml:space="preserve">0.282683342695236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.285372287034988</t>
+    <t xml:space="preserve">0.285372257232666</t>
   </si>
   <si>
     <t xml:space="preserve">0.274478614330292</t>
@@ -314,25 +314,25 @@
     <t xml:space="preserve">0.266342848539352</t>
   </si>
   <si>
-    <t xml:space="preserve">0.266825437545776</t>
+    <t xml:space="preserve">0.266825497150421</t>
   </si>
   <si>
-    <t xml:space="preserve">0.266963362693787</t>
+    <t xml:space="preserve">0.266963392496109</t>
   </si>
   <si>
     <t xml:space="preserve">0.251657128334045</t>
   </si>
   <si>
-    <t xml:space="preserve">0.256483405828476</t>
+    <t xml:space="preserve">0.256483376026154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230972945690155</t>
+    <t xml:space="preserve">0.230972975492477</t>
   </si>
   <si>
     <t xml:space="preserve">0.226974040269852</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232351943850517</t>
+    <t xml:space="preserve">0.232351928949356</t>
   </si>
   <si>
     <t xml:space="preserve">0.228973507881165</t>
@@ -347,16 +347,16 @@
     <t xml:space="preserve">0.25317394733429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249588668346405</t>
+    <t xml:space="preserve">0.249588683247566</t>
   </si>
   <si>
-    <t xml:space="preserve">0.258551806211472</t>
+    <t xml:space="preserve">0.258551836013794</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248209744691849</t>
+    <t xml:space="preserve">0.24820975959301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244762390851974</t>
+    <t xml:space="preserve">0.244762420654297</t>
   </si>
   <si>
     <t xml:space="preserve">0.237867683172226</t>
@@ -365,61 +365,61 @@
     <t xml:space="preserve">0.243935033679008</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233799755573273</t>
+    <t xml:space="preserve">0.233799800276756</t>
   </si>
   <si>
     <t xml:space="preserve">0.220699816942215</t>
   </si>
   <si>
-    <t xml:space="preserve">0.224078223109245</t>
+    <t xml:space="preserve">0.224078252911568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226836159825325</t>
+    <t xml:space="preserve">0.226836115121841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226146653294563</t>
+    <t xml:space="preserve">0.226146668195724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227525636553764</t>
+    <t xml:space="preserve">0.227525606751442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229042425751686</t>
+    <t xml:space="preserve">0.229042410850525</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232489824295044</t>
+    <t xml:space="preserve">0.232489794492722</t>
   </si>
   <si>
     <t xml:space="preserve">0.247520282864571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241177096962929</t>
+    <t xml:space="preserve">0.24117711186409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.242211386561394</t>
+    <t xml:space="preserve">0.242211356759071</t>
   </si>
   <si>
-    <t xml:space="preserve">0.251726031303406</t>
+    <t xml:space="preserve">0.251726061105728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.257103890180588</t>
+    <t xml:space="preserve">0.257103949785233</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246279239654541</t>
+    <t xml:space="preserve">0.246279254555702</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2413150370121</t>
+    <t xml:space="preserve">0.241315007209778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241039216518402</t>
+    <t xml:space="preserve">0.241039231419563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237936615943909</t>
+    <t xml:space="preserve">0.237936601042747</t>
   </si>
   <si>
     <t xml:space="preserve">0.253725528717041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238074511289597</t>
+    <t xml:space="preserve">0.238074496388435</t>
   </si>
   <si>
     <t xml:space="preserve">0.244969218969345</t>
@@ -428,28 +428,28 @@
     <t xml:space="preserve">0.325982123613358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386104047298431</t>
+    <t xml:space="preserve">0.386104077100754</t>
   </si>
   <si>
-    <t xml:space="preserve">0.510208904743195</t>
+    <t xml:space="preserve">0.510208964347839</t>
   </si>
   <si>
     <t xml:space="preserve">0.598461270332336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.52330881357193</t>
+    <t xml:space="preserve">0.523308873176575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479182690382004</t>
+    <t xml:space="preserve">0.479182720184326</t>
   </si>
   <si>
     <t xml:space="preserve">0.462980151176453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434367090463638</t>
+    <t xml:space="preserve">0.434367060661316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.399893492460251</t>
+    <t xml:space="preserve">0.399893462657928</t>
   </si>
   <si>
     <t xml:space="preserve">0.454361736774445</t>
@@ -458,31 +458,31 @@
     <t xml:space="preserve">0.402996152639389</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410235553979874</t>
+    <t xml:space="preserve">0.410235583782196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379898816347122</t>
+    <t xml:space="preserve">0.3798987865448</t>
   </si>
   <si>
     <t xml:space="preserve">0.357490956783295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345425248146057</t>
+    <t xml:space="preserve">0.345425188541412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358180433511734</t>
+    <t xml:space="preserve">0.358180493116379</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366798907518387</t>
+    <t xml:space="preserve">0.366798847913742</t>
   </si>
   <si>
     <t xml:space="preserve">0.353009432554245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382656693458557</t>
+    <t xml:space="preserve">0.38265672326088</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37438303232193</t>
+    <t xml:space="preserve">0.374383062124252</t>
   </si>
   <si>
     <t xml:space="preserve">0.358525186777115</t>
@@ -491,16 +491,16 @@
     <t xml:space="preserve">0.34921732544899</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352319955825806</t>
+    <t xml:space="preserve">0.352319926023483</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365419894456863</t>
+    <t xml:space="preserve">0.365419864654541</t>
   </si>
   <si>
     <t xml:space="preserve">0.361972540616989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.348183125257492</t>
+    <t xml:space="preserve">0.34818309545517</t>
   </si>
   <si>
     <t xml:space="preserve">0.355767279863358</t>
@@ -518,22 +518,22 @@
     <t xml:space="preserve">0.348872572183609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347493678331375</t>
+    <t xml:space="preserve">0.347493648529053</t>
   </si>
   <si>
     <t xml:space="preserve">0.360248863697052</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354388386011124</t>
+    <t xml:space="preserve">0.354388356208801</t>
   </si>
   <si>
     <t xml:space="preserve">0.359904140233994</t>
   </si>
   <si>
-    <t xml:space="preserve">0.330946356058121</t>
+    <t xml:space="preserve">0.330946326255798</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340598940849304</t>
+    <t xml:space="preserve">0.340598911046982</t>
   </si>
   <si>
     <t xml:space="preserve">0.341219455003738</t>
@@ -545,25 +545,25 @@
     <t xml:space="preserve">0.357146263122559</t>
   </si>
   <si>
-    <t xml:space="preserve">0.392998814582825</t>
+    <t xml:space="preserve">0.392998784780502</t>
   </si>
   <si>
     <t xml:space="preserve">0.372314661741257</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373004049062729</t>
+    <t xml:space="preserve">0.373004078865051</t>
   </si>
   <si>
     <t xml:space="preserve">0.35025155544281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370590955018997</t>
+    <t xml:space="preserve">0.37059098482132</t>
   </si>
   <si>
     <t xml:space="preserve">0.345080524682999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359559416770935</t>
+    <t xml:space="preserve">0.359559386968613</t>
   </si>
   <si>
     <t xml:space="preserve">0.427472352981567</t>
@@ -572,7 +572,7 @@
     <t xml:space="preserve">0.405409246683121</t>
   </si>
   <si>
-    <t xml:space="preserve">0.404719829559326</t>
+    <t xml:space="preserve">0.404719769954681</t>
   </si>
   <si>
     <t xml:space="preserve">0.40609872341156</t>
@@ -581,10 +581,10 @@
     <t xml:space="preserve">0.398859202861786</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406788170337677</t>
+    <t xml:space="preserve">0.406788140535355</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378519922494888</t>
+    <t xml:space="preserve">0.378519892692566</t>
   </si>
   <si>
     <t xml:space="preserve">0.3836909532547</t>
@@ -593,7 +593,7 @@
     <t xml:space="preserve">0.388861984014511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402651399374008</t>
+    <t xml:space="preserve">0.402651339769363</t>
   </si>
   <si>
     <t xml:space="preserve">0.42643815279007</t>
@@ -602,76 +602,76 @@
     <t xml:space="preserve">0.429540783166885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41437241435051</t>
+    <t xml:space="preserve">0.414372384548187</t>
   </si>
   <si>
     <t xml:space="preserve">0.41368293762207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.42471444606781</t>
+    <t xml:space="preserve">0.424714416265488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414027661085129</t>
+    <t xml:space="preserve">0.414027631282806</t>
   </si>
   <si>
-    <t xml:space="preserve">0.447466999292374</t>
+    <t xml:space="preserve">0.447466969490051</t>
   </si>
   <si>
-    <t xml:space="preserve">0.455051273107529</t>
+    <t xml:space="preserve">0.455051213502884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.430230259895325</t>
+    <t xml:space="preserve">0.430230230093002</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413338214159012</t>
+    <t xml:space="preserve">0.413338184356689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424025028944016</t>
+    <t xml:space="preserve">0.424024969339371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.517103612422943</t>
+    <t xml:space="preserve">0.517103672027588</t>
   </si>
   <si>
-    <t xml:space="preserve">0.481940567493439</t>
+    <t xml:space="preserve">0.481940627098083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.496419489383698</t>
+    <t xml:space="preserve">0.49641951918602</t>
   </si>
   <si>
     <t xml:space="preserve">0.475735366344452</t>
   </si>
   <si>
-    <t xml:space="preserve">0.480561673641205</t>
+    <t xml:space="preserve">0.480561703443527</t>
   </si>
   <si>
-    <t xml:space="preserve">0.489524781703949</t>
+    <t xml:space="preserve">0.489524841308594</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4826300740242</t>
+    <t xml:space="preserve">0.482630014419556</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463324844837189</t>
+    <t xml:space="preserve">0.463324815034866</t>
   </si>
   <si>
-    <t xml:space="preserve">0.466082751750946</t>
+    <t xml:space="preserve">0.466082781553268</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46194589138031</t>
+    <t xml:space="preserve">0.461945950984955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.449535429477692</t>
+    <t xml:space="preserve">0.449535489082336</t>
   </si>
   <si>
     <t xml:space="preserve">0.445398688316345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448156446218491</t>
+    <t xml:space="preserve">0.448156505823135</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45367231965065</t>
+    <t xml:space="preserve">0.453672230243683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.441261738538742</t>
+    <t xml:space="preserve">0.441261768341064</t>
   </si>
   <si>
     <t xml:space="preserve">0.474356442689896</t>
@@ -683,16 +683,16 @@
     <t xml:space="preserve">0.507451057434082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.468840688467026</t>
+    <t xml:space="preserve">0.468840658664703</t>
   </si>
   <si>
-    <t xml:space="preserve">0.43850389122963</t>
+    <t xml:space="preserve">0.438503861427307</t>
   </si>
   <si>
-    <t xml:space="preserve">0.459188044071198</t>
+    <t xml:space="preserve">0.459188014268875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464703887701035</t>
+    <t xml:space="preserve">0.464703857898712</t>
   </si>
   <si>
     <t xml:space="preserve">0.450914353132248</t>
@@ -701,40 +701,40 @@
     <t xml:space="preserve">0.437124907970428</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444019675254822</t>
+    <t xml:space="preserve">0.444019645452499</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419198721647263</t>
+    <t xml:space="preserve">0.41919869184494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.420577645301819</t>
+    <t xml:space="preserve">0.420577675104141</t>
   </si>
   <si>
     <t xml:space="preserve">0.426093399524689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.442640721797943</t>
+    <t xml:space="preserve">0.442640751600266</t>
   </si>
   <si>
     <t xml:space="preserve">0.472977459430695</t>
   </si>
   <si>
-    <t xml:space="preserve">0.460566937923431</t>
+    <t xml:space="preserve">0.460566997528076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446777582168579</t>
+    <t xml:space="preserve">0.446777611970901</t>
   </si>
   <si>
-    <t xml:space="preserve">0.43298813700676</t>
+    <t xml:space="preserve">0.432988077402115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452293306589127</t>
+    <t xml:space="preserve">0.452293336391449</t>
   </si>
   <si>
     <t xml:space="preserve">0.439882844686508</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45643013715744</t>
+    <t xml:space="preserve">0.456430077552795</t>
   </si>
   <si>
     <t xml:space="preserve">0.397135585546494</t>
@@ -743,106 +743,109 @@
     <t xml:space="preserve">0.40127244591713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.39851450920105</t>
+    <t xml:space="preserve">0.398514539003372</t>
   </si>
   <si>
     <t xml:space="preserve">0.373693585395813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361283093690872</t>
+    <t xml:space="preserve">0.36128306388855</t>
   </si>
   <si>
     <t xml:space="preserve">0.394377738237381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391619801521301</t>
+    <t xml:space="preserve">0.391619831323624</t>
   </si>
   <si>
     <t xml:space="preserve">0.377830386161804</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369556754827499</t>
+    <t xml:space="preserve">0.369556695222855</t>
   </si>
   <si>
     <t xml:space="preserve">0.370935678482056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37920930981636</t>
+    <t xml:space="preserve">0.379209339618683</t>
   </si>
   <si>
     <t xml:space="preserve">0.4081671833992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423335552215576</t>
+    <t xml:space="preserve">0.423335582017899</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387482941150665</t>
+    <t xml:space="preserve">0.387482970952988</t>
   </si>
   <si>
     <t xml:space="preserve">0.395756632089615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415061861276627</t>
+    <t xml:space="preserve">0.415061891078949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412303984165192</t>
+    <t xml:space="preserve">0.412303954362869</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409546047449112</t>
+    <t xml:space="preserve">0.409546077251434</t>
   </si>
   <si>
-    <t xml:space="preserve">0.42195650935173</t>
+    <t xml:space="preserve">0.421956539154053</t>
   </si>
   <si>
-    <t xml:space="preserve">0.428851276636124</t>
+    <t xml:space="preserve">0.428851306438446</t>
   </si>
   <si>
     <t xml:space="preserve">0.431609153747559</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465393304824829</t>
+    <t xml:space="preserve">0.465393275022507</t>
   </si>
   <si>
-    <t xml:space="preserve">0.472287952899933</t>
+    <t xml:space="preserve">0.472287982702255</t>
   </si>
   <si>
-    <t xml:space="preserve">0.492972135543823</t>
+    <t xml:space="preserve">0.492972105741501</t>
   </si>
   <si>
-    <t xml:space="preserve">0.499866843223572</t>
+    <t xml:space="preserve">0.499866813421249</t>
   </si>
   <si>
     <t xml:space="preserve">0.508923470973969</t>
   </si>
   <si>
-    <t xml:space="preserve">0.486135840415955</t>
+    <t xml:space="preserve">0.486135870218277</t>
   </si>
   <si>
-    <t xml:space="preserve">0.470944076776505</t>
+    <t xml:space="preserve">0.470944136381149</t>
   </si>
   <si>
     <t xml:space="preserve">0.455752402544022</t>
   </si>
   <si>
-    <t xml:space="preserve">0.467146188020706</t>
+    <t xml:space="preserve">0.467146158218384</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478540003299713</t>
+    <t xml:space="preserve">0.478539973497391</t>
   </si>
   <si>
-    <t xml:space="preserve">0.482337921857834</t>
+    <t xml:space="preserve">0.482337951660156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47474205493927</t>
+    <t xml:space="preserve">0.474742114543915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.459550321102142</t>
+    <t xml:space="preserve">0.459550261497498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440560579299927</t>
+    <t xml:space="preserve">0.448156446218491</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451954394578934</t>
+    <t xml:space="preserve">0.440560609102249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.451954454183578</t>
   </si>
   <si>
     <t xml:space="preserve">0.425368875265121</t>
@@ -851,94 +854,91 @@
     <t xml:space="preserve">0.429166793823242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44435852766037</t>
+    <t xml:space="preserve">0.444358497858047</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463348209857941</t>
+    <t xml:space="preserve">0.463348269462585</t>
   </si>
   <si>
-    <t xml:space="preserve">0.489933788776398</t>
+    <t xml:space="preserve">0.489933758974075</t>
   </si>
   <si>
-    <t xml:space="preserve">0.577286303043365</t>
+    <t xml:space="preserve">0.57728636264801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493731647729874</t>
+    <t xml:space="preserve">0.493731737136841</t>
   </si>
   <si>
     <t xml:space="preserve">0.501327633857727</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497529685497284</t>
+    <t xml:space="preserve">0.497529655694962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436762690544128</t>
+    <t xml:space="preserve">0.436762720346451</t>
   </si>
   <si>
     <t xml:space="preserve">0.432964771986008</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417772978544235</t>
+    <t xml:space="preserve">0.417773008346558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410177141427994</t>
+    <t xml:space="preserve">0.410177171230316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394985347986221</t>
+    <t xml:space="preserve">0.394985377788544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406379193067551</t>
+    <t xml:space="preserve">0.406379222869873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421570926904678</t>
+    <t xml:space="preserve">0.421570986509323</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402581244707108</t>
+    <t xml:space="preserve">0.402581214904785</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373716950416565</t>
+    <t xml:space="preserve">0.373716920614243</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372197717428207</t>
+    <t xml:space="preserve">0.372197777032852</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387389481067657</t>
+    <t xml:space="preserve">0.387389540672302</t>
   </si>
   <si>
     <t xml:space="preserve">0.379793643951416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364601880311966</t>
+    <t xml:space="preserve">0.364601850509644</t>
   </si>
   <si>
     <t xml:space="preserve">0.341814279556274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344852596521378</t>
+    <t xml:space="preserve">0.3448526263237</t>
   </si>
   <si>
     <t xml:space="preserve">0.31902664899826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.284085690975189</t>
+    <t xml:space="preserve">0.284085661172867</t>
   </si>
   <si>
     <t xml:space="preserve">0.305354088544846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.288643151521683</t>
+    <t xml:space="preserve">0.288643181324005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.299277365207672</t>
+    <t xml:space="preserve">0.299277395009995</t>
   </si>
   <si>
     <t xml:space="preserve">0.28712397813797</t>
   </si>
   <si>
-    <t xml:space="preserve">0.268893927335739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.273451417684555</t>
+    <t xml:space="preserve">0.273451447486877</t>
   </si>
   <si>
     <t xml:space="preserve">0.267374694347382</t>
@@ -953,40 +953,40 @@
     <t xml:space="preserve">0.297758221626282</t>
   </si>
   <si>
-    <t xml:space="preserve">0.306873291730881</t>
+    <t xml:space="preserve">0.306873261928558</t>
   </si>
   <si>
     <t xml:space="preserve">0.308392405509949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.323584198951721</t>
+    <t xml:space="preserve">0.323584169149399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332699179649353</t>
+    <t xml:space="preserve">0.332699209451675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338775932788849</t>
+    <t xml:space="preserve">0.338775962591171</t>
   </si>
   <si>
     <t xml:space="preserve">0.370678603649139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357006043195724</t>
+    <t xml:space="preserve">0.357006013393402</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350929349660873</t>
+    <t xml:space="preserve">0.350929319858551</t>
   </si>
   <si>
     <t xml:space="preserve">0.37675529718399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398783266544342</t>
+    <t xml:space="preserve">0.398783326148987</t>
   </si>
   <si>
     <t xml:space="preserve">0.413975059986115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36004438996315</t>
+    <t xml:space="preserve">0.360044360160828</t>
   </si>
   <si>
     <t xml:space="preserve">0.363082706928253</t>
@@ -998,10 +998,10 @@
     <t xml:space="preserve">0.383591562509537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378274440765381</t>
+    <t xml:space="preserve">0.378274470567703</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353967636823654</t>
+    <t xml:space="preserve">0.353967696428299</t>
   </si>
   <si>
     <t xml:space="preserve">0.355486840009689</t>
@@ -1010,37 +1010,37 @@
     <t xml:space="preserve">0.352448493242264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349410116672516</t>
+    <t xml:space="preserve">0.349410146474838</t>
   </si>
   <si>
     <t xml:space="preserve">0.335737586021423</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347890973091125</t>
+    <t xml:space="preserve">0.347891002893448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.334218382835388</t>
+    <t xml:space="preserve">0.334218412637711</t>
   </si>
   <si>
-    <t xml:space="preserve">0.326622515916824</t>
+    <t xml:space="preserve">0.326622545719147</t>
   </si>
   <si>
     <t xml:space="preserve">0.311430782079697</t>
   </si>
   <si>
-    <t xml:space="preserve">0.315988302230835</t>
+    <t xml:space="preserve">0.315988332033157</t>
   </si>
   <si>
     <t xml:space="preserve">0.290162324905396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.293200671672821</t>
+    <t xml:space="preserve">0.293200701475143</t>
   </si>
   <si>
     <t xml:space="preserve">0.285604804754257</t>
   </si>
   <si>
-    <t xml:space="preserve">0.291681528091431</t>
+    <t xml:space="preserve">0.291681557893753</t>
   </si>
   <si>
     <t xml:space="preserve">0.296239018440247</t>
@@ -1049,16 +1049,16 @@
     <t xml:space="preserve">0.303834915161133</t>
   </si>
   <si>
-    <t xml:space="preserve">0.320545852184296</t>
+    <t xml:space="preserve">0.320545822381973</t>
   </si>
   <si>
     <t xml:space="preserve">0.325103372335434</t>
   </si>
   <si>
-    <t xml:space="preserve">0.31750750541687</t>
+    <t xml:space="preserve">0.317507475614548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.471467971801758</t>
+    <t xml:space="preserve">0.47146800160408</t>
   </si>
   <si>
     <t xml:space="preserve">0.438382476568222</t>
@@ -1070,19 +1070,19 @@
     <t xml:space="preserve">0.413568407297134</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397025644779205</t>
+    <t xml:space="preserve">0.397025614976883</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405296981334686</t>
+    <t xml:space="preserve">0.405297040939331</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398679912090302</t>
+    <t xml:space="preserve">0.398679882287979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417704045772552</t>
+    <t xml:space="preserve">0.417704075574875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410259813070297</t>
+    <t xml:space="preserve">0.41025984287262</t>
   </si>
   <si>
     <t xml:space="preserve">0.400334179401398</t>
@@ -1097,13 +1097,13 @@
     <t xml:space="preserve">0.375520080327988</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372211545705795</t>
+    <t xml:space="preserve">0.372211575508118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387099951505661</t>
+    <t xml:space="preserve">0.387099981307983</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380482882261276</t>
+    <t xml:space="preserve">0.380482912063599</t>
   </si>
   <si>
     <t xml:space="preserve">0.385445713996887</t>
@@ -1115,28 +1115,28 @@
     <t xml:space="preserve">0.367248743772507</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382137179374695</t>
+    <t xml:space="preserve">0.382137209177017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479739338159561</t>
+    <t xml:space="preserve">0.479739248752594</t>
   </si>
   <si>
     <t xml:space="preserve">0.450789541006088</t>
   </si>
   <si>
-    <t xml:space="preserve">0.49628210067749</t>
+    <t xml:space="preserve">0.496282130479813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.488010674715042</t>
+    <t xml:space="preserve">0.48801064491272</t>
   </si>
   <si>
-    <t xml:space="preserve">0.483874946832657</t>
+    <t xml:space="preserve">0.483874917030334</t>
   </si>
   <si>
     <t xml:space="preserve">0.454925239086151</t>
   </si>
   <si>
-    <t xml:space="preserve">0.442518174648285</t>
+    <t xml:space="preserve">0.442518204450607</t>
   </si>
   <si>
     <t xml:space="preserve">0.430111080408096</t>
@@ -1157,22 +1157,22 @@
     <t xml:space="preserve">0.401988476514816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388754308223724</t>
+    <t xml:space="preserve">0.388754278421402</t>
   </si>
   <si>
     <t xml:space="preserve">0.378828674554825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373865842819214</t>
+    <t xml:space="preserve">0.373865813016891</t>
   </si>
   <si>
     <t xml:space="preserve">0.406951308250427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395371377468109</t>
+    <t xml:space="preserve">0.395371347665787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.403642743825912</t>
+    <t xml:space="preserve">0.403642773628235</t>
   </si>
   <si>
     <t xml:space="preserve">0.393717110157013</t>
@@ -1181,16 +1181,16 @@
     <t xml:space="preserve">0.347397446632385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329200446605682</t>
+    <t xml:space="preserve">0.32920041680336</t>
   </si>
   <si>
     <t xml:space="preserve">0.330854713916779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349051713943481</t>
+    <t xml:space="preserve">0.349051743745804</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350705981254578</t>
+    <t xml:space="preserve">0.350705951452255</t>
   </si>
   <si>
     <t xml:space="preserve">0.355668842792511</t>
@@ -1205,13 +1205,13 @@
     <t xml:space="preserve">0.36394014954567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370557308197021</t>
+    <t xml:space="preserve">0.370557278394699</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360631614923477</t>
+    <t xml:space="preserve">0.3606316447258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.33912605047226</t>
+    <t xml:space="preserve">0.339126080274582</t>
   </si>
   <si>
     <t xml:space="preserve">0.337471812963486</t>
@@ -1220,7 +1220,7 @@
     <t xml:space="preserve">0.332508981227875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34408888220787</t>
+    <t xml:space="preserve">0.344088912010193</t>
   </si>
   <si>
     <t xml:space="preserve">0.354014545679092</t>
@@ -1232,10 +1232,10 @@
     <t xml:space="preserve">0.353581219911575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34491503238678</t>
+    <t xml:space="preserve">0.344915002584457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350114762783051</t>
+    <t xml:space="preserve">0.350114732980728</t>
   </si>
   <si>
     <t xml:space="preserve">0.363980680704117</t>
@@ -1244,13 +1244,13 @@
     <t xml:space="preserve">0.36571392416954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.351847976446152</t>
+    <t xml:space="preserve">0.351847946643829</t>
   </si>
   <si>
     <t xml:space="preserve">0.355314463376999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.343181788921356</t>
+    <t xml:space="preserve">0.343181759119034</t>
   </si>
   <si>
     <t xml:space="preserve">0.332782328128815</t>
@@ -1262,22 +1262,22 @@
     <t xml:space="preserve">0.331049084663391</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346648275852203</t>
+    <t xml:space="preserve">0.346648246049881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329315811395645</t>
+    <t xml:space="preserve">0.329315841197968</t>
   </si>
   <si>
     <t xml:space="preserve">0.327582597732544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.318916410207748</t>
+    <t xml:space="preserve">0.318916380405426</t>
   </si>
   <si>
     <t xml:space="preserve">0.310250163078308</t>
   </si>
   <si>
-    <t xml:space="preserve">0.315449923276901</t>
+    <t xml:space="preserve">0.315449893474579</t>
   </si>
   <si>
     <t xml:space="preserve">0.306783705949783</t>
@@ -1289,19 +1289,19 @@
     <t xml:space="preserve">0.30505046248436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.296384245157242</t>
+    <t xml:space="preserve">0.296384274959564</t>
   </si>
   <si>
-    <t xml:space="preserve">0.308516949415207</t>
+    <t xml:space="preserve">0.308516979217529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.298117518424988</t>
+    <t xml:space="preserve">0.298117488622665</t>
   </si>
   <si>
     <t xml:space="preserve">0.311983436346054</t>
   </si>
   <si>
-    <t xml:space="preserve">0.313716679811478</t>
+    <t xml:space="preserve">0.313716650009155</t>
   </si>
   <si>
     <t xml:space="preserve">0.324116140604019</t>
@@ -1310,10 +1310,10 @@
     <t xml:space="preserve">0.32584935426712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.337982058525085</t>
+    <t xml:space="preserve">0.337982028722763</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317183166742325</t>
+    <t xml:space="preserve">0.317183136940002</t>
   </si>
   <si>
     <t xml:space="preserve">0.379579782485962</t>
@@ -1322,13 +1322,13 @@
     <t xml:space="preserve">0.370913624763489</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372646868228912</t>
+    <t xml:space="preserve">0.372646898031235</t>
   </si>
   <si>
     <t xml:space="preserve">0.374380111694336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367447137832642</t>
+    <t xml:space="preserve">0.367447108030319</t>
   </si>
   <si>
     <t xml:space="preserve">0.369180381298065</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">0.323986053466797</t>
   </si>
   <si>
-    <t xml:space="preserve">0.320240557193756</t>
+    <t xml:space="preserve">0.320240586996078</t>
   </si>
   <si>
     <t xml:space="preserve">0.318367809057236</t>
@@ -1352,10 +1352,10 @@
     <t xml:space="preserve">0.314622312784195</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32960432767868</t>
+    <t xml:space="preserve">0.329604297876358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32773157954216</t>
+    <t xml:space="preserve">0.327731549739838</t>
   </si>
   <si>
     <t xml:space="preserve">0.310876786708832</t>
@@ -1367,31 +1367,31 @@
     <t xml:space="preserve">0.316495060920715</t>
   </si>
   <si>
-    <t xml:space="preserve">0.307131290435791</t>
+    <t xml:space="preserve">0.307131320238113</t>
   </si>
   <si>
     <t xml:space="preserve">0.299640268087387</t>
   </si>
   <si>
-    <t xml:space="preserve">0.30338579416275</t>
+    <t xml:space="preserve">0.303385764360428</t>
   </si>
   <si>
-    <t xml:space="preserve">0.295894831418991</t>
+    <t xml:space="preserve">0.295894801616669</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309004068374634</t>
+    <t xml:space="preserve">0.309004098176956</t>
   </si>
   <si>
     <t xml:space="preserve">0.30151304602623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.297767549753189</t>
+    <t xml:space="preserve">0.297767519950867</t>
   </si>
   <si>
-    <t xml:space="preserve">0.294022023677826</t>
+    <t xml:space="preserve">0.294022053480148</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333349823951721</t>
+    <t xml:space="preserve">0.333349794149399</t>
   </si>
   <si>
     <t xml:space="preserve">0.322113305330276</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">0.331477075815201</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335222572088242</t>
+    <t xml:space="preserve">0.335222601890564</t>
   </si>
   <si>
     <t xml:space="preserve">0.337095350027084</t>
@@ -1409,16 +1409,16 @@
     <t xml:space="preserve">0.355822831392288</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350204586982727</t>
+    <t xml:space="preserve">0.350204616785049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338968068361282</t>
+    <t xml:space="preserve">0.338968098163605</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344586372375488</t>
+    <t xml:space="preserve">0.344586342573166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342713564634323</t>
+    <t xml:space="preserve">0.342713594436646</t>
   </si>
   <si>
     <t xml:space="preserve">0.340840816497803</t>
@@ -1427,7 +1427,7 @@
     <t xml:space="preserve">0.340362787246704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.328889906406403</t>
+    <t xml:space="preserve">0.32888987660408</t>
   </si>
   <si>
     <t xml:space="preserve">0.325065582990646</t>
@@ -1439,10 +1439,10 @@
     <t xml:space="preserve">0.317416965961456</t>
   </si>
   <si>
-    <t xml:space="preserve">0.315504819154739</t>
+    <t xml:space="preserve">0.315504848957062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.326977729797363</t>
+    <t xml:space="preserve">0.326977759599686</t>
   </si>
   <si>
     <t xml:space="preserve">0.343951225280762</t>
@@ -1509,6 +1509,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.342000007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34799998998642</t>
   </si>
 </sst>
 </file>
@@ -25918,7 +25921,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G926" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -25944,7 +25947,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G927" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -25970,7 +25973,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G928" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -25996,7 +25999,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G929" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -26022,7 +26025,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G930" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -26048,7 +26051,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G931" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -26074,7 +26077,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G932" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -26100,7 +26103,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G933" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -26126,7 +26129,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G934" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -26152,7 +26155,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G935" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -26178,7 +26181,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G936" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -26204,7 +26207,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G937" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -26230,7 +26233,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G938" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -26256,7 +26259,7 @@
         <v>0.564999997615814</v>
       </c>
       <c r="G939" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -26282,7 +26285,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G940" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -26308,7 +26311,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G941" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -26360,7 +26363,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G943" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -26386,7 +26389,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G944" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -26412,7 +26415,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G945" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -26438,7 +26441,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G946" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -26464,7 +26467,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G947" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -26490,7 +26493,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G948" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -26516,7 +26519,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G949" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -26542,7 +26545,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G950" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -26568,7 +26571,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G951" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -26594,7 +26597,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G952" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -26620,7 +26623,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G953" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -26646,7 +26649,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G954" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -26672,7 +26675,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G955" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -26698,7 +26701,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G956" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -26724,7 +26727,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G957" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -26750,7 +26753,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G958" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -26776,7 +26779,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G959" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -26802,7 +26805,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G960" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -26828,7 +26831,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G961" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -26906,7 +26909,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G964" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -26984,7 +26987,7 @@
         <v>0.644999980926514</v>
       </c>
       <c r="G967" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -27010,7 +27013,7 @@
         <v>0.759999990463257</v>
       </c>
       <c r="G968" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -27062,7 +27065,7 @@
         <v>0.649999976158142</v>
       </c>
       <c r="G970" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -27088,7 +27091,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G971" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -27114,7 +27117,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G972" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -27140,7 +27143,7 @@
         <v>0.654999971389771</v>
       </c>
       <c r="G973" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -27296,7 +27299,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G979" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -27322,7 +27325,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G980" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -27348,7 +27351,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G981" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -27426,7 +27429,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G984" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -27452,7 +27455,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G985" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -27868,7 +27871,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1001" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -27894,7 +27897,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1002" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -27920,7 +27923,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1003" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -27946,7 +27949,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1004" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -27972,7 +27975,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1005" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -27998,7 +28001,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1006" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -28024,7 +28027,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1007" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -28050,7 +28053,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1008" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -28076,7 +28079,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1009" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -28128,7 +28131,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1011" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -28154,7 +28157,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1012" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -28180,7 +28183,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1013" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -28206,7 +28209,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1014" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -28232,7 +28235,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1015" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -28258,7 +28261,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1016" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -28284,7 +28287,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1017" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -28310,7 +28313,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1018" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -28336,7 +28339,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1019" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -28362,7 +28365,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1020" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -28388,7 +28391,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1021" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -28466,7 +28469,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1024" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -28492,7 +28495,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1025" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -28518,7 +28521,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1026" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -28544,7 +28547,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1027" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -28570,7 +28573,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1028" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -28596,7 +28599,7 @@
         <v>0.564999997615814</v>
       </c>
       <c r="G1029" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -28622,7 +28625,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1030" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -28648,7 +28651,7 @@
         <v>0.550000011920929</v>
       </c>
       <c r="G1031" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -28674,7 +28677,7 @@
         <v>0.550000011920929</v>
       </c>
       <c r="G1032" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -28700,7 +28703,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1033" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -28726,7 +28729,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1034" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -28752,7 +28755,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1035" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -28778,7 +28781,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1036" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -28804,7 +28807,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1037" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -28830,7 +28833,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1038" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -28856,7 +28859,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G1039" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -28882,7 +28885,7 @@
         <v>0.555000007152557</v>
       </c>
       <c r="G1040" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -28908,7 +28911,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1041" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -28934,7 +28937,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1042" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -28960,7 +28963,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1043" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -28986,7 +28989,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1044" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -29090,7 +29093,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1048" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -29142,7 +29145,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1050" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -29220,7 +29223,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1053" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -29246,7 +29249,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1054" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -29272,7 +29275,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1055" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -29298,7 +29301,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1056" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -29324,7 +29327,7 @@
         <v>0.492000013589859</v>
       </c>
       <c r="G1057" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -29350,7 +29353,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1058" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -29376,7 +29379,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1059" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -29402,7 +29405,7 @@
         <v>0.5</v>
       </c>
       <c r="G1060" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -29428,7 +29431,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1061" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -29454,7 +29457,7 @@
         <v>0.5</v>
       </c>
       <c r="G1062" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -29480,7 +29483,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1063" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -29506,7 +29509,7 @@
         <v>0.453999996185303</v>
       </c>
       <c r="G1064" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -29532,7 +29535,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1065" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -29558,7 +29561,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G1066" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -29584,7 +29587,7 @@
         <v>0.40200001001358</v>
       </c>
       <c r="G1067" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -29610,7 +29613,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1068" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -29636,7 +29639,7 @@
         <v>0.393999993801117</v>
       </c>
       <c r="G1069" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -29662,7 +29665,7 @@
         <v>0.377999991178513</v>
       </c>
       <c r="G1070" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -29688,7 +29691,7 @@
         <v>0.354000002145767</v>
       </c>
       <c r="G1071" t="s">
-        <v>307</v>
+        <v>109</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -29870,7 +29873,7 @@
         <v>0.40200001001358</v>
       </c>
       <c r="G1078" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -30000,7 +30003,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1083" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -30026,7 +30029,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1084" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -30052,7 +30055,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1085" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -30104,7 +30107,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1087" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -30130,7 +30133,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1088" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -30208,7 +30211,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1091" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -30598,7 +30601,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1106" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -30624,7 +30627,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1107" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -30728,7 +30731,7 @@
         <v>0.5</v>
       </c>
       <c r="G1111" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -30780,7 +30783,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1113" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -30806,7 +30809,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1114" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -30832,7 +30835,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1115" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -30936,7 +30939,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1119" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -30962,7 +30965,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1120" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -30988,7 +30991,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1121" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -31040,7 +31043,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1123" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -31066,7 +31069,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1124" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -31092,7 +31095,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1125" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -31118,7 +31121,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1126" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -31144,7 +31147,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G1127" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -31170,7 +31173,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1128" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -31196,7 +31199,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1129" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -31222,7 +31225,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1130" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -31248,7 +31251,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1131" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -31274,7 +31277,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1132" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -31300,7 +31303,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1133" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -31326,7 +31329,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1134" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -31352,7 +31355,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1135" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -31378,7 +31381,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1136" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -31404,7 +31407,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1137" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -31430,7 +31433,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1138" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -31456,7 +31459,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1139" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -31482,7 +31485,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1140" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -31508,7 +31511,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1141" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -31534,7 +31537,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1142" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -31560,7 +31563,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1143" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -31586,7 +31589,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1144" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -31612,7 +31615,7 @@
         <v>0.5</v>
       </c>
       <c r="G1145" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -31638,7 +31641,7 @@
         <v>0.5</v>
       </c>
       <c r="G1146" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -31664,7 +31667,7 @@
         <v>0.5</v>
       </c>
       <c r="G1147" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -31690,7 +31693,7 @@
         <v>0.5</v>
       </c>
       <c r="G1148" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -31716,7 +31719,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1149" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -31768,7 +31771,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1151" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -31794,7 +31797,7 @@
         <v>0.5</v>
       </c>
       <c r="G1152" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -31820,7 +31823,7 @@
         <v>0.5</v>
       </c>
       <c r="G1153" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -31872,7 +31875,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1155" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -32054,7 +32057,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1162" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32080,7 +32083,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1163" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -32106,7 +32109,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1164" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -32132,7 +32135,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1165" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -32470,7 +32473,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1178" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -32964,7 +32967,7 @@
         <v>0.453999996185303</v>
       </c>
       <c r="G1197" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -34004,7 +34007,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1237" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -34212,7 +34215,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G1245" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -34238,7 +34241,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G1246" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -34732,7 +34735,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1265" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -35382,7 +35385,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1290" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -35408,7 +35411,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1291" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -35460,7 +35463,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1293" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -35486,7 +35489,7 @@
         <v>0.5</v>
       </c>
       <c r="G1294" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -35512,7 +35515,7 @@
         <v>0.550000011920929</v>
       </c>
       <c r="G1295" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -35538,7 +35541,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1296" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -35590,7 +35593,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1298" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -35616,7 +35619,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1299" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -35642,7 +35645,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1300" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -35694,7 +35697,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1302" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -35720,7 +35723,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1303" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -35746,7 +35749,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1304" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -35772,7 +35775,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1305" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -35798,7 +35801,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1306" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -35824,7 +35827,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1307" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -35850,7 +35853,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1308" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -35876,7 +35879,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1309" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -35902,7 +35905,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1310" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -59778,7 +59781,7 @@
     </row>
     <row r="2229">
       <c r="A2229" s="1" t="n">
-        <v>45567.4112847222</v>
+        <v>45567.2916666667</v>
       </c>
       <c r="B2229" t="n">
         <v>4000</v>
@@ -59799,6 +59802,32 @@
         <v>498</v>
       </c>
       <c r="H2229" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" s="1" t="n">
+        <v>45568.5895717593</v>
+      </c>
+      <c r="B2230" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C2230" t="n">
+        <v>0.34799998998642</v>
+      </c>
+      <c r="D2230" t="n">
+        <v>0.34799998998642</v>
+      </c>
+      <c r="E2230" t="n">
+        <v>0.34799998998642</v>
+      </c>
+      <c r="F2230" t="n">
+        <v>0.34799998998642</v>
+      </c>
+      <c r="G2230" t="s">
+        <v>499</v>
+      </c>
+      <c r="H2230" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/POPR.MI.xlsx
+++ b/data/POPR.MI.xlsx
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193052023649216</t>
+    <t xml:space="preserve">0.193052008748055</t>
   </si>
   <si>
     <t xml:space="preserve">POPR.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193741500377655</t>
+    <t xml:space="preserve">0.193741485476494</t>
   </si>
   <si>
     <t xml:space="preserve">0.189604684710503</t>
@@ -62,13 +62,13 @@
     <t xml:space="preserve">0.163404762744904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157199501991272</t>
+    <t xml:space="preserve">0.157199516892433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164301067590714</t>
+    <t xml:space="preserve">0.164301052689552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159267917275429</t>
+    <t xml:space="preserve">0.15926793217659</t>
   </si>
   <si>
     <t xml:space="preserve">0.167541578412056</t>
@@ -77,10 +77,10 @@
     <t xml:space="preserve">0.168231055140495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165404215455055</t>
+    <t xml:space="preserve">0.165404230356216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16064690053463</t>
+    <t xml:space="preserve">0.160646855831146</t>
   </si>
   <si>
     <t xml:space="preserve">0.153407409787178</t>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">0.155820578336716</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152373194694519</t>
+    <t xml:space="preserve">0.15237320959568</t>
   </si>
   <si>
     <t xml:space="preserve">0.165748953819275</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">0.17236790060997</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169609993696213</t>
+    <t xml:space="preserve">0.169610008597374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164094209671021</t>
+    <t xml:space="preserve">0.164094239473343</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170782089233398</t>
+    <t xml:space="preserve">0.170782119035721</t>
   </si>
   <si>
     <t xml:space="preserve">0.176504731178284</t>
@@ -128,55 +128,55 @@
     <t xml:space="preserve">0.174367353320122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194499909877777</t>
+    <t xml:space="preserve">0.194499924778938</t>
   </si>
   <si>
     <t xml:space="preserve">0.194430977106094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187536269426346</t>
+    <t xml:space="preserve">0.187536284327507</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182020500302315</t>
+    <t xml:space="preserve">0.182020485401154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206841513514519</t>
+    <t xml:space="preserve">0.206841483712196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211323037743568</t>
+    <t xml:space="preserve">0.211323022842407</t>
   </si>
   <si>
     <t xml:space="preserve">0.210288807749748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.202015161514282</t>
+    <t xml:space="preserve">0.202015176415443</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199257269501686</t>
+    <t xml:space="preserve">0.199257284402847</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220630869269371</t>
+    <t xml:space="preserve">0.220630884170532</t>
   </si>
   <si>
     <t xml:space="preserve">0.228904530405998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220561921596527</t>
+    <t xml:space="preserve">0.220561936497688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.215804606676102</t>
+    <t xml:space="preserve">0.215804576873779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.213046669960022</t>
+    <t xml:space="preserve">0.213046699762344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.19649937748909</t>
+    <t xml:space="preserve">0.196499392390251</t>
   </si>
   <si>
     <t xml:space="preserve">0.199946731328964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186295211315155</t>
+    <t xml:space="preserve">0.186295226216316</t>
   </si>
   <si>
     <t xml:space="preserve">0.184778362512589</t>
@@ -188,43 +188,43 @@
     <t xml:space="preserve">0.166300535202026</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182709947228432</t>
+    <t xml:space="preserve">0.182709932327271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172298952937126</t>
+    <t xml:space="preserve">0.172298938035965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166852116584778</t>
+    <t xml:space="preserve">0.166852101683617</t>
   </si>
   <si>
     <t xml:space="preserve">0.168920531868935</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172919481992722</t>
+    <t xml:space="preserve">0.172919452190399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.204083561897278</t>
+    <t xml:space="preserve">0.2040835916996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206151992082596</t>
+    <t xml:space="preserve">0.206151977181435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.201325714588165</t>
+    <t xml:space="preserve">0.201325684785843</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199326246976852</t>
+    <t xml:space="preserve">0.199326232075691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183399423956871</t>
+    <t xml:space="preserve">0.183399438858032</t>
   </si>
   <si>
     <t xml:space="preserve">0.175815224647522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161336347460747</t>
+    <t xml:space="preserve">0.161336332559586</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1661626547575</t>
+    <t xml:space="preserve">0.166162639856339</t>
   </si>
   <si>
     <t xml:space="preserve">0.162715286016464</t>
@@ -233,55 +233,55 @@
     <t xml:space="preserve">0.158578455448151</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173746839165688</t>
+    <t xml:space="preserve">0.173746824264526</t>
   </si>
   <si>
     <t xml:space="preserve">0.181193128228188</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187191531062126</t>
+    <t xml:space="preserve">0.187191516160965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188915207982063</t>
+    <t xml:space="preserve">0.188915193080902</t>
   </si>
   <si>
     <t xml:space="preserve">0.200291454792023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219941452145576</t>
+    <t xml:space="preserve">0.219941422343254</t>
   </si>
   <si>
-    <t xml:space="preserve">0.212357252836227</t>
+    <t xml:space="preserve">0.212357223033905</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195396214723587</t>
+    <t xml:space="preserve">0.195396244525909</t>
   </si>
   <si>
-    <t xml:space="preserve">0.209254622459412</t>
+    <t xml:space="preserve">0.20925460755825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220493003726006</t>
+    <t xml:space="preserve">0.220492988824844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.213736176490784</t>
+    <t xml:space="preserve">0.213736191391945</t>
   </si>
   <si>
     <t xml:space="preserve">0.210357770323753</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219251945614815</t>
+    <t xml:space="preserve">0.219251960515976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233730807900429</t>
+    <t xml:space="preserve">0.233730837702751</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237798750400543</t>
+    <t xml:space="preserve">0.237798720598221</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25510448217392</t>
+    <t xml:space="preserve">0.255104452371597</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261309742927551</t>
+    <t xml:space="preserve">0.261309772729874</t>
   </si>
   <si>
     <t xml:space="preserve">0.275788635015488</t>
@@ -290,16 +290,16 @@
     <t xml:space="preserve">0.293025434017181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.301988542079926</t>
+    <t xml:space="preserve">0.301988512277603</t>
   </si>
   <si>
-    <t xml:space="preserve">0.318535834550858</t>
+    <t xml:space="preserve">0.31853586435318</t>
   </si>
   <si>
     <t xml:space="preserve">0.327498942613602</t>
   </si>
   <si>
-    <t xml:space="preserve">0.282683312892914</t>
+    <t xml:space="preserve">0.282683342695236</t>
   </si>
   <si>
     <t xml:space="preserve">0.285372257232666</t>
@@ -308,13 +308,13 @@
     <t xml:space="preserve">0.274478614330292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.274409681558609</t>
+    <t xml:space="preserve">0.274409651756287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.266342848539352</t>
+    <t xml:space="preserve">0.266342878341675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.266825497150421</t>
+    <t xml:space="preserve">0.266825467348099</t>
   </si>
   <si>
     <t xml:space="preserve">0.266963362693787</t>
@@ -323,46 +323,46 @@
     <t xml:space="preserve">0.251657128334045</t>
   </si>
   <si>
-    <t xml:space="preserve">0.256483435630798</t>
+    <t xml:space="preserve">0.256483405828476</t>
   </si>
   <si>
     <t xml:space="preserve">0.230972960591316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.22697402536869</t>
+    <t xml:space="preserve">0.226974040269852</t>
   </si>
   <si>
     <t xml:space="preserve">0.232351899147034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228973522782326</t>
+    <t xml:space="preserve">0.228973507881165</t>
   </si>
   <si>
-    <t xml:space="preserve">0.26062023639679</t>
+    <t xml:space="preserve">0.260620206594467</t>
   </si>
   <si>
     <t xml:space="preserve">0.268893897533417</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253173977136612</t>
+    <t xml:space="preserve">0.25317394733429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249588698148727</t>
+    <t xml:space="preserve">0.249588683247566</t>
   </si>
   <si>
-    <t xml:space="preserve">0.258551836013794</t>
+    <t xml:space="preserve">0.258551806211472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248209789395332</t>
+    <t xml:space="preserve">0.24820975959301</t>
   </si>
   <si>
     <t xml:space="preserve">0.244762375950813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237867698073387</t>
+    <t xml:space="preserve">0.237867683172226</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243935018777847</t>
+    <t xml:space="preserve">0.24393504858017</t>
   </si>
   <si>
     <t xml:space="preserve">0.233799800276756</t>
@@ -374,22 +374,22 @@
     <t xml:space="preserve">0.224078238010406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.22683610022068</t>
+    <t xml:space="preserve">0.226836130023003</t>
   </si>
   <si>
     <t xml:space="preserve">0.226146668195724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227525636553764</t>
+    <t xml:space="preserve">0.227525621652603</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229042425751686</t>
+    <t xml:space="preserve">0.22904247045517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23248977959156</t>
+    <t xml:space="preserve">0.232489749789238</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247520312666893</t>
+    <t xml:space="preserve">0.247520282864571</t>
   </si>
   <si>
     <t xml:space="preserve">0.241177126765251</t>
@@ -398,22 +398,22 @@
     <t xml:space="preserve">0.24221134185791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.251726061105728</t>
+    <t xml:space="preserve">0.251726090908051</t>
   </si>
   <si>
-    <t xml:space="preserve">0.257103949785233</t>
+    <t xml:space="preserve">0.25710391998291</t>
   </si>
   <si>
     <t xml:space="preserve">0.24627922475338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241315007209778</t>
+    <t xml:space="preserve">0.2413150370121</t>
   </si>
   <si>
     <t xml:space="preserve">0.241039246320724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237936601042747</t>
+    <t xml:space="preserve">0.23793663084507</t>
   </si>
   <si>
     <t xml:space="preserve">0.253725528717041</t>
@@ -428,19 +428,19 @@
     <t xml:space="preserve">0.325982123613358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386104047298431</t>
+    <t xml:space="preserve">0.386104017496109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.510208964347839</t>
+    <t xml:space="preserve">0.510208904743195</t>
   </si>
   <si>
-    <t xml:space="preserve">0.598461329936981</t>
+    <t xml:space="preserve">0.598461270332336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.523308992385864</t>
+    <t xml:space="preserve">0.523308932781219</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479182749986649</t>
+    <t xml:space="preserve">0.479182690382004</t>
   </si>
   <si>
     <t xml:space="preserve">0.462980180978775</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">0.454361706972122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402996152639389</t>
+    <t xml:space="preserve">0.402996093034744</t>
   </si>
   <si>
     <t xml:space="preserve">0.410235613584518</t>
@@ -464,16 +464,16 @@
     <t xml:space="preserve">0.3798987865448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357490986585617</t>
+    <t xml:space="preserve">0.357490956783295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345425218343735</t>
+    <t xml:space="preserve">0.345425248146057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358180433511734</t>
+    <t xml:space="preserve">0.358180493116379</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366798847913742</t>
+    <t xml:space="preserve">0.366798877716064</t>
   </si>
   <si>
     <t xml:space="preserve">0.353009462356567</t>
@@ -482,7 +482,7 @@
     <t xml:space="preserve">0.38265672326088</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374383062124252</t>
+    <t xml:space="preserve">0.37438303232193</t>
   </si>
   <si>
     <t xml:space="preserve">0.358525186777115</t>
@@ -491,16 +491,16 @@
     <t xml:space="preserve">0.349217355251312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352319926023483</t>
+    <t xml:space="preserve">0.352319955825806</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365419894456863</t>
+    <t xml:space="preserve">0.365419864654541</t>
   </si>
   <si>
     <t xml:space="preserve">0.361972540616989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34818309545517</t>
+    <t xml:space="preserve">0.348183125257492</t>
   </si>
   <si>
     <t xml:space="preserve">0.355767279863358</t>
@@ -509,34 +509,34 @@
     <t xml:space="preserve">0.34473580121994</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341977834701538</t>
+    <t xml:space="preserve">0.34197786450386</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367143601179123</t>
+    <t xml:space="preserve">0.367143630981445</t>
   </si>
   <si>
     <t xml:space="preserve">0.348872572183609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347493678331375</t>
+    <t xml:space="preserve">0.347493648529053</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36024883389473</t>
+    <t xml:space="preserve">0.360248863697052</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354388386011124</t>
+    <t xml:space="preserve">0.354388356208801</t>
   </si>
   <si>
     <t xml:space="preserve">0.359904140233994</t>
   </si>
   <si>
-    <t xml:space="preserve">0.330946326255798</t>
+    <t xml:space="preserve">0.330946356058121</t>
   </si>
   <si>
     <t xml:space="preserve">0.340598940849304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341219455003738</t>
+    <t xml:space="preserve">0.341219484806061</t>
   </si>
   <si>
     <t xml:space="preserve">0.351630449295044</t>
@@ -545,7 +545,7 @@
     <t xml:space="preserve">0.357146263122559</t>
   </si>
   <si>
-    <t xml:space="preserve">0.39299875497818</t>
+    <t xml:space="preserve">0.392998784780502</t>
   </si>
   <si>
     <t xml:space="preserve">0.372314661741257</t>
@@ -560,31 +560,31 @@
     <t xml:space="preserve">0.37059098482132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345080494880676</t>
+    <t xml:space="preserve">0.345080554485321</t>
   </si>
   <si>
     <t xml:space="preserve">0.359559416770935</t>
   </si>
   <si>
-    <t xml:space="preserve">0.427472352981567</t>
+    <t xml:space="preserve">0.42747238278389</t>
   </si>
   <si>
     <t xml:space="preserve">0.405409276485443</t>
   </si>
   <si>
-    <t xml:space="preserve">0.404719799757004</t>
+    <t xml:space="preserve">0.404719740152359</t>
   </si>
   <si>
     <t xml:space="preserve">0.40609872341156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398859232664108</t>
+    <t xml:space="preserve">0.398859292268753</t>
   </si>
   <si>
     <t xml:space="preserve">0.406788170337677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378519862890244</t>
+    <t xml:space="preserve">0.378519922494888</t>
   </si>
   <si>
     <t xml:space="preserve">0.383690923452377</t>
@@ -593,22 +593,22 @@
     <t xml:space="preserve">0.388861954212189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402651429176331</t>
+    <t xml:space="preserve">0.402651369571686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.426438093185425</t>
+    <t xml:space="preserve">0.426438182592392</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429540753364563</t>
+    <t xml:space="preserve">0.429540723562241</t>
   </si>
   <si>
     <t xml:space="preserve">0.414372384548187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413683027029037</t>
+    <t xml:space="preserve">0.413682967424393</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424714505672455</t>
+    <t xml:space="preserve">0.42471444606781</t>
   </si>
   <si>
     <t xml:space="preserve">0.414027661085129</t>
@@ -617,40 +617,40 @@
     <t xml:space="preserve">0.447467029094696</t>
   </si>
   <si>
-    <t xml:space="preserve">0.455051273107529</t>
+    <t xml:space="preserve">0.455051243305206</t>
   </si>
   <si>
     <t xml:space="preserve">0.43023020029068</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413338154554367</t>
+    <t xml:space="preserve">0.413338243961334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424024969339371</t>
+    <t xml:space="preserve">0.424025028944016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.517103672027588</t>
+    <t xml:space="preserve">0.517103612422943</t>
   </si>
   <si>
     <t xml:space="preserve">0.481940567493439</t>
   </si>
   <si>
-    <t xml:space="preserve">0.496419578790665</t>
+    <t xml:space="preserve">0.49641951918602</t>
   </si>
   <si>
-    <t xml:space="preserve">0.475735396146774</t>
+    <t xml:space="preserve">0.475735366344452</t>
   </si>
   <si>
-    <t xml:space="preserve">0.480561643838882</t>
+    <t xml:space="preserve">0.480561673641205</t>
   </si>
   <si>
     <t xml:space="preserve">0.489524751901627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.482630014419556</t>
+    <t xml:space="preserve">0.4826300740242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463324904441833</t>
+    <t xml:space="preserve">0.463324844837189</t>
   </si>
   <si>
     <t xml:space="preserve">0.466082781553268</t>
@@ -659,7 +659,7 @@
     <t xml:space="preserve">0.461945921182632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.449535459280014</t>
+    <t xml:space="preserve">0.449535399675369</t>
   </si>
   <si>
     <t xml:space="preserve">0.445398569107056</t>
@@ -668,10 +668,10 @@
     <t xml:space="preserve">0.448156476020813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45367220044136</t>
+    <t xml:space="preserve">0.453672260046005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.441261738538742</t>
+    <t xml:space="preserve">0.441261768341064</t>
   </si>
   <si>
     <t xml:space="preserve">0.474356412887573</t>
@@ -686,10 +686,10 @@
     <t xml:space="preserve">0.468840628862381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.43850389122963</t>
+    <t xml:space="preserve">0.438503921031952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.459188044071198</t>
+    <t xml:space="preserve">0.459188014268875</t>
   </si>
   <si>
     <t xml:space="preserve">0.464703798294067</t>
@@ -698,10 +698,10 @@
     <t xml:space="preserve">0.45091438293457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437124937772751</t>
+    <t xml:space="preserve">0.437124967575073</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444019675254822</t>
+    <t xml:space="preserve">0.444019615650177</t>
   </si>
   <si>
     <t xml:space="preserve">0.41919869184494</t>
@@ -710,40 +710,40 @@
     <t xml:space="preserve">0.420577615499496</t>
   </si>
   <si>
-    <t xml:space="preserve">0.426093339920044</t>
+    <t xml:space="preserve">0.426093399524689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.442640751600266</t>
+    <t xml:space="preserve">0.442640721797943</t>
   </si>
   <si>
-    <t xml:space="preserve">0.472977519035339</t>
+    <t xml:space="preserve">0.47297739982605</t>
   </si>
   <si>
     <t xml:space="preserve">0.460566937923431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446777582168579</t>
+    <t xml:space="preserve">0.446777552366257</t>
   </si>
   <si>
-    <t xml:space="preserve">0.432988166809082</t>
+    <t xml:space="preserve">0.43298813700676</t>
   </si>
   <si>
     <t xml:space="preserve">0.452293336391449</t>
   </si>
   <si>
-    <t xml:space="preserve">0.439882904291153</t>
+    <t xml:space="preserve">0.439882844686508</t>
   </si>
   <si>
-    <t xml:space="preserve">0.456430226564407</t>
+    <t xml:space="preserve">0.45643013715744</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397135615348816</t>
+    <t xml:space="preserve">0.397135585546494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40127244591713</t>
+    <t xml:space="preserve">0.401272416114807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398514539003372</t>
+    <t xml:space="preserve">0.398514568805695</t>
   </si>
   <si>
     <t xml:space="preserve">0.373693555593491</t>
@@ -755,61 +755,61 @@
     <t xml:space="preserve">0.394377708435059</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391619831323624</t>
+    <t xml:space="preserve">0.391619861125946</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377830415964127</t>
+    <t xml:space="preserve">0.377830386161804</t>
   </si>
   <si>
     <t xml:space="preserve">0.369556725025177</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370935678482056</t>
+    <t xml:space="preserve">0.370935648679733</t>
   </si>
   <si>
     <t xml:space="preserve">0.379209369421005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408167123794556</t>
+    <t xml:space="preserve">0.4081671833992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423335522413254</t>
+    <t xml:space="preserve">0.423335552215576</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38748300075531</t>
+    <t xml:space="preserve">0.387482970952988</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395756661891937</t>
+    <t xml:space="preserve">0.395756632089615</t>
   </si>
   <si>
     <t xml:space="preserve">0.415061831474304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412303984165192</t>
+    <t xml:space="preserve">0.412303954362869</t>
   </si>
   <si>
     <t xml:space="preserve">0.409546107053757</t>
   </si>
   <si>
-    <t xml:space="preserve">0.42195650935173</t>
+    <t xml:space="preserve">0.421956598758698</t>
   </si>
   <si>
-    <t xml:space="preserve">0.428851336240768</t>
+    <t xml:space="preserve">0.428851246833801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431609213352203</t>
+    <t xml:space="preserve">0.431609153747559</t>
   </si>
   <si>
     <t xml:space="preserve">0.465393304824829</t>
   </si>
   <si>
-    <t xml:space="preserve">0.472288012504578</t>
+    <t xml:space="preserve">0.472287952899933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.492972195148468</t>
+    <t xml:space="preserve">0.492972135543823</t>
   </si>
   <si>
-    <t xml:space="preserve">0.499866902828217</t>
+    <t xml:space="preserve">0.499866843223572</t>
   </si>
   <si>
     <t xml:space="preserve">0.508923470973969</t>
@@ -818,46 +818,46 @@
     <t xml:space="preserve">0.486135840415955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.470944106578827</t>
+    <t xml:space="preserve">0.470944166183472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.455752462148666</t>
+    <t xml:space="preserve">0.455752402544022</t>
   </si>
   <si>
-    <t xml:space="preserve">0.467146158218384</t>
+    <t xml:space="preserve">0.467146188020706</t>
   </si>
   <si>
     <t xml:space="preserve">0.478539973497391</t>
   </si>
   <si>
-    <t xml:space="preserve">0.482337921857834</t>
+    <t xml:space="preserve">0.482337981462479</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47474205493927</t>
+    <t xml:space="preserve">0.474741995334625</t>
   </si>
   <si>
-    <t xml:space="preserve">0.459550321102142</t>
+    <t xml:space="preserve">0.45955029129982</t>
   </si>
   <si>
     <t xml:space="preserve">0.440560609102249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451954513788223</t>
+    <t xml:space="preserve">0.451954483985901</t>
   </si>
   <si>
-    <t xml:space="preserve">0.425368845462799</t>
+    <t xml:space="preserve">0.425368815660477</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429166823625565</t>
+    <t xml:space="preserve">0.429166793823242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444358557462692</t>
+    <t xml:space="preserve">0.44435852766037</t>
   </si>
   <si>
     <t xml:space="preserve">0.463348239660263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.489933788776398</t>
+    <t xml:space="preserve">0.489933729171753</t>
   </si>
   <si>
     <t xml:space="preserve">0.577286303043365</t>
@@ -869,13 +869,13 @@
     <t xml:space="preserve">0.501327633857727</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497529596090317</t>
+    <t xml:space="preserve">0.497529655694962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436762720346451</t>
+    <t xml:space="preserve">0.436762690544128</t>
   </si>
   <si>
-    <t xml:space="preserve">0.432964742183685</t>
+    <t xml:space="preserve">0.432964771986008</t>
   </si>
   <si>
     <t xml:space="preserve">0.41777303814888</t>
@@ -896,7 +896,7 @@
     <t xml:space="preserve">0.402581244707108</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373716920614243</t>
+    <t xml:space="preserve">0.373716950416565</t>
   </si>
   <si>
     <t xml:space="preserve">0.372197777032852</t>
@@ -905,31 +905,31 @@
     <t xml:space="preserve">0.387389481067657</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379793673753738</t>
+    <t xml:space="preserve">0.379793643951416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364601880311966</t>
+    <t xml:space="preserve">0.364601910114288</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341814249753952</t>
+    <t xml:space="preserve">0.341814279556274</t>
   </si>
   <si>
     <t xml:space="preserve">0.3448526263237</t>
   </si>
   <si>
-    <t xml:space="preserve">0.31902664899826</t>
+    <t xml:space="preserve">0.319026678800583</t>
   </si>
   <si>
     <t xml:space="preserve">0.284085661172867</t>
   </si>
   <si>
-    <t xml:space="preserve">0.305354088544846</t>
+    <t xml:space="preserve">0.305354058742523</t>
   </si>
   <si>
     <t xml:space="preserve">0.288643151521683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.299277365207672</t>
+    <t xml:space="preserve">0.29927733540535</t>
   </si>
   <si>
     <t xml:space="preserve">0.28712397813797</t>
@@ -938,25 +938,25 @@
     <t xml:space="preserve">0.273451447486877</t>
   </si>
   <si>
-    <t xml:space="preserve">0.267374724149704</t>
+    <t xml:space="preserve">0.267374694347382</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312949955463409</t>
+    <t xml:space="preserve">0.312949985265732</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314469128847122</t>
+    <t xml:space="preserve">0.314469158649445</t>
   </si>
   <si>
-    <t xml:space="preserve">0.297758191823959</t>
+    <t xml:space="preserve">0.297758162021637</t>
   </si>
   <si>
     <t xml:space="preserve">0.306873261928558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.308392465114594</t>
+    <t xml:space="preserve">0.308392435312271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.323584169149399</t>
+    <t xml:space="preserve">0.323584228754044</t>
   </si>
   <si>
     <t xml:space="preserve">0.332699209451675</t>
@@ -965,25 +965,25 @@
     <t xml:space="preserve">0.338775932788849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370678603649139</t>
+    <t xml:space="preserve">0.370678573846817</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357006013393402</t>
+    <t xml:space="preserve">0.357006043195724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350929319858551</t>
+    <t xml:space="preserve">0.350929379463196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.376755237579346</t>
+    <t xml:space="preserve">0.376755267381668</t>
   </si>
   <si>
     <t xml:space="preserve">0.398783296346664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413975089788437</t>
+    <t xml:space="preserve">0.413975059986115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36004438996315</t>
+    <t xml:space="preserve">0.360044360160828</t>
   </si>
   <si>
     <t xml:space="preserve">0.363082706928253</t>
@@ -992,52 +992,52 @@
     <t xml:space="preserve">0.369159400463104</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383591562509537</t>
+    <t xml:space="preserve">0.383591592311859</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378274440765381</t>
+    <t xml:space="preserve">0.378274470567703</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353967726230621</t>
+    <t xml:space="preserve">0.353967636823654</t>
   </si>
   <si>
     <t xml:space="preserve">0.355486869812012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352448433637619</t>
+    <t xml:space="preserve">0.352448493242264</t>
   </si>
   <si>
     <t xml:space="preserve">0.349410146474838</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335737556219101</t>
+    <t xml:space="preserve">0.335737586021423</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347890973091125</t>
+    <t xml:space="preserve">0.347891002893448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.334218382835388</t>
+    <t xml:space="preserve">0.334218412637711</t>
   </si>
   <si>
     <t xml:space="preserve">0.326622545719147</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311430782079697</t>
+    <t xml:space="preserve">0.311430811882019</t>
   </si>
   <si>
     <t xml:space="preserve">0.315988302230835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.290162324905396</t>
+    <t xml:space="preserve">0.290162354707718</t>
   </si>
   <si>
-    <t xml:space="preserve">0.293200701475143</t>
+    <t xml:space="preserve">0.293200671672821</t>
   </si>
   <si>
     <t xml:space="preserve">0.28560483455658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.291681557893753</t>
+    <t xml:space="preserve">0.291681498289108</t>
   </si>
   <si>
     <t xml:space="preserve">0.296239018440247</t>
@@ -1049,7 +1049,7 @@
     <t xml:space="preserve">0.320545852184296</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325103342533112</t>
+    <t xml:space="preserve">0.325103372335434</t>
   </si>
   <si>
     <t xml:space="preserve">0.317507535219193</t>
@@ -1067,7 +1067,7 @@
     <t xml:space="preserve">0.413568377494812</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397025614976883</t>
+    <t xml:space="preserve">0.397025644779205</t>
   </si>
   <si>
     <t xml:space="preserve">0.405297040939331</t>
@@ -1085,22 +1085,22 @@
     <t xml:space="preserve">0.40033420920372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383791446685791</t>
+    <t xml:space="preserve">0.383791476488113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377174347639084</t>
+    <t xml:space="preserve">0.377174377441406</t>
   </si>
   <si>
     <t xml:space="preserve">0.375520080327988</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372211515903473</t>
+    <t xml:space="preserve">0.372211545705795</t>
   </si>
   <si>
     <t xml:space="preserve">0.387100011110306</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380482941865921</t>
+    <t xml:space="preserve">0.380482912063599</t>
   </si>
   <si>
     <t xml:space="preserve">0.38544574379921</t>
@@ -1109,16 +1109,16 @@
     <t xml:space="preserve">0.368903011083603</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367248743772507</t>
+    <t xml:space="preserve">0.367248713970184</t>
   </si>
   <si>
     <t xml:space="preserve">0.382137209177017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479739308357239</t>
+    <t xml:space="preserve">0.479739338159561</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450789511203766</t>
+    <t xml:space="preserve">0.450789541006088</t>
   </si>
   <si>
     <t xml:space="preserve">0.49628210067749</t>
@@ -1127,22 +1127,22 @@
     <t xml:space="preserve">0.48801064491272</t>
   </si>
   <si>
-    <t xml:space="preserve">0.483875036239624</t>
+    <t xml:space="preserve">0.483874976634979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454925268888474</t>
+    <t xml:space="preserve">0.454925179481506</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44251823425293</t>
+    <t xml:space="preserve">0.442518204450607</t>
   </si>
   <si>
-    <t xml:space="preserve">0.430111080408096</t>
+    <t xml:space="preserve">0.430111050605774</t>
   </si>
   <si>
     <t xml:space="preserve">0.421839743852615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434246778488159</t>
+    <t xml:space="preserve">0.434246808290482</t>
   </si>
   <si>
     <t xml:space="preserve">0.44665390253067</t>
@@ -1151,7 +1151,7 @@
     <t xml:space="preserve">0.408605545759201</t>
   </si>
   <si>
-    <t xml:space="preserve">0.401988476514816</t>
+    <t xml:space="preserve">0.401988446712494</t>
   </si>
   <si>
     <t xml:space="preserve">0.388754278421402</t>
@@ -1160,34 +1160,34 @@
     <t xml:space="preserve">0.378828644752502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373865813016891</t>
+    <t xml:space="preserve">0.373865783214569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406951308250427</t>
+    <t xml:space="preserve">0.406951278448105</t>
   </si>
   <si>
     <t xml:space="preserve">0.395371347665787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.403642743825912</t>
+    <t xml:space="preserve">0.403642773628235</t>
   </si>
   <si>
     <t xml:space="preserve">0.393717110157013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347397446632385</t>
+    <t xml:space="preserve">0.347397416830063</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329200446605682</t>
+    <t xml:space="preserve">0.32920041680336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.330854743719101</t>
+    <t xml:space="preserve">0.330854684114456</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349051713943481</t>
+    <t xml:space="preserve">0.349051684141159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3507060110569</t>
+    <t xml:space="preserve">0.350705981254578</t>
   </si>
   <si>
     <t xml:space="preserve">0.355668812990189</t>
@@ -1205,19 +1205,19 @@
     <t xml:space="preserve">0.370557278394699</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3606316447258</t>
+    <t xml:space="preserve">0.360631614923477</t>
   </si>
   <si>
-    <t xml:space="preserve">0.339126080274582</t>
+    <t xml:space="preserve">0.33912605047226</t>
   </si>
   <si>
-    <t xml:space="preserve">0.337471812963486</t>
+    <t xml:space="preserve">0.337471783161163</t>
   </si>
   <si>
     <t xml:space="preserve">0.332508981227875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344088941812515</t>
+    <t xml:space="preserve">0.34408888220787</t>
   </si>
   <si>
     <t xml:space="preserve">0.354014545679092</t>
@@ -1262,7 +1262,7 @@
     <t xml:space="preserve">0.346648246049881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329315811395645</t>
+    <t xml:space="preserve">0.329315841197968</t>
   </si>
   <si>
     <t xml:space="preserve">0.327582597732544</t>
@@ -1283,7 +1283,7 @@
     <t xml:space="preserve">0.303317189216614</t>
   </si>
   <si>
-    <t xml:space="preserve">0.305050432682037</t>
+    <t xml:space="preserve">0.30505046248436</t>
   </si>
   <si>
     <t xml:space="preserve">0.296384274959564</t>
@@ -1301,22 +1301,22 @@
     <t xml:space="preserve">0.313716650009155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.324116110801697</t>
+    <t xml:space="preserve">0.324116140604019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32584935426712</t>
+    <t xml:space="preserve">0.325849324464798</t>
   </si>
   <si>
     <t xml:space="preserve">0.337981998920441</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317183136940002</t>
+    <t xml:space="preserve">0.317183166742325</t>
   </si>
   <si>
     <t xml:space="preserve">0.379579842090607</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370913654565811</t>
+    <t xml:space="preserve">0.370913624763489</t>
   </si>
   <si>
     <t xml:space="preserve">0.372646868228912</t>
@@ -1325,13 +1325,13 @@
     <t xml:space="preserve">0.374380111694336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367447167634964</t>
+    <t xml:space="preserve">0.367447137832642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369180381298065</t>
+    <t xml:space="preserve">0.369180411100388</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386512815952301</t>
+    <t xml:space="preserve">0.386512786149979</t>
   </si>
   <si>
     <t xml:space="preserve">0.323986053466797</t>
@@ -1343,13 +1343,13 @@
     <t xml:space="preserve">0.318367809057236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312749564647675</t>
+    <t xml:space="preserve">0.312749534845352</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314622282981873</t>
+    <t xml:space="preserve">0.314622312784195</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329604297876358</t>
+    <t xml:space="preserve">0.32960432767868</t>
   </si>
   <si>
     <t xml:space="preserve">0.327731549739838</t>
@@ -1358,13 +1358,13 @@
     <t xml:space="preserve">0.310876786708832</t>
   </si>
   <si>
-    <t xml:space="preserve">0.305258572101593</t>
+    <t xml:space="preserve">0.305258542299271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.316495090723038</t>
+    <t xml:space="preserve">0.316495060920715</t>
   </si>
   <si>
-    <t xml:space="preserve">0.307131290435791</t>
+    <t xml:space="preserve">0.307131320238113</t>
   </si>
   <si>
     <t xml:space="preserve">0.299640268087387</t>
@@ -1376,13 +1376,13 @@
     <t xml:space="preserve">0.295894801616669</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309004098176956</t>
+    <t xml:space="preserve">0.309004068374634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.301513075828552</t>
+    <t xml:space="preserve">0.30151304602623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.297767549753189</t>
+    <t xml:space="preserve">0.297767519950867</t>
   </si>
   <si>
     <t xml:space="preserve">0.294022053480148</t>
@@ -1403,10 +1403,10 @@
     <t xml:space="preserve">0.337095350027084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355822831392288</t>
+    <t xml:space="preserve">0.355822861194611</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350204586982727</t>
+    <t xml:space="preserve">0.350204616785049</t>
   </si>
   <si>
     <t xml:space="preserve">0.338968068361282</t>
@@ -1415,7 +1415,7 @@
     <t xml:space="preserve">0.344586342573166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342713564634323</t>
+    <t xml:space="preserve">0.342713594436646</t>
   </si>
   <si>
     <t xml:space="preserve">0.340840816497803</t>
@@ -59854,6 +59854,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2232">
+      <c r="A2232" s="1" t="n">
+        <v>45572.2916666667</v>
+      </c>
+      <c r="B2232" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2232" t="n">
+        <v>0.34799998998642</v>
+      </c>
+      <c r="D2232" t="n">
+        <v>0.34799998998642</v>
+      </c>
+      <c r="E2232" t="n">
+        <v>0.34799998998642</v>
+      </c>
+      <c r="F2232" t="n">
+        <v>0.34799998998642</v>
+      </c>
+      <c r="G2232" t="s">
+        <v>498</v>
+      </c>
+      <c r="H2232" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" s="1" t="n">
+        <v>45573.3044328704</v>
+      </c>
+      <c r="B2233" t="n">
+        <v>12000</v>
+      </c>
+      <c r="C2233" t="n">
+        <v>0.340000003576279</v>
+      </c>
+      <c r="D2233" t="n">
+        <v>0.337999999523163</v>
+      </c>
+      <c r="E2233" t="n">
+        <v>0.340000003576279</v>
+      </c>
+      <c r="F2233" t="n">
+        <v>0.337999999523163</v>
+      </c>
+      <c r="G2233" t="s">
+        <v>496</v>
+      </c>
+      <c r="H2233" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/POPR.MI.xlsx
+++ b/data/POPR.MI.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">POPR.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193741485476494</t>
+    <t xml:space="preserve">0.193741500377655</t>
   </si>
   <si>
     <t xml:space="preserve">0.189604684710503</t>
@@ -53,31 +53,31 @@
     <t xml:space="preserve">0.188225731253624</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179952070116997</t>
+    <t xml:space="preserve">0.179952085018158</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186157330870628</t>
+    <t xml:space="preserve">0.186157315969467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163404762744904</t>
+    <t xml:space="preserve">0.163404732942581</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157199516892433</t>
+    <t xml:space="preserve">0.157199501991272</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164301052689552</t>
+    <t xml:space="preserve">0.164301082491875</t>
   </si>
   <si>
     <t xml:space="preserve">0.15926793217659</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167541578412056</t>
+    <t xml:space="preserve">0.167541563510895</t>
   </si>
   <si>
     <t xml:space="preserve">0.168231055140495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165404230356216</t>
+    <t xml:space="preserve">0.165404200553894</t>
   </si>
   <si>
     <t xml:space="preserve">0.160646855831146</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">0.153476357460022</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155820578336716</t>
+    <t xml:space="preserve">0.155820563435555</t>
   </si>
   <si>
     <t xml:space="preserve">0.15237320959568</t>
@@ -104,28 +104,28 @@
     <t xml:space="preserve">0.186846777796745</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182985752820969</t>
+    <t xml:space="preserve">0.182985737919807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179262593388557</t>
+    <t xml:space="preserve">0.179262578487396</t>
   </si>
   <si>
     <t xml:space="preserve">0.17236790060997</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169610008597374</t>
+    <t xml:space="preserve">0.169609993696213</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164094239473343</t>
+    <t xml:space="preserve">0.164094224572182</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170782119035721</t>
+    <t xml:space="preserve">0.170782089233398</t>
   </si>
   <si>
     <t xml:space="preserve">0.176504731178284</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174367353320122</t>
+    <t xml:space="preserve">0.174367368221283</t>
   </si>
   <si>
     <t xml:space="preserve">0.194499924778938</t>
@@ -134,37 +134,37 @@
     <t xml:space="preserve">0.194430977106094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187536284327507</t>
+    <t xml:space="preserve">0.187536269426346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182020485401154</t>
+    <t xml:space="preserve">0.182020500302315</t>
   </si>
   <si>
     <t xml:space="preserve">0.206841483712196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211323022842407</t>
+    <t xml:space="preserve">0.211323037743568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210288807749748</t>
+    <t xml:space="preserve">0.210288822650909</t>
   </si>
   <si>
     <t xml:space="preserve">0.202015176415443</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199257284402847</t>
+    <t xml:space="preserve">0.199257269501686</t>
   </si>
   <si>
     <t xml:space="preserve">0.220630884170532</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228904530405998</t>
+    <t xml:space="preserve">0.228904560208321</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220561936497688</t>
+    <t xml:space="preserve">0.220561951398849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.215804576873779</t>
+    <t xml:space="preserve">0.21580459177494</t>
   </si>
   <si>
     <t xml:space="preserve">0.213046699762344</t>
@@ -176,10 +176,10 @@
     <t xml:space="preserve">0.199946731328964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186295226216316</t>
+    <t xml:space="preserve">0.186295241117477</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184778362512589</t>
+    <t xml:space="preserve">0.184778392314911</t>
   </si>
   <si>
     <t xml:space="preserve">0.178573131561279</t>
@@ -188,40 +188,40 @@
     <t xml:space="preserve">0.166300535202026</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182709932327271</t>
+    <t xml:space="preserve">0.182709947228432</t>
   </si>
   <si>
     <t xml:space="preserve">0.172298938035965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166852101683617</t>
+    <t xml:space="preserve">0.166852116584778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168920531868935</t>
+    <t xml:space="preserve">0.168920546770096</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172919452190399</t>
+    <t xml:space="preserve">0.17291946709156</t>
   </si>
   <si>
     <t xml:space="preserve">0.2040835916996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206151977181435</t>
+    <t xml:space="preserve">0.206151992082596</t>
   </si>
   <si>
     <t xml:space="preserve">0.201325684785843</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199326232075691</t>
+    <t xml:space="preserve">0.19932621717453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183399438858032</t>
+    <t xml:space="preserve">0.183399423956871</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175815224647522</t>
+    <t xml:space="preserve">0.175815239548683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161336332559586</t>
+    <t xml:space="preserve">0.161336347460747</t>
   </si>
   <si>
     <t xml:space="preserve">0.166162639856339</t>
@@ -230,10 +230,10 @@
     <t xml:space="preserve">0.162715286016464</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158578455448151</t>
+    <t xml:space="preserve">0.158578470349312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173746824264526</t>
+    <t xml:space="preserve">0.173746839165688</t>
   </si>
   <si>
     <t xml:space="preserve">0.181193128228188</t>
@@ -245,7 +245,7 @@
     <t xml:space="preserve">0.188915193080902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.200291454792023</t>
+    <t xml:space="preserve">0.200291469693184</t>
   </si>
   <si>
     <t xml:space="preserve">0.219941422343254</t>
@@ -257,31 +257,31 @@
     <t xml:space="preserve">0.195396244525909</t>
   </si>
   <si>
-    <t xml:space="preserve">0.20925460755825</t>
+    <t xml:space="preserve">0.209254622459412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220492988824844</t>
+    <t xml:space="preserve">0.220492973923683</t>
   </si>
   <si>
     <t xml:space="preserve">0.213736191391945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210357770323753</t>
+    <t xml:space="preserve">0.210357755422592</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219251960515976</t>
+    <t xml:space="preserve">0.219251930713654</t>
   </si>
   <si>
     <t xml:space="preserve">0.233730837702751</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237798720598221</t>
+    <t xml:space="preserve">0.237798750400543</t>
   </si>
   <si>
     <t xml:space="preserve">0.255104452371597</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261309772729874</t>
+    <t xml:space="preserve">0.261309742927551</t>
   </si>
   <si>
     <t xml:space="preserve">0.275788635015488</t>
@@ -296,16 +296,16 @@
     <t xml:space="preserve">0.31853586435318</t>
   </si>
   <si>
-    <t xml:space="preserve">0.327498942613602</t>
+    <t xml:space="preserve">0.327498972415924</t>
   </si>
   <si>
-    <t xml:space="preserve">0.282683342695236</t>
+    <t xml:space="preserve">0.282683312892914</t>
   </si>
   <si>
     <t xml:space="preserve">0.285372257232666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.274478614330292</t>
+    <t xml:space="preserve">0.274478584527969</t>
   </si>
   <si>
     <t xml:space="preserve">0.274409651756287</t>
@@ -320,55 +320,55 @@
     <t xml:space="preserve">0.266963362693787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.251657128334045</t>
+    <t xml:space="preserve">0.251657098531723</t>
   </si>
   <si>
     <t xml:space="preserve">0.256483405828476</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230972960591316</t>
+    <t xml:space="preserve">0.2309730052948</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226974040269852</t>
+    <t xml:space="preserve">0.226974010467529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232351899147034</t>
+    <t xml:space="preserve">0.232351914048195</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228973507881165</t>
+    <t xml:space="preserve">0.228973478078842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.260620206594467</t>
+    <t xml:space="preserve">0.260620266199112</t>
   </si>
   <si>
     <t xml:space="preserve">0.268893897533417</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25317394733429</t>
+    <t xml:space="preserve">0.253173917531967</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249588683247566</t>
+    <t xml:space="preserve">0.249588638544083</t>
   </si>
   <si>
     <t xml:space="preserve">0.258551806211472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.24820975959301</t>
+    <t xml:space="preserve">0.248209729790688</t>
   </si>
   <si>
     <t xml:space="preserve">0.244762375950813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237867683172226</t>
+    <t xml:space="preserve">0.237867668271065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.24393504858017</t>
+    <t xml:space="preserve">0.243935033679008</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233799800276756</t>
+    <t xml:space="preserve">0.233799830079079</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220699831843376</t>
+    <t xml:space="preserve">0.220699846744537</t>
   </si>
   <si>
     <t xml:space="preserve">0.224078238010406</t>
@@ -377,55 +377,55 @@
     <t xml:space="preserve">0.226836130023003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226146668195724</t>
+    <t xml:space="preserve">0.226146653294563</t>
   </si>
   <si>
     <t xml:space="preserve">0.227525621652603</t>
   </si>
   <si>
-    <t xml:space="preserve">0.22904247045517</t>
+    <t xml:space="preserve">0.229042455554008</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232489749789238</t>
+    <t xml:space="preserve">0.23248977959156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247520282864571</t>
+    <t xml:space="preserve">0.247520267963409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241177126765251</t>
+    <t xml:space="preserve">0.241177141666412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.24221134185791</t>
+    <t xml:space="preserve">0.242211326956749</t>
   </si>
   <si>
-    <t xml:space="preserve">0.251726090908051</t>
+    <t xml:space="preserve">0.251726061105728</t>
   </si>
   <si>
     <t xml:space="preserve">0.25710391998291</t>
   </si>
   <si>
-    <t xml:space="preserve">0.24627922475338</t>
+    <t xml:space="preserve">0.246279254555702</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2413150370121</t>
+    <t xml:space="preserve">0.241315066814423</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241039246320724</t>
+    <t xml:space="preserve">0.241039276123047</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23793663084507</t>
+    <t xml:space="preserve">0.237936586141586</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253725528717041</t>
+    <t xml:space="preserve">0.253725558519363</t>
   </si>
   <si>
     <t xml:space="preserve">0.238074511289597</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244969233870506</t>
+    <t xml:space="preserve">0.244969248771667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325982123613358</t>
+    <t xml:space="preserve">0.325982183218002</t>
   </si>
   <si>
     <t xml:space="preserve">0.386104017496109</t>
@@ -437,43 +437,43 @@
     <t xml:space="preserve">0.598461270332336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.523308932781219</t>
+    <t xml:space="preserve">0.523308873176575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479182690382004</t>
+    <t xml:space="preserve">0.479182749986649</t>
   </si>
   <si>
     <t xml:space="preserve">0.462980180978775</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434367030858994</t>
+    <t xml:space="preserve">0.434367060661316</t>
   </si>
   <si>
     <t xml:space="preserve">0.399893462657928</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454361706972122</t>
+    <t xml:space="preserve">0.454361736774445</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402996093034744</t>
+    <t xml:space="preserve">0.402996152639389</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410235613584518</t>
+    <t xml:space="preserve">0.410235553979874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3798987865448</t>
+    <t xml:space="preserve">0.379898816347122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357490956783295</t>
+    <t xml:space="preserve">0.357490986585617</t>
   </si>
   <si>
     <t xml:space="preserve">0.345425248146057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358180493116379</t>
+    <t xml:space="preserve">0.358180463314056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366798877716064</t>
+    <t xml:space="preserve">0.366798847913742</t>
   </si>
   <si>
     <t xml:space="preserve">0.353009462356567</t>
@@ -485,16 +485,16 @@
     <t xml:space="preserve">0.37438303232193</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358525186777115</t>
+    <t xml:space="preserve">0.358525156974792</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349217355251312</t>
+    <t xml:space="preserve">0.34921732544899</t>
   </si>
   <si>
     <t xml:space="preserve">0.352319955825806</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365419864654541</t>
+    <t xml:space="preserve">0.365419894456863</t>
   </si>
   <si>
     <t xml:space="preserve">0.361972540616989</t>
@@ -518,16 +518,16 @@
     <t xml:space="preserve">0.348872572183609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347493648529053</t>
+    <t xml:space="preserve">0.347493678331375</t>
   </si>
   <si>
     <t xml:space="preserve">0.360248863697052</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354388356208801</t>
+    <t xml:space="preserve">0.354388386011124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359904140233994</t>
+    <t xml:space="preserve">0.359904170036316</t>
   </si>
   <si>
     <t xml:space="preserve">0.330946356058121</t>
@@ -536,10 +536,10 @@
     <t xml:space="preserve">0.340598940849304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341219484806061</t>
+    <t xml:space="preserve">0.341219455003738</t>
   </si>
   <si>
-    <t xml:space="preserve">0.351630449295044</t>
+    <t xml:space="preserve">0.351630479097366</t>
   </si>
   <si>
     <t xml:space="preserve">0.357146263122559</t>
@@ -548,46 +548,46 @@
     <t xml:space="preserve">0.392998784780502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372314661741257</t>
+    <t xml:space="preserve">0.372314631938934</t>
   </si>
   <si>
     <t xml:space="preserve">0.373004138469696</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35025155544281</t>
+    <t xml:space="preserve">0.350251525640488</t>
   </si>
   <si>
     <t xml:space="preserve">0.37059098482132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345080554485321</t>
+    <t xml:space="preserve">0.345080524682999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359559416770935</t>
+    <t xml:space="preserve">0.359559386968613</t>
   </si>
   <si>
     <t xml:space="preserve">0.42747238278389</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405409276485443</t>
+    <t xml:space="preserve">0.405409246683121</t>
   </si>
   <si>
-    <t xml:space="preserve">0.404719740152359</t>
+    <t xml:space="preserve">0.404719799757004</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40609872341156</t>
+    <t xml:space="preserve">0.406098753213882</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398859292268753</t>
+    <t xml:space="preserve">0.398859262466431</t>
   </si>
   <si>
     <t xml:space="preserve">0.406788170337677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378519922494888</t>
+    <t xml:space="preserve">0.378519892692566</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383690923452377</t>
+    <t xml:space="preserve">0.3836909532547</t>
   </si>
   <si>
     <t xml:space="preserve">0.388861954212189</t>
@@ -596,10 +596,10 @@
     <t xml:space="preserve">0.402651369571686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.426438182592392</t>
+    <t xml:space="preserve">0.426438122987747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429540723562241</t>
+    <t xml:space="preserve">0.429540812969208</t>
   </si>
   <si>
     <t xml:space="preserve">0.414372384548187</t>
@@ -611,10 +611,10 @@
     <t xml:space="preserve">0.42471444606781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414027661085129</t>
+    <t xml:space="preserve">0.414027690887451</t>
   </si>
   <si>
-    <t xml:space="preserve">0.447467029094696</t>
+    <t xml:space="preserve">0.447467058897018</t>
   </si>
   <si>
     <t xml:space="preserve">0.455051243305206</t>
@@ -623,7 +623,7 @@
     <t xml:space="preserve">0.43023020029068</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413338243961334</t>
+    <t xml:space="preserve">0.413338214159012</t>
   </si>
   <si>
     <t xml:space="preserve">0.424025028944016</t>
@@ -635,34 +635,34 @@
     <t xml:space="preserve">0.481940567493439</t>
   </si>
   <si>
-    <t xml:space="preserve">0.49641951918602</t>
+    <t xml:space="preserve">0.496419459581375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.475735366344452</t>
+    <t xml:space="preserve">0.47573533654213</t>
   </si>
   <si>
-    <t xml:space="preserve">0.480561673641205</t>
+    <t xml:space="preserve">0.48056161403656</t>
   </si>
   <si>
     <t xml:space="preserve">0.489524751901627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4826300740242</t>
+    <t xml:space="preserve">0.482630133628845</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463324844837189</t>
+    <t xml:space="preserve">0.463324874639511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.466082781553268</t>
+    <t xml:space="preserve">0.466082751750946</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461945921182632</t>
+    <t xml:space="preserve">0.4619460105896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.449535399675369</t>
+    <t xml:space="preserve">0.449535429477692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.445398569107056</t>
+    <t xml:space="preserve">0.445398598909378</t>
   </si>
   <si>
     <t xml:space="preserve">0.448156476020813</t>
@@ -677,58 +677,58 @@
     <t xml:space="preserve">0.474356412887573</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457809060811996</t>
+    <t xml:space="preserve">0.457809120416641</t>
   </si>
   <si>
-    <t xml:space="preserve">0.507451057434082</t>
+    <t xml:space="preserve">0.507451117038727</t>
   </si>
   <si>
     <t xml:space="preserve">0.468840628862381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.438503921031952</t>
+    <t xml:space="preserve">0.438503861427307</t>
   </si>
   <si>
-    <t xml:space="preserve">0.459188014268875</t>
+    <t xml:space="preserve">0.459187984466553</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464703798294067</t>
+    <t xml:space="preserve">0.46470382809639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45091438293457</t>
+    <t xml:space="preserve">0.450914442539215</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437124967575073</t>
+    <t xml:space="preserve">0.437124907970428</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444019615650177</t>
+    <t xml:space="preserve">0.444019675254822</t>
   </si>
   <si>
     <t xml:space="preserve">0.41919869184494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.420577615499496</t>
+    <t xml:space="preserve">0.420577645301819</t>
   </si>
   <si>
     <t xml:space="preserve">0.426093399524689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.442640721797943</t>
+    <t xml:space="preserve">0.442640751600266</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47297739982605</t>
+    <t xml:space="preserve">0.472977519035339</t>
   </si>
   <si>
-    <t xml:space="preserve">0.460566937923431</t>
+    <t xml:space="preserve">0.460566967725754</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446777552366257</t>
+    <t xml:space="preserve">0.446777582168579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.43298813700676</t>
+    <t xml:space="preserve">0.432988166809082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452293336391449</t>
+    <t xml:space="preserve">0.452293306589127</t>
   </si>
   <si>
     <t xml:space="preserve">0.439882844686508</t>
@@ -740,31 +740,31 @@
     <t xml:space="preserve">0.397135585546494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.401272416114807</t>
+    <t xml:space="preserve">0.40127244591713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398514568805695</t>
+    <t xml:space="preserve">0.398514539003372</t>
   </si>
   <si>
     <t xml:space="preserve">0.373693555593491</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361283093690872</t>
+    <t xml:space="preserve">0.36128306388855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394377708435059</t>
+    <t xml:space="preserve">0.394377738237381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391619861125946</t>
+    <t xml:space="preserve">0.391619831323624</t>
   </si>
   <si>
     <t xml:space="preserve">0.377830386161804</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369556725025177</t>
+    <t xml:space="preserve">0.369556784629822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370935648679733</t>
+    <t xml:space="preserve">0.370935678482056</t>
   </si>
   <si>
     <t xml:space="preserve">0.379209369421005</t>
@@ -773,52 +773,52 @@
     <t xml:space="preserve">0.4081671833992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423335552215576</t>
+    <t xml:space="preserve">0.423335522413254</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387482970952988</t>
+    <t xml:space="preserve">0.38748300075531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395756632089615</t>
+    <t xml:space="preserve">0.395756661891937</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415061831474304</t>
+    <t xml:space="preserve">0.415061861276627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412303954362869</t>
+    <t xml:space="preserve">0.412303984165192</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409546107053757</t>
+    <t xml:space="preserve">0.409546047449112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421956598758698</t>
+    <t xml:space="preserve">0.421956568956375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.428851246833801</t>
+    <t xml:space="preserve">0.428851276636124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431609153747559</t>
+    <t xml:space="preserve">0.431609183549881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465393304824829</t>
+    <t xml:space="preserve">0.465393334627151</t>
   </si>
   <si>
-    <t xml:space="preserve">0.472287952899933</t>
+    <t xml:space="preserve">0.472288012504578</t>
   </si>
   <si>
-    <t xml:space="preserve">0.492972135543823</t>
+    <t xml:space="preserve">0.492972165346146</t>
   </si>
   <si>
     <t xml:space="preserve">0.499866843223572</t>
   </si>
   <si>
-    <t xml:space="preserve">0.508923470973969</t>
+    <t xml:space="preserve">0.508923530578613</t>
   </si>
   <si>
-    <t xml:space="preserve">0.486135840415955</t>
+    <t xml:space="preserve">0.486135810613632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.470944166183472</t>
+    <t xml:space="preserve">0.470944106578827</t>
   </si>
   <si>
     <t xml:space="preserve">0.455752402544022</t>
@@ -827,46 +827,46 @@
     <t xml:space="preserve">0.467146188020706</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478539973497391</t>
+    <t xml:space="preserve">0.478540003299713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.482337981462479</t>
+    <t xml:space="preserve">0.482337862253189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474741995334625</t>
+    <t xml:space="preserve">0.47474205493927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45955029129982</t>
+    <t xml:space="preserve">0.459550321102142</t>
   </si>
   <si>
     <t xml:space="preserve">0.440560609102249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451954483985901</t>
+    <t xml:space="preserve">0.451954454183578</t>
   </si>
   <si>
-    <t xml:space="preserve">0.425368815660477</t>
+    <t xml:space="preserve">0.425368875265121</t>
   </si>
   <si>
     <t xml:space="preserve">0.429166793823242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44435852766037</t>
+    <t xml:space="preserve">0.444358557462692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463348239660263</t>
+    <t xml:space="preserve">0.463348269462585</t>
   </si>
   <si>
-    <t xml:space="preserve">0.489933729171753</t>
+    <t xml:space="preserve">0.489933758974075</t>
   </si>
   <si>
     <t xml:space="preserve">0.577286303043365</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493731677532196</t>
+    <t xml:space="preserve">0.493731737136841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.501327633857727</t>
+    <t xml:space="preserve">0.501327574253082</t>
   </si>
   <si>
     <t xml:space="preserve">0.497529655694962</t>
@@ -875,10 +875,10 @@
     <t xml:space="preserve">0.436762690544128</t>
   </si>
   <si>
-    <t xml:space="preserve">0.432964771986008</t>
+    <t xml:space="preserve">0.432964742183685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41777303814888</t>
+    <t xml:space="preserve">0.417773008346558</t>
   </si>
   <si>
     <t xml:space="preserve">0.410177141427994</t>
@@ -887,79 +887,79 @@
     <t xml:space="preserve">0.394985377788544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406379193067551</t>
+    <t xml:space="preserve">0.406379222869873</t>
   </si>
   <si>
     <t xml:space="preserve">0.421570956707001</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402581244707108</t>
+    <t xml:space="preserve">0.40258127450943</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373716950416565</t>
+    <t xml:space="preserve">0.37371689081192</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372197777032852</t>
+    <t xml:space="preserve">0.372197806835175</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387389481067657</t>
+    <t xml:space="preserve">0.38738951086998</t>
   </si>
   <si>
     <t xml:space="preserve">0.379793643951416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364601910114288</t>
+    <t xml:space="preserve">0.364601880311966</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341814279556274</t>
+    <t xml:space="preserve">0.341814249753952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3448526263237</t>
+    <t xml:space="preserve">0.344852596521378</t>
   </si>
   <si>
-    <t xml:space="preserve">0.319026678800583</t>
+    <t xml:space="preserve">0.31902664899826</t>
   </si>
   <si>
     <t xml:space="preserve">0.284085661172867</t>
   </si>
   <si>
-    <t xml:space="preserve">0.305354058742523</t>
+    <t xml:space="preserve">0.305354088544846</t>
   </si>
   <si>
     <t xml:space="preserve">0.288643151521683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.29927733540535</t>
+    <t xml:space="preserve">0.299277395009995</t>
   </si>
   <si>
     <t xml:space="preserve">0.28712397813797</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273451447486877</t>
+    <t xml:space="preserve">0.273451417684555</t>
   </si>
   <si>
-    <t xml:space="preserve">0.267374694347382</t>
+    <t xml:space="preserve">0.267374724149704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312949985265732</t>
+    <t xml:space="preserve">0.312949955463409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314469158649445</t>
+    <t xml:space="preserve">0.3144690990448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.297758162021637</t>
+    <t xml:space="preserve">0.297758221626282</t>
   </si>
   <si>
     <t xml:space="preserve">0.306873261928558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.308392435312271</t>
+    <t xml:space="preserve">0.308392405509949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.323584228754044</t>
+    <t xml:space="preserve">0.323584169149399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332699209451675</t>
+    <t xml:space="preserve">0.332699179649353</t>
   </si>
   <si>
     <t xml:space="preserve">0.338775932788849</t>
@@ -968,28 +968,28 @@
     <t xml:space="preserve">0.370678573846817</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357006043195724</t>
+    <t xml:space="preserve">0.357006013393402</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350929379463196</t>
+    <t xml:space="preserve">0.350929349660873</t>
   </si>
   <si>
     <t xml:space="preserve">0.376755267381668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398783296346664</t>
+    <t xml:space="preserve">0.398783326148987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413975059986115</t>
+    <t xml:space="preserve">0.413975089788437</t>
   </si>
   <si>
     <t xml:space="preserve">0.360044360160828</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363082706928253</t>
+    <t xml:space="preserve">0.363082677125931</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369159400463104</t>
+    <t xml:space="preserve">0.369159430265427</t>
   </si>
   <si>
     <t xml:space="preserve">0.383591592311859</t>
@@ -1001,10 +1001,10 @@
     <t xml:space="preserve">0.353967636823654</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355486869812012</t>
+    <t xml:space="preserve">0.355486810207367</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352448493242264</t>
+    <t xml:space="preserve">0.352448463439941</t>
   </si>
   <si>
     <t xml:space="preserve">0.349410146474838</t>
@@ -1013,16 +1013,16 @@
     <t xml:space="preserve">0.335737586021423</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347891002893448</t>
+    <t xml:space="preserve">0.347890973091125</t>
   </si>
   <si>
     <t xml:space="preserve">0.334218412637711</t>
   </si>
   <si>
-    <t xml:space="preserve">0.326622545719147</t>
+    <t xml:space="preserve">0.326622515916824</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311430811882019</t>
+    <t xml:space="preserve">0.311430752277374</t>
   </si>
   <si>
     <t xml:space="preserve">0.315988302230835</t>
@@ -1031,28 +1031,28 @@
     <t xml:space="preserve">0.290162354707718</t>
   </si>
   <si>
-    <t xml:space="preserve">0.293200671672821</t>
+    <t xml:space="preserve">0.293200701475143</t>
   </si>
   <si>
-    <t xml:space="preserve">0.28560483455658</t>
+    <t xml:space="preserve">0.285604804754257</t>
   </si>
   <si>
     <t xml:space="preserve">0.291681498289108</t>
   </si>
   <si>
-    <t xml:space="preserve">0.296239018440247</t>
+    <t xml:space="preserve">0.296239048242569</t>
   </si>
   <si>
     <t xml:space="preserve">0.303834915161133</t>
   </si>
   <si>
-    <t xml:space="preserve">0.320545852184296</t>
+    <t xml:space="preserve">0.320545822381973</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325103372335434</t>
+    <t xml:space="preserve">0.325103342533112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317507535219193</t>
+    <t xml:space="preserve">0.317507475614548</t>
   </si>
   <si>
     <t xml:space="preserve">0.471467941999435</t>
@@ -1061,28 +1061,28 @@
     <t xml:space="preserve">0.4383824467659</t>
   </si>
   <si>
-    <t xml:space="preserve">0.425975441932678</t>
+    <t xml:space="preserve">0.425975412130356</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413568377494812</t>
+    <t xml:space="preserve">0.413568407297134</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397025644779205</t>
+    <t xml:space="preserve">0.397025614976883</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405297040939331</t>
+    <t xml:space="preserve">0.405297011137009</t>
   </si>
   <si>
     <t xml:space="preserve">0.398679912090302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417704045772552</t>
+    <t xml:space="preserve">0.417704075574875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410259813070297</t>
+    <t xml:space="preserve">0.41025984287262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40033420920372</t>
+    <t xml:space="preserve">0.400334179401398</t>
   </si>
   <si>
     <t xml:space="preserve">0.383791476488113</t>
@@ -1097,7 +1097,7 @@
     <t xml:space="preserve">0.372211545705795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387100011110306</t>
+    <t xml:space="preserve">0.387099981307983</t>
   </si>
   <si>
     <t xml:space="preserve">0.380482912063599</t>
@@ -1109,13 +1109,13 @@
     <t xml:space="preserve">0.368903011083603</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367248713970184</t>
+    <t xml:space="preserve">0.367248743772507</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382137209177017</t>
+    <t xml:space="preserve">0.382137179374695</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479739338159561</t>
+    <t xml:space="preserve">0.479739367961884</t>
   </si>
   <si>
     <t xml:space="preserve">0.450789541006088</t>
@@ -1127,25 +1127,25 @@
     <t xml:space="preserve">0.48801064491272</t>
   </si>
   <si>
-    <t xml:space="preserve">0.483874976634979</t>
+    <t xml:space="preserve">0.483875006437302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454925179481506</t>
+    <t xml:space="preserve">0.454925209283829</t>
   </si>
   <si>
     <t xml:space="preserve">0.442518204450607</t>
   </si>
   <si>
-    <t xml:space="preserve">0.430111050605774</t>
+    <t xml:space="preserve">0.430111080408096</t>
   </si>
   <si>
     <t xml:space="preserve">0.421839743852615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434246808290482</t>
+    <t xml:space="preserve">0.434246778488159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44665390253067</t>
+    <t xml:space="preserve">0.446653842926025</t>
   </si>
   <si>
     <t xml:space="preserve">0.408605545759201</t>
@@ -1160,58 +1160,58 @@
     <t xml:space="preserve">0.378828644752502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373865783214569</t>
+    <t xml:space="preserve">0.373865842819214</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406951278448105</t>
+    <t xml:space="preserve">0.406951308250427</t>
   </si>
   <si>
     <t xml:space="preserve">0.395371347665787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.403642773628235</t>
+    <t xml:space="preserve">0.40364271402359</t>
   </si>
   <si>
-    <t xml:space="preserve">0.393717110157013</t>
+    <t xml:space="preserve">0.393717080354691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347397416830063</t>
+    <t xml:space="preserve">0.347397446632385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32920041680336</t>
+    <t xml:space="preserve">0.329200446605682</t>
   </si>
   <si>
-    <t xml:space="preserve">0.330854684114456</t>
+    <t xml:space="preserve">0.330854713916779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349051684141159</t>
+    <t xml:space="preserve">0.349051713943481</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350705981254578</t>
+    <t xml:space="preserve">0.350705951452255</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355668812990189</t>
+    <t xml:space="preserve">0.355668842792511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358977347612381</t>
+    <t xml:space="preserve">0.358977317810059</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362285912036896</t>
+    <t xml:space="preserve">0.362285882234573</t>
   </si>
   <si>
     <t xml:space="preserve">0.363940179347992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370557278394699</t>
+    <t xml:space="preserve">0.370557308197021</t>
   </si>
   <si>
     <t xml:space="preserve">0.360631614923477</t>
   </si>
   <si>
-    <t xml:space="preserve">0.33912605047226</t>
+    <t xml:space="preserve">0.339126080274582</t>
   </si>
   <si>
-    <t xml:space="preserve">0.337471783161163</t>
+    <t xml:space="preserve">0.337471812963486</t>
   </si>
   <si>
     <t xml:space="preserve">0.332508981227875</t>
@@ -1244,10 +1244,10 @@
     <t xml:space="preserve">0.351847976446152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355314433574677</t>
+    <t xml:space="preserve">0.355314463376999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.343181759119034</t>
+    <t xml:space="preserve">0.343181788921356</t>
   </si>
   <si>
     <t xml:space="preserve">0.332782328128815</t>
@@ -1259,10 +1259,10 @@
     <t xml:space="preserve">0.331049054861069</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346648246049881</t>
+    <t xml:space="preserve">0.346648275852203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329315841197968</t>
+    <t xml:space="preserve">0.329315811395645</t>
   </si>
   <si>
     <t xml:space="preserve">0.327582597732544</t>
@@ -1271,10 +1271,10 @@
     <t xml:space="preserve">0.318916410207748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.31025019288063</t>
+    <t xml:space="preserve">0.310250163078308</t>
   </si>
   <si>
-    <t xml:space="preserve">0.315449893474579</t>
+    <t xml:space="preserve">0.315449923276901</t>
   </si>
   <si>
     <t xml:space="preserve">0.306783705949783</t>
@@ -1289,10 +1289,10 @@
     <t xml:space="preserve">0.296384274959564</t>
   </si>
   <si>
-    <t xml:space="preserve">0.308516949415207</t>
+    <t xml:space="preserve">0.308516979217529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.298117488622665</t>
+    <t xml:space="preserve">0.298117518424988</t>
   </si>
   <si>
     <t xml:space="preserve">0.311983436346054</t>
@@ -1301,49 +1301,49 @@
     <t xml:space="preserve">0.313716650009155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.324116140604019</t>
+    <t xml:space="preserve">0.324116110801697</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325849324464798</t>
+    <t xml:space="preserve">0.32584935426712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.337981998920441</t>
+    <t xml:space="preserve">0.337982028722763</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317183166742325</t>
+    <t xml:space="preserve">0.317183136940002</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379579842090607</t>
+    <t xml:space="preserve">0.379579812288284</t>
   </si>
   <si>
     <t xml:space="preserve">0.370913624763489</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372646868228912</t>
+    <t xml:space="preserve">0.372646898031235</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374380111694336</t>
+    <t xml:space="preserve">0.374380081892014</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367447137832642</t>
+    <t xml:space="preserve">0.367447108030319</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369180411100388</t>
+    <t xml:space="preserve">0.369180381298065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386512786149979</t>
+    <t xml:space="preserve">0.386512815952301</t>
   </si>
   <si>
     <t xml:space="preserve">0.323986053466797</t>
   </si>
   <si>
-    <t xml:space="preserve">0.320240586996078</t>
+    <t xml:space="preserve">0.320240557193756</t>
   </si>
   <si>
     <t xml:space="preserve">0.318367809057236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312749534845352</t>
+    <t xml:space="preserve">0.312749564647675</t>
   </si>
   <si>
     <t xml:space="preserve">0.314622312784195</t>
@@ -1352,7 +1352,7 @@
     <t xml:space="preserve">0.32960432767868</t>
   </si>
   <si>
-    <t xml:space="preserve">0.327731549739838</t>
+    <t xml:space="preserve">0.32773157954216</t>
   </si>
   <si>
     <t xml:space="preserve">0.310876786708832</t>
@@ -1364,7 +1364,7 @@
     <t xml:space="preserve">0.316495060920715</t>
   </si>
   <si>
-    <t xml:space="preserve">0.307131320238113</t>
+    <t xml:space="preserve">0.307131290435791</t>
   </si>
   <si>
     <t xml:space="preserve">0.299640268087387</t>
@@ -1376,25 +1376,25 @@
     <t xml:space="preserve">0.295894801616669</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309004068374634</t>
+    <t xml:space="preserve">0.309004038572311</t>
   </si>
   <si>
     <t xml:space="preserve">0.30151304602623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.297767519950867</t>
+    <t xml:space="preserve">0.297767549753189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.294022053480148</t>
+    <t xml:space="preserve">0.294022023677826</t>
   </si>
   <si>
     <t xml:space="preserve">0.333349823951721</t>
   </si>
   <si>
-    <t xml:space="preserve">0.322113305330276</t>
+    <t xml:space="preserve">0.322113335132599</t>
   </si>
   <si>
-    <t xml:space="preserve">0.331477075815201</t>
+    <t xml:space="preserve">0.331477046012878</t>
   </si>
   <si>
     <t xml:space="preserve">0.335222572088242</t>
@@ -1403,10 +1403,10 @@
     <t xml:space="preserve">0.337095350027084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355822861194611</t>
+    <t xml:space="preserve">0.355822831392288</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350204616785049</t>
+    <t xml:space="preserve">0.350204586982727</t>
   </si>
   <si>
     <t xml:space="preserve">0.338968068361282</t>
@@ -1424,7 +1424,7 @@
     <t xml:space="preserve">0.340362787246704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32888987660408</t>
+    <t xml:space="preserve">0.328889906406403</t>
   </si>
   <si>
     <t xml:space="preserve">0.325065582990646</t>
@@ -1436,10 +1436,10 @@
     <t xml:space="preserve">0.317416965961456</t>
   </si>
   <si>
-    <t xml:space="preserve">0.315504848957062</t>
+    <t xml:space="preserve">0.315504819154739</t>
   </si>
   <si>
-    <t xml:space="preserve">0.326977759599686</t>
+    <t xml:space="preserve">0.326977729797363</t>
   </si>
   <si>
     <t xml:space="preserve">0.343951225280762</t>
@@ -59882,7 +59882,7 @@
     </row>
     <row r="2233">
       <c r="A2233" s="1" t="n">
-        <v>45573.3044328704</v>
+        <v>45573.2916666667</v>
       </c>
       <c r="B2233" t="n">
         <v>12000</v>

--- a/data/POPR.MI.xlsx
+++ b/data/POPR.MI.xlsx
@@ -47,106 +47,106 @@
     <t xml:space="preserve">0.193741500377655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.189604684710503</t>
+    <t xml:space="preserve">0.18960465490818</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188225731253624</t>
+    <t xml:space="preserve">0.188225716352463</t>
   </si>
   <si>
     <t xml:space="preserve">0.179952085018158</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186157315969467</t>
+    <t xml:space="preserve">0.186157330870628</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163404732942581</t>
+    <t xml:space="preserve">0.163404747843742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157199501991272</t>
+    <t xml:space="preserve">0.157199516892433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164301082491875</t>
+    <t xml:space="preserve">0.164301067590714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15926793217659</t>
+    <t xml:space="preserve">0.159267947077751</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167541563510895</t>
+    <t xml:space="preserve">0.167541578412056</t>
   </si>
   <si>
     <t xml:space="preserve">0.168231055140495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165404200553894</t>
+    <t xml:space="preserve">0.165404215455055</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160646855831146</t>
+    <t xml:space="preserve">0.160646870732307</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153407409787178</t>
+    <t xml:space="preserve">0.153407424688339</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15306268632412</t>
+    <t xml:space="preserve">0.153062671422958</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153476357460022</t>
+    <t xml:space="preserve">0.153476387262344</t>
   </si>
   <si>
     <t xml:space="preserve">0.155820563435555</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15237320959568</t>
+    <t xml:space="preserve">0.152373194694519</t>
   </si>
   <si>
     <t xml:space="preserve">0.165748953819275</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186846777796745</t>
+    <t xml:space="preserve">0.186846792697906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182985737919807</t>
+    <t xml:space="preserve">0.182985752820969</t>
   </si>
   <si>
     <t xml:space="preserve">0.179262578487396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17236790060997</t>
+    <t xml:space="preserve">0.172367885708809</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169609993696213</t>
+    <t xml:space="preserve">0.169610008597374</t>
   </si>
   <si>
     <t xml:space="preserve">0.164094224572182</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170782089233398</t>
+    <t xml:space="preserve">0.17078210413456</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176504731178284</t>
+    <t xml:space="preserve">0.176504716277122</t>
   </si>
   <si>
     <t xml:space="preserve">0.174367368221283</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194499924778938</t>
+    <t xml:space="preserve">0.194499909877777</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194430977106094</t>
+    <t xml:space="preserve">0.194430992007256</t>
   </si>
   <si>
     <t xml:space="preserve">0.187536269426346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182020500302315</t>
+    <t xml:space="preserve">0.182020485401154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206841483712196</t>
+    <t xml:space="preserve">0.206841453909874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211323037743568</t>
+    <t xml:space="preserve">0.211323022842407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210288822650909</t>
+    <t xml:space="preserve">0.210288807749748</t>
   </si>
   <si>
     <t xml:space="preserve">0.202015176415443</t>
@@ -155,19 +155,19 @@
     <t xml:space="preserve">0.199257269501686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220630884170532</t>
+    <t xml:space="preserve">0.220630869269371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228904560208321</t>
+    <t xml:space="preserve">0.228904515504837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220561951398849</t>
+    <t xml:space="preserve">0.220561936497688</t>
   </si>
   <si>
     <t xml:space="preserve">0.21580459177494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.213046699762344</t>
+    <t xml:space="preserve">0.213046714663506</t>
   </si>
   <si>
     <t xml:space="preserve">0.196499392390251</t>
@@ -176,25 +176,25 @@
     <t xml:space="preserve">0.199946731328964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186295241117477</t>
+    <t xml:space="preserve">0.186295211315155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184778392314911</t>
+    <t xml:space="preserve">0.184778362512589</t>
   </si>
   <si>
     <t xml:space="preserve">0.178573131561279</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166300535202026</t>
+    <t xml:space="preserve">0.166300520300865</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182709947228432</t>
+    <t xml:space="preserve">0.182709962129593</t>
   </si>
   <si>
     <t xml:space="preserve">0.172298938035965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166852116584778</t>
+    <t xml:space="preserve">0.166852101683617</t>
   </si>
   <si>
     <t xml:space="preserve">0.168920546770096</t>
@@ -203,25 +203,25 @@
     <t xml:space="preserve">0.17291946709156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2040835916996</t>
+    <t xml:space="preserve">0.204083561897278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206151992082596</t>
+    <t xml:space="preserve">0.206151962280273</t>
   </si>
   <si>
     <t xml:space="preserve">0.201325684785843</t>
   </si>
   <si>
-    <t xml:space="preserve">0.19932621717453</t>
+    <t xml:space="preserve">0.199326202273369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183399423956871</t>
+    <t xml:space="preserve">0.183399453759193</t>
   </si>
   <si>
     <t xml:space="preserve">0.175815239548683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161336347460747</t>
+    <t xml:space="preserve">0.161336332559586</t>
   </si>
   <si>
     <t xml:space="preserve">0.166162639856339</t>
@@ -233,34 +233,34 @@
     <t xml:space="preserve">0.158578470349312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173746839165688</t>
+    <t xml:space="preserve">0.173746824264526</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181193128228188</t>
+    <t xml:space="preserve">0.181193143129349</t>
   </si>
   <si>
     <t xml:space="preserve">0.187191516160965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188915193080902</t>
+    <t xml:space="preserve">0.18891516327858</t>
   </si>
   <si>
     <t xml:space="preserve">0.200291469693184</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219941422343254</t>
+    <t xml:space="preserve">0.219941437244415</t>
   </si>
   <si>
-    <t xml:space="preserve">0.212357223033905</t>
+    <t xml:space="preserve">0.212357237935066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195396244525909</t>
+    <t xml:space="preserve">0.195396259427071</t>
   </si>
   <si>
-    <t xml:space="preserve">0.209254622459412</t>
+    <t xml:space="preserve">0.209254637360573</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220492973923683</t>
+    <t xml:space="preserve">0.220493003726006</t>
   </si>
   <si>
     <t xml:space="preserve">0.213736191391945</t>
@@ -275,13 +275,13 @@
     <t xml:space="preserve">0.233730837702751</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237798750400543</t>
+    <t xml:space="preserve">0.23779870569706</t>
   </si>
   <si>
-    <t xml:space="preserve">0.255104452371597</t>
+    <t xml:space="preserve">0.25510448217392</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261309742927551</t>
+    <t xml:space="preserve">0.261309713125229</t>
   </si>
   <si>
     <t xml:space="preserve">0.275788635015488</t>
@@ -293,82 +293,82 @@
     <t xml:space="preserve">0.301988512277603</t>
   </si>
   <si>
-    <t xml:space="preserve">0.31853586435318</t>
+    <t xml:space="preserve">0.318535894155502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.327498972415924</t>
+    <t xml:space="preserve">0.327498942613602</t>
   </si>
   <si>
-    <t xml:space="preserve">0.282683312892914</t>
+    <t xml:space="preserve">0.282683342695236</t>
   </si>
   <si>
     <t xml:space="preserve">0.285372257232666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.274478584527969</t>
+    <t xml:space="preserve">0.274478614330292</t>
   </si>
   <si>
     <t xml:space="preserve">0.274409651756287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.266342878341675</t>
+    <t xml:space="preserve">0.266342848539352</t>
   </si>
   <si>
-    <t xml:space="preserve">0.266825467348099</t>
+    <t xml:space="preserve">0.266825497150421</t>
   </si>
   <si>
     <t xml:space="preserve">0.266963362693787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.251657098531723</t>
+    <t xml:space="preserve">0.251657128334045</t>
   </si>
   <si>
     <t xml:space="preserve">0.256483405828476</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2309730052948</t>
+    <t xml:space="preserve">0.230972960591316</t>
   </si>
   <si>
     <t xml:space="preserve">0.226974010467529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232351914048195</t>
+    <t xml:space="preserve">0.232351928949356</t>
   </si>
   <si>
     <t xml:space="preserve">0.228973478078842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.260620266199112</t>
+    <t xml:space="preserve">0.26062023639679</t>
   </si>
   <si>
     <t xml:space="preserve">0.268893897533417</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253173917531967</t>
+    <t xml:space="preserve">0.25317394733429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249588638544083</t>
+    <t xml:space="preserve">0.249588668346405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.258551806211472</t>
+    <t xml:space="preserve">0.258551836013794</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248209729790688</t>
+    <t xml:space="preserve">0.24820975959301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244762375950813</t>
+    <t xml:space="preserve">0.244762405753136</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237867668271065</t>
+    <t xml:space="preserve">0.237867683172226</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243935033679008</t>
+    <t xml:space="preserve">0.243935003876686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233799830079079</t>
+    <t xml:space="preserve">0.233799800276756</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220699846744537</t>
+    <t xml:space="preserve">0.220699861645699</t>
   </si>
   <si>
     <t xml:space="preserve">0.224078238010406</t>
@@ -377,73 +377,73 @@
     <t xml:space="preserve">0.226836130023003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226146653294563</t>
+    <t xml:space="preserve">0.226146668195724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227525621652603</t>
+    <t xml:space="preserve">0.227525636553764</t>
   </si>
   <si>
     <t xml:space="preserve">0.229042455554008</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23248977959156</t>
+    <t xml:space="preserve">0.232489824295044</t>
   </si>
   <si>
     <t xml:space="preserve">0.247520267963409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241177141666412</t>
+    <t xml:space="preserve">0.241177126765251</t>
   </si>
   <si>
-    <t xml:space="preserve">0.242211326956749</t>
+    <t xml:space="preserve">0.242211356759071</t>
   </si>
   <si>
-    <t xml:space="preserve">0.251726061105728</t>
+    <t xml:space="preserve">0.251726090908051</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25710391998291</t>
+    <t xml:space="preserve">0.257103949785233</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246279254555702</t>
+    <t xml:space="preserve">0.24627922475338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241315066814423</t>
+    <t xml:space="preserve">0.2413150370121</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241039276123047</t>
+    <t xml:space="preserve">0.241039261221886</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237936586141586</t>
+    <t xml:space="preserve">0.237936601042747</t>
   </si>
   <si>
     <t xml:space="preserve">0.253725558519363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238074511289597</t>
+    <t xml:space="preserve">0.238074541091919</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244969248771667</t>
+    <t xml:space="preserve">0.244969218969345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325982183218002</t>
+    <t xml:space="preserve">0.325982123613358</t>
   </si>
   <si>
     <t xml:space="preserve">0.386104017496109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.510208904743195</t>
+    <t xml:space="preserve">0.510208964347839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.598461270332336</t>
+    <t xml:space="preserve">0.598461210727692</t>
   </si>
   <si>
     <t xml:space="preserve">0.523308873176575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479182749986649</t>
+    <t xml:space="preserve">0.479182690382004</t>
   </si>
   <si>
-    <t xml:space="preserve">0.462980180978775</t>
+    <t xml:space="preserve">0.46298012137413</t>
   </si>
   <si>
     <t xml:space="preserve">0.434367060661316</t>
@@ -452,34 +452,34 @@
     <t xml:space="preserve">0.399893462657928</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454361736774445</t>
+    <t xml:space="preserve">0.454361706972122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402996152639389</t>
+    <t xml:space="preserve">0.402996182441711</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410235553979874</t>
+    <t xml:space="preserve">0.410235613584518</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379898816347122</t>
+    <t xml:space="preserve">0.379898875951767</t>
   </si>
   <si>
     <t xml:space="preserve">0.357490986585617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345425248146057</t>
+    <t xml:space="preserve">0.34542527794838</t>
   </si>
   <si>
     <t xml:space="preserve">0.358180463314056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366798847913742</t>
+    <t xml:space="preserve">0.366798907518387</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353009462356567</t>
+    <t xml:space="preserve">0.353009432554245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38265672326088</t>
+    <t xml:space="preserve">0.382656693458557</t>
   </si>
   <si>
     <t xml:space="preserve">0.37438303232193</t>
@@ -494,19 +494,19 @@
     <t xml:space="preserve">0.352319955825806</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365419894456863</t>
+    <t xml:space="preserve">0.365419924259186</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361972540616989</t>
+    <t xml:space="preserve">0.361972570419312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.348183125257492</t>
+    <t xml:space="preserve">0.34818309545517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355767279863358</t>
+    <t xml:space="preserve">0.35576730966568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34473580121994</t>
+    <t xml:space="preserve">0.344735771417618</t>
   </si>
   <si>
     <t xml:space="preserve">0.34197786450386</t>
@@ -518,22 +518,22 @@
     <t xml:space="preserve">0.348872572183609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347493678331375</t>
+    <t xml:space="preserve">0.347493648529053</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360248863697052</t>
+    <t xml:space="preserve">0.360248893499374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354388386011124</t>
+    <t xml:space="preserve">0.354388356208801</t>
   </si>
   <si>
     <t xml:space="preserve">0.359904170036316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.330946356058121</t>
+    <t xml:space="preserve">0.330946326255798</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340598940849304</t>
+    <t xml:space="preserve">0.340598911046982</t>
   </si>
   <si>
     <t xml:space="preserve">0.341219455003738</t>
@@ -548,22 +548,22 @@
     <t xml:space="preserve">0.392998784780502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372314631938934</t>
+    <t xml:space="preserve">0.372314661741257</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373004138469696</t>
+    <t xml:space="preserve">0.373004108667374</t>
   </si>
   <si>
     <t xml:space="preserve">0.350251525640488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37059098482132</t>
+    <t xml:space="preserve">0.370590955018997</t>
   </si>
   <si>
     <t xml:space="preserve">0.345080524682999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359559386968613</t>
+    <t xml:space="preserve">0.359559416770935</t>
   </si>
   <si>
     <t xml:space="preserve">0.42747238278389</t>
@@ -578,7 +578,7 @@
     <t xml:space="preserve">0.406098753213882</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398859262466431</t>
+    <t xml:space="preserve">0.398859232664108</t>
   </si>
   <si>
     <t xml:space="preserve">0.406788170337677</t>
@@ -587,10 +587,10 @@
     <t xml:space="preserve">0.378519892692566</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3836909532547</t>
+    <t xml:space="preserve">0.383690923452377</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388861954212189</t>
+    <t xml:space="preserve">0.388861984014511</t>
   </si>
   <si>
     <t xml:space="preserve">0.402651369571686</t>
@@ -599,70 +599,70 @@
     <t xml:space="preserve">0.426438122987747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429540812969208</t>
+    <t xml:space="preserve">0.429540783166885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414372384548187</t>
+    <t xml:space="preserve">0.414372444152832</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413682967424393</t>
+    <t xml:space="preserve">0.413682907819748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.42471444606781</t>
+    <t xml:space="preserve">0.424714475870132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414027690887451</t>
+    <t xml:space="preserve">0.414027631282806</t>
   </si>
   <si>
-    <t xml:space="preserve">0.447467058897018</t>
+    <t xml:space="preserve">0.447467088699341</t>
   </si>
   <si>
-    <t xml:space="preserve">0.455051243305206</t>
+    <t xml:space="preserve">0.455051273107529</t>
   </si>
   <si>
     <t xml:space="preserve">0.43023020029068</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413338214159012</t>
+    <t xml:space="preserve">0.413338124752045</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424025028944016</t>
+    <t xml:space="preserve">0.424024999141693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.517103612422943</t>
+    <t xml:space="preserve">0.517103672027588</t>
   </si>
   <si>
-    <t xml:space="preserve">0.481940567493439</t>
+    <t xml:space="preserve">0.481940597295761</t>
   </si>
   <si>
-    <t xml:space="preserve">0.496419459581375</t>
+    <t xml:space="preserve">0.49641951918602</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47573533654213</t>
+    <t xml:space="preserve">0.475735366344452</t>
   </si>
   <si>
-    <t xml:space="preserve">0.48056161403656</t>
+    <t xml:space="preserve">0.480561673641205</t>
   </si>
   <si>
-    <t xml:space="preserve">0.489524751901627</t>
+    <t xml:space="preserve">0.489524811506271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.482630133628845</t>
+    <t xml:space="preserve">0.4826300740242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463324874639511</t>
+    <t xml:space="preserve">0.463324904441833</t>
   </si>
   <si>
     <t xml:space="preserve">0.466082751750946</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4619460105896</t>
+    <t xml:space="preserve">0.461945921182632</t>
   </si>
   <si>
     <t xml:space="preserve">0.449535429477692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.445398598909378</t>
+    <t xml:space="preserve">0.4453986287117</t>
   </si>
   <si>
     <t xml:space="preserve">0.448156476020813</t>
@@ -671,73 +671,73 @@
     <t xml:space="preserve">0.453672260046005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.441261768341064</t>
+    <t xml:space="preserve">0.441261738538742</t>
   </si>
   <si>
     <t xml:space="preserve">0.474356412887573</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457809120416641</t>
+    <t xml:space="preserve">0.457809031009674</t>
   </si>
   <si>
     <t xml:space="preserve">0.507451117038727</t>
   </si>
   <si>
-    <t xml:space="preserve">0.468840628862381</t>
+    <t xml:space="preserve">0.468840658664703</t>
   </si>
   <si>
     <t xml:space="preserve">0.438503861427307</t>
   </si>
   <si>
-    <t xml:space="preserve">0.459187984466553</t>
+    <t xml:space="preserve">0.45918807387352</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46470382809639</t>
+    <t xml:space="preserve">0.464703857898712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450914442539215</t>
+    <t xml:space="preserve">0.450914353132248</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437124907970428</t>
+    <t xml:space="preserve">0.437124967575073</t>
   </si>
   <si>
     <t xml:space="preserve">0.444019675254822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41919869184494</t>
+    <t xml:space="preserve">0.419198721647263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.420577645301819</t>
+    <t xml:space="preserve">0.420577615499496</t>
   </si>
   <si>
-    <t xml:space="preserve">0.426093399524689</t>
+    <t xml:space="preserve">0.426093429327011</t>
   </si>
   <si>
     <t xml:space="preserve">0.442640751600266</t>
   </si>
   <si>
-    <t xml:space="preserve">0.472977519035339</t>
+    <t xml:space="preserve">0.472977489233017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.460566967725754</t>
+    <t xml:space="preserve">0.460566997528076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446777582168579</t>
+    <t xml:space="preserve">0.446777492761612</t>
   </si>
   <si>
     <t xml:space="preserve">0.432988166809082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452293306589127</t>
+    <t xml:space="preserve">0.452293336391449</t>
   </si>
   <si>
-    <t xml:space="preserve">0.439882844686508</t>
+    <t xml:space="preserve">0.439882874488831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45643013715744</t>
+    <t xml:space="preserve">0.456430166959763</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397135585546494</t>
+    <t xml:space="preserve">0.397135615348816</t>
   </si>
   <si>
     <t xml:space="preserve">0.40127244591713</t>
@@ -746,31 +746,31 @@
     <t xml:space="preserve">0.398514539003372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373693555593491</t>
+    <t xml:space="preserve">0.373693585395813</t>
   </si>
   <si>
     <t xml:space="preserve">0.36128306388855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394377738237381</t>
+    <t xml:space="preserve">0.394377708435059</t>
   </si>
   <si>
     <t xml:space="preserve">0.391619831323624</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377830386161804</t>
+    <t xml:space="preserve">0.377830326557159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369556784629822</t>
+    <t xml:space="preserve">0.369556725025177</t>
   </si>
   <si>
     <t xml:space="preserve">0.370935678482056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379209369421005</t>
+    <t xml:space="preserve">0.37920930981636</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4081671833992</t>
+    <t xml:space="preserve">0.408167123794556</t>
   </si>
   <si>
     <t xml:space="preserve">0.423335522413254</t>
@@ -782,55 +782,55 @@
     <t xml:space="preserve">0.395756661891937</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415061861276627</t>
+    <t xml:space="preserve">0.415061891078949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412303984165192</t>
+    <t xml:space="preserve">0.412303924560547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409546047449112</t>
+    <t xml:space="preserve">0.409546136856079</t>
   </si>
   <si>
     <t xml:space="preserve">0.421956568956375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.428851276636124</t>
+    <t xml:space="preserve">0.428851246833801</t>
   </si>
   <si>
     <t xml:space="preserve">0.431609183549881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465393334627151</t>
+    <t xml:space="preserve">0.465393245220184</t>
   </si>
   <si>
-    <t xml:space="preserve">0.472288012504578</t>
+    <t xml:space="preserve">0.472287982702255</t>
   </si>
   <si>
-    <t xml:space="preserve">0.492972165346146</t>
+    <t xml:space="preserve">0.492972195148468</t>
   </si>
   <si>
-    <t xml:space="preserve">0.499866843223572</t>
+    <t xml:space="preserve">0.499866902828217</t>
   </si>
   <si>
     <t xml:space="preserve">0.508923530578613</t>
   </si>
   <si>
-    <t xml:space="preserve">0.486135810613632</t>
+    <t xml:space="preserve">0.486135840415955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.470944106578827</t>
+    <t xml:space="preserve">0.470944166183472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.455752402544022</t>
+    <t xml:space="preserve">0.455752372741699</t>
   </si>
   <si>
     <t xml:space="preserve">0.467146188020706</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478540003299713</t>
+    <t xml:space="preserve">0.478539973497391</t>
   </si>
   <si>
-    <t xml:space="preserve">0.482337862253189</t>
+    <t xml:space="preserve">0.482337892055511</t>
   </si>
   <si>
     <t xml:space="preserve">0.47474205493927</t>
@@ -842,49 +842,49 @@
     <t xml:space="preserve">0.440560609102249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451954454183578</t>
+    <t xml:space="preserve">0.451954483985901</t>
   </si>
   <si>
-    <t xml:space="preserve">0.425368875265121</t>
+    <t xml:space="preserve">0.425368845462799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429166793823242</t>
+    <t xml:space="preserve">0.42916676402092</t>
   </si>
   <si>
     <t xml:space="preserve">0.444358557462692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463348269462585</t>
+    <t xml:space="preserve">0.463348209857941</t>
   </si>
   <si>
-    <t xml:space="preserve">0.489933758974075</t>
+    <t xml:space="preserve">0.489933729171753</t>
   </si>
   <si>
-    <t xml:space="preserve">0.577286303043365</t>
+    <t xml:space="preserve">0.57728636264801</t>
   </si>
   <si>
     <t xml:space="preserve">0.493731737136841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.501327574253082</t>
+    <t xml:space="preserve">0.501327693462372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497529655694962</t>
+    <t xml:space="preserve">0.497529625892639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436762690544128</t>
+    <t xml:space="preserve">0.436762720346451</t>
   </si>
   <si>
     <t xml:space="preserve">0.432964742183685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417773008346558</t>
+    <t xml:space="preserve">0.417772948741913</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410177141427994</t>
+    <t xml:space="preserve">0.410177171230316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394985377788544</t>
+    <t xml:space="preserve">0.394985347986221</t>
   </si>
   <si>
     <t xml:space="preserve">0.406379222869873</t>
@@ -893,16 +893,16 @@
     <t xml:space="preserve">0.421570956707001</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40258127450943</t>
+    <t xml:space="preserve">0.402581214904785</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37371689081192</t>
+    <t xml:space="preserve">0.373716950416565</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372197806835175</t>
+    <t xml:space="preserve">0.372197777032852</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38738951086998</t>
+    <t xml:space="preserve">0.387389481067657</t>
   </si>
   <si>
     <t xml:space="preserve">0.379793643951416</t>
@@ -911,7 +911,7 @@
     <t xml:space="preserve">0.364601880311966</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341814249753952</t>
+    <t xml:space="preserve">0.341814279556274</t>
   </si>
   <si>
     <t xml:space="preserve">0.344852596521378</t>
@@ -926,16 +926,16 @@
     <t xml:space="preserve">0.305354088544846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.288643151521683</t>
+    <t xml:space="preserve">0.288643181324005</t>
   </si>
   <si>
     <t xml:space="preserve">0.299277395009995</t>
   </si>
   <si>
-    <t xml:space="preserve">0.28712397813797</t>
+    <t xml:space="preserve">0.287123948335648</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273451417684555</t>
+    <t xml:space="preserve">0.273451447486877</t>
   </si>
   <si>
     <t xml:space="preserve">0.267374724149704</t>
@@ -953,22 +953,22 @@
     <t xml:space="preserve">0.306873261928558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.308392405509949</t>
+    <t xml:space="preserve">0.308392435312271</t>
   </si>
   <si>
     <t xml:space="preserve">0.323584169149399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332699179649353</t>
+    <t xml:space="preserve">0.332699209451675</t>
   </si>
   <si>
     <t xml:space="preserve">0.338775932788849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370678573846817</t>
+    <t xml:space="preserve">0.370678633451462</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357006013393402</t>
+    <t xml:space="preserve">0.35700598359108</t>
   </si>
   <si>
     <t xml:space="preserve">0.350929349660873</t>
@@ -980,43 +980,43 @@
     <t xml:space="preserve">0.398783326148987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413975089788437</t>
+    <t xml:space="preserve">0.413975059986115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360044360160828</t>
+    <t xml:space="preserve">0.36004438996315</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363082677125931</t>
+    <t xml:space="preserve">0.363082706928253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369159430265427</t>
+    <t xml:space="preserve">0.369159400463104</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383591592311859</t>
+    <t xml:space="preserve">0.383591562509537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378274470567703</t>
+    <t xml:space="preserve">0.378274440765381</t>
   </si>
   <si>
     <t xml:space="preserve">0.353967636823654</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355486810207367</t>
+    <t xml:space="preserve">0.355486840009689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352448463439941</t>
+    <t xml:space="preserve">0.352448493242264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349410146474838</t>
+    <t xml:space="preserve">0.349410176277161</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335737586021423</t>
+    <t xml:space="preserve">0.335737526416779</t>
   </si>
   <si>
     <t xml:space="preserve">0.347890973091125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.334218412637711</t>
+    <t xml:space="preserve">0.334218382835388</t>
   </si>
   <si>
     <t xml:space="preserve">0.326622515916824</t>
@@ -1028,7 +1028,7 @@
     <t xml:space="preserve">0.315988302230835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.290162354707718</t>
+    <t xml:space="preserve">0.290162324905396</t>
   </si>
   <si>
     <t xml:space="preserve">0.293200701475143</t>
@@ -1040,13 +1040,13 @@
     <t xml:space="preserve">0.291681498289108</t>
   </si>
   <si>
-    <t xml:space="preserve">0.296239048242569</t>
+    <t xml:space="preserve">0.296239018440247</t>
   </si>
   <si>
     <t xml:space="preserve">0.303834915161133</t>
   </si>
   <si>
-    <t xml:space="preserve">0.320545822381973</t>
+    <t xml:space="preserve">0.320545792579651</t>
   </si>
   <si>
     <t xml:space="preserve">0.325103342533112</t>
@@ -1055,19 +1055,19 @@
     <t xml:space="preserve">0.317507475614548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.471467941999435</t>
+    <t xml:space="preserve">0.471467971801758</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4383824467659</t>
+    <t xml:space="preserve">0.438382476568222</t>
   </si>
   <si>
     <t xml:space="preserve">0.425975412130356</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413568407297134</t>
+    <t xml:space="preserve">0.413568377494812</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397025614976883</t>
+    <t xml:space="preserve">0.397025644779205</t>
   </si>
   <si>
     <t xml:space="preserve">0.405297011137009</t>
@@ -1076,16 +1076,16 @@
     <t xml:space="preserve">0.398679912090302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417704075574875</t>
+    <t xml:space="preserve">0.417704045772552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41025984287262</t>
+    <t xml:space="preserve">0.410259813070297</t>
   </si>
   <si>
-    <t xml:space="preserve">0.400334179401398</t>
+    <t xml:space="preserve">0.40033420920372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383791476488113</t>
+    <t xml:space="preserve">0.383791446685791</t>
   </si>
   <si>
     <t xml:space="preserve">0.377174377441406</t>
@@ -1097,13 +1097,13 @@
     <t xml:space="preserve">0.372211545705795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387099981307983</t>
+    <t xml:space="preserve">0.387100011110306</t>
   </si>
   <si>
     <t xml:space="preserve">0.380482912063599</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38544574379921</t>
+    <t xml:space="preserve">0.385445713996887</t>
   </si>
   <si>
     <t xml:space="preserve">0.368903011083603</t>
@@ -1112,22 +1112,22 @@
     <t xml:space="preserve">0.367248743772507</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382137179374695</t>
+    <t xml:space="preserve">0.382137209177017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479739367961884</t>
+    <t xml:space="preserve">0.479739308357239</t>
   </si>
   <si>
     <t xml:space="preserve">0.450789541006088</t>
   </si>
   <si>
-    <t xml:space="preserve">0.49628210067749</t>
+    <t xml:space="preserve">0.496282070875168</t>
   </si>
   <si>
-    <t xml:space="preserve">0.48801064491272</t>
+    <t xml:space="preserve">0.488010704517365</t>
   </si>
   <si>
-    <t xml:space="preserve">0.483875006437302</t>
+    <t xml:space="preserve">0.483874976634979</t>
   </si>
   <si>
     <t xml:space="preserve">0.454925209283829</t>
@@ -1139,19 +1139,19 @@
     <t xml:space="preserve">0.430111080408096</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421839743852615</t>
+    <t xml:space="preserve">0.421839773654938</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434246778488159</t>
+    <t xml:space="preserve">0.434246808290482</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446653842926025</t>
+    <t xml:space="preserve">0.44665390253067</t>
   </si>
   <si>
     <t xml:space="preserve">0.408605545759201</t>
   </si>
   <si>
-    <t xml:space="preserve">0.401988446712494</t>
+    <t xml:space="preserve">0.401988476514816</t>
   </si>
   <si>
     <t xml:space="preserve">0.388754278421402</t>
@@ -1160,49 +1160,49 @@
     <t xml:space="preserve">0.378828644752502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373865842819214</t>
+    <t xml:space="preserve">0.373865783214569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406951308250427</t>
+    <t xml:space="preserve">0.406951278448105</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395371347665787</t>
+    <t xml:space="preserve">0.395371377468109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40364271402359</t>
+    <t xml:space="preserve">0.403642773628235</t>
   </si>
   <si>
-    <t xml:space="preserve">0.393717080354691</t>
+    <t xml:space="preserve">0.393717110157013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347397446632385</t>
+    <t xml:space="preserve">0.347397416830063</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329200446605682</t>
+    <t xml:space="preserve">0.32920041680336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.330854713916779</t>
+    <t xml:space="preserve">0.330854684114456</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349051713943481</t>
+    <t xml:space="preserve">0.349051684141159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350705951452255</t>
+    <t xml:space="preserve">0.350705981254578</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355668842792511</t>
+    <t xml:space="preserve">0.355668812990189</t>
   </si>
   <si>
     <t xml:space="preserve">0.358977317810059</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362285882234573</t>
+    <t xml:space="preserve">0.362285912036896</t>
   </si>
   <si>
     <t xml:space="preserve">0.363940179347992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370557308197021</t>
+    <t xml:space="preserve">0.370557278394699</t>
   </si>
   <si>
     <t xml:space="preserve">0.360631614923477</t>
@@ -1226,10 +1226,10 @@
     <t xml:space="preserve">0.348381489515305</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353581219911575</t>
+    <t xml:space="preserve">0.353581190109253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34491503238678</t>
+    <t xml:space="preserve">0.344915002584457</t>
   </si>
   <si>
     <t xml:space="preserve">0.350114732980728</t>
@@ -1247,22 +1247,22 @@
     <t xml:space="preserve">0.355314463376999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.343181788921356</t>
+    <t xml:space="preserve">0.343181759119034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332782328128815</t>
+    <t xml:space="preserve">0.332782298326492</t>
   </si>
   <si>
     <t xml:space="preserve">0.32064962387085</t>
   </si>
   <si>
-    <t xml:space="preserve">0.331049054861069</t>
+    <t xml:space="preserve">0.331049084663391</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346648275852203</t>
+    <t xml:space="preserve">0.346648246049881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329315811395645</t>
+    <t xml:space="preserve">0.329315841197968</t>
   </si>
   <si>
     <t xml:space="preserve">0.327582597732544</t>
@@ -1274,7 +1274,7 @@
     <t xml:space="preserve">0.310250163078308</t>
   </si>
   <si>
-    <t xml:space="preserve">0.315449923276901</t>
+    <t xml:space="preserve">0.315449893474579</t>
   </si>
   <si>
     <t xml:space="preserve">0.306783705949783</t>
@@ -1289,10 +1289,10 @@
     <t xml:space="preserve">0.296384274959564</t>
   </si>
   <si>
-    <t xml:space="preserve">0.308516979217529</t>
+    <t xml:space="preserve">0.308516949415207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.298117518424988</t>
+    <t xml:space="preserve">0.298117488622665</t>
   </si>
   <si>
     <t xml:space="preserve">0.311983436346054</t>
@@ -1301,7 +1301,7 @@
     <t xml:space="preserve">0.313716650009155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.324116110801697</t>
+    <t xml:space="preserve">0.324116140604019</t>
   </si>
   <si>
     <t xml:space="preserve">0.32584935426712</t>
@@ -1319,25 +1319,25 @@
     <t xml:space="preserve">0.370913624763489</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372646898031235</t>
+    <t xml:space="preserve">0.372646868228912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374380081892014</t>
+    <t xml:space="preserve">0.374380141496658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367447108030319</t>
+    <t xml:space="preserve">0.367447137832642</t>
   </si>
   <si>
     <t xml:space="preserve">0.369180381298065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386512815952301</t>
+    <t xml:space="preserve">0.386512786149979</t>
   </si>
   <si>
     <t xml:space="preserve">0.323986053466797</t>
   </si>
   <si>
-    <t xml:space="preserve">0.320240557193756</t>
+    <t xml:space="preserve">0.320240586996078</t>
   </si>
   <si>
     <t xml:space="preserve">0.318367809057236</t>
@@ -1349,10 +1349,10 @@
     <t xml:space="preserve">0.314622312784195</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32960432767868</t>
+    <t xml:space="preserve">0.329604297876358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32773157954216</t>
+    <t xml:space="preserve">0.327731549739838</t>
   </si>
   <si>
     <t xml:space="preserve">0.310876786708832</t>
@@ -1364,40 +1364,40 @@
     <t xml:space="preserve">0.316495060920715</t>
   </si>
   <si>
-    <t xml:space="preserve">0.307131290435791</t>
+    <t xml:space="preserve">0.307131320238113</t>
   </si>
   <si>
     <t xml:space="preserve">0.299640268087387</t>
   </si>
   <si>
-    <t xml:space="preserve">0.30338579416275</t>
+    <t xml:space="preserve">0.303385764360428</t>
   </si>
   <si>
     <t xml:space="preserve">0.295894801616669</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309004038572311</t>
+    <t xml:space="preserve">0.309004098176956</t>
   </si>
   <si>
     <t xml:space="preserve">0.30151304602623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.297767549753189</t>
+    <t xml:space="preserve">0.297767519950867</t>
   </si>
   <si>
-    <t xml:space="preserve">0.294022023677826</t>
+    <t xml:space="preserve">0.294022053480148</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333349823951721</t>
+    <t xml:space="preserve">0.333349794149399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.322113335132599</t>
+    <t xml:space="preserve">0.322113305330276</t>
   </si>
   <si>
-    <t xml:space="preserve">0.331477046012878</t>
+    <t xml:space="preserve">0.331477075815201</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335222572088242</t>
+    <t xml:space="preserve">0.335222601890564</t>
   </si>
   <si>
     <t xml:space="preserve">0.337095350027084</t>
@@ -1406,10 +1406,10 @@
     <t xml:space="preserve">0.355822831392288</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350204586982727</t>
+    <t xml:space="preserve">0.350204616785049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338968068361282</t>
+    <t xml:space="preserve">0.338968098163605</t>
   </si>
   <si>
     <t xml:space="preserve">0.344586342573166</t>
@@ -1424,7 +1424,7 @@
     <t xml:space="preserve">0.340362787246704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.328889906406403</t>
+    <t xml:space="preserve">0.32888987660408</t>
   </si>
   <si>
     <t xml:space="preserve">0.325065582990646</t>
@@ -1436,10 +1436,10 @@
     <t xml:space="preserve">0.317416965961456</t>
   </si>
   <si>
-    <t xml:space="preserve">0.315504819154739</t>
+    <t xml:space="preserve">0.315504848957062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.326977729797363</t>
+    <t xml:space="preserve">0.326977759599686</t>
   </si>
   <si>
     <t xml:space="preserve">0.343951225280762</t>
@@ -59906,6 +59906,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2234">
+      <c r="A2234" s="1" t="n">
+        <v>45574.2916666667</v>
+      </c>
+      <c r="B2234" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2234" t="n">
+        <v>0.337999999523163</v>
+      </c>
+      <c r="D2234" t="n">
+        <v>0.337999999523163</v>
+      </c>
+      <c r="E2234" t="n">
+        <v>0.337999999523163</v>
+      </c>
+      <c r="F2234" t="n">
+        <v>0.337999999523163</v>
+      </c>
+      <c r="G2234" t="s">
+        <v>496</v>
+      </c>
+      <c r="H2234" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/POPR.MI.xlsx
+++ b/data/POPR.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193052008748055</t>
+    <t xml:space="preserve">0.193052023649216</t>
   </si>
   <si>
     <t xml:space="preserve">POPR.MI</t>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">0.193741500377655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.18960465490818</t>
+    <t xml:space="preserve">0.189604669809341</t>
   </si>
   <si>
     <t xml:space="preserve">0.188225716352463</t>
@@ -68,13 +68,13 @@
     <t xml:space="preserve">0.164301067590714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159267947077751</t>
+    <t xml:space="preserve">0.159267917275429</t>
   </si>
   <si>
     <t xml:space="preserve">0.167541578412056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168231055140495</t>
+    <t xml:space="preserve">0.168231040239334</t>
   </si>
   <si>
     <t xml:space="preserve">0.165404215455055</t>
@@ -83,25 +83,25 @@
     <t xml:space="preserve">0.160646870732307</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153407424688339</t>
+    <t xml:space="preserve">0.153407409787178</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153062671422958</t>
+    <t xml:space="preserve">0.15306268632412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153476387262344</t>
+    <t xml:space="preserve">0.153476372361183</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155820563435555</t>
+    <t xml:space="preserve">0.155820548534393</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152373194694519</t>
+    <t xml:space="preserve">0.15237320959568</t>
   </si>
   <si>
     <t xml:space="preserve">0.165748953819275</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186846792697906</t>
+    <t xml:space="preserve">0.186846777796745</t>
   </si>
   <si>
     <t xml:space="preserve">0.182985752820969</t>
@@ -119,22 +119,22 @@
     <t xml:space="preserve">0.164094224572182</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17078210413456</t>
+    <t xml:space="preserve">0.170782089233398</t>
   </si>
   <si>
     <t xml:space="preserve">0.176504716277122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174367368221283</t>
+    <t xml:space="preserve">0.174367353320122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194499909877777</t>
+    <t xml:space="preserve">0.194499924778938</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194430992007256</t>
+    <t xml:space="preserve">0.194430947303772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187536269426346</t>
+    <t xml:space="preserve">0.187536254525185</t>
   </si>
   <si>
     <t xml:space="preserve">0.182020485401154</t>
@@ -146,79 +146,79 @@
     <t xml:space="preserve">0.211323022842407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210288807749748</t>
+    <t xml:space="preserve">0.210288822650909</t>
   </si>
   <si>
-    <t xml:space="preserve">0.202015176415443</t>
+    <t xml:space="preserve">0.202015161514282</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199257269501686</t>
+    <t xml:space="preserve">0.199257284402847</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220630869269371</t>
+    <t xml:space="preserve">0.220630884170532</t>
   </si>
   <si>
     <t xml:space="preserve">0.228904515504837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220561936497688</t>
+    <t xml:space="preserve">0.220561951398849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21580459177494</t>
+    <t xml:space="preserve">0.215804606676102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.213046714663506</t>
+    <t xml:space="preserve">0.213046699762344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.196499392390251</t>
+    <t xml:space="preserve">0.196499407291412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199946731328964</t>
+    <t xml:space="preserve">0.199946761131287</t>
   </si>
   <si>
     <t xml:space="preserve">0.186295211315155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184778362512589</t>
+    <t xml:space="preserve">0.18477837741375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178573131561279</t>
+    <t xml:space="preserve">0.178573116660118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166300520300865</t>
+    <t xml:space="preserve">0.166300535202026</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182709962129593</t>
+    <t xml:space="preserve">0.182709947228432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172298938035965</t>
+    <t xml:space="preserve">0.172298923134804</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166852101683617</t>
+    <t xml:space="preserve">0.166852116584778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168920546770096</t>
+    <t xml:space="preserve">0.168920516967773</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17291946709156</t>
+    <t xml:space="preserve">0.172919481992722</t>
   </si>
   <si>
-    <t xml:space="preserve">0.204083561897278</t>
+    <t xml:space="preserve">0.204083576798439</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206151962280273</t>
+    <t xml:space="preserve">0.206151977181435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.201325684785843</t>
+    <t xml:space="preserve">0.201325699687004</t>
   </si>
   <si>
     <t xml:space="preserve">0.199326202273369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183399453759193</t>
+    <t xml:space="preserve">0.18339940905571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175815239548683</t>
+    <t xml:space="preserve">0.175815254449844</t>
   </si>
   <si>
     <t xml:space="preserve">0.161336332559586</t>
@@ -227,25 +227,25 @@
     <t xml:space="preserve">0.166162639856339</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162715286016464</t>
+    <t xml:space="preserve">0.162715300917625</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158578470349312</t>
+    <t xml:space="preserve">0.158578455448151</t>
   </si>
   <si>
     <t xml:space="preserve">0.173746824264526</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181193143129349</t>
+    <t xml:space="preserve">0.181193128228188</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187191516160965</t>
+    <t xml:space="preserve">0.187191531062126</t>
   </si>
   <si>
-    <t xml:space="preserve">0.18891516327858</t>
+    <t xml:space="preserve">0.188915207982063</t>
   </si>
   <si>
-    <t xml:space="preserve">0.200291469693184</t>
+    <t xml:space="preserve">0.200291484594345</t>
   </si>
   <si>
     <t xml:space="preserve">0.219941437244415</t>
@@ -254,28 +254,28 @@
     <t xml:space="preserve">0.212357237935066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195396259427071</t>
+    <t xml:space="preserve">0.195396244525909</t>
   </si>
   <si>
     <t xml:space="preserve">0.209254637360573</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220493003726006</t>
+    <t xml:space="preserve">0.220492988824844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.213736191391945</t>
+    <t xml:space="preserve">0.213736176490784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210357755422592</t>
+    <t xml:space="preserve">0.210357770323753</t>
   </si>
   <si>
     <t xml:space="preserve">0.219251930713654</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233730837702751</t>
+    <t xml:space="preserve">0.233730807900429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23779870569706</t>
+    <t xml:space="preserve">0.237798735499382</t>
   </si>
   <si>
     <t xml:space="preserve">0.25510448217392</t>
@@ -284,22 +284,22 @@
     <t xml:space="preserve">0.261309713125229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.275788635015488</t>
+    <t xml:space="preserve">0.275788605213165</t>
   </si>
   <si>
-    <t xml:space="preserve">0.293025434017181</t>
+    <t xml:space="preserve">0.293025404214859</t>
   </si>
   <si>
-    <t xml:space="preserve">0.301988512277603</t>
+    <t xml:space="preserve">0.301988542079926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.318535894155502</t>
+    <t xml:space="preserve">0.318535834550858</t>
   </si>
   <si>
-    <t xml:space="preserve">0.327498942613602</t>
+    <t xml:space="preserve">0.327498972415924</t>
   </si>
   <si>
-    <t xml:space="preserve">0.282683342695236</t>
+    <t xml:space="preserve">0.282683372497559</t>
   </si>
   <si>
     <t xml:space="preserve">0.285372257232666</t>
@@ -308,7 +308,7 @@
     <t xml:space="preserve">0.274478614330292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.274409651756287</t>
+    <t xml:space="preserve">0.274409681558609</t>
   </si>
   <si>
     <t xml:space="preserve">0.266342848539352</t>
@@ -323,19 +323,19 @@
     <t xml:space="preserve">0.251657128334045</t>
   </si>
   <si>
-    <t xml:space="preserve">0.256483405828476</t>
+    <t xml:space="preserve">0.256483435630798</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230972960591316</t>
+    <t xml:space="preserve">0.230972975492477</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226974010467529</t>
+    <t xml:space="preserve">0.22697402536869</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232351928949356</t>
+    <t xml:space="preserve">0.232351899147034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228973478078842</t>
+    <t xml:space="preserve">0.228973507881165</t>
   </si>
   <si>
     <t xml:space="preserve">0.26062023639679</t>
@@ -344,10 +344,10 @@
     <t xml:space="preserve">0.268893897533417</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25317394733429</t>
+    <t xml:space="preserve">0.253173917531967</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249588668346405</t>
+    <t xml:space="preserve">0.249588713049889</t>
   </si>
   <si>
     <t xml:space="preserve">0.258551836013794</t>
@@ -356,22 +356,22 @@
     <t xml:space="preserve">0.24820975959301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244762405753136</t>
+    <t xml:space="preserve">0.244762346148491</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237867683172226</t>
+    <t xml:space="preserve">0.237867668271065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243935003876686</t>
+    <t xml:space="preserve">0.243935033679008</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233799800276756</t>
+    <t xml:space="preserve">0.233799830079079</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220699861645699</t>
+    <t xml:space="preserve">0.220699846744537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.224078238010406</t>
+    <t xml:space="preserve">0.224078252911568</t>
   </si>
   <si>
     <t xml:space="preserve">0.226836130023003</t>
@@ -380,109 +380,109 @@
     <t xml:space="preserve">0.226146668195724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227525636553764</t>
+    <t xml:space="preserve">0.227525606751442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229042455554008</t>
+    <t xml:space="preserve">0.22904247045517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232489824295044</t>
+    <t xml:space="preserve">0.232489764690399</t>
   </si>
   <si>
     <t xml:space="preserve">0.247520267963409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241177126765251</t>
+    <t xml:space="preserve">0.24117711186409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.242211356759071</t>
+    <t xml:space="preserve">0.242211326956749</t>
   </si>
   <si>
-    <t xml:space="preserve">0.251726090908051</t>
+    <t xml:space="preserve">0.251726031303406</t>
   </si>
   <si>
     <t xml:space="preserve">0.257103949785233</t>
   </si>
   <si>
-    <t xml:space="preserve">0.24627922475338</t>
+    <t xml:space="preserve">0.246279194951057</t>
   </si>
   <si>
     <t xml:space="preserve">0.2413150370121</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241039261221886</t>
+    <t xml:space="preserve">0.241039231419563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237936601042747</t>
+    <t xml:space="preserve">0.237936615943909</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253725558519363</t>
+    <t xml:space="preserve">0.253725528717041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238074541091919</t>
+    <t xml:space="preserve">0.238074511289597</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244969218969345</t>
+    <t xml:space="preserve">0.24496927857399</t>
   </si>
   <si>
     <t xml:space="preserve">0.325982123613358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386104017496109</t>
+    <t xml:space="preserve">0.386104047298431</t>
   </si>
   <si>
     <t xml:space="preserve">0.510208964347839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.598461210727692</t>
+    <t xml:space="preserve">0.598461270332336</t>
   </si>
   <si>
     <t xml:space="preserve">0.523308873176575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479182690382004</t>
+    <t xml:space="preserve">0.479182720184326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46298012137413</t>
+    <t xml:space="preserve">0.462980210781097</t>
   </si>
   <si>
     <t xml:space="preserve">0.434367060661316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.399893462657928</t>
+    <t xml:space="preserve">0.399893522262573</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454361706972122</t>
+    <t xml:space="preserve">0.454361766576767</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402996182441711</t>
+    <t xml:space="preserve">0.402996122837067</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410235613584518</t>
+    <t xml:space="preserve">0.410235553979874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379898875951767</t>
+    <t xml:space="preserve">0.379898816347122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357490986585617</t>
+    <t xml:space="preserve">0.357490956783295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34542527794838</t>
+    <t xml:space="preserve">0.345425218343735</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358180463314056</t>
+    <t xml:space="preserve">0.358180493116379</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366798907518387</t>
+    <t xml:space="preserve">0.36679881811142</t>
   </si>
   <si>
     <t xml:space="preserve">0.353009432554245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382656693458557</t>
+    <t xml:space="preserve">0.382656663656235</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37438303232193</t>
+    <t xml:space="preserve">0.374383062124252</t>
   </si>
   <si>
     <t xml:space="preserve">0.358525156974792</t>
@@ -491,16 +491,16 @@
     <t xml:space="preserve">0.34921732544899</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352319955825806</t>
+    <t xml:space="preserve">0.352319926023483</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365419924259186</t>
+    <t xml:space="preserve">0.365419894456863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361972570419312</t>
+    <t xml:space="preserve">0.361972540616989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34818309545517</t>
+    <t xml:space="preserve">0.348183125257492</t>
   </si>
   <si>
     <t xml:space="preserve">0.35576730966568</t>
@@ -512,19 +512,19 @@
     <t xml:space="preserve">0.34197786450386</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367143630981445</t>
+    <t xml:space="preserve">0.367143601179123</t>
   </si>
   <si>
-    <t xml:space="preserve">0.348872572183609</t>
+    <t xml:space="preserve">0.348872601985931</t>
   </si>
   <si>
     <t xml:space="preserve">0.347493648529053</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360248893499374</t>
+    <t xml:space="preserve">0.360248863697052</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354388356208801</t>
+    <t xml:space="preserve">0.354388386011124</t>
   </si>
   <si>
     <t xml:space="preserve">0.359904170036316</t>
@@ -533,31 +533,31 @@
     <t xml:space="preserve">0.330946326255798</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340598911046982</t>
+    <t xml:space="preserve">0.340598940849304</t>
   </si>
   <si>
     <t xml:space="preserve">0.341219455003738</t>
   </si>
   <si>
-    <t xml:space="preserve">0.351630479097366</t>
+    <t xml:space="preserve">0.351630508899689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357146263122559</t>
+    <t xml:space="preserve">0.357146233320236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.392998784780502</t>
+    <t xml:space="preserve">0.392998814582825</t>
   </si>
   <si>
     <t xml:space="preserve">0.372314661741257</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373004108667374</t>
+    <t xml:space="preserve">0.373004078865051</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350251525640488</t>
+    <t xml:space="preserve">0.35025155544281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370590955018997</t>
+    <t xml:space="preserve">0.37059098482132</t>
   </si>
   <si>
     <t xml:space="preserve">0.345080524682999</t>
@@ -566,10 +566,10 @@
     <t xml:space="preserve">0.359559416770935</t>
   </si>
   <si>
-    <t xml:space="preserve">0.42747238278389</t>
+    <t xml:space="preserve">0.427472352981567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405409246683121</t>
+    <t xml:space="preserve">0.405409306287766</t>
   </si>
   <si>
     <t xml:space="preserve">0.404719799757004</t>
@@ -587,13 +587,13 @@
     <t xml:space="preserve">0.378519892692566</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383690923452377</t>
+    <t xml:space="preserve">0.383690983057022</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388861984014511</t>
+    <t xml:space="preserve">0.388861894607544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402651369571686</t>
+    <t xml:space="preserve">0.402651399374008</t>
   </si>
   <si>
     <t xml:space="preserve">0.426438122987747</t>
@@ -602,7 +602,7 @@
     <t xml:space="preserve">0.429540783166885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414372444152832</t>
+    <t xml:space="preserve">0.414372354745865</t>
   </si>
   <si>
     <t xml:space="preserve">0.413682907819748</t>
@@ -614,37 +614,37 @@
     <t xml:space="preserve">0.414027631282806</t>
   </si>
   <si>
-    <t xml:space="preserve">0.447467088699341</t>
+    <t xml:space="preserve">0.447466999292374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.455051273107529</t>
+    <t xml:space="preserve">0.455051213502884</t>
   </si>
   <si>
     <t xml:space="preserve">0.43023020029068</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413338124752045</t>
+    <t xml:space="preserve">0.413338184356689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424024999141693</t>
+    <t xml:space="preserve">0.424025058746338</t>
   </si>
   <si>
     <t xml:space="preserve">0.517103672027588</t>
   </si>
   <si>
-    <t xml:space="preserve">0.481940597295761</t>
+    <t xml:space="preserve">0.481940627098083</t>
   </si>
   <si>
     <t xml:space="preserve">0.49641951918602</t>
   </si>
   <si>
-    <t xml:space="preserve">0.475735366344452</t>
+    <t xml:space="preserve">0.47573533654213</t>
   </si>
   <si>
-    <t xml:space="preserve">0.480561673641205</t>
+    <t xml:space="preserve">0.480561703443527</t>
   </si>
   <si>
-    <t xml:space="preserve">0.489524811506271</t>
+    <t xml:space="preserve">0.489524692296982</t>
   </si>
   <si>
     <t xml:space="preserve">0.4826300740242</t>
@@ -656,76 +656,76 @@
     <t xml:space="preserve">0.466082751750946</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461945921182632</t>
+    <t xml:space="preserve">0.461945950984955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.449535429477692</t>
+    <t xml:space="preserve">0.449535399675369</t>
   </si>
   <si>
     <t xml:space="preserve">0.4453986287117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448156476020813</t>
+    <t xml:space="preserve">0.448156505823135</t>
   </si>
   <si>
     <t xml:space="preserve">0.453672260046005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.441261738538742</t>
+    <t xml:space="preserve">0.441261768341064</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474356412887573</t>
+    <t xml:space="preserve">0.474356383085251</t>
   </si>
   <si>
     <t xml:space="preserve">0.457809031009674</t>
   </si>
   <si>
-    <t xml:space="preserve">0.507451117038727</t>
+    <t xml:space="preserve">0.507451057434082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.468840658664703</t>
+    <t xml:space="preserve">0.468840628862381</t>
   </si>
   <si>
     <t xml:space="preserve">0.438503861427307</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45918807387352</t>
+    <t xml:space="preserve">0.459188103675842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464703857898712</t>
+    <t xml:space="preserve">0.464703798294067</t>
   </si>
   <si>
     <t xml:space="preserve">0.450914353132248</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437124967575073</t>
+    <t xml:space="preserve">0.437124997377396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444019675254822</t>
+    <t xml:space="preserve">0.444019734859467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419198721647263</t>
+    <t xml:space="preserve">0.41919869184494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.420577615499496</t>
+    <t xml:space="preserve">0.420577645301819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.426093429327011</t>
+    <t xml:space="preserve">0.426093399524689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.442640751600266</t>
+    <t xml:space="preserve">0.442640721797943</t>
   </si>
   <si>
-    <t xml:space="preserve">0.472977489233017</t>
+    <t xml:space="preserve">0.472977429628372</t>
   </si>
   <si>
     <t xml:space="preserve">0.460566997528076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446777492761612</t>
+    <t xml:space="preserve">0.446777582168579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.432988166809082</t>
+    <t xml:space="preserve">0.432988077402115</t>
   </si>
   <si>
     <t xml:space="preserve">0.452293336391449</t>
@@ -734,100 +734,100 @@
     <t xml:space="preserve">0.439882874488831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.456430166959763</t>
+    <t xml:space="preserve">0.456430107355118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397135615348816</t>
+    <t xml:space="preserve">0.397135585546494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40127244591713</t>
+    <t xml:space="preserve">0.401272416114807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398514539003372</t>
+    <t xml:space="preserve">0.398514568805695</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373693585395813</t>
+    <t xml:space="preserve">0.373693555593491</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36128306388855</t>
+    <t xml:space="preserve">0.361283093690872</t>
   </si>
   <si>
     <t xml:space="preserve">0.394377708435059</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391619831323624</t>
+    <t xml:space="preserve">0.391619861125946</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377830326557159</t>
+    <t xml:space="preserve">0.377830415964127</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369556725025177</t>
+    <t xml:space="preserve">0.369556754827499</t>
   </si>
   <si>
     <t xml:space="preserve">0.370935678482056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37920930981636</t>
+    <t xml:space="preserve">0.379209339618683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408167123794556</t>
+    <t xml:space="preserve">0.408167153596878</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423335522413254</t>
+    <t xml:space="preserve">0.423335492610931</t>
   </si>
   <si>
     <t xml:space="preserve">0.38748300075531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395756661891937</t>
+    <t xml:space="preserve">0.395756632089615</t>
   </si>
   <si>
     <t xml:space="preserve">0.415061891078949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412303924560547</t>
+    <t xml:space="preserve">0.412303954362869</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409546136856079</t>
+    <t xml:space="preserve">0.409546107053757</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421956568956375</t>
+    <t xml:space="preserve">0.421956598758698</t>
   </si>
   <si>
-    <t xml:space="preserve">0.428851246833801</t>
+    <t xml:space="preserve">0.428851276636124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431609183549881</t>
+    <t xml:space="preserve">0.431609213352203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465393245220184</t>
+    <t xml:space="preserve">0.465393275022507</t>
   </si>
   <si>
-    <t xml:space="preserve">0.472287982702255</t>
+    <t xml:space="preserve">0.4722880423069</t>
   </si>
   <si>
-    <t xml:space="preserve">0.492972195148468</t>
+    <t xml:space="preserve">0.492972165346146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.499866902828217</t>
+    <t xml:space="preserve">0.499866932630539</t>
   </si>
   <si>
-    <t xml:space="preserve">0.508923530578613</t>
+    <t xml:space="preserve">0.508923470973969</t>
   </si>
   <si>
-    <t xml:space="preserve">0.486135840415955</t>
+    <t xml:space="preserve">0.486135870218277</t>
   </si>
   <si>
-    <t xml:space="preserve">0.470944166183472</t>
+    <t xml:space="preserve">0.470944106578827</t>
   </si>
   <si>
     <t xml:space="preserve">0.455752372741699</t>
   </si>
   <si>
-    <t xml:space="preserve">0.467146188020706</t>
+    <t xml:space="preserve">0.467146217823029</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478539973497391</t>
+    <t xml:space="preserve">0.478540033102036</t>
   </si>
   <si>
     <t xml:space="preserve">0.482337892055511</t>
@@ -836,28 +836,28 @@
     <t xml:space="preserve">0.47474205493927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.459550321102142</t>
+    <t xml:space="preserve">0.45955029129982</t>
   </si>
   <si>
     <t xml:space="preserve">0.440560609102249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451954483985901</t>
+    <t xml:space="preserve">0.451954394578934</t>
   </si>
   <si>
     <t xml:space="preserve">0.425368845462799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.42916676402092</t>
+    <t xml:space="preserve">0.429166793823242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444358557462692</t>
+    <t xml:space="preserve">0.44435852766037</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463348209857941</t>
+    <t xml:space="preserve">0.463348239660263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.489933729171753</t>
+    <t xml:space="preserve">0.489933758974075</t>
   </si>
   <si>
     <t xml:space="preserve">0.57728636264801</t>
@@ -866,34 +866,34 @@
     <t xml:space="preserve">0.493731737136841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.501327693462372</t>
+    <t xml:space="preserve">0.501327574253082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497529625892639</t>
+    <t xml:space="preserve">0.497529655694962</t>
   </si>
   <si>
     <t xml:space="preserve">0.436762720346451</t>
   </si>
   <si>
-    <t xml:space="preserve">0.432964742183685</t>
+    <t xml:space="preserve">0.432964771986008</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417772948741913</t>
+    <t xml:space="preserve">0.417772978544235</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410177171230316</t>
+    <t xml:space="preserve">0.410177141427994</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394985347986221</t>
+    <t xml:space="preserve">0.394985377788544</t>
   </si>
   <si>
     <t xml:space="preserve">0.406379222869873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421570956707001</t>
+    <t xml:space="preserve">0.421570926904678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402581214904785</t>
+    <t xml:space="preserve">0.402581244707108</t>
   </si>
   <si>
     <t xml:space="preserve">0.373716950416565</t>
@@ -902,19 +902,19 @@
     <t xml:space="preserve">0.372197777032852</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387389481067657</t>
+    <t xml:space="preserve">0.38738951086998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379793643951416</t>
+    <t xml:space="preserve">0.379793614149094</t>
   </si>
   <si>
     <t xml:space="preserve">0.364601880311966</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341814279556274</t>
+    <t xml:space="preserve">0.341814249753952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344852596521378</t>
+    <t xml:space="preserve">0.3448526263237</t>
   </si>
   <si>
     <t xml:space="preserve">0.31902664899826</t>
@@ -932,25 +932,25 @@
     <t xml:space="preserve">0.299277395009995</t>
   </si>
   <si>
-    <t xml:space="preserve">0.287123948335648</t>
+    <t xml:space="preserve">0.287124037742615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273451447486877</t>
+    <t xml:space="preserve">0.2734514772892</t>
   </si>
   <si>
     <t xml:space="preserve">0.267374724149704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312949955463409</t>
+    <t xml:space="preserve">0.312949985265732</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3144690990448</t>
+    <t xml:space="preserve">0.314469128847122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.297758221626282</t>
+    <t xml:space="preserve">0.297758251428604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.306873261928558</t>
+    <t xml:space="preserve">0.306873291730881</t>
   </si>
   <si>
     <t xml:space="preserve">0.308392435312271</t>
@@ -959,61 +959,61 @@
     <t xml:space="preserve">0.323584169149399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332699209451675</t>
+    <t xml:space="preserve">0.332699239253998</t>
   </si>
   <si>
     <t xml:space="preserve">0.338775932788849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370678633451462</t>
+    <t xml:space="preserve">0.370678603649139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35700598359108</t>
+    <t xml:space="preserve">0.357006043195724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350929349660873</t>
+    <t xml:space="preserve">0.350929319858551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.376755267381668</t>
+    <t xml:space="preserve">0.37675529718399</t>
   </si>
   <si>
     <t xml:space="preserve">0.398783326148987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413975059986115</t>
+    <t xml:space="preserve">0.413975030183792</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36004438996315</t>
+    <t xml:space="preserve">0.360044360160828</t>
   </si>
   <si>
     <t xml:space="preserve">0.363082706928253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369159400463104</t>
+    <t xml:space="preserve">0.369159370660782</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383591562509537</t>
+    <t xml:space="preserve">0.383591592311859</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378274440765381</t>
+    <t xml:space="preserve">0.378274470567703</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353967636823654</t>
+    <t xml:space="preserve">0.353967666625977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355486840009689</t>
+    <t xml:space="preserve">0.355486810207367</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352448493242264</t>
+    <t xml:space="preserve">0.352448463439941</t>
   </si>
   <si>
     <t xml:space="preserve">0.349410176277161</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335737526416779</t>
+    <t xml:space="preserve">0.335737586021423</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347890973091125</t>
+    <t xml:space="preserve">0.347890943288803</t>
   </si>
   <si>
     <t xml:space="preserve">0.334218382835388</t>
@@ -1022,10 +1022,10 @@
     <t xml:space="preserve">0.326622515916824</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311430752277374</t>
+    <t xml:space="preserve">0.311430841684341</t>
   </si>
   <si>
-    <t xml:space="preserve">0.315988302230835</t>
+    <t xml:space="preserve">0.315988332033157</t>
   </si>
   <si>
     <t xml:space="preserve">0.290162324905396</t>
@@ -1037,25 +1037,25 @@
     <t xml:space="preserve">0.285604804754257</t>
   </si>
   <si>
-    <t xml:space="preserve">0.291681498289108</t>
+    <t xml:space="preserve">0.291681528091431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.296239018440247</t>
+    <t xml:space="preserve">0.296239048242569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.303834915161133</t>
+    <t xml:space="preserve">0.30383488535881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.320545792579651</t>
+    <t xml:space="preserve">0.320545852184296</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325103342533112</t>
+    <t xml:space="preserve">0.325103372335434</t>
   </si>
   <si>
     <t xml:space="preserve">0.317507475614548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.471467971801758</t>
+    <t xml:space="preserve">0.47146800160408</t>
   </si>
   <si>
     <t xml:space="preserve">0.438382476568222</t>
@@ -1076,10 +1076,10 @@
     <t xml:space="preserve">0.398679912090302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417704045772552</t>
+    <t xml:space="preserve">0.417704075574875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410259813070297</t>
+    <t xml:space="preserve">0.41025984287262</t>
   </si>
   <si>
     <t xml:space="preserve">0.40033420920372</t>
@@ -1097,7 +1097,7 @@
     <t xml:space="preserve">0.372211545705795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387100011110306</t>
+    <t xml:space="preserve">0.387099981307983</t>
   </si>
   <si>
     <t xml:space="preserve">0.380482912063599</t>
@@ -1106,19 +1106,19 @@
     <t xml:space="preserve">0.385445713996887</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368903011083603</t>
+    <t xml:space="preserve">0.368902981281281</t>
   </si>
   <si>
     <t xml:space="preserve">0.367248743772507</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382137209177017</t>
+    <t xml:space="preserve">0.382137179374695</t>
   </si>
   <si>
     <t xml:space="preserve">0.479739308357239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450789541006088</t>
+    <t xml:space="preserve">0.450789511203766</t>
   </si>
   <si>
     <t xml:space="preserve">0.496282070875168</t>
@@ -1136,40 +1136,40 @@
     <t xml:space="preserve">0.442518204450607</t>
   </si>
   <si>
-    <t xml:space="preserve">0.430111080408096</t>
+    <t xml:space="preserve">0.430111110210419</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421839773654938</t>
+    <t xml:space="preserve">0.421839743852615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434246808290482</t>
+    <t xml:space="preserve">0.434246778488159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44665390253067</t>
+    <t xml:space="preserve">0.446653842926025</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408605545759201</t>
+    <t xml:space="preserve">0.408605575561523</t>
   </si>
   <si>
-    <t xml:space="preserve">0.401988476514816</t>
+    <t xml:space="preserve">0.401988446712494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388754278421402</t>
+    <t xml:space="preserve">0.388754308223724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378828644752502</t>
+    <t xml:space="preserve">0.37882861495018</t>
   </si>
   <si>
     <t xml:space="preserve">0.373865783214569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406951278448105</t>
+    <t xml:space="preserve">0.406951308250427</t>
   </si>
   <si>
     <t xml:space="preserve">0.395371377468109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.403642773628235</t>
+    <t xml:space="preserve">0.403642743825912</t>
   </si>
   <si>
     <t xml:space="preserve">0.393717110157013</t>
@@ -1181,10 +1181,10 @@
     <t xml:space="preserve">0.32920041680336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.330854684114456</t>
+    <t xml:space="preserve">0.330854713916779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349051684141159</t>
+    <t xml:space="preserve">0.349051743745804</t>
   </si>
   <si>
     <t xml:space="preserve">0.350705981254578</t>
@@ -1199,16 +1199,16 @@
     <t xml:space="preserve">0.362285912036896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363940179347992</t>
+    <t xml:space="preserve">0.36394014954567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370557278394699</t>
+    <t xml:space="preserve">0.370557248592377</t>
   </si>
   <si>
     <t xml:space="preserve">0.360631614923477</t>
   </si>
   <si>
-    <t xml:space="preserve">0.339126080274582</t>
+    <t xml:space="preserve">0.339126110076904</t>
   </si>
   <si>
     <t xml:space="preserve">0.337471812963486</t>
@@ -1217,7 +1217,7 @@
     <t xml:space="preserve">0.332508981227875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34408888220787</t>
+    <t xml:space="preserve">0.344088912010193</t>
   </si>
   <si>
     <t xml:space="preserve">0.354014545679092</t>
@@ -1226,31 +1226,31 @@
     <t xml:space="preserve">0.348381489515305</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353581190109253</t>
+    <t xml:space="preserve">0.353581219911575</t>
   </si>
   <si>
     <t xml:space="preserve">0.344915002584457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350114732980728</t>
+    <t xml:space="preserve">0.350114762783051</t>
   </si>
   <si>
     <t xml:space="preserve">0.363980650901794</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365713894367218</t>
+    <t xml:space="preserve">0.36571392416954</t>
   </si>
   <si>
     <t xml:space="preserve">0.351847976446152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355314463376999</t>
+    <t xml:space="preserve">0.355314493179321</t>
   </si>
   <si>
-    <t xml:space="preserve">0.343181759119034</t>
+    <t xml:space="preserve">0.343181788921356</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332782298326492</t>
+    <t xml:space="preserve">0.332782328128815</t>
   </si>
   <si>
     <t xml:space="preserve">0.32064962387085</t>
@@ -1265,13 +1265,13 @@
     <t xml:space="preserve">0.329315841197968</t>
   </si>
   <si>
-    <t xml:space="preserve">0.327582597732544</t>
+    <t xml:space="preserve">0.327582627534866</t>
   </si>
   <si>
-    <t xml:space="preserve">0.318916410207748</t>
+    <t xml:space="preserve">0.318916380405426</t>
   </si>
   <si>
-    <t xml:space="preserve">0.310250163078308</t>
+    <t xml:space="preserve">0.31025019288063</t>
   </si>
   <si>
     <t xml:space="preserve">0.315449893474579</t>
@@ -1280,40 +1280,40 @@
     <t xml:space="preserve">0.306783705949783</t>
   </si>
   <si>
-    <t xml:space="preserve">0.303317189216614</t>
+    <t xml:space="preserve">0.303317219018936</t>
   </si>
   <si>
     <t xml:space="preserve">0.30505046248436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.296384274959564</t>
+    <t xml:space="preserve">0.296384245157242</t>
   </si>
   <si>
     <t xml:space="preserve">0.308516949415207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.298117488622665</t>
+    <t xml:space="preserve">0.298117518424988</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311983436346054</t>
+    <t xml:space="preserve">0.311983466148376</t>
   </si>
   <si>
-    <t xml:space="preserve">0.313716650009155</t>
+    <t xml:space="preserve">0.313716679811478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.324116140604019</t>
+    <t xml:space="preserve">0.324116110801697</t>
   </si>
   <si>
     <t xml:space="preserve">0.32584935426712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.337982028722763</t>
+    <t xml:space="preserve">0.337982058525085</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317183136940002</t>
+    <t xml:space="preserve">0.317183166742325</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379579812288284</t>
+    <t xml:space="preserve">0.379579842090607</t>
   </si>
   <si>
     <t xml:space="preserve">0.370913624763489</t>
@@ -1322,7 +1322,7 @@
     <t xml:space="preserve">0.372646868228912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374380141496658</t>
+    <t xml:space="preserve">0.374380081892014</t>
   </si>
   <si>
     <t xml:space="preserve">0.367447137832642</t>
@@ -1337,7 +1337,7 @@
     <t xml:space="preserve">0.323986053466797</t>
   </si>
   <si>
-    <t xml:space="preserve">0.320240586996078</t>
+    <t xml:space="preserve">0.320240557193756</t>
   </si>
   <si>
     <t xml:space="preserve">0.318367809057236</t>
@@ -1349,10 +1349,10 @@
     <t xml:space="preserve">0.314622312784195</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329604297876358</t>
+    <t xml:space="preserve">0.32960432767868</t>
   </si>
   <si>
-    <t xml:space="preserve">0.327731549739838</t>
+    <t xml:space="preserve">0.32773157954216</t>
   </si>
   <si>
     <t xml:space="preserve">0.310876786708832</t>
@@ -1370,34 +1370,34 @@
     <t xml:space="preserve">0.299640268087387</t>
   </si>
   <si>
-    <t xml:space="preserve">0.303385764360428</t>
+    <t xml:space="preserve">0.30338579416275</t>
   </si>
   <si>
     <t xml:space="preserve">0.295894801616669</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309004098176956</t>
+    <t xml:space="preserve">0.309004038572311</t>
   </si>
   <si>
     <t xml:space="preserve">0.30151304602623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.297767519950867</t>
+    <t xml:space="preserve">0.297767549753189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.294022053480148</t>
+    <t xml:space="preserve">0.294022023677826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333349794149399</t>
+    <t xml:space="preserve">0.333349823951721</t>
   </si>
   <si>
-    <t xml:space="preserve">0.322113305330276</t>
+    <t xml:space="preserve">0.322113335132599</t>
   </si>
   <si>
-    <t xml:space="preserve">0.331477075815201</t>
+    <t xml:space="preserve">0.331477046012878</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335222601890564</t>
+    <t xml:space="preserve">0.335222572088242</t>
   </si>
   <si>
     <t xml:space="preserve">0.337095350027084</t>
@@ -1406,7 +1406,7 @@
     <t xml:space="preserve">0.355822831392288</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350204616785049</t>
+    <t xml:space="preserve">0.350204586982727</t>
   </si>
   <si>
     <t xml:space="preserve">0.338968098163605</t>
@@ -1424,7 +1424,7 @@
     <t xml:space="preserve">0.340362787246704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32888987660408</t>
+    <t xml:space="preserve">0.328889906406403</t>
   </si>
   <si>
     <t xml:space="preserve">0.325065582990646</t>
@@ -1436,10 +1436,10 @@
     <t xml:space="preserve">0.317416965961456</t>
   </si>
   <si>
-    <t xml:space="preserve">0.315504848957062</t>
+    <t xml:space="preserve">0.315504819154739</t>
   </si>
   <si>
-    <t xml:space="preserve">0.326977759599686</t>
+    <t xml:space="preserve">0.326977729797363</t>
   </si>
   <si>
     <t xml:space="preserve">0.343951225280762</t>
@@ -59932,6 +59932,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2235">
+      <c r="A2235" s="1" t="n">
+        <v>45575.2916666667</v>
+      </c>
+      <c r="B2235" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2235" t="n">
+        <v>0.337999999523163</v>
+      </c>
+      <c r="D2235" t="n">
+        <v>0.337999999523163</v>
+      </c>
+      <c r="E2235" t="n">
+        <v>0.337999999523163</v>
+      </c>
+      <c r="F2235" t="n">
+        <v>0.337999999523163</v>
+      </c>
+      <c r="G2235" t="s">
+        <v>496</v>
+      </c>
+      <c r="H2235" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/POPR.MI.xlsx
+++ b/data/POPR.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193052023649216</t>
+    <t xml:space="preserve">0.193052038550377</t>
   </si>
   <si>
     <t xml:space="preserve">POPR.MI</t>
@@ -50,46 +50,46 @@
     <t xml:space="preserve">0.189604669809341</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188225746154785</t>
+    <t xml:space="preserve">0.188225731253624</t>
   </si>
   <si>
     <t xml:space="preserve">0.179952070116997</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186157301068306</t>
+    <t xml:space="preserve">0.18615734577179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163404732942581</t>
+    <t xml:space="preserve">0.163404777646065</t>
   </si>
   <si>
     <t xml:space="preserve">0.157199516892433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164301067590714</t>
+    <t xml:space="preserve">0.164301052689552</t>
   </si>
   <si>
     <t xml:space="preserve">0.15926793217659</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167541563510895</t>
+    <t xml:space="preserve">0.167541578412056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168231055140495</t>
+    <t xml:space="preserve">0.168231070041656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165404215455055</t>
+    <t xml:space="preserve">0.165404230356216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160646885633469</t>
+    <t xml:space="preserve">0.160646870732307</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153407424688339</t>
+    <t xml:space="preserve">0.153407409787178</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153062671422958</t>
+    <t xml:space="preserve">0.15306268632412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153476357460022</t>
+    <t xml:space="preserve">0.153476372361183</t>
   </si>
   <si>
     <t xml:space="preserve">0.155820563435555</t>
@@ -98,25 +98,25 @@
     <t xml:space="preserve">0.152373194694519</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165748968720436</t>
+    <t xml:space="preserve">0.165748953819275</t>
   </si>
   <si>
     <t xml:space="preserve">0.186846777796745</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182985752820969</t>
+    <t xml:space="preserve">0.182985737919807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179262608289719</t>
+    <t xml:space="preserve">0.179262578487396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172367885708809</t>
+    <t xml:space="preserve">0.172367870807648</t>
   </si>
   <si>
     <t xml:space="preserve">0.169610008597374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164094239473343</t>
+    <t xml:space="preserve">0.164094209671021</t>
   </si>
   <si>
     <t xml:space="preserve">0.170782089233398</t>
@@ -128,13 +128,13 @@
     <t xml:space="preserve">0.174367353320122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194499924778938</t>
+    <t xml:space="preserve">0.194499939680099</t>
   </si>
   <si>
     <t xml:space="preserve">0.194430992007256</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187536284327507</t>
+    <t xml:space="preserve">0.187536254525185</t>
   </si>
   <si>
     <t xml:space="preserve">0.182020470499992</t>
@@ -146,40 +146,40 @@
     <t xml:space="preserve">0.211323007941246</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210288852453232</t>
+    <t xml:space="preserve">0.210288822650909</t>
   </si>
   <si>
-    <t xml:space="preserve">0.202015176415443</t>
+    <t xml:space="preserve">0.202015146613121</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199257284402847</t>
+    <t xml:space="preserve">0.199257269501686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220630884170532</t>
+    <t xml:space="preserve">0.220630899071693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228904515504837</t>
+    <t xml:space="preserve">0.228904545307159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220561966300011</t>
+    <t xml:space="preserve">0.220561936497688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.215804606676102</t>
+    <t xml:space="preserve">0.215804576873779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.213046699762344</t>
+    <t xml:space="preserve">0.213046684861183</t>
   </si>
   <si>
-    <t xml:space="preserve">0.196499392390251</t>
+    <t xml:space="preserve">0.196499362587929</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199946731328964</t>
+    <t xml:space="preserve">0.199946716427803</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186295196413994</t>
+    <t xml:space="preserve">0.186295211315155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184778362512589</t>
+    <t xml:space="preserve">0.18477837741375</t>
   </si>
   <si>
     <t xml:space="preserve">0.178573131561279</t>
@@ -191,34 +191,34 @@
     <t xml:space="preserve">0.182709947228432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172298938035965</t>
+    <t xml:space="preserve">0.172298952937126</t>
   </si>
   <si>
     <t xml:space="preserve">0.166852101683617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168920531868935</t>
+    <t xml:space="preserve">0.168920546770096</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17291946709156</t>
+    <t xml:space="preserve">0.172919481992722</t>
   </si>
   <si>
-    <t xml:space="preserve">0.204083561897278</t>
+    <t xml:space="preserve">0.204083576798439</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206151992082596</t>
+    <t xml:space="preserve">0.206151977181435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.201325684785843</t>
+    <t xml:space="preserve">0.201325699687004</t>
   </si>
   <si>
-    <t xml:space="preserve">0.19932621717453</t>
+    <t xml:space="preserve">0.199326202273369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183399423956871</t>
+    <t xml:space="preserve">0.183399438858032</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175815239548683</t>
+    <t xml:space="preserve">0.175815224647522</t>
   </si>
   <si>
     <t xml:space="preserve">0.161336347460747</t>
@@ -230,67 +230,67 @@
     <t xml:space="preserve">0.162715271115303</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158578455448151</t>
+    <t xml:space="preserve">0.158578470349312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173746839165688</t>
+    <t xml:space="preserve">0.173746824264526</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181193128228188</t>
+    <t xml:space="preserve">0.181193143129349</t>
   </si>
   <si>
     <t xml:space="preserve">0.187191531062126</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188915193080902</t>
+    <t xml:space="preserve">0.188915222883224</t>
   </si>
   <si>
-    <t xml:space="preserve">0.200291454792023</t>
+    <t xml:space="preserve">0.200291484594345</t>
   </si>
   <si>
     <t xml:space="preserve">0.219941422343254</t>
   </si>
   <si>
-    <t xml:space="preserve">0.212357223033905</t>
+    <t xml:space="preserve">0.212357237935066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195396199822426</t>
+    <t xml:space="preserve">0.195396229624748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.209254622459412</t>
+    <t xml:space="preserve">0.20925460755825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220492988824844</t>
+    <t xml:space="preserve">0.220493018627167</t>
   </si>
   <si>
     <t xml:space="preserve">0.213736176490784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210357755422592</t>
+    <t xml:space="preserve">0.210357740521431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219251960515976</t>
+    <t xml:space="preserve">0.219251930713654</t>
   </si>
   <si>
     <t xml:space="preserve">0.233730837702751</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237798735499382</t>
+    <t xml:space="preserve">0.237798720598221</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25510448217392</t>
+    <t xml:space="preserve">0.255104452371597</t>
   </si>
   <si>
     <t xml:space="preserve">0.261309713125229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.275788635015488</t>
+    <t xml:space="preserve">0.275788605213165</t>
   </si>
   <si>
-    <t xml:space="preserve">0.293025404214859</t>
+    <t xml:space="preserve">0.293025374412537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.301988542079926</t>
+    <t xml:space="preserve">0.301988512277603</t>
   </si>
   <si>
     <t xml:space="preserve">0.31853586435318</t>
@@ -302,13 +302,13 @@
     <t xml:space="preserve">0.282683312892914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.285372257232666</t>
+    <t xml:space="preserve">0.285372287034988</t>
   </si>
   <si>
     <t xml:space="preserve">0.274478614330292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.274409621953964</t>
+    <t xml:space="preserve">0.274409681558609</t>
   </si>
   <si>
     <t xml:space="preserve">0.266342848539352</t>
@@ -317,163 +317,163 @@
     <t xml:space="preserve">0.266825467348099</t>
   </si>
   <si>
-    <t xml:space="preserve">0.266963362693787</t>
+    <t xml:space="preserve">0.266963392496109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.251657098531723</t>
+    <t xml:space="preserve">0.251657128334045</t>
   </si>
   <si>
     <t xml:space="preserve">0.256483405828476</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230972990393639</t>
+    <t xml:space="preserve">0.230972975492477</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226974010467529</t>
+    <t xml:space="preserve">0.226974055171013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232351914048195</t>
+    <t xml:space="preserve">0.232351928949356</t>
   </si>
   <si>
     <t xml:space="preserve">0.228973492980003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.260620266199112</t>
+    <t xml:space="preserve">0.260620206594467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.268893927335739</t>
+    <t xml:space="preserve">0.268893897533417</t>
   </si>
   <si>
     <t xml:space="preserve">0.25317394733429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249588698148727</t>
+    <t xml:space="preserve">0.249588668346405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.258551776409149</t>
+    <t xml:space="preserve">0.258551836013794</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248209774494171</t>
+    <t xml:space="preserve">0.248209744691849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244762361049652</t>
+    <t xml:space="preserve">0.244762405753136</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237867683172226</t>
+    <t xml:space="preserve">0.237867668271065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243935003876686</t>
+    <t xml:space="preserve">0.243935033679008</t>
   </si>
   <si>
     <t xml:space="preserve">0.233799785375595</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220699831843376</t>
+    <t xml:space="preserve">0.220699861645699</t>
   </si>
   <si>
-    <t xml:space="preserve">0.224078238010406</t>
+    <t xml:space="preserve">0.224078252911568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226836144924164</t>
+    <t xml:space="preserve">0.226836115121841</t>
   </si>
   <si>
     <t xml:space="preserve">0.226146668195724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227525591850281</t>
+    <t xml:space="preserve">0.227525606751442</t>
   </si>
   <si>
     <t xml:space="preserve">0.229042455554008</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232489794492722</t>
+    <t xml:space="preserve">0.232489809393883</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247520282864571</t>
+    <t xml:space="preserve">0.247520297765732</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241177126765251</t>
+    <t xml:space="preserve">0.24117711186409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.242211356759071</t>
+    <t xml:space="preserve">0.24221134185791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.251726061105728</t>
+    <t xml:space="preserve">0.251726031303406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25710391998291</t>
+    <t xml:space="preserve">0.257103949785233</t>
   </si>
   <si>
-    <t xml:space="preserve">0.246279209852219</t>
+    <t xml:space="preserve">0.246279254555702</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241315051913261</t>
+    <t xml:space="preserve">0.241315022110939</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241039246320724</t>
+    <t xml:space="preserve">0.241039261221886</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237936601042747</t>
+    <t xml:space="preserve">0.237936660647392</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253725558519363</t>
+    <t xml:space="preserve">0.253725528717041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238074526190758</t>
+    <t xml:space="preserve">0.238074511289597</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244969248771667</t>
+    <t xml:space="preserve">0.244969233870506</t>
   </si>
   <si>
     <t xml:space="preserve">0.325982123613358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386104047298431</t>
+    <t xml:space="preserve">0.386104077100754</t>
   </si>
   <si>
-    <t xml:space="preserve">0.510208964347839</t>
+    <t xml:space="preserve">0.510208904743195</t>
   </si>
   <si>
-    <t xml:space="preserve">0.598461270332336</t>
+    <t xml:space="preserve">0.598461210727692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.523308873176575</t>
+    <t xml:space="preserve">0.523308932781219</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479182690382004</t>
+    <t xml:space="preserve">0.479182720184326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.462980151176453</t>
+    <t xml:space="preserve">0.462980091571808</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434367090463638</t>
+    <t xml:space="preserve">0.434367060661316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.399893462657928</t>
+    <t xml:space="preserve">0.399893432855606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454361706972122</t>
+    <t xml:space="preserve">0.4543616771698</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402996152639389</t>
+    <t xml:space="preserve">0.402996122837067</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410235583782196</t>
+    <t xml:space="preserve">0.410235613584518</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379898875951767</t>
+    <t xml:space="preserve">0.379898846149445</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357490926980972</t>
+    <t xml:space="preserve">0.357490956783295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345425248146057</t>
+    <t xml:space="preserve">0.345425218343735</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358180493116379</t>
+    <t xml:space="preserve">0.358180463314056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366798847913742</t>
+    <t xml:space="preserve">0.366798877716064</t>
   </si>
   <si>
     <t xml:space="preserve">0.353009432554245</t>
@@ -485,46 +485,46 @@
     <t xml:space="preserve">0.374383062124252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358525216579437</t>
+    <t xml:space="preserve">0.358525156974792</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34921732544899</t>
+    <t xml:space="preserve">0.349217295646667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352319955825806</t>
+    <t xml:space="preserve">0.352319926023483</t>
   </si>
   <si>
     <t xml:space="preserve">0.365419894456863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361972540616989</t>
+    <t xml:space="preserve">0.361972510814667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.348183125257492</t>
+    <t xml:space="preserve">0.34818309545517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355767339468002</t>
+    <t xml:space="preserve">0.35576730966568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344735771417618</t>
+    <t xml:space="preserve">0.344735741615295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34197786450386</t>
+    <t xml:space="preserve">0.341977894306183</t>
   </si>
   <si>
     <t xml:space="preserve">0.367143630981445</t>
   </si>
   <si>
-    <t xml:space="preserve">0.348872601985931</t>
+    <t xml:space="preserve">0.348872572183609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347493678331375</t>
+    <t xml:space="preserve">0.347493648529053</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360248863697052</t>
+    <t xml:space="preserve">0.360248893499374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354388356208801</t>
+    <t xml:space="preserve">0.354388326406479</t>
   </si>
   <si>
     <t xml:space="preserve">0.359904140233994</t>
@@ -533,34 +533,34 @@
     <t xml:space="preserve">0.330946326255798</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340598970651627</t>
+    <t xml:space="preserve">0.340598911046982</t>
   </si>
   <si>
     <t xml:space="preserve">0.341219455003738</t>
   </si>
   <si>
-    <t xml:space="preserve">0.351630479097366</t>
+    <t xml:space="preserve">0.351630449295044</t>
   </si>
   <si>
     <t xml:space="preserve">0.357146263122559</t>
   </si>
   <si>
-    <t xml:space="preserve">0.392998784780502</t>
+    <t xml:space="preserve">0.392998725175858</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372314602136612</t>
+    <t xml:space="preserve">0.372314691543579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373004108667374</t>
+    <t xml:space="preserve">0.373004078865051</t>
   </si>
   <si>
     <t xml:space="preserve">0.350251525640488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370591014623642</t>
+    <t xml:space="preserve">0.370590955018997</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345080494880676</t>
+    <t xml:space="preserve">0.345080524682999</t>
   </si>
   <si>
     <t xml:space="preserve">0.359559416770935</t>
@@ -569,46 +569,46 @@
     <t xml:space="preserve">0.427472352981567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405409276485443</t>
+    <t xml:space="preserve">0.405409246683121</t>
   </si>
   <si>
     <t xml:space="preserve">0.404719829559326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40609872341156</t>
+    <t xml:space="preserve">0.406098693609238</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398859232664108</t>
+    <t xml:space="preserve">0.398859262466431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406788170337677</t>
+    <t xml:space="preserve">0.406788200139999</t>
   </si>
   <si>
     <t xml:space="preserve">0.378519862890244</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383690923452377</t>
+    <t xml:space="preserve">0.383690893650055</t>
   </si>
   <si>
     <t xml:space="preserve">0.388861984014511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402651369571686</t>
+    <t xml:space="preserve">0.402651399374008</t>
   </si>
   <si>
     <t xml:space="preserve">0.42643815279007</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429540783166885</t>
+    <t xml:space="preserve">0.429540812969208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414372384548187</t>
+    <t xml:space="preserve">0.41437241435051</t>
   </si>
   <si>
     <t xml:space="preserve">0.41368293762207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.42471444606781</t>
+    <t xml:space="preserve">0.424714475870132</t>
   </si>
   <si>
     <t xml:space="preserve">0.414027631282806</t>
@@ -617,7 +617,7 @@
     <t xml:space="preserve">0.447466999292374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.455051183700562</t>
+    <t xml:space="preserve">0.455051213502884</t>
   </si>
   <si>
     <t xml:space="preserve">0.430230230093002</t>
@@ -626,106 +626,106 @@
     <t xml:space="preserve">0.413338154554367</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424024969339371</t>
+    <t xml:space="preserve">0.424025028944016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.517103552818298</t>
+    <t xml:space="preserve">0.517103672027588</t>
   </si>
   <si>
-    <t xml:space="preserve">0.481940537691116</t>
+    <t xml:space="preserve">0.481940627098083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.496419548988342</t>
+    <t xml:space="preserve">0.496419489383698</t>
   </si>
   <si>
-    <t xml:space="preserve">0.475735366344452</t>
+    <t xml:space="preserve">0.47573533654213</t>
   </si>
   <si>
     <t xml:space="preserve">0.480561643838882</t>
   </si>
   <si>
-    <t xml:space="preserve">0.489524722099304</t>
+    <t xml:space="preserve">0.489524811506271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.482630103826523</t>
+    <t xml:space="preserve">0.482630044221878</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463324874639511</t>
+    <t xml:space="preserve">0.463324815034866</t>
   </si>
   <si>
-    <t xml:space="preserve">0.466082751750946</t>
+    <t xml:space="preserve">0.466082811355591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461945980787277</t>
+    <t xml:space="preserve">0.461945950984955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.449535369873047</t>
+    <t xml:space="preserve">0.449535399675369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.445398658514023</t>
+    <t xml:space="preserve">0.445398598909378</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448156476020813</t>
+    <t xml:space="preserve">0.448156505823135</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453672289848328</t>
+    <t xml:space="preserve">0.453672230243683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.441261768341064</t>
+    <t xml:space="preserve">0.441261798143387</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474356412887573</t>
+    <t xml:space="preserve">0.474356383085251</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457809031009674</t>
+    <t xml:space="preserve">0.457809090614319</t>
   </si>
   <si>
-    <t xml:space="preserve">0.507451117038727</t>
+    <t xml:space="preserve">0.507451057434082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.468840628862381</t>
+    <t xml:space="preserve">0.468840658664703</t>
   </si>
   <si>
-    <t xml:space="preserve">0.438503921031952</t>
+    <t xml:space="preserve">0.438503861427307</t>
   </si>
   <si>
-    <t xml:space="preserve">0.459187984466553</t>
+    <t xml:space="preserve">0.459188014268875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46470382809639</t>
+    <t xml:space="preserve">0.464703857898712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45091438293457</t>
+    <t xml:space="preserve">0.450914353132248</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437125027179718</t>
+    <t xml:space="preserve">0.437124997377396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444019705057144</t>
+    <t xml:space="preserve">0.444019615650177</t>
   </si>
   <si>
     <t xml:space="preserve">0.41919869184494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.420577704906464</t>
+    <t xml:space="preserve">0.420577645301819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.426093399524689</t>
+    <t xml:space="preserve">0.426093369722366</t>
   </si>
   <si>
     <t xml:space="preserve">0.442640721797943</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47297739982605</t>
+    <t xml:space="preserve">0.472977459430695</t>
   </si>
   <si>
-    <t xml:space="preserve">0.460567027330399</t>
+    <t xml:space="preserve">0.460566967725754</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446777552366257</t>
+    <t xml:space="preserve">0.446777492761612</t>
   </si>
   <si>
-    <t xml:space="preserve">0.432988107204437</t>
+    <t xml:space="preserve">0.432988166809082</t>
   </si>
   <si>
     <t xml:space="preserve">0.452293336391449</t>
@@ -734,34 +734,34 @@
     <t xml:space="preserve">0.439882844686508</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45643013715744</t>
+    <t xml:space="preserve">0.456430166959763</t>
   </si>
   <si>
     <t xml:space="preserve">0.397135585546494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.401272416114807</t>
+    <t xml:space="preserve">0.401272475719452</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398514568805695</t>
+    <t xml:space="preserve">0.398514539003372</t>
   </si>
   <si>
     <t xml:space="preserve">0.373693555593491</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36128306388855</t>
+    <t xml:space="preserve">0.361283093690872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394377708435059</t>
+    <t xml:space="preserve">0.394377738237381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391619831323624</t>
+    <t xml:space="preserve">0.391619861125946</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377830386161804</t>
+    <t xml:space="preserve">0.377830445766449</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369556725025177</t>
+    <t xml:space="preserve">0.369556754827499</t>
   </si>
   <si>
     <t xml:space="preserve">0.370935648679733</t>
@@ -770,124 +770,127 @@
     <t xml:space="preserve">0.379209339618683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408167123794556</t>
+    <t xml:space="preserve">0.408167153596878</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423335552215576</t>
+    <t xml:space="preserve">0.423335522413254</t>
   </si>
   <si>
     <t xml:space="preserve">0.38748300075531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395756661891937</t>
+    <t xml:space="preserve">0.39575669169426</t>
   </si>
   <si>
     <t xml:space="preserve">0.415061891078949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412303984165192</t>
+    <t xml:space="preserve">0.412303954362869</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409546077251434</t>
+    <t xml:space="preserve">0.409546047449112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421956598758698</t>
+    <t xml:space="preserve">0.421956568956375</t>
   </si>
   <si>
     <t xml:space="preserve">0.428851306438446</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431609213352203</t>
+    <t xml:space="preserve">0.431609153747559</t>
   </si>
   <si>
     <t xml:space="preserve">0.465393275022507</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4722880423069</t>
+    <t xml:space="preserve">0.472287952899933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.492972075939178</t>
+    <t xml:space="preserve">0.492972105741501</t>
   </si>
   <si>
-    <t xml:space="preserve">0.499866902828217</t>
+    <t xml:space="preserve">0.499866932630539</t>
   </si>
   <si>
     <t xml:space="preserve">0.508923470973969</t>
   </si>
   <si>
-    <t xml:space="preserve">0.486135870218277</t>
+    <t xml:space="preserve">0.486135840415955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.470944076776505</t>
+    <t xml:space="preserve">0.470944106578827</t>
   </si>
   <si>
-    <t xml:space="preserve">0.455752372741699</t>
+    <t xml:space="preserve">0.455752402544022</t>
   </si>
   <si>
     <t xml:space="preserve">0.467146158218384</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478539973497391</t>
+    <t xml:space="preserve">0.478540003299713</t>
   </si>
   <si>
     <t xml:space="preserve">0.482337921857834</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47474205493927</t>
+    <t xml:space="preserve">0.474741965532303</t>
   </si>
   <si>
-    <t xml:space="preserve">0.459550321102142</t>
+    <t xml:space="preserve">0.459550261497498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440560609102249</t>
+    <t xml:space="preserve">0.448156446218491</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451954394578934</t>
+    <t xml:space="preserve">0.440560579299927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.425368875265121</t>
+    <t xml:space="preserve">0.451954483985901</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429166793823242</t>
+    <t xml:space="preserve">0.425368905067444</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444358497858047</t>
+    <t xml:space="preserve">0.429166823625565</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463348239660263</t>
+    <t xml:space="preserve">0.44435852766037</t>
   </si>
   <si>
-    <t xml:space="preserve">0.489933788776398</t>
+    <t xml:space="preserve">0.463348180055618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.577286303043365</t>
+    <t xml:space="preserve">0.489933758974075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.57728636264801</t>
   </si>
   <si>
     <t xml:space="preserve">0.493731737136841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.501327633857727</t>
+    <t xml:space="preserve">0.501327574253082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497529715299606</t>
+    <t xml:space="preserve">0.497529596090317</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436762660741806</t>
+    <t xml:space="preserve">0.436762690544128</t>
   </si>
   <si>
-    <t xml:space="preserve">0.432964742183685</t>
+    <t xml:space="preserve">0.432964712381363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417772978544235</t>
+    <t xml:space="preserve">0.417773008346558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410177111625671</t>
+    <t xml:space="preserve">0.410177171230316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394985347986221</t>
+    <t xml:space="preserve">0.394985377788544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406379193067551</t>
+    <t xml:space="preserve">0.406379252672195</t>
   </si>
   <si>
     <t xml:space="preserve">0.421570956707001</t>
@@ -896,7 +899,7 @@
     <t xml:space="preserve">0.402581244707108</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373716980218887</t>
+    <t xml:space="preserve">0.373716950416565</t>
   </si>
   <si>
     <t xml:space="preserve">0.372197777032852</t>
@@ -905,49 +908,46 @@
     <t xml:space="preserve">0.38738951086998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379793614149094</t>
+    <t xml:space="preserve">0.379793643951416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364601880311966</t>
+    <t xml:space="preserve">0.364601850509644</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341814249753952</t>
+    <t xml:space="preserve">0.341814279556274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3448526263237</t>
+    <t xml:space="preserve">0.344852656126022</t>
   </si>
   <si>
     <t xml:space="preserve">0.31902664899826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.284085661172867</t>
+    <t xml:space="preserve">0.284085631370544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.305354088544846</t>
+    <t xml:space="preserve">0.305354118347168</t>
   </si>
   <si>
-    <t xml:space="preserve">0.288643151521683</t>
+    <t xml:space="preserve">0.288643181324005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.299277424812317</t>
+    <t xml:space="preserve">0.299277395009995</t>
   </si>
   <si>
-    <t xml:space="preserve">0.287124007940292</t>
+    <t xml:space="preserve">0.28712397813797</t>
   </si>
   <si>
-    <t xml:space="preserve">0.268893897533417</t>
+    <t xml:space="preserve">0.273451417684555</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273451387882233</t>
+    <t xml:space="preserve">0.267374724149704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.267374694347382</t>
+    <t xml:space="preserve">0.312949955463409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312949985265732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.314469128847122</t>
+    <t xml:space="preserve">0.314469158649445</t>
   </si>
   <si>
     <t xml:space="preserve">0.297758221626282</t>
@@ -971,70 +971,70 @@
     <t xml:space="preserve">0.370678603649139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357006013393402</t>
+    <t xml:space="preserve">0.357006043195724</t>
   </si>
   <si>
     <t xml:space="preserve">0.350929319858551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37675529718399</t>
+    <t xml:space="preserve">0.376755267381668</t>
   </si>
   <si>
     <t xml:space="preserve">0.398783296346664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413975059986115</t>
+    <t xml:space="preserve">0.413975089788437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360044360160828</t>
+    <t xml:space="preserve">0.36004438996315</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363082706928253</t>
+    <t xml:space="preserve">0.363082736730576</t>
   </si>
   <si>
     <t xml:space="preserve">0.369159430265427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383591562509537</t>
+    <t xml:space="preserve">0.383591592311859</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378274470567703</t>
+    <t xml:space="preserve">0.378274500370026</t>
   </si>
   <si>
     <t xml:space="preserve">0.353967666625977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355486840009689</t>
+    <t xml:space="preserve">0.355486810207367</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352448493242264</t>
+    <t xml:space="preserve">0.352448523044586</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349410146474838</t>
+    <t xml:space="preserve">0.349410176277161</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335737556219101</t>
+    <t xml:space="preserve">0.335737586021423</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347890943288803</t>
+    <t xml:space="preserve">0.347891002893448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.334218382835388</t>
+    <t xml:space="preserve">0.334218412637711</t>
   </si>
   <si>
-    <t xml:space="preserve">0.326622515916824</t>
+    <t xml:space="preserve">0.326622545719147</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311430782079697</t>
+    <t xml:space="preserve">0.311430811882019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.315988332033157</t>
+    <t xml:space="preserve">0.315988302230835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.290162354707718</t>
+    <t xml:space="preserve">0.290162324905396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.293200701475143</t>
+    <t xml:space="preserve">0.293200671672821</t>
   </si>
   <si>
     <t xml:space="preserve">0.285604804754257</t>
@@ -1046,25 +1046,25 @@
     <t xml:space="preserve">0.296239048242569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.30383488535881</t>
+    <t xml:space="preserve">0.303834915161133</t>
   </si>
   <si>
-    <t xml:space="preserve">0.320545852184296</t>
+    <t xml:space="preserve">0.320545822381973</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325103372335434</t>
+    <t xml:space="preserve">0.325103342533112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317507475614548</t>
+    <t xml:space="preserve">0.31750750541687</t>
   </si>
   <si>
-    <t xml:space="preserve">0.471467941999435</t>
+    <t xml:space="preserve">0.471467912197113</t>
   </si>
   <si>
     <t xml:space="preserve">0.438382476568222</t>
   </si>
   <si>
-    <t xml:space="preserve">0.425975412130356</t>
+    <t xml:space="preserve">0.425975441932678</t>
   </si>
   <si>
     <t xml:space="preserve">0.413568377494812</t>
@@ -1073,7 +1073,7 @@
     <t xml:space="preserve">0.397025614976883</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405297011137009</t>
+    <t xml:space="preserve">0.405297040939331</t>
   </si>
   <si>
     <t xml:space="preserve">0.398679941892624</t>
@@ -1088,7 +1088,7 @@
     <t xml:space="preserve">0.400334179401398</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383791446685791</t>
+    <t xml:space="preserve">0.383791476488113</t>
   </si>
   <si>
     <t xml:space="preserve">0.377174347639084</t>
@@ -1103,52 +1103,52 @@
     <t xml:space="preserve">0.387099981307983</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380482912063599</t>
+    <t xml:space="preserve">0.380482941865921</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38544574379921</t>
+    <t xml:space="preserve">0.385445713996887</t>
   </si>
   <si>
     <t xml:space="preserve">0.368902981281281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367248713970184</t>
+    <t xml:space="preserve">0.367248743772507</t>
   </si>
   <si>
     <t xml:space="preserve">0.382137179374695</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479739308357239</t>
+    <t xml:space="preserve">0.479739278554916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450789541006088</t>
+    <t xml:space="preserve">0.450789570808411</t>
   </si>
   <si>
     <t xml:space="preserve">0.49628210067749</t>
   </si>
   <si>
-    <t xml:space="preserve">0.488010704517365</t>
+    <t xml:space="preserve">0.48801064491272</t>
   </si>
   <si>
     <t xml:space="preserve">0.483874976634979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454925209283829</t>
+    <t xml:space="preserve">0.454925239086151</t>
   </si>
   <si>
-    <t xml:space="preserve">0.442518204450607</t>
+    <t xml:space="preserve">0.44251823425293</t>
   </si>
   <si>
     <t xml:space="preserve">0.430111110210419</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421839773654938</t>
+    <t xml:space="preserve">0.421839743852615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434246808290482</t>
+    <t xml:space="preserve">0.434246778488159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446653842926025</t>
+    <t xml:space="preserve">0.44665390253067</t>
   </si>
   <si>
     <t xml:space="preserve">0.408605575561523</t>
@@ -1160,7 +1160,7 @@
     <t xml:space="preserve">0.388754308223724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378828644752502</t>
+    <t xml:space="preserve">0.378828674554825</t>
   </si>
   <si>
     <t xml:space="preserve">0.373865813016891</t>
@@ -1175,7 +1175,7 @@
     <t xml:space="preserve">0.403642743825912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.393717110157013</t>
+    <t xml:space="preserve">0.393717080354691</t>
   </si>
   <si>
     <t xml:space="preserve">0.347397446632385</t>
@@ -1184,10 +1184,10 @@
     <t xml:space="preserve">0.329200446605682</t>
   </si>
   <si>
-    <t xml:space="preserve">0.330854684114456</t>
+    <t xml:space="preserve">0.330854713916779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349051743745804</t>
+    <t xml:space="preserve">0.349051713943481</t>
   </si>
   <si>
     <t xml:space="preserve">0.3507060110569</t>
@@ -1196,13 +1196,13 @@
     <t xml:space="preserve">0.355668842792511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358977377414703</t>
+    <t xml:space="preserve">0.358977347612381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362285912036896</t>
+    <t xml:space="preserve">0.362285882234573</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36394014954567</t>
+    <t xml:space="preserve">0.363940179347992</t>
   </si>
   <si>
     <t xml:space="preserve">0.370557278394699</t>
@@ -1211,19 +1211,19 @@
     <t xml:space="preserve">0.360631614923477</t>
   </si>
   <si>
-    <t xml:space="preserve">0.339126080274582</t>
+    <t xml:space="preserve">0.339126110076904</t>
   </si>
   <si>
     <t xml:space="preserve">0.337471783161163</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332508981227875</t>
+    <t xml:space="preserve">0.332509011030197</t>
   </si>
   <si>
     <t xml:space="preserve">0.34408888220787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354014545679092</t>
+    <t xml:space="preserve">0.35401451587677</t>
   </si>
   <si>
     <t xml:space="preserve">0.348381489515305</t>
@@ -25921,7 +25921,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G926" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -25947,7 +25947,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G927" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -25973,7 +25973,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G928" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -25999,7 +25999,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G929" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -26025,7 +26025,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G930" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -26051,7 +26051,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G931" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -26077,7 +26077,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G932" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -26103,7 +26103,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G933" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -26129,7 +26129,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G934" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -26155,7 +26155,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G935" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -26181,7 +26181,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G936" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -26207,7 +26207,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G937" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -26233,7 +26233,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G938" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -26259,7 +26259,7 @@
         <v>0.564999997615814</v>
       </c>
       <c r="G939" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -26285,7 +26285,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G940" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -26311,7 +26311,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G941" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -26363,7 +26363,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G943" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -26389,7 +26389,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G944" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -26415,7 +26415,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G945" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -26441,7 +26441,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G946" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -26467,7 +26467,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G947" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -26493,7 +26493,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G948" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -26519,7 +26519,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G949" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -26545,7 +26545,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G950" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -26571,7 +26571,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G951" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -26597,7 +26597,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G952" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -26623,7 +26623,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G953" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -26649,7 +26649,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G954" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -26675,7 +26675,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G955" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -26701,7 +26701,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G956" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -26727,7 +26727,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G957" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -26753,7 +26753,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G958" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -26779,7 +26779,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G959" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -26805,7 +26805,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G960" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -26831,7 +26831,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G961" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -26909,7 +26909,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G964" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -26987,7 +26987,7 @@
         <v>0.644999980926514</v>
       </c>
       <c r="G967" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -27013,7 +27013,7 @@
         <v>0.759999990463257</v>
       </c>
       <c r="G968" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -27065,7 +27065,7 @@
         <v>0.649999976158142</v>
       </c>
       <c r="G970" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -27091,7 +27091,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G971" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -27117,7 +27117,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G972" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -27143,7 +27143,7 @@
         <v>0.654999971389771</v>
       </c>
       <c r="G973" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -27299,7 +27299,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G979" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -27325,7 +27325,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G980" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -27351,7 +27351,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G981" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -27429,7 +27429,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G984" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -27455,7 +27455,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G985" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -27871,7 +27871,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1001" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -27897,7 +27897,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1002" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -27923,7 +27923,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1003" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -27949,7 +27949,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1004" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -27975,7 +27975,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1005" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -28001,7 +28001,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1006" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -28027,7 +28027,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1007" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -28053,7 +28053,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1008" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -28079,7 +28079,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1009" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -28131,7 +28131,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1011" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -28157,7 +28157,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1012" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -28183,7 +28183,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1013" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -28209,7 +28209,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1014" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -28235,7 +28235,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1015" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -28261,7 +28261,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1016" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -28287,7 +28287,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1017" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -28313,7 +28313,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1018" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -28339,7 +28339,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1019" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -28365,7 +28365,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1020" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -28391,7 +28391,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1021" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -28469,7 +28469,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1024" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -28495,7 +28495,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1025" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -28521,7 +28521,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1026" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -28547,7 +28547,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1027" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -28573,7 +28573,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1028" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -28599,7 +28599,7 @@
         <v>0.564999997615814</v>
       </c>
       <c r="G1029" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -28625,7 +28625,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1030" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -28651,7 +28651,7 @@
         <v>0.550000011920929</v>
       </c>
       <c r="G1031" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -28677,7 +28677,7 @@
         <v>0.550000011920929</v>
       </c>
       <c r="G1032" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -28703,7 +28703,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1033" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -28729,7 +28729,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1034" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -28755,7 +28755,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1035" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -28781,7 +28781,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1036" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -28807,7 +28807,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1037" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -28833,7 +28833,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1038" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -28859,7 +28859,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G1039" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -28885,7 +28885,7 @@
         <v>0.555000007152557</v>
       </c>
       <c r="G1040" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -28911,7 +28911,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1041" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -28937,7 +28937,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1042" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -28963,7 +28963,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1043" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -28989,7 +28989,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1044" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -29093,7 +29093,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1048" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -29145,7 +29145,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1050" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -29223,7 +29223,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1053" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -29249,7 +29249,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1054" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -29275,7 +29275,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1055" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -29301,7 +29301,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1056" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -29327,7 +29327,7 @@
         <v>0.492000013589859</v>
       </c>
       <c r="G1057" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -29353,7 +29353,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1058" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -29379,7 +29379,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1059" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -29405,7 +29405,7 @@
         <v>0.5</v>
       </c>
       <c r="G1060" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -29431,7 +29431,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1061" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -29457,7 +29457,7 @@
         <v>0.5</v>
       </c>
       <c r="G1062" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -29483,7 +29483,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1063" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -29509,7 +29509,7 @@
         <v>0.453999996185303</v>
       </c>
       <c r="G1064" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -29535,7 +29535,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1065" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -29561,7 +29561,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G1066" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -29587,7 +29587,7 @@
         <v>0.40200001001358</v>
       </c>
       <c r="G1067" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -29613,7 +29613,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1068" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -29639,7 +29639,7 @@
         <v>0.393999993801117</v>
       </c>
       <c r="G1069" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -29665,7 +29665,7 @@
         <v>0.377999991178513</v>
       </c>
       <c r="G1070" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -29691,7 +29691,7 @@
         <v>0.354000002145767</v>
       </c>
       <c r="G1071" t="s">
-        <v>307</v>
+        <v>109</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -29873,7 +29873,7 @@
         <v>0.40200001001358</v>
       </c>
       <c r="G1078" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -30003,7 +30003,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1083" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -30029,7 +30029,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1084" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -30055,7 +30055,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1085" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -30107,7 +30107,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1087" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -30133,7 +30133,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1088" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -30211,7 +30211,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1091" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -30601,7 +30601,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1106" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -30627,7 +30627,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1107" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -30731,7 +30731,7 @@
         <v>0.5</v>
       </c>
       <c r="G1111" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -30783,7 +30783,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1113" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -30809,7 +30809,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1114" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -30835,7 +30835,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1115" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -30939,7 +30939,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1119" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -30965,7 +30965,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1120" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -30991,7 +30991,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1121" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -31043,7 +31043,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1123" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -31069,7 +31069,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1124" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -31095,7 +31095,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1125" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -31121,7 +31121,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1126" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -31147,7 +31147,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G1127" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -31173,7 +31173,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1128" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -31199,7 +31199,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1129" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -31225,7 +31225,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1130" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -31251,7 +31251,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1131" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -31277,7 +31277,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1132" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -31303,7 +31303,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1133" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -31329,7 +31329,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1134" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -31355,7 +31355,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1135" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -31381,7 +31381,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1136" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -31407,7 +31407,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1137" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -31433,7 +31433,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1138" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -31459,7 +31459,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1139" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -31485,7 +31485,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1140" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -31511,7 +31511,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1141" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -31537,7 +31537,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1142" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -31563,7 +31563,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1143" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -31589,7 +31589,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1144" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -31615,7 +31615,7 @@
         <v>0.5</v>
       </c>
       <c r="G1145" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -31641,7 +31641,7 @@
         <v>0.5</v>
       </c>
       <c r="G1146" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -31667,7 +31667,7 @@
         <v>0.5</v>
       </c>
       <c r="G1147" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -31693,7 +31693,7 @@
         <v>0.5</v>
       </c>
       <c r="G1148" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -31719,7 +31719,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1149" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -31771,7 +31771,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1151" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -31797,7 +31797,7 @@
         <v>0.5</v>
       </c>
       <c r="G1152" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -31823,7 +31823,7 @@
         <v>0.5</v>
       </c>
       <c r="G1153" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -31875,7 +31875,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1155" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -32057,7 +32057,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1162" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32083,7 +32083,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1163" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -32109,7 +32109,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1164" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -32135,7 +32135,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1165" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -32473,7 +32473,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1178" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -32967,7 +32967,7 @@
         <v>0.453999996185303</v>
       </c>
       <c r="G1197" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -34007,7 +34007,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1237" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -34215,7 +34215,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G1245" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -34241,7 +34241,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G1246" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -34735,7 +34735,7 @@
         <v>0.379999995231628</v>
       </c>
       <c r="G1265" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -35385,7 +35385,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1290" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -35411,7 +35411,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1291" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -35463,7 +35463,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1293" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -35489,7 +35489,7 @@
         <v>0.5</v>
       </c>
       <c r="G1294" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -35515,7 +35515,7 @@
         <v>0.550000011920929</v>
       </c>
       <c r="G1295" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -35541,7 +35541,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1296" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -35593,7 +35593,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1298" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -35619,7 +35619,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1299" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -35645,7 +35645,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1300" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -35697,7 +35697,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1302" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -35723,7 +35723,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1303" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -35749,7 +35749,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1304" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -35775,7 +35775,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1305" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -35801,7 +35801,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1306" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -35827,7 +35827,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1307" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -35853,7 +35853,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1308" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -35879,7 +35879,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1309" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -35905,7 +35905,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1310" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -59984,6 +59984,58 @@
         <v>497</v>
       </c>
       <c r="H2236" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2237">
+      <c r="A2237" s="1" t="n">
+        <v>45579.2916666667</v>
+      </c>
+      <c r="B2237" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2237" t="n">
+        <v>0.337999999523163</v>
+      </c>
+      <c r="D2237" t="n">
+        <v>0.337999999523163</v>
+      </c>
+      <c r="E2237" t="n">
+        <v>0.337999999523163</v>
+      </c>
+      <c r="F2237" t="n">
+        <v>0.337999999523163</v>
+      </c>
+      <c r="G2237" t="s">
+        <v>497</v>
+      </c>
+      <c r="H2237" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2238">
+      <c r="A2238" s="1" t="n">
+        <v>45580.3740509259</v>
+      </c>
+      <c r="B2238" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C2238" t="n">
+        <v>0.337999999523163</v>
+      </c>
+      <c r="D2238" t="n">
+        <v>0.337999999523163</v>
+      </c>
+      <c r="E2238" t="n">
+        <v>0.337999999523163</v>
+      </c>
+      <c r="F2238" t="n">
+        <v>0.337999999523163</v>
+      </c>
+      <c r="G2238" t="s">
+        <v>497</v>
+      </c>
+      <c r="H2238" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/POPR.MI.xlsx
+++ b/data/POPR.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="503">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193052008748055</t>
+    <t xml:space="preserve">0.193052023649216</t>
   </si>
   <si>
     <t xml:space="preserve">POPR.MI</t>
@@ -50,13 +50,13 @@
     <t xml:space="preserve">0.189604669809341</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188225716352463</t>
+    <t xml:space="preserve">0.188225746154785</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179952099919319</t>
+    <t xml:space="preserve">0.179952085018158</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186157330870628</t>
+    <t xml:space="preserve">0.186157315969467</t>
   </si>
   <si>
     <t xml:space="preserve">0.163404762744904</t>
@@ -71,10 +71,10 @@
     <t xml:space="preserve">0.159267917275429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167541593313217</t>
+    <t xml:space="preserve">0.167541578412056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168231040239334</t>
+    <t xml:space="preserve">0.168231055140495</t>
   </si>
   <si>
     <t xml:space="preserve">0.165404215455055</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">0.160646855831146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153407424688339</t>
+    <t xml:space="preserve">0.153407409787178</t>
   </si>
   <si>
     <t xml:space="preserve">0.15306268632412</t>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">0.15237320959568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165748968720436</t>
+    <t xml:space="preserve">0.165748953819275</t>
   </si>
   <si>
     <t xml:space="preserve">0.186846777796745</t>
@@ -107,49 +107,49 @@
     <t xml:space="preserve">0.182985737919807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179262563586235</t>
+    <t xml:space="preserve">0.179262578487396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17236790060997</t>
+    <t xml:space="preserve">0.172367870807648</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169609993696213</t>
+    <t xml:space="preserve">0.169610008597374</t>
   </si>
   <si>
     <t xml:space="preserve">0.164094224572182</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17078210413456</t>
+    <t xml:space="preserve">0.170782089233398</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176504701375961</t>
+    <t xml:space="preserve">0.176504731178284</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174367353320122</t>
+    <t xml:space="preserve">0.174367338418961</t>
   </si>
   <si>
     <t xml:space="preserve">0.194499924778938</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194430992007256</t>
+    <t xml:space="preserve">0.194430977106094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187536284327507</t>
+    <t xml:space="preserve">0.187536269426346</t>
   </si>
   <si>
     <t xml:space="preserve">0.182020470499992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206841453909874</t>
+    <t xml:space="preserve">0.206841468811035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211323022842407</t>
+    <t xml:space="preserve">0.211323007941246</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210288807749748</t>
+    <t xml:space="preserve">0.210288852453232</t>
   </si>
   <si>
-    <t xml:space="preserve">0.202015161514282</t>
+    <t xml:space="preserve">0.202015176415443</t>
   </si>
   <si>
     <t xml:space="preserve">0.199257284402847</t>
@@ -158,25 +158,25 @@
     <t xml:space="preserve">0.220630884170532</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228904530405998</t>
+    <t xml:space="preserve">0.228904545307159</t>
   </si>
   <si>
     <t xml:space="preserve">0.220561951398849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21580459177494</t>
+    <t xml:space="preserve">0.215804576873779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.213046699762344</t>
+    <t xml:space="preserve">0.213046684861183</t>
   </si>
   <si>
-    <t xml:space="preserve">0.196499407291412</t>
+    <t xml:space="preserve">0.196499392390251</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199946761131287</t>
+    <t xml:space="preserve">0.199946746230125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186295196413994</t>
+    <t xml:space="preserve">0.186295211315155</t>
   </si>
   <si>
     <t xml:space="preserve">0.18477837741375</t>
@@ -188,34 +188,34 @@
     <t xml:space="preserve">0.166300535202026</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182709962129593</t>
+    <t xml:space="preserve">0.182709947228432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172298938035965</t>
+    <t xml:space="preserve">0.172298923134804</t>
   </si>
   <si>
     <t xml:space="preserve">0.166852101683617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168920546770096</t>
+    <t xml:space="preserve">0.168920531868935</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172919481992722</t>
+    <t xml:space="preserve">0.17291946709156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.204083576798439</t>
+    <t xml:space="preserve">0.204083561897278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206151977181435</t>
+    <t xml:space="preserve">0.206151992082596</t>
   </si>
   <si>
-    <t xml:space="preserve">0.201325669884682</t>
+    <t xml:space="preserve">0.201325684785843</t>
   </si>
   <si>
-    <t xml:space="preserve">0.19932621717453</t>
+    <t xml:space="preserve">0.199326202273369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183399438858032</t>
+    <t xml:space="preserve">0.183399423956871</t>
   </si>
   <si>
     <t xml:space="preserve">0.175815239548683</t>
@@ -224,13 +224,13 @@
     <t xml:space="preserve">0.161336347460747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166162639856339</t>
+    <t xml:space="preserve">0.166162624955177</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162715286016464</t>
+    <t xml:space="preserve">0.162715271115303</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158578455448151</t>
+    <t xml:space="preserve">0.158578440546989</t>
   </si>
   <si>
     <t xml:space="preserve">0.173746824264526</t>
@@ -245,28 +245,28 @@
     <t xml:space="preserve">0.188915193080902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.200291469693184</t>
+    <t xml:space="preserve">0.200291454792023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219941407442093</t>
+    <t xml:space="preserve">0.219941392540932</t>
   </si>
   <si>
     <t xml:space="preserve">0.212357237935066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195396244525909</t>
+    <t xml:space="preserve">0.195396229624748</t>
   </si>
   <si>
     <t xml:space="preserve">0.20925460755825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220493003726006</t>
+    <t xml:space="preserve">0.220492959022522</t>
   </si>
   <si>
     <t xml:space="preserve">0.213736176490784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210357740521431</t>
+    <t xml:space="preserve">0.210357755422592</t>
   </si>
   <si>
     <t xml:space="preserve">0.219251930713654</t>
@@ -275,19 +275,19 @@
     <t xml:space="preserve">0.233730852603912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237798720598221</t>
+    <t xml:space="preserve">0.23779870569706</t>
   </si>
   <si>
     <t xml:space="preserve">0.255104452371597</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261309683322906</t>
+    <t xml:space="preserve">0.261309713125229</t>
   </si>
   <si>
     <t xml:space="preserve">0.275788635015488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.293025434017181</t>
+    <t xml:space="preserve">0.293025404214859</t>
   </si>
   <si>
     <t xml:space="preserve">0.301988512277603</t>
@@ -299,157 +299,157 @@
     <t xml:space="preserve">0.327498972415924</t>
   </si>
   <si>
-    <t xml:space="preserve">0.282683372497559</t>
+    <t xml:space="preserve">0.282683342695236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.285372257232666</t>
+    <t xml:space="preserve">0.285372227430344</t>
   </si>
   <si>
     <t xml:space="preserve">0.274478584527969</t>
   </si>
   <si>
-    <t xml:space="preserve">0.274409651756287</t>
+    <t xml:space="preserve">0.274409681558609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.266342848539352</t>
+    <t xml:space="preserve">0.266342878341675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.266825497150421</t>
+    <t xml:space="preserve">0.266825437545776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.266963362693787</t>
+    <t xml:space="preserve">0.266963392496109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.251657128334045</t>
+    <t xml:space="preserve">0.251657098531723</t>
   </si>
   <si>
     <t xml:space="preserve">0.256483405828476</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230972975492477</t>
+    <t xml:space="preserve">0.230972960591316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226973995566368</t>
+    <t xml:space="preserve">0.22697402536869</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232351914048195</t>
+    <t xml:space="preserve">0.232351928949356</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228973537683487</t>
+    <t xml:space="preserve">0.228973463177681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.26062023639679</t>
+    <t xml:space="preserve">0.260620266199112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.268893867731094</t>
+    <t xml:space="preserve">0.268893897533417</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253173917531967</t>
+    <t xml:space="preserve">0.25317394733429</t>
   </si>
   <si>
     <t xml:space="preserve">0.249588698148727</t>
   </si>
   <si>
-    <t xml:space="preserve">0.258551806211472</t>
+    <t xml:space="preserve">0.258551776409149</t>
   </si>
   <si>
-    <t xml:space="preserve">0.24820975959301</t>
+    <t xml:space="preserve">0.248209729790688</t>
   </si>
   <si>
     <t xml:space="preserve">0.244762375950813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237867698073387</t>
+    <t xml:space="preserve">0.237867683172226</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243935003876686</t>
+    <t xml:space="preserve">0.243935018777847</t>
   </si>
   <si>
     <t xml:space="preserve">0.233799800276756</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220699861645699</t>
+    <t xml:space="preserve">0.220699846744537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.224078238010406</t>
+    <t xml:space="preserve">0.224078267812729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226836115121841</t>
+    <t xml:space="preserve">0.226836144924164</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226146668195724</t>
+    <t xml:space="preserve">0.226146683096886</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227525651454926</t>
+    <t xml:space="preserve">0.227525591850281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229042455554008</t>
+    <t xml:space="preserve">0.229042440652847</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232489809393883</t>
+    <t xml:space="preserve">0.23248977959156</t>
   </si>
   <si>
     <t xml:space="preserve">0.247520267963409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241177141666412</t>
+    <t xml:space="preserve">0.241177126765251</t>
   </si>
   <si>
-    <t xml:space="preserve">0.242211326956749</t>
+    <t xml:space="preserve">0.242211356759071</t>
   </si>
   <si>
     <t xml:space="preserve">0.251726090908051</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25710391998291</t>
+    <t xml:space="preserve">0.257103949785233</t>
   </si>
   <si>
-    <t xml:space="preserve">0.24627922475338</t>
+    <t xml:space="preserve">0.246279194951057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241315007209778</t>
+    <t xml:space="preserve">0.241315022110939</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241039231419563</t>
+    <t xml:space="preserve">0.241039246320724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237936601042747</t>
+    <t xml:space="preserve">0.237936645746231</t>
   </si>
   <si>
     <t xml:space="preserve">0.253725558519363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238074526190758</t>
+    <t xml:space="preserve">0.238074511289597</t>
   </si>
   <si>
     <t xml:space="preserve">0.244969248771667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325982123613358</t>
+    <t xml:space="preserve">0.325982093811035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386104017496109</t>
+    <t xml:space="preserve">0.386104047298431</t>
   </si>
   <si>
     <t xml:space="preserve">0.510208904743195</t>
   </si>
   <si>
-    <t xml:space="preserve">0.598461270332336</t>
+    <t xml:space="preserve">0.598461329936981</t>
   </si>
   <si>
-    <t xml:space="preserve">0.523308873176575</t>
+    <t xml:space="preserve">0.523308932781219</t>
   </si>
   <si>
     <t xml:space="preserve">0.479182720184326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.462980091571808</t>
+    <t xml:space="preserve">0.462980180978775</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434367090463638</t>
+    <t xml:space="preserve">0.434367060661316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.399893522262573</t>
+    <t xml:space="preserve">0.399893492460251</t>
   </si>
   <si>
     <t xml:space="preserve">0.454361706972122</t>
@@ -458,43 +458,43 @@
     <t xml:space="preserve">0.402996152639389</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410235613584518</t>
+    <t xml:space="preserve">0.410235583782196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379898875951767</t>
+    <t xml:space="preserve">0.3798987865448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357491016387939</t>
+    <t xml:space="preserve">0.357490956783295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34542527794838</t>
+    <t xml:space="preserve">0.345425248146057</t>
   </si>
   <si>
     <t xml:space="preserve">0.358180463314056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366798877716064</t>
+    <t xml:space="preserve">0.366798847913742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353009402751923</t>
+    <t xml:space="preserve">0.353009462356567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382656693458557</t>
+    <t xml:space="preserve">0.382656663656235</t>
   </si>
   <si>
     <t xml:space="preserve">0.374383062124252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35852512717247</t>
+    <t xml:space="preserve">0.358525156974792</t>
   </si>
   <si>
     <t xml:space="preserve">0.34921732544899</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352319955825806</t>
+    <t xml:space="preserve">0.352319926023483</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365419924259186</t>
+    <t xml:space="preserve">0.365419894456863</t>
   </si>
   <si>
     <t xml:space="preserve">0.361972570419312</t>
@@ -503,19 +503,19 @@
     <t xml:space="preserve">0.348183125257492</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35576730966568</t>
+    <t xml:space="preserve">0.355767279863358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34473580121994</t>
+    <t xml:space="preserve">0.344735741615295</t>
   </si>
   <si>
     <t xml:space="preserve">0.34197786450386</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367143630981445</t>
+    <t xml:space="preserve">0.367143601179123</t>
   </si>
   <si>
-    <t xml:space="preserve">0.348872572183609</t>
+    <t xml:space="preserve">0.348872542381287</t>
   </si>
   <si>
     <t xml:space="preserve">0.347493648529053</t>
@@ -527,16 +527,16 @@
     <t xml:space="preserve">0.354388386011124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359904199838638</t>
+    <t xml:space="preserve">0.359904170036316</t>
   </si>
   <si>
     <t xml:space="preserve">0.330946326255798</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340598940849304</t>
+    <t xml:space="preserve">0.340598911046982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341219455003738</t>
+    <t xml:space="preserve">0.341219425201416</t>
   </si>
   <si>
     <t xml:space="preserve">0.351630479097366</t>
@@ -545,25 +545,25 @@
     <t xml:space="preserve">0.357146263122559</t>
   </si>
   <si>
-    <t xml:space="preserve">0.392998814582825</t>
+    <t xml:space="preserve">0.392998784780502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372314661741257</t>
+    <t xml:space="preserve">0.372314631938934</t>
   </si>
   <si>
     <t xml:space="preserve">0.373004108667374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350251585245132</t>
+    <t xml:space="preserve">0.350251525640488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37059098482132</t>
+    <t xml:space="preserve">0.370590955018997</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345080524682999</t>
+    <t xml:space="preserve">0.345080494880676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359559386968613</t>
+    <t xml:space="preserve">0.359559416770935</t>
   </si>
   <si>
     <t xml:space="preserve">0.427472352981567</t>
@@ -575,172 +575,172 @@
     <t xml:space="preserve">0.404719829559326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40609872341156</t>
+    <t xml:space="preserve">0.406098753213882</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398859232664108</t>
+    <t xml:space="preserve">0.398859262466431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406788200139999</t>
+    <t xml:space="preserve">0.406788170337677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378519892692566</t>
+    <t xml:space="preserve">0.378519922494888</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383690923452377</t>
+    <t xml:space="preserve">0.383690893650055</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388861984014511</t>
+    <t xml:space="preserve">0.388861954212189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402651339769363</t>
+    <t xml:space="preserve">0.402651369571686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.426438093185425</t>
+    <t xml:space="preserve">0.426438122987747</t>
   </si>
   <si>
     <t xml:space="preserve">0.429540812969208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41437241435051</t>
+    <t xml:space="preserve">0.414372384548187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413682907819748</t>
+    <t xml:space="preserve">0.41368293762207</t>
   </si>
   <si>
     <t xml:space="preserve">0.424714475870132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414027631282806</t>
+    <t xml:space="preserve">0.414027661085129</t>
   </si>
   <si>
     <t xml:space="preserve">0.447467029094696</t>
   </si>
   <si>
-    <t xml:space="preserve">0.455051302909851</t>
+    <t xml:space="preserve">0.455051183700562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.430230170488358</t>
+    <t xml:space="preserve">0.43023020029068</t>
   </si>
   <si>
     <t xml:space="preserve">0.413338184356689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424025028944016</t>
+    <t xml:space="preserve">0.424024969339371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.517103612422943</t>
+    <t xml:space="preserve">0.517103552818298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.481940627098083</t>
+    <t xml:space="preserve">0.481940567493439</t>
   </si>
   <si>
-    <t xml:space="preserve">0.49641951918602</t>
+    <t xml:space="preserve">0.496419459581375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.475735396146774</t>
+    <t xml:space="preserve">0.475735366344452</t>
   </si>
   <si>
-    <t xml:space="preserve">0.480561703443527</t>
+    <t xml:space="preserve">0.480561673641205</t>
   </si>
   <si>
     <t xml:space="preserve">0.489524751901627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.482630014419556</t>
+    <t xml:space="preserve">0.482630044221878</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463324844837189</t>
+    <t xml:space="preserve">0.463324815034866</t>
   </si>
   <si>
     <t xml:space="preserve">0.466082751750946</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461945950984955</t>
+    <t xml:space="preserve">0.461945921182632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.449535429477692</t>
+    <t xml:space="preserve">0.449535459280014</t>
   </si>
   <si>
     <t xml:space="preserve">0.445398658514023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448156476020813</t>
+    <t xml:space="preserve">0.448156535625458</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453672230243683</t>
+    <t xml:space="preserve">0.453672289848328</t>
   </si>
   <si>
     <t xml:space="preserve">0.441261768341064</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474356412887573</t>
+    <t xml:space="preserve">0.474356442689896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457809060811996</t>
+    <t xml:space="preserve">0.457809090614319</t>
   </si>
   <si>
     <t xml:space="preserve">0.507451117038727</t>
   </si>
   <si>
-    <t xml:space="preserve">0.468840628862381</t>
+    <t xml:space="preserve">0.468840599060059</t>
   </si>
   <si>
     <t xml:space="preserve">0.438503861427307</t>
   </si>
   <si>
-    <t xml:space="preserve">0.459188044071198</t>
+    <t xml:space="preserve">0.459188014268875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46470382809639</t>
+    <t xml:space="preserve">0.464703857898712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450914412736893</t>
+    <t xml:space="preserve">0.450914353132248</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437124967575073</t>
+    <t xml:space="preserve">0.437124937772751</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444019675254822</t>
+    <t xml:space="preserve">0.444019734859467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41919869184494</t>
+    <t xml:space="preserve">0.419198662042618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.420577615499496</t>
+    <t xml:space="preserve">0.420577704906464</t>
   </si>
   <si>
-    <t xml:space="preserve">0.426093399524689</t>
+    <t xml:space="preserve">0.426093369722366</t>
   </si>
   <si>
-    <t xml:space="preserve">0.442640781402588</t>
+    <t xml:space="preserve">0.442640721797943</t>
   </si>
   <si>
-    <t xml:space="preserve">0.472977370023727</t>
+    <t xml:space="preserve">0.472977429628372</t>
   </si>
   <si>
     <t xml:space="preserve">0.460566967725754</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446777552366257</t>
+    <t xml:space="preserve">0.446777492761612</t>
   </si>
   <si>
-    <t xml:space="preserve">0.432988166809082</t>
+    <t xml:space="preserve">0.43298813700676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452293336391449</t>
+    <t xml:space="preserve">0.452293366193771</t>
   </si>
   <si>
-    <t xml:space="preserve">0.439882814884186</t>
+    <t xml:space="preserve">0.439882785081863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.456430166959763</t>
+    <t xml:space="preserve">0.45643013715744</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397135555744171</t>
+    <t xml:space="preserve">0.397135525941849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.401272416114807</t>
+    <t xml:space="preserve">0.401272475719452</t>
   </si>
   <si>
     <t xml:space="preserve">0.398514568805695</t>
@@ -749,13 +749,13 @@
     <t xml:space="preserve">0.373693555593491</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36128306388855</t>
+    <t xml:space="preserve">0.361283093690872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394377708435059</t>
+    <t xml:space="preserve">0.394377738237381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391619801521301</t>
+    <t xml:space="preserve">0.391619861125946</t>
   </si>
   <si>
     <t xml:space="preserve">0.377830386161804</t>
@@ -770,7 +770,7 @@
     <t xml:space="preserve">0.379209339618683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408167153596878</t>
+    <t xml:space="preserve">0.408167123794556</t>
   </si>
   <si>
     <t xml:space="preserve">0.423335522413254</t>
@@ -785,19 +785,19 @@
     <t xml:space="preserve">0.415061891078949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412303954362869</t>
+    <t xml:space="preserve">0.412303984165192</t>
   </si>
   <si>
     <t xml:space="preserve">0.409546136856079</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421956598758698</t>
+    <t xml:space="preserve">0.421956568956375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.428851246833801</t>
+    <t xml:space="preserve">0.428851276636124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431609183549881</t>
+    <t xml:space="preserve">0.431609153747559</t>
   </si>
   <si>
     <t xml:space="preserve">0.465393275022507</t>
@@ -809,52 +809,52 @@
     <t xml:space="preserve">0.492972135543823</t>
   </si>
   <si>
-    <t xml:space="preserve">0.499866902828217</t>
+    <t xml:space="preserve">0.499866843223572</t>
   </si>
   <si>
-    <t xml:space="preserve">0.508923470973969</t>
+    <t xml:space="preserve">0.508923530578613</t>
   </si>
   <si>
-    <t xml:space="preserve">0.486135870218277</t>
+    <t xml:space="preserve">0.486135840415955</t>
   </si>
   <si>
     <t xml:space="preserve">0.470944166183472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.455752402544022</t>
+    <t xml:space="preserve">0.455752372741699</t>
   </si>
   <si>
-    <t xml:space="preserve">0.467146217823029</t>
+    <t xml:space="preserve">0.467146158218384</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478540003299713</t>
+    <t xml:space="preserve">0.478539943695068</t>
   </si>
   <si>
-    <t xml:space="preserve">0.482337951660156</t>
+    <t xml:space="preserve">0.482337892055511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474742084741592</t>
+    <t xml:space="preserve">0.474742025136948</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45955029129982</t>
+    <t xml:space="preserve">0.459550321102142</t>
   </si>
   <si>
     <t xml:space="preserve">0.440560609102249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451954454183578</t>
+    <t xml:space="preserve">0.451954483985901</t>
   </si>
   <si>
-    <t xml:space="preserve">0.425368845462799</t>
+    <t xml:space="preserve">0.425368905067444</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429166734218597</t>
+    <t xml:space="preserve">0.429166823625565</t>
   </si>
   <si>
     <t xml:space="preserve">0.444358557462692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463348239660263</t>
+    <t xml:space="preserve">0.463348269462585</t>
   </si>
   <si>
     <t xml:space="preserve">0.489933788776398</t>
@@ -863,22 +863,22 @@
     <t xml:space="preserve">0.57728636264801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493731677532196</t>
+    <t xml:space="preserve">0.493731737136841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.501327693462372</t>
+    <t xml:space="preserve">0.501327633857727</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497529625892639</t>
+    <t xml:space="preserve">0.497529685497284</t>
   </si>
   <si>
     <t xml:space="preserve">0.436762690544128</t>
   </si>
   <si>
-    <t xml:space="preserve">0.432964771986008</t>
+    <t xml:space="preserve">0.432964712381363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417773008346558</t>
+    <t xml:space="preserve">0.41777303814888</t>
   </si>
   <si>
     <t xml:space="preserve">0.410177141427994</t>
@@ -893,7 +893,7 @@
     <t xml:space="preserve">0.421570956707001</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402581244707108</t>
+    <t xml:space="preserve">0.40258127450943</t>
   </si>
   <si>
     <t xml:space="preserve">0.373716980218887</t>
@@ -902,10 +902,10 @@
     <t xml:space="preserve">0.372197777032852</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387389481067657</t>
+    <t xml:space="preserve">0.38738951086998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379793614149094</t>
+    <t xml:space="preserve">0.379793643951416</t>
   </si>
   <si>
     <t xml:space="preserve">0.364601880311966</t>
@@ -917,13 +917,13 @@
     <t xml:space="preserve">0.3448526263237</t>
   </si>
   <si>
-    <t xml:space="preserve">0.319026678800583</t>
+    <t xml:space="preserve">0.31902664899826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.284085690975189</t>
+    <t xml:space="preserve">0.284085661172867</t>
   </si>
   <si>
-    <t xml:space="preserve">0.305354058742523</t>
+    <t xml:space="preserve">0.305354118347168</t>
   </si>
   <si>
     <t xml:space="preserve">0.288643181324005</t>
@@ -932,37 +932,37 @@
     <t xml:space="preserve">0.299277395009995</t>
   </si>
   <si>
-    <t xml:space="preserve">0.28712397813797</t>
+    <t xml:space="preserve">0.287124007940292</t>
   </si>
   <si>
     <t xml:space="preserve">0.273451447486877</t>
   </si>
   <si>
-    <t xml:space="preserve">0.267374694347382</t>
+    <t xml:space="preserve">0.267374724149704</t>
   </si>
   <si>
     <t xml:space="preserve">0.312949955463409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314469128847122</t>
+    <t xml:space="preserve">0.3144690990448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.297758221626282</t>
+    <t xml:space="preserve">0.297758191823959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.306873261928558</t>
+    <t xml:space="preserve">0.306873291730881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.308392465114594</t>
+    <t xml:space="preserve">0.308392405509949</t>
   </si>
   <si>
     <t xml:space="preserve">0.323584169149399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332699239253998</t>
+    <t xml:space="preserve">0.332699209451675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338775932788849</t>
+    <t xml:space="preserve">0.338775962591171</t>
   </si>
   <si>
     <t xml:space="preserve">0.370678603649139</t>
@@ -974,7 +974,7 @@
     <t xml:space="preserve">0.350929349660873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.376755326986313</t>
+    <t xml:space="preserve">0.376755267381668</t>
   </si>
   <si>
     <t xml:space="preserve">0.398783296346664</t>
@@ -986,19 +986,19 @@
     <t xml:space="preserve">0.36004438996315</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363082677125931</t>
+    <t xml:space="preserve">0.363082706928253</t>
   </si>
   <si>
     <t xml:space="preserve">0.369159400463104</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383591592311859</t>
+    <t xml:space="preserve">0.383591562509537</t>
   </si>
   <si>
     <t xml:space="preserve">0.378274440765381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353967636823654</t>
+    <t xml:space="preserve">0.353967666625977</t>
   </si>
   <si>
     <t xml:space="preserve">0.355486840009689</t>
@@ -1013,22 +1013,22 @@
     <t xml:space="preserve">0.335737586021423</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347891002893448</t>
+    <t xml:space="preserve">0.347890973091125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.334218353033066</t>
+    <t xml:space="preserve">0.334218412637711</t>
   </si>
   <si>
-    <t xml:space="preserve">0.326622545719147</t>
+    <t xml:space="preserve">0.326622515916824</t>
   </si>
   <si>
     <t xml:space="preserve">0.311430782079697</t>
   </si>
   <si>
-    <t xml:space="preserve">0.315988302230835</t>
+    <t xml:space="preserve">0.315988332033157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.290162354707718</t>
+    <t xml:space="preserve">0.290162324905396</t>
   </si>
   <si>
     <t xml:space="preserve">0.293200731277466</t>
@@ -1046,22 +1046,22 @@
     <t xml:space="preserve">0.303834915161133</t>
   </si>
   <si>
-    <t xml:space="preserve">0.320545822381973</t>
+    <t xml:space="preserve">0.320545792579651</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325103312730789</t>
+    <t xml:space="preserve">0.325103342533112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317507535219193</t>
+    <t xml:space="preserve">0.31750750541687</t>
   </si>
   <si>
     <t xml:space="preserve">0.471467912197113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.438382476568222</t>
+    <t xml:space="preserve">0.438382506370544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.425975412130356</t>
+    <t xml:space="preserve">0.425975441932678</t>
   </si>
   <si>
     <t xml:space="preserve">0.413568377494812</t>
@@ -1070,16 +1070,16 @@
     <t xml:space="preserve">0.397025644779205</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405297040939331</t>
+    <t xml:space="preserve">0.405297011137009</t>
   </si>
   <si>
     <t xml:space="preserve">0.398679912090302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417704075574875</t>
+    <t xml:space="preserve">0.417704045772552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41025984287262</t>
+    <t xml:space="preserve">0.410259813070297</t>
   </si>
   <si>
     <t xml:space="preserve">0.40033420920372</t>
@@ -1091,22 +1091,22 @@
     <t xml:space="preserve">0.377174377441406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.375520080327988</t>
+    <t xml:space="preserve">0.37552011013031</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372211575508118</t>
+    <t xml:space="preserve">0.372211545705795</t>
   </si>
   <si>
     <t xml:space="preserve">0.387099981307983</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380482882261276</t>
+    <t xml:space="preserve">0.380482912063599</t>
   </si>
   <si>
     <t xml:space="preserve">0.385445713996887</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368903011083603</t>
+    <t xml:space="preserve">0.368903040885925</t>
   </si>
   <si>
     <t xml:space="preserve">0.367248743772507</t>
@@ -1118,40 +1118,40 @@
     <t xml:space="preserve">0.479739308357239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450789541006088</t>
+    <t xml:space="preserve">0.450789570808411</t>
   </si>
   <si>
     <t xml:space="preserve">0.496282070875168</t>
   </si>
   <si>
-    <t xml:space="preserve">0.488010674715042</t>
+    <t xml:space="preserve">0.488010734319687</t>
   </si>
   <si>
     <t xml:space="preserve">0.483875006437302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454925209283829</t>
+    <t xml:space="preserve">0.454925268888474</t>
   </si>
   <si>
     <t xml:space="preserve">0.442518204450607</t>
   </si>
   <si>
-    <t xml:space="preserve">0.430111050605774</t>
+    <t xml:space="preserve">0.430111110210419</t>
   </si>
   <si>
     <t xml:space="preserve">0.421839773654938</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434246808290482</t>
+    <t xml:space="preserve">0.434246778488159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446653872728348</t>
+    <t xml:space="preserve">0.446653842926025</t>
   </si>
   <si>
     <t xml:space="preserve">0.408605545759201</t>
   </si>
   <si>
-    <t xml:space="preserve">0.401988446712494</t>
+    <t xml:space="preserve">0.401988476514816</t>
   </si>
   <si>
     <t xml:space="preserve">0.388754278421402</t>
@@ -1160,19 +1160,19 @@
     <t xml:space="preserve">0.378828644752502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373865783214569</t>
+    <t xml:space="preserve">0.373865813016891</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406951278448105</t>
+    <t xml:space="preserve">0.406951308250427</t>
   </si>
   <si>
     <t xml:space="preserve">0.395371377468109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.403642773628235</t>
+    <t xml:space="preserve">0.403642743825912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.393717139959335</t>
+    <t xml:space="preserve">0.393717110157013</t>
   </si>
   <si>
     <t xml:space="preserve">0.347397416830063</t>
@@ -1190,7 +1190,7 @@
     <t xml:space="preserve">0.350705981254578</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355668812990189</t>
+    <t xml:space="preserve">0.355668783187866</t>
   </si>
   <si>
     <t xml:space="preserve">0.358977317810059</t>
@@ -1199,10 +1199,10 @@
     <t xml:space="preserve">0.362285912036896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363940179347992</t>
+    <t xml:space="preserve">0.363940209150314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370557278394699</t>
+    <t xml:space="preserve">0.370557308197021</t>
   </si>
   <si>
     <t xml:space="preserve">0.360631614923477</t>
@@ -1220,13 +1220,13 @@
     <t xml:space="preserve">0.344088912010193</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354014545679092</t>
+    <t xml:space="preserve">0.35401451587677</t>
   </si>
   <si>
     <t xml:space="preserve">0.348381489515305</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353581190109253</t>
+    <t xml:space="preserve">0.353581219911575</t>
   </si>
   <si>
     <t xml:space="preserve">0.344915002584457</t>
@@ -1271,7 +1271,7 @@
     <t xml:space="preserve">0.318916380405426</t>
   </si>
   <si>
-    <t xml:space="preserve">0.31025019288063</t>
+    <t xml:space="preserve">0.310250163078308</t>
   </si>
   <si>
     <t xml:space="preserve">0.315449893474579</t>
@@ -1289,7 +1289,7 @@
     <t xml:space="preserve">0.296384274959564</t>
   </si>
   <si>
-    <t xml:space="preserve">0.308516919612885</t>
+    <t xml:space="preserve">0.308516949415207</t>
   </si>
   <si>
     <t xml:space="preserve">0.298117488622665</t>
@@ -1298,19 +1298,19 @@
     <t xml:space="preserve">0.311983436346054</t>
   </si>
   <si>
-    <t xml:space="preserve">0.313716679811478</t>
+    <t xml:space="preserve">0.313716650009155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.324116140604019</t>
+    <t xml:space="preserve">0.324116110801697</t>
   </si>
   <si>
     <t xml:space="preserve">0.32584935426712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.337982028722763</t>
+    <t xml:space="preserve">0.337981998920441</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317183136940002</t>
+    <t xml:space="preserve">0.31718310713768</t>
   </si>
   <si>
     <t xml:space="preserve">0.379579812288284</t>
@@ -1322,13 +1322,13 @@
     <t xml:space="preserve">0.372646868228912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374380141496658</t>
+    <t xml:space="preserve">0.374380111694336</t>
   </si>
   <si>
     <t xml:space="preserve">0.367447167634964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369180411100388</t>
+    <t xml:space="preserve">0.369180381298065</t>
   </si>
   <si>
     <t xml:space="preserve">0.386512786149979</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">0.312749564647675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314622312784195</t>
+    <t xml:space="preserve">0.314622282981873</t>
   </si>
   <si>
     <t xml:space="preserve">0.329604297876358</t>
@@ -1358,19 +1358,19 @@
     <t xml:space="preserve">0.310876786708832</t>
   </si>
   <si>
-    <t xml:space="preserve">0.305258542299271</t>
+    <t xml:space="preserve">0.305258572101593</t>
   </si>
   <si>
-    <t xml:space="preserve">0.316495060920715</t>
+    <t xml:space="preserve">0.316495090723038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.307131320238113</t>
+    <t xml:space="preserve">0.307131290435791</t>
   </si>
   <si>
     <t xml:space="preserve">0.299640268087387</t>
   </si>
   <si>
-    <t xml:space="preserve">0.303385764360428</t>
+    <t xml:space="preserve">0.30338579416275</t>
   </si>
   <si>
     <t xml:space="preserve">0.295894801616669</t>
@@ -1379,16 +1379,16 @@
     <t xml:space="preserve">0.309004098176956</t>
   </si>
   <si>
-    <t xml:space="preserve">0.30151304602623</t>
+    <t xml:space="preserve">0.301513075828552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.297767519950867</t>
+    <t xml:space="preserve">0.297767549753189</t>
   </si>
   <si>
     <t xml:space="preserve">0.294022053480148</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333349794149399</t>
+    <t xml:space="preserve">0.333349823951721</t>
   </si>
   <si>
     <t xml:space="preserve">0.322113305330276</t>
@@ -1397,7 +1397,7 @@
     <t xml:space="preserve">0.331477075815201</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335222601890564</t>
+    <t xml:space="preserve">0.335222572088242</t>
   </si>
   <si>
     <t xml:space="preserve">0.337095350027084</t>
@@ -1406,16 +1406,16 @@
     <t xml:space="preserve">0.355822831392288</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350204616785049</t>
+    <t xml:space="preserve">0.350204586982727</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338968098163605</t>
+    <t xml:space="preserve">0.338968068361282</t>
   </si>
   <si>
     <t xml:space="preserve">0.344586342573166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342713594436646</t>
+    <t xml:space="preserve">0.342713564634323</t>
   </si>
   <si>
     <t xml:space="preserve">0.340840816497803</t>
@@ -1518,6 +1518,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.360000014305115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.363999992609024</t>
   </si>
 </sst>
 </file>
@@ -60099,7 +60102,7 @@
     </row>
     <row r="2241">
       <c r="A2241" s="1" t="n">
-        <v>45583.6438078704</v>
+        <v>45583.2916666667</v>
       </c>
       <c r="B2241" t="n">
         <v>52000</v>
@@ -60120,6 +60123,32 @@
         <v>501</v>
       </c>
       <c r="H2241" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2242">
+      <c r="A2242" s="1" t="n">
+        <v>45586.4916203704</v>
+      </c>
+      <c r="B2242" t="n">
+        <v>40000</v>
+      </c>
+      <c r="C2242" t="n">
+        <v>0.363999992609024</v>
+      </c>
+      <c r="D2242" t="n">
+        <v>0.34799998998642</v>
+      </c>
+      <c r="E2242" t="n">
+        <v>0.349999994039536</v>
+      </c>
+      <c r="F2242" t="n">
+        <v>0.363999992609024</v>
+      </c>
+      <c r="G2242" t="s">
+        <v>502</v>
+      </c>
+      <c r="H2242" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/POPR.MI.xlsx
+++ b/data/POPR.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="504">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,22 +38,22 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193052038550377</t>
+    <t xml:space="preserve">0.193052023649216</t>
   </si>
   <si>
     <t xml:space="preserve">POPR.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193741500377655</t>
+    <t xml:space="preserve">0.193741515278816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.18960465490818</t>
+    <t xml:space="preserve">0.189604669809341</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188225746154785</t>
+    <t xml:space="preserve">0.188225761055946</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179952070116997</t>
+    <t xml:space="preserve">0.179952085018158</t>
   </si>
   <si>
     <t xml:space="preserve">0.186157315969467</t>
@@ -68,13 +68,13 @@
     <t xml:space="preserve">0.164301067590714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159267917275429</t>
+    <t xml:space="preserve">0.15926793217659</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167541578412056</t>
+    <t xml:space="preserve">0.167541563510895</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168231070041656</t>
+    <t xml:space="preserve">0.168231040239334</t>
   </si>
   <si>
     <t xml:space="preserve">0.165404215455055</t>
@@ -95,19 +95,19 @@
     <t xml:space="preserve">0.155820563435555</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152373194694519</t>
+    <t xml:space="preserve">0.15237320959568</t>
   </si>
   <si>
     <t xml:space="preserve">0.165748953819275</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186846762895584</t>
+    <t xml:space="preserve">0.186846777796745</t>
   </si>
   <si>
     <t xml:space="preserve">0.182985752820969</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179262593388557</t>
+    <t xml:space="preserve">0.179262563586235</t>
   </si>
   <si>
     <t xml:space="preserve">0.172367885708809</t>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">0.169609993696213</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164094239473343</t>
+    <t xml:space="preserve">0.164094224572182</t>
   </si>
   <si>
     <t xml:space="preserve">0.170782089233398</t>
@@ -128,22 +128,22 @@
     <t xml:space="preserve">0.174367353320122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194499909877777</t>
+    <t xml:space="preserve">0.194499939680099</t>
   </si>
   <si>
     <t xml:space="preserve">0.194430962204933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187536254525185</t>
+    <t xml:space="preserve">0.187536269426346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182020485401154</t>
+    <t xml:space="preserve">0.182020470499992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206841483712196</t>
+    <t xml:space="preserve">0.206841468811035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211323022842407</t>
+    <t xml:space="preserve">0.211323007941246</t>
   </si>
   <si>
     <t xml:space="preserve">0.210288837552071</t>
@@ -152,46 +152,46 @@
     <t xml:space="preserve">0.202015161514282</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199257284402847</t>
+    <t xml:space="preserve">0.199257269501686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220630899071693</t>
+    <t xml:space="preserve">0.220630869269371</t>
   </si>
   <si>
     <t xml:space="preserve">0.228904545307159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220561981201172</t>
+    <t xml:space="preserve">0.220561951398849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.215804576873779</t>
+    <t xml:space="preserve">0.21580459177494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.213046684861183</t>
+    <t xml:space="preserve">0.213046714663506</t>
   </si>
   <si>
     <t xml:space="preserve">0.196499392390251</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199946746230125</t>
+    <t xml:space="preserve">0.199946731328964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186295226216316</t>
+    <t xml:space="preserve">0.186295211315155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.18477837741375</t>
+    <t xml:space="preserve">0.184778362512589</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17857314646244</t>
+    <t xml:space="preserve">0.178573131561279</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166300535202026</t>
+    <t xml:space="preserve">0.166300520300865</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182709947228432</t>
+    <t xml:space="preserve">0.182709932327271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172298938035965</t>
+    <t xml:space="preserve">0.172298923134804</t>
   </si>
   <si>
     <t xml:space="preserve">0.166852101683617</t>
@@ -200,28 +200,28 @@
     <t xml:space="preserve">0.168920531868935</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172919452190399</t>
+    <t xml:space="preserve">0.17291946709156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.204083576798439</t>
+    <t xml:space="preserve">0.2040835916996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206152006983757</t>
+    <t xml:space="preserve">0.206151977181435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.201325669884682</t>
+    <t xml:space="preserve">0.201325714588165</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199326202273369</t>
+    <t xml:space="preserve">0.199326232075691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.18339940905571</t>
+    <t xml:space="preserve">0.183399423956871</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175815254449844</t>
+    <t xml:space="preserve">0.175815224647522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161336347460747</t>
+    <t xml:space="preserve">0.161336332559586</t>
   </si>
   <si>
     <t xml:space="preserve">0.166162639856339</t>
@@ -230,55 +230,55 @@
     <t xml:space="preserve">0.162715286016464</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158578470349312</t>
+    <t xml:space="preserve">0.158578455448151</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173746824264526</t>
+    <t xml:space="preserve">0.173746839165688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181193143129349</t>
+    <t xml:space="preserve">0.181193113327026</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187191516160965</t>
+    <t xml:space="preserve">0.187191531062126</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188915207982063</t>
+    <t xml:space="preserve">0.188915178179741</t>
   </si>
   <si>
     <t xml:space="preserve">0.200291484594345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219941407442093</t>
+    <t xml:space="preserve">0.219941437244415</t>
   </si>
   <si>
     <t xml:space="preserve">0.212357223033905</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195396229624748</t>
+    <t xml:space="preserve">0.195396214723587</t>
   </si>
   <si>
     <t xml:space="preserve">0.20925460755825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220492973923683</t>
+    <t xml:space="preserve">0.220493003726006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.213736191391945</t>
+    <t xml:space="preserve">0.213736176490784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210357755422592</t>
+    <t xml:space="preserve">0.210357770323753</t>
   </si>
   <si>
     <t xml:space="preserve">0.219251945614815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233730807900429</t>
+    <t xml:space="preserve">0.23373082280159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237798720598221</t>
+    <t xml:space="preserve">0.23779870569706</t>
   </si>
   <si>
-    <t xml:space="preserve">0.255104452371597</t>
+    <t xml:space="preserve">0.25510448217392</t>
   </si>
   <si>
     <t xml:space="preserve">0.261309713125229</t>
@@ -293,40 +293,40 @@
     <t xml:space="preserve">0.301988542079926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.318535834550858</t>
+    <t xml:space="preserve">0.31853586435318</t>
   </si>
   <si>
-    <t xml:space="preserve">0.327498912811279</t>
+    <t xml:space="preserve">0.327498942613602</t>
   </si>
   <si>
     <t xml:space="preserve">0.282683342695236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.285372227430344</t>
+    <t xml:space="preserve">0.285372257232666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.274478614330292</t>
+    <t xml:space="preserve">0.274478584527969</t>
   </si>
   <si>
-    <t xml:space="preserve">0.274409651756287</t>
+    <t xml:space="preserve">0.274409711360931</t>
   </si>
   <si>
-    <t xml:space="preserve">0.266342788934708</t>
+    <t xml:space="preserve">0.266342848539352</t>
   </si>
   <si>
-    <t xml:space="preserve">0.266825497150421</t>
+    <t xml:space="preserve">0.266825467348099</t>
   </si>
   <si>
-    <t xml:space="preserve">0.266963392496109</t>
+    <t xml:space="preserve">0.266963362693787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.251657128334045</t>
+    <t xml:space="preserve">0.251657098531723</t>
   </si>
   <si>
     <t xml:space="preserve">0.256483405828476</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230972945690155</t>
+    <t xml:space="preserve">0.230972960591316</t>
   </si>
   <si>
     <t xml:space="preserve">0.22697402536869</t>
@@ -338,10 +338,10 @@
     <t xml:space="preserve">0.228973492980003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.26062023639679</t>
+    <t xml:space="preserve">0.260620266199112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.268893897533417</t>
+    <t xml:space="preserve">0.268893867731094</t>
   </si>
   <si>
     <t xml:space="preserve">0.25317394733429</t>
@@ -353,7 +353,7 @@
     <t xml:space="preserve">0.258551806211472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248209774494171</t>
+    <t xml:space="preserve">0.24820975959301</t>
   </si>
   <si>
     <t xml:space="preserve">0.244762375950813</t>
@@ -362,7 +362,7 @@
     <t xml:space="preserve">0.237867698073387</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243935033679008</t>
+    <t xml:space="preserve">0.243935018777847</t>
   </si>
   <si>
     <t xml:space="preserve">0.233799800276756</t>
@@ -374,46 +374,46 @@
     <t xml:space="preserve">0.224078238010406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226836115121841</t>
+    <t xml:space="preserve">0.226836144924164</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226146668195724</t>
+    <t xml:space="preserve">0.226146653294563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227525606751442</t>
+    <t xml:space="preserve">0.227525651454926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229042455554008</t>
+    <t xml:space="preserve">0.22904247045517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23248977959156</t>
+    <t xml:space="preserve">0.232489809393883</t>
   </si>
   <si>
     <t xml:space="preserve">0.247520267963409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241177141666412</t>
+    <t xml:space="preserve">0.241177096962929</t>
   </si>
   <si>
-    <t xml:space="preserve">0.242211371660233</t>
+    <t xml:space="preserve">0.242211356759071</t>
   </si>
   <si>
-    <t xml:space="preserve">0.251726031303406</t>
+    <t xml:space="preserve">0.251726090908051</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25710391998291</t>
+    <t xml:space="preserve">0.257103949785233</t>
   </si>
   <si>
     <t xml:space="preserve">0.24627922475338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241315051913261</t>
+    <t xml:space="preserve">0.241315022110939</t>
   </si>
   <si>
     <t xml:space="preserve">0.241039231419563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237936601042747</t>
+    <t xml:space="preserve">0.237936615943909</t>
   </si>
   <si>
     <t xml:space="preserve">0.253725528717041</t>
@@ -422,58 +422,58 @@
     <t xml:space="preserve">0.238074511289597</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244969233870506</t>
+    <t xml:space="preserve">0.244969248771667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325982123613358</t>
+    <t xml:space="preserve">0.325982093811035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386104077100754</t>
+    <t xml:space="preserve">0.386104047298431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.510208904743195</t>
+    <t xml:space="preserve">0.510208964347839</t>
   </si>
   <si>
     <t xml:space="preserve">0.598461270332336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.523308932781219</t>
+    <t xml:space="preserve">0.523308992385864</t>
   </si>
   <si>
     <t xml:space="preserve">0.479182720184326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.462980151176453</t>
+    <t xml:space="preserve">0.462980180978775</t>
   </si>
   <si>
     <t xml:space="preserve">0.434367060661316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.399893492460251</t>
+    <t xml:space="preserve">0.399893462657928</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4543616771698</t>
+    <t xml:space="preserve">0.454361706972122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402996093034744</t>
+    <t xml:space="preserve">0.402996122837067</t>
   </si>
   <si>
     <t xml:space="preserve">0.410235583782196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379898816347122</t>
+    <t xml:space="preserve">0.379898846149445</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357490926980972</t>
+    <t xml:space="preserve">0.357490986585617</t>
   </si>
   <si>
     <t xml:space="preserve">0.345425248146057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358180493116379</t>
+    <t xml:space="preserve">0.358180463314056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36679881811142</t>
+    <t xml:space="preserve">0.366798847913742</t>
   </si>
   <si>
     <t xml:space="preserve">0.353009432554245</t>
@@ -482,52 +482,52 @@
     <t xml:space="preserve">0.382656663656235</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37438303232193</t>
+    <t xml:space="preserve">0.374383062124252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358525186777115</t>
+    <t xml:space="preserve">0.35852512717247</t>
   </si>
   <si>
     <t xml:space="preserve">0.349217295646667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352319926023483</t>
+    <t xml:space="preserve">0.352319955825806</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365419894456863</t>
+    <t xml:space="preserve">0.365419864654541</t>
   </si>
   <si>
     <t xml:space="preserve">0.361972540616989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34818309545517</t>
+    <t xml:space="preserve">0.348183125257492</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35576730966568</t>
+    <t xml:space="preserve">0.355767279863358</t>
   </si>
   <si>
     <t xml:space="preserve">0.344735771417618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341977894306183</t>
+    <t xml:space="preserve">0.34197786450386</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367143630981445</t>
+    <t xml:space="preserve">0.367143571376801</t>
   </si>
   <si>
     <t xml:space="preserve">0.348872601985931</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347493648529053</t>
+    <t xml:space="preserve">0.347493678331375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360248893499374</t>
+    <t xml:space="preserve">0.36024883389473</t>
   </si>
   <si>
     <t xml:space="preserve">0.354388356208801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359904140233994</t>
+    <t xml:space="preserve">0.359904170036316</t>
   </si>
   <si>
     <t xml:space="preserve">0.330946326255798</t>
@@ -536,13 +536,13 @@
     <t xml:space="preserve">0.340598911046982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341219455003738</t>
+    <t xml:space="preserve">0.341219484806061</t>
   </si>
   <si>
-    <t xml:space="preserve">0.351630508899689</t>
+    <t xml:space="preserve">0.351630449295044</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357146292924881</t>
+    <t xml:space="preserve">0.357146263122559</t>
   </si>
   <si>
     <t xml:space="preserve">0.392998784780502</t>
@@ -551,82 +551,82 @@
     <t xml:space="preserve">0.372314631938934</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373004078865051</t>
+    <t xml:space="preserve">0.373004108667374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350251585245132</t>
+    <t xml:space="preserve">0.350251525640488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370590955018997</t>
+    <t xml:space="preserve">0.37059098482132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345080524682999</t>
+    <t xml:space="preserve">0.345080494880676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359559416770935</t>
+    <t xml:space="preserve">0.359559386968613</t>
   </si>
   <si>
-    <t xml:space="preserve">0.42747238278389</t>
+    <t xml:space="preserve">0.427472352981567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405409306287766</t>
+    <t xml:space="preserve">0.405409246683121</t>
   </si>
   <si>
-    <t xml:space="preserve">0.404719769954681</t>
+    <t xml:space="preserve">0.404719799757004</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40609872341156</t>
+    <t xml:space="preserve">0.406098753213882</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398859232664108</t>
+    <t xml:space="preserve">0.398859262466431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406788200139999</t>
+    <t xml:space="preserve">0.406788170337677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378519892692566</t>
+    <t xml:space="preserve">0.378519862890244</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383690923452377</t>
+    <t xml:space="preserve">0.383690893650055</t>
   </si>
   <si>
     <t xml:space="preserve">0.388861924409866</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402651339769363</t>
+    <t xml:space="preserve">0.402651429176331</t>
   </si>
   <si>
-    <t xml:space="preserve">0.426438182592392</t>
+    <t xml:space="preserve">0.426438122987747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429540812969208</t>
+    <t xml:space="preserve">0.429540783166885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41437241435051</t>
+    <t xml:space="preserve">0.414372444152832</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413682967424393</t>
+    <t xml:space="preserve">0.41368293762207</t>
   </si>
   <si>
     <t xml:space="preserve">0.42471444606781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414027631282806</t>
+    <t xml:space="preserve">0.414027690887451</t>
   </si>
   <si>
-    <t xml:space="preserve">0.447466999292374</t>
+    <t xml:space="preserve">0.447467029094696</t>
   </si>
   <si>
-    <t xml:space="preserve">0.455051213502884</t>
+    <t xml:space="preserve">0.455051302909851</t>
   </si>
   <si>
     <t xml:space="preserve">0.430230230093002</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413338184356689</t>
+    <t xml:space="preserve">0.413338154554367</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424024999141693</t>
+    <t xml:space="preserve">0.424024969339371</t>
   </si>
   <si>
     <t xml:space="preserve">0.517103612422943</t>
@@ -635,46 +635,46 @@
     <t xml:space="preserve">0.481940567493439</t>
   </si>
   <si>
-    <t xml:space="preserve">0.496419548988342</t>
+    <t xml:space="preserve">0.49641951918602</t>
   </si>
   <si>
     <t xml:space="preserve">0.475735396146774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.480561584234238</t>
+    <t xml:space="preserve">0.480561673641205</t>
   </si>
   <si>
     <t xml:space="preserve">0.489524751901627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.482630103826523</t>
+    <t xml:space="preserve">0.482630044221878</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463324934244156</t>
+    <t xml:space="preserve">0.463324815034866</t>
   </si>
   <si>
-    <t xml:space="preserve">0.466082811355591</t>
+    <t xml:space="preserve">0.466082751750946</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46194589138031</t>
+    <t xml:space="preserve">0.461945921182632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.449535459280014</t>
+    <t xml:space="preserve">0.449535399675369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.445398598909378</t>
+    <t xml:space="preserve">0.445398569107056</t>
   </si>
   <si>
     <t xml:space="preserve">0.448156476020813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453672230243683</t>
+    <t xml:space="preserve">0.453672289848328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.441261798143387</t>
+    <t xml:space="preserve">0.441261738538742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474356383085251</t>
+    <t xml:space="preserve">0.474356442689896</t>
   </si>
   <si>
     <t xml:space="preserve">0.457809090614319</t>
@@ -695,13 +695,13 @@
     <t xml:space="preserve">0.464703857898712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450914353132248</t>
+    <t xml:space="preserve">0.450914412736893</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437124997377396</t>
+    <t xml:space="preserve">0.437124967575073</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444019675254822</t>
+    <t xml:space="preserve">0.444019734859467</t>
   </si>
   <si>
     <t xml:space="preserve">0.41919869184494</t>
@@ -710,244 +710,244 @@
     <t xml:space="preserve">0.420577675104141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.426093369722366</t>
+    <t xml:space="preserve">0.426093429327011</t>
   </si>
   <si>
-    <t xml:space="preserve">0.442640751600266</t>
+    <t xml:space="preserve">0.442640721797943</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47297739982605</t>
+    <t xml:space="preserve">0.472977429628372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.460566908121109</t>
+    <t xml:space="preserve">0.460566967725754</t>
   </si>
   <si>
     <t xml:space="preserve">0.446777522563934</t>
   </si>
   <si>
-    <t xml:space="preserve">0.432988077402115</t>
+    <t xml:space="preserve">0.43298813700676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452293336391449</t>
+    <t xml:space="preserve">0.452293306589127</t>
   </si>
   <si>
-    <t xml:space="preserve">0.439882814884186</t>
+    <t xml:space="preserve">0.439882874488831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.456430226564407</t>
+    <t xml:space="preserve">0.456430077552795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397135555744171</t>
+    <t xml:space="preserve">0.397135615348816</t>
   </si>
   <si>
     <t xml:space="preserve">0.40127244591713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398514568805695</t>
+    <t xml:space="preserve">0.398514539003372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373693525791168</t>
+    <t xml:space="preserve">0.373693555593491</t>
   </si>
   <si>
     <t xml:space="preserve">0.361283093690872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394377708435059</t>
+    <t xml:space="preserve">0.394377738237381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391619861125946</t>
+    <t xml:space="preserve">0.391619831323624</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377830415964127</t>
+    <t xml:space="preserve">0.377830356359482</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369556754827499</t>
+    <t xml:space="preserve">0.369556725025177</t>
   </si>
   <si>
     <t xml:space="preserve">0.370935678482056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37920930981636</t>
+    <t xml:space="preserve">0.379209339618683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408167153596878</t>
+    <t xml:space="preserve">0.4081671833992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423335492610931</t>
+    <t xml:space="preserve">0.423335552215576</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38748300075531</t>
+    <t xml:space="preserve">0.387483030557632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395756661891937</t>
+    <t xml:space="preserve">0.395756632089615</t>
   </si>
   <si>
     <t xml:space="preserve">0.415061861276627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412304013967514</t>
+    <t xml:space="preserve">0.412303954362869</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409546047449112</t>
+    <t xml:space="preserve">0.409546107053757</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421956598758698</t>
+    <t xml:space="preserve">0.421956539154053</t>
   </si>
   <si>
     <t xml:space="preserve">0.428851276636124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431609153747559</t>
+    <t xml:space="preserve">0.431609183549881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465393275022507</t>
+    <t xml:space="preserve">0.465393334627151</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4722880423069</t>
+    <t xml:space="preserve">0.472288012504578</t>
   </si>
   <si>
-    <t xml:space="preserve">0.492972105741501</t>
+    <t xml:space="preserve">0.492972135543823</t>
   </si>
   <si>
-    <t xml:space="preserve">0.499866932630539</t>
+    <t xml:space="preserve">0.499866902828217</t>
   </si>
   <si>
-    <t xml:space="preserve">0.508923411369324</t>
+    <t xml:space="preserve">0.508923530578613</t>
   </si>
   <si>
     <t xml:space="preserve">0.486135840415955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.470944136381149</t>
+    <t xml:space="preserve">0.470944166183472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.455752402544022</t>
+    <t xml:space="preserve">0.455752432346344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.467146217823029</t>
+    <t xml:space="preserve">0.467146158218384</t>
   </si>
   <si>
     <t xml:space="preserve">0.478540003299713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.482337921857834</t>
+    <t xml:space="preserve">0.482337892055511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474742025136948</t>
+    <t xml:space="preserve">0.47474205493927</t>
   </si>
   <si>
     <t xml:space="preserve">0.459550261497498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440560668706894</t>
+    <t xml:space="preserve">0.440560609102249</t>
   </si>
   <si>
     <t xml:space="preserve">0.451954424381256</t>
   </si>
   <si>
-    <t xml:space="preserve">0.425368905067444</t>
+    <t xml:space="preserve">0.425368875265121</t>
   </si>
   <si>
     <t xml:space="preserve">0.429166823625565</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444358497858047</t>
+    <t xml:space="preserve">0.444358557462692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463348239660263</t>
+    <t xml:space="preserve">0.463348269462585</t>
   </si>
   <si>
-    <t xml:space="preserve">0.489933758974075</t>
+    <t xml:space="preserve">0.489933729171753</t>
   </si>
   <si>
     <t xml:space="preserve">0.577286303043365</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493731737136841</t>
+    <t xml:space="preserve">0.493731677532196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.501327574253082</t>
+    <t xml:space="preserve">0.501327693462372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497529596090317</t>
+    <t xml:space="preserve">0.497529685497284</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436762720346451</t>
+    <t xml:space="preserve">0.436762690544128</t>
   </si>
   <si>
-    <t xml:space="preserve">0.432964771986008</t>
+    <t xml:space="preserve">0.432964742183685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417772978544235</t>
+    <t xml:space="preserve">0.417773008346558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410177111625671</t>
+    <t xml:space="preserve">0.410177141427994</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394985377788544</t>
+    <t xml:space="preserve">0.394985347986221</t>
   </si>
   <si>
     <t xml:space="preserve">0.406379222869873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421570897102356</t>
+    <t xml:space="preserve">0.421570926904678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402581214904785</t>
+    <t xml:space="preserve">0.402581185102463</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373716950416565</t>
+    <t xml:space="preserve">0.373716980218887</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372197777032852</t>
+    <t xml:space="preserve">0.372197806835175</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38738951086998</t>
+    <t xml:space="preserve">0.387389481067657</t>
   </si>
   <si>
     <t xml:space="preserve">0.379793643951416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364601850509644</t>
+    <t xml:space="preserve">0.364601880311966</t>
   </si>
   <si>
     <t xml:space="preserve">0.341814279556274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344852656126022</t>
+    <t xml:space="preserve">0.344852596521378</t>
   </si>
   <si>
-    <t xml:space="preserve">0.31902664899826</t>
+    <t xml:space="preserve">0.319026678800583</t>
   </si>
   <si>
-    <t xml:space="preserve">0.284085631370544</t>
+    <t xml:space="preserve">0.284085661172867</t>
   </si>
   <si>
-    <t xml:space="preserve">0.305354058742523</t>
+    <t xml:space="preserve">0.305354118347168</t>
   </si>
   <si>
     <t xml:space="preserve">0.288643151521683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.299277424812317</t>
+    <t xml:space="preserve">0.299277395009995</t>
   </si>
   <si>
     <t xml:space="preserve">0.287124007940292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.268893867731094</t>
+    <t xml:space="preserve">0.268893897533417</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273451417684555</t>
+    <t xml:space="preserve">0.273451447486877</t>
   </si>
   <si>
-    <t xml:space="preserve">0.267374724149704</t>
+    <t xml:space="preserve">0.267374694347382</t>
   </si>
   <si>
     <t xml:space="preserve">0.312949955463409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314469128847122</t>
+    <t xml:space="preserve">0.3144690990448</t>
   </si>
   <si>
     <t xml:space="preserve">0.297758191823959</t>
@@ -956,16 +956,16 @@
     <t xml:space="preserve">0.306873291730881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.308392435312271</t>
+    <t xml:space="preserve">0.308392405509949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.323584198951721</t>
+    <t xml:space="preserve">0.323584169149399</t>
   </si>
   <si>
     <t xml:space="preserve">0.332699209451675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338775902986526</t>
+    <t xml:space="preserve">0.338775932788849</t>
   </si>
   <si>
     <t xml:space="preserve">0.370678603649139</t>
@@ -974,40 +974,40 @@
     <t xml:space="preserve">0.357006013393402</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350929290056229</t>
+    <t xml:space="preserve">0.350929349660873</t>
   </si>
   <si>
     <t xml:space="preserve">0.376755267381668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398783296346664</t>
+    <t xml:space="preserve">0.398783326148987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413975030183792</t>
+    <t xml:space="preserve">0.413975059986115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360044330358505</t>
+    <t xml:space="preserve">0.36004438996315</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363082736730576</t>
+    <t xml:space="preserve">0.363082677125931</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369159430265427</t>
+    <t xml:space="preserve">0.369159370660782</t>
   </si>
   <si>
     <t xml:space="preserve">0.383591562509537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378274470567703</t>
+    <t xml:space="preserve">0.378274440765381</t>
   </si>
   <si>
     <t xml:space="preserve">0.353967696428299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355486810207367</t>
+    <t xml:space="preserve">0.355486840009689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352448493242264</t>
+    <t xml:space="preserve">0.352448463439941</t>
   </si>
   <si>
     <t xml:space="preserve">0.349410176277161</t>
@@ -1028,13 +1028,13 @@
     <t xml:space="preserve">0.311430782079697</t>
   </si>
   <si>
-    <t xml:space="preserve">0.315988302230835</t>
+    <t xml:space="preserve">0.315988332033157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.290162354707718</t>
+    <t xml:space="preserve">0.290162324905396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.293200671672821</t>
+    <t xml:space="preserve">0.293200731277466</t>
   </si>
   <si>
     <t xml:space="preserve">0.285604804754257</t>
@@ -1043,37 +1043,37 @@
     <t xml:space="preserve">0.291681498289108</t>
   </si>
   <si>
-    <t xml:space="preserve">0.296239048242569</t>
+    <t xml:space="preserve">0.296239018440247</t>
   </si>
   <si>
     <t xml:space="preserve">0.303834915161133</t>
   </si>
   <si>
-    <t xml:space="preserve">0.320545822381973</t>
+    <t xml:space="preserve">0.320545792579651</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325103342533112</t>
+    <t xml:space="preserve">0.325103372335434</t>
   </si>
   <si>
     <t xml:space="preserve">0.31750750541687</t>
   </si>
   <si>
-    <t xml:space="preserve">0.471467971801758</t>
+    <t xml:space="preserve">0.471467941999435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4383824467659</t>
+    <t xml:space="preserve">0.438382416963577</t>
   </si>
   <si>
-    <t xml:space="preserve">0.425975412130356</t>
+    <t xml:space="preserve">0.425975441932678</t>
   </si>
   <si>
     <t xml:space="preserve">0.413568377494812</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397025614976883</t>
+    <t xml:space="preserve">0.397025644779205</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405297011137009</t>
+    <t xml:space="preserve">0.405297040939331</t>
   </si>
   <si>
     <t xml:space="preserve">0.398679941892624</t>
@@ -1085,16 +1085,16 @@
     <t xml:space="preserve">0.410259813070297</t>
   </si>
   <si>
-    <t xml:space="preserve">0.400334179401398</t>
+    <t xml:space="preserve">0.40033420920372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383791446685791</t>
+    <t xml:space="preserve">0.383791416883469</t>
   </si>
   <si>
     <t xml:space="preserve">0.377174347639084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37552011013031</t>
+    <t xml:space="preserve">0.375520080327988</t>
   </si>
   <si>
     <t xml:space="preserve">0.372211545705795</t>
@@ -1103,58 +1103,58 @@
     <t xml:space="preserve">0.387099981307983</t>
   </si>
   <si>
-    <t xml:space="preserve">0.380482941865921</t>
+    <t xml:space="preserve">0.380482912063599</t>
   </si>
   <si>
     <t xml:space="preserve">0.38544574379921</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368902981281281</t>
+    <t xml:space="preserve">0.368903011083603</t>
   </si>
   <si>
     <t xml:space="preserve">0.367248713970184</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382137149572372</t>
+    <t xml:space="preserve">0.382137209177017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479739367961884</t>
+    <t xml:space="preserve">0.479739308357239</t>
   </si>
   <si>
     <t xml:space="preserve">0.450789511203766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.49628210067749</t>
+    <t xml:space="preserve">0.496282130479813</t>
   </si>
   <si>
     <t xml:space="preserve">0.488010674715042</t>
   </si>
   <si>
-    <t xml:space="preserve">0.483874946832657</t>
+    <t xml:space="preserve">0.483874976634979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454925209283829</t>
+    <t xml:space="preserve">0.454925239086151</t>
   </si>
   <si>
     <t xml:space="preserve">0.442518204450607</t>
   </si>
   <si>
-    <t xml:space="preserve">0.430111110210419</t>
+    <t xml:space="preserve">0.430111080408096</t>
   </si>
   <si>
     <t xml:space="preserve">0.421839743852615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434246778488159</t>
+    <t xml:space="preserve">0.434246808290482</t>
   </si>
   <si>
     <t xml:space="preserve">0.446653842926025</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408605575561523</t>
+    <t xml:space="preserve">0.408605545759201</t>
   </si>
   <si>
-    <t xml:space="preserve">0.401988476514816</t>
+    <t xml:space="preserve">0.401988446712494</t>
   </si>
   <si>
     <t xml:space="preserve">0.388754278421402</t>
@@ -1169,40 +1169,40 @@
     <t xml:space="preserve">0.406951308250427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395371377468109</t>
+    <t xml:space="preserve">0.395371347665787</t>
   </si>
   <si>
     <t xml:space="preserve">0.403642743825912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.393717139959335</t>
+    <t xml:space="preserve">0.393717110157013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347397416830063</t>
+    <t xml:space="preserve">0.347397446632385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32920041680336</t>
+    <t xml:space="preserve">0.329200446605682</t>
   </si>
   <si>
-    <t xml:space="preserve">0.330854713916779</t>
+    <t xml:space="preserve">0.330854684114456</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349051713943481</t>
+    <t xml:space="preserve">0.349051684141159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3507060110569</t>
+    <t xml:space="preserve">0.350705981254578</t>
   </si>
   <si>
     <t xml:space="preserve">0.355668812990189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358977347612381</t>
+    <t xml:space="preserve">0.358977317810059</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362285882234573</t>
+    <t xml:space="preserve">0.362285912036896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363940179347992</t>
+    <t xml:space="preserve">0.363940209150314</t>
   </si>
   <si>
     <t xml:space="preserve">0.370557278394699</t>
@@ -1217,49 +1217,49 @@
     <t xml:space="preserve">0.337471812963486</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332508951425552</t>
+    <t xml:space="preserve">0.332508981227875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34408888220787</t>
+    <t xml:space="preserve">0.344088912010193</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35401451587677</t>
+    <t xml:space="preserve">0.354014545679092</t>
   </si>
   <si>
     <t xml:space="preserve">0.348381489515305</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353581219911575</t>
+    <t xml:space="preserve">0.353581190109253</t>
   </si>
   <si>
     <t xml:space="preserve">0.344915002584457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350114762783051</t>
+    <t xml:space="preserve">0.350114703178406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363980650901794</t>
+    <t xml:space="preserve">0.363980621099472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36571392416954</t>
+    <t xml:space="preserve">0.365713894367218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.351847976446152</t>
+    <t xml:space="preserve">0.351847946643829</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355314493179321</t>
+    <t xml:space="preserve">0.355314463376999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.343181788921356</t>
+    <t xml:space="preserve">0.343181759119034</t>
   </si>
   <si>
     <t xml:space="preserve">0.332782328128815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32064962387085</t>
+    <t xml:space="preserve">0.320649653673172</t>
   </si>
   <si>
-    <t xml:space="preserve">0.331049084663391</t>
+    <t xml:space="preserve">0.331049054861069</t>
   </si>
   <si>
     <t xml:space="preserve">0.346648246049881</t>
@@ -1268,7 +1268,7 @@
     <t xml:space="preserve">0.329315841197968</t>
   </si>
   <si>
-    <t xml:space="preserve">0.327582627534866</t>
+    <t xml:space="preserve">0.327582597732544</t>
   </si>
   <si>
     <t xml:space="preserve">0.318916380405426</t>
@@ -1286,22 +1286,22 @@
     <t xml:space="preserve">0.303317219018936</t>
   </si>
   <si>
-    <t xml:space="preserve">0.30505046248436</t>
+    <t xml:space="preserve">0.305050432682037</t>
   </si>
   <si>
-    <t xml:space="preserve">0.296384245157242</t>
+    <t xml:space="preserve">0.296384274959564</t>
   </si>
   <si>
     <t xml:space="preserve">0.308516949415207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.298117518424988</t>
+    <t xml:space="preserve">0.298117488622665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311983466148376</t>
+    <t xml:space="preserve">0.311983436346054</t>
   </si>
   <si>
-    <t xml:space="preserve">0.313716679811478</t>
+    <t xml:space="preserve">0.313716650009155</t>
   </si>
   <si>
     <t xml:space="preserve">0.324116110801697</t>
@@ -1310,22 +1310,22 @@
     <t xml:space="preserve">0.32584935426712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.337982058525085</t>
+    <t xml:space="preserve">0.337981998920441</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317183166742325</t>
+    <t xml:space="preserve">0.317183136940002</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379579842090607</t>
+    <t xml:space="preserve">0.379579812288284</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370913624763489</t>
+    <t xml:space="preserve">0.370913594961166</t>
   </si>
   <si>
     <t xml:space="preserve">0.372646868228912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374380081892014</t>
+    <t xml:space="preserve">0.374380111694336</t>
   </si>
   <si>
     <t xml:space="preserve">0.367447137832642</t>
@@ -1334,13 +1334,13 @@
     <t xml:space="preserve">0.369180381298065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386512786149979</t>
+    <t xml:space="preserve">0.386512815952301</t>
   </si>
   <si>
     <t xml:space="preserve">0.323986053466797</t>
   </si>
   <si>
-    <t xml:space="preserve">0.320240557193756</t>
+    <t xml:space="preserve">0.320240586996078</t>
   </si>
   <si>
     <t xml:space="preserve">0.318367809057236</t>
@@ -1349,25 +1349,25 @@
     <t xml:space="preserve">0.312749564647675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314622312784195</t>
+    <t xml:space="preserve">0.314622282981873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32960432767868</t>
+    <t xml:space="preserve">0.329604297876358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32773157954216</t>
+    <t xml:space="preserve">0.327731549739838</t>
   </si>
   <si>
     <t xml:space="preserve">0.310876786708832</t>
   </si>
   <si>
-    <t xml:space="preserve">0.305258542299271</t>
+    <t xml:space="preserve">0.305258572101593</t>
   </si>
   <si>
-    <t xml:space="preserve">0.316495060920715</t>
+    <t xml:space="preserve">0.316495090723038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.307131320238113</t>
+    <t xml:space="preserve">0.307131290435791</t>
   </si>
   <si>
     <t xml:space="preserve">0.299640268087387</t>
@@ -1379,25 +1379,25 @@
     <t xml:space="preserve">0.295894801616669</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309004038572311</t>
+    <t xml:space="preserve">0.309004098176956</t>
   </si>
   <si>
-    <t xml:space="preserve">0.30151304602623</t>
+    <t xml:space="preserve">0.301513075828552</t>
   </si>
   <si>
     <t xml:space="preserve">0.297767549753189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.294022023677826</t>
+    <t xml:space="preserve">0.294022053480148</t>
   </si>
   <si>
     <t xml:space="preserve">0.333349823951721</t>
   </si>
   <si>
-    <t xml:space="preserve">0.322113335132599</t>
+    <t xml:space="preserve">0.322113305330276</t>
   </si>
   <si>
-    <t xml:space="preserve">0.331477046012878</t>
+    <t xml:space="preserve">0.331477075815201</t>
   </si>
   <si>
     <t xml:space="preserve">0.335222572088242</t>
@@ -1412,13 +1412,13 @@
     <t xml:space="preserve">0.350204586982727</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338968098163605</t>
+    <t xml:space="preserve">0.338968068361282</t>
   </si>
   <si>
     <t xml:space="preserve">0.344586342573166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342713594436646</t>
+    <t xml:space="preserve">0.342713564634323</t>
   </si>
   <si>
     <t xml:space="preserve">0.340840816497803</t>
@@ -1427,7 +1427,7 @@
     <t xml:space="preserve">0.340362787246704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.328889906406403</t>
+    <t xml:space="preserve">0.32888987660408</t>
   </si>
   <si>
     <t xml:space="preserve">0.325065582990646</t>
@@ -1439,10 +1439,10 @@
     <t xml:space="preserve">0.317416965961456</t>
   </si>
   <si>
-    <t xml:space="preserve">0.315504819154739</t>
+    <t xml:space="preserve">0.315504848957062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.326977729797363</t>
+    <t xml:space="preserve">0.326977759599686</t>
   </si>
   <si>
     <t xml:space="preserve">0.343951225280762</t>
@@ -1524,9 +1524,6 @@
   </si>
   <si>
     <t xml:space="preserve">0.363999992609024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36599999666214</t>
   </si>
 </sst>
 </file>
@@ -60160,25 +60157,25 @@
     </row>
     <row r="2243">
       <c r="A2243" s="1" t="n">
-        <v>45587.6206018519</v>
+        <v>45588.5930439815</v>
       </c>
       <c r="B2243" t="n">
-        <v>36000</v>
+        <v>16000</v>
       </c>
       <c r="C2243" t="n">
-        <v>0.370000004768372</v>
+        <v>0.363999992609024</v>
       </c>
       <c r="D2243" t="n">
-        <v>0.36599999666214</v>
+        <v>0.360000014305115</v>
       </c>
       <c r="E2243" t="n">
-        <v>0.368000000715256</v>
+        <v>0.363999992609024</v>
       </c>
       <c r="F2243" t="n">
-        <v>0.36599999666214</v>
+        <v>0.360000014305115</v>
       </c>
       <c r="G2243" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H2243" t="s">
         <v>9</v>

--- a/data/POPR.MI.xlsx
+++ b/data/POPR.MI.xlsx
@@ -38,22 +38,22 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193052038550377</t>
+    <t xml:space="preserve">0.193052023649216</t>
   </si>
   <si>
     <t xml:space="preserve">POPR.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193741515278816</t>
+    <t xml:space="preserve">0.193741500377655</t>
   </si>
   <si>
     <t xml:space="preserve">0.189604684710503</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188225716352463</t>
+    <t xml:space="preserve">0.188225731253624</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179952070116997</t>
+    <t xml:space="preserve">0.179952085018158</t>
   </si>
   <si>
     <t xml:space="preserve">0.186157330870628</t>
@@ -62,55 +62,55 @@
     <t xml:space="preserve">0.163404747843742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157199487090111</t>
+    <t xml:space="preserve">0.157199516892433</t>
   </si>
   <si>
     <t xml:space="preserve">0.164301082491875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159267947077751</t>
+    <t xml:space="preserve">0.15926793217659</t>
   </si>
   <si>
     <t xml:space="preserve">0.167541578412056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168231040239334</t>
+    <t xml:space="preserve">0.168231055140495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165404230356216</t>
+    <t xml:space="preserve">0.165404215455055</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160646855831146</t>
+    <t xml:space="preserve">0.160646870732307</t>
   </si>
   <si>
     <t xml:space="preserve">0.153407394886017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153062701225281</t>
+    <t xml:space="preserve">0.15306268632412</t>
   </si>
   <si>
     <t xml:space="preserve">0.153476357460022</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155820548534393</t>
+    <t xml:space="preserve">0.155820578336716</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152373194694519</t>
+    <t xml:space="preserve">0.152373224496841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165748953819275</t>
+    <t xml:space="preserve">0.165748938918114</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186846792697906</t>
+    <t xml:space="preserve">0.186846762895584</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182985737919807</t>
+    <t xml:space="preserve">0.182985723018646</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179262593388557</t>
+    <t xml:space="preserve">0.179262578487396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172367885708809</t>
+    <t xml:space="preserve">0.17236790060997</t>
   </si>
   <si>
     <t xml:space="preserve">0.169609993696213</t>
@@ -119,37 +119,37 @@
     <t xml:space="preserve">0.164094239473343</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17078210413456</t>
+    <t xml:space="preserve">0.170782089233398</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176504716277122</t>
+    <t xml:space="preserve">0.176504731178284</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174367353320122</t>
+    <t xml:space="preserve">0.174367338418961</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194499909877777</t>
+    <t xml:space="preserve">0.194499924778938</t>
   </si>
   <si>
     <t xml:space="preserve">0.194430977106094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187536269426346</t>
+    <t xml:space="preserve">0.187536254525185</t>
   </si>
   <si>
     <t xml:space="preserve">0.182020485401154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206841468811035</t>
+    <t xml:space="preserve">0.206841483712196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211323037743568</t>
+    <t xml:space="preserve">0.211323022842407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210288837552071</t>
+    <t xml:space="preserve">0.210288807749748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.202015176415443</t>
+    <t xml:space="preserve">0.202015191316605</t>
   </si>
   <si>
     <t xml:space="preserve">0.199257284402847</t>
@@ -161,22 +161,22 @@
     <t xml:space="preserve">0.228904545307159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220561951398849</t>
+    <t xml:space="preserve">0.220561966300011</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21580459177494</t>
+    <t xml:space="preserve">0.215804606676102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.213046684861183</t>
+    <t xml:space="preserve">0.213046714663506</t>
   </si>
   <si>
-    <t xml:space="preserve">0.19649937748909</t>
+    <t xml:space="preserve">0.196499392390251</t>
   </si>
   <si>
     <t xml:space="preserve">0.199946731328964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186295211315155</t>
+    <t xml:space="preserve">0.186295226216316</t>
   </si>
   <si>
     <t xml:space="preserve">0.18477837741375</t>
@@ -185,40 +185,40 @@
     <t xml:space="preserve">0.178573116660118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166300520300865</t>
+    <t xml:space="preserve">0.166300535202026</t>
   </si>
   <si>
     <t xml:space="preserve">0.182709947228432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172298952937126</t>
+    <t xml:space="preserve">0.172298923134804</t>
   </si>
   <si>
     <t xml:space="preserve">0.166852101683617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168920516967773</t>
+    <t xml:space="preserve">0.168920531868935</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17291946709156</t>
+    <t xml:space="preserve">0.172919452190399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.204083561897278</t>
+    <t xml:space="preserve">0.2040835916996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206151992082596</t>
+    <t xml:space="preserve">0.206151977181435</t>
   </si>
   <si>
     <t xml:space="preserve">0.201325684785843</t>
   </si>
   <si>
-    <t xml:space="preserve">0.19932621717453</t>
+    <t xml:space="preserve">0.199326232075691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183399423956871</t>
+    <t xml:space="preserve">0.183399438858032</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175815224647522</t>
+    <t xml:space="preserve">0.175815254449844</t>
   </si>
   <si>
     <t xml:space="preserve">0.161336332559586</t>
@@ -227,37 +227,37 @@
     <t xml:space="preserve">0.166162639856339</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162715271115303</t>
+    <t xml:space="preserve">0.162715286016464</t>
   </si>
   <si>
     <t xml:space="preserve">0.158578455448151</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173746809363365</t>
+    <t xml:space="preserve">0.173746839165688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181193113327026</t>
+    <t xml:space="preserve">0.181193128228188</t>
   </si>
   <si>
     <t xml:space="preserve">0.187191516160965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188915207982063</t>
+    <t xml:space="preserve">0.188915193080902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.200291469693184</t>
+    <t xml:space="preserve">0.200291454792023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219941407442093</t>
+    <t xml:space="preserve">0.219941437244415</t>
   </si>
   <si>
-    <t xml:space="preserve">0.212357208132744</t>
+    <t xml:space="preserve">0.212357237935066</t>
   </si>
   <si>
     <t xml:space="preserve">0.195396229624748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.209254622459412</t>
+    <t xml:space="preserve">0.20925460755825</t>
   </si>
   <si>
     <t xml:space="preserve">0.220492973923683</t>
@@ -266,16 +266,16 @@
     <t xml:space="preserve">0.213736176490784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210357770323753</t>
+    <t xml:space="preserve">0.210357755422592</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219251945614815</t>
+    <t xml:space="preserve">0.219251960515976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233730867505074</t>
+    <t xml:space="preserve">0.233730837702751</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23779870569706</t>
+    <t xml:space="preserve">0.237798735499382</t>
   </si>
   <si>
     <t xml:space="preserve">0.255104452371597</t>
@@ -284,22 +284,22 @@
     <t xml:space="preserve">0.261309742927551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.275788605213165</t>
+    <t xml:space="preserve">0.275788635015488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.293025374412537</t>
+    <t xml:space="preserve">0.293025404214859</t>
   </si>
   <si>
-    <t xml:space="preserve">0.301988512277603</t>
+    <t xml:space="preserve">0.301988482475281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.318535894155502</t>
+    <t xml:space="preserve">0.31853586435318</t>
   </si>
   <si>
-    <t xml:space="preserve">0.327499002218246</t>
+    <t xml:space="preserve">0.327498942613602</t>
   </si>
   <si>
-    <t xml:space="preserve">0.282683342695236</t>
+    <t xml:space="preserve">0.282683312892914</t>
   </si>
   <si>
     <t xml:space="preserve">0.285372257232666</t>
@@ -308,25 +308,25 @@
     <t xml:space="preserve">0.274478614330292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.274409681558609</t>
+    <t xml:space="preserve">0.274409651756287</t>
   </si>
   <si>
     <t xml:space="preserve">0.266342878341675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.266825467348099</t>
+    <t xml:space="preserve">0.266825497150421</t>
   </si>
   <si>
-    <t xml:space="preserve">0.266963362693787</t>
+    <t xml:space="preserve">0.266963332891464</t>
   </si>
   <si>
-    <t xml:space="preserve">0.251657158136368</t>
+    <t xml:space="preserve">0.251657128334045</t>
   </si>
   <si>
     <t xml:space="preserve">0.256483405828476</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230972975492477</t>
+    <t xml:space="preserve">0.230972960591316</t>
   </si>
   <si>
     <t xml:space="preserve">0.226974010467529</t>
@@ -335,7 +335,7 @@
     <t xml:space="preserve">0.232351914048195</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228973522782326</t>
+    <t xml:space="preserve">0.228973478078842</t>
   </si>
   <si>
     <t xml:space="preserve">0.26062023639679</t>
@@ -347,16 +347,16 @@
     <t xml:space="preserve">0.253173917531967</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249588653445244</t>
+    <t xml:space="preserve">0.249588698148727</t>
   </si>
   <si>
     <t xml:space="preserve">0.258551806211472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248209789395332</t>
+    <t xml:space="preserve">0.24820975959301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244762390851974</t>
+    <t xml:space="preserve">0.244762361049652</t>
   </si>
   <si>
     <t xml:space="preserve">0.237867683172226</t>
@@ -365,10 +365,10 @@
     <t xml:space="preserve">0.243935003876686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233799815177917</t>
+    <t xml:space="preserve">0.233799830079079</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220699846744537</t>
+    <t xml:space="preserve">0.220699831843376</t>
   </si>
   <si>
     <t xml:space="preserve">0.224078238010406</t>
@@ -383,25 +383,25 @@
     <t xml:space="preserve">0.227525606751442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229042440652847</t>
+    <t xml:space="preserve">0.22904247045517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23248977959156</t>
+    <t xml:space="preserve">0.232489794492722</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247520282864571</t>
+    <t xml:space="preserve">0.247520267963409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241177141666412</t>
+    <t xml:space="preserve">0.241177171468735</t>
   </si>
   <si>
-    <t xml:space="preserve">0.242211356759071</t>
+    <t xml:space="preserve">0.24221134185791</t>
   </si>
   <si>
     <t xml:space="preserve">0.251726061105728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.257103890180588</t>
+    <t xml:space="preserve">0.25710391998291</t>
   </si>
   <si>
     <t xml:space="preserve">0.24627922475338</t>
@@ -410,25 +410,25 @@
     <t xml:space="preserve">0.2413150370121</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241039261221886</t>
+    <t xml:space="preserve">0.241039231419563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237936615943909</t>
+    <t xml:space="preserve">0.237936601042747</t>
   </si>
   <si>
     <t xml:space="preserve">0.253725558519363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238074511289597</t>
+    <t xml:space="preserve">0.238074481487274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244969218969345</t>
+    <t xml:space="preserve">0.244969248771667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325982123613358</t>
+    <t xml:space="preserve">0.325982183218002</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386104077100754</t>
+    <t xml:space="preserve">0.386104047298431</t>
   </si>
   <si>
     <t xml:space="preserve">0.510208904743195</t>
@@ -437,76 +437,76 @@
     <t xml:space="preserve">0.598461210727692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.523308873176575</t>
+    <t xml:space="preserve">0.523308932781219</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479182720184326</t>
+    <t xml:space="preserve">0.479182690382004</t>
   </si>
   <si>
-    <t xml:space="preserve">0.462980151176453</t>
+    <t xml:space="preserve">0.46298012137413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434367090463638</t>
+    <t xml:space="preserve">0.434367060661316</t>
   </si>
   <si>
     <t xml:space="preserve">0.399893462657928</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454361706972122</t>
+    <t xml:space="preserve">0.4543616771698</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402996152639389</t>
+    <t xml:space="preserve">0.402996122837067</t>
   </si>
   <si>
     <t xml:space="preserve">0.410235583782196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3798987865448</t>
+    <t xml:space="preserve">0.379898816347122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357490956783295</t>
+    <t xml:space="preserve">0.357490986585617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345425218343735</t>
+    <t xml:space="preserve">0.345425248146057</t>
   </si>
   <si>
     <t xml:space="preserve">0.358180493116379</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366798847913742</t>
+    <t xml:space="preserve">0.366798877716064</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353009432554245</t>
+    <t xml:space="preserve">0.353009462356567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382656693458557</t>
+    <t xml:space="preserve">0.38265672326088</t>
   </si>
   <si>
     <t xml:space="preserve">0.37438303232193</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358525186777115</t>
+    <t xml:space="preserve">0.358525156974792</t>
   </si>
   <si>
     <t xml:space="preserve">0.34921732544899</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352319955825806</t>
+    <t xml:space="preserve">0.352319926023483</t>
   </si>
   <si>
     <t xml:space="preserve">0.365419894456863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361972510814667</t>
+    <t xml:space="preserve">0.361972540616989</t>
   </si>
   <si>
     <t xml:space="preserve">0.348183125257492</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35576730966568</t>
+    <t xml:space="preserve">0.355767279863358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344735771417618</t>
+    <t xml:space="preserve">0.34473580121994</t>
   </si>
   <si>
     <t xml:space="preserve">0.34197786450386</t>
@@ -518,16 +518,16 @@
     <t xml:space="preserve">0.348872572183609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34749361872673</t>
+    <t xml:space="preserve">0.347493678331375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360248863697052</t>
+    <t xml:space="preserve">0.360248893499374</t>
   </si>
   <si>
     <t xml:space="preserve">0.354388356208801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359904140233994</t>
+    <t xml:space="preserve">0.359904170036316</t>
   </si>
   <si>
     <t xml:space="preserve">0.330946326255798</t>
@@ -539,37 +539,37 @@
     <t xml:space="preserve">0.341219455003738</t>
   </si>
   <si>
-    <t xml:space="preserve">0.351630449295044</t>
+    <t xml:space="preserve">0.351630508899689</t>
   </si>
   <si>
     <t xml:space="preserve">0.357146233320236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.39299875497818</t>
+    <t xml:space="preserve">0.392998784780502</t>
   </si>
   <si>
     <t xml:space="preserve">0.372314661741257</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373004108667374</t>
+    <t xml:space="preserve">0.373004138469696</t>
   </si>
   <si>
     <t xml:space="preserve">0.35025155544281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370590955018997</t>
+    <t xml:space="preserve">0.37059098482132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345080554485321</t>
+    <t xml:space="preserve">0.345080524682999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35955935716629</t>
+    <t xml:space="preserve">0.359559386968613</t>
   </si>
   <si>
     <t xml:space="preserve">0.427472352981567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405409276485443</t>
+    <t xml:space="preserve">0.405409216880798</t>
   </si>
   <si>
     <t xml:space="preserve">0.404719769954681</t>
@@ -578,13 +578,13 @@
     <t xml:space="preserve">0.40609872341156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398859322071075</t>
+    <t xml:space="preserve">0.398859262466431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406788170337677</t>
+    <t xml:space="preserve">0.406788200139999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378519922494888</t>
+    <t xml:space="preserve">0.378519892692566</t>
   </si>
   <si>
     <t xml:space="preserve">0.3836909532547</t>
@@ -596,37 +596,37 @@
     <t xml:space="preserve">0.402651369571686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.42643815279007</t>
+    <t xml:space="preserve">0.426438122987747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429540753364563</t>
+    <t xml:space="preserve">0.429540812969208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41437241435051</t>
+    <t xml:space="preserve">0.414372384548187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41368293762207</t>
+    <t xml:space="preserve">0.413682967424393</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424714416265488</t>
+    <t xml:space="preserve">0.424714475870132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414027631282806</t>
+    <t xml:space="preserve">0.414027690887451</t>
   </si>
   <si>
-    <t xml:space="preserve">0.447467058897018</t>
+    <t xml:space="preserve">0.447467029094696</t>
   </si>
   <si>
     <t xml:space="preserve">0.455051213502884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.430230230093002</t>
+    <t xml:space="preserve">0.43023020029068</t>
   </si>
   <si>
     <t xml:space="preserve">0.413338184356689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424024999141693</t>
+    <t xml:space="preserve">0.424025028944016</t>
   </si>
   <si>
     <t xml:space="preserve">0.517103612422943</t>
@@ -635,34 +635,34 @@
     <t xml:space="preserve">0.481940567493439</t>
   </si>
   <si>
-    <t xml:space="preserve">0.496419578790665</t>
+    <t xml:space="preserve">0.49641951918602</t>
   </si>
   <si>
     <t xml:space="preserve">0.475735366344452</t>
   </si>
   <si>
-    <t xml:space="preserve">0.480561703443527</t>
+    <t xml:space="preserve">0.480561673641205</t>
   </si>
   <si>
-    <t xml:space="preserve">0.489524781703949</t>
+    <t xml:space="preserve">0.489524722099304</t>
   </si>
   <si>
     <t xml:space="preserve">0.4826300740242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463324904441833</t>
+    <t xml:space="preserve">0.463324874639511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.466082692146301</t>
+    <t xml:space="preserve">0.466082721948624</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461945950984955</t>
+    <t xml:space="preserve">0.461945921182632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.449535429477692</t>
+    <t xml:space="preserve">0.449535399675369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.445398658514023</t>
+    <t xml:space="preserve">0.4453986287117</t>
   </si>
   <si>
     <t xml:space="preserve">0.448156476020813</t>
@@ -683,10 +683,10 @@
     <t xml:space="preserve">0.507451117038727</t>
   </si>
   <si>
-    <t xml:space="preserve">0.468840599060059</t>
+    <t xml:space="preserve">0.468840658664703</t>
   </si>
   <si>
-    <t xml:space="preserve">0.43850389122963</t>
+    <t xml:space="preserve">0.438503921031952</t>
   </si>
   <si>
     <t xml:space="preserve">0.459188014268875</t>
@@ -695,49 +695,49 @@
     <t xml:space="preserve">0.46470382809639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450914353132248</t>
+    <t xml:space="preserve">0.45091438293457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437124937772751</t>
+    <t xml:space="preserve">0.437124907970428</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444019615650177</t>
+    <t xml:space="preserve">0.444019675254822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41919869184494</t>
+    <t xml:space="preserve">0.419198662042618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.420577675104141</t>
+    <t xml:space="preserve">0.420577615499496</t>
   </si>
   <si>
-    <t xml:space="preserve">0.426093369722366</t>
+    <t xml:space="preserve">0.426093429327011</t>
   </si>
   <si>
     <t xml:space="preserve">0.442640721797943</t>
   </si>
   <si>
-    <t xml:space="preserve">0.472977519035339</t>
+    <t xml:space="preserve">0.472977489233017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.460566908121109</t>
+    <t xml:space="preserve">0.460566967725754</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446777552366257</t>
+    <t xml:space="preserve">0.446777582168579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.43298813700676</t>
+    <t xml:space="preserve">0.432988196611404</t>
   </si>
   <si>
     <t xml:space="preserve">0.452293336391449</t>
   </si>
   <si>
-    <t xml:space="preserve">0.439882814884186</t>
+    <t xml:space="preserve">0.439882874488831</t>
   </si>
   <si>
     <t xml:space="preserve">0.456430166959763</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397135585546494</t>
+    <t xml:space="preserve">0.397135555744171</t>
   </si>
   <si>
     <t xml:space="preserve">0.40127244591713</t>
@@ -746,73 +746,73 @@
     <t xml:space="preserve">0.398514568805695</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373693585395813</t>
+    <t xml:space="preserve">0.373693525791168</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36128306388855</t>
+    <t xml:space="preserve">0.361283034086227</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394377708435059</t>
+    <t xml:space="preserve">0.394377738237381</t>
   </si>
   <si>
     <t xml:space="preserve">0.391619831323624</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377830415964127</t>
+    <t xml:space="preserve">0.377830386161804</t>
   </si>
   <si>
     <t xml:space="preserve">0.369556754827499</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370935648679733</t>
+    <t xml:space="preserve">0.370935708284378</t>
   </si>
   <si>
     <t xml:space="preserve">0.379209369421005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408167123794556</t>
+    <t xml:space="preserve">0.4081671833992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423335582017899</t>
+    <t xml:space="preserve">0.423335522413254</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387483030557632</t>
+    <t xml:space="preserve">0.38748300075531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.39575669169426</t>
+    <t xml:space="preserve">0.395756661891937</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415061861276627</t>
+    <t xml:space="preserve">0.415061831474304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412303984165192</t>
+    <t xml:space="preserve">0.412303954362869</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409546077251434</t>
+    <t xml:space="preserve">0.409546047449112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421956539154053</t>
+    <t xml:space="preserve">0.421956598758698</t>
   </si>
   <si>
-    <t xml:space="preserve">0.428851306438446</t>
+    <t xml:space="preserve">0.428851276636124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431609183549881</t>
+    <t xml:space="preserve">0.431609213352203</t>
   </si>
   <si>
     <t xml:space="preserve">0.465393275022507</t>
   </si>
   <si>
-    <t xml:space="preserve">0.472287952899933</t>
+    <t xml:space="preserve">0.4722880423069</t>
   </si>
   <si>
-    <t xml:space="preserve">0.492972105741501</t>
+    <t xml:space="preserve">0.492972165346146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.499866873025894</t>
+    <t xml:space="preserve">0.499866902828217</t>
   </si>
   <si>
-    <t xml:space="preserve">0.508923530578613</t>
+    <t xml:space="preserve">0.508923470973969</t>
   </si>
   <si>
     <t xml:space="preserve">0.486135870218277</t>
@@ -824,16 +824,16 @@
     <t xml:space="preserve">0.455752402544022</t>
   </si>
   <si>
-    <t xml:space="preserve">0.467146188020706</t>
+    <t xml:space="preserve">0.467146247625351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478539973497391</t>
+    <t xml:space="preserve">0.478539943695068</t>
   </si>
   <si>
-    <t xml:space="preserve">0.482337892055511</t>
+    <t xml:space="preserve">0.482337951660156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47474205493927</t>
+    <t xml:space="preserve">0.474742025136948</t>
   </si>
   <si>
     <t xml:space="preserve">0.459550321102142</t>
@@ -842,16 +842,16 @@
     <t xml:space="preserve">0.440560609102249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451954424381256</t>
+    <t xml:space="preserve">0.451954483985901</t>
   </si>
   <si>
     <t xml:space="preserve">0.425368875265121</t>
   </si>
   <si>
-    <t xml:space="preserve">0.42916676402092</t>
+    <t xml:space="preserve">0.429166793823242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444358557462692</t>
+    <t xml:space="preserve">0.444358587265015</t>
   </si>
   <si>
     <t xml:space="preserve">0.463348239660263</t>
@@ -860,16 +860,16 @@
     <t xml:space="preserve">0.489933758974075</t>
   </si>
   <si>
-    <t xml:space="preserve">0.577286303043365</t>
+    <t xml:space="preserve">0.57728636264801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493731737136841</t>
+    <t xml:space="preserve">0.493731677532196</t>
   </si>
   <si>
     <t xml:space="preserve">0.501327633857727</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497529655694962</t>
+    <t xml:space="preserve">0.497529715299606</t>
   </si>
   <si>
     <t xml:space="preserve">0.436762690544128</t>
@@ -896,7 +896,7 @@
     <t xml:space="preserve">0.402581244707108</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373716920614243</t>
+    <t xml:space="preserve">0.373716950416565</t>
   </si>
   <si>
     <t xml:space="preserve">0.372197777032852</t>
@@ -908,31 +908,31 @@
     <t xml:space="preserve">0.379793643951416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364601880311966</t>
+    <t xml:space="preserve">0.364601910114288</t>
   </si>
   <si>
     <t xml:space="preserve">0.341814249753952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344852656126022</t>
+    <t xml:space="preserve">0.3448526263237</t>
   </si>
   <si>
     <t xml:space="preserve">0.31902664899826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.284085661172867</t>
+    <t xml:space="preserve">0.284085631370544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.305354058742523</t>
+    <t xml:space="preserve">0.305354088544846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.288643151521683</t>
+    <t xml:space="preserve">0.288643181324005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.29927733540535</t>
+    <t xml:space="preserve">0.299277365207672</t>
   </si>
   <si>
-    <t xml:space="preserve">0.28712397813797</t>
+    <t xml:space="preserve">0.287123948335648</t>
   </si>
   <si>
     <t xml:space="preserve">0.273451447486877</t>
@@ -941,7 +941,7 @@
     <t xml:space="preserve">0.267374724149704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312949925661087</t>
+    <t xml:space="preserve">0.312949985265732</t>
   </si>
   <si>
     <t xml:space="preserve">0.314469128847122</t>
@@ -950,13 +950,13 @@
     <t xml:space="preserve">0.297758221626282</t>
   </si>
   <si>
-    <t xml:space="preserve">0.306873261928558</t>
+    <t xml:space="preserve">0.306873291730881</t>
   </si>
   <si>
     <t xml:space="preserve">0.308392405509949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.323584169149399</t>
+    <t xml:space="preserve">0.323584198951721</t>
   </si>
   <si>
     <t xml:space="preserve">0.332699209451675</t>
@@ -965,7 +965,7 @@
     <t xml:space="preserve">0.338775932788849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370678544044495</t>
+    <t xml:space="preserve">0.370678603649139</t>
   </si>
   <si>
     <t xml:space="preserve">0.357006013393402</t>
@@ -974,22 +974,22 @@
     <t xml:space="preserve">0.350929319858551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.376755267381668</t>
+    <t xml:space="preserve">0.37675529718399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398783296346664</t>
+    <t xml:space="preserve">0.398783326148987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413975059986115</t>
+    <t xml:space="preserve">0.413975089788437</t>
   </si>
   <si>
     <t xml:space="preserve">0.360044360160828</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363082706928253</t>
+    <t xml:space="preserve">0.363082677125931</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369159400463104</t>
+    <t xml:space="preserve">0.369159430265427</t>
   </si>
   <si>
     <t xml:space="preserve">0.383591592311859</t>
@@ -998,19 +998,19 @@
     <t xml:space="preserve">0.378274470567703</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353967636823654</t>
+    <t xml:space="preserve">0.353967666625977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355486810207367</t>
+    <t xml:space="preserve">0.355486840009689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352448463439941</t>
+    <t xml:space="preserve">0.352448493242264</t>
   </si>
   <si>
     <t xml:space="preserve">0.349410176277161</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335737556219101</t>
+    <t xml:space="preserve">0.335737586021423</t>
   </si>
   <si>
     <t xml:space="preserve">0.347890973091125</t>
@@ -1028,7 +1028,7 @@
     <t xml:space="preserve">0.315988302230835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.290162324905396</t>
+    <t xml:space="preserve">0.290162354707718</t>
   </si>
   <si>
     <t xml:space="preserve">0.293200701475143</t>
@@ -1043,10 +1043,10 @@
     <t xml:space="preserve">0.296239048242569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.30383488535881</t>
+    <t xml:space="preserve">0.303834944963455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.320545822381973</t>
+    <t xml:space="preserve">0.320545852184296</t>
   </si>
   <si>
     <t xml:space="preserve">0.325103342533112</t>
@@ -1055,49 +1055,49 @@
     <t xml:space="preserve">0.317507475614548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47146800160408</t>
+    <t xml:space="preserve">0.471467941999435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4383824467659</t>
+    <t xml:space="preserve">0.438382506370544</t>
   </si>
   <si>
     <t xml:space="preserve">0.425975382328033</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413568407297134</t>
+    <t xml:space="preserve">0.413568377494812</t>
   </si>
   <si>
     <t xml:space="preserve">0.397025644779205</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405297011137009</t>
+    <t xml:space="preserve">0.405297040939331</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398679882287979</t>
+    <t xml:space="preserve">0.398679941892624</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417704075574875</t>
+    <t xml:space="preserve">0.417704045772552</t>
   </si>
   <si>
     <t xml:space="preserve">0.41025984287262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40033420920372</t>
+    <t xml:space="preserve">0.400334179401398</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383791446685791</t>
+    <t xml:space="preserve">0.383791476488113</t>
   </si>
   <si>
     <t xml:space="preserve">0.377174377441406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.375520080327988</t>
+    <t xml:space="preserve">0.37552011013031</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372211575508118</t>
+    <t xml:space="preserve">0.372211545705795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387099981307983</t>
+    <t xml:space="preserve">0.387100011110306</t>
   </si>
   <si>
     <t xml:space="preserve">0.380482912063599</t>
@@ -1106,22 +1106,22 @@
     <t xml:space="preserve">0.385445713996887</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368903011083603</t>
+    <t xml:space="preserve">0.368902981281281</t>
   </si>
   <si>
     <t xml:space="preserve">0.367248743772507</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382137179374695</t>
+    <t xml:space="preserve">0.382137209177017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479739308357239</t>
+    <t xml:space="preserve">0.479739338159561</t>
   </si>
   <si>
     <t xml:space="preserve">0.450789541006088</t>
   </si>
   <si>
-    <t xml:space="preserve">0.496282070875168</t>
+    <t xml:space="preserve">0.49628210067749</t>
   </si>
   <si>
     <t xml:space="preserve">0.48801064491272</t>
@@ -1130,13 +1130,13 @@
     <t xml:space="preserve">0.483874976634979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454925239086151</t>
+    <t xml:space="preserve">0.454925209283829</t>
   </si>
   <si>
-    <t xml:space="preserve">0.442518204450607</t>
+    <t xml:space="preserve">0.44251823425293</t>
   </si>
   <si>
-    <t xml:space="preserve">0.430111110210419</t>
+    <t xml:space="preserve">0.430111080408096</t>
   </si>
   <si>
     <t xml:space="preserve">0.421839743852615</t>
@@ -1145,7 +1145,7 @@
     <t xml:space="preserve">0.434246778488159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446653842926025</t>
+    <t xml:space="preserve">0.446653872728348</t>
   </si>
   <si>
     <t xml:space="preserve">0.408605545759201</t>
@@ -1160,10 +1160,10 @@
     <t xml:space="preserve">0.378828674554825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373865813016891</t>
+    <t xml:space="preserve">0.373865783214569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406951308250427</t>
+    <t xml:space="preserve">0.406951278448105</t>
   </si>
   <si>
     <t xml:space="preserve">0.395371347665787</t>
@@ -1181,25 +1181,25 @@
     <t xml:space="preserve">0.329200446605682</t>
   </si>
   <si>
-    <t xml:space="preserve">0.330854743719101</t>
+    <t xml:space="preserve">0.330854713916779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349051743745804</t>
+    <t xml:space="preserve">0.349051713943481</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350705951452255</t>
+    <t xml:space="preserve">0.350705981254578</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355668842792511</t>
+    <t xml:space="preserve">0.355668812990189</t>
   </si>
   <si>
     <t xml:space="preserve">0.358977347612381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362285882234573</t>
+    <t xml:space="preserve">0.362285912036896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36394014954567</t>
+    <t xml:space="preserve">0.363940179347992</t>
   </si>
   <si>
     <t xml:space="preserve">0.370557278394699</t>
@@ -1208,25 +1208,25 @@
     <t xml:space="preserve">0.3606316447258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.33912605047226</t>
+    <t xml:space="preserve">0.339126110076904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.337471812963486</t>
+    <t xml:space="preserve">0.337471783161163</t>
   </si>
   <si>
     <t xml:space="preserve">0.332508981227875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34408888220787</t>
+    <t xml:space="preserve">0.344088912010193</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354014545679092</t>
+    <t xml:space="preserve">0.35401451587677</t>
   </si>
   <si>
     <t xml:space="preserve">0.348381489515305</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353581219911575</t>
+    <t xml:space="preserve">0.353581190109253</t>
   </si>
   <si>
     <t xml:space="preserve">0.34491503238678</t>
@@ -1235,25 +1235,25 @@
     <t xml:space="preserve">0.350114732980728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363980650901794</t>
+    <t xml:space="preserve">0.363980621099472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36571392416954</t>
+    <t xml:space="preserve">0.365713894367218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.351847946643829</t>
+    <t xml:space="preserve">0.351847976446152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355314433574677</t>
+    <t xml:space="preserve">0.355314463376999</t>
   </si>
   <si>
     <t xml:space="preserve">0.343181759119034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332782357931137</t>
+    <t xml:space="preserve">0.332782328128815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.320649653673172</t>
+    <t xml:space="preserve">0.32064962387085</t>
   </si>
   <si>
     <t xml:space="preserve">0.331049054861069</t>
@@ -1262,13 +1262,13 @@
     <t xml:space="preserve">0.346648275852203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329315841197968</t>
+    <t xml:space="preserve">0.32931587100029</t>
   </si>
   <si>
     <t xml:space="preserve">0.327582567930222</t>
   </si>
   <si>
-    <t xml:space="preserve">0.318916380405426</t>
+    <t xml:space="preserve">0.318916410207748</t>
   </si>
   <si>
     <t xml:space="preserve">0.310250163078308</t>
@@ -1277,7 +1277,7 @@
     <t xml:space="preserve">0.315449893474579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.306783676147461</t>
+    <t xml:space="preserve">0.306783705949783</t>
   </si>
   <si>
     <t xml:space="preserve">0.303317189216614</t>
@@ -1286,10 +1286,10 @@
     <t xml:space="preserve">0.30505046248436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.296384274959564</t>
+    <t xml:space="preserve">0.296384304761887</t>
   </si>
   <si>
-    <t xml:space="preserve">0.308516979217529</t>
+    <t xml:space="preserve">0.308516949415207</t>
   </si>
   <si>
     <t xml:space="preserve">0.298117488622665</t>
@@ -1304,19 +1304,19 @@
     <t xml:space="preserve">0.324116140604019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32584935426712</t>
+    <t xml:space="preserve">0.325849324464798</t>
   </si>
   <si>
-    <t xml:space="preserve">0.337982028722763</t>
+    <t xml:space="preserve">0.337981998920441</t>
   </si>
   <si>
     <t xml:space="preserve">0.317183136940002</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379579812288284</t>
+    <t xml:space="preserve">0.379579842090607</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370913624763489</t>
+    <t xml:space="preserve">0.370913594961166</t>
   </si>
   <si>
     <t xml:space="preserve">0.372646898031235</t>
@@ -1325,13 +1325,13 @@
     <t xml:space="preserve">0.374380111694336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367447108030319</t>
+    <t xml:space="preserve">0.367447137832642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369180381298065</t>
+    <t xml:space="preserve">0.369180411100388</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386512815952301</t>
+    <t xml:space="preserve">0.386512786149979</t>
   </si>
   <si>
     <t xml:space="preserve">0.323986053466797</t>
@@ -60209,7 +60209,7 @@
     </row>
     <row r="2245">
       <c r="A2245" s="1" t="n">
-        <v>45589.6185416667</v>
+        <v>45589.2916666667</v>
       </c>
       <c r="B2245" t="n">
         <v>28000</v>
@@ -60230,6 +60230,32 @@
         <v>499</v>
       </c>
       <c r="H2245" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2246">
+      <c r="A2246" s="1" t="n">
+        <v>45590.6017476852</v>
+      </c>
+      <c r="B2246" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C2246" t="n">
+        <v>0.351999998092651</v>
+      </c>
+      <c r="D2246" t="n">
+        <v>0.340000003576279</v>
+      </c>
+      <c r="E2246" t="n">
+        <v>0.361999988555908</v>
+      </c>
+      <c r="F2246" t="n">
+        <v>0.349999994039536</v>
+      </c>
+      <c r="G2246" t="s">
+        <v>499</v>
+      </c>
+      <c r="H2246" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/POPR.MI.xlsx
+++ b/data/POPR.MI.xlsx
@@ -47,10 +47,10 @@
     <t xml:space="preserve">0.193741500377655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.189604684710503</t>
+    <t xml:space="preserve">0.189604669809341</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188225731253624</t>
+    <t xml:space="preserve">0.188225716352463</t>
   </si>
   <si>
     <t xml:space="preserve">0.179952085018158</t>
@@ -62,16 +62,16 @@
     <t xml:space="preserve">0.163404747843742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157199516892433</t>
+    <t xml:space="preserve">0.157199501991272</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164301082491875</t>
+    <t xml:space="preserve">0.164301067590714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15926793217659</t>
+    <t xml:space="preserve">0.159267947077751</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167541578412056</t>
+    <t xml:space="preserve">0.167541608214378</t>
   </si>
   <si>
     <t xml:space="preserve">0.168231055140495</t>
@@ -80,10 +80,10 @@
     <t xml:space="preserve">0.165404215455055</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160646870732307</t>
+    <t xml:space="preserve">0.160646855831146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153407394886017</t>
+    <t xml:space="preserve">0.153407409787178</t>
   </si>
   <si>
     <t xml:space="preserve">0.15306268632412</t>
@@ -92,112 +92,112 @@
     <t xml:space="preserve">0.153476357460022</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155820578336716</t>
+    <t xml:space="preserve">0.155820563435555</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152373224496841</t>
+    <t xml:space="preserve">0.152373194694519</t>
   </si>
   <si>
     <t xml:space="preserve">0.165748938918114</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186846762895584</t>
+    <t xml:space="preserve">0.186846792697906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182985723018646</t>
+    <t xml:space="preserve">0.182985737919807</t>
   </si>
   <si>
     <t xml:space="preserve">0.179262578487396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17236790060997</t>
+    <t xml:space="preserve">0.172367885708809</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169609993696213</t>
+    <t xml:space="preserve">0.169610008597374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164094239473343</t>
+    <t xml:space="preserve">0.164094224572182</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170782089233398</t>
+    <t xml:space="preserve">0.170782119035721</t>
   </si>
   <si>
     <t xml:space="preserve">0.176504731178284</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174367338418961</t>
+    <t xml:space="preserve">0.174367353320122</t>
   </si>
   <si>
     <t xml:space="preserve">0.194499924778938</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194430977106094</t>
+    <t xml:space="preserve">0.194430962204933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187536254525185</t>
+    <t xml:space="preserve">0.187536269426346</t>
   </si>
   <si>
     <t xml:space="preserve">0.182020485401154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206841483712196</t>
+    <t xml:space="preserve">0.206841453909874</t>
   </si>
   <si>
     <t xml:space="preserve">0.211323022842407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210288807749748</t>
+    <t xml:space="preserve">0.210288822650909</t>
   </si>
   <si>
-    <t xml:space="preserve">0.202015191316605</t>
+    <t xml:space="preserve">0.202015176415443</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199257284402847</t>
+    <t xml:space="preserve">0.199257254600525</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220630884170532</t>
+    <t xml:space="preserve">0.220630899071693</t>
   </si>
   <si>
     <t xml:space="preserve">0.228904545307159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220561966300011</t>
+    <t xml:space="preserve">0.220561951398849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.215804606676102</t>
+    <t xml:space="preserve">0.21580459177494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.213046714663506</t>
+    <t xml:space="preserve">0.213046684861183</t>
   </si>
   <si>
-    <t xml:space="preserve">0.196499392390251</t>
+    <t xml:space="preserve">0.196499362587929</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199946731328964</t>
+    <t xml:space="preserve">0.199946746230125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186295226216316</t>
+    <t xml:space="preserve">0.186295241117477</t>
   </si>
   <si>
     <t xml:space="preserve">0.18477837741375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178573116660118</t>
+    <t xml:space="preserve">0.178573131561279</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166300535202026</t>
+    <t xml:space="preserve">0.166300520300865</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182709947228432</t>
+    <t xml:space="preserve">0.182709932327271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172298923134804</t>
+    <t xml:space="preserve">0.172298938035965</t>
   </si>
   <si>
     <t xml:space="preserve">0.166852101683617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168920531868935</t>
+    <t xml:space="preserve">0.168920516967773</t>
   </si>
   <si>
     <t xml:space="preserve">0.172919452190399</t>
@@ -209,55 +209,55 @@
     <t xml:space="preserve">0.206151977181435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.201325684785843</t>
+    <t xml:space="preserve">0.201325669884682</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199326232075691</t>
+    <t xml:space="preserve">0.199326202273369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183399438858032</t>
+    <t xml:space="preserve">0.183399423956871</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175815254449844</t>
+    <t xml:space="preserve">0.175815224647522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161336332559586</t>
+    <t xml:space="preserve">0.161336347460747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166162639856339</t>
+    <t xml:space="preserve">0.166162624955177</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162715286016464</t>
+    <t xml:space="preserve">0.162715300917625</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158578455448151</t>
+    <t xml:space="preserve">0.158578440546989</t>
   </si>
   <si>
     <t xml:space="preserve">0.173746839165688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181193128228188</t>
+    <t xml:space="preserve">0.181193113327026</t>
   </si>
   <si>
     <t xml:space="preserve">0.187191516160965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188915193080902</t>
+    <t xml:space="preserve">0.188915207982063</t>
   </si>
   <si>
-    <t xml:space="preserve">0.200291454792023</t>
+    <t xml:space="preserve">0.200291469693184</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219941437244415</t>
+    <t xml:space="preserve">0.219941392540932</t>
   </si>
   <si>
     <t xml:space="preserve">0.212357237935066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195396229624748</t>
+    <t xml:space="preserve">0.195396214723587</t>
   </si>
   <si>
-    <t xml:space="preserve">0.20925460755825</t>
+    <t xml:space="preserve">0.209254622459412</t>
   </si>
   <si>
     <t xml:space="preserve">0.220492973923683</t>
@@ -266,40 +266,40 @@
     <t xml:space="preserve">0.213736176490784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210357755422592</t>
+    <t xml:space="preserve">0.210357740521431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219251960515976</t>
+    <t xml:space="preserve">0.219251945614815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233730837702751</t>
+    <t xml:space="preserve">0.23373082280159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237798735499382</t>
+    <t xml:space="preserve">0.237798750400543</t>
   </si>
   <si>
     <t xml:space="preserve">0.255104452371597</t>
   </si>
   <si>
-    <t xml:space="preserve">0.261309742927551</t>
+    <t xml:space="preserve">0.261309713125229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.275788635015488</t>
+    <t xml:space="preserve">0.275788605213165</t>
   </si>
   <si>
-    <t xml:space="preserve">0.293025404214859</t>
+    <t xml:space="preserve">0.293025434017181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.301988482475281</t>
+    <t xml:space="preserve">0.301988542079926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.31853586435318</t>
+    <t xml:space="preserve">0.318535894155502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.327498942613602</t>
+    <t xml:space="preserve">0.327499002218246</t>
   </si>
   <si>
-    <t xml:space="preserve">0.282683312892914</t>
+    <t xml:space="preserve">0.282683342695236</t>
   </si>
   <si>
     <t xml:space="preserve">0.285372257232666</t>
@@ -308,16 +308,16 @@
     <t xml:space="preserve">0.274478614330292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.274409651756287</t>
+    <t xml:space="preserve">0.274409681558609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.266342878341675</t>
+    <t xml:space="preserve">0.266342848539352</t>
   </si>
   <si>
-    <t xml:space="preserve">0.266825497150421</t>
+    <t xml:space="preserve">0.266825467348099</t>
   </si>
   <si>
-    <t xml:space="preserve">0.266963332891464</t>
+    <t xml:space="preserve">0.266963392496109</t>
   </si>
   <si>
     <t xml:space="preserve">0.251657128334045</t>
@@ -326,31 +326,31 @@
     <t xml:space="preserve">0.256483405828476</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230972960591316</t>
+    <t xml:space="preserve">0.230972975492477</t>
   </si>
   <si>
     <t xml:space="preserve">0.226974010467529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232351914048195</t>
+    <t xml:space="preserve">0.232351899147034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228973478078842</t>
+    <t xml:space="preserve">0.228973522782326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.26062023639679</t>
+    <t xml:space="preserve">0.260620266199112</t>
   </si>
   <si>
     <t xml:space="preserve">0.268893897533417</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253173917531967</t>
+    <t xml:space="preserve">0.25317394733429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249588698148727</t>
+    <t xml:space="preserve">0.249588683247566</t>
   </si>
   <si>
-    <t xml:space="preserve">0.258551806211472</t>
+    <t xml:space="preserve">0.258551836013794</t>
   </si>
   <si>
     <t xml:space="preserve">0.24820975959301</t>
@@ -362,19 +362,19 @@
     <t xml:space="preserve">0.237867683172226</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243935003876686</t>
+    <t xml:space="preserve">0.243935033679008</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233799830079079</t>
+    <t xml:space="preserve">0.233799800276756</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220699831843376</t>
+    <t xml:space="preserve">0.220699816942215</t>
   </si>
   <si>
     <t xml:space="preserve">0.224078238010406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226836144924164</t>
+    <t xml:space="preserve">0.226836115121841</t>
   </si>
   <si>
     <t xml:space="preserve">0.226146668195724</t>
@@ -383,22 +383,22 @@
     <t xml:space="preserve">0.227525606751442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.22904247045517</t>
+    <t xml:space="preserve">0.229042425751686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232489794492722</t>
+    <t xml:space="preserve">0.232489824295044</t>
   </si>
   <si>
     <t xml:space="preserve">0.247520267963409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241177171468735</t>
+    <t xml:space="preserve">0.241177141666412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.24221134185791</t>
+    <t xml:space="preserve">0.242211356759071</t>
   </si>
   <si>
-    <t xml:space="preserve">0.251726061105728</t>
+    <t xml:space="preserve">0.251726031303406</t>
   </si>
   <si>
     <t xml:space="preserve">0.25710391998291</t>
@@ -407,13 +407,13 @@
     <t xml:space="preserve">0.24627922475338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2413150370121</t>
+    <t xml:space="preserve">0.241315007209778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241039231419563</t>
+    <t xml:space="preserve">0.241039216518402</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237936601042747</t>
+    <t xml:space="preserve">0.237936615943909</t>
   </si>
   <si>
     <t xml:space="preserve">0.253725558519363</t>
@@ -422,10 +422,10 @@
     <t xml:space="preserve">0.238074481487274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244969248771667</t>
+    <t xml:space="preserve">0.244969218969345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325982183218002</t>
+    <t xml:space="preserve">0.325982123613358</t>
   </si>
   <si>
     <t xml:space="preserve">0.386104047298431</t>
@@ -434,28 +434,28 @@
     <t xml:space="preserve">0.510208904743195</t>
   </si>
   <si>
-    <t xml:space="preserve">0.598461210727692</t>
+    <t xml:space="preserve">0.598461270332336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.523308932781219</t>
+    <t xml:space="preserve">0.523308873176575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479182690382004</t>
+    <t xml:space="preserve">0.479182660579681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46298012137413</t>
+    <t xml:space="preserve">0.462980151176453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434367060661316</t>
+    <t xml:space="preserve">0.434367030858994</t>
   </si>
   <si>
-    <t xml:space="preserve">0.399893462657928</t>
+    <t xml:space="preserve">0.399893492460251</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4543616771698</t>
+    <t xml:space="preserve">0.454361706972122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402996122837067</t>
+    <t xml:space="preserve">0.402996152639389</t>
   </si>
   <si>
     <t xml:space="preserve">0.410235583782196</t>
@@ -464,7 +464,7 @@
     <t xml:space="preserve">0.379898816347122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357490986585617</t>
+    <t xml:space="preserve">0.357490956783295</t>
   </si>
   <si>
     <t xml:space="preserve">0.345425248146057</t>
@@ -473,13 +473,13 @@
     <t xml:space="preserve">0.358180493116379</t>
   </si>
   <si>
-    <t xml:space="preserve">0.366798877716064</t>
+    <t xml:space="preserve">0.366798847913742</t>
   </si>
   <si>
     <t xml:space="preserve">0.353009462356567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38265672326088</t>
+    <t xml:space="preserve">0.382656663656235</t>
   </si>
   <si>
     <t xml:space="preserve">0.37438303232193</t>
@@ -491,28 +491,28 @@
     <t xml:space="preserve">0.34921732544899</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352319926023483</t>
+    <t xml:space="preserve">0.352319955825806</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365419894456863</t>
+    <t xml:space="preserve">0.365419864654541</t>
   </si>
   <si>
     <t xml:space="preserve">0.361972540616989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.348183125257492</t>
+    <t xml:space="preserve">0.34818309545517</t>
   </si>
   <si>
     <t xml:space="preserve">0.355767279863358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34473580121994</t>
+    <t xml:space="preserve">0.344735771417618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34197786450386</t>
+    <t xml:space="preserve">0.341977834701538</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367143630981445</t>
+    <t xml:space="preserve">0.367143601179123</t>
   </si>
   <si>
     <t xml:space="preserve">0.348872572183609</t>
@@ -521,10 +521,10 @@
     <t xml:space="preserve">0.347493678331375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360248893499374</t>
+    <t xml:space="preserve">0.36024883389473</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354388356208801</t>
+    <t xml:space="preserve">0.354388326406479</t>
   </si>
   <si>
     <t xml:space="preserve">0.359904170036316</t>
@@ -539,79 +539,79 @@
     <t xml:space="preserve">0.341219455003738</t>
   </si>
   <si>
-    <t xml:space="preserve">0.351630508899689</t>
+    <t xml:space="preserve">0.351630449295044</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357146233320236</t>
+    <t xml:space="preserve">0.357146263122559</t>
   </si>
   <si>
-    <t xml:space="preserve">0.392998784780502</t>
+    <t xml:space="preserve">0.392998725175858</t>
   </si>
   <si>
     <t xml:space="preserve">0.372314661741257</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373004138469696</t>
+    <t xml:space="preserve">0.373004108667374</t>
   </si>
   <si>
     <t xml:space="preserve">0.35025155544281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37059098482132</t>
+    <t xml:space="preserve">0.370590955018997</t>
   </si>
   <si>
     <t xml:space="preserve">0.345080524682999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359559386968613</t>
+    <t xml:space="preserve">0.35955935716629</t>
   </si>
   <si>
     <t xml:space="preserve">0.427472352981567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405409216880798</t>
+    <t xml:space="preserve">0.405409246683121</t>
   </si>
   <si>
-    <t xml:space="preserve">0.404719769954681</t>
+    <t xml:space="preserve">0.404719799757004</t>
   </si>
   <si>
     <t xml:space="preserve">0.40609872341156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398859262466431</t>
+    <t xml:space="preserve">0.398859232664108</t>
   </si>
   <si>
     <t xml:space="preserve">0.406788200139999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378519892692566</t>
+    <t xml:space="preserve">0.378519922494888</t>
   </si>
   <si>
     <t xml:space="preserve">0.3836909532547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388861954212189</t>
+    <t xml:space="preserve">0.388861924409866</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402651369571686</t>
+    <t xml:space="preserve">0.402651339769363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.426438122987747</t>
+    <t xml:space="preserve">0.426438093185425</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429540812969208</t>
+    <t xml:space="preserve">0.429540753364563</t>
   </si>
   <si>
     <t xml:space="preserve">0.414372384548187</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413682967424393</t>
+    <t xml:space="preserve">0.413682907819748</t>
   </si>
   <si>
     <t xml:space="preserve">0.424714475870132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414027690887451</t>
+    <t xml:space="preserve">0.414027631282806</t>
   </si>
   <si>
     <t xml:space="preserve">0.447467029094696</t>
@@ -620,16 +620,16 @@
     <t xml:space="preserve">0.455051213502884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.43023020029068</t>
+    <t xml:space="preserve">0.430230170488358</t>
   </si>
   <si>
     <t xml:space="preserve">0.413338184356689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424025028944016</t>
+    <t xml:space="preserve">0.424024969339371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.517103612422943</t>
+    <t xml:space="preserve">0.517103672027588</t>
   </si>
   <si>
     <t xml:space="preserve">0.481940567493439</t>
@@ -641,37 +641,37 @@
     <t xml:space="preserve">0.475735366344452</t>
   </si>
   <si>
-    <t xml:space="preserve">0.480561673641205</t>
+    <t xml:space="preserve">0.480561643838882</t>
   </si>
   <si>
     <t xml:space="preserve">0.489524722099304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4826300740242</t>
+    <t xml:space="preserve">0.482630014419556</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463324874639511</t>
+    <t xml:space="preserve">0.463324844837189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.466082721948624</t>
+    <t xml:space="preserve">0.466082811355591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461945921182632</t>
+    <t xml:space="preserve">0.461945950984955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.449535399675369</t>
+    <t xml:space="preserve">0.449535489082336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4453986287117</t>
+    <t xml:space="preserve">0.445398658514023</t>
   </si>
   <si>
     <t xml:space="preserve">0.448156476020813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453672289848328</t>
+    <t xml:space="preserve">0.453672230243683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.441261768341064</t>
+    <t xml:space="preserve">0.441261798143387</t>
   </si>
   <si>
     <t xml:space="preserve">0.474356442689896</t>
@@ -683,34 +683,34 @@
     <t xml:space="preserve">0.507451117038727</t>
   </si>
   <si>
-    <t xml:space="preserve">0.468840658664703</t>
+    <t xml:space="preserve">0.468840599060059</t>
   </si>
   <si>
-    <t xml:space="preserve">0.438503921031952</t>
+    <t xml:space="preserve">0.43850389122963</t>
   </si>
   <si>
     <t xml:space="preserve">0.459188014268875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46470382809639</t>
+    <t xml:space="preserve">0.464703798294067</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45091438293457</t>
+    <t xml:space="preserve">0.450914353132248</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437124907970428</t>
+    <t xml:space="preserve">0.437124937772751</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444019675254822</t>
+    <t xml:space="preserve">0.444019645452499</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419198662042618</t>
+    <t xml:space="preserve">0.41919869184494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.420577615499496</t>
+    <t xml:space="preserve">0.420577645301819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.426093429327011</t>
+    <t xml:space="preserve">0.426093369722366</t>
   </si>
   <si>
     <t xml:space="preserve">0.442640721797943</t>
@@ -719,55 +719,55 @@
     <t xml:space="preserve">0.472977489233017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.460566967725754</t>
+    <t xml:space="preserve">0.460566997528076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446777582168579</t>
+    <t xml:space="preserve">0.446777492761612</t>
   </si>
   <si>
-    <t xml:space="preserve">0.432988196611404</t>
+    <t xml:space="preserve">0.432988107204437</t>
   </si>
   <si>
     <t xml:space="preserve">0.452293336391449</t>
   </si>
   <si>
-    <t xml:space="preserve">0.439882874488831</t>
+    <t xml:space="preserve">0.439882785081863</t>
   </si>
   <si>
     <t xml:space="preserve">0.456430166959763</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397135555744171</t>
+    <t xml:space="preserve">0.397135585546494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40127244591713</t>
+    <t xml:space="preserve">0.401272475719452</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398514568805695</t>
+    <t xml:space="preserve">0.39851450920105</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373693525791168</t>
+    <t xml:space="preserve">0.373693585395813</t>
   </si>
   <si>
     <t xml:space="preserve">0.361283034086227</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394377738237381</t>
+    <t xml:space="preserve">0.394377768039703</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391619831323624</t>
+    <t xml:space="preserve">0.391619861125946</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377830386161804</t>
+    <t xml:space="preserve">0.377830415964127</t>
   </si>
   <si>
     <t xml:space="preserve">0.369556754827499</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370935708284378</t>
+    <t xml:space="preserve">0.370935648679733</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379209369421005</t>
+    <t xml:space="preserve">0.379209339618683</t>
   </si>
   <si>
     <t xml:space="preserve">0.4081671833992</t>
@@ -782,7 +782,7 @@
     <t xml:space="preserve">0.395756661891937</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415061831474304</t>
+    <t xml:space="preserve">0.415061891078949</t>
   </si>
   <si>
     <t xml:space="preserve">0.412303954362869</t>
@@ -794,22 +794,22 @@
     <t xml:space="preserve">0.421956598758698</t>
   </si>
   <si>
-    <t xml:space="preserve">0.428851276636124</t>
+    <t xml:space="preserve">0.428851306438446</t>
   </si>
   <si>
-    <t xml:space="preserve">0.431609213352203</t>
+    <t xml:space="preserve">0.431609183549881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465393275022507</t>
+    <t xml:space="preserve">0.465393245220184</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4722880423069</t>
+    <t xml:space="preserve">0.472288012504578</t>
   </si>
   <si>
-    <t xml:space="preserve">0.492972165346146</t>
+    <t xml:space="preserve">0.492972105741501</t>
   </si>
   <si>
-    <t xml:space="preserve">0.499866902828217</t>
+    <t xml:space="preserve">0.499866873025894</t>
   </si>
   <si>
     <t xml:space="preserve">0.508923470973969</t>
@@ -818,22 +818,22 @@
     <t xml:space="preserve">0.486135870218277</t>
   </si>
   <si>
-    <t xml:space="preserve">0.470944136381149</t>
+    <t xml:space="preserve">0.470944195985794</t>
   </si>
   <si>
     <t xml:space="preserve">0.455752402544022</t>
   </si>
   <si>
-    <t xml:space="preserve">0.467146247625351</t>
+    <t xml:space="preserve">0.467146217823029</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478539943695068</t>
+    <t xml:space="preserve">0.478539973497391</t>
   </si>
   <si>
     <t xml:space="preserve">0.482337951660156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474742025136948</t>
+    <t xml:space="preserve">0.47474205493927</t>
   </si>
   <si>
     <t xml:space="preserve">0.459550321102142</t>
@@ -842,19 +842,19 @@
     <t xml:space="preserve">0.440560609102249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451954483985901</t>
+    <t xml:space="preserve">0.451954454183578</t>
   </si>
   <si>
-    <t xml:space="preserve">0.425368875265121</t>
+    <t xml:space="preserve">0.425368845462799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429166793823242</t>
+    <t xml:space="preserve">0.42916676402092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444358587265015</t>
+    <t xml:space="preserve">0.44435852766037</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463348239660263</t>
+    <t xml:space="preserve">0.463348269462585</t>
   </si>
   <si>
     <t xml:space="preserve">0.489933758974075</t>
@@ -869,16 +869,16 @@
     <t xml:space="preserve">0.501327633857727</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497529715299606</t>
+    <t xml:space="preserve">0.497529655694962</t>
   </si>
   <si>
     <t xml:space="preserve">0.436762690544128</t>
   </si>
   <si>
-    <t xml:space="preserve">0.432964742183685</t>
+    <t xml:space="preserve">0.432964771986008</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41777303814888</t>
+    <t xml:space="preserve">0.417773008346558</t>
   </si>
   <si>
     <t xml:space="preserve">0.410177171230316</t>
@@ -887,7 +887,7 @@
     <t xml:space="preserve">0.394985377788544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406379222869873</t>
+    <t xml:space="preserve">0.406379193067551</t>
   </si>
   <si>
     <t xml:space="preserve">0.421570956707001</t>
@@ -899,7 +899,7 @@
     <t xml:space="preserve">0.373716950416565</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372197777032852</t>
+    <t xml:space="preserve">0.372197806835175</t>
   </si>
   <si>
     <t xml:space="preserve">0.38738951086998</t>
@@ -908,10 +908,10 @@
     <t xml:space="preserve">0.379793643951416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364601910114288</t>
+    <t xml:space="preserve">0.364601850509644</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341814249753952</t>
+    <t xml:space="preserve">0.341814279556274</t>
   </si>
   <si>
     <t xml:space="preserve">0.3448526263237</t>
@@ -920,28 +920,28 @@
     <t xml:space="preserve">0.31902664899826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.284085631370544</t>
+    <t xml:space="preserve">0.284085690975189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.305354088544846</t>
+    <t xml:space="preserve">0.305354058742523</t>
   </si>
   <si>
     <t xml:space="preserve">0.288643181324005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.299277365207672</t>
+    <t xml:space="preserve">0.299277395009995</t>
   </si>
   <si>
-    <t xml:space="preserve">0.287123948335648</t>
+    <t xml:space="preserve">0.287124007940292</t>
   </si>
   <si>
     <t xml:space="preserve">0.273451447486877</t>
   </si>
   <si>
-    <t xml:space="preserve">0.267374724149704</t>
+    <t xml:space="preserve">0.267374664545059</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312949985265732</t>
+    <t xml:space="preserve">0.312949955463409</t>
   </si>
   <si>
     <t xml:space="preserve">0.314469128847122</t>
@@ -950,19 +950,19 @@
     <t xml:space="preserve">0.297758221626282</t>
   </si>
   <si>
-    <t xml:space="preserve">0.306873291730881</t>
+    <t xml:space="preserve">0.306873261928558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.308392405509949</t>
+    <t xml:space="preserve">0.308392435312271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.323584198951721</t>
+    <t xml:space="preserve">0.323584169149399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332699209451675</t>
+    <t xml:space="preserve">0.332699239253998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338775932788849</t>
+    <t xml:space="preserve">0.338775962591171</t>
   </si>
   <si>
     <t xml:space="preserve">0.370678603649139</t>
@@ -971,7 +971,7 @@
     <t xml:space="preserve">0.357006013393402</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350929319858551</t>
+    <t xml:space="preserve">0.350929290056229</t>
   </si>
   <si>
     <t xml:space="preserve">0.37675529718399</t>
@@ -980,19 +980,19 @@
     <t xml:space="preserve">0.398783326148987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413975089788437</t>
+    <t xml:space="preserve">0.413975059986115</t>
   </si>
   <si>
     <t xml:space="preserve">0.360044360160828</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363082677125931</t>
+    <t xml:space="preserve">0.363082706928253</t>
   </si>
   <si>
     <t xml:space="preserve">0.369159430265427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383591592311859</t>
+    <t xml:space="preserve">0.383591562509537</t>
   </si>
   <si>
     <t xml:space="preserve">0.378274470567703</t>
@@ -1007,76 +1007,76 @@
     <t xml:space="preserve">0.352448493242264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349410176277161</t>
+    <t xml:space="preserve">0.349410146474838</t>
   </si>
   <si>
     <t xml:space="preserve">0.335737586021423</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347890973091125</t>
+    <t xml:space="preserve">0.347891002893448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.334218412637711</t>
+    <t xml:space="preserve">0.334218382835388</t>
   </si>
   <si>
     <t xml:space="preserve">0.326622515916824</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311430782079697</t>
+    <t xml:space="preserve">0.311430811882019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.315988302230835</t>
+    <t xml:space="preserve">0.315988332033157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.290162354707718</t>
+    <t xml:space="preserve">0.290162324905396</t>
   </si>
   <si>
     <t xml:space="preserve">0.293200701475143</t>
   </si>
   <si>
-    <t xml:space="preserve">0.28560483455658</t>
+    <t xml:space="preserve">0.285604804754257</t>
   </si>
   <si>
-    <t xml:space="preserve">0.291681498289108</t>
+    <t xml:space="preserve">0.291681528091431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.296239048242569</t>
+    <t xml:space="preserve">0.296238988637924</t>
   </si>
   <si>
-    <t xml:space="preserve">0.303834944963455</t>
+    <t xml:space="preserve">0.303834915161133</t>
   </si>
   <si>
-    <t xml:space="preserve">0.320545852184296</t>
+    <t xml:space="preserve">0.320545822381973</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325103342533112</t>
+    <t xml:space="preserve">0.325103372335434</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317507475614548</t>
+    <t xml:space="preserve">0.31750750541687</t>
   </si>
   <si>
-    <t xml:space="preserve">0.471467941999435</t>
+    <t xml:space="preserve">0.47146800160408</t>
   </si>
   <si>
     <t xml:space="preserve">0.438382506370544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.425975382328033</t>
+    <t xml:space="preserve">0.425975412130356</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413568377494812</t>
+    <t xml:space="preserve">0.413568407297134</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397025644779205</t>
+    <t xml:space="preserve">0.397025614976883</t>
   </si>
   <si>
     <t xml:space="preserve">0.405297040939331</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398679941892624</t>
+    <t xml:space="preserve">0.398679912090302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417704045772552</t>
+    <t xml:space="preserve">0.417704075574875</t>
   </si>
   <si>
     <t xml:space="preserve">0.41025984287262</t>
@@ -1085,19 +1085,19 @@
     <t xml:space="preserve">0.400334179401398</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383791476488113</t>
+    <t xml:space="preserve">0.383791446685791</t>
   </si>
   <si>
     <t xml:space="preserve">0.377174377441406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37552011013031</t>
+    <t xml:space="preserve">0.375520080327988</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372211545705795</t>
+    <t xml:space="preserve">0.372211575508118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387100011110306</t>
+    <t xml:space="preserve">0.387099981307983</t>
   </si>
   <si>
     <t xml:space="preserve">0.380482912063599</t>
@@ -1115,13 +1115,13 @@
     <t xml:space="preserve">0.382137209177017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479739338159561</t>
+    <t xml:space="preserve">0.479739248752594</t>
   </si>
   <si>
     <t xml:space="preserve">0.450789541006088</t>
   </si>
   <si>
-    <t xml:space="preserve">0.49628210067749</t>
+    <t xml:space="preserve">0.496282130479813</t>
   </si>
   <si>
     <t xml:space="preserve">0.48801064491272</t>
@@ -1133,16 +1133,16 @@
     <t xml:space="preserve">0.454925209283829</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44251823425293</t>
+    <t xml:space="preserve">0.442518204450607</t>
   </si>
   <si>
     <t xml:space="preserve">0.430111080408096</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421839743852615</t>
+    <t xml:space="preserve">0.421839714050293</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434246778488159</t>
+    <t xml:space="preserve">0.434246808290482</t>
   </si>
   <si>
     <t xml:space="preserve">0.446653872728348</t>
@@ -1154,7 +1154,7 @@
     <t xml:space="preserve">0.401988476514816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388754278421402</t>
+    <t xml:space="preserve">0.388754308223724</t>
   </si>
   <si>
     <t xml:space="preserve">0.378828674554825</t>
@@ -1163,13 +1163,13 @@
     <t xml:space="preserve">0.373865783214569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406951278448105</t>
+    <t xml:space="preserve">0.406951308250427</t>
   </si>
   <si>
     <t xml:space="preserve">0.395371347665787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.403642743825912</t>
+    <t xml:space="preserve">0.403642773628235</t>
   </si>
   <si>
     <t xml:space="preserve">0.393717110157013</t>
@@ -1178,7 +1178,7 @@
     <t xml:space="preserve">0.347397416830063</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329200446605682</t>
+    <t xml:space="preserve">0.32920041680336</t>
   </si>
   <si>
     <t xml:space="preserve">0.330854713916779</t>
@@ -1193,13 +1193,13 @@
     <t xml:space="preserve">0.355668812990189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358977347612381</t>
+    <t xml:space="preserve">0.358977317810059</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362285912036896</t>
+    <t xml:space="preserve">0.362285882234573</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363940179347992</t>
+    <t xml:space="preserve">0.36394014954567</t>
   </si>
   <si>
     <t xml:space="preserve">0.370557278394699</t>
@@ -1208,7 +1208,7 @@
     <t xml:space="preserve">0.3606316447258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.339126110076904</t>
+    <t xml:space="preserve">0.339126080274582</t>
   </si>
   <si>
     <t xml:space="preserve">0.337471783161163</t>
@@ -1220,7 +1220,7 @@
     <t xml:space="preserve">0.344088912010193</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35401451587677</t>
+    <t xml:space="preserve">0.354014545679092</t>
   </si>
   <si>
     <t xml:space="preserve">0.348381489515305</t>
@@ -1229,13 +1229,13 @@
     <t xml:space="preserve">0.353581190109253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34491503238678</t>
+    <t xml:space="preserve">0.344915002584457</t>
   </si>
   <si>
     <t xml:space="preserve">0.350114732980728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363980621099472</t>
+    <t xml:space="preserve">0.363980650901794</t>
   </si>
   <si>
     <t xml:space="preserve">0.365713894367218</t>
@@ -1250,22 +1250,22 @@
     <t xml:space="preserve">0.343181759119034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332782328128815</t>
+    <t xml:space="preserve">0.332782298326492</t>
   </si>
   <si>
     <t xml:space="preserve">0.32064962387085</t>
   </si>
   <si>
-    <t xml:space="preserve">0.331049054861069</t>
+    <t xml:space="preserve">0.331049084663391</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346648275852203</t>
+    <t xml:space="preserve">0.346648246049881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32931587100029</t>
+    <t xml:space="preserve">0.329315841197968</t>
   </si>
   <si>
-    <t xml:space="preserve">0.327582567930222</t>
+    <t xml:space="preserve">0.327582597732544</t>
   </si>
   <si>
     <t xml:space="preserve">0.318916410207748</t>
@@ -1286,7 +1286,7 @@
     <t xml:space="preserve">0.30505046248436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.296384304761887</t>
+    <t xml:space="preserve">0.296384274959564</t>
   </si>
   <si>
     <t xml:space="preserve">0.308516949415207</t>
@@ -1295,7 +1295,7 @@
     <t xml:space="preserve">0.298117488622665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311983466148376</t>
+    <t xml:space="preserve">0.311983436346054</t>
   </si>
   <si>
     <t xml:space="preserve">0.313716650009155</t>
@@ -1304,31 +1304,31 @@
     <t xml:space="preserve">0.324116140604019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325849324464798</t>
+    <t xml:space="preserve">0.32584935426712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.337981998920441</t>
+    <t xml:space="preserve">0.337982028722763</t>
   </si>
   <si>
     <t xml:space="preserve">0.317183136940002</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379579842090607</t>
+    <t xml:space="preserve">0.379579812288284</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370913594961166</t>
+    <t xml:space="preserve">0.370913624763489</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372646898031235</t>
+    <t xml:space="preserve">0.372646868228912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.374380111694336</t>
+    <t xml:space="preserve">0.374380141496658</t>
   </si>
   <si>
     <t xml:space="preserve">0.367447137832642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369180411100388</t>
+    <t xml:space="preserve">0.369180381298065</t>
   </si>
   <si>
     <t xml:space="preserve">0.386512786149979</t>
@@ -1343,13 +1343,13 @@
     <t xml:space="preserve">0.318367809057236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312749534845352</t>
+    <t xml:space="preserve">0.312749564647675</t>
   </si>
   <si>
     <t xml:space="preserve">0.314622312784195</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32960432767868</t>
+    <t xml:space="preserve">0.329604297876358</t>
   </si>
   <si>
     <t xml:space="preserve">0.327731549739838</t>
@@ -1370,13 +1370,13 @@
     <t xml:space="preserve">0.299640268087387</t>
   </si>
   <si>
-    <t xml:space="preserve">0.30338579416275</t>
+    <t xml:space="preserve">0.303385764360428</t>
   </si>
   <si>
     <t xml:space="preserve">0.295894801616669</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309004068374634</t>
+    <t xml:space="preserve">0.309004098176956</t>
   </si>
   <si>
     <t xml:space="preserve">0.30151304602623</t>
@@ -1388,7 +1388,7 @@
     <t xml:space="preserve">0.294022053480148</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333349823951721</t>
+    <t xml:space="preserve">0.333349794149399</t>
   </si>
   <si>
     <t xml:space="preserve">0.322113305330276</t>
@@ -1397,19 +1397,19 @@
     <t xml:space="preserve">0.331477075815201</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335222572088242</t>
+    <t xml:space="preserve">0.335222601890564</t>
   </si>
   <si>
     <t xml:space="preserve">0.337095350027084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355822861194611</t>
+    <t xml:space="preserve">0.355822831392288</t>
   </si>
   <si>
     <t xml:space="preserve">0.350204616785049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338968068361282</t>
+    <t xml:space="preserve">0.338968098163605</t>
   </si>
   <si>
     <t xml:space="preserve">0.344586342573166</t>
@@ -60235,7 +60235,7 @@
     </row>
     <row r="2246">
       <c r="A2246" s="1" t="n">
-        <v>45590.6017476852</v>
+        <v>45590.2916666667</v>
       </c>
       <c r="B2246" t="n">
         <v>16000</v>
@@ -60247,7 +60247,7 @@
         <v>0.340000003576279</v>
       </c>
       <c r="E2246" t="n">
-        <v>0.361999988555908</v>
+        <v>0.351999998092651</v>
       </c>
       <c r="F2246" t="n">
         <v>0.349999994039536</v>
@@ -60256,6 +60256,32 @@
         <v>499</v>
       </c>
       <c r="H2246" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2247">
+      <c r="A2247" s="1" t="n">
+        <v>45593.5652893519</v>
+      </c>
+      <c r="B2247" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C2247" t="n">
+        <v>0.349999994039536</v>
+      </c>
+      <c r="D2247" t="n">
+        <v>0.349999994039536</v>
+      </c>
+      <c r="E2247" t="n">
+        <v>0.349999994039536</v>
+      </c>
+      <c r="F2247" t="n">
+        <v>0.349999994039536</v>
+      </c>
+      <c r="G2247" t="s">
+        <v>499</v>
+      </c>
+      <c r="H2247" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/POPR.MI.xlsx
+++ b/data/POPR.MI.xlsx
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193052008748055</t>
+    <t xml:space="preserve">0.193052023649216</t>
   </si>
   <si>
     <t xml:space="preserve">POPR.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193741470575333</t>
+    <t xml:space="preserve">0.193741485476494</t>
   </si>
   <si>
     <t xml:space="preserve">0.189604684710503</t>
@@ -53,28 +53,28 @@
     <t xml:space="preserve">0.188225716352463</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179952085018158</t>
+    <t xml:space="preserve">0.179952070116997</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186157315969467</t>
+    <t xml:space="preserve">0.186157330870628</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163404762744904</t>
+    <t xml:space="preserve">0.163404747843742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157199516892433</t>
+    <t xml:space="preserve">0.157199501991272</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164301082491875</t>
+    <t xml:space="preserve">0.164301067590714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15926793217659</t>
+    <t xml:space="preserve">0.159267947077751</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167541578412056</t>
+    <t xml:space="preserve">0.167541593313217</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168231070041656</t>
+    <t xml:space="preserve">0.168231055140495</t>
   </si>
   <si>
     <t xml:space="preserve">0.165404215455055</t>
@@ -86,13 +86,13 @@
     <t xml:space="preserve">0.153407394886017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15306268632412</t>
+    <t xml:space="preserve">0.153062701225281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153476342558861</t>
+    <t xml:space="preserve">0.153476357460022</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155820578336716</t>
+    <t xml:space="preserve">0.155820563435555</t>
   </si>
   <si>
     <t xml:space="preserve">0.15237320959568</t>
@@ -101,13 +101,13 @@
     <t xml:space="preserve">0.165748938918114</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186846807599068</t>
+    <t xml:space="preserve">0.186846792697906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182985737919807</t>
+    <t xml:space="preserve">0.182985752820969</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179262578487396</t>
+    <t xml:space="preserve">0.179262593388557</t>
   </si>
   <si>
     <t xml:space="preserve">0.17236790060997</t>
@@ -128,7 +128,7 @@
     <t xml:space="preserve">0.174367353320122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194499924778938</t>
+    <t xml:space="preserve">0.194499909877777</t>
   </si>
   <si>
     <t xml:space="preserve">0.194430992007256</t>
@@ -140,13 +140,13 @@
     <t xml:space="preserve">0.182020485401154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206841483712196</t>
+    <t xml:space="preserve">0.206841468811035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211323022842407</t>
+    <t xml:space="preserve">0.211323037743568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210288807749748</t>
+    <t xml:space="preserve">0.210288822650909</t>
   </si>
   <si>
     <t xml:space="preserve">0.202015191316605</t>
@@ -155,88 +155,88 @@
     <t xml:space="preserve">0.199257269501686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220630899071693</t>
+    <t xml:space="preserve">0.220630884170532</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228904560208321</t>
+    <t xml:space="preserve">0.228904575109482</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220561936497688</t>
+    <t xml:space="preserve">0.220561951398849</t>
   </si>
   <si>
     <t xml:space="preserve">0.21580459177494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.213046699762344</t>
+    <t xml:space="preserve">0.213046714663506</t>
   </si>
   <si>
     <t xml:space="preserve">0.196499392390251</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199946746230125</t>
+    <t xml:space="preserve">0.199946731328964</t>
   </si>
   <si>
     <t xml:space="preserve">0.186295226216316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184778362512589</t>
+    <t xml:space="preserve">0.18477837741375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178573131561279</t>
+    <t xml:space="preserve">0.17857314646244</t>
   </si>
   <si>
     <t xml:space="preserve">0.166300535202026</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182709947228432</t>
+    <t xml:space="preserve">0.182709932327271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172298938035965</t>
+    <t xml:space="preserve">0.172298952937126</t>
   </si>
   <si>
     <t xml:space="preserve">0.166852101683617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168920531868935</t>
+    <t xml:space="preserve">0.168920516967773</t>
   </si>
   <si>
     <t xml:space="preserve">0.172919481992722</t>
   </si>
   <si>
-    <t xml:space="preserve">0.204083606600761</t>
+    <t xml:space="preserve">0.204083576798439</t>
   </si>
   <si>
-    <t xml:space="preserve">0.206152006983757</t>
+    <t xml:space="preserve">0.206151992082596</t>
   </si>
   <si>
     <t xml:space="preserve">0.201325669884682</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199326202273369</t>
+    <t xml:space="preserve">0.19932621717453</t>
   </si>
   <si>
     <t xml:space="preserve">0.183399438858032</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175815254449844</t>
+    <t xml:space="preserve">0.175815239548683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161336347460747</t>
+    <t xml:space="preserve">0.161336332559586</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166162639856339</t>
+    <t xml:space="preserve">0.166162624955177</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162715286016464</t>
+    <t xml:space="preserve">0.162715300917625</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158578455448151</t>
+    <t xml:space="preserve">0.158578440546989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173746824264526</t>
+    <t xml:space="preserve">0.173746839165688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181193128228188</t>
+    <t xml:space="preserve">0.181193113327026</t>
   </si>
   <si>
     <t xml:space="preserve">0.187191531062126</t>
@@ -254,28 +254,28 @@
     <t xml:space="preserve">0.212357208132744</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195396229624748</t>
+    <t xml:space="preserve">0.195396214723587</t>
   </si>
   <si>
-    <t xml:space="preserve">0.20925460755825</t>
+    <t xml:space="preserve">0.209254592657089</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220492944121361</t>
+    <t xml:space="preserve">0.220492988824844</t>
   </si>
   <si>
     <t xml:space="preserve">0.213736176490784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210357755422592</t>
+    <t xml:space="preserve">0.210357770323753</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219251930713654</t>
+    <t xml:space="preserve">0.219251960515976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233730837702751</t>
+    <t xml:space="preserve">0.233730852603912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237798780202866</t>
+    <t xml:space="preserve">0.237798750400543</t>
   </si>
   <si>
     <t xml:space="preserve">0.25510448217392</t>
@@ -287,16 +287,16 @@
     <t xml:space="preserve">0.275788605213165</t>
   </si>
   <si>
-    <t xml:space="preserve">0.293025434017181</t>
+    <t xml:space="preserve">0.293025404214859</t>
   </si>
   <si>
-    <t xml:space="preserve">0.301988482475281</t>
+    <t xml:space="preserve">0.301988542079926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.31853586435318</t>
+    <t xml:space="preserve">0.318535894155502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.327498972415924</t>
+    <t xml:space="preserve">0.327499002218246</t>
   </si>
   <si>
     <t xml:space="preserve">0.282683312892914</t>
@@ -311,10 +311,10 @@
     <t xml:space="preserve">0.274409681558609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.266342848539352</t>
+    <t xml:space="preserve">0.26634281873703</t>
   </si>
   <si>
-    <t xml:space="preserve">0.266825497150421</t>
+    <t xml:space="preserve">0.266825467348099</t>
   </si>
   <si>
     <t xml:space="preserve">0.266963392496109</t>
@@ -329,106 +329,106 @@
     <t xml:space="preserve">0.230972975492477</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226974040269852</t>
+    <t xml:space="preserve">0.226974055171013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232351928949356</t>
+    <t xml:space="preserve">0.232351899147034</t>
   </si>
   <si>
     <t xml:space="preserve">0.228973492980003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.26062023639679</t>
+    <t xml:space="preserve">0.260620206594467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.268893867731094</t>
+    <t xml:space="preserve">0.268893897533417</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25317394733429</t>
+    <t xml:space="preserve">0.253173917531967</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249588668346405</t>
+    <t xml:space="preserve">0.249588683247566</t>
   </si>
   <si>
     <t xml:space="preserve">0.258551806211472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.24820975959301</t>
+    <t xml:space="preserve">0.248209789395332</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244762375950813</t>
+    <t xml:space="preserve">0.244762390851974</t>
   </si>
   <si>
     <t xml:space="preserve">0.237867683172226</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243935018777847</t>
+    <t xml:space="preserve">0.243935003876686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233799785375595</t>
+    <t xml:space="preserve">0.233799800276756</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220699846744537</t>
+    <t xml:space="preserve">0.220699816942215</t>
   </si>
   <si>
-    <t xml:space="preserve">0.224078252911568</t>
+    <t xml:space="preserve">0.224078238010406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226836130023003</t>
+    <t xml:space="preserve">0.226836115121841</t>
   </si>
   <si>
     <t xml:space="preserve">0.226146668195724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227525591850281</t>
+    <t xml:space="preserve">0.227525621652603</t>
   </si>
   <si>
     <t xml:space="preserve">0.229042440652847</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23248977959156</t>
+    <t xml:space="preserve">0.232489794492722</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247520327568054</t>
+    <t xml:space="preserve">0.247520282864571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.24117711186409</t>
+    <t xml:space="preserve">0.241177141666412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.24221134185791</t>
+    <t xml:space="preserve">0.242211356759071</t>
   </si>
   <si>
     <t xml:space="preserve">0.251726031303406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.257103979587555</t>
+    <t xml:space="preserve">0.25710391998291</t>
   </si>
   <si>
     <t xml:space="preserve">0.24627922475338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241315007209778</t>
+    <t xml:space="preserve">0.241314977407455</t>
   </si>
   <si>
     <t xml:space="preserve">0.241039231419563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23793663084507</t>
+    <t xml:space="preserve">0.237936645746231</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253725498914719</t>
+    <t xml:space="preserve">0.253725528717041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238074526190758</t>
+    <t xml:space="preserve">0.238074511289597</t>
   </si>
   <si>
     <t xml:space="preserve">0.244969218969345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325982123613358</t>
+    <t xml:space="preserve">0.325982093811035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386104017496109</t>
+    <t xml:space="preserve">0.386104047298431</t>
   </si>
   <si>
     <t xml:space="preserve">0.510208964347839</t>
@@ -437,19 +437,19 @@
     <t xml:space="preserve">0.598461270332336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.523308932781219</t>
+    <t xml:space="preserve">0.523308873176575</t>
   </si>
   <si>
     <t xml:space="preserve">0.479182720184326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.462980091571808</t>
+    <t xml:space="preserve">0.462980151176453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434367120265961</t>
+    <t xml:space="preserve">0.434367090463638</t>
   </si>
   <si>
-    <t xml:space="preserve">0.399893492460251</t>
+    <t xml:space="preserve">0.399893462657928</t>
   </si>
   <si>
     <t xml:space="preserve">0.454361736774445</t>
@@ -458,19 +458,19 @@
     <t xml:space="preserve">0.402996122837067</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410235524177551</t>
+    <t xml:space="preserve">0.410235583782196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379898816347122</t>
+    <t xml:space="preserve">0.3798987865448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357490986585617</t>
+    <t xml:space="preserve">0.357490956783295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345425218343735</t>
+    <t xml:space="preserve">0.345425188541412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358180463314056</t>
+    <t xml:space="preserve">0.358180493116379</t>
   </si>
   <si>
     <t xml:space="preserve">0.366798877716064</t>
@@ -479,13 +479,13 @@
     <t xml:space="preserve">0.353009432554245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382656753063202</t>
+    <t xml:space="preserve">0.382656693458557</t>
   </si>
   <si>
     <t xml:space="preserve">0.374383062124252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358525156974792</t>
+    <t xml:space="preserve">0.358525186777115</t>
   </si>
   <si>
     <t xml:space="preserve">0.34921732544899</t>
@@ -494,13 +494,13 @@
     <t xml:space="preserve">0.352319955825806</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365419894456863</t>
+    <t xml:space="preserve">0.365419864654541</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361972540616989</t>
+    <t xml:space="preserve">0.361972570419312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.348183125257492</t>
+    <t xml:space="preserve">0.34818309545517</t>
   </si>
   <si>
     <t xml:space="preserve">0.355767279863358</t>
@@ -509,55 +509,55 @@
     <t xml:space="preserve">0.34473580121994</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341977894306183</t>
+    <t xml:space="preserve">0.34197786450386</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367143660783768</t>
+    <t xml:space="preserve">0.367143630981445</t>
   </si>
   <si>
     <t xml:space="preserve">0.348872572183609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347493648529053</t>
+    <t xml:space="preserve">0.347493678331375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360248893499374</t>
+    <t xml:space="preserve">0.36024883389473</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354388386011124</t>
+    <t xml:space="preserve">0.354388356208801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359904170036316</t>
+    <t xml:space="preserve">0.359904140233994</t>
   </si>
   <si>
     <t xml:space="preserve">0.330946326255798</t>
   </si>
   <si>
-    <t xml:space="preserve">0.340598911046982</t>
+    <t xml:space="preserve">0.340598940849304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341219455003738</t>
+    <t xml:space="preserve">0.341219425201416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.351630508899689</t>
+    <t xml:space="preserve">0.351630479097366</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357146263122559</t>
+    <t xml:space="preserve">0.357146292924881</t>
   </si>
   <si>
     <t xml:space="preserve">0.392998784780502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372314631938934</t>
+    <t xml:space="preserve">0.372314661741257</t>
   </si>
   <si>
     <t xml:space="preserve">0.373004108667374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350251525640488</t>
+    <t xml:space="preserve">0.35025155544281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370591014623642</t>
+    <t xml:space="preserve">0.37059098482132</t>
   </si>
   <si>
     <t xml:space="preserve">0.345080524682999</t>
@@ -572,22 +572,22 @@
     <t xml:space="preserve">0.405409246683121</t>
   </si>
   <si>
-    <t xml:space="preserve">0.404719829559326</t>
+    <t xml:space="preserve">0.404719769954681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40609872341156</t>
+    <t xml:space="preserve">0.406098753213882</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398859262466431</t>
+    <t xml:space="preserve">0.398859202861786</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406788140535355</t>
+    <t xml:space="preserve">0.406788170337677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378519892692566</t>
+    <t xml:space="preserve">0.378519922494888</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383690923452377</t>
+    <t xml:space="preserve">0.383690983057022</t>
   </si>
   <si>
     <t xml:space="preserve">0.388861984014511</t>
@@ -596,37 +596,37 @@
     <t xml:space="preserve">0.402651339769363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.426438212394714</t>
+    <t xml:space="preserve">0.42643815279007</t>
   </si>
   <si>
     <t xml:space="preserve">0.429540783166885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414372384548187</t>
+    <t xml:space="preserve">0.414372354745865</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413682967424393</t>
+    <t xml:space="preserve">0.41368293762207</t>
   </si>
   <si>
     <t xml:space="preserve">0.424714416265488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414027631282806</t>
+    <t xml:space="preserve">0.414027601480484</t>
   </si>
   <si>
     <t xml:space="preserve">0.447466999292374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.455051183700562</t>
+    <t xml:space="preserve">0.455051243305206</t>
   </si>
   <si>
-    <t xml:space="preserve">0.430230289697647</t>
+    <t xml:space="preserve">0.430230230093002</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413338124752045</t>
+    <t xml:space="preserve">0.413338184356689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424024969339371</t>
+    <t xml:space="preserve">0.424024999141693</t>
   </si>
   <si>
     <t xml:space="preserve">0.517103612422943</t>
@@ -635,85 +635,85 @@
     <t xml:space="preserve">0.481940567493439</t>
   </si>
   <si>
-    <t xml:space="preserve">0.49641951918602</t>
+    <t xml:space="preserve">0.496419578790665</t>
   </si>
   <si>
     <t xml:space="preserve">0.475735366344452</t>
   </si>
   <si>
-    <t xml:space="preserve">0.480561673641205</t>
+    <t xml:space="preserve">0.480561643838882</t>
   </si>
   <si>
-    <t xml:space="preserve">0.489524751901627</t>
+    <t xml:space="preserve">0.489524781703949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.482630014419556</t>
+    <t xml:space="preserve">0.482629954814911</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463324785232544</t>
+    <t xml:space="preserve">0.463324844837189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.466082781553268</t>
+    <t xml:space="preserve">0.466082751750946</t>
   </si>
   <si>
     <t xml:space="preserve">0.461945950984955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.449535429477692</t>
+    <t xml:space="preserve">0.449535489082336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.445398598909378</t>
+    <t xml:space="preserve">0.445398658514023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448156505823135</t>
+    <t xml:space="preserve">0.448156476020813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453672260046005</t>
+    <t xml:space="preserve">0.453672230243683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.441261798143387</t>
+    <t xml:space="preserve">0.441261768341064</t>
   </si>
   <si>
     <t xml:space="preserve">0.474356442689896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457809120416641</t>
+    <t xml:space="preserve">0.457809150218964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.507450997829437</t>
+    <t xml:space="preserve">0.507451057434082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.468840628862381</t>
+    <t xml:space="preserve">0.468840658664703</t>
   </si>
   <si>
-    <t xml:space="preserve">0.438503861427307</t>
+    <t xml:space="preserve">0.438503921031952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.459188044071198</t>
+    <t xml:space="preserve">0.459188014268875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464703857898712</t>
+    <t xml:space="preserve">0.464703798294067</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450914412736893</t>
+    <t xml:space="preserve">0.450914353132248</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437124967575073</t>
+    <t xml:space="preserve">0.437124907970428</t>
   </si>
   <si>
     <t xml:space="preserve">0.444019675254822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.419198721647263</t>
+    <t xml:space="preserve">0.41919869184494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.420577615499496</t>
+    <t xml:space="preserve">0.420577645301819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.426093399524689</t>
+    <t xml:space="preserve">0.426093429327011</t>
   </si>
   <si>
-    <t xml:space="preserve">0.442640751600266</t>
+    <t xml:space="preserve">0.442640721797943</t>
   </si>
   <si>
     <t xml:space="preserve">0.472977489233017</t>
@@ -722,10 +722,10 @@
     <t xml:space="preserve">0.460566997528076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446777552366257</t>
+    <t xml:space="preserve">0.446777582168579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.432988166809082</t>
+    <t xml:space="preserve">0.432988107204437</t>
   </si>
   <si>
     <t xml:space="preserve">0.452293336391449</t>
@@ -734,22 +734,22 @@
     <t xml:space="preserve">0.439882814884186</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45643013715744</t>
+    <t xml:space="preserve">0.456430107355118</t>
   </si>
   <si>
     <t xml:space="preserve">0.397135585546494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40127244591713</t>
+    <t xml:space="preserve">0.401272475719452</t>
   </si>
   <si>
     <t xml:space="preserve">0.398514539003372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373693615198135</t>
+    <t xml:space="preserve">0.373693585395813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361283093690872</t>
+    <t xml:space="preserve">0.36128306388855</t>
   </si>
   <si>
     <t xml:space="preserve">0.394377768039703</t>
@@ -761,40 +761,40 @@
     <t xml:space="preserve">0.377830415964127</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369556725025177</t>
+    <t xml:space="preserve">0.369556754827499</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370935678482056</t>
+    <t xml:space="preserve">0.370935648679733</t>
   </si>
   <si>
     <t xml:space="preserve">0.379209369421005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408167213201523</t>
+    <t xml:space="preserve">0.408167153596878</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423335611820221</t>
+    <t xml:space="preserve">0.423335582017899</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387482941150665</t>
+    <t xml:space="preserve">0.387482970952988</t>
   </si>
   <si>
     <t xml:space="preserve">0.395756632089615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415061831474304</t>
+    <t xml:space="preserve">0.415061891078949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.412304013967514</t>
+    <t xml:space="preserve">0.412303984165192</t>
   </si>
   <si>
     <t xml:space="preserve">0.409546077251434</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421956568956375</t>
+    <t xml:space="preserve">0.421956539154053</t>
   </si>
   <si>
-    <t xml:space="preserve">0.428851276636124</t>
+    <t xml:space="preserve">0.428851306438446</t>
   </si>
   <si>
     <t xml:space="preserve">0.431609183549881</t>
@@ -803,22 +803,22 @@
     <t xml:space="preserve">0.465393304824829</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4722880423069</t>
+    <t xml:space="preserve">0.472287952899933</t>
   </si>
   <si>
     <t xml:space="preserve">0.492972105741501</t>
   </si>
   <si>
-    <t xml:space="preserve">0.499866902828217</t>
+    <t xml:space="preserve">0.499866813421249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.508923530578613</t>
+    <t xml:space="preserve">0.508923470973969</t>
   </si>
   <si>
-    <t xml:space="preserve">0.486135840415955</t>
+    <t xml:space="preserve">0.486135870218277</t>
   </si>
   <si>
-    <t xml:space="preserve">0.470944076776505</t>
+    <t xml:space="preserve">0.470944136381149</t>
   </si>
   <si>
     <t xml:space="preserve">0.455752402544022</t>
@@ -827,16 +827,16 @@
     <t xml:space="preserve">0.467146158218384</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478540033102036</t>
+    <t xml:space="preserve">0.478539973497391</t>
   </si>
   <si>
     <t xml:space="preserve">0.482337951660156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474742025136948</t>
+    <t xml:space="preserve">0.474742114543915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45955029129982</t>
+    <t xml:space="preserve">0.459550261497498</t>
   </si>
   <si>
     <t xml:space="preserve">0.448156446218491</t>
@@ -845,76 +845,76 @@
     <t xml:space="preserve">0.440560609102249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451954424381256</t>
+    <t xml:space="preserve">0.451954454183578</t>
   </si>
   <si>
     <t xml:space="preserve">0.425368875265121</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429166823625565</t>
+    <t xml:space="preserve">0.429166793823242</t>
   </si>
   <si>
     <t xml:space="preserve">0.444358497858047</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463348239660263</t>
+    <t xml:space="preserve">0.463348269462585</t>
   </si>
   <si>
     <t xml:space="preserve">0.489933758974075</t>
   </si>
   <si>
-    <t xml:space="preserve">0.577286303043365</t>
+    <t xml:space="preserve">0.57728636264801</t>
   </si>
   <si>
     <t xml:space="preserve">0.493731737136841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.501327574253082</t>
+    <t xml:space="preserve">0.501327633857727</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497529596090317</t>
+    <t xml:space="preserve">0.497529655694962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436762690544128</t>
+    <t xml:space="preserve">0.436762720346451</t>
   </si>
   <si>
     <t xml:space="preserve">0.432964771986008</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41777303814888</t>
+    <t xml:space="preserve">0.417773008346558</t>
   </si>
   <si>
     <t xml:space="preserve">0.410177171230316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394985347986221</t>
+    <t xml:space="preserve">0.394985377788544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406379252672195</t>
+    <t xml:space="preserve">0.406379222869873</t>
   </si>
   <si>
     <t xml:space="preserve">0.421570986509323</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40258127450943</t>
+    <t xml:space="preserve">0.402581214904785</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373716950416565</t>
+    <t xml:space="preserve">0.373716920614243</t>
   </si>
   <si>
     <t xml:space="preserve">0.372197777032852</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38738951086998</t>
+    <t xml:space="preserve">0.387389540672302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379793673753738</t>
+    <t xml:space="preserve">0.379793643951416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364601880311966</t>
+    <t xml:space="preserve">0.364601850509644</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341814249753952</t>
+    <t xml:space="preserve">0.341814279556274</t>
   </si>
   <si>
     <t xml:space="preserve">0.3448526263237</t>
@@ -926,22 +926,22 @@
     <t xml:space="preserve">0.284085661172867</t>
   </si>
   <si>
-    <t xml:space="preserve">0.305354118347168</t>
+    <t xml:space="preserve">0.305354088544846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.288643151521683</t>
+    <t xml:space="preserve">0.288643181324005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.299277365207672</t>
+    <t xml:space="preserve">0.299277395009995</t>
   </si>
   <si>
-    <t xml:space="preserve">0.287123948335648</t>
+    <t xml:space="preserve">0.28712397813797</t>
   </si>
   <si>
-    <t xml:space="preserve">0.273451417684555</t>
+    <t xml:space="preserve">0.273451447486877</t>
   </si>
   <si>
-    <t xml:space="preserve">0.267374724149704</t>
+    <t xml:space="preserve">0.267374694347382</t>
   </si>
   <si>
     <t xml:space="preserve">0.312949955463409</t>
@@ -959,37 +959,37 @@
     <t xml:space="preserve">0.308392405509949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.323584198951721</t>
+    <t xml:space="preserve">0.323584169149399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332699179649353</t>
+    <t xml:space="preserve">0.332699209451675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338775932788849</t>
+    <t xml:space="preserve">0.338775962591171</t>
   </si>
   <si>
     <t xml:space="preserve">0.370678603649139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357006043195724</t>
+    <t xml:space="preserve">0.357006013393402</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350929349660873</t>
+    <t xml:space="preserve">0.350929319858551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.376755326986313</t>
+    <t xml:space="preserve">0.37675529718399</t>
   </si>
   <si>
     <t xml:space="preserve">0.398783326148987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413975089788437</t>
+    <t xml:space="preserve">0.413975059986115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36004438996315</t>
+    <t xml:space="preserve">0.360044360160828</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363082736730576</t>
+    <t xml:space="preserve">0.363082706928253</t>
   </si>
   <si>
     <t xml:space="preserve">0.369159430265427</t>
@@ -998,16 +998,16 @@
     <t xml:space="preserve">0.383591562509537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378274440765381</t>
+    <t xml:space="preserve">0.378274470567703</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353967666625977</t>
+    <t xml:space="preserve">0.353967696428299</t>
   </si>
   <si>
     <t xml:space="preserve">0.355486840009689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352448463439941</t>
+    <t xml:space="preserve">0.352448493242264</t>
   </si>
   <si>
     <t xml:space="preserve">0.349410146474838</t>
@@ -1016,7 +1016,7 @@
     <t xml:space="preserve">0.335737586021423</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347890973091125</t>
+    <t xml:space="preserve">0.347891002893448</t>
   </si>
   <si>
     <t xml:space="preserve">0.334218412637711</t>
@@ -1034,13 +1034,13 @@
     <t xml:space="preserve">0.290162324905396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.293200671672821</t>
+    <t xml:space="preserve">0.293200701475143</t>
   </si>
   <si>
     <t xml:space="preserve">0.285604804754257</t>
   </si>
   <si>
-    <t xml:space="preserve">0.291681528091431</t>
+    <t xml:space="preserve">0.291681557893753</t>
   </si>
   <si>
     <t xml:space="preserve">0.296239018440247</t>
@@ -1049,22 +1049,22 @@
     <t xml:space="preserve">0.303834915161133</t>
   </si>
   <si>
-    <t xml:space="preserve">0.320545852184296</t>
+    <t xml:space="preserve">0.320545822381973</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325103342533112</t>
+    <t xml:space="preserve">0.325103372335434</t>
   </si>
   <si>
-    <t xml:space="preserve">0.31750750541687</t>
+    <t xml:space="preserve">0.317507475614548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.471467971801758</t>
+    <t xml:space="preserve">0.47146800160408</t>
   </si>
   <si>
     <t xml:space="preserve">0.438382476568222</t>
   </si>
   <si>
-    <t xml:space="preserve">0.425975382328033</t>
+    <t xml:space="preserve">0.425975412130356</t>
   </si>
   <si>
     <t xml:space="preserve">0.413568407297134</t>
@@ -1076,10 +1076,10 @@
     <t xml:space="preserve">0.405297040939331</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398679912090302</t>
+    <t xml:space="preserve">0.398679882287979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417704045772552</t>
+    <t xml:space="preserve">0.417704075574875</t>
   </si>
   <si>
     <t xml:space="preserve">0.41025984287262</t>
@@ -1094,13 +1094,13 @@
     <t xml:space="preserve">0.377174377441406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37552011013031</t>
+    <t xml:space="preserve">0.375520080327988</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372211515903473</t>
+    <t xml:space="preserve">0.372211575508118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387100011110306</t>
+    <t xml:space="preserve">0.387099981307983</t>
   </si>
   <si>
     <t xml:space="preserve">0.380482912063599</t>
@@ -1109,7 +1109,7 @@
     <t xml:space="preserve">0.385445713996887</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368903011083603</t>
+    <t xml:space="preserve">0.368902981281281</t>
   </si>
   <si>
     <t xml:space="preserve">0.367248743772507</t>
@@ -1118,16 +1118,16 @@
     <t xml:space="preserve">0.382137209177017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479739308357239</t>
+    <t xml:space="preserve">0.479739248752594</t>
   </si>
   <si>
     <t xml:space="preserve">0.450789541006088</t>
   </si>
   <si>
-    <t xml:space="preserve">0.49628210067749</t>
+    <t xml:space="preserve">0.496282130479813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.488010615110397</t>
+    <t xml:space="preserve">0.48801064491272</t>
   </si>
   <si>
     <t xml:space="preserve">0.483874917030334</t>
@@ -1136,7 +1136,7 @@
     <t xml:space="preserve">0.454925239086151</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44251823425293</t>
+    <t xml:space="preserve">0.442518204450607</t>
   </si>
   <si>
     <t xml:space="preserve">0.430111080408096</t>
@@ -1145,13 +1145,13 @@
     <t xml:space="preserve">0.421839743852615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434246808290482</t>
+    <t xml:space="preserve">0.434246778488159</t>
   </si>
   <si>
     <t xml:space="preserve">0.446653872728348</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408605515956879</t>
+    <t xml:space="preserve">0.408605545759201</t>
   </si>
   <si>
     <t xml:space="preserve">0.401988476514816</t>
@@ -1160,7 +1160,7 @@
     <t xml:space="preserve">0.388754278421402</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378828644752502</t>
+    <t xml:space="preserve">0.378828674554825</t>
   </si>
   <si>
     <t xml:space="preserve">0.373865813016891</t>
@@ -1169,10 +1169,10 @@
     <t xml:space="preserve">0.406951308250427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395371377468109</t>
+    <t xml:space="preserve">0.395371347665787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.403642743825912</t>
+    <t xml:space="preserve">0.403642773628235</t>
   </si>
   <si>
     <t xml:space="preserve">0.393717110157013</t>
@@ -1187,7 +1187,7 @@
     <t xml:space="preserve">0.330854713916779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349051713943481</t>
+    <t xml:space="preserve">0.349051743745804</t>
   </si>
   <si>
     <t xml:space="preserve">0.350705951452255</t>
@@ -1199,16 +1199,16 @@
     <t xml:space="preserve">0.358977347612381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362285882234573</t>
+    <t xml:space="preserve">0.362285852432251</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363940179347992</t>
+    <t xml:space="preserve">0.36394014954567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370557308197021</t>
+    <t xml:space="preserve">0.370557278394699</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360631614923477</t>
+    <t xml:space="preserve">0.3606316447258</t>
   </si>
   <si>
     <t xml:space="preserve">0.339126080274582</t>
@@ -1217,7 +1217,7 @@
     <t xml:space="preserve">0.337471812963486</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332509011030197</t>
+    <t xml:space="preserve">0.332508981227875</t>
   </si>
   <si>
     <t xml:space="preserve">0.344088912010193</t>
@@ -1232,13 +1232,13 @@
     <t xml:space="preserve">0.353581219911575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34491503238678</t>
+    <t xml:space="preserve">0.344915002584457</t>
   </si>
   <si>
     <t xml:space="preserve">0.350114732980728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363980650901794</t>
+    <t xml:space="preserve">0.363980680704117</t>
   </si>
   <si>
     <t xml:space="preserve">0.36571392416954</t>
@@ -1247,28 +1247,28 @@
     <t xml:space="preserve">0.351847946643829</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355314433574677</t>
+    <t xml:space="preserve">0.355314463376999</t>
   </si>
   <si>
     <t xml:space="preserve">0.343181759119034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332782357931137</t>
+    <t xml:space="preserve">0.332782328128815</t>
   </si>
   <si>
     <t xml:space="preserve">0.320649653673172</t>
   </si>
   <si>
-    <t xml:space="preserve">0.331049054861069</t>
+    <t xml:space="preserve">0.331049084663391</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346648275852203</t>
+    <t xml:space="preserve">0.346648246049881</t>
   </si>
   <si>
     <t xml:space="preserve">0.329315841197968</t>
   </si>
   <si>
-    <t xml:space="preserve">0.327582567930222</t>
+    <t xml:space="preserve">0.327582597732544</t>
   </si>
   <si>
     <t xml:space="preserve">0.318916380405426</t>
@@ -1280,7 +1280,7 @@
     <t xml:space="preserve">0.315449893474579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.306783676147461</t>
+    <t xml:space="preserve">0.306783705949783</t>
   </si>
   <si>
     <t xml:space="preserve">0.303317189216614</t>
@@ -1298,7 +1298,7 @@
     <t xml:space="preserve">0.298117488622665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.311983466148376</t>
+    <t xml:space="preserve">0.311983436346054</t>
   </si>
   <si>
     <t xml:space="preserve">0.313716650009155</t>
@@ -1316,7 +1316,7 @@
     <t xml:space="preserve">0.317183136940002</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379579812288284</t>
+    <t xml:space="preserve">0.379579782485962</t>
   </si>
   <si>
     <t xml:space="preserve">0.370913624763489</t>
@@ -1334,7 +1334,7 @@
     <t xml:space="preserve">0.369180381298065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.386512815952301</t>
+    <t xml:space="preserve">0.386512786149979</t>
   </si>
   <si>
     <t xml:space="preserve">0.323986053466797</t>
@@ -1346,13 +1346,13 @@
     <t xml:space="preserve">0.318367809057236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312749534845352</t>
+    <t xml:space="preserve">0.312749564647675</t>
   </si>
   <si>
     <t xml:space="preserve">0.314622312784195</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32960432767868</t>
+    <t xml:space="preserve">0.329604297876358</t>
   </si>
   <si>
     <t xml:space="preserve">0.327731549739838</t>
@@ -1373,13 +1373,13 @@
     <t xml:space="preserve">0.299640268087387</t>
   </si>
   <si>
-    <t xml:space="preserve">0.30338579416275</t>
+    <t xml:space="preserve">0.303385764360428</t>
   </si>
   <si>
     <t xml:space="preserve">0.295894801616669</t>
   </si>
   <si>
-    <t xml:space="preserve">0.309004068374634</t>
+    <t xml:space="preserve">0.309004098176956</t>
   </si>
   <si>
     <t xml:space="preserve">0.30151304602623</t>
@@ -1391,7 +1391,7 @@
     <t xml:space="preserve">0.294022053480148</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333349823951721</t>
+    <t xml:space="preserve">0.333349794149399</t>
   </si>
   <si>
     <t xml:space="preserve">0.322113305330276</t>
@@ -1400,19 +1400,19 @@
     <t xml:space="preserve">0.331477075815201</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335222572088242</t>
+    <t xml:space="preserve">0.335222601890564</t>
   </si>
   <si>
     <t xml:space="preserve">0.337095350027084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355822861194611</t>
+    <t xml:space="preserve">0.355822831392288</t>
   </si>
   <si>
     <t xml:space="preserve">0.350204616785049</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338968068361282</t>
+    <t xml:space="preserve">0.338968098163605</t>
   </si>
   <si>
     <t xml:space="preserve">0.344586342573166</t>
@@ -60293,7 +60293,7 @@
     </row>
     <row r="2248">
       <c r="A2248" s="1" t="n">
-        <v>45594.3602662037</v>
+        <v>45594.3333333333</v>
       </c>
       <c r="B2248" t="n">
         <v>4000</v>
@@ -60314,6 +60314,32 @@
         <v>505</v>
       </c>
       <c r="H2248" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2249">
+      <c r="A2249" s="1" t="n">
+        <v>45595.5616319444</v>
+      </c>
+      <c r="B2249" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C2249" t="n">
+        <v>0.349999994039536</v>
+      </c>
+      <c r="D2249" t="n">
+        <v>0.349999994039536</v>
+      </c>
+      <c r="E2249" t="n">
+        <v>0.349999994039536</v>
+      </c>
+      <c r="F2249" t="n">
+        <v>0.349999994039536</v>
+      </c>
+      <c r="G2249" t="s">
+        <v>500</v>
+      </c>
+      <c r="H2249" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/POPR.MI.xlsx
+++ b/data/POPR.MI.xlsx
@@ -47,34 +47,34 @@
     <t xml:space="preserve">0.193741485476494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.189604684710503</t>
+    <t xml:space="preserve">0.189604669809341</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188225716352463</t>
+    <t xml:space="preserve">0.188225731253624</t>
   </si>
   <si>
     <t xml:space="preserve">0.179952070116997</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186157330870628</t>
+    <t xml:space="preserve">0.186157315969467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163404747843742</t>
+    <t xml:space="preserve">0.163404762744904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157199501991272</t>
+    <t xml:space="preserve">0.157199516892433</t>
   </si>
   <si>
     <t xml:space="preserve">0.164301067590714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159267947077751</t>
+    <t xml:space="preserve">0.15926793217659</t>
   </si>
   <si>
     <t xml:space="preserve">0.167541593313217</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168231055140495</t>
+    <t xml:space="preserve">0.168231070041656</t>
   </si>
   <si>
     <t xml:space="preserve">0.165404215455055</t>
@@ -83,10 +83,10 @@
     <t xml:space="preserve">0.160646870732307</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153407394886017</t>
+    <t xml:space="preserve">0.153407409787178</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153062701225281</t>
+    <t xml:space="preserve">0.153062671422958</t>
   </si>
   <si>
     <t xml:space="preserve">0.153476357460022</t>
@@ -98,22 +98,22 @@
     <t xml:space="preserve">0.15237320959568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165748938918114</t>
+    <t xml:space="preserve">0.165748953819275</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186846792697906</t>
+    <t xml:space="preserve">0.186846807599068</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182985752820969</t>
+    <t xml:space="preserve">0.182985737919807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179262593388557</t>
+    <t xml:space="preserve">0.179262578487396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17236790060997</t>
+    <t xml:space="preserve">0.172367885708809</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169609993696213</t>
+    <t xml:space="preserve">0.169610008597374</t>
   </si>
   <si>
     <t xml:space="preserve">0.164094224572182</t>
@@ -122,13 +122,13 @@
     <t xml:space="preserve">0.170782089233398</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176504716277122</t>
+    <t xml:space="preserve">0.176504701375961</t>
   </si>
   <si>
     <t xml:space="preserve">0.174367353320122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194499909877777</t>
+    <t xml:space="preserve">0.194499939680099</t>
   </si>
   <si>
     <t xml:space="preserve">0.194430992007256</t>
@@ -143,25 +143,25 @@
     <t xml:space="preserve">0.206841468811035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.211323037743568</t>
+    <t xml:space="preserve">0.211323022842407</t>
   </si>
   <si>
     <t xml:space="preserve">0.210288822650909</t>
   </si>
   <si>
-    <t xml:space="preserve">0.202015191316605</t>
+    <t xml:space="preserve">0.202015176415443</t>
   </si>
   <si>
     <t xml:space="preserve">0.199257269501686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220630884170532</t>
+    <t xml:space="preserve">0.220630869269371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228904575109482</t>
+    <t xml:space="preserve">0.228904545307159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220561951398849</t>
+    <t xml:space="preserve">0.220561936497688</t>
   </si>
   <si>
     <t xml:space="preserve">0.21580459177494</t>
@@ -173,16 +173,16 @@
     <t xml:space="preserve">0.196499392390251</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199946731328964</t>
+    <t xml:space="preserve">0.199946746230125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186295226216316</t>
+    <t xml:space="preserve">0.186295196413994</t>
   </si>
   <si>
-    <t xml:space="preserve">0.18477837741375</t>
+    <t xml:space="preserve">0.184778347611427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17857314646244</t>
+    <t xml:space="preserve">0.178573131561279</t>
   </si>
   <si>
     <t xml:space="preserve">0.166300535202026</t>
@@ -191,13 +191,13 @@
     <t xml:space="preserve">0.182709932327271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172298952937126</t>
+    <t xml:space="preserve">0.172298938035965</t>
   </si>
   <si>
     <t xml:space="preserve">0.166852101683617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168920516967773</t>
+    <t xml:space="preserve">0.168920531868935</t>
   </si>
   <si>
     <t xml:space="preserve">0.172919481992722</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">0.201325669884682</t>
   </si>
   <si>
-    <t xml:space="preserve">0.19932621717453</t>
+    <t xml:space="preserve">0.199326202273369</t>
   </si>
   <si>
     <t xml:space="preserve">0.183399438858032</t>
@@ -221,19 +221,19 @@
     <t xml:space="preserve">0.175815239548683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161336332559586</t>
+    <t xml:space="preserve">0.161336347460747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166162624955177</t>
+    <t xml:space="preserve">0.1661626547575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162715300917625</t>
+    <t xml:space="preserve">0.162715286016464</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158578440546989</t>
+    <t xml:space="preserve">0.158578455448151</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173746839165688</t>
+    <t xml:space="preserve">0.173746824264526</t>
   </si>
   <si>
     <t xml:space="preserve">0.181193113327026</t>
@@ -248,13 +248,13 @@
     <t xml:space="preserve">0.200291484594345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219941407442093</t>
+    <t xml:space="preserve">0.219941437244415</t>
   </si>
   <si>
-    <t xml:space="preserve">0.212357208132744</t>
+    <t xml:space="preserve">0.212357223033905</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195396214723587</t>
+    <t xml:space="preserve">0.195396229624748</t>
   </si>
   <si>
     <t xml:space="preserve">0.209254592657089</t>
@@ -263,19 +263,19 @@
     <t xml:space="preserve">0.220492988824844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.213736176490784</t>
+    <t xml:space="preserve">0.213736206293106</t>
   </si>
   <si>
     <t xml:space="preserve">0.210357770323753</t>
   </si>
   <si>
-    <t xml:space="preserve">0.219251960515976</t>
+    <t xml:space="preserve">0.219251945614815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.233730852603912</t>
+    <t xml:space="preserve">0.233730837702751</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237798750400543</t>
+    <t xml:space="preserve">0.237798765301704</t>
   </si>
   <si>
     <t xml:space="preserve">0.25510448217392</t>
@@ -284,19 +284,19 @@
     <t xml:space="preserve">0.261309713125229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.275788605213165</t>
+    <t xml:space="preserve">0.275788635015488</t>
   </si>
   <si>
     <t xml:space="preserve">0.293025404214859</t>
   </si>
   <si>
-    <t xml:space="preserve">0.301988542079926</t>
+    <t xml:space="preserve">0.301988512277603</t>
   </si>
   <si>
-    <t xml:space="preserve">0.318535894155502</t>
+    <t xml:space="preserve">0.31853586435318</t>
   </si>
   <si>
-    <t xml:space="preserve">0.327499002218246</t>
+    <t xml:space="preserve">0.327498972415924</t>
   </si>
   <si>
     <t xml:space="preserve">0.282683312892914</t>
@@ -308,13 +308,13 @@
     <t xml:space="preserve">0.274478614330292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.274409681558609</t>
+    <t xml:space="preserve">0.274409651756287</t>
   </si>
   <si>
     <t xml:space="preserve">0.26634281873703</t>
   </si>
   <si>
-    <t xml:space="preserve">0.266825467348099</t>
+    <t xml:space="preserve">0.266825497150421</t>
   </si>
   <si>
     <t xml:space="preserve">0.266963392496109</t>
@@ -326,13 +326,13 @@
     <t xml:space="preserve">0.256483405828476</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230972975492477</t>
+    <t xml:space="preserve">0.230972960591316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226974055171013</t>
+    <t xml:space="preserve">0.22697402536869</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232351899147034</t>
+    <t xml:space="preserve">0.232351928949356</t>
   </si>
   <si>
     <t xml:space="preserve">0.228973492980003</t>
@@ -344,43 +344,43 @@
     <t xml:space="preserve">0.268893897533417</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253173917531967</t>
+    <t xml:space="preserve">0.253173977136612</t>
   </si>
   <si>
-    <t xml:space="preserve">0.249588683247566</t>
+    <t xml:space="preserve">0.24958872795105</t>
   </si>
   <si>
     <t xml:space="preserve">0.258551806211472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.248209789395332</t>
+    <t xml:space="preserve">0.24820975959301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244762390851974</t>
+    <t xml:space="preserve">0.244762375950813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237867683172226</t>
+    <t xml:space="preserve">0.237867668271065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.243935003876686</t>
+    <t xml:space="preserve">0.243935018777847</t>
   </si>
   <si>
     <t xml:space="preserve">0.233799800276756</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220699816942215</t>
+    <t xml:space="preserve">0.220699831843376</t>
   </si>
   <si>
-    <t xml:space="preserve">0.224078238010406</t>
+    <t xml:space="preserve">0.224078252911568</t>
   </si>
   <si>
     <t xml:space="preserve">0.226836115121841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226146668195724</t>
+    <t xml:space="preserve">0.226146653294563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227525621652603</t>
+    <t xml:space="preserve">0.227525636553764</t>
   </si>
   <si>
     <t xml:space="preserve">0.229042440652847</t>
@@ -389,28 +389,28 @@
     <t xml:space="preserve">0.232489794492722</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247520282864571</t>
+    <t xml:space="preserve">0.247520267963409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241177141666412</t>
+    <t xml:space="preserve">0.241177126765251</t>
   </si>
   <si>
-    <t xml:space="preserve">0.242211356759071</t>
+    <t xml:space="preserve">0.24221134185791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.251726031303406</t>
+    <t xml:space="preserve">0.251726090908051</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25710391998291</t>
+    <t xml:space="preserve">0.257103949785233</t>
   </si>
   <si>
     <t xml:space="preserve">0.24627922475338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241314977407455</t>
+    <t xml:space="preserve">0.241314992308617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241039231419563</t>
+    <t xml:space="preserve">0.241039216518402</t>
   </si>
   <si>
     <t xml:space="preserve">0.237936645746231</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">0.253725528717041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238074511289597</t>
+    <t xml:space="preserve">0.238074541091919</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244969218969345</t>
+    <t xml:space="preserve">0.244969248771667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325982093811035</t>
+    <t xml:space="preserve">0.325982123613358</t>
   </si>
   <si>
     <t xml:space="preserve">0.386104047298431</t>
@@ -437,10 +437,10 @@
     <t xml:space="preserve">0.598461270332336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.523308873176575</t>
+    <t xml:space="preserve">0.523308932781219</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479182720184326</t>
+    <t xml:space="preserve">0.479182690382004</t>
   </si>
   <si>
     <t xml:space="preserve">0.462980151176453</t>
@@ -449,13 +449,13 @@
     <t xml:space="preserve">0.434367090463638</t>
   </si>
   <si>
-    <t xml:space="preserve">0.399893462657928</t>
+    <t xml:space="preserve">0.399893492460251</t>
   </si>
   <si>
     <t xml:space="preserve">0.454361736774445</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402996122837067</t>
+    <t xml:space="preserve">0.402996152639389</t>
   </si>
   <si>
     <t xml:space="preserve">0.410235583782196</t>
@@ -464,40 +464,40 @@
     <t xml:space="preserve">0.3798987865448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357490956783295</t>
+    <t xml:space="preserve">0.357490986585617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345425188541412</t>
+    <t xml:space="preserve">0.345425218343735</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358180493116379</t>
+    <t xml:space="preserve">0.358180463314056</t>
   </si>
   <si>
     <t xml:space="preserve">0.366798877716064</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353009432554245</t>
+    <t xml:space="preserve">0.353009402751923</t>
   </si>
   <si>
-    <t xml:space="preserve">0.382656693458557</t>
+    <t xml:space="preserve">0.38265672326088</t>
   </si>
   <si>
     <t xml:space="preserve">0.374383062124252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358525186777115</t>
+    <t xml:space="preserve">0.358525156974792</t>
   </si>
   <si>
     <t xml:space="preserve">0.34921732544899</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352319955825806</t>
+    <t xml:space="preserve">0.352319926023483</t>
   </si>
   <si>
     <t xml:space="preserve">0.365419864654541</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361972570419312</t>
+    <t xml:space="preserve">0.361972540616989</t>
   </si>
   <si>
     <t xml:space="preserve">0.34818309545517</t>
@@ -506,25 +506,25 @@
     <t xml:space="preserve">0.355767279863358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34473580121994</t>
+    <t xml:space="preserve">0.344735771417618</t>
   </si>
   <si>
     <t xml:space="preserve">0.34197786450386</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367143630981445</t>
+    <t xml:space="preserve">0.367143601179123</t>
   </si>
   <si>
     <t xml:space="preserve">0.348872572183609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347493678331375</t>
+    <t xml:space="preserve">0.347493648529053</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36024883389473</t>
+    <t xml:space="preserve">0.360248863697052</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354388356208801</t>
+    <t xml:space="preserve">0.354388386011124</t>
   </si>
   <si>
     <t xml:space="preserve">0.359904140233994</t>
@@ -542,43 +542,43 @@
     <t xml:space="preserve">0.351630479097366</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357146292924881</t>
+    <t xml:space="preserve">0.357146263122559</t>
   </si>
   <si>
     <t xml:space="preserve">0.392998784780502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372314661741257</t>
+    <t xml:space="preserve">0.372314631938934</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373004108667374</t>
+    <t xml:space="preserve">0.373004078865051</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35025155544281</t>
+    <t xml:space="preserve">0.350251525640488</t>
   </si>
   <si>
     <t xml:space="preserve">0.37059098482132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345080524682999</t>
+    <t xml:space="preserve">0.345080465078354</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359559386968613</t>
+    <t xml:space="preserve">0.35955935716629</t>
   </si>
   <si>
-    <t xml:space="preserve">0.427472352981567</t>
+    <t xml:space="preserve">0.427472412586212</t>
   </si>
   <si>
     <t xml:space="preserve">0.405409246683121</t>
   </si>
   <si>
-    <t xml:space="preserve">0.404719769954681</t>
+    <t xml:space="preserve">0.404719799757004</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406098753213882</t>
+    <t xml:space="preserve">0.40609872341156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398859202861786</t>
+    <t xml:space="preserve">0.398859232664108</t>
   </si>
   <si>
     <t xml:space="preserve">0.406788170337677</t>
@@ -587,7 +587,7 @@
     <t xml:space="preserve">0.378519922494888</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383690983057022</t>
+    <t xml:space="preserve">0.3836909532547</t>
   </si>
   <si>
     <t xml:space="preserve">0.388861984014511</t>
@@ -596,10 +596,10 @@
     <t xml:space="preserve">0.402651339769363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.42643815279007</t>
+    <t xml:space="preserve">0.426438212394714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429540783166885</t>
+    <t xml:space="preserve">0.429540812969208</t>
   </si>
   <si>
     <t xml:space="preserve">0.414372354745865</t>
@@ -608,25 +608,25 @@
     <t xml:space="preserve">0.41368293762207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424714416265488</t>
+    <t xml:space="preserve">0.42471444606781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414027601480484</t>
+    <t xml:space="preserve">0.414027631282806</t>
   </si>
   <si>
     <t xml:space="preserve">0.447466999292374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.455051243305206</t>
+    <t xml:space="preserve">0.455051273107529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.430230230093002</t>
+    <t xml:space="preserve">0.430230259895325</t>
   </si>
   <si>
     <t xml:space="preserve">0.413338184356689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424024999141693</t>
+    <t xml:space="preserve">0.424025028944016</t>
   </si>
   <si>
     <t xml:space="preserve">0.517103612422943</t>
@@ -635,49 +635,49 @@
     <t xml:space="preserve">0.481940567493439</t>
   </si>
   <si>
-    <t xml:space="preserve">0.496419578790665</t>
+    <t xml:space="preserve">0.49641951918602</t>
   </si>
   <si>
-    <t xml:space="preserve">0.475735366344452</t>
+    <t xml:space="preserve">0.47573533654213</t>
   </si>
   <si>
     <t xml:space="preserve">0.480561643838882</t>
   </si>
   <si>
-    <t xml:space="preserve">0.489524781703949</t>
+    <t xml:space="preserve">0.489524751901627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.482629954814911</t>
+    <t xml:space="preserve">0.482629984617233</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463324844837189</t>
+    <t xml:space="preserve">0.463324815034866</t>
   </si>
   <si>
     <t xml:space="preserve">0.466082751750946</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461945950984955</t>
+    <t xml:space="preserve">0.461945921182632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.449535489082336</t>
+    <t xml:space="preserve">0.449535459280014</t>
   </si>
   <si>
-    <t xml:space="preserve">0.445398658514023</t>
+    <t xml:space="preserve">0.4453986287117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448156476020813</t>
+    <t xml:space="preserve">0.448156505823135</t>
   </si>
   <si>
     <t xml:space="preserve">0.453672230243683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.441261768341064</t>
+    <t xml:space="preserve">0.441261738538742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474356442689896</t>
+    <t xml:space="preserve">0.474356383085251</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457809150218964</t>
+    <t xml:space="preserve">0.457809090614319</t>
   </si>
   <si>
     <t xml:space="preserve">0.507451057434082</t>
@@ -686,25 +686,25 @@
     <t xml:space="preserve">0.468840658664703</t>
   </si>
   <si>
-    <t xml:space="preserve">0.438503921031952</t>
+    <t xml:space="preserve">0.43850389122963</t>
   </si>
   <si>
-    <t xml:space="preserve">0.459188014268875</t>
+    <t xml:space="preserve">0.459188044071198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464703798294067</t>
+    <t xml:space="preserve">0.464703857898712</t>
   </si>
   <si>
     <t xml:space="preserve">0.450914353132248</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437124907970428</t>
+    <t xml:space="preserve">0.437124937772751</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444019675254822</t>
+    <t xml:space="preserve">0.444019645452499</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41919869184494</t>
+    <t xml:space="preserve">0.419198721647263</t>
   </si>
   <si>
     <t xml:space="preserve">0.420577645301819</t>
@@ -713,7 +713,7 @@
     <t xml:space="preserve">0.426093429327011</t>
   </si>
   <si>
-    <t xml:space="preserve">0.442640721797943</t>
+    <t xml:space="preserve">0.442640751600266</t>
   </si>
   <si>
     <t xml:space="preserve">0.472977489233017</t>
@@ -722,58 +722,58 @@
     <t xml:space="preserve">0.460566997528076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446777582168579</t>
+    <t xml:space="preserve">0.446777552366257</t>
   </si>
   <si>
-    <t xml:space="preserve">0.432988107204437</t>
+    <t xml:space="preserve">0.432988166809082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452293336391449</t>
+    <t xml:space="preserve">0.452293306589127</t>
   </si>
   <si>
-    <t xml:space="preserve">0.439882814884186</t>
+    <t xml:space="preserve">0.439882874488831</t>
   </si>
   <si>
     <t xml:space="preserve">0.456430107355118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397135585546494</t>
+    <t xml:space="preserve">0.397135555744171</t>
   </si>
   <si>
-    <t xml:space="preserve">0.401272475719452</t>
+    <t xml:space="preserve">0.401272416114807</t>
   </si>
   <si>
     <t xml:space="preserve">0.398514539003372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373693585395813</t>
+    <t xml:space="preserve">0.373693615198135</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36128306388855</t>
+    <t xml:space="preserve">0.361283093690872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394377768039703</t>
+    <t xml:space="preserve">0.394377738237381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391619831323624</t>
+    <t xml:space="preserve">0.391619801521301</t>
   </si>
   <si>
     <t xml:space="preserve">0.377830415964127</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369556754827499</t>
+    <t xml:space="preserve">0.369556695222855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370935648679733</t>
+    <t xml:space="preserve">0.370935708284378</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379209369421005</t>
+    <t xml:space="preserve">0.379209339618683</t>
   </si>
   <si>
     <t xml:space="preserve">0.408167153596878</t>
   </si>
   <si>
-    <t xml:space="preserve">0.423335582017899</t>
+    <t xml:space="preserve">0.423335552215576</t>
   </si>
   <si>
     <t xml:space="preserve">0.387482970952988</t>
@@ -788,34 +788,34 @@
     <t xml:space="preserve">0.412303984165192</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409546077251434</t>
+    <t xml:space="preserve">0.409546107053757</t>
   </si>
   <si>
     <t xml:space="preserve">0.421956539154053</t>
   </si>
   <si>
-    <t xml:space="preserve">0.428851306438446</t>
+    <t xml:space="preserve">0.428851276636124</t>
   </si>
   <si>
     <t xml:space="preserve">0.431609183549881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465393304824829</t>
+    <t xml:space="preserve">0.465393334627151</t>
   </si>
   <si>
-    <t xml:space="preserve">0.472287952899933</t>
+    <t xml:space="preserve">0.472288012504578</t>
   </si>
   <si>
-    <t xml:space="preserve">0.492972105741501</t>
+    <t xml:space="preserve">0.492972075939178</t>
   </si>
   <si>
-    <t xml:space="preserve">0.499866813421249</t>
+    <t xml:space="preserve">0.499866783618927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.508923470973969</t>
+    <t xml:space="preserve">0.508923590183258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.486135870218277</t>
+    <t xml:space="preserve">0.486135810613632</t>
   </si>
   <si>
     <t xml:space="preserve">0.470944136381149</t>
@@ -827,22 +827,22 @@
     <t xml:space="preserve">0.467146158218384</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478539973497391</t>
+    <t xml:space="preserve">0.478540003299713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.482337951660156</t>
+    <t xml:space="preserve">0.482337921857834</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474742114543915</t>
+    <t xml:space="preserve">0.47474205493927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.459550261497498</t>
+    <t xml:space="preserve">0.459550321102142</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448156446218491</t>
+    <t xml:space="preserve">0.448156476020813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440560609102249</t>
+    <t xml:space="preserve">0.440560579299927</t>
   </si>
   <si>
     <t xml:space="preserve">0.451954454183578</t>
@@ -857,10 +857,10 @@
     <t xml:space="preserve">0.444358497858047</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463348269462585</t>
+    <t xml:space="preserve">0.463348209857941</t>
   </si>
   <si>
-    <t xml:space="preserve">0.489933758974075</t>
+    <t xml:space="preserve">0.489933788776398</t>
   </si>
   <si>
     <t xml:space="preserve">0.57728636264801</t>
@@ -869,25 +869,25 @@
     <t xml:space="preserve">0.493731737136841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.501327633857727</t>
+    <t xml:space="preserve">0.501327574253082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497529655694962</t>
+    <t xml:space="preserve">0.497529625892639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436762720346451</t>
+    <t xml:space="preserve">0.436762750148773</t>
   </si>
   <si>
-    <t xml:space="preserve">0.432964771986008</t>
+    <t xml:space="preserve">0.432964742183685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417773008346558</t>
+    <t xml:space="preserve">0.41777303814888</t>
   </si>
   <si>
-    <t xml:space="preserve">0.410177171230316</t>
+    <t xml:space="preserve">0.410177141427994</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394985377788544</t>
+    <t xml:space="preserve">0.394985347986221</t>
   </si>
   <si>
     <t xml:space="preserve">0.406379222869873</t>
@@ -896,16 +896,16 @@
     <t xml:space="preserve">0.421570986509323</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402581214904785</t>
+    <t xml:space="preserve">0.402581244707108</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373716920614243</t>
+    <t xml:space="preserve">0.373716950416565</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372197777032852</t>
+    <t xml:space="preserve">0.372197806835175</t>
   </si>
   <si>
-    <t xml:space="preserve">0.387389540672302</t>
+    <t xml:space="preserve">0.38738951086998</t>
   </si>
   <si>
     <t xml:space="preserve">0.379793643951416</t>
@@ -920,13 +920,13 @@
     <t xml:space="preserve">0.3448526263237</t>
   </si>
   <si>
-    <t xml:space="preserve">0.31902664899826</t>
+    <t xml:space="preserve">0.319026678800583</t>
   </si>
   <si>
     <t xml:space="preserve">0.284085661172867</t>
   </si>
   <si>
-    <t xml:space="preserve">0.305354088544846</t>
+    <t xml:space="preserve">0.305354118347168</t>
   </si>
   <si>
     <t xml:space="preserve">0.288643181324005</t>
@@ -941,31 +941,31 @@
     <t xml:space="preserve">0.273451447486877</t>
   </si>
   <si>
-    <t xml:space="preserve">0.267374694347382</t>
+    <t xml:space="preserve">0.267374724149704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312949955463409</t>
+    <t xml:space="preserve">0.312949925661087</t>
   </si>
   <si>
     <t xml:space="preserve">0.314469128847122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.297758221626282</t>
+    <t xml:space="preserve">0.297758191823959</t>
   </si>
   <si>
     <t xml:space="preserve">0.306873261928558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.308392405509949</t>
+    <t xml:space="preserve">0.308392435312271</t>
   </si>
   <si>
     <t xml:space="preserve">0.323584169149399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332699209451675</t>
+    <t xml:space="preserve">0.332699179649353</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338775962591171</t>
+    <t xml:space="preserve">0.338775932788849</t>
   </si>
   <si>
     <t xml:space="preserve">0.370678603649139</t>
@@ -974,19 +974,19 @@
     <t xml:space="preserve">0.357006013393402</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350929319858551</t>
+    <t xml:space="preserve">0.350929379463196</t>
   </si>
   <si>
     <t xml:space="preserve">0.37675529718399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398783326148987</t>
+    <t xml:space="preserve">0.398783296346664</t>
   </si>
   <si>
     <t xml:space="preserve">0.413975059986115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360044360160828</t>
+    <t xml:space="preserve">0.36004438996315</t>
   </si>
   <si>
     <t xml:space="preserve">0.363082706928253</t>
@@ -998,31 +998,31 @@
     <t xml:space="preserve">0.383591562509537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378274470567703</t>
+    <t xml:space="preserve">0.378274440765381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353967696428299</t>
+    <t xml:space="preserve">0.353967636823654</t>
   </si>
   <si>
     <t xml:space="preserve">0.355486840009689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.352448493242264</t>
+    <t xml:space="preserve">0.352448463439941</t>
   </si>
   <si>
     <t xml:space="preserve">0.349410146474838</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335737586021423</t>
+    <t xml:space="preserve">0.335737556219101</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347891002893448</t>
+    <t xml:space="preserve">0.347890973091125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.334218412637711</t>
+    <t xml:space="preserve">0.334218382835388</t>
   </si>
   <si>
-    <t xml:space="preserve">0.326622545719147</t>
+    <t xml:space="preserve">0.326622575521469</t>
   </si>
   <si>
     <t xml:space="preserve">0.311430782079697</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">0.285604804754257</t>
   </si>
   <si>
-    <t xml:space="preserve">0.291681557893753</t>
+    <t xml:space="preserve">0.291681498289108</t>
   </si>
   <si>
     <t xml:space="preserve">0.296239018440247</t>
@@ -1049,37 +1049,37 @@
     <t xml:space="preserve">0.303834915161133</t>
   </si>
   <si>
-    <t xml:space="preserve">0.320545822381973</t>
+    <t xml:space="preserve">0.320545852184296</t>
   </si>
   <si>
-    <t xml:space="preserve">0.325103372335434</t>
+    <t xml:space="preserve">0.325103342533112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.317507475614548</t>
+    <t xml:space="preserve">0.31750750541687</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47146800160408</t>
+    <t xml:space="preserve">0.471467971801758</t>
   </si>
   <si>
     <t xml:space="preserve">0.438382476568222</t>
   </si>
   <si>
-    <t xml:space="preserve">0.425975412130356</t>
+    <t xml:space="preserve">0.425975382328033</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413568407297134</t>
+    <t xml:space="preserve">0.413568377494812</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397025614976883</t>
+    <t xml:space="preserve">0.397025644779205</t>
   </si>
   <si>
     <t xml:space="preserve">0.405297040939331</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398679882287979</t>
+    <t xml:space="preserve">0.398679912090302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417704075574875</t>
+    <t xml:space="preserve">0.417704045772552</t>
   </si>
   <si>
     <t xml:space="preserve">0.41025984287262</t>
@@ -1088,16 +1088,16 @@
     <t xml:space="preserve">0.400334179401398</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383791446685791</t>
+    <t xml:space="preserve">0.383791416883469</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377174377441406</t>
+    <t xml:space="preserve">0.377174347639084</t>
   </si>
   <si>
     <t xml:space="preserve">0.375520080327988</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372211575508118</t>
+    <t xml:space="preserve">0.372211545705795</t>
   </si>
   <si>
     <t xml:space="preserve">0.387099981307983</t>
@@ -1109,16 +1109,16 @@
     <t xml:space="preserve">0.385445713996887</t>
   </si>
   <si>
-    <t xml:space="preserve">0.368902981281281</t>
+    <t xml:space="preserve">0.368903011083603</t>
   </si>
   <si>
-    <t xml:space="preserve">0.367248743772507</t>
+    <t xml:space="preserve">0.367248773574829</t>
   </si>
   <si>
     <t xml:space="preserve">0.382137209177017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479739248752594</t>
+    <t xml:space="preserve">0.479739308357239</t>
   </si>
   <si>
     <t xml:space="preserve">0.450789541006088</t>
@@ -1142,10 +1142,10 @@
     <t xml:space="preserve">0.430111080408096</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421839743852615</t>
+    <t xml:space="preserve">0.421839773654938</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434246778488159</t>
+    <t xml:space="preserve">0.434246808290482</t>
   </si>
   <si>
     <t xml:space="preserve">0.446653872728348</t>
@@ -1157,16 +1157,16 @@
     <t xml:space="preserve">0.401988476514816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.388754278421402</t>
+    <t xml:space="preserve">0.38875424861908</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378828674554825</t>
+    <t xml:space="preserve">0.378828644752502</t>
   </si>
   <si>
     <t xml:space="preserve">0.373865813016891</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406951308250427</t>
+    <t xml:space="preserve">0.406951278448105</t>
   </si>
   <si>
     <t xml:space="preserve">0.395371347665787</t>
@@ -1175,7 +1175,7 @@
     <t xml:space="preserve">0.403642773628235</t>
   </si>
   <si>
-    <t xml:space="preserve">0.393717110157013</t>
+    <t xml:space="preserve">0.393717139959335</t>
   </si>
   <si>
     <t xml:space="preserve">0.347397446632385</t>
@@ -1184,7 +1184,7 @@
     <t xml:space="preserve">0.32920041680336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.330854713916779</t>
+    <t xml:space="preserve">0.330854684114456</t>
   </si>
   <si>
     <t xml:space="preserve">0.349051743745804</t>
@@ -1199,22 +1199,22 @@
     <t xml:space="preserve">0.358977347612381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362285852432251</t>
+    <t xml:space="preserve">0.362285882234573</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36394014954567</t>
+    <t xml:space="preserve">0.363940179347992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.370557278394699</t>
+    <t xml:space="preserve">0.370557308197021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3606316447258</t>
+    <t xml:space="preserve">0.360631614923477</t>
   </si>
   <si>
     <t xml:space="preserve">0.339126080274582</t>
   </si>
   <si>
-    <t xml:space="preserve">0.337471812963486</t>
+    <t xml:space="preserve">0.337471842765808</t>
   </si>
   <si>
     <t xml:space="preserve">0.332508981227875</t>
@@ -1223,7 +1223,7 @@
     <t xml:space="preserve">0.344088912010193</t>
   </si>
   <si>
-    <t xml:space="preserve">0.354014545679092</t>
+    <t xml:space="preserve">0.35401451587677</t>
   </si>
   <si>
     <t xml:space="preserve">0.348381489515305</t>
@@ -60319,7 +60319,7 @@
     </row>
     <row r="2249">
       <c r="A2249" s="1" t="n">
-        <v>45595.5616319444</v>
+        <v>45595.3333333333</v>
       </c>
       <c r="B2249" t="n">
         <v>4000</v>

--- a/data/POPR.MI.xlsx
+++ b/data/POPR.MI.xlsx
@@ -50,13 +50,13 @@
     <t xml:space="preserve">0.189604669809341</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188225731253624</t>
+    <t xml:space="preserve">0.188225716352463</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179952070116997</t>
+    <t xml:space="preserve">0.179952085018158</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186157315969467</t>
+    <t xml:space="preserve">0.186157330870628</t>
   </si>
   <si>
     <t xml:space="preserve">0.163404762744904</t>
@@ -68,13 +68,13 @@
     <t xml:space="preserve">0.164301067590714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15926793217659</t>
+    <t xml:space="preserve">0.159267917275429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167541593313217</t>
+    <t xml:space="preserve">0.167541578412056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168231070041656</t>
+    <t xml:space="preserve">0.168231055140495</t>
   </si>
   <si>
     <t xml:space="preserve">0.165404215455055</t>
@@ -83,13 +83,13 @@
     <t xml:space="preserve">0.160646870732307</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153407409787178</t>
+    <t xml:space="preserve">0.153407424688339</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153062671422958</t>
+    <t xml:space="preserve">0.15306268632412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153476357460022</t>
+    <t xml:space="preserve">0.153476342558861</t>
   </si>
   <si>
     <t xml:space="preserve">0.155820563435555</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">0.165748953819275</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186846807599068</t>
+    <t xml:space="preserve">0.186846792697906</t>
   </si>
   <si>
     <t xml:space="preserve">0.182985737919807</t>
@@ -122,7 +122,7 @@
     <t xml:space="preserve">0.170782089233398</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176504701375961</t>
+    <t xml:space="preserve">0.176504716277122</t>
   </si>
   <si>
     <t xml:space="preserve">0.174367353320122</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">0.194430992007256</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187536269426346</t>
+    <t xml:space="preserve">0.187536254525185</t>
   </si>
   <si>
     <t xml:space="preserve">0.182020485401154</t>
@@ -146,13 +146,13 @@
     <t xml:space="preserve">0.211323022842407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210288822650909</t>
+    <t xml:space="preserve">0.210288837552071</t>
   </si>
   <si>
     <t xml:space="preserve">0.202015176415443</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199257269501686</t>
+    <t xml:space="preserve">0.199257284402847</t>
   </si>
   <si>
     <t xml:space="preserve">0.220630869269371</t>
@@ -161,19 +161,19 @@
     <t xml:space="preserve">0.228904545307159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220561936497688</t>
+    <t xml:space="preserve">0.220561951398849</t>
   </si>
   <si>
     <t xml:space="preserve">0.21580459177494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.213046714663506</t>
+    <t xml:space="preserve">0.213046729564667</t>
   </si>
   <si>
     <t xml:space="preserve">0.196499392390251</t>
   </si>
   <si>
-    <t xml:space="preserve">0.199946746230125</t>
+    <t xml:space="preserve">0.199946761131287</t>
   </si>
   <si>
     <t xml:space="preserve">0.186295196413994</t>
@@ -182,16 +182,16 @@
     <t xml:space="preserve">0.184778347611427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178573131561279</t>
+    <t xml:space="preserve">0.17857314646244</t>
   </si>
   <si>
     <t xml:space="preserve">0.166300535202026</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182709932327271</t>
+    <t xml:space="preserve">0.182709947228432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172298938035965</t>
+    <t xml:space="preserve">0.172298923134804</t>
   </si>
   <si>
     <t xml:space="preserve">0.166852101683617</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">0.175815239548683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161336347460747</t>
+    <t xml:space="preserve">0.161336332559586</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1661626547575</t>
+    <t xml:space="preserve">0.166162639856339</t>
   </si>
   <si>
     <t xml:space="preserve">0.162715286016464</t>
@@ -254,7 +254,7 @@
     <t xml:space="preserve">0.212357223033905</t>
   </si>
   <si>
-    <t xml:space="preserve">0.195396229624748</t>
+    <t xml:space="preserve">0.195396214723587</t>
   </si>
   <si>
     <t xml:space="preserve">0.209254592657089</t>
@@ -263,10 +263,10 @@
     <t xml:space="preserve">0.220492988824844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.213736206293106</t>
+    <t xml:space="preserve">0.213736191391945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.210357770323753</t>
+    <t xml:space="preserve">0.210357755422592</t>
   </si>
   <si>
     <t xml:space="preserve">0.219251945614815</t>
@@ -284,16 +284,16 @@
     <t xml:space="preserve">0.261309713125229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.275788635015488</t>
+    <t xml:space="preserve">0.275788605213165</t>
   </si>
   <si>
-    <t xml:space="preserve">0.293025404214859</t>
+    <t xml:space="preserve">0.293025374412537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.301988512277603</t>
+    <t xml:space="preserve">0.301988542079926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.31853586435318</t>
+    <t xml:space="preserve">0.318535834550858</t>
   </si>
   <si>
     <t xml:space="preserve">0.327498972415924</t>
@@ -302,22 +302,22 @@
     <t xml:space="preserve">0.282683312892914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.285372257232666</t>
+    <t xml:space="preserve">0.285372227430344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.274478614330292</t>
+    <t xml:space="preserve">0.274478584527969</t>
   </si>
   <si>
-    <t xml:space="preserve">0.274409651756287</t>
+    <t xml:space="preserve">0.274409681558609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.26634281873703</t>
+    <t xml:space="preserve">0.266342878341675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.266825497150421</t>
+    <t xml:space="preserve">0.266825467348099</t>
   </si>
   <si>
-    <t xml:space="preserve">0.266963392496109</t>
+    <t xml:space="preserve">0.266963362693787</t>
   </si>
   <si>
     <t xml:space="preserve">0.251657128334045</t>
@@ -326,28 +326,28 @@
     <t xml:space="preserve">0.256483405828476</t>
   </si>
   <si>
-    <t xml:space="preserve">0.230972960591316</t>
+    <t xml:space="preserve">0.230972975492477</t>
   </si>
   <si>
     <t xml:space="preserve">0.22697402536869</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232351928949356</t>
+    <t xml:space="preserve">0.232351914048195</t>
   </si>
   <si>
-    <t xml:space="preserve">0.228973492980003</t>
+    <t xml:space="preserve">0.228973478078842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.260620206594467</t>
+    <t xml:space="preserve">0.260620266199112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.268893897533417</t>
+    <t xml:space="preserve">0.268893867731094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253173977136612</t>
+    <t xml:space="preserve">0.25317394733429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.24958872795105</t>
+    <t xml:space="preserve">0.249588668346405</t>
   </si>
   <si>
     <t xml:space="preserve">0.258551806211472</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">0.244762375950813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.237867668271065</t>
+    <t xml:space="preserve">0.237867698073387</t>
   </si>
   <si>
     <t xml:space="preserve">0.243935018777847</t>
@@ -368,34 +368,34 @@
     <t xml:space="preserve">0.233799800276756</t>
   </si>
   <si>
-    <t xml:space="preserve">0.220699831843376</t>
+    <t xml:space="preserve">0.220699861645699</t>
   </si>
   <si>
-    <t xml:space="preserve">0.224078252911568</t>
+    <t xml:space="preserve">0.224078238010406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226836115121841</t>
+    <t xml:space="preserve">0.226836159825325</t>
   </si>
   <si>
-    <t xml:space="preserve">0.226146653294563</t>
+    <t xml:space="preserve">0.226146668195724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.227525636553764</t>
+    <t xml:space="preserve">0.227525606751442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.229042440652847</t>
+    <t xml:space="preserve">0.229042455554008</t>
   </si>
   <si>
-    <t xml:space="preserve">0.232489794492722</t>
+    <t xml:space="preserve">0.232489809393883</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247520267963409</t>
+    <t xml:space="preserve">0.247520297765732</t>
   </si>
   <si>
     <t xml:space="preserve">0.241177126765251</t>
   </si>
   <si>
-    <t xml:space="preserve">0.24221134185791</t>
+    <t xml:space="preserve">0.242211371660233</t>
   </si>
   <si>
     <t xml:space="preserve">0.251726090908051</t>
@@ -407,22 +407,22 @@
     <t xml:space="preserve">0.24627922475338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241314992308617</t>
+    <t xml:space="preserve">0.241315022110939</t>
   </si>
   <si>
-    <t xml:space="preserve">0.241039216518402</t>
+    <t xml:space="preserve">0.241039246320724</t>
   </si>
   <si>
     <t xml:space="preserve">0.237936645746231</t>
   </si>
   <si>
-    <t xml:space="preserve">0.253725528717041</t>
+    <t xml:space="preserve">0.253725558519363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.238074541091919</t>
+    <t xml:space="preserve">0.238074511289597</t>
   </si>
   <si>
-    <t xml:space="preserve">0.244969248771667</t>
+    <t xml:space="preserve">0.244969218969345</t>
   </si>
   <si>
     <t xml:space="preserve">0.325982123613358</t>
@@ -443,19 +443,19 @@
     <t xml:space="preserve">0.479182690382004</t>
   </si>
   <si>
-    <t xml:space="preserve">0.462980151176453</t>
+    <t xml:space="preserve">0.46298012137413</t>
   </si>
   <si>
     <t xml:space="preserve">0.434367090463638</t>
   </si>
   <si>
-    <t xml:space="preserve">0.399893492460251</t>
+    <t xml:space="preserve">0.399893522262573</t>
   </si>
   <si>
     <t xml:space="preserve">0.454361736774445</t>
   </si>
   <si>
-    <t xml:space="preserve">0.402996152639389</t>
+    <t xml:space="preserve">0.402996093034744</t>
   </si>
   <si>
     <t xml:space="preserve">0.410235583782196</t>
@@ -470,16 +470,16 @@
     <t xml:space="preserve">0.345425218343735</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358180463314056</t>
+    <t xml:space="preserve">0.358180433511734</t>
   </si>
   <si>
     <t xml:space="preserve">0.366798877716064</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353009402751923</t>
+    <t xml:space="preserve">0.353009432554245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38265672326088</t>
+    <t xml:space="preserve">0.382656693458557</t>
   </si>
   <si>
     <t xml:space="preserve">0.374383062124252</t>
@@ -494,13 +494,13 @@
     <t xml:space="preserve">0.352319926023483</t>
   </si>
   <si>
-    <t xml:space="preserve">0.365419864654541</t>
+    <t xml:space="preserve">0.365419894456863</t>
   </si>
   <si>
     <t xml:space="preserve">0.361972540616989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34818309545517</t>
+    <t xml:space="preserve">0.348183125257492</t>
   </si>
   <si>
     <t xml:space="preserve">0.355767279863358</t>
@@ -527,7 +527,7 @@
     <t xml:space="preserve">0.354388386011124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359904140233994</t>
+    <t xml:space="preserve">0.359904170036316</t>
   </si>
   <si>
     <t xml:space="preserve">0.330946326255798</t>
@@ -542,34 +542,34 @@
     <t xml:space="preserve">0.351630479097366</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357146263122559</t>
+    <t xml:space="preserve">0.357146292924881</t>
   </si>
   <si>
     <t xml:space="preserve">0.392998784780502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372314631938934</t>
+    <t xml:space="preserve">0.372314661741257</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373004078865051</t>
+    <t xml:space="preserve">0.373004049062729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350251525640488</t>
+    <t xml:space="preserve">0.350251585245132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37059098482132</t>
+    <t xml:space="preserve">0.370590955018997</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345080465078354</t>
+    <t xml:space="preserve">0.345080524682999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.35955935716629</t>
+    <t xml:space="preserve">0.359559386968613</t>
   </si>
   <si>
-    <t xml:space="preserve">0.427472412586212</t>
+    <t xml:space="preserve">0.42747238278389</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405409246683121</t>
+    <t xml:space="preserve">0.405409276485443</t>
   </si>
   <si>
     <t xml:space="preserve">0.404719799757004</t>
@@ -578,16 +578,16 @@
     <t xml:space="preserve">0.40609872341156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398859232664108</t>
+    <t xml:space="preserve">0.398859262466431</t>
   </si>
   <si>
     <t xml:space="preserve">0.406788170337677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.378519922494888</t>
+    <t xml:space="preserve">0.378519892692566</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3836909532547</t>
+    <t xml:space="preserve">0.383690893650055</t>
   </si>
   <si>
     <t xml:space="preserve">0.388861984014511</t>
@@ -596,13 +596,13 @@
     <t xml:space="preserve">0.402651339769363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.426438212394714</t>
+    <t xml:space="preserve">0.426438182592392</t>
   </si>
   <si>
-    <t xml:space="preserve">0.429540812969208</t>
+    <t xml:space="preserve">0.429540783166885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414372354745865</t>
+    <t xml:space="preserve">0.414372384548187</t>
   </si>
   <si>
     <t xml:space="preserve">0.41368293762207</t>
@@ -611,13 +611,13 @@
     <t xml:space="preserve">0.42471444606781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.414027631282806</t>
+    <t xml:space="preserve">0.414027661085129</t>
   </si>
   <si>
-    <t xml:space="preserve">0.447466999292374</t>
+    <t xml:space="preserve">0.447467029094696</t>
   </si>
   <si>
-    <t xml:space="preserve">0.455051273107529</t>
+    <t xml:space="preserve">0.455051213502884</t>
   </si>
   <si>
     <t xml:space="preserve">0.430230259895325</t>
@@ -626,7 +626,7 @@
     <t xml:space="preserve">0.413338184356689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.424025028944016</t>
+    <t xml:space="preserve">0.424025058746338</t>
   </si>
   <si>
     <t xml:space="preserve">0.517103612422943</t>
@@ -638,49 +638,49 @@
     <t xml:space="preserve">0.49641951918602</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47573533654213</t>
+    <t xml:space="preserve">0.475735396146774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.480561643838882</t>
+    <t xml:space="preserve">0.480561703443527</t>
   </si>
   <si>
     <t xml:space="preserve">0.489524751901627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.482629984617233</t>
+    <t xml:space="preserve">0.482630044221878</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463324815034866</t>
+    <t xml:space="preserve">0.463324844837189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.466082751750946</t>
+    <t xml:space="preserve">0.466082781553268</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461945921182632</t>
+    <t xml:space="preserve">0.461945950984955</t>
   </si>
   <si>
     <t xml:space="preserve">0.449535459280014</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4453986287117</t>
+    <t xml:space="preserve">0.445398658514023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448156505823135</t>
+    <t xml:space="preserve">0.448156476020813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453672230243683</t>
+    <t xml:space="preserve">0.45367231965065</t>
   </si>
   <si>
     <t xml:space="preserve">0.441261738538742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474356383085251</t>
+    <t xml:space="preserve">0.474356442689896</t>
   </si>
   <si>
     <t xml:space="preserve">0.457809090614319</t>
   </si>
   <si>
-    <t xml:space="preserve">0.507451057434082</t>
+    <t xml:space="preserve">0.507451117038727</t>
   </si>
   <si>
     <t xml:space="preserve">0.468840658664703</t>
@@ -689,10 +689,10 @@
     <t xml:space="preserve">0.43850389122963</t>
   </si>
   <si>
-    <t xml:space="preserve">0.459188044071198</t>
+    <t xml:space="preserve">0.45918807387352</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464703857898712</t>
+    <t xml:space="preserve">0.46470382809639</t>
   </si>
   <si>
     <t xml:space="preserve">0.450914353132248</t>
@@ -707,10 +707,10 @@
     <t xml:space="preserve">0.419198721647263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.420577645301819</t>
+    <t xml:space="preserve">0.420577675104141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.426093429327011</t>
+    <t xml:space="preserve">0.426093459129333</t>
   </si>
   <si>
     <t xml:space="preserve">0.442640751600266</t>
@@ -722,13 +722,13 @@
     <t xml:space="preserve">0.460566997528076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446777552366257</t>
+    <t xml:space="preserve">0.446777582168579</t>
   </si>
   <si>
     <t xml:space="preserve">0.432988166809082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452293306589127</t>
+    <t xml:space="preserve">0.452293336391449</t>
   </si>
   <si>
     <t xml:space="preserve">0.439882874488831</t>
@@ -737,25 +737,25 @@
     <t xml:space="preserve">0.456430107355118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397135555744171</t>
+    <t xml:space="preserve">0.397135585546494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.401272416114807</t>
+    <t xml:space="preserve">0.40127244591713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.398514539003372</t>
+    <t xml:space="preserve">0.398514568805695</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373693615198135</t>
+    <t xml:space="preserve">0.373693585395813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.361283093690872</t>
+    <t xml:space="preserve">0.361283123493195</t>
   </si>
   <si>
     <t xml:space="preserve">0.394377738237381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.391619801521301</t>
+    <t xml:space="preserve">0.391619831323624</t>
   </si>
   <si>
     <t xml:space="preserve">0.377830415964127</t>
@@ -782,25 +782,25 @@
     <t xml:space="preserve">0.395756632089615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.415061891078949</t>
+    <t xml:space="preserve">0.415061861276627</t>
   </si>
   <si>
     <t xml:space="preserve">0.412303984165192</t>
   </si>
   <si>
-    <t xml:space="preserve">0.409546107053757</t>
+    <t xml:space="preserve">0.409546077251434</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421956539154053</t>
+    <t xml:space="preserve">0.421956568956375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.428851276636124</t>
+    <t xml:space="preserve">0.428851246833801</t>
   </si>
   <si>
     <t xml:space="preserve">0.431609183549881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465393334627151</t>
+    <t xml:space="preserve">0.465393304824829</t>
   </si>
   <si>
     <t xml:space="preserve">0.472288012504578</t>
@@ -809,10 +809,10 @@
     <t xml:space="preserve">0.492972075939178</t>
   </si>
   <si>
-    <t xml:space="preserve">0.499866783618927</t>
+    <t xml:space="preserve">0.499866843223572</t>
   </si>
   <si>
-    <t xml:space="preserve">0.508923590183258</t>
+    <t xml:space="preserve">0.508923530578613</t>
   </si>
   <si>
     <t xml:space="preserve">0.486135810613632</t>
@@ -824,7 +824,7 @@
     <t xml:space="preserve">0.455752402544022</t>
   </si>
   <si>
-    <t xml:space="preserve">0.467146158218384</t>
+    <t xml:space="preserve">0.467146217823029</t>
   </si>
   <si>
     <t xml:space="preserve">0.478540003299713</t>
@@ -836,16 +836,13 @@
     <t xml:space="preserve">0.47474205493927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.459550321102142</t>
+    <t xml:space="preserve">0.459550350904465</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448156476020813</t>
+    <t xml:space="preserve">0.440560609102249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440560579299927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.451954454183578</t>
+    <t xml:space="preserve">0.451954394578934</t>
   </si>
   <si>
     <t xml:space="preserve">0.425368875265121</t>
@@ -854,115 +851,118 @@
     <t xml:space="preserve">0.429166793823242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.444358497858047</t>
+    <t xml:space="preserve">0.44435852766037</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463348209857941</t>
+    <t xml:space="preserve">0.463348239660263</t>
   </si>
   <si>
     <t xml:space="preserve">0.489933788776398</t>
   </si>
   <si>
-    <t xml:space="preserve">0.57728636264801</t>
+    <t xml:space="preserve">0.577286303043365</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493731737136841</t>
+    <t xml:space="preserve">0.493731677532196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.501327574253082</t>
+    <t xml:space="preserve">0.501327633857727</t>
   </si>
   <si>
     <t xml:space="preserve">0.497529625892639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436762750148773</t>
+    <t xml:space="preserve">0.436762720346451</t>
   </si>
   <si>
     <t xml:space="preserve">0.432964742183685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.41777303814888</t>
+    <t xml:space="preserve">0.417773008346558</t>
   </si>
   <si>
     <t xml:space="preserve">0.410177141427994</t>
   </si>
   <si>
-    <t xml:space="preserve">0.394985347986221</t>
+    <t xml:space="preserve">0.394985377788544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406379222869873</t>
+    <t xml:space="preserve">0.406379193067551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.421570986509323</t>
+    <t xml:space="preserve">0.421570956707001</t>
   </si>
   <si>
     <t xml:space="preserve">0.402581244707108</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373716950416565</t>
+    <t xml:space="preserve">0.373716980218887</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372197806835175</t>
+    <t xml:space="preserve">0.37219774723053</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38738951086998</t>
+    <t xml:space="preserve">0.387389481067657</t>
   </si>
   <si>
     <t xml:space="preserve">0.379793643951416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.364601850509644</t>
+    <t xml:space="preserve">0.364601880311966</t>
   </si>
   <si>
     <t xml:space="preserve">0.341814279556274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3448526263237</t>
+    <t xml:space="preserve">0.344852596521378</t>
   </si>
   <si>
-    <t xml:space="preserve">0.319026678800583</t>
+    <t xml:space="preserve">0.31902664899826</t>
   </si>
   <si>
     <t xml:space="preserve">0.284085661172867</t>
   </si>
   <si>
-    <t xml:space="preserve">0.305354118347168</t>
+    <t xml:space="preserve">0.305354088544846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.288643181324005</t>
+    <t xml:space="preserve">0.288643151521683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.299277395009995</t>
+    <t xml:space="preserve">0.299277365207672</t>
   </si>
   <si>
     <t xml:space="preserve">0.28712397813797</t>
   </si>
   <si>
+    <t xml:space="preserve">0.268893897533417</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.273451447486877</t>
   </si>
   <si>
-    <t xml:space="preserve">0.267374724149704</t>
+    <t xml:space="preserve">0.267374694347382</t>
   </si>
   <si>
-    <t xml:space="preserve">0.312949925661087</t>
+    <t xml:space="preserve">0.312949955463409</t>
   </si>
   <si>
     <t xml:space="preserve">0.314469128847122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.297758191823959</t>
+    <t xml:space="preserve">0.297758221626282</t>
   </si>
   <si>
     <t xml:space="preserve">0.306873261928558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.308392435312271</t>
+    <t xml:space="preserve">0.308392405509949</t>
   </si>
   <si>
     <t xml:space="preserve">0.323584169149399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.332699179649353</t>
+    <t xml:space="preserve">0.332699209451675</t>
   </si>
   <si>
     <t xml:space="preserve">0.338775932788849</t>
@@ -971,10 +971,10 @@
     <t xml:space="preserve">0.370678603649139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357006013393402</t>
+    <t xml:space="preserve">0.357006043195724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350929379463196</t>
+    <t xml:space="preserve">0.350929349660873</t>
   </si>
   <si>
     <t xml:space="preserve">0.37675529718399</t>
@@ -983,13 +983,13 @@
     <t xml:space="preserve">0.398783296346664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.413975059986115</t>
+    <t xml:space="preserve">0.413975089788437</t>
   </si>
   <si>
     <t xml:space="preserve">0.36004438996315</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363082706928253</t>
+    <t xml:space="preserve">0.363082736730576</t>
   </si>
   <si>
     <t xml:space="preserve">0.369159430265427</t>
@@ -1001,7 +1001,7 @@
     <t xml:space="preserve">0.378274440765381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353967636823654</t>
+    <t xml:space="preserve">0.353967666625977</t>
   </si>
   <si>
     <t xml:space="preserve">0.355486840009689</t>
@@ -1013,16 +1013,16 @@
     <t xml:space="preserve">0.349410146474838</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335737556219101</t>
+    <t xml:space="preserve">0.335737586021423</t>
   </si>
   <si>
     <t xml:space="preserve">0.347890973091125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.334218382835388</t>
+    <t xml:space="preserve">0.334218412637711</t>
   </si>
   <si>
-    <t xml:space="preserve">0.326622575521469</t>
+    <t xml:space="preserve">0.326622545719147</t>
   </si>
   <si>
     <t xml:space="preserve">0.311430782079697</t>
@@ -1043,19 +1043,19 @@
     <t xml:space="preserve">0.291681498289108</t>
   </si>
   <si>
-    <t xml:space="preserve">0.296239018440247</t>
+    <t xml:space="preserve">0.296239048242569</t>
   </si>
   <si>
     <t xml:space="preserve">0.303834915161133</t>
   </si>
   <si>
-    <t xml:space="preserve">0.320545852184296</t>
+    <t xml:space="preserve">0.320545822381973</t>
   </si>
   <si>
     <t xml:space="preserve">0.325103342533112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.31750750541687</t>
+    <t xml:space="preserve">0.317507535219193</t>
   </si>
   <si>
     <t xml:space="preserve">0.471467971801758</t>
@@ -1070,10 +1070,10 @@
     <t xml:space="preserve">0.413568377494812</t>
   </si>
   <si>
-    <t xml:space="preserve">0.397025644779205</t>
+    <t xml:space="preserve">0.397025674581528</t>
   </si>
   <si>
-    <t xml:space="preserve">0.405297040939331</t>
+    <t xml:space="preserve">0.405297011137009</t>
   </si>
   <si>
     <t xml:space="preserve">0.398679912090302</t>
@@ -1085,13 +1085,13 @@
     <t xml:space="preserve">0.41025984287262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.400334179401398</t>
+    <t xml:space="preserve">0.40033420920372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.383791416883469</t>
+    <t xml:space="preserve">0.383791446685791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.377174347639084</t>
+    <t xml:space="preserve">0.377174377441406</t>
   </si>
   <si>
     <t xml:space="preserve">0.375520080327988</t>
@@ -1106,7 +1106,7 @@
     <t xml:space="preserve">0.380482912063599</t>
   </si>
   <si>
-    <t xml:space="preserve">0.385445713996887</t>
+    <t xml:space="preserve">0.38544574379921</t>
   </si>
   <si>
     <t xml:space="preserve">0.368903011083603</t>
@@ -1118,10 +1118,10 @@
     <t xml:space="preserve">0.382137209177017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479739308357239</t>
+    <t xml:space="preserve">0.479739338159561</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450789541006088</t>
+    <t xml:space="preserve">0.450789570808411</t>
   </si>
   <si>
     <t xml:space="preserve">0.496282130479813</t>
@@ -1130,10 +1130,10 @@
     <t xml:space="preserve">0.48801064491272</t>
   </si>
   <si>
-    <t xml:space="preserve">0.483874917030334</t>
+    <t xml:space="preserve">0.483874976634979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.454925239086151</t>
+    <t xml:space="preserve">0.454925209283829</t>
   </si>
   <si>
     <t xml:space="preserve">0.442518204450607</t>
@@ -1145,40 +1145,40 @@
     <t xml:space="preserve">0.421839773654938</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434246808290482</t>
+    <t xml:space="preserve">0.434246778488159</t>
   </si>
   <si>
     <t xml:space="preserve">0.446653872728348</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408605545759201</t>
+    <t xml:space="preserve">0.408605575561523</t>
   </si>
   <si>
     <t xml:space="preserve">0.401988476514816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.38875424861908</t>
+    <t xml:space="preserve">0.388754278421402</t>
   </si>
   <si>
     <t xml:space="preserve">0.378828644752502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373865813016891</t>
+    <t xml:space="preserve">0.373865842819214</t>
   </si>
   <si>
-    <t xml:space="preserve">0.406951278448105</t>
+    <t xml:space="preserve">0.406951308250427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.395371347665787</t>
+    <t xml:space="preserve">0.395371377468109</t>
   </si>
   <si>
     <t xml:space="preserve">0.403642773628235</t>
   </si>
   <si>
-    <t xml:space="preserve">0.393717139959335</t>
+    <t xml:space="preserve">0.393717110157013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.347397446632385</t>
+    <t xml:space="preserve">0.347397416830063</t>
   </si>
   <si>
     <t xml:space="preserve">0.32920041680336</t>
@@ -1187,19 +1187,19 @@
     <t xml:space="preserve">0.330854684114456</t>
   </si>
   <si>
-    <t xml:space="preserve">0.349051743745804</t>
+    <t xml:space="preserve">0.349051713943481</t>
   </si>
   <si>
     <t xml:space="preserve">0.350705951452255</t>
   </si>
   <si>
-    <t xml:space="preserve">0.355668842792511</t>
+    <t xml:space="preserve">0.355668812990189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.358977347612381</t>
+    <t xml:space="preserve">0.358977317810059</t>
   </si>
   <si>
-    <t xml:space="preserve">0.362285882234573</t>
+    <t xml:space="preserve">0.362285912036896</t>
   </si>
   <si>
     <t xml:space="preserve">0.363940179347992</t>
@@ -1208,28 +1208,28 @@
     <t xml:space="preserve">0.370557308197021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360631614923477</t>
+    <t xml:space="preserve">0.360631585121155</t>
   </si>
   <si>
     <t xml:space="preserve">0.339126080274582</t>
   </si>
   <si>
-    <t xml:space="preserve">0.337471842765808</t>
+    <t xml:space="preserve">0.337471812963486</t>
   </si>
   <si>
     <t xml:space="preserve">0.332508981227875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344088912010193</t>
+    <t xml:space="preserve">0.34408888220787</t>
   </si>
   <si>
     <t xml:space="preserve">0.35401451587677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.348381489515305</t>
+    <t xml:space="preserve">0.348381459712982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.353581219911575</t>
+    <t xml:space="preserve">0.353581190109253</t>
   </si>
   <si>
     <t xml:space="preserve">0.344915002584457</t>
@@ -1238,10 +1238,10 @@
     <t xml:space="preserve">0.350114732980728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.363980680704117</t>
+    <t xml:space="preserve">0.363980650901794</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36571392416954</t>
+    <t xml:space="preserve">0.365713894367218</t>
   </si>
   <si>
     <t xml:space="preserve">0.351847946643829</t>
@@ -1265,7 +1265,7 @@
     <t xml:space="preserve">0.346648246049881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.329315841197968</t>
+    <t xml:space="preserve">0.329315811395645</t>
   </si>
   <si>
     <t xml:space="preserve">0.327582597732544</t>
@@ -1289,13 +1289,13 @@
     <t xml:space="preserve">0.30505046248436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.296384274959564</t>
+    <t xml:space="preserve">0.296384245157242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.308516979217529</t>
+    <t xml:space="preserve">0.308516949415207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.298117488622665</t>
+    <t xml:space="preserve">0.298117518424988</t>
   </si>
   <si>
     <t xml:space="preserve">0.311983436346054</t>
@@ -1316,13 +1316,13 @@
     <t xml:space="preserve">0.317183136940002</t>
   </si>
   <si>
-    <t xml:space="preserve">0.379579782485962</t>
+    <t xml:space="preserve">0.379579812288284</t>
   </si>
   <si>
     <t xml:space="preserve">0.370913624763489</t>
   </si>
   <si>
-    <t xml:space="preserve">0.372646898031235</t>
+    <t xml:space="preserve">0.372646868228912</t>
   </si>
   <si>
     <t xml:space="preserve">0.374380111694336</t>
@@ -1349,7 +1349,7 @@
     <t xml:space="preserve">0.312749564647675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.314622312784195</t>
+    <t xml:space="preserve">0.314622282981873</t>
   </si>
   <si>
     <t xml:space="preserve">0.329604297876358</t>
@@ -1361,19 +1361,19 @@
     <t xml:space="preserve">0.310876786708832</t>
   </si>
   <si>
-    <t xml:space="preserve">0.305258542299271</t>
+    <t xml:space="preserve">0.305258572101593</t>
   </si>
   <si>
-    <t xml:space="preserve">0.316495060920715</t>
+    <t xml:space="preserve">0.316495090723038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.307131320238113</t>
+    <t xml:space="preserve">0.307131290435791</t>
   </si>
   <si>
     <t xml:space="preserve">0.299640268087387</t>
   </si>
   <si>
-    <t xml:space="preserve">0.303385764360428</t>
+    <t xml:space="preserve">0.30338579416275</t>
   </si>
   <si>
     <t xml:space="preserve">0.295894801616669</t>
@@ -1382,16 +1382,16 @@
     <t xml:space="preserve">0.309004098176956</t>
   </si>
   <si>
-    <t xml:space="preserve">0.30151304602623</t>
+    <t xml:space="preserve">0.301513075828552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.297767519950867</t>
+    <t xml:space="preserve">0.297767549753189</t>
   </si>
   <si>
     <t xml:space="preserve">0.294022053480148</t>
   </si>
   <si>
-    <t xml:space="preserve">0.333349794149399</t>
+    <t xml:space="preserve">0.333349823951721</t>
   </si>
   <si>
     <t xml:space="preserve">0.322113305330276</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">0.331477075815201</t>
   </si>
   <si>
-    <t xml:space="preserve">0.335222601890564</t>
+    <t xml:space="preserve">0.335222572088242</t>
   </si>
   <si>
     <t xml:space="preserve">0.337095350027084</t>
@@ -1409,16 +1409,16 @@
     <t xml:space="preserve">0.355822831392288</t>
   </si>
   <si>
-    <t xml:space="preserve">0.350204616785049</t>
+    <t xml:space="preserve">0.350204586982727</t>
   </si>
   <si>
-    <t xml:space="preserve">0.338968098163605</t>
+    <t xml:space="preserve">0.338968068361282</t>
   </si>
   <si>
     <t xml:space="preserve">0.344586342573166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.342713594436646</t>
+    <t xml:space="preserve">0.342713564634323</t>
   </si>
   <si>
     <t xml:space="preserve">0.340840816497803</t>
@@ -25939,7 +25939,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G926" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -25965,7 +25965,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G927" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -25991,7 +25991,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G928" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -26017,7 +26017,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G929" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -26043,7 +26043,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G930" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -26069,7 +26069,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G931" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -26095,7 +26095,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G932" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -26121,7 +26121,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G933" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -26147,7 +26147,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G934" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -26173,7 +26173,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G935" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -26199,7 +26199,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G936" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -26225,7 +26225,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G937" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -26251,7 +26251,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G938" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -26277,7 +26277,7 @@
         <v>0.564999997615814</v>
       </c>
       <c r="G939" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -26303,7 +26303,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G940" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -26329,7 +26329,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G941" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -26381,7 +26381,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G943" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -26407,7 +26407,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G944" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -26433,7 +26433,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G945" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -26459,7 +26459,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G946" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -26485,7 +26485,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G947" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -26511,7 +26511,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G948" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -26537,7 +26537,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G949" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -26563,7 +26563,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G950" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -26589,7 +26589,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G951" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -26615,7 +26615,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G952" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -26641,7 +26641,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G953" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -26667,7 +26667,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G954" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -26693,7 +26693,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G955" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -26719,7 +26719,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G956" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -26745,7 +26745,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G957" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -26771,7 +26771,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G958" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -26797,7 +26797,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G959" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -26823,7 +26823,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G960" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -26849,7 +26849,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G961" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -26927,7 +26927,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G964" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -27005,7 +27005,7 @@
         <v>0.644999980926514</v>
       </c>
       <c r="G967" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -27031,7 +27031,7 @@
         <v>0.759999990463257</v>
       </c>
       <c r="G968" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -27083,7 +27083,7 @@
         <v>0.649999976158142</v>
       </c>
       <c r="G970" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -27109,7 +27109,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G971" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -27135,7 +27135,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G972" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -27161,7 +27161,7 @@
         <v>0.654999971389771</v>
       </c>
       <c r="G973" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -27317,7 +27317,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G979" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -27343,7 +27343,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G980" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -27369,7 +27369,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G981" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -27447,7 +27447,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G984" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -27473,7 +27473,7 @@
         <v>0.660000026226044</v>
       </c>
       <c r="G985" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -27889,7 +27889,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1001" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -27915,7 +27915,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1002" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -27941,7 +27941,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1003" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -27967,7 +27967,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1004" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -27993,7 +27993,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1005" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -28019,7 +28019,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1006" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -28045,7 +28045,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1007" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -28071,7 +28071,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1008" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -28097,7 +28097,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1009" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -28149,7 +28149,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1011" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -28175,7 +28175,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1012" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -28201,7 +28201,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1013" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -28227,7 +28227,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1014" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -28253,7 +28253,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1015" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -28279,7 +28279,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1016" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -28305,7 +28305,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1017" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -28331,7 +28331,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1018" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -28357,7 +28357,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1019" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -28383,7 +28383,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1020" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -28409,7 +28409,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1021" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -28487,7 +28487,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1024" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -28513,7 +28513,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1025" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -28539,7 +28539,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1026" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -28565,7 +28565,7 @@
         <v>0.579999983310699</v>
       </c>
       <c r="G1027" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -28591,7 +28591,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1028" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -28617,7 +28617,7 @@
         <v>0.564999997615814</v>
       </c>
       <c r="G1029" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -28643,7 +28643,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1030" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -28669,7 +28669,7 @@
         <v>0.550000011920929</v>
       </c>
       <c r="G1031" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -28695,7 +28695,7 @@
         <v>0.550000011920929</v>
       </c>
       <c r="G1032" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -28721,7 +28721,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1033" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -28747,7 +28747,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1034" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -28773,7 +28773,7 @@
         <v>0.610000014305115</v>
       </c>
       <c r="G1035" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -28799,7 +28799,7 @@
         <v>0.569999992847443</v>
       </c>
       <c r="G1036" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -28825,7 +28825,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1037" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -28851,7 +28851,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1038" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -28877,7 +28877,7 @@
         <v>0.560000002384186</v>
       </c>
       <c r="G1039" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -28903,7 +28903,7 @@
         <v>0.555000007152557</v>
       </c>
       <c r="G1040" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -28929,7 +28929,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1041" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -28955,7 +28955,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1042" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -28981,7 +28981,7 @@
         <v>0.574999988079071</v>
       </c>
       <c r="G1043" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -29007,7 +29007,7 @@
         <v>0.584999978542328</v>
       </c>
       <c r="G1044" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -29111,7 +29111,7 @@
         <v>0.595000028610229</v>
       </c>
       <c r="G1048" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -29163,7 +29163,7 @@
         <v>0.589999973773956</v>
       </c>
       <c r="G1050" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -29241,7 +29241,7 @@
         <v>0.529999971389771</v>
       </c>
       <c r="G1053" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -29267,7 +29267,7 @@
         <v>0.535000026226044</v>
       </c>
       <c r="G1054" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -29293,7 +29293,7 @@
         <v>0.540000021457672</v>
       </c>
       <c r="G1055" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -29319,7 +29319,7 @@
         <v>0.519999980926514</v>
       </c>
       <c r="G1056" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -29345,7 +29345,7 @@
         <v>0.492000013589859</v>
       </c>
       <c r="G1057" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -29371,7 +29371,7 @@
         <v>0.490000009536743</v>
       </c>
       <c r="G1058" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -29397,7 +29397,7 @@
         <v>0.509999990463257</v>
       </c>
       <c r="G1059" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -29423,7 +29423,7 @@
         <v>0.5</v>
       </c>
       <c r="G1060" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -29449,7 +29449,7 @@
         <v>0.479999989271164</v>
       </c>
       <c r="G1061" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -29475,7 +29475,7 @@
         <v>0.5</v>
       </c>
       <c r="G1062" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -29501,7 +29501,7 @@
         <v>0.449999988079071</v>
       </c>
       <c r="G1063" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -29527,7 +29527,7 @@
         <v>0.453999996185303</v>
       </c>
       <c r="G1064" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -29553,7 +29553,7 @@
         <v>0.419999986886978</v>
       </c>
       <c r="G1065" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -29579,7 +29579,7 @@
         <v>0.374000012874603</v>
       </c>
       <c r="G1066" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
 